--- a/docs/Keyboard Designs.xlsx
+++ b/docs/Keyboard Designs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="327">
   <si>
     <t>A</t>
   </si>
@@ -997,6 +997,9 @@
   <si>
     <t>MAGNIFY
 ON/OFF</t>
+  </si>
+  <si>
+    <t>REPEAT LAST</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1471,110 +1474,152 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1585,203 +1630,179 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2104,38 +2125,38 @@
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="38" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="38" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="38" t="s">
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="38" t="s">
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="32" t="s">
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="V3" s="33"/>
+      <c r="V3" s="13"/>
       <c r="Z3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
@@ -2153,36 +2174,36 @@
     </row>
     <row r="4" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="32" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="41" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="34" t="s">
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="T4" s="35"/>
-      <c r="U4" s="36" t="s">
+      <c r="T4" s="15"/>
+      <c r="U4" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="V4" s="37"/>
+      <c r="V4" s="17"/>
       <c r="Z4" s="4"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
@@ -2199,46 +2220,46 @@
       <c r="AQ4" s="7"/>
     </row>
     <row r="5" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14" t="s">
+      <c r="H5" s="43"/>
+      <c r="I5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="14" t="s">
+      <c r="J5" s="43"/>
+      <c r="K5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="14" t="s">
+      <c r="L5" s="43"/>
+      <c r="M5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="14" t="s">
+      <c r="N5" s="43"/>
+      <c r="O5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="14" t="s">
+      <c r="P5" s="43"/>
+      <c r="Q5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="15"/>
-      <c r="S5" s="14" t="s">
+      <c r="R5" s="43"/>
+      <c r="S5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="15"/>
-      <c r="U5" s="10" t="s">
+      <c r="T5" s="43"/>
+      <c r="U5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="11"/>
+      <c r="V5" s="45"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Z5" s="7"/>
@@ -2261,46 +2282,46 @@
     </row>
     <row r="6" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="12" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="35"/>
+      <c r="F6" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="10" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="10" t="s">
+      <c r="I6" s="35"/>
+      <c r="J6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="10" t="s">
+      <c r="K6" s="35"/>
+      <c r="L6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="10" t="s">
+      <c r="M6" s="35"/>
+      <c r="N6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="10" t="s">
+      <c r="O6" s="35"/>
+      <c r="P6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="10" t="s">
+      <c r="Q6" s="35"/>
+      <c r="R6" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="13"/>
-      <c r="T6" s="10" t="s">
+      <c r="S6" s="35"/>
+      <c r="T6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="13"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
       <c r="X6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
@@ -2320,46 +2341,46 @@
     </row>
     <row r="7" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="16" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16" t="s">
+      <c r="I7" s="26"/>
+      <c r="J7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16" t="s">
+      <c r="K7" s="26"/>
+      <c r="L7" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16" t="s">
+      <c r="M7" s="26"/>
+      <c r="N7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16" t="s">
+      <c r="O7" s="26"/>
+      <c r="P7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="17" t="s">
+      <c r="Q7" s="26"/>
+      <c r="R7" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="S7" s="17"/>
-      <c r="T7" s="19" t="s">
+      <c r="S7" s="44"/>
+      <c r="T7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="20"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
       <c r="X7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -2377,38 +2398,38 @@
     </row>
     <row r="8" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="10" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="29" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="29" t="s">
+      <c r="I8" s="40"/>
+      <c r="J8" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="29" t="s">
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="30"/>
-      <c r="P8" s="21" t="s">
+      <c r="O8" s="40"/>
+      <c r="P8" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="19" t="s">
+      <c r="Q8" s="30"/>
+      <c r="R8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="20"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="28"/>
       <c r="X8" s="7"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
@@ -2458,17 +2479,29 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="G4:R4"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="S5:T5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="T7:U7"/>
@@ -2485,29 +2518,17 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="G4:R4"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2519,7 +2540,7 @@
   <dimension ref="A2:AW174"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="X97" sqref="X97"/>
+      <selection activeCell="AB97" sqref="AB97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2535,50 +2556,50 @@
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="38" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="38" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="38" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="38" t="s">
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="38" t="s">
+      <c r="N3" s="19"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="38" t="s">
+      <c r="Q3" s="19"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="T3" s="39"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="32" t="s">
+      <c r="T3" s="19"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="W3" s="33"/>
-      <c r="Z3" s="104" t="s">
+      <c r="W3" s="13"/>
+      <c r="Z3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="106"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="58"/>
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
@@ -2595,44 +2616,44 @@
     </row>
     <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="94" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="59" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="41" t="s">
+      <c r="E4" s="97"/>
+      <c r="F4" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="62" t="s">
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="U4" s="63"/>
-      <c r="V4" s="64" t="s">
+      <c r="U4" s="84"/>
+      <c r="V4" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="W4" s="65"/>
-      <c r="Z4" s="107" t="s">
+      <c r="W4" s="86"/>
+      <c r="Z4" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="108"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="49"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
@@ -2648,54 +2669,54 @@
       <c r="AT4" s="5"/>
     </row>
     <row r="5" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14" t="s">
+      <c r="H5" s="43"/>
+      <c r="I5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="14" t="s">
+      <c r="J5" s="43"/>
+      <c r="K5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="14" t="s">
+      <c r="L5" s="43"/>
+      <c r="M5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="14" t="s">
+      <c r="N5" s="43"/>
+      <c r="O5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="14" t="s">
+      <c r="P5" s="43"/>
+      <c r="Q5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="15"/>
-      <c r="S5" s="14" t="s">
+      <c r="R5" s="43"/>
+      <c r="S5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="15"/>
-      <c r="U5" s="14" t="s">
+      <c r="T5" s="43"/>
+      <c r="U5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="15"/>
+      <c r="V5" s="43"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
-      <c r="Z5" s="109" t="s">
+      <c r="Z5" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="110"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="52"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
@@ -2715,56 +2736,56 @@
     </row>
     <row r="6" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="109"/>
+      <c r="D6" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
+      <c r="G6" s="26"/>
+      <c r="H6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16" t="s">
+      <c r="I6" s="26"/>
+      <c r="J6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16" t="s">
+      <c r="K6" s="26"/>
+      <c r="L6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16" t="s">
+      <c r="M6" s="26"/>
+      <c r="N6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16" t="s">
+      <c r="O6" s="26"/>
+      <c r="P6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16" t="s">
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16" t="s">
+      <c r="S6" s="26"/>
+      <c r="T6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="16"/>
-      <c r="V6" s="29" t="s">
+      <c r="U6" s="26"/>
+      <c r="V6" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="W6" s="30"/>
-      <c r="Z6" s="111" t="s">
+      <c r="W6" s="40"/>
+      <c r="Z6" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="AA6" s="112"/>
-      <c r="AB6" s="112"/>
-      <c r="AC6" s="113"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="55"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
@@ -2784,50 +2805,50 @@
     </row>
     <row r="7" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16" t="s">
+      <c r="I7" s="26"/>
+      <c r="J7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16" t="s">
+      <c r="K7" s="26"/>
+      <c r="L7" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16" t="s">
+      <c r="M7" s="26"/>
+      <c r="N7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16" t="s">
+      <c r="O7" s="26"/>
+      <c r="P7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="17" t="s">
+      <c r="Q7" s="26"/>
+      <c r="R7" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="S7" s="17"/>
-      <c r="T7" s="19" t="s">
+      <c r="S7" s="44"/>
+      <c r="T7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="20"/>
-      <c r="V7" s="19" t="s">
+      <c r="U7" s="28"/>
+      <c r="V7" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="W7" s="20"/>
+      <c r="W7" s="28"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="8"/>
       <c r="AH7" s="5"/>
@@ -2846,46 +2867,46 @@
     </row>
     <row r="8" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58" t="s">
+      <c r="C8" s="99"/>
+      <c r="D8" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58" t="s">
+      <c r="E8" s="99"/>
+      <c r="F8" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="29" t="s">
+      <c r="G8" s="99"/>
+      <c r="H8" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="29" t="s">
+      <c r="I8" s="40"/>
+      <c r="J8" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="29" t="s">
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="30"/>
-      <c r="P8" s="21" t="s">
+      <c r="O8" s="40"/>
+      <c r="P8" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="19" t="s">
+      <c r="Q8" s="30"/>
+      <c r="R8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="19" t="s">
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="W8" s="20"/>
+      <c r="W8" s="28"/>
       <c r="X8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="8"/>
@@ -2945,44 +2966,44 @@
     </row>
     <row r="11" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="38" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="38" t="s">
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="38" t="s">
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="38" t="s">
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="38" t="s">
+      <c r="N11" s="19"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="38" t="s">
+      <c r="Q11" s="19"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="T11" s="39"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="32" t="s">
+      <c r="T11" s="19"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="W11" s="33"/>
+      <c r="W11" s="13"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="8"/>
       <c r="AH11" s="5"/>
@@ -3003,38 +3024,38 @@
     </row>
     <row r="12" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="94" t="s">
         <v>206</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="59" t="s">
+      <c r="C12" s="95"/>
+      <c r="D12" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="41" t="s">
+      <c r="E12" s="97"/>
+      <c r="F12" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="62" t="s">
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="U12" s="63"/>
-      <c r="V12" s="64" t="s">
+      <c r="U12" s="84"/>
+      <c r="V12" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="W12" s="65"/>
+      <c r="W12" s="86"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="8"/>
       <c r="AH12" s="5"/>
@@ -3054,50 +3075,50 @@
       <c r="AV12" s="5"/>
     </row>
     <row r="13" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="81">
+      <c r="B13" s="90">
         <v>1</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="81">
+      <c r="C13" s="91"/>
+      <c r="D13" s="90">
         <v>2</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="14">
+      <c r="E13" s="91"/>
+      <c r="F13" s="42">
         <v>3</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="83">
+      <c r="G13" s="43"/>
+      <c r="H13" s="92">
         <v>4</v>
       </c>
-      <c r="I13" s="84"/>
-      <c r="J13" s="14">
+      <c r="I13" s="93"/>
+      <c r="J13" s="42">
         <v>5</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="14">
+      <c r="K13" s="43"/>
+      <c r="L13" s="42">
         <v>6</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="14">
+      <c r="M13" s="43"/>
+      <c r="N13" s="42">
         <v>7</v>
       </c>
-      <c r="O13" s="15"/>
-      <c r="P13" s="14">
+      <c r="O13" s="43"/>
+      <c r="P13" s="42">
         <v>8</v>
       </c>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="14">
+      <c r="Q13" s="43"/>
+      <c r="R13" s="42">
         <v>9</v>
       </c>
-      <c r="S13" s="15"/>
-      <c r="T13" s="14">
+      <c r="S13" s="43"/>
+      <c r="T13" s="42">
         <v>0</v>
       </c>
-      <c r="U13" s="15"/>
-      <c r="V13" s="16" t="s">
+      <c r="U13" s="43"/>
+      <c r="V13" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="W13" s="16"/>
+      <c r="W13" s="26"/>
       <c r="X13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="8"/>
@@ -3120,50 +3141,50 @@
     </row>
     <row r="14" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="74" t="s">
+      <c r="C14" s="107"/>
+      <c r="D14" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="75"/>
-      <c r="F14" s="70" t="s">
+      <c r="E14" s="107"/>
+      <c r="F14" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="70"/>
-      <c r="H14" s="76" t="s">
+      <c r="G14" s="101"/>
+      <c r="H14" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70" t="s">
+      <c r="I14" s="101"/>
+      <c r="J14" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70" t="s">
+      <c r="K14" s="101"/>
+      <c r="L14" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="70"/>
-      <c r="N14" s="71" t="s">
+      <c r="M14" s="101"/>
+      <c r="N14" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="O14" s="72"/>
-      <c r="P14" s="71" t="s">
+      <c r="O14" s="104"/>
+      <c r="P14" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="71" t="s">
+      <c r="Q14" s="104"/>
+      <c r="R14" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="S14" s="72"/>
-      <c r="T14" s="71" t="s">
+      <c r="S14" s="104"/>
+      <c r="T14" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="U14" s="72"/>
-      <c r="V14" s="73" t="s">
+      <c r="U14" s="104"/>
+      <c r="V14" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="W14" s="73"/>
+      <c r="W14" s="105"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AH14" s="5"/>
@@ -3185,50 +3206,50 @@
     </row>
     <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16" t="s">
+      <c r="E15" s="26"/>
+      <c r="F15" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16" t="s">
+      <c r="G15" s="26"/>
+      <c r="H15" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="69" t="s">
+      <c r="I15" s="26"/>
+      <c r="J15" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="69" t="s">
+      <c r="K15" s="26"/>
+      <c r="L15" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="16"/>
-      <c r="N15" s="69" t="s">
+      <c r="M15" s="26"/>
+      <c r="N15" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16" t="s">
+      <c r="O15" s="26"/>
+      <c r="P15" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="17" t="s">
+      <c r="Q15" s="26"/>
+      <c r="R15" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17" t="s">
+      <c r="S15" s="44"/>
+      <c r="T15" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17" t="s">
+      <c r="U15" s="44"/>
+      <c r="V15" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="W15" s="17"/>
+      <c r="W15" s="44"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
@@ -3255,46 +3276,46 @@
     </row>
     <row r="16" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58" t="s">
+      <c r="C16" s="99"/>
+      <c r="D16" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58" t="s">
+      <c r="E16" s="99"/>
+      <c r="F16" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="58"/>
-      <c r="H16" s="52" t="s">
+      <c r="G16" s="99"/>
+      <c r="H16" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="29" t="s">
+      <c r="I16" s="100"/>
+      <c r="J16" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="29" t="s">
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="30"/>
-      <c r="P16" s="57" t="s">
+      <c r="O16" s="40"/>
+      <c r="P16" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="19" t="s">
+      <c r="Q16" s="88"/>
+      <c r="R16" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="19" t="s">
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="W16" s="20"/>
+      <c r="W16" s="28"/>
       <c r="X16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="8"/>
@@ -3361,44 +3382,44 @@
     </row>
     <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="38" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="38" t="s">
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="38" t="s">
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="K19" s="39"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="38" t="s">
+      <c r="K19" s="19"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="N19" s="39"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="38" t="s">
+      <c r="N19" s="19"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="38" t="s">
+      <c r="Q19" s="19"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="T19" s="39"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="32" t="s">
+      <c r="T19" s="19"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="W19" s="33"/>
+      <c r="W19" s="13"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="8"/>
@@ -3426,38 +3447,38 @@
     </row>
     <row r="20" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="94" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="59" t="s">
+      <c r="C20" s="95"/>
+      <c r="D20" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="41" t="s">
+      <c r="E20" s="97"/>
+      <c r="F20" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="62" t="s">
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="U20" s="63"/>
-      <c r="V20" s="64" t="s">
+      <c r="U20" s="84"/>
+      <c r="V20" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="W20" s="65"/>
+      <c r="W20" s="86"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="8"/>
@@ -3484,50 +3505,50 @@
       <c r="AV20" s="5"/>
     </row>
     <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="35"/>
+      <c r="D21" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="10" t="s">
+      <c r="E21" s="35"/>
+      <c r="F21" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="66" t="s">
+      <c r="G21" s="35"/>
+      <c r="H21" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="67"/>
-      <c r="J21" s="10" t="s">
+      <c r="I21" s="82"/>
+      <c r="J21" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="66" t="s">
+      <c r="K21" s="35"/>
+      <c r="L21" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="M21" s="67"/>
-      <c r="N21" s="10" t="s">
+      <c r="M21" s="82"/>
+      <c r="N21" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="O21" s="13"/>
-      <c r="P21" s="10" t="s">
+      <c r="O21" s="35"/>
+      <c r="P21" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="10" t="s">
+      <c r="Q21" s="35"/>
+      <c r="R21" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="S21" s="13"/>
-      <c r="T21" s="10" t="s">
+      <c r="S21" s="35"/>
+      <c r="T21" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="U21" s="13"/>
-      <c r="V21" s="16" t="s">
+      <c r="U21" s="35"/>
+      <c r="V21" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="W21" s="16"/>
+      <c r="W21" s="26"/>
       <c r="X21" s="5"/>
       <c r="AT21" s="5"/>
       <c r="AU21" s="5"/>
@@ -3536,50 +3557,50 @@
     </row>
     <row r="22" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16" t="s">
+      <c r="C22" s="26"/>
+      <c r="D22" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16" t="s">
+      <c r="E22" s="26"/>
+      <c r="F22" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16" t="s">
+      <c r="G22" s="26"/>
+      <c r="H22" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16" t="s">
+      <c r="I22" s="26"/>
+      <c r="J22" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16" t="s">
+      <c r="K22" s="26"/>
+      <c r="L22" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="M22" s="16"/>
-      <c r="N22" s="56" t="s">
+      <c r="M22" s="26"/>
+      <c r="N22" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="O22" s="56"/>
-      <c r="P22" s="16" t="s">
+      <c r="O22" s="102"/>
+      <c r="P22" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16" t="s">
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16" t="s">
+      <c r="S22" s="26"/>
+      <c r="T22" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="U22" s="16"/>
-      <c r="V22" s="52" t="s">
+      <c r="U22" s="26"/>
+      <c r="V22" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="W22" s="52"/>
+      <c r="W22" s="100"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
@@ -3600,50 +3621,50 @@
     </row>
     <row r="23" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16" t="s">
+      <c r="C23" s="26"/>
+      <c r="D23" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="10" t="s">
+      <c r="E23" s="26"/>
+      <c r="F23" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="10" t="s">
+      <c r="G23" s="35"/>
+      <c r="H23" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="16" t="s">
+      <c r="I23" s="35"/>
+      <c r="J23" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16" t="s">
+      <c r="K23" s="26"/>
+      <c r="L23" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16" t="s">
+      <c r="M23" s="26"/>
+      <c r="N23" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16" t="s">
+      <c r="O23" s="26"/>
+      <c r="P23" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="17" t="s">
+      <c r="Q23" s="26"/>
+      <c r="R23" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17" t="s">
+      <c r="S23" s="44"/>
+      <c r="T23" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17" t="s">
+      <c r="U23" s="44"/>
+      <c r="V23" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="W23" s="17"/>
+      <c r="W23" s="44"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="8"/>
@@ -3667,46 +3688,46 @@
     </row>
     <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58" t="s">
+      <c r="C24" s="99"/>
+      <c r="D24" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58" t="s">
+      <c r="E24" s="99"/>
+      <c r="F24" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="58"/>
-      <c r="H24" s="56" t="s">
+      <c r="G24" s="99"/>
+      <c r="H24" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="I24" s="56"/>
-      <c r="J24" s="29" t="s">
+      <c r="I24" s="102"/>
+      <c r="J24" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="56" t="s">
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="102" t="s">
         <v>133</v>
       </c>
-      <c r="O24" s="56"/>
-      <c r="P24" s="16" t="s">
+      <c r="O24" s="102"/>
+      <c r="P24" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="19" t="s">
+      <c r="Q24" s="26"/>
+      <c r="R24" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="19" t="s">
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="W24" s="20"/>
+      <c r="W24" s="28"/>
       <c r="X24" s="5"/>
       <c r="AE24" s="8"/>
       <c r="AF24" s="8"/>
@@ -3770,44 +3791,44 @@
     </row>
     <row r="27" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="38" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="38" t="s">
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="38" t="s">
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="K27" s="39"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="38" t="s">
+      <c r="K27" s="19"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="N27" s="39"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="38" t="s">
+      <c r="N27" s="19"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="38" t="s">
+      <c r="Q27" s="19"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="T27" s="39"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="32" t="s">
+      <c r="T27" s="19"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="W27" s="33"/>
+      <c r="W27" s="13"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="8"/>
@@ -3835,38 +3856,38 @@
     </row>
     <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="94" t="s">
         <v>206</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="59" t="s">
+      <c r="C28" s="95"/>
+      <c r="D28" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="60"/>
-      <c r="F28" s="41" t="s">
+      <c r="E28" s="97"/>
+      <c r="F28" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="62" t="s">
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="U28" s="63"/>
-      <c r="V28" s="64" t="s">
+      <c r="U28" s="84"/>
+      <c r="V28" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="W28" s="65"/>
+      <c r="W28" s="86"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="8"/>
@@ -3893,50 +3914,50 @@
       <c r="AV28" s="6"/>
     </row>
     <row r="29" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="14" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="14" t="s">
+      <c r="E29" s="43"/>
+      <c r="F29" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="53" t="s">
+      <c r="G29" s="43"/>
+      <c r="H29" s="110" t="s">
         <v>146</v>
       </c>
-      <c r="I29" s="54"/>
-      <c r="J29" s="14" t="s">
+      <c r="I29" s="111"/>
+      <c r="J29" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="K29" s="15"/>
-      <c r="L29" s="53" t="s">
+      <c r="K29" s="43"/>
+      <c r="L29" s="110" t="s">
         <v>148</v>
       </c>
-      <c r="M29" s="54"/>
-      <c r="N29" s="14" t="s">
+      <c r="M29" s="111"/>
+      <c r="N29" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="O29" s="15"/>
-      <c r="P29" s="14" t="s">
+      <c r="O29" s="43"/>
+      <c r="P29" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="14" t="s">
+      <c r="Q29" s="43"/>
+      <c r="R29" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="S29" s="15"/>
-      <c r="T29" s="14" t="s">
+      <c r="S29" s="43"/>
+      <c r="T29" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="U29" s="15"/>
-      <c r="V29" s="14" t="s">
+      <c r="U29" s="43"/>
+      <c r="V29" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="W29" s="15"/>
+      <c r="W29" s="43"/>
       <c r="X29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
@@ -3945,50 +3966,50 @@
     </row>
     <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="10" t="s">
+      <c r="C30" s="35"/>
+      <c r="D30" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="10" t="s">
+      <c r="E30" s="35"/>
+      <c r="F30" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="66" t="s">
+      <c r="G30" s="35"/>
+      <c r="H30" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="I30" s="67"/>
-      <c r="J30" s="10" t="s">
+      <c r="I30" s="82"/>
+      <c r="J30" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="66" t="s">
+      <c r="K30" s="35"/>
+      <c r="L30" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="M30" s="67"/>
-      <c r="N30" s="10" t="s">
+      <c r="M30" s="82"/>
+      <c r="N30" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="O30" s="13"/>
-      <c r="P30" s="10" t="s">
+      <c r="O30" s="35"/>
+      <c r="P30" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="16" t="s">
+      <c r="Q30" s="35"/>
+      <c r="R30" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16" t="s">
+      <c r="S30" s="26"/>
+      <c r="T30" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="U30" s="16"/>
-      <c r="V30" s="52" t="s">
+      <c r="U30" s="26"/>
+      <c r="V30" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="W30" s="52"/>
+      <c r="W30" s="100"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -4009,50 +4030,50 @@
     </row>
     <row r="31" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16" t="s">
+      <c r="C31" s="26"/>
+      <c r="D31" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16" t="s">
+      <c r="E31" s="26"/>
+      <c r="F31" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16" t="s">
+      <c r="G31" s="26"/>
+      <c r="H31" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16" t="s">
+      <c r="I31" s="26"/>
+      <c r="J31" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="K31" s="16"/>
-      <c r="L31" s="10" t="s">
+      <c r="K31" s="26"/>
+      <c r="L31" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="M31" s="13"/>
-      <c r="N31" s="10" t="s">
+      <c r="M31" s="35"/>
+      <c r="N31" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="O31" s="13"/>
-      <c r="P31" s="10" t="s">
+      <c r="O31" s="35"/>
+      <c r="P31" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="17" t="s">
+      <c r="Q31" s="35"/>
+      <c r="R31" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17" t="s">
+      <c r="S31" s="44"/>
+      <c r="T31" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17" t="s">
+      <c r="U31" s="44"/>
+      <c r="V31" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="W31" s="17"/>
+      <c r="W31" s="44"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="8"/>
@@ -4080,46 +4101,46 @@
     </row>
     <row r="32" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58" t="s">
+      <c r="C32" s="99"/>
+      <c r="D32" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58" t="s">
+      <c r="E32" s="99"/>
+      <c r="F32" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="58"/>
-      <c r="H32" s="56" t="s">
+      <c r="G32" s="99"/>
+      <c r="H32" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="I32" s="56"/>
-      <c r="J32" s="29" t="s">
+      <c r="I32" s="102"/>
+      <c r="J32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="56" t="s">
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56" t="s">
+      <c r="O32" s="102"/>
+      <c r="P32" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="19" t="s">
+      <c r="Q32" s="102"/>
+      <c r="R32" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="19" t="s">
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="W32" s="20"/>
+      <c r="W32" s="28"/>
       <c r="X32" s="6"/>
       <c r="AE32" s="8"/>
       <c r="AF32" s="8"/>
@@ -4183,33 +4204,33 @@
     </row>
     <row r="35" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="87" t="s">
         <v>297</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="57" t="s">
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="87" t="s">
         <v>298</v>
       </c>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="57" t="s">
+      <c r="J35" s="112"/>
+      <c r="K35" s="112"/>
+      <c r="L35" s="112"/>
+      <c r="M35" s="112"/>
+      <c r="N35" s="112"/>
+      <c r="O35" s="112"/>
+      <c r="P35" s="87" t="s">
         <v>299</v>
       </c>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="55"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="55"/>
-      <c r="V35" s="55"/>
+      <c r="Q35" s="112"/>
+      <c r="R35" s="112"/>
+      <c r="S35" s="112"/>
+      <c r="T35" s="112"/>
+      <c r="U35" s="112"/>
+      <c r="V35" s="112"/>
       <c r="X35" s="6"/>
       <c r="Y35" s="6"/>
       <c r="AF35" s="8"/>
@@ -4230,27 +4251,27 @@
     </row>
     <row r="36" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="55"/>
-      <c r="V36" s="55"/>
+      <c r="B36" s="112"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="112"/>
+      <c r="H36" s="112"/>
+      <c r="I36" s="112"/>
+      <c r="J36" s="112"/>
+      <c r="K36" s="112"/>
+      <c r="L36" s="112"/>
+      <c r="M36" s="112"/>
+      <c r="N36" s="112"/>
+      <c r="O36" s="112"/>
+      <c r="P36" s="112"/>
+      <c r="Q36" s="112"/>
+      <c r="R36" s="112"/>
+      <c r="S36" s="112"/>
+      <c r="T36" s="112"/>
+      <c r="U36" s="112"/>
+      <c r="V36" s="112"/>
       <c r="X36" s="6"/>
       <c r="Y36" s="6"/>
       <c r="AF36" s="8"/>
@@ -4271,33 +4292,33 @@
     </row>
     <row r="37" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="112" t="s">
         <v>296</v>
       </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55" t="s">
+      <c r="C37" s="112"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="112"/>
+      <c r="H37" s="112"/>
+      <c r="I37" s="112" t="s">
         <v>301</v>
       </c>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="57" t="s">
+      <c r="J37" s="112"/>
+      <c r="K37" s="112"/>
+      <c r="L37" s="112"/>
+      <c r="M37" s="112"/>
+      <c r="N37" s="112"/>
+      <c r="O37" s="112"/>
+      <c r="P37" s="87" t="s">
         <v>303</v>
       </c>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="55"/>
-      <c r="S37" s="55"/>
-      <c r="T37" s="55"/>
-      <c r="U37" s="55"/>
-      <c r="V37" s="55"/>
+      <c r="Q37" s="112"/>
+      <c r="R37" s="112"/>
+      <c r="S37" s="112"/>
+      <c r="T37" s="112"/>
+      <c r="U37" s="112"/>
+      <c r="V37" s="112"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
@@ -4324,27 +4345,27 @@
     </row>
     <row r="38" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="55"/>
-      <c r="S38" s="55"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="55"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="112"/>
+      <c r="H38" s="112"/>
+      <c r="I38" s="112"/>
+      <c r="J38" s="112"/>
+      <c r="K38" s="112"/>
+      <c r="L38" s="112"/>
+      <c r="M38" s="112"/>
+      <c r="N38" s="112"/>
+      <c r="O38" s="112"/>
+      <c r="P38" s="112"/>
+      <c r="Q38" s="112"/>
+      <c r="R38" s="112"/>
+      <c r="S38" s="112"/>
+      <c r="T38" s="112"/>
+      <c r="U38" s="112"/>
+      <c r="V38" s="112"/>
       <c r="X38" s="6"/>
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
@@ -4410,44 +4431,44 @@
     </row>
     <row r="41" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="38" t="s">
+      <c r="C41" s="13"/>
+      <c r="D41" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="38" t="s">
+      <c r="E41" s="19"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H41" s="39"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="38" t="s">
+      <c r="H41" s="19"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="K41" s="39"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="38" t="s">
+      <c r="K41" s="19"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="N41" s="39"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="38" t="s">
+      <c r="N41" s="19"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="38" t="s">
+      <c r="Q41" s="19"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="T41" s="39"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="32" t="s">
+      <c r="T41" s="19"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="W41" s="33"/>
+      <c r="W41" s="13"/>
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
       <c r="AA41" s="8"/>
@@ -4475,38 +4496,38 @@
     </row>
     <row r="42" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="94" t="s">
         <v>206</v>
       </c>
-      <c r="C42" s="50"/>
-      <c r="D42" s="59" t="s">
+      <c r="C42" s="95"/>
+      <c r="D42" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="60"/>
-      <c r="F42" s="41" t="s">
+      <c r="E42" s="97"/>
+      <c r="F42" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="42"/>
-      <c r="S42" s="61"/>
-      <c r="T42" s="62" t="s">
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="98"/>
+      <c r="T42" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="U42" s="63"/>
-      <c r="V42" s="64" t="s">
+      <c r="U42" s="84"/>
+      <c r="V42" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="W42" s="65"/>
+      <c r="W42" s="86"/>
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
       <c r="AA42" s="8"/>
@@ -4533,50 +4554,50 @@
       <c r="AV42" s="6"/>
     </row>
     <row r="43" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="10" t="s">
+      <c r="C43" s="35"/>
+      <c r="D43" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="10" t="s">
+      <c r="E43" s="35"/>
+      <c r="F43" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="66" t="s">
+      <c r="G43" s="35"/>
+      <c r="H43" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="I43" s="67"/>
-      <c r="J43" s="10" t="s">
+      <c r="I43" s="82"/>
+      <c r="J43" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="K43" s="13"/>
-      <c r="L43" s="66" t="s">
+      <c r="K43" s="35"/>
+      <c r="L43" s="81" t="s">
         <v>175</v>
       </c>
-      <c r="M43" s="67"/>
-      <c r="N43" s="10" t="s">
+      <c r="M43" s="82"/>
+      <c r="N43" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="O43" s="13"/>
-      <c r="P43" s="10" t="s">
+      <c r="O43" s="35"/>
+      <c r="P43" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="10" t="s">
+      <c r="Q43" s="35"/>
+      <c r="R43" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="S43" s="13"/>
-      <c r="T43" s="10" t="s">
+      <c r="S43" s="35"/>
+      <c r="T43" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="U43" s="13"/>
-      <c r="V43" s="16" t="s">
+      <c r="U43" s="35"/>
+      <c r="V43" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="W43" s="16"/>
+      <c r="W43" s="26"/>
       <c r="X43" s="6"/>
       <c r="AT43" s="6"/>
       <c r="AU43" s="6"/>
@@ -4585,50 +4606,50 @@
     </row>
     <row r="44" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16" t="s">
+      <c r="C44" s="26"/>
+      <c r="D44" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16" t="s">
+      <c r="E44" s="26"/>
+      <c r="F44" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16" t="s">
+      <c r="G44" s="26"/>
+      <c r="H44" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16" t="s">
+      <c r="I44" s="26"/>
+      <c r="J44" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16" t="s">
+      <c r="K44" s="26"/>
+      <c r="L44" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="M44" s="16"/>
-      <c r="N44" s="56" t="s">
+      <c r="M44" s="26"/>
+      <c r="N44" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="O44" s="56"/>
-      <c r="P44" s="16" t="s">
+      <c r="O44" s="102"/>
+      <c r="P44" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16" t="s">
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16" t="s">
+      <c r="S44" s="26"/>
+      <c r="T44" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="U44" s="16"/>
-      <c r="V44" s="52" t="s">
+      <c r="U44" s="26"/>
+      <c r="V44" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="W44" s="52"/>
+      <c r="W44" s="100"/>
       <c r="AA44" s="8"/>
       <c r="AB44" s="8"/>
       <c r="AC44" s="8"/>
@@ -4649,50 +4670,50 @@
     </row>
     <row r="45" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16" t="s">
+      <c r="C45" s="26"/>
+      <c r="D45" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16" t="s">
+      <c r="E45" s="26"/>
+      <c r="F45" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16" t="s">
+      <c r="G45" s="26"/>
+      <c r="H45" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16" t="s">
+      <c r="I45" s="26"/>
+      <c r="J45" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16" t="s">
+      <c r="K45" s="26"/>
+      <c r="L45" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16" t="s">
+      <c r="M45" s="26"/>
+      <c r="N45" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16" t="s">
+      <c r="O45" s="26"/>
+      <c r="P45" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="17" t="s">
+      <c r="Q45" s="26"/>
+      <c r="R45" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17" t="s">
+      <c r="S45" s="44"/>
+      <c r="T45" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="U45" s="17"/>
-      <c r="V45" s="17" t="s">
+      <c r="U45" s="44"/>
+      <c r="V45" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="W45" s="17"/>
+      <c r="W45" s="44"/>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
       <c r="AA45" s="8"/>
@@ -4720,46 +4741,46 @@
     </row>
     <row r="46" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58" t="s">
+      <c r="C46" s="99"/>
+      <c r="D46" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58" t="s">
+      <c r="E46" s="99"/>
+      <c r="F46" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="58"/>
-      <c r="H46" s="56" t="s">
+      <c r="G46" s="99"/>
+      <c r="H46" s="102" t="s">
         <v>194</v>
       </c>
-      <c r="I46" s="56"/>
-      <c r="J46" s="29" t="s">
+      <c r="I46" s="102"/>
+      <c r="J46" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="56" t="s">
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="102" t="s">
         <v>195</v>
       </c>
-      <c r="O46" s="56"/>
-      <c r="P46" s="16" t="s">
+      <c r="O46" s="102"/>
+      <c r="P46" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="19" t="s">
+      <c r="Q46" s="26"/>
+      <c r="R46" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="S46" s="27"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="19" t="s">
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="W46" s="20"/>
+      <c r="W46" s="28"/>
       <c r="X46" s="6"/>
       <c r="AE46" s="8"/>
       <c r="AF46" s="8"/>
@@ -4823,44 +4844,44 @@
     </row>
     <row r="49" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="38" t="s">
+      <c r="C49" s="13"/>
+      <c r="D49" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E49" s="39"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="38" t="s">
+      <c r="E49" s="19"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H49" s="39"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="38" t="s">
+      <c r="H49" s="19"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="K49" s="39"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="38" t="s">
+      <c r="K49" s="19"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="N49" s="39"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="38" t="s">
+      <c r="N49" s="19"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="40"/>
-      <c r="S49" s="38" t="s">
+      <c r="Q49" s="19"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="T49" s="39"/>
-      <c r="U49" s="40"/>
-      <c r="V49" s="32" t="s">
+      <c r="T49" s="19"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="W49" s="33"/>
+      <c r="W49" s="13"/>
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
       <c r="AA49" s="8"/>
@@ -4888,38 +4909,38 @@
     </row>
     <row r="50" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="94" t="s">
         <v>206</v>
       </c>
-      <c r="C50" s="50"/>
-      <c r="D50" s="59" t="s">
+      <c r="C50" s="95"/>
+      <c r="D50" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="E50" s="60"/>
-      <c r="F50" s="41" t="s">
+      <c r="E50" s="97"/>
+      <c r="F50" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="42"/>
-      <c r="O50" s="42"/>
-      <c r="P50" s="42"/>
-      <c r="Q50" s="42"/>
-      <c r="R50" s="42"/>
-      <c r="S50" s="61"/>
-      <c r="T50" s="62" t="s">
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="98"/>
+      <c r="T50" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="U50" s="63"/>
-      <c r="V50" s="64" t="s">
+      <c r="U50" s="84"/>
+      <c r="V50" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="W50" s="65"/>
+      <c r="W50" s="86"/>
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="8"/>
@@ -4946,50 +4967,50 @@
       <c r="AV50" s="6"/>
     </row>
     <row r="51" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="110" t="s">
         <v>197</v>
       </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="14" t="s">
+      <c r="C51" s="111"/>
+      <c r="D51" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="E51" s="15"/>
-      <c r="F51" s="53" t="s">
+      <c r="E51" s="43"/>
+      <c r="F51" s="110" t="s">
         <v>199</v>
       </c>
-      <c r="G51" s="54"/>
-      <c r="H51" s="14" t="s">
+      <c r="G51" s="111"/>
+      <c r="H51" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="I51" s="15"/>
-      <c r="J51" s="10" t="s">
+      <c r="I51" s="43"/>
+      <c r="J51" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="K51" s="13"/>
-      <c r="L51" s="10" t="s">
+      <c r="K51" s="35"/>
+      <c r="L51" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="M51" s="13"/>
-      <c r="N51" s="14" t="s">
+      <c r="M51" s="35"/>
+      <c r="N51" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="O51" s="15"/>
-      <c r="P51" s="14" t="s">
+      <c r="O51" s="43"/>
+      <c r="P51" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="14" t="s">
+      <c r="Q51" s="43"/>
+      <c r="R51" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="S51" s="15"/>
-      <c r="T51" s="14" t="s">
+      <c r="S51" s="43"/>
+      <c r="T51" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="U51" s="15"/>
-      <c r="V51" s="16" t="s">
+      <c r="U51" s="43"/>
+      <c r="V51" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="W51" s="16"/>
+      <c r="W51" s="26"/>
       <c r="X51" s="6"/>
       <c r="AT51" s="6"/>
       <c r="AU51" s="6"/>
@@ -4998,30 +5019,30 @@
     </row>
     <row r="52" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="56"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16"/>
-      <c r="U52" s="16"/>
-      <c r="V52" s="52" t="s">
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="102"/>
+      <c r="O52" s="102"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="26"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="26"/>
+      <c r="U52" s="26"/>
+      <c r="V52" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="W52" s="52"/>
+      <c r="W52" s="100"/>
       <c r="AA52" s="8"/>
       <c r="AB52" s="8"/>
       <c r="AC52" s="8"/>
@@ -5042,36 +5063,36 @@
     </row>
     <row r="53" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="17" t="s">
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="S53" s="17"/>
-      <c r="T53" s="17" t="s">
+      <c r="S53" s="44"/>
+      <c r="T53" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="U53" s="17"/>
-      <c r="V53" s="17" t="s">
+      <c r="U53" s="44"/>
+      <c r="V53" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="W53" s="17"/>
+      <c r="W53" s="44"/>
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="8"/>
@@ -5099,40 +5120,40 @@
     </row>
     <row r="54" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58" t="s">
+      <c r="C54" s="99"/>
+      <c r="D54" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58" t="s">
+      <c r="E54" s="99"/>
+      <c r="F54" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="58"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="29" t="s">
+      <c r="G54" s="99"/>
+      <c r="H54" s="102"/>
+      <c r="I54" s="102"/>
+      <c r="J54" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="19" t="s">
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="102"/>
+      <c r="O54" s="102"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="26"/>
+      <c r="R54" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="S54" s="27"/>
-      <c r="T54" s="27"/>
-      <c r="U54" s="27"/>
-      <c r="V54" s="19" t="s">
+      <c r="S54" s="37"/>
+      <c r="T54" s="37"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="W54" s="20"/>
+      <c r="W54" s="28"/>
       <c r="X54" s="6"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="8"/>
@@ -5199,44 +5220,44 @@
     </row>
     <row r="57" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="33"/>
-      <c r="D57" s="38" t="s">
+      <c r="C57" s="13"/>
+      <c r="D57" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="38" t="s">
+      <c r="E57" s="19"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H57" s="39"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="38" t="s">
+      <c r="H57" s="19"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="K57" s="39"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="38" t="s">
+      <c r="K57" s="19"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="N57" s="39"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="38" t="s">
+      <c r="N57" s="19"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="Q57" s="39"/>
-      <c r="R57" s="40"/>
-      <c r="S57" s="38" t="s">
+      <c r="Q57" s="19"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="T57" s="39"/>
-      <c r="U57" s="40"/>
-      <c r="V57" s="32" t="s">
+      <c r="T57" s="19"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="W57" s="33"/>
+      <c r="W57" s="13"/>
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="8"/>
@@ -5264,38 +5285,38 @@
     </row>
     <row r="58" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="B58" s="49" t="s">
+      <c r="B58" s="94" t="s">
         <v>206</v>
       </c>
-      <c r="C58" s="50"/>
-      <c r="D58" s="59" t="s">
+      <c r="C58" s="95"/>
+      <c r="D58" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="E58" s="60"/>
-      <c r="F58" s="41" t="s">
+      <c r="E58" s="97"/>
+      <c r="F58" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="42"/>
-      <c r="O58" s="42"/>
-      <c r="P58" s="42"/>
-      <c r="Q58" s="42"/>
-      <c r="R58" s="42"/>
-      <c r="S58" s="61"/>
-      <c r="T58" s="62" t="s">
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="98"/>
+      <c r="T58" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="U58" s="63"/>
-      <c r="V58" s="64" t="s">
+      <c r="U58" s="84"/>
+      <c r="V58" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="W58" s="65"/>
+      <c r="W58" s="86"/>
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="8"/>
@@ -5322,50 +5343,50 @@
       <c r="AV58" s="6"/>
     </row>
     <row r="59" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="53" t="s">
+      <c r="B59" s="110" t="s">
         <v>207</v>
       </c>
-      <c r="C59" s="54"/>
-      <c r="D59" s="14" t="s">
+      <c r="C59" s="111"/>
+      <c r="D59" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="E59" s="15"/>
-      <c r="F59" s="53" t="s">
+      <c r="E59" s="43"/>
+      <c r="F59" s="110" t="s">
         <v>209</v>
       </c>
-      <c r="G59" s="54"/>
-      <c r="H59" s="14" t="s">
+      <c r="G59" s="111"/>
+      <c r="H59" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="I59" s="15"/>
-      <c r="J59" s="10" t="s">
+      <c r="I59" s="43"/>
+      <c r="J59" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="K59" s="13"/>
-      <c r="L59" s="10" t="s">
+      <c r="K59" s="35"/>
+      <c r="L59" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="M59" s="13"/>
-      <c r="N59" s="14" t="s">
+      <c r="M59" s="35"/>
+      <c r="N59" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="O59" s="15"/>
-      <c r="P59" s="14" t="s">
+      <c r="O59" s="43"/>
+      <c r="P59" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="14" t="s">
+      <c r="Q59" s="43"/>
+      <c r="R59" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="S59" s="15"/>
-      <c r="T59" s="14" t="s">
+      <c r="S59" s="43"/>
+      <c r="T59" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="U59" s="15"/>
-      <c r="V59" s="16" t="s">
+      <c r="U59" s="43"/>
+      <c r="V59" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="W59" s="16"/>
+      <c r="W59" s="26"/>
       <c r="X59" s="6"/>
       <c r="AT59" s="6"/>
       <c r="AU59" s="6"/>
@@ -5374,50 +5395,50 @@
     </row>
     <row r="60" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16" t="s">
+      <c r="C60" s="26"/>
+      <c r="D60" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16" t="s">
+      <c r="E60" s="26"/>
+      <c r="F60" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16" t="s">
+      <c r="G60" s="26"/>
+      <c r="H60" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="I60" s="16"/>
-      <c r="J60" s="10" t="s">
+      <c r="I60" s="26"/>
+      <c r="J60" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="K60" s="13"/>
-      <c r="L60" s="16" t="s">
+      <c r="K60" s="35"/>
+      <c r="L60" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="M60" s="16"/>
-      <c r="N60" s="56" t="s">
+      <c r="M60" s="26"/>
+      <c r="N60" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="O60" s="56"/>
-      <c r="P60" s="16" t="s">
+      <c r="O60" s="102"/>
+      <c r="P60" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16" t="s">
+      <c r="Q60" s="26"/>
+      <c r="R60" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="S60" s="16"/>
-      <c r="T60" s="16" t="s">
+      <c r="S60" s="26"/>
+      <c r="T60" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="U60" s="16"/>
-      <c r="V60" s="52" t="s">
+      <c r="U60" s="26"/>
+      <c r="V60" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="W60" s="52"/>
+      <c r="W60" s="100"/>
       <c r="AA60" s="8"/>
       <c r="AB60" s="8"/>
       <c r="AC60" s="8"/>
@@ -5438,50 +5459,50 @@
     </row>
     <row r="61" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16" t="s">
+      <c r="C61" s="26"/>
+      <c r="D61" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16" t="s">
+      <c r="E61" s="26"/>
+      <c r="F61" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16" t="s">
+      <c r="G61" s="26"/>
+      <c r="H61" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16" t="s">
+      <c r="I61" s="26"/>
+      <c r="J61" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16" t="s">
+      <c r="K61" s="26"/>
+      <c r="L61" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16" t="s">
+      <c r="M61" s="26"/>
+      <c r="N61" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16" t="s">
+      <c r="O61" s="26"/>
+      <c r="P61" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="17" t="s">
+      <c r="Q61" s="26"/>
+      <c r="R61" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="S61" s="17"/>
-      <c r="T61" s="17" t="s">
+      <c r="S61" s="44"/>
+      <c r="T61" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="U61" s="17"/>
-      <c r="V61" s="17" t="s">
+      <c r="U61" s="44"/>
+      <c r="V61" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="W61" s="17"/>
+      <c r="W61" s="44"/>
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
       <c r="AA61" s="8"/>
@@ -5509,46 +5530,46 @@
     </row>
     <row r="62" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="58" t="s">
+      <c r="B62" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58" t="s">
+      <c r="C62" s="99"/>
+      <c r="D62" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58" t="s">
+      <c r="E62" s="99"/>
+      <c r="F62" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="G62" s="58"/>
-      <c r="H62" s="56" t="s">
+      <c r="G62" s="99"/>
+      <c r="H62" s="102" t="s">
         <v>234</v>
       </c>
-      <c r="I62" s="56"/>
-      <c r="J62" s="29" t="s">
+      <c r="I62" s="102"/>
+      <c r="J62" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="56" t="s">
+      <c r="K62" s="41"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="41"/>
+      <c r="N62" s="102" t="s">
         <v>235</v>
       </c>
-      <c r="O62" s="56"/>
-      <c r="P62" s="16" t="s">
+      <c r="O62" s="102"/>
+      <c r="P62" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="19" t="s">
+      <c r="Q62" s="26"/>
+      <c r="R62" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="S62" s="27"/>
-      <c r="T62" s="27"/>
-      <c r="U62" s="27"/>
-      <c r="V62" s="19" t="s">
+      <c r="S62" s="37"/>
+      <c r="T62" s="37"/>
+      <c r="U62" s="37"/>
+      <c r="V62" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="W62" s="20"/>
+      <c r="W62" s="28"/>
       <c r="X62" s="6"/>
       <c r="AE62" s="8"/>
       <c r="AF62" s="8"/>
@@ -5612,44 +5633,44 @@
     </row>
     <row r="65" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="33"/>
-      <c r="D65" s="38" t="s">
+      <c r="C65" s="13"/>
+      <c r="D65" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E65" s="39"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="38" t="s">
+      <c r="E65" s="19"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H65" s="39"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="38" t="s">
+      <c r="H65" s="19"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="K65" s="39"/>
-      <c r="L65" s="40"/>
-      <c r="M65" s="38" t="s">
+      <c r="K65" s="19"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="N65" s="39"/>
-      <c r="O65" s="40"/>
-      <c r="P65" s="38" t="s">
+      <c r="N65" s="19"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="Q65" s="39"/>
-      <c r="R65" s="40"/>
-      <c r="S65" s="38" t="s">
+      <c r="Q65" s="19"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="T65" s="39"/>
-      <c r="U65" s="40"/>
-      <c r="V65" s="32" t="s">
+      <c r="T65" s="19"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="W65" s="33"/>
+      <c r="W65" s="13"/>
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
       <c r="AA65" s="8"/>
@@ -5677,38 +5698,38 @@
     </row>
     <row r="66" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
-      <c r="B66" s="49" t="s">
+      <c r="B66" s="94" t="s">
         <v>206</v>
       </c>
-      <c r="C66" s="50"/>
-      <c r="D66" s="59" t="s">
+      <c r="C66" s="95"/>
+      <c r="D66" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="E66" s="60"/>
-      <c r="F66" s="41" t="s">
+      <c r="E66" s="97"/>
+      <c r="F66" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="G66" s="42"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="42"/>
-      <c r="L66" s="42"/>
-      <c r="M66" s="42"/>
-      <c r="N66" s="42"/>
-      <c r="O66" s="42"/>
-      <c r="P66" s="42"/>
-      <c r="Q66" s="42"/>
-      <c r="R66" s="42"/>
-      <c r="S66" s="61"/>
-      <c r="T66" s="62" t="s">
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="22"/>
+      <c r="R66" s="22"/>
+      <c r="S66" s="98"/>
+      <c r="T66" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="U66" s="63"/>
-      <c r="V66" s="64" t="s">
+      <c r="U66" s="84"/>
+      <c r="V66" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="W66" s="65"/>
+      <c r="W66" s="86"/>
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="8"/>
@@ -5735,50 +5756,50 @@
       <c r="AV66" s="6"/>
     </row>
     <row r="67" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="53" t="s">
+      <c r="B67" s="110" t="s">
         <v>237</v>
       </c>
-      <c r="C67" s="54"/>
-      <c r="D67" s="14" t="s">
+      <c r="C67" s="111"/>
+      <c r="D67" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="E67" s="15"/>
-      <c r="F67" s="53" t="s">
+      <c r="E67" s="43"/>
+      <c r="F67" s="110" t="s">
         <v>239</v>
       </c>
-      <c r="G67" s="54"/>
-      <c r="H67" s="14" t="s">
+      <c r="G67" s="111"/>
+      <c r="H67" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="I67" s="15"/>
-      <c r="J67" s="10" t="s">
+      <c r="I67" s="43"/>
+      <c r="J67" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="K67" s="13"/>
-      <c r="L67" s="10" t="s">
+      <c r="K67" s="35"/>
+      <c r="L67" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="M67" s="13"/>
-      <c r="N67" s="14" t="s">
+      <c r="M67" s="35"/>
+      <c r="N67" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="O67" s="15"/>
-      <c r="P67" s="14" t="s">
+      <c r="O67" s="43"/>
+      <c r="P67" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="14" t="s">
+      <c r="Q67" s="43"/>
+      <c r="R67" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="S67" s="15"/>
-      <c r="T67" s="14" t="s">
+      <c r="S67" s="43"/>
+      <c r="T67" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="U67" s="15"/>
-      <c r="V67" s="16" t="s">
+      <c r="U67" s="43"/>
+      <c r="V67" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="W67" s="16"/>
+      <c r="W67" s="26"/>
       <c r="X67" s="6"/>
       <c r="AT67" s="6"/>
       <c r="AU67" s="6"/>
@@ -5787,50 +5808,50 @@
     </row>
     <row r="68" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16" t="s">
+      <c r="C68" s="26"/>
+      <c r="D68" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16" t="s">
+      <c r="E68" s="26"/>
+      <c r="F68" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16" t="s">
+      <c r="G68" s="26"/>
+      <c r="H68" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="I68" s="16"/>
-      <c r="J68" s="10" t="s">
+      <c r="I68" s="26"/>
+      <c r="J68" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="K68" s="13"/>
-      <c r="L68" s="16" t="s">
+      <c r="K68" s="35"/>
+      <c r="L68" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="M68" s="16"/>
-      <c r="N68" s="56" t="s">
+      <c r="M68" s="26"/>
+      <c r="N68" s="102" t="s">
         <v>253</v>
       </c>
-      <c r="O68" s="56"/>
-      <c r="P68" s="16" t="s">
+      <c r="O68" s="102"/>
+      <c r="P68" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16" t="s">
+      <c r="Q68" s="26"/>
+      <c r="R68" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="S68" s="16"/>
-      <c r="T68" s="16" t="s">
+      <c r="S68" s="26"/>
+      <c r="T68" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="U68" s="16"/>
-      <c r="V68" s="52" t="s">
+      <c r="U68" s="26"/>
+      <c r="V68" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="W68" s="52"/>
+      <c r="W68" s="100"/>
       <c r="AA68" s="8"/>
       <c r="AB68" s="8"/>
       <c r="AC68" s="8"/>
@@ -5851,50 +5872,50 @@
     </row>
     <row r="69" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16" t="s">
+      <c r="C69" s="26"/>
+      <c r="D69" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16" t="s">
+      <c r="E69" s="26"/>
+      <c r="F69" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16" t="s">
+      <c r="G69" s="26"/>
+      <c r="H69" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16" t="s">
+      <c r="I69" s="26"/>
+      <c r="J69" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16" t="s">
+      <c r="K69" s="26"/>
+      <c r="L69" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16" t="s">
+      <c r="M69" s="26"/>
+      <c r="N69" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16" t="s">
+      <c r="O69" s="26"/>
+      <c r="P69" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="17" t="s">
+      <c r="Q69" s="26"/>
+      <c r="R69" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="S69" s="17"/>
-      <c r="T69" s="17" t="s">
+      <c r="S69" s="44"/>
+      <c r="T69" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="U69" s="17"/>
-      <c r="V69" s="17" t="s">
+      <c r="U69" s="44"/>
+      <c r="V69" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="W69" s="17"/>
+      <c r="W69" s="44"/>
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
       <c r="AA69" s="8"/>
@@ -5922,46 +5943,46 @@
     </row>
     <row r="70" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="58"/>
-      <c r="D70" s="58" t="s">
+      <c r="C70" s="99"/>
+      <c r="D70" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58" t="s">
+      <c r="E70" s="99"/>
+      <c r="F70" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="G70" s="58"/>
-      <c r="H70" s="56" t="s">
+      <c r="G70" s="99"/>
+      <c r="H70" s="102" t="s">
         <v>267</v>
       </c>
-      <c r="I70" s="56"/>
-      <c r="J70" s="29" t="s">
+      <c r="I70" s="102"/>
+      <c r="J70" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K70" s="31"/>
-      <c r="L70" s="31"/>
-      <c r="M70" s="31"/>
-      <c r="N70" s="51" t="s">
+      <c r="K70" s="41"/>
+      <c r="L70" s="41"/>
+      <c r="M70" s="41"/>
+      <c r="N70" s="113" t="s">
         <v>268</v>
       </c>
-      <c r="O70" s="51"/>
-      <c r="P70" s="16" t="s">
+      <c r="O70" s="113"/>
+      <c r="P70" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="19" t="s">
+      <c r="Q70" s="26"/>
+      <c r="R70" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="S70" s="27"/>
-      <c r="T70" s="27"/>
-      <c r="U70" s="27"/>
-      <c r="V70" s="19" t="s">
+      <c r="S70" s="37"/>
+      <c r="T70" s="37"/>
+      <c r="U70" s="37"/>
+      <c r="V70" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="W70" s="20"/>
+      <c r="W70" s="28"/>
       <c r="X70" s="6"/>
       <c r="AE70" s="8"/>
       <c r="AF70" s="8"/>
@@ -6025,44 +6046,44 @@
     </row>
     <row r="73" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="38" t="s">
+      <c r="C73" s="13"/>
+      <c r="D73" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E73" s="39"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="38" t="s">
+      <c r="E73" s="19"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H73" s="39"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="38" t="s">
+      <c r="H73" s="19"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="K73" s="39"/>
-      <c r="L73" s="40"/>
-      <c r="M73" s="38" t="s">
+      <c r="K73" s="19"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="N73" s="39"/>
-      <c r="O73" s="40"/>
-      <c r="P73" s="38" t="s">
+      <c r="N73" s="19"/>
+      <c r="O73" s="20"/>
+      <c r="P73" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="Q73" s="39"/>
-      <c r="R73" s="40"/>
-      <c r="S73" s="38" t="s">
+      <c r="Q73" s="19"/>
+      <c r="R73" s="20"/>
+      <c r="S73" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="T73" s="39"/>
-      <c r="U73" s="40"/>
-      <c r="V73" s="32" t="s">
+      <c r="T73" s="19"/>
+      <c r="U73" s="20"/>
+      <c r="V73" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="W73" s="33"/>
+      <c r="W73" s="13"/>
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
       <c r="AA73" s="8"/>
@@ -6090,38 +6111,38 @@
     </row>
     <row r="74" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
-      <c r="B74" s="49" t="s">
+      <c r="B74" s="94" t="s">
         <v>206</v>
       </c>
-      <c r="C74" s="50"/>
-      <c r="D74" s="59" t="s">
+      <c r="C74" s="95"/>
+      <c r="D74" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="E74" s="60"/>
-      <c r="F74" s="41" t="s">
+      <c r="E74" s="97"/>
+      <c r="F74" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="42"/>
-      <c r="L74" s="42"/>
-      <c r="M74" s="42"/>
-      <c r="N74" s="42"/>
-      <c r="O74" s="42"/>
-      <c r="P74" s="42"/>
-      <c r="Q74" s="42"/>
-      <c r="R74" s="42"/>
-      <c r="S74" s="61"/>
-      <c r="T74" s="62" t="s">
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
+      <c r="R74" s="22"/>
+      <c r="S74" s="98"/>
+      <c r="T74" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="U74" s="63"/>
-      <c r="V74" s="64" t="s">
+      <c r="U74" s="84"/>
+      <c r="V74" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="W74" s="65"/>
+      <c r="W74" s="86"/>
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
       <c r="AA74" s="8"/>
@@ -6148,50 +6169,50 @@
       <c r="AV74" s="6"/>
     </row>
     <row r="75" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="53" t="s">
+      <c r="B75" s="110" t="s">
         <v>270</v>
       </c>
-      <c r="C75" s="54"/>
-      <c r="D75" s="14" t="s">
+      <c r="C75" s="111"/>
+      <c r="D75" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="E75" s="15"/>
-      <c r="F75" s="14" t="s">
+      <c r="E75" s="43"/>
+      <c r="F75" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="G75" s="15"/>
-      <c r="H75" s="14" t="s">
+      <c r="G75" s="43"/>
+      <c r="H75" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="I75" s="15"/>
-      <c r="J75" s="14" t="s">
+      <c r="I75" s="43"/>
+      <c r="J75" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="K75" s="15"/>
-      <c r="L75" s="14" t="s">
+      <c r="K75" s="43"/>
+      <c r="L75" s="42" t="s">
         <v>275</v>
       </c>
-      <c r="M75" s="15"/>
-      <c r="N75" s="14" t="s">
+      <c r="M75" s="43"/>
+      <c r="N75" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="O75" s="15"/>
-      <c r="P75" s="14" t="s">
+      <c r="O75" s="43"/>
+      <c r="P75" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="16" t="s">
+      <c r="Q75" s="43"/>
+      <c r="R75" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="S75" s="16"/>
-      <c r="T75" s="16" t="s">
+      <c r="S75" s="26"/>
+      <c r="T75" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="U75" s="16"/>
-      <c r="V75" s="16" t="s">
+      <c r="U75" s="26"/>
+      <c r="V75" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="W75" s="16"/>
+      <c r="W75" s="26"/>
       <c r="X75" s="6"/>
       <c r="AT75" s="6"/>
       <c r="AU75" s="6"/>
@@ -6200,50 +6221,50 @@
     </row>
     <row r="76" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="10" t="s">
+      <c r="C76" s="35"/>
+      <c r="D76" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="E76" s="13"/>
-      <c r="F76" s="10" t="s">
+      <c r="E76" s="35"/>
+      <c r="F76" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="G76" s="13"/>
-      <c r="H76" s="10" t="s">
+      <c r="G76" s="35"/>
+      <c r="H76" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="I76" s="13"/>
-      <c r="J76" s="45" t="s">
+      <c r="I76" s="35"/>
+      <c r="J76" s="59" t="s">
         <v>284</v>
       </c>
-      <c r="K76" s="47"/>
-      <c r="L76" s="10" t="s">
+      <c r="K76" s="61"/>
+      <c r="L76" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="M76" s="13"/>
-      <c r="N76" s="16" t="s">
+      <c r="M76" s="35"/>
+      <c r="N76" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="O76" s="16"/>
-      <c r="P76" s="16" t="s">
+      <c r="O76" s="26"/>
+      <c r="P76" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="Q76" s="16"/>
-      <c r="R76" s="16" t="s">
+      <c r="Q76" s="26"/>
+      <c r="R76" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="S76" s="16"/>
-      <c r="T76" s="16" t="s">
+      <c r="S76" s="26"/>
+      <c r="T76" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="U76" s="16"/>
-      <c r="V76" s="52" t="s">
+      <c r="U76" s="26"/>
+      <c r="V76" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="W76" s="52"/>
+      <c r="W76" s="100"/>
       <c r="AA76" s="8"/>
       <c r="AB76" s="8"/>
       <c r="AC76" s="8"/>
@@ -6264,46 +6285,46 @@
     </row>
     <row r="77" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="16"/>
-      <c r="D77" s="10" t="s">
+      <c r="C77" s="26"/>
+      <c r="D77" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="E77" s="13"/>
-      <c r="F77" s="10" t="s">
+      <c r="E77" s="35"/>
+      <c r="F77" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="G77" s="13"/>
-      <c r="H77" s="10" t="s">
+      <c r="G77" s="35"/>
+      <c r="H77" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="I77" s="13"/>
-      <c r="J77" s="45" t="s">
+      <c r="I77" s="35"/>
+      <c r="J77" s="59" t="s">
         <v>293</v>
       </c>
-      <c r="K77" s="47"/>
-      <c r="L77" s="45" t="s">
+      <c r="K77" s="61"/>
+      <c r="L77" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="M77" s="47"/>
-      <c r="N77" s="16"/>
-      <c r="O77" s="16"/>
-      <c r="P77" s="16"/>
-      <c r="Q77" s="16"/>
-      <c r="R77" s="17" t="s">
+      <c r="M77" s="61"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="26"/>
+      <c r="P77" s="26"/>
+      <c r="Q77" s="26"/>
+      <c r="R77" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="S77" s="17"/>
-      <c r="T77" s="17" t="s">
+      <c r="S77" s="44"/>
+      <c r="T77" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="U77" s="17"/>
-      <c r="V77" s="17" t="s">
+      <c r="U77" s="44"/>
+      <c r="V77" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="W77" s="17"/>
+      <c r="W77" s="44"/>
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
       <c r="AA77" s="8"/>
@@ -6331,40 +6352,40 @@
     </row>
     <row r="78" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="58" t="s">
+      <c r="B78" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="58"/>
-      <c r="D78" s="58" t="s">
+      <c r="C78" s="99"/>
+      <c r="D78" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="E78" s="58"/>
-      <c r="F78" s="58" t="s">
+      <c r="E78" s="99"/>
+      <c r="F78" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="G78" s="58"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="56"/>
-      <c r="J78" s="29" t="s">
+      <c r="G78" s="99"/>
+      <c r="H78" s="102"/>
+      <c r="I78" s="102"/>
+      <c r="J78" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K78" s="31"/>
-      <c r="L78" s="31"/>
-      <c r="M78" s="31"/>
-      <c r="N78" s="51"/>
-      <c r="O78" s="51"/>
-      <c r="P78" s="16"/>
-      <c r="Q78" s="16"/>
-      <c r="R78" s="19" t="s">
+      <c r="K78" s="41"/>
+      <c r="L78" s="41"/>
+      <c r="M78" s="41"/>
+      <c r="N78" s="113"/>
+      <c r="O78" s="113"/>
+      <c r="P78" s="26"/>
+      <c r="Q78" s="26"/>
+      <c r="R78" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="S78" s="27"/>
-      <c r="T78" s="27"/>
-      <c r="U78" s="27"/>
-      <c r="V78" s="19" t="s">
+      <c r="S78" s="37"/>
+      <c r="T78" s="37"/>
+      <c r="U78" s="37"/>
+      <c r="V78" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="W78" s="20"/>
+      <c r="W78" s="28"/>
       <c r="X78" s="6"/>
       <c r="Z78" s="6"/>
       <c r="AA78" s="8"/>
@@ -6430,46 +6451,46 @@
       </c>
     </row>
     <row r="81" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="48" t="s">
+      <c r="C81" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="D81" s="48"/>
-      <c r="E81" s="48" t="s">
+      <c r="D81" s="76"/>
+      <c r="E81" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="F81" s="48"/>
-      <c r="G81" s="48" t="s">
+      <c r="F81" s="76"/>
+      <c r="G81" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="H81" s="48"/>
-      <c r="I81" s="48" t="s">
+      <c r="H81" s="76"/>
+      <c r="I81" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="J81" s="48"/>
-      <c r="K81" s="48" t="s">
+      <c r="J81" s="76"/>
+      <c r="K81" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="L81" s="48"/>
-      <c r="M81" s="48" t="s">
+      <c r="L81" s="76"/>
+      <c r="M81" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="N81" s="48"/>
-      <c r="O81" s="48" t="s">
+      <c r="N81" s="76"/>
+      <c r="O81" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="P81" s="48"/>
-      <c r="Q81" s="48" t="s">
+      <c r="P81" s="76"/>
+      <c r="Q81" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="R81" s="48"/>
-      <c r="S81" s="48" t="s">
+      <c r="R81" s="76"/>
+      <c r="S81" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="T81" s="48"/>
-      <c r="U81" s="48" t="s">
+      <c r="T81" s="76"/>
+      <c r="U81" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="V81" s="48"/>
+      <c r="V81" s="76"/>
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
       <c r="Y81" s="5"/>
@@ -6478,136 +6499,136 @@
     </row>
     <row r="82" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="79" t="s">
+      <c r="B82" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="80"/>
-      <c r="D82" s="79" t="s">
+      <c r="C82" s="79"/>
+      <c r="D82" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="E82" s="80"/>
-      <c r="F82" s="88" t="s">
+      <c r="E82" s="79"/>
+      <c r="F82" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="G82" s="88"/>
-      <c r="H82" s="88" t="s">
+      <c r="G82" s="48"/>
+      <c r="H82" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="I82" s="88"/>
-      <c r="J82" s="77" t="s">
+      <c r="I82" s="48"/>
+      <c r="J82" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="K82" s="78"/>
-      <c r="L82" s="77" t="s">
+      <c r="K82" s="75"/>
+      <c r="L82" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="M82" s="78"/>
-      <c r="N82" s="77" t="s">
+      <c r="M82" s="75"/>
+      <c r="N82" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="O82" s="78"/>
-      <c r="P82" s="79" t="s">
+      <c r="O82" s="75"/>
+      <c r="P82" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="Q82" s="80"/>
-      <c r="R82" s="79" t="s">
+      <c r="Q82" s="79"/>
+      <c r="R82" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="S82" s="80"/>
-      <c r="T82" s="79" t="s">
+      <c r="S82" s="79"/>
+      <c r="T82" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="U82" s="80"/>
-      <c r="V82" s="87" t="s">
+      <c r="U82" s="79"/>
+      <c r="V82" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="W82" s="87"/>
+      <c r="W82" s="80"/>
     </row>
     <row r="83" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="16"/>
-      <c r="D83" s="77" t="s">
+      <c r="C83" s="26"/>
+      <c r="D83" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="E83" s="78"/>
-      <c r="F83" s="77" t="s">
+      <c r="E83" s="75"/>
+      <c r="F83" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="G83" s="78"/>
-      <c r="H83" s="77" t="s">
+      <c r="G83" s="75"/>
+      <c r="H83" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="I83" s="78"/>
-      <c r="J83" s="79" t="s">
+      <c r="I83" s="75"/>
+      <c r="J83" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="K83" s="80"/>
-      <c r="L83" s="79" t="s">
+      <c r="K83" s="79"/>
+      <c r="L83" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="M83" s="80"/>
-      <c r="N83" s="79" t="s">
+      <c r="M83" s="79"/>
+      <c r="N83" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="O83" s="80"/>
-      <c r="P83" s="77" t="s">
+      <c r="O83" s="79"/>
+      <c r="P83" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="Q83" s="78"/>
-      <c r="R83" s="17" t="s">
+      <c r="Q83" s="75"/>
+      <c r="R83" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="S83" s="17"/>
-      <c r="T83" s="17" t="s">
+      <c r="S83" s="44"/>
+      <c r="T83" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="U83" s="17"/>
-      <c r="V83" s="86" t="s">
+      <c r="U83" s="44"/>
+      <c r="V83" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="W83" s="86"/>
+      <c r="W83" s="77"/>
     </row>
     <row r="84" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="58" t="s">
+      <c r="B84" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="C84" s="58"/>
-      <c r="D84" s="58" t="s">
+      <c r="C84" s="99"/>
+      <c r="D84" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="E84" s="58"/>
-      <c r="F84" s="58" t="s">
+      <c r="E84" s="99"/>
+      <c r="F84" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="G84" s="58"/>
-      <c r="H84" s="77"/>
-      <c r="I84" s="78"/>
-      <c r="J84" s="29" t="s">
+      <c r="G84" s="99"/>
+      <c r="H84" s="74"/>
+      <c r="I84" s="75"/>
+      <c r="J84" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K84" s="31"/>
-      <c r="L84" s="31"/>
-      <c r="M84" s="31"/>
-      <c r="N84" s="79"/>
-      <c r="O84" s="80"/>
-      <c r="P84" s="79" t="s">
+      <c r="K84" s="41"/>
+      <c r="L84" s="41"/>
+      <c r="M84" s="41"/>
+      <c r="N84" s="78"/>
+      <c r="O84" s="79"/>
+      <c r="P84" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="Q84" s="80"/>
-      <c r="R84" s="19" t="s">
+      <c r="Q84" s="79"/>
+      <c r="R84" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="S84" s="27"/>
-      <c r="T84" s="27"/>
-      <c r="U84" s="27"/>
-      <c r="V84" s="19" t="s">
+      <c r="S84" s="37"/>
+      <c r="T84" s="37"/>
+      <c r="U84" s="37"/>
+      <c r="V84" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="W84" s="20"/>
+      <c r="W84" s="28"/>
       <c r="X84" s="5"/>
     </row>
     <row r="86" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6617,44 +6638,44 @@
     </row>
     <row r="87" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
-      <c r="B87" s="32" t="s">
+      <c r="B87" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C87" s="33"/>
-      <c r="D87" s="38" t="s">
+      <c r="C87" s="13"/>
+      <c r="D87" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E87" s="39"/>
-      <c r="F87" s="40"/>
-      <c r="G87" s="38" t="s">
+      <c r="E87" s="19"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H87" s="39"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="38" t="s">
+      <c r="H87" s="19"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="K87" s="39"/>
-      <c r="L87" s="40"/>
-      <c r="M87" s="38" t="s">
+      <c r="K87" s="19"/>
+      <c r="L87" s="20"/>
+      <c r="M87" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="N87" s="39"/>
-      <c r="O87" s="40"/>
-      <c r="P87" s="38" t="s">
+      <c r="N87" s="19"/>
+      <c r="O87" s="20"/>
+      <c r="P87" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="Q87" s="39"/>
-      <c r="R87" s="40"/>
-      <c r="S87" s="38" t="s">
+      <c r="Q87" s="19"/>
+      <c r="R87" s="20"/>
+      <c r="S87" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="T87" s="39"/>
-      <c r="U87" s="40"/>
-      <c r="V87" s="32" t="s">
+      <c r="T87" s="19"/>
+      <c r="U87" s="20"/>
+      <c r="V87" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="W87" s="33"/>
+      <c r="W87" s="13"/>
       <c r="Z87" s="5"/>
       <c r="AA87" s="8"/>
       <c r="AB87" s="8"/>
@@ -6678,38 +6699,38 @@
     </row>
     <row r="88" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
-      <c r="B88" s="49" t="s">
+      <c r="B88" s="94" t="s">
         <v>206</v>
       </c>
-      <c r="C88" s="50"/>
-      <c r="D88" s="59" t="s">
+      <c r="C88" s="95"/>
+      <c r="D88" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="E88" s="60"/>
-      <c r="F88" s="41" t="s">
+      <c r="E88" s="97"/>
+      <c r="F88" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="G88" s="42"/>
-      <c r="H88" s="42"/>
-      <c r="I88" s="42"/>
-      <c r="J88" s="42"/>
-      <c r="K88" s="42"/>
-      <c r="L88" s="42"/>
-      <c r="M88" s="42"/>
-      <c r="N88" s="42"/>
-      <c r="O88" s="42"/>
-      <c r="P88" s="42"/>
-      <c r="Q88" s="42"/>
-      <c r="R88" s="42"/>
-      <c r="S88" s="61"/>
-      <c r="T88" s="62" t="s">
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="22"/>
+      <c r="O88" s="22"/>
+      <c r="P88" s="22"/>
+      <c r="Q88" s="22"/>
+      <c r="R88" s="22"/>
+      <c r="S88" s="98"/>
+      <c r="T88" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="U88" s="63"/>
-      <c r="V88" s="64" t="s">
+      <c r="U88" s="84"/>
+      <c r="V88" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="W88" s="65"/>
+      <c r="W88" s="86"/>
       <c r="Z88" s="5"/>
       <c r="AA88" s="8"/>
       <c r="AB88" s="8"/>
@@ -6737,340 +6758,355 @@
       </c>
     </row>
     <row r="91" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="45" t="s">
+      <c r="B91" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="C91" s="47"/>
-      <c r="D91" s="45" t="s">
+      <c r="C91" s="61"/>
+      <c r="D91" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="47"/>
-      <c r="F91" s="45" t="s">
+      <c r="E91" s="61"/>
+      <c r="F91" s="59" t="s">
         <v>305</v>
       </c>
-      <c r="G91" s="47"/>
-      <c r="H91" s="45" t="s">
+      <c r="G91" s="61"/>
+      <c r="H91" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="I91" s="47"/>
-      <c r="J91" s="45" t="s">
+      <c r="I91" s="61"/>
+      <c r="J91" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="47"/>
-      <c r="L91" s="45" t="s">
+      <c r="K91" s="61"/>
+      <c r="L91" s="59" t="s">
         <v>305</v>
       </c>
-      <c r="M91" s="47"/>
-      <c r="N91" s="45" t="s">
+      <c r="M91" s="61"/>
+      <c r="N91" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="O91" s="47"/>
-      <c r="P91" s="45" t="s">
+      <c r="O91" s="61"/>
+      <c r="P91" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="47"/>
-      <c r="R91" s="45" t="s">
+      <c r="Q91" s="61"/>
+      <c r="R91" s="59" t="s">
         <v>305</v>
       </c>
-      <c r="S91" s="47"/>
-      <c r="T91" s="45" t="s">
+      <c r="S91" s="61"/>
+      <c r="T91" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="U91" s="47"/>
-      <c r="V91" s="45" t="s">
+      <c r="U91" s="61"/>
+      <c r="V91" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="W91" s="47"/>
-      <c r="X91" s="45" t="s">
+      <c r="W91" s="61"/>
+      <c r="X91" s="59" t="s">
         <v>305</v>
       </c>
-      <c r="Y91" s="47"/>
+      <c r="Y91" s="61"/>
     </row>
     <row r="92" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="45" t="s">
+      <c r="B92" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="47"/>
-      <c r="D92" s="45" t="s">
+      <c r="C92" s="61"/>
+      <c r="D92" s="59" t="s">
         <v>306</v>
       </c>
-      <c r="E92" s="47"/>
-      <c r="F92" s="45" t="s">
+      <c r="E92" s="61"/>
+      <c r="F92" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="47"/>
-      <c r="H92" s="45" t="s">
+      <c r="G92" s="61"/>
+      <c r="H92" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="I92" s="47"/>
-      <c r="J92" s="45" t="s">
+      <c r="I92" s="61"/>
+      <c r="J92" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="K92" s="47"/>
-      <c r="L92" s="45" t="s">
+      <c r="K92" s="61"/>
+      <c r="L92" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="M92" s="47"/>
-      <c r="N92" s="45" t="s">
+      <c r="M92" s="61"/>
+      <c r="N92" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="O92" s="47"/>
-      <c r="P92" s="45" t="s">
+      <c r="O92" s="61"/>
+      <c r="P92" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="Q92" s="47"/>
-      <c r="R92" s="45" t="s">
+      <c r="Q92" s="61"/>
+      <c r="R92" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="S92" s="47"/>
-      <c r="T92" s="45" t="s">
+      <c r="S92" s="61"/>
+      <c r="T92" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="U92" s="47"/>
-      <c r="V92" s="45" t="s">
+      <c r="U92" s="61"/>
+      <c r="V92" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="W92" s="47"/>
-      <c r="X92" s="45" t="s">
+      <c r="W92" s="61"/>
+      <c r="X92" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="Y92" s="47"/>
+      <c r="Y92" s="61"/>
     </row>
     <row r="93" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="45" t="s">
+      <c r="B93" s="59" t="s">
         <v>309</v>
       </c>
-      <c r="C93" s="47"/>
-      <c r="D93" s="45" t="s">
+      <c r="C93" s="61"/>
+      <c r="D93" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E93" s="47"/>
-      <c r="F93" s="45" t="s">
+      <c r="E93" s="61"/>
+      <c r="F93" s="59" t="s">
         <v>310</v>
       </c>
-      <c r="G93" s="47"/>
-      <c r="H93" s="45" t="s">
+      <c r="G93" s="61"/>
+      <c r="H93" s="59" t="s">
         <v>309</v>
       </c>
-      <c r="I93" s="47"/>
-      <c r="J93" s="45" t="s">
+      <c r="I93" s="61"/>
+      <c r="J93" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K93" s="47"/>
-      <c r="L93" s="45" t="s">
+      <c r="K93" s="61"/>
+      <c r="L93" s="59" t="s">
         <v>310</v>
       </c>
-      <c r="M93" s="47"/>
-      <c r="N93" s="45" t="s">
+      <c r="M93" s="61"/>
+      <c r="N93" s="59" t="s">
         <v>309</v>
       </c>
-      <c r="O93" s="47"/>
-      <c r="P93" s="45" t="s">
+      <c r="O93" s="61"/>
+      <c r="P93" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="Q93" s="47"/>
-      <c r="R93" s="45" t="s">
+      <c r="Q93" s="61"/>
+      <c r="R93" s="59" t="s">
         <v>310</v>
       </c>
-      <c r="S93" s="47"/>
-      <c r="T93" s="45" t="s">
+      <c r="S93" s="61"/>
+      <c r="T93" s="59" t="s">
         <v>309</v>
       </c>
-      <c r="U93" s="47"/>
-      <c r="V93" s="45" t="s">
+      <c r="U93" s="61"/>
+      <c r="V93" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="W93" s="47"/>
-      <c r="X93" s="45" t="s">
+      <c r="W93" s="61"/>
+      <c r="X93" s="59" t="s">
         <v>310</v>
       </c>
-      <c r="Y93" s="47"/>
+      <c r="Y93" s="61"/>
     </row>
     <row r="94" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="45" t="s">
+      <c r="B94" s="59" t="s">
         <v>311</v>
       </c>
-      <c r="C94" s="46"/>
-      <c r="D94" s="46"/>
-      <c r="E94" s="47"/>
-      <c r="F94" s="45" t="s">
+      <c r="C94" s="60"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="59" t="s">
         <v>312</v>
       </c>
-      <c r="G94" s="46"/>
-      <c r="H94" s="46"/>
-      <c r="I94" s="47"/>
-      <c r="J94" s="45" t="s">
+      <c r="G94" s="60"/>
+      <c r="H94" s="60"/>
+      <c r="I94" s="61"/>
+      <c r="J94" s="59" t="s">
         <v>313</v>
       </c>
-      <c r="K94" s="46"/>
-      <c r="L94" s="46"/>
-      <c r="M94" s="47"/>
-      <c r="N94" s="45" t="s">
+      <c r="K94" s="60"/>
+      <c r="L94" s="60"/>
+      <c r="M94" s="61"/>
+      <c r="N94" s="59" t="s">
         <v>314</v>
       </c>
-      <c r="O94" s="46"/>
-      <c r="P94" s="46"/>
-      <c r="Q94" s="47"/>
-      <c r="R94" s="45" t="s">
+      <c r="O94" s="60"/>
+      <c r="P94" s="60"/>
+      <c r="Q94" s="61"/>
+      <c r="R94" s="59" t="s">
         <v>315</v>
       </c>
-      <c r="S94" s="46"/>
-      <c r="T94" s="46"/>
-      <c r="U94" s="47"/>
-      <c r="V94" s="45" t="s">
+      <c r="S94" s="60"/>
+      <c r="T94" s="60"/>
+      <c r="U94" s="61"/>
+      <c r="V94" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="W94" s="46"/>
-      <c r="X94" s="46"/>
-      <c r="Y94" s="47"/>
+      <c r="W94" s="60"/>
+      <c r="X94" s="60"/>
+      <c r="Y94" s="61"/>
     </row>
     <row r="96" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B96" s="89" t="s">
+      <c r="B96" s="10" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="97" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="90" t="s">
+      <c r="B97" s="62" t="s">
         <v>321</v>
       </c>
-      <c r="C97" s="91"/>
-      <c r="D97" s="91"/>
-      <c r="E97" s="92"/>
-      <c r="F97" s="90" t="s">
+      <c r="C97" s="63"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="64"/>
+      <c r="F97" s="62" t="s">
         <v>323</v>
       </c>
-      <c r="G97" s="91"/>
-      <c r="H97" s="91"/>
-      <c r="I97" s="92"/>
-      <c r="K97" s="45" t="s">
+      <c r="G97" s="63"/>
+      <c r="H97" s="63"/>
+      <c r="I97" s="64"/>
+      <c r="K97" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="L97" s="47"/>
-      <c r="M97" s="45" t="s">
+      <c r="L97" s="61"/>
+      <c r="M97" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="N97" s="47"/>
-      <c r="O97" s="45" t="s">
+      <c r="N97" s="61"/>
+      <c r="O97" s="59" t="s">
         <v>305</v>
       </c>
-      <c r="P97" s="47"/>
-      <c r="Q97" s="102"/>
-      <c r="R97" s="96" t="s">
+      <c r="P97" s="61"/>
+      <c r="Q97" s="11"/>
+      <c r="R97" s="68" t="s">
         <v>325</v>
       </c>
-      <c r="S97" s="91"/>
-      <c r="T97" s="91"/>
-      <c r="U97" s="92"/>
-      <c r="Y97" s="102"/>
-      <c r="AA97" s="102"/>
-      <c r="AB97" s="102"/>
-      <c r="AC97" s="102"/>
-      <c r="AD97" s="102"/>
-      <c r="AE97" s="102"/>
-      <c r="AF97" s="102"/>
+      <c r="S97" s="63"/>
+      <c r="T97" s="63"/>
+      <c r="U97" s="64"/>
+      <c r="V97" s="114" t="s">
+        <v>326</v>
+      </c>
+      <c r="W97" s="115"/>
+      <c r="X97" s="115"/>
+      <c r="Y97" s="116"/>
+      <c r="AA97" s="11"/>
+      <c r="AB97" s="11"/>
+      <c r="AC97" s="11"/>
+      <c r="AD97" s="11"/>
+      <c r="AE97" s="11"/>
+      <c r="AF97" s="11"/>
     </row>
     <row r="98" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="93"/>
-      <c r="C98" s="94"/>
-      <c r="D98" s="94"/>
-      <c r="E98" s="95"/>
-      <c r="F98" s="93"/>
-      <c r="G98" s="94"/>
-      <c r="H98" s="94"/>
-      <c r="I98" s="95"/>
-      <c r="K98" s="45" t="s">
+      <c r="B98" s="65"/>
+      <c r="C98" s="66"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="65"/>
+      <c r="G98" s="66"/>
+      <c r="H98" s="66"/>
+      <c r="I98" s="67"/>
+      <c r="K98" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="L98" s="47"/>
-      <c r="M98" s="45" t="s">
+      <c r="L98" s="61"/>
+      <c r="M98" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="N98" s="47"/>
-      <c r="O98" s="45" t="s">
+      <c r="N98" s="61"/>
+      <c r="O98" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="P98" s="47"/>
-      <c r="Q98" s="102"/>
-      <c r="R98" s="93"/>
-      <c r="S98" s="94"/>
-      <c r="T98" s="94"/>
-      <c r="U98" s="95"/>
-      <c r="Y98" s="102"/>
-      <c r="AA98" s="102"/>
-      <c r="AB98" s="102"/>
-      <c r="AC98" s="102"/>
-      <c r="AD98" s="102"/>
-      <c r="AE98" s="102"/>
-      <c r="AF98" s="102"/>
+      <c r="P98" s="61"/>
+      <c r="Q98" s="11"/>
+      <c r="R98" s="65"/>
+      <c r="S98" s="66"/>
+      <c r="T98" s="66"/>
+      <c r="U98" s="67"/>
+      <c r="V98" s="117"/>
+      <c r="W98" s="118"/>
+      <c r="X98" s="118"/>
+      <c r="Y98" s="119"/>
+      <c r="AA98" s="11"/>
+      <c r="AB98" s="11"/>
+      <c r="AC98" s="11"/>
+      <c r="AD98" s="11"/>
+      <c r="AE98" s="11"/>
+      <c r="AF98" s="11"/>
     </row>
     <row r="99" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="96" t="s">
+      <c r="B99" s="68" t="s">
         <v>322</v>
       </c>
-      <c r="C99" s="97"/>
-      <c r="D99" s="97"/>
-      <c r="E99" s="100"/>
-      <c r="F99" s="90" t="s">
+      <c r="C99" s="69"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="62" t="s">
         <v>320</v>
       </c>
-      <c r="G99" s="91"/>
-      <c r="H99" s="91"/>
-      <c r="I99" s="92"/>
-      <c r="K99" s="45" t="s">
+      <c r="G99" s="63"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="64"/>
+      <c r="K99" s="59" t="s">
         <v>309</v>
       </c>
-      <c r="L99" s="47"/>
-      <c r="M99" s="45" t="s">
+      <c r="L99" s="61"/>
+      <c r="M99" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N99" s="47"/>
-      <c r="O99" s="45" t="s">
+      <c r="N99" s="61"/>
+      <c r="O99" s="59" t="s">
         <v>310</v>
       </c>
-      <c r="P99" s="47"/>
-      <c r="Q99" s="102"/>
-      <c r="R99" s="102"/>
-      <c r="Y99" s="102"/>
-      <c r="AA99" s="102"/>
-      <c r="AB99" s="102"/>
-      <c r="AC99" s="102"/>
-      <c r="AD99" s="102"/>
-      <c r="AE99" s="102"/>
-      <c r="AF99" s="102"/>
+      <c r="P99" s="61"/>
+      <c r="Q99" s="11"/>
+      <c r="R99" s="62" t="s">
+        <v>303</v>
+      </c>
+      <c r="S99" s="63"/>
+      <c r="T99" s="63"/>
+      <c r="U99" s="63"/>
+      <c r="V99" s="63"/>
+      <c r="W99" s="63"/>
+      <c r="X99" s="63"/>
+      <c r="Y99" s="64"/>
+      <c r="AA99" s="11"/>
+      <c r="AB99" s="11"/>
+      <c r="AC99" s="11"/>
+      <c r="AD99" s="11"/>
+      <c r="AE99" s="11"/>
+      <c r="AF99" s="11"/>
     </row>
     <row r="100" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="98"/>
-      <c r="C100" s="99"/>
-      <c r="D100" s="99"/>
-      <c r="E100" s="101"/>
-      <c r="F100" s="93"/>
-      <c r="G100" s="94"/>
-      <c r="H100" s="94"/>
-      <c r="I100" s="95"/>
-      <c r="K100" s="45" t="s">
+      <c r="B100" s="71"/>
+      <c r="C100" s="72"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="73"/>
+      <c r="F100" s="65"/>
+      <c r="G100" s="66"/>
+      <c r="H100" s="66"/>
+      <c r="I100" s="67"/>
+      <c r="K100" s="59" t="s">
         <v>324</v>
       </c>
-      <c r="L100" s="46"/>
-      <c r="M100" s="46"/>
-      <c r="N100" s="46"/>
-      <c r="O100" s="46"/>
-      <c r="P100" s="47"/>
-      <c r="Q100" s="102"/>
-      <c r="R100" s="45" t="s">
-        <v>303</v>
-      </c>
-      <c r="S100" s="46"/>
-      <c r="T100" s="46"/>
-      <c r="U100" s="47"/>
-      <c r="V100" s="102"/>
-      <c r="W100" s="102"/>
-      <c r="Y100" s="102"/>
-      <c r="AA100" s="102"/>
-      <c r="AB100" s="102"/>
-      <c r="AC100" s="102"/>
-      <c r="AD100" s="102"/>
-      <c r="AE100" s="102"/>
-      <c r="AF100" s="102"/>
+      <c r="L100" s="60"/>
+      <c r="M100" s="60"/>
+      <c r="N100" s="60"/>
+      <c r="O100" s="60"/>
+      <c r="P100" s="61"/>
+      <c r="Q100" s="11"/>
+      <c r="R100" s="65"/>
+      <c r="S100" s="66"/>
+      <c r="T100" s="66"/>
+      <c r="U100" s="66"/>
+      <c r="V100" s="66"/>
+      <c r="W100" s="66"/>
+      <c r="X100" s="66"/>
+      <c r="Y100" s="67"/>
+      <c r="AA100" s="11"/>
+      <c r="AB100" s="11"/>
+      <c r="AC100" s="11"/>
+      <c r="AD100" s="11"/>
+      <c r="AE100" s="11"/>
+      <c r="AF100" s="11"/>
     </row>
     <row r="102" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B102" s="9"/>
@@ -7184,51 +7220,557 @@
       <c r="B174" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="616">
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="K100:P100"/>
-    <mergeCell ref="B97:E98"/>
-    <mergeCell ref="B99:E100"/>
-    <mergeCell ref="F97:I98"/>
-    <mergeCell ref="F99:I100"/>
-    <mergeCell ref="R97:U98"/>
-    <mergeCell ref="R100:U100"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="O99:P99"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="O98:P98"/>
-    <mergeCell ref="K97:L97"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="O97:P97"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="L82:M82"/>
+  <mergeCells count="617">
+    <mergeCell ref="V97:Y98"/>
+    <mergeCell ref="R99:Y100"/>
+    <mergeCell ref="J94:M94"/>
+    <mergeCell ref="N94:Q94"/>
+    <mergeCell ref="R94:U94"/>
+    <mergeCell ref="V94:Y94"/>
+    <mergeCell ref="X91:Y91"/>
+    <mergeCell ref="X92:Y92"/>
+    <mergeCell ref="X93:Y93"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="R92:S92"/>
+    <mergeCell ref="T92:U92"/>
+    <mergeCell ref="V92:W92"/>
+    <mergeCell ref="T93:U93"/>
+    <mergeCell ref="V93:W93"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="R91:S91"/>
+    <mergeCell ref="T91:U91"/>
+    <mergeCell ref="V91:W91"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="R93:S93"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="F94:I94"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="U81:V81"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="R70:U70"/>
+    <mergeCell ref="V70:W70"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="R78:U78"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B37:H38"/>
+    <mergeCell ref="I37:O38"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="B35:H36"/>
+    <mergeCell ref="I35:O36"/>
+    <mergeCell ref="P35:V36"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:S74"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="V73:W73"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="R62:U62"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:S58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="R54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="R32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:S28"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="V87:W87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:S88"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="V88:W88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="P87:R87"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:S20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J14:K14"/>
     <mergeCell ref="V21:W21"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="L21:M21"/>
@@ -7253,554 +7795,49 @@
     <mergeCell ref="V15:W15"/>
     <mergeCell ref="J16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:S20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="S87:U87"/>
-    <mergeCell ref="V87:W87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:S88"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="V88:W88"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="P87:R87"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:S28"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="R32:U32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="R54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:S58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="R62:U62"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="V73:W73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:S74"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="V74:W74"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:S66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="B37:H38"/>
-    <mergeCell ref="I37:O38"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="B35:H36"/>
-    <mergeCell ref="I35:O36"/>
-    <mergeCell ref="P35:V36"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="F94:I94"/>
-    <mergeCell ref="S81:T81"/>
-    <mergeCell ref="U81:V81"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="R70:U70"/>
-    <mergeCell ref="V70:W70"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="R78:U78"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="V75:W75"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="V76:W76"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="V68:W68"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="L91:M91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="R93:S93"/>
-    <mergeCell ref="J94:M94"/>
-    <mergeCell ref="N94:Q94"/>
-    <mergeCell ref="R94:U94"/>
-    <mergeCell ref="V94:Y94"/>
-    <mergeCell ref="X91:Y91"/>
-    <mergeCell ref="X92:Y92"/>
-    <mergeCell ref="X93:Y93"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="R92:S92"/>
-    <mergeCell ref="T92:U92"/>
-    <mergeCell ref="V92:W92"/>
-    <mergeCell ref="T93:U93"/>
-    <mergeCell ref="V93:W93"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="R91:S91"/>
-    <mergeCell ref="T91:U91"/>
-    <mergeCell ref="V91:W91"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="K100:P100"/>
+    <mergeCell ref="B97:E98"/>
+    <mergeCell ref="B99:E100"/>
+    <mergeCell ref="F97:I98"/>
+    <mergeCell ref="F99:I100"/>
+    <mergeCell ref="R97:U98"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="O99:P99"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="O98:P98"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="O97:P97"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/docs/Keyboard Designs.xlsx
+++ b/docs/Keyboard Designs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="328">
   <si>
     <t>A</t>
   </si>
@@ -1000,6 +1000,9 @@
   </si>
   <si>
     <t>REPEAT LAST</t>
+  </si>
+  <si>
+    <t>MOUSE</t>
   </si>
 </sst>
 </file>
@@ -1447,7 +1450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1802,6 +1805,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2539,8 +2560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AW174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="AB97" sqref="AB97"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37:AC38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4231,8 +4252,15 @@
       <c r="T35" s="112"/>
       <c r="U35" s="112"/>
       <c r="V35" s="112"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
+      <c r="W35" s="87" t="s">
+        <v>327</v>
+      </c>
+      <c r="X35" s="112"/>
+      <c r="Y35" s="112"/>
+      <c r="Z35" s="112"/>
+      <c r="AA35" s="112"/>
+      <c r="AB35" s="112"/>
+      <c r="AC35" s="112"/>
       <c r="AF35" s="8"/>
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
@@ -4272,8 +4300,13 @@
       <c r="T36" s="112"/>
       <c r="U36" s="112"/>
       <c r="V36" s="112"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
+      <c r="W36" s="112"/>
+      <c r="X36" s="112"/>
+      <c r="Y36" s="112"/>
+      <c r="Z36" s="112"/>
+      <c r="AA36" s="112"/>
+      <c r="AB36" s="112"/>
+      <c r="AC36" s="112"/>
       <c r="AF36" s="8"/>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
@@ -4310,21 +4343,22 @@
       <c r="M37" s="112"/>
       <c r="N37" s="112"/>
       <c r="O37" s="112"/>
-      <c r="P37" s="87" t="s">
+      <c r="P37" s="120" t="s">
         <v>303</v>
       </c>
-      <c r="Q37" s="112"/>
-      <c r="R37" s="112"/>
-      <c r="S37" s="112"/>
-      <c r="T37" s="112"/>
-      <c r="U37" s="112"/>
-      <c r="V37" s="112"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-      <c r="AA37" s="1"/>
-      <c r="AB37" s="1"/>
-      <c r="AC37" s="8"/>
+      <c r="Q37" s="121"/>
+      <c r="R37" s="121"/>
+      <c r="S37" s="121"/>
+      <c r="T37" s="121"/>
+      <c r="U37" s="121"/>
+      <c r="V37" s="121"/>
+      <c r="W37" s="121"/>
+      <c r="X37" s="121"/>
+      <c r="Y37" s="121"/>
+      <c r="Z37" s="121"/>
+      <c r="AA37" s="121"/>
+      <c r="AB37" s="121"/>
+      <c r="AC37" s="122"/>
       <c r="AD37" s="8"/>
       <c r="AE37" s="8"/>
       <c r="AF37" s="8"/>
@@ -4359,16 +4393,20 @@
       <c r="M38" s="112"/>
       <c r="N38" s="112"/>
       <c r="O38" s="112"/>
-      <c r="P38" s="112"/>
-      <c r="Q38" s="112"/>
-      <c r="R38" s="112"/>
-      <c r="S38" s="112"/>
-      <c r="T38" s="112"/>
-      <c r="U38" s="112"/>
-      <c r="V38" s="112"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
+      <c r="P38" s="123"/>
+      <c r="Q38" s="124"/>
+      <c r="R38" s="124"/>
+      <c r="S38" s="124"/>
+      <c r="T38" s="124"/>
+      <c r="U38" s="124"/>
+      <c r="V38" s="124"/>
+      <c r="W38" s="124"/>
+      <c r="X38" s="124"/>
+      <c r="Y38" s="124"/>
+      <c r="Z38" s="124"/>
+      <c r="AA38" s="124"/>
+      <c r="AB38" s="124"/>
+      <c r="AC38" s="125"/>
       <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
@@ -7220,9 +7258,11 @@
       <c r="B174" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="618">
     <mergeCell ref="V97:Y98"/>
     <mergeCell ref="R99:Y100"/>
+    <mergeCell ref="P37:AC38"/>
+    <mergeCell ref="W35:AC36"/>
     <mergeCell ref="J94:M94"/>
     <mergeCell ref="N94:Q94"/>
     <mergeCell ref="R94:U94"/>
@@ -7307,7 +7347,6 @@
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="T23:U23"/>
     <mergeCell ref="V23:W23"/>
-    <mergeCell ref="P37:V38"/>
     <mergeCell ref="B35:H36"/>
     <mergeCell ref="I35:O36"/>
     <mergeCell ref="P35:V36"/>

--- a/docs/Keyboard Designs.xlsx
+++ b/docs/Keyboard Designs.xlsx
@@ -1483,6 +1483,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1522,78 +1588,195 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1624,33 +1807,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1667,162 +1823,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2146,38 +2146,38 @@
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="18" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="18" t="s">
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="18" t="s">
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="12" t="s">
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="V3" s="13"/>
+      <c r="V3" s="35"/>
       <c r="Z3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
@@ -2195,36 +2195,36 @@
     </row>
     <row r="4" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="46"/>
+      <c r="E4" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="14" t="s">
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="16" t="s">
+      <c r="T4" s="37"/>
+      <c r="U4" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="V4" s="17"/>
+      <c r="V4" s="39"/>
       <c r="Z4" s="4"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
@@ -2241,46 +2241,46 @@
       <c r="AQ4" s="7"/>
     </row>
     <row r="5" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="42" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="42" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="42" t="s">
+      <c r="H5" s="17"/>
+      <c r="I5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="42" t="s">
+      <c r="J5" s="17"/>
+      <c r="K5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="42" t="s">
+      <c r="L5" s="17"/>
+      <c r="M5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="43"/>
-      <c r="O5" s="42" t="s">
+      <c r="N5" s="17"/>
+      <c r="O5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="42" t="s">
+      <c r="P5" s="17"/>
+      <c r="Q5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="43"/>
-      <c r="S5" s="42" t="s">
+      <c r="R5" s="17"/>
+      <c r="S5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="43"/>
-      <c r="U5" s="33" t="s">
+      <c r="T5" s="17"/>
+      <c r="U5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="45"/>
+      <c r="V5" s="13"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Z5" s="7"/>
@@ -2303,46 +2303,46 @@
     </row>
     <row r="6" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="46" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="33" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="33" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="33" t="s">
+      <c r="I6" s="15"/>
+      <c r="J6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="33" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="35"/>
-      <c r="N6" s="33" t="s">
+      <c r="M6" s="15"/>
+      <c r="N6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="35"/>
-      <c r="P6" s="33" t="s">
+      <c r="O6" s="15"/>
+      <c r="P6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="33" t="s">
+      <c r="Q6" s="15"/>
+      <c r="R6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="35"/>
-      <c r="T6" s="33" t="s">
+      <c r="S6" s="15"/>
+      <c r="T6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="35"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
       <c r="X6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
@@ -2362,46 +2362,46 @@
     </row>
     <row r="7" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26" t="s">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26" t="s">
+      <c r="I7" s="18"/>
+      <c r="J7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26" t="s">
+      <c r="K7" s="18"/>
+      <c r="L7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26" t="s">
+      <c r="M7" s="18"/>
+      <c r="N7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26" t="s">
+      <c r="O7" s="18"/>
+      <c r="P7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="44" t="s">
+      <c r="Q7" s="18"/>
+      <c r="R7" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="S7" s="44"/>
-      <c r="T7" s="27" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="28"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
       <c r="X7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -2419,38 +2419,38 @@
     </row>
     <row r="8" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="33" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="39" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="39" t="s">
+      <c r="I8" s="32"/>
+      <c r="J8" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="39" t="s">
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="40"/>
-      <c r="P8" s="29" t="s">
+      <c r="O8" s="32"/>
+      <c r="P8" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="27" t="s">
+      <c r="Q8" s="24"/>
+      <c r="R8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="28"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="22"/>
       <c r="X8" s="7"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
@@ -2500,29 +2500,17 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="G4:R4"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="T7:U7"/>
@@ -2539,17 +2527,29 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="G4:R4"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="T6:U6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2560,8 +2560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AW174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37:AC38"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="AE90" sqref="AE90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2577,50 +2577,50 @@
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="18" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="18" t="s">
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="18" t="s">
+      <c r="K3" s="41"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="18" t="s">
+      <c r="N3" s="41"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="18" t="s">
+      <c r="Q3" s="41"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="T3" s="19"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="12" t="s">
+      <c r="T3" s="41"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="W3" s="13"/>
-      <c r="Z3" s="56" t="s">
+      <c r="W3" s="35"/>
+      <c r="Z3" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="58"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="118"/>
+      <c r="AC3" s="119"/>
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
@@ -2637,44 +2637,44 @@
     </row>
     <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="21" t="s">
+      <c r="E4" s="80"/>
+      <c r="F4" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="83" t="s">
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="U4" s="84"/>
-      <c r="V4" s="85" t="s">
+      <c r="U4" s="83"/>
+      <c r="V4" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="W4" s="86"/>
-      <c r="Z4" s="47" t="s">
+      <c r="W4" s="85"/>
+      <c r="Z4" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="49"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="110"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
@@ -2690,54 +2690,54 @@
       <c r="AT4" s="5"/>
     </row>
     <row r="5" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="42" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="42" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="42" t="s">
+      <c r="H5" s="17"/>
+      <c r="I5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="42" t="s">
+      <c r="J5" s="17"/>
+      <c r="K5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="42" t="s">
+      <c r="L5" s="17"/>
+      <c r="M5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="43"/>
-      <c r="O5" s="42" t="s">
+      <c r="N5" s="17"/>
+      <c r="O5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="42" t="s">
+      <c r="P5" s="17"/>
+      <c r="Q5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="43"/>
-      <c r="S5" s="42" t="s">
+      <c r="R5" s="17"/>
+      <c r="S5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="43"/>
-      <c r="U5" s="42" t="s">
+      <c r="T5" s="17"/>
+      <c r="U5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="43"/>
+      <c r="V5" s="17"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
-      <c r="Z5" s="50" t="s">
+      <c r="Z5" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="52"/>
+      <c r="AA5" s="112"/>
+      <c r="AB5" s="112"/>
+      <c r="AC5" s="113"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
@@ -2757,56 +2757,56 @@
     </row>
     <row r="6" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="26" t="s">
+      <c r="C6" s="88"/>
+      <c r="D6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26" t="s">
+      <c r="G6" s="18"/>
+      <c r="H6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26" t="s">
+      <c r="I6" s="18"/>
+      <c r="J6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26" t="s">
+      <c r="K6" s="18"/>
+      <c r="L6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26" t="s">
+      <c r="M6" s="18"/>
+      <c r="N6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26" t="s">
+      <c r="O6" s="18"/>
+      <c r="P6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26" t="s">
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26" t="s">
+      <c r="S6" s="18"/>
+      <c r="T6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="26"/>
-      <c r="V6" s="39" t="s">
+      <c r="U6" s="18"/>
+      <c r="V6" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="W6" s="40"/>
-      <c r="Z6" s="53" t="s">
+      <c r="W6" s="32"/>
+      <c r="Z6" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="55"/>
+      <c r="AA6" s="115"/>
+      <c r="AB6" s="115"/>
+      <c r="AC6" s="116"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
@@ -2826,50 +2826,50 @@
     </row>
     <row r="7" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26" t="s">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26" t="s">
+      <c r="I7" s="18"/>
+      <c r="J7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26" t="s">
+      <c r="K7" s="18"/>
+      <c r="L7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26" t="s">
+      <c r="M7" s="18"/>
+      <c r="N7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26" t="s">
+      <c r="O7" s="18"/>
+      <c r="P7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="44" t="s">
+      <c r="Q7" s="18"/>
+      <c r="R7" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="S7" s="44"/>
-      <c r="T7" s="27" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="28"/>
-      <c r="V7" s="27" t="s">
+      <c r="U7" s="22"/>
+      <c r="V7" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="W7" s="28"/>
+      <c r="W7" s="22"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="8"/>
       <c r="AH7" s="5"/>
@@ -2888,46 +2888,46 @@
     </row>
     <row r="8" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99" t="s">
+      <c r="C8" s="78"/>
+      <c r="D8" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99" t="s">
+      <c r="E8" s="78"/>
+      <c r="F8" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="99"/>
-      <c r="H8" s="39" t="s">
+      <c r="G8" s="78"/>
+      <c r="H8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="39" t="s">
+      <c r="I8" s="32"/>
+      <c r="J8" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="39" t="s">
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="40"/>
-      <c r="P8" s="29" t="s">
+      <c r="O8" s="32"/>
+      <c r="P8" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="27" t="s">
+      <c r="Q8" s="24"/>
+      <c r="R8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="27" t="s">
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="W8" s="28"/>
+      <c r="W8" s="22"/>
       <c r="X8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="8"/>
@@ -2987,44 +2987,44 @@
     </row>
     <row r="11" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="18" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="18" t="s">
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="18" t="s">
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="18" t="s">
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="18" t="s">
+      <c r="N11" s="41"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="18" t="s">
+      <c r="Q11" s="41"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="T11" s="19"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="12" t="s">
+      <c r="T11" s="41"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="W11" s="13"/>
+      <c r="W11" s="35"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="8"/>
       <c r="AH11" s="5"/>
@@ -3045,38 +3045,38 @@
     </row>
     <row r="12" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="96" t="s">
+      <c r="C12" s="72"/>
+      <c r="D12" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="97"/>
-      <c r="F12" s="21" t="s">
+      <c r="E12" s="80"/>
+      <c r="F12" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="83" t="s">
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="U12" s="84"/>
-      <c r="V12" s="85" t="s">
+      <c r="U12" s="83"/>
+      <c r="V12" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="W12" s="86"/>
+      <c r="W12" s="85"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="8"/>
       <c r="AH12" s="5"/>
@@ -3096,50 +3096,50 @@
       <c r="AV12" s="5"/>
     </row>
     <row r="13" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="90">
+      <c r="B13" s="101">
         <v>1</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="90">
+      <c r="C13" s="102"/>
+      <c r="D13" s="101">
         <v>2</v>
       </c>
-      <c r="E13" s="91"/>
-      <c r="F13" s="42">
+      <c r="E13" s="102"/>
+      <c r="F13" s="16">
         <v>3</v>
       </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="92">
+      <c r="G13" s="17"/>
+      <c r="H13" s="103">
         <v>4</v>
       </c>
-      <c r="I13" s="93"/>
-      <c r="J13" s="42">
+      <c r="I13" s="104"/>
+      <c r="J13" s="16">
         <v>5</v>
       </c>
-      <c r="K13" s="43"/>
-      <c r="L13" s="42">
+      <c r="K13" s="17"/>
+      <c r="L13" s="16">
         <v>6</v>
       </c>
-      <c r="M13" s="43"/>
-      <c r="N13" s="42">
+      <c r="M13" s="17"/>
+      <c r="N13" s="16">
         <v>7</v>
       </c>
-      <c r="O13" s="43"/>
-      <c r="P13" s="42">
+      <c r="O13" s="17"/>
+      <c r="P13" s="16">
         <v>8</v>
       </c>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="42">
+      <c r="Q13" s="17"/>
+      <c r="R13" s="16">
         <v>9</v>
       </c>
-      <c r="S13" s="43"/>
-      <c r="T13" s="42">
+      <c r="S13" s="17"/>
+      <c r="T13" s="16">
         <v>0</v>
       </c>
-      <c r="U13" s="43"/>
-      <c r="V13" s="26" t="s">
+      <c r="U13" s="17"/>
+      <c r="V13" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="W13" s="26"/>
+      <c r="W13" s="18"/>
       <c r="X13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="8"/>
@@ -3162,50 +3162,50 @@
     </row>
     <row r="14" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="107"/>
-      <c r="D14" s="106" t="s">
+      <c r="C14" s="93"/>
+      <c r="D14" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="107"/>
-      <c r="F14" s="101" t="s">
+      <c r="E14" s="93"/>
+      <c r="F14" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="101"/>
-      <c r="H14" s="108" t="s">
+      <c r="G14" s="94"/>
+      <c r="H14" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101" t="s">
+      <c r="I14" s="94"/>
+      <c r="J14" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101" t="s">
+      <c r="K14" s="94"/>
+      <c r="L14" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="101"/>
-      <c r="N14" s="103" t="s">
+      <c r="M14" s="94"/>
+      <c r="N14" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="O14" s="104"/>
-      <c r="P14" s="103" t="s">
+      <c r="O14" s="90"/>
+      <c r="P14" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="103" t="s">
+      <c r="Q14" s="90"/>
+      <c r="R14" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="S14" s="104"/>
-      <c r="T14" s="103" t="s">
+      <c r="S14" s="90"/>
+      <c r="T14" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="U14" s="104"/>
-      <c r="V14" s="105" t="s">
+      <c r="U14" s="90"/>
+      <c r="V14" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="W14" s="105"/>
+      <c r="W14" s="91"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AH14" s="5"/>
@@ -3227,50 +3227,50 @@
     </row>
     <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26" t="s">
+      <c r="E15" s="18"/>
+      <c r="F15" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26" t="s">
+      <c r="G15" s="18"/>
+      <c r="H15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="89" t="s">
+      <c r="I15" s="18"/>
+      <c r="J15" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="89" t="s">
+      <c r="K15" s="18"/>
+      <c r="L15" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="26"/>
-      <c r="N15" s="89" t="s">
+      <c r="M15" s="18"/>
+      <c r="N15" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26" t="s">
+      <c r="O15" s="18"/>
+      <c r="P15" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="44" t="s">
+      <c r="Q15" s="18"/>
+      <c r="R15" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44" t="s">
+      <c r="S15" s="19"/>
+      <c r="T15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44" t="s">
+      <c r="U15" s="19"/>
+      <c r="V15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="W15" s="44"/>
+      <c r="W15" s="19"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
@@ -3297,46 +3297,46 @@
     </row>
     <row r="16" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99" t="s">
+      <c r="C16" s="78"/>
+      <c r="D16" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99" t="s">
+      <c r="E16" s="78"/>
+      <c r="F16" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="99"/>
-      <c r="H16" s="100" t="s">
+      <c r="G16" s="78"/>
+      <c r="H16" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="100"/>
-      <c r="J16" s="39" t="s">
+      <c r="I16" s="74"/>
+      <c r="J16" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="39" t="s">
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="40"/>
-      <c r="P16" s="87" t="s">
+      <c r="O16" s="32"/>
+      <c r="P16" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="27" t="s">
+      <c r="Q16" s="105"/>
+      <c r="R16" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="27" t="s">
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="W16" s="28"/>
+      <c r="W16" s="22"/>
       <c r="X16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="8"/>
@@ -3403,44 +3403,44 @@
     </row>
     <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="18" t="s">
+      <c r="C19" s="35"/>
+      <c r="D19" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="18" t="s">
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="18" t="s">
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="18" t="s">
+      <c r="K19" s="41"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="N19" s="19"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="18" t="s">
+      <c r="N19" s="41"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="18" t="s">
+      <c r="Q19" s="41"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="T19" s="19"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="12" t="s">
+      <c r="T19" s="41"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="W19" s="13"/>
+      <c r="W19" s="35"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="8"/>
@@ -3468,38 +3468,38 @@
     </row>
     <row r="20" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="96" t="s">
+      <c r="C20" s="72"/>
+      <c r="D20" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="97"/>
-      <c r="F20" s="21" t="s">
+      <c r="E20" s="80"/>
+      <c r="F20" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="83" t="s">
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="U20" s="84"/>
-      <c r="V20" s="85" t="s">
+      <c r="U20" s="83"/>
+      <c r="V20" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="W20" s="86"/>
+      <c r="W20" s="85"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="8"/>
@@ -3526,50 +3526,50 @@
       <c r="AV20" s="5"/>
     </row>
     <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="33" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="33" t="s">
+      <c r="E21" s="15"/>
+      <c r="F21" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="81" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="82"/>
-      <c r="J21" s="33" t="s">
+      <c r="I21" s="87"/>
+      <c r="J21" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K21" s="35"/>
-      <c r="L21" s="81" t="s">
+      <c r="K21" s="15"/>
+      <c r="L21" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="M21" s="82"/>
-      <c r="N21" s="33" t="s">
+      <c r="M21" s="87"/>
+      <c r="N21" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="O21" s="35"/>
-      <c r="P21" s="33" t="s">
+      <c r="O21" s="15"/>
+      <c r="P21" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="33" t="s">
+      <c r="Q21" s="15"/>
+      <c r="R21" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="S21" s="35"/>
-      <c r="T21" s="33" t="s">
+      <c r="S21" s="15"/>
+      <c r="T21" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="U21" s="35"/>
-      <c r="V21" s="26" t="s">
+      <c r="U21" s="15"/>
+      <c r="V21" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="W21" s="26"/>
+      <c r="W21" s="18"/>
       <c r="X21" s="5"/>
       <c r="AT21" s="5"/>
       <c r="AU21" s="5"/>
@@ -3578,50 +3578,50 @@
     </row>
     <row r="22" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26" t="s">
+      <c r="E22" s="18"/>
+      <c r="F22" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26" t="s">
+      <c r="G22" s="18"/>
+      <c r="H22" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26" t="s">
+      <c r="I22" s="18"/>
+      <c r="J22" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26" t="s">
+      <c r="K22" s="18"/>
+      <c r="L22" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="M22" s="26"/>
-      <c r="N22" s="102" t="s">
+      <c r="M22" s="18"/>
+      <c r="N22" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="O22" s="102"/>
-      <c r="P22" s="26" t="s">
+      <c r="O22" s="77"/>
+      <c r="P22" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26" t="s">
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26" t="s">
+      <c r="S22" s="18"/>
+      <c r="T22" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="U22" s="26"/>
-      <c r="V22" s="100" t="s">
+      <c r="U22" s="18"/>
+      <c r="V22" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="W22" s="100"/>
+      <c r="W22" s="74"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
@@ -3642,50 +3642,50 @@
     </row>
     <row r="23" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="33" t="s">
+      <c r="E23" s="18"/>
+      <c r="F23" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="33" t="s">
+      <c r="G23" s="15"/>
+      <c r="H23" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="26" t="s">
+      <c r="I23" s="15"/>
+      <c r="J23" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26" t="s">
+      <c r="K23" s="18"/>
+      <c r="L23" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26" t="s">
+      <c r="M23" s="18"/>
+      <c r="N23" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26" t="s">
+      <c r="O23" s="18"/>
+      <c r="P23" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="44" t="s">
+      <c r="Q23" s="18"/>
+      <c r="R23" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44" t="s">
+      <c r="S23" s="19"/>
+      <c r="T23" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44" t="s">
+      <c r="U23" s="19"/>
+      <c r="V23" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="W23" s="44"/>
+      <c r="W23" s="19"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="8"/>
@@ -3709,46 +3709,46 @@
     </row>
     <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="99" t="s">
+      <c r="B24" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99" t="s">
+      <c r="C24" s="78"/>
+      <c r="D24" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99" t="s">
+      <c r="E24" s="78"/>
+      <c r="F24" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="99"/>
-      <c r="H24" s="102" t="s">
+      <c r="G24" s="78"/>
+      <c r="H24" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="I24" s="102"/>
-      <c r="J24" s="39" t="s">
+      <c r="I24" s="77"/>
+      <c r="J24" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="102" t="s">
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="O24" s="102"/>
-      <c r="P24" s="26" t="s">
+      <c r="O24" s="77"/>
+      <c r="P24" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="27" t="s">
+      <c r="Q24" s="18"/>
+      <c r="R24" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="27" t="s">
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="W24" s="28"/>
+      <c r="W24" s="22"/>
       <c r="X24" s="5"/>
       <c r="AE24" s="8"/>
       <c r="AF24" s="8"/>
@@ -3812,44 +3812,44 @@
     </row>
     <row r="27" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="18" t="s">
+      <c r="C27" s="35"/>
+      <c r="D27" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="18" t="s">
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="18" t="s">
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="K27" s="19"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="18" t="s">
+      <c r="K27" s="41"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="N27" s="19"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="18" t="s">
+      <c r="N27" s="41"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="18" t="s">
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="T27" s="19"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="12" t="s">
+      <c r="T27" s="41"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="W27" s="13"/>
+      <c r="W27" s="35"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="8"/>
@@ -3877,38 +3877,38 @@
     </row>
     <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
-      <c r="B28" s="94" t="s">
+      <c r="B28" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="C28" s="95"/>
-      <c r="D28" s="96" t="s">
+      <c r="C28" s="72"/>
+      <c r="D28" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="97"/>
-      <c r="F28" s="21" t="s">
+      <c r="E28" s="80"/>
+      <c r="F28" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="98"/>
-      <c r="T28" s="83" t="s">
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="81"/>
+      <c r="T28" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="U28" s="84"/>
-      <c r="V28" s="85" t="s">
+      <c r="U28" s="83"/>
+      <c r="V28" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="W28" s="86"/>
+      <c r="W28" s="85"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="8"/>
@@ -3935,50 +3935,50 @@
       <c r="AV28" s="6"/>
     </row>
     <row r="29" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="42" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="42" t="s">
+      <c r="E29" s="17"/>
+      <c r="F29" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="G29" s="43"/>
-      <c r="H29" s="110" t="s">
+      <c r="G29" s="17"/>
+      <c r="H29" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="I29" s="111"/>
-      <c r="J29" s="42" t="s">
+      <c r="I29" s="76"/>
+      <c r="J29" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="K29" s="43"/>
-      <c r="L29" s="110" t="s">
+      <c r="K29" s="17"/>
+      <c r="L29" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="M29" s="111"/>
-      <c r="N29" s="42" t="s">
+      <c r="M29" s="76"/>
+      <c r="N29" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="O29" s="43"/>
-      <c r="P29" s="42" t="s">
+      <c r="O29" s="17"/>
+      <c r="P29" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="42" t="s">
+      <c r="Q29" s="17"/>
+      <c r="R29" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="S29" s="43"/>
-      <c r="T29" s="42" t="s">
+      <c r="S29" s="17"/>
+      <c r="T29" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="U29" s="43"/>
-      <c r="V29" s="42" t="s">
+      <c r="U29" s="17"/>
+      <c r="V29" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="W29" s="43"/>
+      <c r="W29" s="17"/>
       <c r="X29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
@@ -3987,50 +3987,50 @@
     </row>
     <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="33" t="s">
+      <c r="C30" s="15"/>
+      <c r="D30" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="33" t="s">
+      <c r="E30" s="15"/>
+      <c r="F30" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="G30" s="35"/>
-      <c r="H30" s="81" t="s">
+      <c r="G30" s="15"/>
+      <c r="H30" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="I30" s="82"/>
-      <c r="J30" s="33" t="s">
+      <c r="I30" s="87"/>
+      <c r="J30" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="K30" s="35"/>
-      <c r="L30" s="81" t="s">
+      <c r="K30" s="15"/>
+      <c r="L30" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="M30" s="82"/>
-      <c r="N30" s="33" t="s">
+      <c r="M30" s="87"/>
+      <c r="N30" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="O30" s="35"/>
-      <c r="P30" s="33" t="s">
+      <c r="O30" s="15"/>
+      <c r="P30" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="26" t="s">
+      <c r="Q30" s="15"/>
+      <c r="R30" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26" t="s">
+      <c r="S30" s="18"/>
+      <c r="T30" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="U30" s="26"/>
-      <c r="V30" s="100" t="s">
+      <c r="U30" s="18"/>
+      <c r="V30" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="W30" s="100"/>
+      <c r="W30" s="74"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -4051,50 +4051,50 @@
     </row>
     <row r="31" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26" t="s">
+      <c r="E31" s="18"/>
+      <c r="F31" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26" t="s">
+      <c r="G31" s="18"/>
+      <c r="H31" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26" t="s">
+      <c r="I31" s="18"/>
+      <c r="J31" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="K31" s="26"/>
-      <c r="L31" s="33" t="s">
+      <c r="K31" s="18"/>
+      <c r="L31" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="M31" s="35"/>
-      <c r="N31" s="33" t="s">
+      <c r="M31" s="15"/>
+      <c r="N31" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="O31" s="35"/>
-      <c r="P31" s="33" t="s">
+      <c r="O31" s="15"/>
+      <c r="P31" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="44" t="s">
+      <c r="Q31" s="15"/>
+      <c r="R31" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44" t="s">
+      <c r="S31" s="19"/>
+      <c r="T31" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44" t="s">
+      <c r="U31" s="19"/>
+      <c r="V31" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="W31" s="44"/>
+      <c r="W31" s="19"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="8"/>
@@ -4122,46 +4122,46 @@
     </row>
     <row r="32" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="99" t="s">
+      <c r="B32" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99" t="s">
+      <c r="C32" s="78"/>
+      <c r="D32" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99" t="s">
+      <c r="E32" s="78"/>
+      <c r="F32" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="99"/>
-      <c r="H32" s="102" t="s">
+      <c r="G32" s="78"/>
+      <c r="H32" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="I32" s="102"/>
-      <c r="J32" s="39" t="s">
+      <c r="I32" s="77"/>
+      <c r="J32" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="102" t="s">
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="O32" s="102"/>
-      <c r="P32" s="102" t="s">
+      <c r="O32" s="77"/>
+      <c r="P32" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="Q32" s="102"/>
-      <c r="R32" s="27" t="s">
+      <c r="Q32" s="77"/>
+      <c r="R32" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="27" t="s">
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="W32" s="28"/>
+      <c r="W32" s="22"/>
       <c r="X32" s="6"/>
       <c r="AE32" s="8"/>
       <c r="AF32" s="8"/>
@@ -4225,42 +4225,42 @@
     </row>
     <row r="35" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="87" t="s">
+      <c r="B35" s="65" t="s">
         <v>297</v>
       </c>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="87" t="s">
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="J35" s="112"/>
-      <c r="K35" s="112"/>
-      <c r="L35" s="112"/>
-      <c r="M35" s="112"/>
-      <c r="N35" s="112"/>
-      <c r="O35" s="112"/>
-      <c r="P35" s="87" t="s">
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="65" t="s">
         <v>299</v>
       </c>
-      <c r="Q35" s="112"/>
-      <c r="R35" s="112"/>
-      <c r="S35" s="112"/>
-      <c r="T35" s="112"/>
-      <c r="U35" s="112"/>
-      <c r="V35" s="112"/>
-      <c r="W35" s="87" t="s">
+      <c r="Q35" s="66"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
+      <c r="V35" s="66"/>
+      <c r="W35" s="65" t="s">
         <v>327</v>
       </c>
-      <c r="X35" s="112"/>
-      <c r="Y35" s="112"/>
-      <c r="Z35" s="112"/>
-      <c r="AA35" s="112"/>
-      <c r="AB35" s="112"/>
-      <c r="AC35" s="112"/>
+      <c r="X35" s="66"/>
+      <c r="Y35" s="66"/>
+      <c r="Z35" s="66"/>
+      <c r="AA35" s="66"/>
+      <c r="AB35" s="66"/>
+      <c r="AC35" s="66"/>
       <c r="AF35" s="8"/>
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
@@ -4279,34 +4279,34 @@
     </row>
     <row r="36" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="112"/>
-      <c r="C36" s="112"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="112"/>
-      <c r="H36" s="112"/>
-      <c r="I36" s="112"/>
-      <c r="J36" s="112"/>
-      <c r="K36" s="112"/>
-      <c r="L36" s="112"/>
-      <c r="M36" s="112"/>
-      <c r="N36" s="112"/>
-      <c r="O36" s="112"/>
-      <c r="P36" s="112"/>
-      <c r="Q36" s="112"/>
-      <c r="R36" s="112"/>
-      <c r="S36" s="112"/>
-      <c r="T36" s="112"/>
-      <c r="U36" s="112"/>
-      <c r="V36" s="112"/>
-      <c r="W36" s="112"/>
-      <c r="X36" s="112"/>
-      <c r="Y36" s="112"/>
-      <c r="Z36" s="112"/>
-      <c r="AA36" s="112"/>
-      <c r="AB36" s="112"/>
-      <c r="AC36" s="112"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="66"/>
+      <c r="R36" s="66"/>
+      <c r="S36" s="66"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="66"/>
+      <c r="V36" s="66"/>
+      <c r="W36" s="66"/>
+      <c r="X36" s="66"/>
+      <c r="Y36" s="66"/>
+      <c r="Z36" s="66"/>
+      <c r="AA36" s="66"/>
+      <c r="AB36" s="66"/>
+      <c r="AC36" s="66"/>
       <c r="AF36" s="8"/>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
@@ -4325,40 +4325,40 @@
     </row>
     <row r="37" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="112" t="s">
+      <c r="B37" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="C37" s="112"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="112"/>
-      <c r="I37" s="112" t="s">
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66" t="s">
         <v>301</v>
       </c>
-      <c r="J37" s="112"/>
-      <c r="K37" s="112"/>
-      <c r="L37" s="112"/>
-      <c r="M37" s="112"/>
-      <c r="N37" s="112"/>
-      <c r="O37" s="112"/>
-      <c r="P37" s="120" t="s">
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="66"/>
+      <c r="P37" s="59" t="s">
         <v>303</v>
       </c>
-      <c r="Q37" s="121"/>
-      <c r="R37" s="121"/>
-      <c r="S37" s="121"/>
-      <c r="T37" s="121"/>
-      <c r="U37" s="121"/>
-      <c r="V37" s="121"/>
-      <c r="W37" s="121"/>
-      <c r="X37" s="121"/>
-      <c r="Y37" s="121"/>
-      <c r="Z37" s="121"/>
-      <c r="AA37" s="121"/>
-      <c r="AB37" s="121"/>
-      <c r="AC37" s="122"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="60"/>
+      <c r="V37" s="60"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="60"/>
+      <c r="Z37" s="60"/>
+      <c r="AA37" s="60"/>
+      <c r="AB37" s="60"/>
+      <c r="AC37" s="61"/>
       <c r="AD37" s="8"/>
       <c r="AE37" s="8"/>
       <c r="AF37" s="8"/>
@@ -4379,34 +4379,34 @@
     </row>
     <row r="38" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="112"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="112"/>
-      <c r="H38" s="112"/>
-      <c r="I38" s="112"/>
-      <c r="J38" s="112"/>
-      <c r="K38" s="112"/>
-      <c r="L38" s="112"/>
-      <c r="M38" s="112"/>
-      <c r="N38" s="112"/>
-      <c r="O38" s="112"/>
-      <c r="P38" s="123"/>
-      <c r="Q38" s="124"/>
-      <c r="R38" s="124"/>
-      <c r="S38" s="124"/>
-      <c r="T38" s="124"/>
-      <c r="U38" s="124"/>
-      <c r="V38" s="124"/>
-      <c r="W38" s="124"/>
-      <c r="X38" s="124"/>
-      <c r="Y38" s="124"/>
-      <c r="Z38" s="124"/>
-      <c r="AA38" s="124"/>
-      <c r="AB38" s="124"/>
-      <c r="AC38" s="125"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="63"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="63"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
+      <c r="AC38" s="64"/>
       <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
@@ -4469,44 +4469,44 @@
     </row>
     <row r="41" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="18" t="s">
+      <c r="C41" s="35"/>
+      <c r="D41" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="18" t="s">
+      <c r="E41" s="41"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="18" t="s">
+      <c r="H41" s="41"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="K41" s="19"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="18" t="s">
+      <c r="K41" s="41"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="N41" s="19"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="18" t="s">
+      <c r="N41" s="41"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="18" t="s">
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="T41" s="19"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="12" t="s">
+      <c r="T41" s="41"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="W41" s="13"/>
+      <c r="W41" s="35"/>
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
       <c r="AA41" s="8"/>
@@ -4534,38 +4534,38 @@
     </row>
     <row r="42" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
-      <c r="B42" s="94" t="s">
+      <c r="B42" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="C42" s="95"/>
-      <c r="D42" s="96" t="s">
+      <c r="C42" s="72"/>
+      <c r="D42" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="97"/>
-      <c r="F42" s="21" t="s">
+      <c r="E42" s="80"/>
+      <c r="F42" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="98"/>
-      <c r="T42" s="83" t="s">
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="81"/>
+      <c r="T42" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="U42" s="84"/>
-      <c r="V42" s="85" t="s">
+      <c r="U42" s="83"/>
+      <c r="V42" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="W42" s="86"/>
+      <c r="W42" s="85"/>
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
       <c r="AA42" s="8"/>
@@ -4592,50 +4592,50 @@
       <c r="AV42" s="6"/>
     </row>
     <row r="43" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="33" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="E43" s="35"/>
-      <c r="F43" s="33" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="G43" s="35"/>
-      <c r="H43" s="81" t="s">
+      <c r="G43" s="15"/>
+      <c r="H43" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="I43" s="82"/>
-      <c r="J43" s="33" t="s">
+      <c r="I43" s="87"/>
+      <c r="J43" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K43" s="35"/>
-      <c r="L43" s="81" t="s">
+      <c r="K43" s="15"/>
+      <c r="L43" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="M43" s="82"/>
-      <c r="N43" s="33" t="s">
+      <c r="M43" s="87"/>
+      <c r="N43" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="O43" s="35"/>
-      <c r="P43" s="33" t="s">
+      <c r="O43" s="15"/>
+      <c r="P43" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="33" t="s">
+      <c r="Q43" s="15"/>
+      <c r="R43" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="S43" s="35"/>
-      <c r="T43" s="33" t="s">
+      <c r="S43" s="15"/>
+      <c r="T43" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="U43" s="35"/>
-      <c r="V43" s="26" t="s">
+      <c r="U43" s="15"/>
+      <c r="V43" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="W43" s="26"/>
+      <c r="W43" s="18"/>
       <c r="X43" s="6"/>
       <c r="AT43" s="6"/>
       <c r="AU43" s="6"/>
@@ -4644,50 +4644,50 @@
     </row>
     <row r="44" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26" t="s">
+      <c r="C44" s="18"/>
+      <c r="D44" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26" t="s">
+      <c r="E44" s="18"/>
+      <c r="F44" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26" t="s">
+      <c r="G44" s="18"/>
+      <c r="H44" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26" t="s">
+      <c r="I44" s="18"/>
+      <c r="J44" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26" t="s">
+      <c r="K44" s="18"/>
+      <c r="L44" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="M44" s="26"/>
-      <c r="N44" s="102" t="s">
+      <c r="M44" s="18"/>
+      <c r="N44" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="O44" s="102"/>
-      <c r="P44" s="26" t="s">
+      <c r="O44" s="77"/>
+      <c r="P44" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="26" t="s">
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="S44" s="26"/>
-      <c r="T44" s="26" t="s">
+      <c r="S44" s="18"/>
+      <c r="T44" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="U44" s="26"/>
-      <c r="V44" s="100" t="s">
+      <c r="U44" s="18"/>
+      <c r="V44" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="W44" s="100"/>
+      <c r="W44" s="74"/>
       <c r="AA44" s="8"/>
       <c r="AB44" s="8"/>
       <c r="AC44" s="8"/>
@@ -4708,50 +4708,50 @@
     </row>
     <row r="45" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26" t="s">
+      <c r="C45" s="18"/>
+      <c r="D45" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26" t="s">
+      <c r="E45" s="18"/>
+      <c r="F45" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26" t="s">
+      <c r="G45" s="18"/>
+      <c r="H45" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26" t="s">
+      <c r="I45" s="18"/>
+      <c r="J45" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26" t="s">
+      <c r="K45" s="18"/>
+      <c r="L45" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26" t="s">
+      <c r="M45" s="18"/>
+      <c r="N45" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26" t="s">
+      <c r="O45" s="18"/>
+      <c r="P45" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="44" t="s">
+      <c r="Q45" s="18"/>
+      <c r="R45" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="S45" s="44"/>
-      <c r="T45" s="44" t="s">
+      <c r="S45" s="19"/>
+      <c r="T45" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="U45" s="44"/>
-      <c r="V45" s="44" t="s">
+      <c r="U45" s="19"/>
+      <c r="V45" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="W45" s="44"/>
+      <c r="W45" s="19"/>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
       <c r="AA45" s="8"/>
@@ -4779,46 +4779,46 @@
     </row>
     <row r="46" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="99" t="s">
+      <c r="B46" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="99"/>
-      <c r="D46" s="99" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="99"/>
-      <c r="F46" s="99" t="s">
+      <c r="E46" s="78"/>
+      <c r="F46" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="99"/>
-      <c r="H46" s="102" t="s">
+      <c r="G46" s="78"/>
+      <c r="H46" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="I46" s="102"/>
-      <c r="J46" s="39" t="s">
+      <c r="I46" s="77"/>
+      <c r="J46" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="102" t="s">
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="77" t="s">
         <v>195</v>
       </c>
-      <c r="O46" s="102"/>
-      <c r="P46" s="26" t="s">
+      <c r="O46" s="77"/>
+      <c r="P46" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="Q46" s="26"/>
-      <c r="R46" s="27" t="s">
+      <c r="Q46" s="18"/>
+      <c r="R46" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37"/>
-      <c r="U46" s="37"/>
-      <c r="V46" s="27" t="s">
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="W46" s="28"/>
+      <c r="W46" s="22"/>
       <c r="X46" s="6"/>
       <c r="AE46" s="8"/>
       <c r="AF46" s="8"/>
@@ -4882,44 +4882,44 @@
     </row>
     <row r="49" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="18" t="s">
+      <c r="C49" s="35"/>
+      <c r="D49" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="18" t="s">
+      <c r="E49" s="41"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="18" t="s">
+      <c r="H49" s="41"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="K49" s="19"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="18" t="s">
+      <c r="K49" s="41"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="N49" s="19"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="18" t="s">
+      <c r="N49" s="41"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="18" t="s">
+      <c r="Q49" s="41"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="T49" s="19"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="12" t="s">
+      <c r="T49" s="41"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="W49" s="13"/>
+      <c r="W49" s="35"/>
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
       <c r="AA49" s="8"/>
@@ -4947,38 +4947,38 @@
     </row>
     <row r="50" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
-      <c r="B50" s="94" t="s">
+      <c r="B50" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="C50" s="95"/>
-      <c r="D50" s="96" t="s">
+      <c r="C50" s="72"/>
+      <c r="D50" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="E50" s="97"/>
-      <c r="F50" s="21" t="s">
+      <c r="E50" s="80"/>
+      <c r="F50" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="98"/>
-      <c r="T50" s="83" t="s">
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="81"/>
+      <c r="T50" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="U50" s="84"/>
-      <c r="V50" s="85" t="s">
+      <c r="U50" s="83"/>
+      <c r="V50" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="W50" s="86"/>
+      <c r="W50" s="85"/>
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="8"/>
@@ -5005,50 +5005,50 @@
       <c r="AV50" s="6"/>
     </row>
     <row r="51" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="110" t="s">
+      <c r="B51" s="75" t="s">
         <v>197</v>
       </c>
-      <c r="C51" s="111"/>
-      <c r="D51" s="42" t="s">
+      <c r="C51" s="76"/>
+      <c r="D51" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="E51" s="43"/>
-      <c r="F51" s="110" t="s">
+      <c r="E51" s="17"/>
+      <c r="F51" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="G51" s="111"/>
-      <c r="H51" s="42" t="s">
+      <c r="G51" s="76"/>
+      <c r="H51" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="I51" s="43"/>
-      <c r="J51" s="33" t="s">
+      <c r="I51" s="17"/>
+      <c r="J51" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="K51" s="35"/>
-      <c r="L51" s="33" t="s">
+      <c r="K51" s="15"/>
+      <c r="L51" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="M51" s="35"/>
-      <c r="N51" s="42" t="s">
+      <c r="M51" s="15"/>
+      <c r="N51" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="O51" s="43"/>
-      <c r="P51" s="42" t="s">
+      <c r="O51" s="17"/>
+      <c r="P51" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="Q51" s="43"/>
-      <c r="R51" s="42" t="s">
+      <c r="Q51" s="17"/>
+      <c r="R51" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="S51" s="43"/>
-      <c r="T51" s="42" t="s">
+      <c r="S51" s="17"/>
+      <c r="T51" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="U51" s="43"/>
-      <c r="V51" s="26" t="s">
+      <c r="U51" s="17"/>
+      <c r="V51" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="W51" s="26"/>
+      <c r="W51" s="18"/>
       <c r="X51" s="6"/>
       <c r="AT51" s="6"/>
       <c r="AU51" s="6"/>
@@ -5057,30 +5057,30 @@
     </row>
     <row r="52" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="102"/>
-      <c r="O52" s="102"/>
-      <c r="P52" s="26"/>
-      <c r="Q52" s="26"/>
-      <c r="R52" s="26"/>
-      <c r="S52" s="26"/>
-      <c r="T52" s="26"/>
-      <c r="U52" s="26"/>
-      <c r="V52" s="100" t="s">
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="77"/>
+      <c r="O52" s="77"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="18"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="W52" s="100"/>
+      <c r="W52" s="74"/>
       <c r="AA52" s="8"/>
       <c r="AB52" s="8"/>
       <c r="AC52" s="8"/>
@@ -5101,36 +5101,36 @@
     </row>
     <row r="53" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="26"/>
-      <c r="Q53" s="26"/>
-      <c r="R53" s="44" t="s">
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="S53" s="44"/>
-      <c r="T53" s="44" t="s">
+      <c r="S53" s="19"/>
+      <c r="T53" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="U53" s="44"/>
-      <c r="V53" s="44" t="s">
+      <c r="U53" s="19"/>
+      <c r="V53" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="W53" s="44"/>
+      <c r="W53" s="19"/>
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="8"/>
@@ -5158,40 +5158,40 @@
     </row>
     <row r="54" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="99" t="s">
+      <c r="B54" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99" t="s">
+      <c r="C54" s="78"/>
+      <c r="D54" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="E54" s="99"/>
-      <c r="F54" s="99" t="s">
+      <c r="E54" s="78"/>
+      <c r="F54" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="99"/>
-      <c r="H54" s="102"/>
-      <c r="I54" s="102"/>
-      <c r="J54" s="39" t="s">
+      <c r="G54" s="78"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K54" s="41"/>
-      <c r="L54" s="41"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="102"/>
-      <c r="O54" s="102"/>
-      <c r="P54" s="26"/>
-      <c r="Q54" s="26"/>
-      <c r="R54" s="27" t="s">
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="77"/>
+      <c r="O54" s="77"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S54" s="37"/>
-      <c r="T54" s="37"/>
-      <c r="U54" s="37"/>
-      <c r="V54" s="27" t="s">
+      <c r="S54" s="29"/>
+      <c r="T54" s="29"/>
+      <c r="U54" s="29"/>
+      <c r="V54" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="W54" s="28"/>
+      <c r="W54" s="22"/>
       <c r="X54" s="6"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="8"/>
@@ -5258,44 +5258,44 @@
     </row>
     <row r="57" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="18" t="s">
+      <c r="C57" s="35"/>
+      <c r="D57" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="E57" s="19"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="18" t="s">
+      <c r="E57" s="41"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="18" t="s">
+      <c r="H57" s="41"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="K57" s="19"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="18" t="s">
+      <c r="K57" s="41"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="N57" s="19"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="18" t="s">
+      <c r="N57" s="41"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="20"/>
-      <c r="S57" s="18" t="s">
+      <c r="Q57" s="41"/>
+      <c r="R57" s="42"/>
+      <c r="S57" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="T57" s="19"/>
-      <c r="U57" s="20"/>
-      <c r="V57" s="12" t="s">
+      <c r="T57" s="41"/>
+      <c r="U57" s="42"/>
+      <c r="V57" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="W57" s="13"/>
+      <c r="W57" s="35"/>
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="8"/>
@@ -5323,38 +5323,38 @@
     </row>
     <row r="58" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="B58" s="94" t="s">
+      <c r="B58" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="C58" s="95"/>
-      <c r="D58" s="96" t="s">
+      <c r="C58" s="72"/>
+      <c r="D58" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="E58" s="97"/>
-      <c r="F58" s="21" t="s">
+      <c r="E58" s="80"/>
+      <c r="F58" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="98"/>
-      <c r="T58" s="83" t="s">
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
+      <c r="R58" s="44"/>
+      <c r="S58" s="81"/>
+      <c r="T58" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="U58" s="84"/>
-      <c r="V58" s="85" t="s">
+      <c r="U58" s="83"/>
+      <c r="V58" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="W58" s="86"/>
+      <c r="W58" s="85"/>
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="8"/>
@@ -5381,50 +5381,50 @@
       <c r="AV58" s="6"/>
     </row>
     <row r="59" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="110" t="s">
+      <c r="B59" s="75" t="s">
         <v>207</v>
       </c>
-      <c r="C59" s="111"/>
-      <c r="D59" s="42" t="s">
+      <c r="C59" s="76"/>
+      <c r="D59" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="E59" s="43"/>
-      <c r="F59" s="110" t="s">
+      <c r="E59" s="17"/>
+      <c r="F59" s="75" t="s">
         <v>209</v>
       </c>
-      <c r="G59" s="111"/>
-      <c r="H59" s="42" t="s">
+      <c r="G59" s="76"/>
+      <c r="H59" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="I59" s="43"/>
-      <c r="J59" s="33" t="s">
+      <c r="I59" s="17"/>
+      <c r="J59" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="K59" s="35"/>
-      <c r="L59" s="33" t="s">
+      <c r="K59" s="15"/>
+      <c r="L59" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="M59" s="35"/>
-      <c r="N59" s="42" t="s">
+      <c r="M59" s="15"/>
+      <c r="N59" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="O59" s="43"/>
-      <c r="P59" s="42" t="s">
+      <c r="O59" s="17"/>
+      <c r="P59" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="Q59" s="43"/>
-      <c r="R59" s="42" t="s">
+      <c r="Q59" s="17"/>
+      <c r="R59" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="S59" s="43"/>
-      <c r="T59" s="42" t="s">
+      <c r="S59" s="17"/>
+      <c r="T59" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="U59" s="43"/>
-      <c r="V59" s="26" t="s">
+      <c r="U59" s="17"/>
+      <c r="V59" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="W59" s="26"/>
+      <c r="W59" s="18"/>
       <c r="X59" s="6"/>
       <c r="AT59" s="6"/>
       <c r="AU59" s="6"/>
@@ -5433,50 +5433,50 @@
     </row>
     <row r="60" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26" t="s">
+      <c r="C60" s="18"/>
+      <c r="D60" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26" t="s">
+      <c r="E60" s="18"/>
+      <c r="F60" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26" t="s">
+      <c r="G60" s="18"/>
+      <c r="H60" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="I60" s="26"/>
-      <c r="J60" s="33" t="s">
+      <c r="I60" s="18"/>
+      <c r="J60" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="K60" s="35"/>
-      <c r="L60" s="26" t="s">
+      <c r="K60" s="15"/>
+      <c r="L60" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="M60" s="26"/>
-      <c r="N60" s="102" t="s">
+      <c r="M60" s="18"/>
+      <c r="N60" s="77" t="s">
         <v>223</v>
       </c>
-      <c r="O60" s="102"/>
-      <c r="P60" s="26" t="s">
+      <c r="O60" s="77"/>
+      <c r="P60" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="Q60" s="26"/>
-      <c r="R60" s="26" t="s">
+      <c r="Q60" s="18"/>
+      <c r="R60" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="S60" s="26"/>
-      <c r="T60" s="26" t="s">
+      <c r="S60" s="18"/>
+      <c r="T60" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="U60" s="26"/>
-      <c r="V60" s="100" t="s">
+      <c r="U60" s="18"/>
+      <c r="V60" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="W60" s="100"/>
+      <c r="W60" s="74"/>
       <c r="AA60" s="8"/>
       <c r="AB60" s="8"/>
       <c r="AC60" s="8"/>
@@ -5497,50 +5497,50 @@
     </row>
     <row r="61" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26" t="s">
+      <c r="C61" s="18"/>
+      <c r="D61" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26" t="s">
+      <c r="E61" s="18"/>
+      <c r="F61" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26" t="s">
+      <c r="G61" s="18"/>
+      <c r="H61" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26" t="s">
+      <c r="I61" s="18"/>
+      <c r="J61" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26" t="s">
+      <c r="K61" s="18"/>
+      <c r="L61" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="M61" s="26"/>
-      <c r="N61" s="26" t="s">
+      <c r="M61" s="18"/>
+      <c r="N61" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="O61" s="26"/>
-      <c r="P61" s="26" t="s">
+      <c r="O61" s="18"/>
+      <c r="P61" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="Q61" s="26"/>
-      <c r="R61" s="44" t="s">
+      <c r="Q61" s="18"/>
+      <c r="R61" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="S61" s="44"/>
-      <c r="T61" s="44" t="s">
+      <c r="S61" s="19"/>
+      <c r="T61" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="U61" s="44"/>
-      <c r="V61" s="44" t="s">
+      <c r="U61" s="19"/>
+      <c r="V61" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="W61" s="44"/>
+      <c r="W61" s="19"/>
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
       <c r="AA61" s="8"/>
@@ -5568,46 +5568,46 @@
     </row>
     <row r="62" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="99" t="s">
+      <c r="B62" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="99"/>
-      <c r="D62" s="99" t="s">
+      <c r="C62" s="78"/>
+      <c r="D62" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="E62" s="99"/>
-      <c r="F62" s="99" t="s">
+      <c r="E62" s="78"/>
+      <c r="F62" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="G62" s="99"/>
-      <c r="H62" s="102" t="s">
+      <c r="G62" s="78"/>
+      <c r="H62" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="I62" s="102"/>
-      <c r="J62" s="39" t="s">
+      <c r="I62" s="77"/>
+      <c r="J62" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K62" s="41"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="41"/>
-      <c r="N62" s="102" t="s">
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="O62" s="102"/>
-      <c r="P62" s="26" t="s">
+      <c r="O62" s="77"/>
+      <c r="P62" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="Q62" s="26"/>
-      <c r="R62" s="27" t="s">
+      <c r="Q62" s="18"/>
+      <c r="R62" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S62" s="37"/>
-      <c r="T62" s="37"/>
-      <c r="U62" s="37"/>
-      <c r="V62" s="27" t="s">
+      <c r="S62" s="29"/>
+      <c r="T62" s="29"/>
+      <c r="U62" s="29"/>
+      <c r="V62" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="W62" s="28"/>
+      <c r="W62" s="22"/>
       <c r="X62" s="6"/>
       <c r="AE62" s="8"/>
       <c r="AF62" s="8"/>
@@ -5671,44 +5671,44 @@
     </row>
     <row r="65" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="18" t="s">
+      <c r="C65" s="35"/>
+      <c r="D65" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="E65" s="19"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="18" t="s">
+      <c r="E65" s="41"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="18" t="s">
+      <c r="H65" s="41"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="K65" s="19"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="18" t="s">
+      <c r="K65" s="41"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="N65" s="19"/>
-      <c r="O65" s="20"/>
-      <c r="P65" s="18" t="s">
+      <c r="N65" s="41"/>
+      <c r="O65" s="42"/>
+      <c r="P65" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="Q65" s="19"/>
-      <c r="R65" s="20"/>
-      <c r="S65" s="18" t="s">
+      <c r="Q65" s="41"/>
+      <c r="R65" s="42"/>
+      <c r="S65" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="T65" s="19"/>
-      <c r="U65" s="20"/>
-      <c r="V65" s="12" t="s">
+      <c r="T65" s="41"/>
+      <c r="U65" s="42"/>
+      <c r="V65" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="W65" s="13"/>
+      <c r="W65" s="35"/>
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
       <c r="AA65" s="8"/>
@@ -5736,38 +5736,38 @@
     </row>
     <row r="66" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
-      <c r="B66" s="94" t="s">
+      <c r="B66" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="C66" s="95"/>
-      <c r="D66" s="96" t="s">
+      <c r="C66" s="72"/>
+      <c r="D66" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="E66" s="97"/>
-      <c r="F66" s="21" t="s">
+      <c r="E66" s="80"/>
+      <c r="F66" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="22"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="22"/>
-      <c r="R66" s="22"/>
-      <c r="S66" s="98"/>
-      <c r="T66" s="83" t="s">
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="44"/>
+      <c r="O66" s="44"/>
+      <c r="P66" s="44"/>
+      <c r="Q66" s="44"/>
+      <c r="R66" s="44"/>
+      <c r="S66" s="81"/>
+      <c r="T66" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="U66" s="84"/>
-      <c r="V66" s="85" t="s">
+      <c r="U66" s="83"/>
+      <c r="V66" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="W66" s="86"/>
+      <c r="W66" s="85"/>
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="8"/>
@@ -5794,50 +5794,50 @@
       <c r="AV66" s="6"/>
     </row>
     <row r="67" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="110" t="s">
+      <c r="B67" s="75" t="s">
         <v>237</v>
       </c>
-      <c r="C67" s="111"/>
-      <c r="D67" s="42" t="s">
+      <c r="C67" s="76"/>
+      <c r="D67" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="E67" s="43"/>
-      <c r="F67" s="110" t="s">
+      <c r="E67" s="17"/>
+      <c r="F67" s="75" t="s">
         <v>239</v>
       </c>
-      <c r="G67" s="111"/>
-      <c r="H67" s="42" t="s">
+      <c r="G67" s="76"/>
+      <c r="H67" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="I67" s="43"/>
-      <c r="J67" s="33" t="s">
+      <c r="I67" s="17"/>
+      <c r="J67" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="K67" s="35"/>
-      <c r="L67" s="33" t="s">
+      <c r="K67" s="15"/>
+      <c r="L67" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="M67" s="35"/>
-      <c r="N67" s="42" t="s">
+      <c r="M67" s="15"/>
+      <c r="N67" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="O67" s="43"/>
-      <c r="P67" s="42" t="s">
+      <c r="O67" s="17"/>
+      <c r="P67" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="Q67" s="43"/>
-      <c r="R67" s="42" t="s">
+      <c r="Q67" s="17"/>
+      <c r="R67" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="S67" s="43"/>
-      <c r="T67" s="42" t="s">
+      <c r="S67" s="17"/>
+      <c r="T67" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="U67" s="43"/>
-      <c r="V67" s="26" t="s">
+      <c r="U67" s="17"/>
+      <c r="V67" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="W67" s="26"/>
+      <c r="W67" s="18"/>
       <c r="X67" s="6"/>
       <c r="AT67" s="6"/>
       <c r="AU67" s="6"/>
@@ -5846,50 +5846,50 @@
     </row>
     <row r="68" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26" t="s">
+      <c r="C68" s="18"/>
+      <c r="D68" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26" t="s">
+      <c r="E68" s="18"/>
+      <c r="F68" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26" t="s">
+      <c r="G68" s="18"/>
+      <c r="H68" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="I68" s="26"/>
-      <c r="J68" s="33" t="s">
+      <c r="I68" s="18"/>
+      <c r="J68" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="K68" s="35"/>
-      <c r="L68" s="26" t="s">
+      <c r="K68" s="15"/>
+      <c r="L68" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="M68" s="26"/>
-      <c r="N68" s="102" t="s">
+      <c r="M68" s="18"/>
+      <c r="N68" s="77" t="s">
         <v>253</v>
       </c>
-      <c r="O68" s="102"/>
-      <c r="P68" s="26" t="s">
+      <c r="O68" s="77"/>
+      <c r="P68" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="Q68" s="26"/>
-      <c r="R68" s="26" t="s">
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="S68" s="26"/>
-      <c r="T68" s="26" t="s">
+      <c r="S68" s="18"/>
+      <c r="T68" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="U68" s="26"/>
-      <c r="V68" s="100" t="s">
+      <c r="U68" s="18"/>
+      <c r="V68" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="W68" s="100"/>
+      <c r="W68" s="74"/>
       <c r="AA68" s="8"/>
       <c r="AB68" s="8"/>
       <c r="AC68" s="8"/>
@@ -5910,50 +5910,50 @@
     </row>
     <row r="69" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26" t="s">
+      <c r="C69" s="18"/>
+      <c r="D69" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26" t="s">
+      <c r="E69" s="18"/>
+      <c r="F69" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26" t="s">
+      <c r="G69" s="18"/>
+      <c r="H69" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26" t="s">
+      <c r="I69" s="18"/>
+      <c r="J69" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26" t="s">
+      <c r="K69" s="18"/>
+      <c r="L69" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="M69" s="26"/>
-      <c r="N69" s="26" t="s">
+      <c r="M69" s="18"/>
+      <c r="N69" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="O69" s="26"/>
-      <c r="P69" s="26" t="s">
+      <c r="O69" s="18"/>
+      <c r="P69" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="Q69" s="26"/>
-      <c r="R69" s="44" t="s">
+      <c r="Q69" s="18"/>
+      <c r="R69" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="S69" s="44"/>
-      <c r="T69" s="44" t="s">
+      <c r="S69" s="19"/>
+      <c r="T69" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="U69" s="44"/>
-      <c r="V69" s="44" t="s">
+      <c r="U69" s="19"/>
+      <c r="V69" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="W69" s="44"/>
+      <c r="W69" s="19"/>
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
       <c r="AA69" s="8"/>
@@ -5981,46 +5981,46 @@
     </row>
     <row r="70" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="99" t="s">
+      <c r="B70" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="99"/>
-      <c r="D70" s="99" t="s">
+      <c r="C70" s="78"/>
+      <c r="D70" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="E70" s="99"/>
-      <c r="F70" s="99" t="s">
+      <c r="E70" s="78"/>
+      <c r="F70" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="G70" s="99"/>
-      <c r="H70" s="102" t="s">
+      <c r="G70" s="78"/>
+      <c r="H70" s="77" t="s">
         <v>267</v>
       </c>
-      <c r="I70" s="102"/>
-      <c r="J70" s="39" t="s">
+      <c r="I70" s="77"/>
+      <c r="J70" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K70" s="41"/>
-      <c r="L70" s="41"/>
-      <c r="M70" s="41"/>
-      <c r="N70" s="113" t="s">
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="O70" s="113"/>
-      <c r="P70" s="26" t="s">
+      <c r="O70" s="73"/>
+      <c r="P70" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="Q70" s="26"/>
-      <c r="R70" s="27" t="s">
+      <c r="Q70" s="18"/>
+      <c r="R70" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S70" s="37"/>
-      <c r="T70" s="37"/>
-      <c r="U70" s="37"/>
-      <c r="V70" s="27" t="s">
+      <c r="S70" s="29"/>
+      <c r="T70" s="29"/>
+      <c r="U70" s="29"/>
+      <c r="V70" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="W70" s="28"/>
+      <c r="W70" s="22"/>
       <c r="X70" s="6"/>
       <c r="AE70" s="8"/>
       <c r="AF70" s="8"/>
@@ -6084,44 +6084,44 @@
     </row>
     <row r="73" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="18" t="s">
+      <c r="C73" s="35"/>
+      <c r="D73" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="E73" s="19"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="18" t="s">
+      <c r="E73" s="41"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="18" t="s">
+      <c r="H73" s="41"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="K73" s="19"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="18" t="s">
+      <c r="K73" s="41"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="N73" s="19"/>
-      <c r="O73" s="20"/>
-      <c r="P73" s="18" t="s">
+      <c r="N73" s="41"/>
+      <c r="O73" s="42"/>
+      <c r="P73" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="Q73" s="19"/>
-      <c r="R73" s="20"/>
-      <c r="S73" s="18" t="s">
+      <c r="Q73" s="41"/>
+      <c r="R73" s="42"/>
+      <c r="S73" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="T73" s="19"/>
-      <c r="U73" s="20"/>
-      <c r="V73" s="12" t="s">
+      <c r="T73" s="41"/>
+      <c r="U73" s="42"/>
+      <c r="V73" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="W73" s="13"/>
+      <c r="W73" s="35"/>
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
       <c r="AA73" s="8"/>
@@ -6149,38 +6149,38 @@
     </row>
     <row r="74" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
-      <c r="B74" s="94" t="s">
+      <c r="B74" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="C74" s="95"/>
-      <c r="D74" s="96" t="s">
+      <c r="C74" s="72"/>
+      <c r="D74" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="E74" s="97"/>
-      <c r="F74" s="21" t="s">
+      <c r="E74" s="80"/>
+      <c r="F74" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="22"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="22"/>
-      <c r="O74" s="22"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
-      <c r="R74" s="22"/>
-      <c r="S74" s="98"/>
-      <c r="T74" s="83" t="s">
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="44"/>
+      <c r="O74" s="44"/>
+      <c r="P74" s="44"/>
+      <c r="Q74" s="44"/>
+      <c r="R74" s="44"/>
+      <c r="S74" s="81"/>
+      <c r="T74" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="U74" s="84"/>
-      <c r="V74" s="85" t="s">
+      <c r="U74" s="83"/>
+      <c r="V74" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="W74" s="86"/>
+      <c r="W74" s="85"/>
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
       <c r="AA74" s="8"/>
@@ -6207,50 +6207,50 @@
       <c r="AV74" s="6"/>
     </row>
     <row r="75" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="110" t="s">
+      <c r="B75" s="75" t="s">
         <v>270</v>
       </c>
-      <c r="C75" s="111"/>
-      <c r="D75" s="42" t="s">
+      <c r="C75" s="76"/>
+      <c r="D75" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="E75" s="43"/>
-      <c r="F75" s="42" t="s">
+      <c r="E75" s="17"/>
+      <c r="F75" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="G75" s="43"/>
-      <c r="H75" s="42" t="s">
+      <c r="G75" s="17"/>
+      <c r="H75" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="I75" s="43"/>
-      <c r="J75" s="42" t="s">
+      <c r="I75" s="17"/>
+      <c r="J75" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="K75" s="43"/>
-      <c r="L75" s="42" t="s">
+      <c r="K75" s="17"/>
+      <c r="L75" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="M75" s="43"/>
-      <c r="N75" s="42" t="s">
+      <c r="M75" s="17"/>
+      <c r="N75" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="O75" s="43"/>
-      <c r="P75" s="42" t="s">
+      <c r="O75" s="17"/>
+      <c r="P75" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="Q75" s="43"/>
-      <c r="R75" s="26" t="s">
+      <c r="Q75" s="17"/>
+      <c r="R75" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="S75" s="26"/>
-      <c r="T75" s="26" t="s">
+      <c r="S75" s="18"/>
+      <c r="T75" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="U75" s="26"/>
-      <c r="V75" s="26" t="s">
+      <c r="U75" s="18"/>
+      <c r="V75" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="W75" s="26"/>
+      <c r="W75" s="18"/>
       <c r="X75" s="6"/>
       <c r="AT75" s="6"/>
       <c r="AU75" s="6"/>
@@ -6259,50 +6259,50 @@
     </row>
     <row r="76" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="33" t="s">
+      <c r="B76" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="C76" s="35"/>
-      <c r="D76" s="33" t="s">
+      <c r="C76" s="15"/>
+      <c r="D76" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="E76" s="35"/>
-      <c r="F76" s="33" t="s">
+      <c r="E76" s="15"/>
+      <c r="F76" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="G76" s="35"/>
-      <c r="H76" s="33" t="s">
+      <c r="G76" s="15"/>
+      <c r="H76" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="I76" s="35"/>
-      <c r="J76" s="59" t="s">
+      <c r="I76" s="15"/>
+      <c r="J76" s="67" t="s">
         <v>284</v>
       </c>
-      <c r="K76" s="61"/>
-      <c r="L76" s="33" t="s">
+      <c r="K76" s="69"/>
+      <c r="L76" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="M76" s="35"/>
-      <c r="N76" s="26" t="s">
+      <c r="M76" s="15"/>
+      <c r="N76" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="O76" s="26"/>
-      <c r="P76" s="26" t="s">
+      <c r="O76" s="18"/>
+      <c r="P76" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="Q76" s="26"/>
-      <c r="R76" s="26" t="s">
+      <c r="Q76" s="18"/>
+      <c r="R76" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="S76" s="26"/>
-      <c r="T76" s="26" t="s">
+      <c r="S76" s="18"/>
+      <c r="T76" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="U76" s="26"/>
-      <c r="V76" s="100" t="s">
+      <c r="U76" s="18"/>
+      <c r="V76" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="W76" s="100"/>
+      <c r="W76" s="74"/>
       <c r="AA76" s="8"/>
       <c r="AB76" s="8"/>
       <c r="AC76" s="8"/>
@@ -6323,46 +6323,46 @@
     </row>
     <row r="77" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="26"/>
-      <c r="D77" s="33" t="s">
+      <c r="C77" s="18"/>
+      <c r="D77" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="E77" s="35"/>
-      <c r="F77" s="33" t="s">
+      <c r="E77" s="15"/>
+      <c r="F77" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="G77" s="35"/>
-      <c r="H77" s="33" t="s">
+      <c r="G77" s="15"/>
+      <c r="H77" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="I77" s="35"/>
-      <c r="J77" s="59" t="s">
+      <c r="I77" s="15"/>
+      <c r="J77" s="67" t="s">
         <v>293</v>
       </c>
-      <c r="K77" s="61"/>
-      <c r="L77" s="59" t="s">
+      <c r="K77" s="69"/>
+      <c r="L77" s="67" t="s">
         <v>294</v>
       </c>
-      <c r="M77" s="61"/>
-      <c r="N77" s="26"/>
-      <c r="O77" s="26"/>
-      <c r="P77" s="26"/>
-      <c r="Q77" s="26"/>
-      <c r="R77" s="44" t="s">
+      <c r="M77" s="69"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="18"/>
+      <c r="R77" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="S77" s="44"/>
-      <c r="T77" s="44" t="s">
+      <c r="S77" s="19"/>
+      <c r="T77" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="U77" s="44"/>
-      <c r="V77" s="44" t="s">
+      <c r="U77" s="19"/>
+      <c r="V77" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="W77" s="44"/>
+      <c r="W77" s="19"/>
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
       <c r="AA77" s="8"/>
@@ -6390,40 +6390,40 @@
     </row>
     <row r="78" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="99" t="s">
+      <c r="B78" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="99"/>
-      <c r="D78" s="99" t="s">
+      <c r="C78" s="78"/>
+      <c r="D78" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="E78" s="99"/>
-      <c r="F78" s="99" t="s">
+      <c r="E78" s="78"/>
+      <c r="F78" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="G78" s="99"/>
-      <c r="H78" s="102"/>
-      <c r="I78" s="102"/>
-      <c r="J78" s="39" t="s">
+      <c r="G78" s="78"/>
+      <c r="H78" s="77"/>
+      <c r="I78" s="77"/>
+      <c r="J78" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K78" s="41"/>
-      <c r="L78" s="41"/>
-      <c r="M78" s="41"/>
-      <c r="N78" s="113"/>
-      <c r="O78" s="113"/>
-      <c r="P78" s="26"/>
-      <c r="Q78" s="26"/>
-      <c r="R78" s="27" t="s">
+      <c r="K78" s="33"/>
+      <c r="L78" s="33"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="73"/>
+      <c r="O78" s="73"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="18"/>
+      <c r="R78" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S78" s="37"/>
-      <c r="T78" s="37"/>
-      <c r="U78" s="37"/>
-      <c r="V78" s="27" t="s">
+      <c r="S78" s="29"/>
+      <c r="T78" s="29"/>
+      <c r="U78" s="29"/>
+      <c r="V78" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="W78" s="28"/>
+      <c r="W78" s="22"/>
       <c r="X78" s="6"/>
       <c r="Z78" s="6"/>
       <c r="AA78" s="8"/>
@@ -6489,46 +6489,46 @@
       </c>
     </row>
     <row r="81" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="76" t="s">
+      <c r="C81" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="D81" s="76"/>
-      <c r="E81" s="76" t="s">
+      <c r="D81" s="70"/>
+      <c r="E81" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="F81" s="76"/>
-      <c r="G81" s="76" t="s">
+      <c r="F81" s="70"/>
+      <c r="G81" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="H81" s="76"/>
-      <c r="I81" s="76" t="s">
+      <c r="H81" s="70"/>
+      <c r="I81" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="J81" s="76"/>
-      <c r="K81" s="76" t="s">
+      <c r="J81" s="70"/>
+      <c r="K81" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="L81" s="76"/>
-      <c r="M81" s="76" t="s">
+      <c r="L81" s="70"/>
+      <c r="M81" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="N81" s="76"/>
-      <c r="O81" s="76" t="s">
+      <c r="N81" s="70"/>
+      <c r="O81" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="P81" s="76"/>
-      <c r="Q81" s="76" t="s">
+      <c r="P81" s="70"/>
+      <c r="Q81" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="R81" s="76"/>
-      <c r="S81" s="76" t="s">
+      <c r="R81" s="70"/>
+      <c r="S81" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="T81" s="76"/>
-      <c r="U81" s="76" t="s">
+      <c r="T81" s="70"/>
+      <c r="U81" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="V81" s="76"/>
+      <c r="V81" s="70"/>
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
       <c r="Y81" s="5"/>
@@ -6537,136 +6537,136 @@
     </row>
     <row r="82" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="78" t="s">
+      <c r="B82" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="79"/>
-      <c r="D82" s="78" t="s">
+      <c r="C82" s="100"/>
+      <c r="D82" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="E82" s="79"/>
-      <c r="F82" s="48" t="s">
+      <c r="E82" s="100"/>
+      <c r="F82" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48" t="s">
+      <c r="G82" s="108"/>
+      <c r="H82" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="I82" s="48"/>
-      <c r="J82" s="74" t="s">
+      <c r="I82" s="108"/>
+      <c r="J82" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="K82" s="75"/>
-      <c r="L82" s="74" t="s">
+      <c r="K82" s="98"/>
+      <c r="L82" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="M82" s="75"/>
-      <c r="N82" s="74" t="s">
+      <c r="M82" s="98"/>
+      <c r="N82" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="O82" s="75"/>
-      <c r="P82" s="78" t="s">
+      <c r="O82" s="98"/>
+      <c r="P82" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="Q82" s="79"/>
-      <c r="R82" s="78" t="s">
+      <c r="Q82" s="100"/>
+      <c r="R82" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="S82" s="79"/>
-      <c r="T82" s="78" t="s">
+      <c r="S82" s="100"/>
+      <c r="T82" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="U82" s="79"/>
-      <c r="V82" s="80" t="s">
+      <c r="U82" s="100"/>
+      <c r="V82" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="W82" s="80"/>
+      <c r="W82" s="107"/>
     </row>
     <row r="83" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="26" t="s">
+      <c r="B83" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="26"/>
-      <c r="D83" s="74" t="s">
+      <c r="C83" s="18"/>
+      <c r="D83" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="E83" s="75"/>
-      <c r="F83" s="74" t="s">
+      <c r="E83" s="98"/>
+      <c r="F83" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="G83" s="75"/>
-      <c r="H83" s="74" t="s">
+      <c r="G83" s="98"/>
+      <c r="H83" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="I83" s="75"/>
-      <c r="J83" s="78" t="s">
+      <c r="I83" s="98"/>
+      <c r="J83" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="K83" s="79"/>
-      <c r="L83" s="78" t="s">
+      <c r="K83" s="100"/>
+      <c r="L83" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="M83" s="79"/>
-      <c r="N83" s="78" t="s">
+      <c r="M83" s="100"/>
+      <c r="N83" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="O83" s="79"/>
-      <c r="P83" s="74" t="s">
+      <c r="O83" s="100"/>
+      <c r="P83" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="Q83" s="75"/>
-      <c r="R83" s="44" t="s">
+      <c r="Q83" s="98"/>
+      <c r="R83" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="S83" s="44"/>
-      <c r="T83" s="44" t="s">
+      <c r="S83" s="19"/>
+      <c r="T83" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="U83" s="44"/>
-      <c r="V83" s="77" t="s">
+      <c r="U83" s="19"/>
+      <c r="V83" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="W83" s="77"/>
+      <c r="W83" s="106"/>
     </row>
     <row r="84" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="99" t="s">
+      <c r="B84" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C84" s="99"/>
-      <c r="D84" s="99" t="s">
+      <c r="C84" s="78"/>
+      <c r="D84" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="E84" s="99"/>
-      <c r="F84" s="99" t="s">
+      <c r="E84" s="78"/>
+      <c r="F84" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="G84" s="99"/>
-      <c r="H84" s="74"/>
-      <c r="I84" s="75"/>
-      <c r="J84" s="39" t="s">
+      <c r="G84" s="78"/>
+      <c r="H84" s="97"/>
+      <c r="I84" s="98"/>
+      <c r="J84" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K84" s="41"/>
-      <c r="L84" s="41"/>
-      <c r="M84" s="41"/>
-      <c r="N84" s="78"/>
-      <c r="O84" s="79"/>
-      <c r="P84" s="78" t="s">
+      <c r="K84" s="33"/>
+      <c r="L84" s="33"/>
+      <c r="M84" s="32"/>
+      <c r="N84" s="99"/>
+      <c r="O84" s="100"/>
+      <c r="P84" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="Q84" s="79"/>
-      <c r="R84" s="27" t="s">
+      <c r="Q84" s="100"/>
+      <c r="R84" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S84" s="37"/>
-      <c r="T84" s="37"/>
-      <c r="U84" s="37"/>
-      <c r="V84" s="27" t="s">
+      <c r="S84" s="29"/>
+      <c r="T84" s="29"/>
+      <c r="U84" s="29"/>
+      <c r="V84" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="W84" s="28"/>
+      <c r="W84" s="22"/>
       <c r="X84" s="5"/>
     </row>
     <row r="86" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6676,44 +6676,44 @@
     </row>
     <row r="87" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="18" t="s">
+      <c r="C87" s="35"/>
+      <c r="D87" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="E87" s="19"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="18" t="s">
+      <c r="E87" s="41"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="18" t="s">
+      <c r="H87" s="41"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="K87" s="19"/>
-      <c r="L87" s="20"/>
-      <c r="M87" s="18" t="s">
+      <c r="K87" s="41"/>
+      <c r="L87" s="42"/>
+      <c r="M87" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="N87" s="19"/>
-      <c r="O87" s="20"/>
-      <c r="P87" s="18" t="s">
+      <c r="N87" s="41"/>
+      <c r="O87" s="42"/>
+      <c r="P87" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="Q87" s="19"/>
-      <c r="R87" s="20"/>
-      <c r="S87" s="18" t="s">
+      <c r="Q87" s="41"/>
+      <c r="R87" s="42"/>
+      <c r="S87" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="T87" s="19"/>
-      <c r="U87" s="20"/>
-      <c r="V87" s="12" t="s">
+      <c r="T87" s="41"/>
+      <c r="U87" s="42"/>
+      <c r="V87" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="W87" s="13"/>
+      <c r="W87" s="35"/>
       <c r="Z87" s="5"/>
       <c r="AA87" s="8"/>
       <c r="AB87" s="8"/>
@@ -6737,38 +6737,38 @@
     </row>
     <row r="88" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
-      <c r="B88" s="94" t="s">
+      <c r="B88" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="C88" s="95"/>
-      <c r="D88" s="96" t="s">
+      <c r="C88" s="72"/>
+      <c r="D88" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="E88" s="97"/>
-      <c r="F88" s="21" t="s">
+      <c r="E88" s="80"/>
+      <c r="F88" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="22"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="22"/>
-      <c r="L88" s="22"/>
-      <c r="M88" s="22"/>
-      <c r="N88" s="22"/>
-      <c r="O88" s="22"/>
-      <c r="P88" s="22"/>
-      <c r="Q88" s="22"/>
-      <c r="R88" s="22"/>
-      <c r="S88" s="98"/>
-      <c r="T88" s="83" t="s">
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="44"/>
+      <c r="M88" s="44"/>
+      <c r="N88" s="44"/>
+      <c r="O88" s="44"/>
+      <c r="P88" s="44"/>
+      <c r="Q88" s="44"/>
+      <c r="R88" s="44"/>
+      <c r="S88" s="81"/>
+      <c r="T88" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="U88" s="84"/>
-      <c r="V88" s="85" t="s">
+      <c r="U88" s="83"/>
+      <c r="V88" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="W88" s="86"/>
+      <c r="W88" s="85"/>
       <c r="Z88" s="5"/>
       <c r="AA88" s="8"/>
       <c r="AB88" s="8"/>
@@ -6796,192 +6796,195 @@
       </c>
     </row>
     <row r="91" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="59" t="s">
+      <c r="B91" s="67" t="s">
         <v>304</v>
       </c>
-      <c r="C91" s="61"/>
-      <c r="D91" s="59" t="s">
+      <c r="C91" s="69"/>
+      <c r="D91" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="61"/>
-      <c r="F91" s="59" t="s">
+      <c r="E91" s="69"/>
+      <c r="F91" s="67" t="s">
         <v>305</v>
       </c>
-      <c r="G91" s="61"/>
-      <c r="H91" s="59" t="s">
+      <c r="G91" s="69"/>
+      <c r="I91" s="67" t="s">
         <v>304</v>
       </c>
-      <c r="I91" s="61"/>
-      <c r="J91" s="59" t="s">
+      <c r="J91" s="69"/>
+      <c r="K91" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="61"/>
-      <c r="L91" s="59" t="s">
+      <c r="L91" s="69"/>
+      <c r="M91" s="67" t="s">
         <v>305</v>
       </c>
-      <c r="M91" s="61"/>
-      <c r="N91" s="59" t="s">
+      <c r="N91" s="69"/>
+      <c r="P91" s="67" t="s">
         <v>304</v>
       </c>
-      <c r="O91" s="61"/>
-      <c r="P91" s="59" t="s">
+      <c r="Q91" s="69"/>
+      <c r="R91" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="61"/>
-      <c r="R91" s="59" t="s">
+      <c r="S91" s="69"/>
+      <c r="T91" s="67" t="s">
         <v>305</v>
       </c>
-      <c r="S91" s="61"/>
-      <c r="T91" s="59" t="s">
+      <c r="U91" s="69"/>
+      <c r="W91" s="67" t="s">
         <v>304</v>
       </c>
-      <c r="U91" s="61"/>
-      <c r="V91" s="59" t="s">
+      <c r="X91" s="69"/>
+      <c r="Y91" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="W91" s="61"/>
-      <c r="X91" s="59" t="s">
+      <c r="Z91" s="69"/>
+      <c r="AA91" s="67" t="s">
         <v>305</v>
       </c>
-      <c r="Y91" s="61"/>
+      <c r="AB91" s="69"/>
     </row>
     <row r="92" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="59" t="s">
+      <c r="B92" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="61"/>
-      <c r="D92" s="59" t="s">
+      <c r="C92" s="69"/>
+      <c r="D92" s="67" t="s">
         <v>306</v>
       </c>
-      <c r="E92" s="61"/>
-      <c r="F92" s="59" t="s">
+      <c r="E92" s="69"/>
+      <c r="F92" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="61"/>
-      <c r="H92" s="59" t="s">
+      <c r="G92" s="69"/>
+      <c r="I92" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="I92" s="61"/>
-      <c r="J92" s="59" t="s">
+      <c r="J92" s="69"/>
+      <c r="K92" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="K92" s="61"/>
-      <c r="L92" s="59" t="s">
+      <c r="L92" s="69"/>
+      <c r="M92" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="M92" s="61"/>
-      <c r="N92" s="59" t="s">
+      <c r="N92" s="69"/>
+      <c r="P92" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="O92" s="61"/>
-      <c r="P92" s="59" t="s">
+      <c r="Q92" s="69"/>
+      <c r="R92" s="67" t="s">
         <v>308</v>
       </c>
-      <c r="Q92" s="61"/>
-      <c r="R92" s="59" t="s">
+      <c r="S92" s="69"/>
+      <c r="T92" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="S92" s="61"/>
-      <c r="T92" s="59" t="s">
+      <c r="U92" s="69"/>
+      <c r="W92" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="U92" s="61"/>
-      <c r="V92" s="59" t="s">
+      <c r="X92" s="69"/>
+      <c r="Y92" s="67" t="s">
         <v>308</v>
       </c>
-      <c r="W92" s="61"/>
-      <c r="X92" s="59" t="s">
+      <c r="Z92" s="69"/>
+      <c r="AA92" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="Y92" s="61"/>
+      <c r="AB92" s="69"/>
     </row>
     <row r="93" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="59" t="s">
+      <c r="B93" s="67" t="s">
         <v>309</v>
       </c>
-      <c r="C93" s="61"/>
-      <c r="D93" s="59" t="s">
+      <c r="C93" s="69"/>
+      <c r="D93" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E93" s="61"/>
-      <c r="F93" s="59" t="s">
+      <c r="E93" s="69"/>
+      <c r="F93" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="G93" s="61"/>
-      <c r="H93" s="59" t="s">
+      <c r="G93" s="55"/>
+      <c r="I93" s="53" t="s">
         <v>309</v>
       </c>
-      <c r="I93" s="61"/>
-      <c r="J93" s="59" t="s">
+      <c r="J93" s="69"/>
+      <c r="K93" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="K93" s="61"/>
-      <c r="L93" s="59" t="s">
+      <c r="L93" s="69"/>
+      <c r="M93" s="67" t="s">
         <v>310</v>
       </c>
-      <c r="M93" s="61"/>
-      <c r="N93" s="59" t="s">
+      <c r="N93" s="69"/>
+      <c r="P93" s="53" t="s">
         <v>309</v>
       </c>
-      <c r="O93" s="61"/>
-      <c r="P93" s="59" t="s">
+      <c r="Q93" s="55"/>
+      <c r="R93" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="Q93" s="61"/>
-      <c r="R93" s="59" t="s">
+      <c r="S93" s="55"/>
+      <c r="T93" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="S93" s="61"/>
-      <c r="T93" s="59" t="s">
+      <c r="U93" s="55"/>
+      <c r="W93" s="67" t="s">
         <v>309</v>
       </c>
-      <c r="U93" s="61"/>
-      <c r="V93" s="59" t="s">
+      <c r="X93" s="69"/>
+      <c r="Y93" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="W93" s="61"/>
-      <c r="X93" s="59" t="s">
+      <c r="Z93" s="69"/>
+      <c r="AA93" s="67" t="s">
         <v>310</v>
       </c>
-      <c r="Y93" s="61"/>
+      <c r="AB93" s="69"/>
     </row>
     <row r="94" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="59" t="s">
+      <c r="B94" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="C94" s="60"/>
-      <c r="D94" s="60"/>
-      <c r="E94" s="61"/>
-      <c r="F94" s="59" t="s">
+      <c r="C94" s="68"/>
+      <c r="D94" s="68"/>
+      <c r="E94" s="69"/>
+      <c r="F94" s="67" t="s">
         <v>312</v>
       </c>
-      <c r="G94" s="60"/>
-      <c r="H94" s="60"/>
-      <c r="I94" s="61"/>
-      <c r="J94" s="59" t="s">
+      <c r="G94" s="68"/>
+      <c r="H94" s="68"/>
+      <c r="I94" s="69"/>
+      <c r="J94" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="K94" s="60"/>
-      <c r="L94" s="60"/>
-      <c r="M94" s="61"/>
-      <c r="N94" s="59" t="s">
+      <c r="K94" s="68"/>
+      <c r="L94" s="68"/>
+      <c r="M94" s="68"/>
+      <c r="N94" s="69"/>
+      <c r="O94" s="67" t="s">
         <v>314</v>
       </c>
-      <c r="O94" s="60"/>
-      <c r="P94" s="60"/>
-      <c r="Q94" s="61"/>
-      <c r="R94" s="59" t="s">
+      <c r="P94" s="68"/>
+      <c r="Q94" s="68"/>
+      <c r="R94" s="69"/>
+      <c r="S94" s="67" t="s">
         <v>315</v>
       </c>
-      <c r="S94" s="60"/>
-      <c r="T94" s="60"/>
-      <c r="U94" s="61"/>
-      <c r="V94" s="59" t="s">
+      <c r="T94" s="68"/>
+      <c r="U94" s="68"/>
+      <c r="V94" s="69"/>
+      <c r="W94" s="67" t="s">
         <v>316</v>
       </c>
-      <c r="W94" s="60"/>
-      <c r="X94" s="60"/>
-      <c r="Y94" s="61"/>
+      <c r="X94" s="68"/>
+      <c r="Y94" s="68"/>
+      <c r="Z94" s="68"/>
+      <c r="AA94" s="68"/>
+      <c r="AB94" s="69"/>
     </row>
     <row r="96" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
@@ -6989,43 +6992,43 @@
       </c>
     </row>
     <row r="97" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="62" t="s">
+      <c r="B97" s="53" t="s">
         <v>321</v>
       </c>
-      <c r="C97" s="63"/>
-      <c r="D97" s="63"/>
-      <c r="E97" s="64"/>
-      <c r="F97" s="62" t="s">
+      <c r="C97" s="54"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="G97" s="63"/>
-      <c r="H97" s="63"/>
-      <c r="I97" s="64"/>
-      <c r="K97" s="59" t="s">
+      <c r="G97" s="54"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="55"/>
+      <c r="K97" s="67" t="s">
         <v>304</v>
       </c>
-      <c r="L97" s="61"/>
-      <c r="M97" s="59" t="s">
+      <c r="L97" s="69"/>
+      <c r="M97" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="N97" s="61"/>
-      <c r="O97" s="59" t="s">
+      <c r="N97" s="69"/>
+      <c r="O97" s="67" t="s">
         <v>305</v>
       </c>
-      <c r="P97" s="61"/>
+      <c r="P97" s="69"/>
       <c r="Q97" s="11"/>
-      <c r="R97" s="68" t="s">
+      <c r="R97" s="120" t="s">
         <v>325</v>
       </c>
-      <c r="S97" s="63"/>
-      <c r="T97" s="63"/>
-      <c r="U97" s="64"/>
-      <c r="V97" s="114" t="s">
+      <c r="S97" s="54"/>
+      <c r="T97" s="54"/>
+      <c r="U97" s="55"/>
+      <c r="V97" s="47" t="s">
         <v>326</v>
       </c>
-      <c r="W97" s="115"/>
-      <c r="X97" s="115"/>
-      <c r="Y97" s="116"/>
+      <c r="W97" s="48"/>
+      <c r="X97" s="48"/>
+      <c r="Y97" s="49"/>
       <c r="AA97" s="11"/>
       <c r="AB97" s="11"/>
       <c r="AC97" s="11"/>
@@ -7034,35 +7037,35 @@
       <c r="AF97" s="11"/>
     </row>
     <row r="98" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="65"/>
-      <c r="C98" s="66"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="65"/>
-      <c r="G98" s="66"/>
-      <c r="H98" s="66"/>
-      <c r="I98" s="67"/>
-      <c r="K98" s="59" t="s">
+      <c r="B98" s="56"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="57"/>
+      <c r="E98" s="58"/>
+      <c r="F98" s="56"/>
+      <c r="G98" s="57"/>
+      <c r="H98" s="57"/>
+      <c r="I98" s="58"/>
+      <c r="K98" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="L98" s="61"/>
-      <c r="M98" s="59" t="s">
+      <c r="L98" s="69"/>
+      <c r="M98" s="67" t="s">
         <v>319</v>
       </c>
-      <c r="N98" s="61"/>
-      <c r="O98" s="59" t="s">
+      <c r="N98" s="69"/>
+      <c r="O98" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="P98" s="61"/>
+      <c r="P98" s="69"/>
       <c r="Q98" s="11"/>
-      <c r="R98" s="65"/>
-      <c r="S98" s="66"/>
-      <c r="T98" s="66"/>
-      <c r="U98" s="67"/>
-      <c r="V98" s="117"/>
-      <c r="W98" s="118"/>
-      <c r="X98" s="118"/>
-      <c r="Y98" s="119"/>
+      <c r="R98" s="56"/>
+      <c r="S98" s="57"/>
+      <c r="T98" s="57"/>
+      <c r="U98" s="58"/>
+      <c r="V98" s="50"/>
+      <c r="W98" s="51"/>
+      <c r="X98" s="51"/>
+      <c r="Y98" s="52"/>
       <c r="AA98" s="11"/>
       <c r="AB98" s="11"/>
       <c r="AC98" s="11"/>
@@ -7071,41 +7074,41 @@
       <c r="AF98" s="11"/>
     </row>
     <row r="99" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="68" t="s">
+      <c r="B99" s="120" t="s">
         <v>322</v>
       </c>
-      <c r="C99" s="69"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="70"/>
-      <c r="F99" s="62" t="s">
+      <c r="C99" s="121"/>
+      <c r="D99" s="121"/>
+      <c r="E99" s="122"/>
+      <c r="F99" s="53" t="s">
         <v>320</v>
       </c>
-      <c r="G99" s="63"/>
-      <c r="H99" s="63"/>
-      <c r="I99" s="64"/>
-      <c r="K99" s="59" t="s">
+      <c r="G99" s="54"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="55"/>
+      <c r="K99" s="67" t="s">
         <v>309</v>
       </c>
-      <c r="L99" s="61"/>
-      <c r="M99" s="59" t="s">
+      <c r="L99" s="69"/>
+      <c r="M99" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="N99" s="61"/>
-      <c r="O99" s="59" t="s">
+      <c r="N99" s="69"/>
+      <c r="O99" s="67" t="s">
         <v>310</v>
       </c>
-      <c r="P99" s="61"/>
+      <c r="P99" s="69"/>
       <c r="Q99" s="11"/>
-      <c r="R99" s="62" t="s">
+      <c r="R99" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="S99" s="63"/>
-      <c r="T99" s="63"/>
-      <c r="U99" s="63"/>
-      <c r="V99" s="63"/>
-      <c r="W99" s="63"/>
-      <c r="X99" s="63"/>
-      <c r="Y99" s="64"/>
+      <c r="S99" s="54"/>
+      <c r="T99" s="54"/>
+      <c r="U99" s="54"/>
+      <c r="V99" s="54"/>
+      <c r="W99" s="54"/>
+      <c r="X99" s="54"/>
+      <c r="Y99" s="55"/>
       <c r="AA99" s="11"/>
       <c r="AB99" s="11"/>
       <c r="AC99" s="11"/>
@@ -7114,31 +7117,31 @@
       <c r="AF99" s="11"/>
     </row>
     <row r="100" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="71"/>
-      <c r="C100" s="72"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="73"/>
-      <c r="F100" s="65"/>
-      <c r="G100" s="66"/>
-      <c r="H100" s="66"/>
-      <c r="I100" s="67"/>
-      <c r="K100" s="59" t="s">
+      <c r="B100" s="123"/>
+      <c r="C100" s="124"/>
+      <c r="D100" s="124"/>
+      <c r="E100" s="125"/>
+      <c r="F100" s="56"/>
+      <c r="G100" s="57"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="58"/>
+      <c r="K100" s="67" t="s">
         <v>324</v>
       </c>
-      <c r="L100" s="60"/>
-      <c r="M100" s="60"/>
-      <c r="N100" s="60"/>
-      <c r="O100" s="60"/>
-      <c r="P100" s="61"/>
+      <c r="L100" s="68"/>
+      <c r="M100" s="68"/>
+      <c r="N100" s="68"/>
+      <c r="O100" s="68"/>
+      <c r="P100" s="69"/>
       <c r="Q100" s="11"/>
-      <c r="R100" s="65"/>
-      <c r="S100" s="66"/>
-      <c r="T100" s="66"/>
-      <c r="U100" s="66"/>
-      <c r="V100" s="66"/>
-      <c r="W100" s="66"/>
-      <c r="X100" s="66"/>
-      <c r="Y100" s="67"/>
+      <c r="R100" s="56"/>
+      <c r="S100" s="57"/>
+      <c r="T100" s="57"/>
+      <c r="U100" s="57"/>
+      <c r="V100" s="57"/>
+      <c r="W100" s="57"/>
+      <c r="X100" s="57"/>
+      <c r="Y100" s="58"/>
       <c r="AA100" s="11"/>
       <c r="AB100" s="11"/>
       <c r="AC100" s="11"/>
@@ -7259,50 +7262,578 @@
     </row>
   </sheetData>
   <mergeCells count="618">
-    <mergeCell ref="V97:Y98"/>
-    <mergeCell ref="R99:Y100"/>
-    <mergeCell ref="P37:AC38"/>
-    <mergeCell ref="W35:AC36"/>
-    <mergeCell ref="J94:M94"/>
-    <mergeCell ref="N94:Q94"/>
-    <mergeCell ref="R94:U94"/>
-    <mergeCell ref="V94:Y94"/>
-    <mergeCell ref="X91:Y91"/>
-    <mergeCell ref="X92:Y92"/>
-    <mergeCell ref="X93:Y93"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="R92:S92"/>
-    <mergeCell ref="T92:U92"/>
-    <mergeCell ref="V92:W92"/>
-    <mergeCell ref="T93:U93"/>
-    <mergeCell ref="V93:W93"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="R91:S91"/>
-    <mergeCell ref="T91:U91"/>
-    <mergeCell ref="V91:W91"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="O94:R94"/>
+    <mergeCell ref="S94:V94"/>
+    <mergeCell ref="W94:AB94"/>
+    <mergeCell ref="R93:S93"/>
+    <mergeCell ref="W91:X91"/>
+    <mergeCell ref="Y91:Z91"/>
+    <mergeCell ref="AA91:AB91"/>
+    <mergeCell ref="W92:X92"/>
+    <mergeCell ref="Y92:Z92"/>
+    <mergeCell ref="AA92:AB92"/>
+    <mergeCell ref="W93:X93"/>
+    <mergeCell ref="Y93:Z93"/>
+    <mergeCell ref="AA93:AB93"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="J94:N94"/>
     <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="R93:S93"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="L91:M91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="K100:P100"/>
+    <mergeCell ref="B97:E98"/>
+    <mergeCell ref="B99:E100"/>
+    <mergeCell ref="F97:I98"/>
+    <mergeCell ref="F99:I100"/>
+    <mergeCell ref="R97:U98"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="O99:P99"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="O98:P98"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="O97:P97"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:S20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="V87:W87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:S88"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="V88:W88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="P87:R87"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:S28"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="R32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:S42"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="R54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:S58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="R62:U62"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="V73:W73"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:S74"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="B37:H38"/>
+    <mergeCell ref="I37:O38"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="B35:H36"/>
+    <mergeCell ref="I35:O36"/>
+    <mergeCell ref="P35:V36"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B94:E94"/>
     <mergeCell ref="F94:I94"/>
     <mergeCell ref="S81:T81"/>
@@ -7327,556 +7858,28 @@
     <mergeCell ref="V68:W68"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B37:H38"/>
-    <mergeCell ref="I37:O38"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="B35:H36"/>
-    <mergeCell ref="I35:O36"/>
-    <mergeCell ref="P35:V36"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="V97:Y98"/>
+    <mergeCell ref="R99:Y100"/>
+    <mergeCell ref="P37:AC38"/>
+    <mergeCell ref="W35:AC36"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="R92:S92"/>
+    <mergeCell ref="T92:U92"/>
+    <mergeCell ref="T93:U93"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="R91:S91"/>
+    <mergeCell ref="T91:U91"/>
     <mergeCell ref="V41:W41"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:S66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:S74"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="V74:W74"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="V73:W73"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="R62:U62"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:S58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="R54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="R32:U32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:S28"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="S87:U87"/>
-    <mergeCell ref="V87:W87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:S88"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="V88:W88"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="P87:R87"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:S20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="K100:P100"/>
-    <mergeCell ref="B97:E98"/>
-    <mergeCell ref="B99:E100"/>
-    <mergeCell ref="F97:I98"/>
-    <mergeCell ref="F99:I100"/>
-    <mergeCell ref="R97:U98"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="O99:P99"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="O98:P98"/>
-    <mergeCell ref="K97:L97"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="O97:P97"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/docs/Keyboard Designs.xlsx
+++ b/docs/Keyboard Designs.xlsx
@@ -1450,7 +1450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1483,110 +1483,329 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1606,24 +1825,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1642,188 +1843,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2146,38 +2176,38 @@
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="40" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="40" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="40" t="s">
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="40" t="s">
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="34" t="s">
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="V3" s="35"/>
+      <c r="V3" s="19"/>
       <c r="Z3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
@@ -2195,36 +2225,36 @@
     </row>
     <row r="4" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="43" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="36" t="s">
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="T4" s="37"/>
-      <c r="U4" s="38" t="s">
+      <c r="T4" s="21"/>
+      <c r="U4" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="V4" s="39"/>
+      <c r="V4" s="23"/>
       <c r="Z4" s="4"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
@@ -2241,46 +2271,46 @@
       <c r="AQ4" s="7"/>
     </row>
     <row r="5" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16" t="s">
+      <c r="F5" s="49"/>
+      <c r="G5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="49"/>
+      <c r="I5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16" t="s">
+      <c r="J5" s="49"/>
+      <c r="K5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16" t="s">
+      <c r="L5" s="49"/>
+      <c r="M5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="16" t="s">
+      <c r="N5" s="49"/>
+      <c r="O5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="16" t="s">
+      <c r="P5" s="49"/>
+      <c r="Q5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="17"/>
-      <c r="S5" s="16" t="s">
+      <c r="R5" s="49"/>
+      <c r="S5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="17"/>
-      <c r="U5" s="12" t="s">
+      <c r="T5" s="49"/>
+      <c r="U5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="13"/>
+      <c r="V5" s="51"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Z5" s="7"/>
@@ -2303,46 +2333,46 @@
     </row>
     <row r="6" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="14" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="41"/>
+      <c r="F6" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="12" t="s">
+      <c r="G6" s="41"/>
+      <c r="H6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="41"/>
+      <c r="J6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="12" t="s">
+      <c r="K6" s="41"/>
+      <c r="L6" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="12" t="s">
+      <c r="M6" s="41"/>
+      <c r="N6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="12" t="s">
+      <c r="O6" s="41"/>
+      <c r="P6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="12" t="s">
+      <c r="Q6" s="41"/>
+      <c r="R6" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="15"/>
-      <c r="T6" s="12" t="s">
+      <c r="S6" s="41"/>
+      <c r="T6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="15"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
       <c r="X6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
@@ -2362,46 +2392,46 @@
     </row>
     <row r="7" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="18" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18" t="s">
+      <c r="I7" s="32"/>
+      <c r="J7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18" t="s">
+      <c r="K7" s="32"/>
+      <c r="L7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18" t="s">
+      <c r="M7" s="32"/>
+      <c r="N7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18" t="s">
+      <c r="O7" s="32"/>
+      <c r="P7" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="19" t="s">
+      <c r="Q7" s="32"/>
+      <c r="R7" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="S7" s="19"/>
-      <c r="T7" s="21" t="s">
+      <c r="S7" s="50"/>
+      <c r="T7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="22"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
       <c r="X7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -2419,38 +2449,38 @@
     </row>
     <row r="8" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="12" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="31" t="s">
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="31" t="s">
+      <c r="I8" s="46"/>
+      <c r="J8" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="31" t="s">
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="32"/>
-      <c r="P8" s="23" t="s">
+      <c r="O8" s="46"/>
+      <c r="P8" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="21" t="s">
+      <c r="Q8" s="36"/>
+      <c r="R8" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="22"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="34"/>
       <c r="X8" s="7"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
@@ -2500,17 +2530,29 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="G4:R4"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="S5:T5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="T7:U7"/>
@@ -2527,29 +2569,17 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="G4:R4"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2558,10 +2588,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AW174"/>
+  <dimension ref="A2:AW175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="AE90" sqref="AE90"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="AI92" sqref="AI92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2577,50 +2607,50 @@
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="40" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="40" t="s">
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="40" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="40" t="s">
+      <c r="N3" s="25"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="40" t="s">
+      <c r="Q3" s="25"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="T3" s="41"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="34" t="s">
+      <c r="T3" s="25"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="W3" s="35"/>
-      <c r="Z3" s="117" t="s">
+      <c r="W3" s="19"/>
+      <c r="Z3" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="118"/>
-      <c r="AB3" s="118"/>
-      <c r="AC3" s="119"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="69"/>
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
@@ -2637,44 +2667,44 @@
     </row>
     <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="79" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="43" t="s">
+      <c r="E4" s="103"/>
+      <c r="F4" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="82" t="s">
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="U4" s="83"/>
-      <c r="V4" s="84" t="s">
+      <c r="U4" s="90"/>
+      <c r="V4" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="W4" s="85"/>
-      <c r="Z4" s="109" t="s">
+      <c r="W4" s="92"/>
+      <c r="Z4" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="108"/>
-      <c r="AB4" s="108"/>
-      <c r="AC4" s="110"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="60"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
@@ -2690,54 +2720,54 @@
       <c r="AT4" s="5"/>
     </row>
     <row r="5" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16" t="s">
+      <c r="F5" s="49"/>
+      <c r="G5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="49"/>
+      <c r="I5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16" t="s">
+      <c r="J5" s="49"/>
+      <c r="K5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16" t="s">
+      <c r="L5" s="49"/>
+      <c r="M5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="16" t="s">
+      <c r="N5" s="49"/>
+      <c r="O5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="16" t="s">
+      <c r="P5" s="49"/>
+      <c r="Q5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="17"/>
-      <c r="S5" s="16" t="s">
+      <c r="R5" s="49"/>
+      <c r="S5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="17"/>
-      <c r="U5" s="16" t="s">
+      <c r="T5" s="49"/>
+      <c r="U5" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="17"/>
+      <c r="V5" s="49"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
-      <c r="Z5" s="111" t="s">
+      <c r="Z5" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="112"/>
-      <c r="AC5" s="113"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="63"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
@@ -2757,56 +2787,56 @@
     </row>
     <row r="6" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="115"/>
+      <c r="D6" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="32"/>
+      <c r="F6" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18" t="s">
+      <c r="G6" s="32"/>
+      <c r="H6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18" t="s">
+      <c r="I6" s="32"/>
+      <c r="J6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18" t="s">
+      <c r="K6" s="32"/>
+      <c r="L6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18" t="s">
+      <c r="M6" s="32"/>
+      <c r="N6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18" t="s">
+      <c r="O6" s="32"/>
+      <c r="P6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18" t="s">
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18" t="s">
+      <c r="S6" s="32"/>
+      <c r="T6" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="18"/>
-      <c r="V6" s="31" t="s">
+      <c r="U6" s="32"/>
+      <c r="V6" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="W6" s="32"/>
-      <c r="Z6" s="114" t="s">
+      <c r="W6" s="46"/>
+      <c r="Z6" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="AA6" s="115"/>
-      <c r="AB6" s="115"/>
-      <c r="AC6" s="116"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="66"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
@@ -2826,50 +2856,50 @@
     </row>
     <row r="7" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18" t="s">
+      <c r="I7" s="32"/>
+      <c r="J7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18" t="s">
+      <c r="K7" s="32"/>
+      <c r="L7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18" t="s">
+      <c r="M7" s="32"/>
+      <c r="N7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18" t="s">
+      <c r="O7" s="32"/>
+      <c r="P7" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="19" t="s">
+      <c r="Q7" s="32"/>
+      <c r="R7" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="S7" s="19"/>
-      <c r="T7" s="21" t="s">
+      <c r="S7" s="50"/>
+      <c r="T7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="22"/>
-      <c r="V7" s="21" t="s">
+      <c r="U7" s="34"/>
+      <c r="V7" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="W7" s="22"/>
+      <c r="W7" s="34"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="8"/>
       <c r="AH7" s="5"/>
@@ -2888,46 +2918,46 @@
     </row>
     <row r="8" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78" t="s">
+      <c r="C8" s="105"/>
+      <c r="D8" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78" t="s">
+      <c r="E8" s="105"/>
+      <c r="F8" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="31" t="s">
+      <c r="G8" s="105"/>
+      <c r="H8" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="31" t="s">
+      <c r="I8" s="46"/>
+      <c r="J8" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="31" t="s">
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="32"/>
-      <c r="P8" s="23" t="s">
+      <c r="O8" s="46"/>
+      <c r="P8" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="21" t="s">
+      <c r="Q8" s="36"/>
+      <c r="R8" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="21" t="s">
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="W8" s="22"/>
+      <c r="W8" s="34"/>
       <c r="X8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="8"/>
@@ -2987,44 +3017,44 @@
     </row>
     <row r="11" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="40" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="40" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="40" t="s">
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="40" t="s">
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="N11" s="41"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="40" t="s">
+      <c r="N11" s="25"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="40" t="s">
+      <c r="Q11" s="25"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="T11" s="41"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="34" t="s">
+      <c r="T11" s="25"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="W11" s="35"/>
+      <c r="W11" s="19"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="8"/>
       <c r="AH11" s="5"/>
@@ -3045,38 +3075,38 @@
     </row>
     <row r="12" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="79" t="s">
+      <c r="C12" s="101"/>
+      <c r="D12" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="43" t="s">
+      <c r="E12" s="103"/>
+      <c r="F12" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="81"/>
-      <c r="T12" s="82" t="s">
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="U12" s="83"/>
-      <c r="V12" s="84" t="s">
+      <c r="U12" s="90"/>
+      <c r="V12" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="W12" s="85"/>
+      <c r="W12" s="92"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="8"/>
       <c r="AH12" s="5"/>
@@ -3096,50 +3126,50 @@
       <c r="AV12" s="5"/>
     </row>
     <row r="13" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="101">
+      <c r="B13" s="96">
         <v>1</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="101">
+      <c r="C13" s="97"/>
+      <c r="D13" s="96">
         <v>2</v>
       </c>
-      <c r="E13" s="102"/>
-      <c r="F13" s="16">
+      <c r="E13" s="97"/>
+      <c r="F13" s="48">
         <v>3</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="103">
+      <c r="G13" s="49"/>
+      <c r="H13" s="98">
         <v>4</v>
       </c>
-      <c r="I13" s="104"/>
-      <c r="J13" s="16">
+      <c r="I13" s="99"/>
+      <c r="J13" s="48">
         <v>5</v>
       </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="16">
+      <c r="K13" s="49"/>
+      <c r="L13" s="48">
         <v>6</v>
       </c>
-      <c r="M13" s="17"/>
-      <c r="N13" s="16">
+      <c r="M13" s="49"/>
+      <c r="N13" s="48">
         <v>7</v>
       </c>
-      <c r="O13" s="17"/>
-      <c r="P13" s="16">
+      <c r="O13" s="49"/>
+      <c r="P13" s="48">
         <v>8</v>
       </c>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="16">
+      <c r="Q13" s="49"/>
+      <c r="R13" s="48">
         <v>9</v>
       </c>
-      <c r="S13" s="17"/>
-      <c r="T13" s="16">
+      <c r="S13" s="49"/>
+      <c r="T13" s="48">
         <v>0</v>
       </c>
-      <c r="U13" s="17"/>
-      <c r="V13" s="18" t="s">
+      <c r="U13" s="49"/>
+      <c r="V13" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="W13" s="18"/>
+      <c r="W13" s="32"/>
       <c r="X13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="8"/>
@@ -3162,50 +3192,50 @@
     </row>
     <row r="14" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="92" t="s">
+      <c r="C14" s="113"/>
+      <c r="D14" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="93"/>
-      <c r="F14" s="94" t="s">
+      <c r="E14" s="113"/>
+      <c r="F14" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="94"/>
-      <c r="H14" s="95" t="s">
+      <c r="G14" s="107"/>
+      <c r="H14" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94" t="s">
+      <c r="I14" s="107"/>
+      <c r="J14" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94" t="s">
+      <c r="K14" s="107"/>
+      <c r="L14" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="94"/>
-      <c r="N14" s="89" t="s">
+      <c r="M14" s="107"/>
+      <c r="N14" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="O14" s="90"/>
-      <c r="P14" s="89" t="s">
+      <c r="O14" s="110"/>
+      <c r="P14" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="89" t="s">
+      <c r="Q14" s="110"/>
+      <c r="R14" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="S14" s="90"/>
-      <c r="T14" s="89" t="s">
+      <c r="S14" s="110"/>
+      <c r="T14" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="U14" s="90"/>
-      <c r="V14" s="91" t="s">
+      <c r="U14" s="110"/>
+      <c r="V14" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="W14" s="91"/>
+      <c r="W14" s="111"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AH14" s="5"/>
@@ -3227,50 +3257,50 @@
     </row>
     <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="32"/>
+      <c r="D15" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18" t="s">
+      <c r="E15" s="32"/>
+      <c r="F15" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18" t="s">
+      <c r="G15" s="32"/>
+      <c r="H15" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="96" t="s">
+      <c r="I15" s="32"/>
+      <c r="J15" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="96" t="s">
+      <c r="K15" s="32"/>
+      <c r="L15" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="96" t="s">
+      <c r="M15" s="32"/>
+      <c r="N15" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18" t="s">
+      <c r="O15" s="32"/>
+      <c r="P15" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="19" t="s">
+      <c r="Q15" s="32"/>
+      <c r="R15" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19" t="s">
+      <c r="S15" s="50"/>
+      <c r="T15" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19" t="s">
+      <c r="U15" s="50"/>
+      <c r="V15" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="W15" s="19"/>
+      <c r="W15" s="50"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
@@ -3297,46 +3327,46 @@
     </row>
     <row r="16" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78" t="s">
+      <c r="C16" s="105"/>
+      <c r="D16" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78" t="s">
+      <c r="E16" s="105"/>
+      <c r="F16" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="78"/>
-      <c r="H16" s="74" t="s">
+      <c r="G16" s="105"/>
+      <c r="H16" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="74"/>
-      <c r="J16" s="31" t="s">
+      <c r="I16" s="106"/>
+      <c r="J16" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="31" t="s">
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="32"/>
-      <c r="P16" s="65" t="s">
+      <c r="O16" s="46"/>
+      <c r="P16" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="21" t="s">
+      <c r="Q16" s="94"/>
+      <c r="R16" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="21" t="s">
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="W16" s="22"/>
+      <c r="W16" s="34"/>
       <c r="X16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="8"/>
@@ -3403,44 +3433,44 @@
     </row>
     <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="40" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="40" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="40" t="s">
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="K19" s="41"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="40" t="s">
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="N19" s="41"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="40" t="s">
+      <c r="N19" s="25"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="40" t="s">
+      <c r="Q19" s="25"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="T19" s="41"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="34" t="s">
+      <c r="T19" s="25"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="W19" s="35"/>
+      <c r="W19" s="19"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="8"/>
@@ -3468,38 +3498,38 @@
     </row>
     <row r="20" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="79" t="s">
+      <c r="C20" s="101"/>
+      <c r="D20" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="80"/>
-      <c r="F20" s="43" t="s">
+      <c r="E20" s="103"/>
+      <c r="F20" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="82" t="s">
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="104"/>
+      <c r="T20" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="U20" s="83"/>
-      <c r="V20" s="84" t="s">
+      <c r="U20" s="90"/>
+      <c r="V20" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="W20" s="85"/>
+      <c r="W20" s="92"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="8"/>
@@ -3526,50 +3556,50 @@
       <c r="AV20" s="5"/>
     </row>
     <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="12" t="s">
+      <c r="C21" s="41"/>
+      <c r="D21" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="12" t="s">
+      <c r="E21" s="41"/>
+      <c r="F21" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="86" t="s">
+      <c r="G21" s="41"/>
+      <c r="H21" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="87"/>
-      <c r="J21" s="12" t="s">
+      <c r="I21" s="88"/>
+      <c r="J21" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="86" t="s">
+      <c r="K21" s="41"/>
+      <c r="L21" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="M21" s="87"/>
-      <c r="N21" s="12" t="s">
+      <c r="M21" s="88"/>
+      <c r="N21" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="O21" s="15"/>
-      <c r="P21" s="12" t="s">
+      <c r="O21" s="41"/>
+      <c r="P21" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="12" t="s">
+      <c r="Q21" s="41"/>
+      <c r="R21" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="S21" s="15"/>
-      <c r="T21" s="12" t="s">
+      <c r="S21" s="41"/>
+      <c r="T21" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="U21" s="15"/>
-      <c r="V21" s="18" t="s">
+      <c r="U21" s="41"/>
+      <c r="V21" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="W21" s="18"/>
+      <c r="W21" s="32"/>
       <c r="X21" s="5"/>
       <c r="AT21" s="5"/>
       <c r="AU21" s="5"/>
@@ -3578,50 +3608,50 @@
     </row>
     <row r="22" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18" t="s">
+      <c r="C22" s="32"/>
+      <c r="D22" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18" t="s">
+      <c r="E22" s="32"/>
+      <c r="F22" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18" t="s">
+      <c r="G22" s="32"/>
+      <c r="H22" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18" t="s">
+      <c r="I22" s="32"/>
+      <c r="J22" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18" t="s">
+      <c r="K22" s="32"/>
+      <c r="L22" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="77" t="s">
+      <c r="M22" s="32"/>
+      <c r="N22" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="O22" s="77"/>
-      <c r="P22" s="18" t="s">
+      <c r="O22" s="108"/>
+      <c r="P22" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18" t="s">
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18" t="s">
+      <c r="S22" s="32"/>
+      <c r="T22" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="U22" s="18"/>
-      <c r="V22" s="74" t="s">
+      <c r="U22" s="32"/>
+      <c r="V22" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="W22" s="74"/>
+      <c r="W22" s="106"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
@@ -3642,50 +3672,50 @@
     </row>
     <row r="23" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18" t="s">
+      <c r="C23" s="32"/>
+      <c r="D23" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="12" t="s">
+      <c r="E23" s="32"/>
+      <c r="F23" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="12" t="s">
+      <c r="G23" s="41"/>
+      <c r="H23" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="18" t="s">
+      <c r="I23" s="41"/>
+      <c r="J23" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18" t="s">
+      <c r="K23" s="32"/>
+      <c r="L23" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18" t="s">
+      <c r="M23" s="32"/>
+      <c r="N23" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18" t="s">
+      <c r="O23" s="32"/>
+      <c r="P23" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="19" t="s">
+      <c r="Q23" s="32"/>
+      <c r="R23" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19" t="s">
+      <c r="S23" s="50"/>
+      <c r="T23" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19" t="s">
+      <c r="U23" s="50"/>
+      <c r="V23" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="W23" s="19"/>
+      <c r="W23" s="50"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="8"/>
@@ -3709,46 +3739,46 @@
     </row>
     <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78" t="s">
+      <c r="C24" s="105"/>
+      <c r="D24" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78" t="s">
+      <c r="E24" s="105"/>
+      <c r="F24" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="78"/>
-      <c r="H24" s="77" t="s">
+      <c r="G24" s="105"/>
+      <c r="H24" s="108" t="s">
         <v>132</v>
       </c>
-      <c r="I24" s="77"/>
-      <c r="J24" s="31" t="s">
+      <c r="I24" s="108"/>
+      <c r="J24" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="77" t="s">
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="O24" s="77"/>
-      <c r="P24" s="18" t="s">
+      <c r="O24" s="108"/>
+      <c r="P24" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="21" t="s">
+      <c r="Q24" s="32"/>
+      <c r="R24" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="21" t="s">
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="W24" s="22"/>
+      <c r="W24" s="34"/>
       <c r="X24" s="5"/>
       <c r="AE24" s="8"/>
       <c r="AF24" s="8"/>
@@ -3812,44 +3842,44 @@
     </row>
     <row r="27" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="40" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="40" t="s">
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="40" t="s">
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="K27" s="41"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="40" t="s">
+      <c r="K27" s="25"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="N27" s="41"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="40" t="s">
+      <c r="N27" s="25"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="40" t="s">
+      <c r="Q27" s="25"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="T27" s="41"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="34" t="s">
+      <c r="T27" s="25"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="W27" s="35"/>
+      <c r="W27" s="19"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="8"/>
@@ -3877,38 +3907,38 @@
     </row>
     <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="79" t="s">
+      <c r="C28" s="101"/>
+      <c r="D28" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="80"/>
-      <c r="F28" s="43" t="s">
+      <c r="E28" s="103"/>
+      <c r="F28" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="81"/>
-      <c r="T28" s="82" t="s">
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="104"/>
+      <c r="T28" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="U28" s="83"/>
-      <c r="V28" s="84" t="s">
+      <c r="U28" s="90"/>
+      <c r="V28" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="W28" s="85"/>
+      <c r="W28" s="92"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="8"/>
@@ -3935,50 +3965,50 @@
       <c r="AV28" s="6"/>
     </row>
     <row r="29" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="16" t="s">
+      <c r="C29" s="49"/>
+      <c r="D29" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="16" t="s">
+      <c r="E29" s="49"/>
+      <c r="F29" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="75" t="s">
+      <c r="G29" s="49"/>
+      <c r="H29" s="116" t="s">
         <v>146</v>
       </c>
-      <c r="I29" s="76"/>
-      <c r="J29" s="16" t="s">
+      <c r="I29" s="117"/>
+      <c r="J29" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="K29" s="17"/>
-      <c r="L29" s="75" t="s">
+      <c r="K29" s="49"/>
+      <c r="L29" s="116" t="s">
         <v>148</v>
       </c>
-      <c r="M29" s="76"/>
-      <c r="N29" s="16" t="s">
+      <c r="M29" s="117"/>
+      <c r="N29" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="16" t="s">
+      <c r="O29" s="49"/>
+      <c r="P29" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="16" t="s">
+      <c r="Q29" s="49"/>
+      <c r="R29" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="S29" s="17"/>
-      <c r="T29" s="16" t="s">
+      <c r="S29" s="49"/>
+      <c r="T29" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="U29" s="17"/>
-      <c r="V29" s="16" t="s">
+      <c r="U29" s="49"/>
+      <c r="V29" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="W29" s="17"/>
+      <c r="W29" s="49"/>
       <c r="X29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
@@ -3987,50 +4017,50 @@
     </row>
     <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="12" t="s">
+      <c r="C30" s="41"/>
+      <c r="D30" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="12" t="s">
+      <c r="E30" s="41"/>
+      <c r="F30" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="86" t="s">
+      <c r="G30" s="41"/>
+      <c r="H30" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="I30" s="87"/>
-      <c r="J30" s="12" t="s">
+      <c r="I30" s="88"/>
+      <c r="J30" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="K30" s="15"/>
-      <c r="L30" s="86" t="s">
+      <c r="K30" s="41"/>
+      <c r="L30" s="87" t="s">
         <v>157</v>
       </c>
-      <c r="M30" s="87"/>
-      <c r="N30" s="12" t="s">
+      <c r="M30" s="88"/>
+      <c r="N30" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="O30" s="15"/>
-      <c r="P30" s="12" t="s">
+      <c r="O30" s="41"/>
+      <c r="P30" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="18" t="s">
+      <c r="Q30" s="41"/>
+      <c r="R30" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18" t="s">
+      <c r="S30" s="32"/>
+      <c r="T30" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="U30" s="18"/>
-      <c r="V30" s="74" t="s">
+      <c r="U30" s="32"/>
+      <c r="V30" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="W30" s="74"/>
+      <c r="W30" s="106"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -4051,50 +4081,50 @@
     </row>
     <row r="31" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18" t="s">
+      <c r="C31" s="32"/>
+      <c r="D31" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18" t="s">
+      <c r="E31" s="32"/>
+      <c r="F31" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18" t="s">
+      <c r="G31" s="32"/>
+      <c r="H31" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18" t="s">
+      <c r="I31" s="32"/>
+      <c r="J31" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="K31" s="18"/>
-      <c r="L31" s="12" t="s">
+      <c r="K31" s="32"/>
+      <c r="L31" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="M31" s="15"/>
-      <c r="N31" s="12" t="s">
+      <c r="M31" s="41"/>
+      <c r="N31" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="O31" s="15"/>
-      <c r="P31" s="12" t="s">
+      <c r="O31" s="41"/>
+      <c r="P31" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="19" t="s">
+      <c r="Q31" s="41"/>
+      <c r="R31" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19" t="s">
+      <c r="S31" s="50"/>
+      <c r="T31" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19" t="s">
+      <c r="U31" s="50"/>
+      <c r="V31" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="W31" s="19"/>
+      <c r="W31" s="50"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="8"/>
@@ -4122,46 +4152,46 @@
     </row>
     <row r="32" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78" t="s">
+      <c r="C32" s="105"/>
+      <c r="D32" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78" t="s">
+      <c r="E32" s="105"/>
+      <c r="F32" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="78"/>
-      <c r="H32" s="77" t="s">
+      <c r="G32" s="105"/>
+      <c r="H32" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="I32" s="77"/>
-      <c r="J32" s="31" t="s">
+      <c r="I32" s="108"/>
+      <c r="J32" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="77" t="s">
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="108" t="s">
         <v>168</v>
       </c>
-      <c r="O32" s="77"/>
-      <c r="P32" s="77" t="s">
+      <c r="O32" s="108"/>
+      <c r="P32" s="108" t="s">
         <v>169</v>
       </c>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="21" t="s">
+      <c r="Q32" s="108"/>
+      <c r="R32" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="21" t="s">
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="W32" s="22"/>
+      <c r="W32" s="34"/>
       <c r="X32" s="6"/>
       <c r="AE32" s="8"/>
       <c r="AF32" s="8"/>
@@ -4225,42 +4255,42 @@
     </row>
     <row r="35" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="93" t="s">
         <v>297</v>
       </c>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="65" t="s">
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="93" t="s">
         <v>298</v>
       </c>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="65" t="s">
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="118"/>
+      <c r="M35" s="118"/>
+      <c r="N35" s="118"/>
+      <c r="O35" s="118"/>
+      <c r="P35" s="93" t="s">
         <v>299</v>
       </c>
-      <c r="Q35" s="66"/>
-      <c r="R35" s="66"/>
-      <c r="S35" s="66"/>
-      <c r="T35" s="66"/>
-      <c r="U35" s="66"/>
-      <c r="V35" s="66"/>
-      <c r="W35" s="65" t="s">
+      <c r="Q35" s="118"/>
+      <c r="R35" s="118"/>
+      <c r="S35" s="118"/>
+      <c r="T35" s="118"/>
+      <c r="U35" s="118"/>
+      <c r="V35" s="118"/>
+      <c r="W35" s="93" t="s">
         <v>327</v>
       </c>
-      <c r="X35" s="66"/>
-      <c r="Y35" s="66"/>
-      <c r="Z35" s="66"/>
-      <c r="AA35" s="66"/>
-      <c r="AB35" s="66"/>
-      <c r="AC35" s="66"/>
+      <c r="X35" s="118"/>
+      <c r="Y35" s="118"/>
+      <c r="Z35" s="118"/>
+      <c r="AA35" s="118"/>
+      <c r="AB35" s="118"/>
+      <c r="AC35" s="118"/>
       <c r="AF35" s="8"/>
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
@@ -4279,34 +4309,34 @@
     </row>
     <row r="36" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="66"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="66"/>
-      <c r="Q36" s="66"/>
-      <c r="R36" s="66"/>
-      <c r="S36" s="66"/>
-      <c r="T36" s="66"/>
-      <c r="U36" s="66"/>
-      <c r="V36" s="66"/>
-      <c r="W36" s="66"/>
-      <c r="X36" s="66"/>
-      <c r="Y36" s="66"/>
-      <c r="Z36" s="66"/>
-      <c r="AA36" s="66"/>
-      <c r="AB36" s="66"/>
-      <c r="AC36" s="66"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="118"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="118"/>
+      <c r="M36" s="118"/>
+      <c r="N36" s="118"/>
+      <c r="O36" s="118"/>
+      <c r="P36" s="118"/>
+      <c r="Q36" s="118"/>
+      <c r="R36" s="118"/>
+      <c r="S36" s="118"/>
+      <c r="T36" s="118"/>
+      <c r="U36" s="118"/>
+      <c r="V36" s="118"/>
+      <c r="W36" s="118"/>
+      <c r="X36" s="118"/>
+      <c r="Y36" s="118"/>
+      <c r="Z36" s="118"/>
+      <c r="AA36" s="118"/>
+      <c r="AB36" s="118"/>
+      <c r="AC36" s="118"/>
       <c r="AF36" s="8"/>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
@@ -4325,40 +4355,40 @@
     </row>
     <row r="37" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="118" t="s">
         <v>296</v>
       </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66" t="s">
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="118"/>
+      <c r="I37" s="118" t="s">
         <v>301</v>
       </c>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="59" t="s">
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="118"/>
+      <c r="M37" s="118"/>
+      <c r="N37" s="118"/>
+      <c r="O37" s="118"/>
+      <c r="P37" s="126" t="s">
         <v>303</v>
       </c>
-      <c r="Q37" s="60"/>
-      <c r="R37" s="60"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="60"/>
-      <c r="U37" s="60"/>
-      <c r="V37" s="60"/>
-      <c r="W37" s="60"/>
-      <c r="X37" s="60"/>
-      <c r="Y37" s="60"/>
-      <c r="Z37" s="60"/>
-      <c r="AA37" s="60"/>
-      <c r="AB37" s="60"/>
-      <c r="AC37" s="61"/>
+      <c r="Q37" s="127"/>
+      <c r="R37" s="127"/>
+      <c r="S37" s="127"/>
+      <c r="T37" s="127"/>
+      <c r="U37" s="127"/>
+      <c r="V37" s="127"/>
+      <c r="W37" s="127"/>
+      <c r="X37" s="127"/>
+      <c r="Y37" s="127"/>
+      <c r="Z37" s="127"/>
+      <c r="AA37" s="127"/>
+      <c r="AB37" s="127"/>
+      <c r="AC37" s="128"/>
       <c r="AD37" s="8"/>
       <c r="AE37" s="8"/>
       <c r="AF37" s="8"/>
@@ -4379,34 +4409,34 @@
     </row>
     <row r="38" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="63"/>
-      <c r="R38" s="63"/>
-      <c r="S38" s="63"/>
-      <c r="T38" s="63"/>
-      <c r="U38" s="63"/>
-      <c r="V38" s="63"/>
-      <c r="W38" s="63"/>
-      <c r="X38" s="63"/>
-      <c r="Y38" s="63"/>
-      <c r="Z38" s="63"/>
-      <c r="AA38" s="63"/>
-      <c r="AB38" s="63"/>
-      <c r="AC38" s="64"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="118"/>
+      <c r="F38" s="118"/>
+      <c r="G38" s="118"/>
+      <c r="H38" s="118"/>
+      <c r="I38" s="118"/>
+      <c r="J38" s="118"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="118"/>
+      <c r="N38" s="118"/>
+      <c r="O38" s="118"/>
+      <c r="P38" s="129"/>
+      <c r="Q38" s="130"/>
+      <c r="R38" s="130"/>
+      <c r="S38" s="130"/>
+      <c r="T38" s="130"/>
+      <c r="U38" s="130"/>
+      <c r="V38" s="130"/>
+      <c r="W38" s="130"/>
+      <c r="X38" s="130"/>
+      <c r="Y38" s="130"/>
+      <c r="Z38" s="130"/>
+      <c r="AA38" s="130"/>
+      <c r="AB38" s="130"/>
+      <c r="AC38" s="131"/>
       <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
@@ -4469,44 +4499,44 @@
     </row>
     <row r="41" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="40" t="s">
+      <c r="C41" s="19"/>
+      <c r="D41" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="41"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="40" t="s">
+      <c r="E41" s="25"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="H41" s="41"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="40" t="s">
+      <c r="H41" s="25"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="K41" s="41"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="40" t="s">
+      <c r="K41" s="25"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="N41" s="41"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="40" t="s">
+      <c r="N41" s="25"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
-      <c r="S41" s="40" t="s">
+      <c r="Q41" s="25"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="T41" s="41"/>
-      <c r="U41" s="42"/>
-      <c r="V41" s="34" t="s">
+      <c r="T41" s="25"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="W41" s="35"/>
+      <c r="W41" s="19"/>
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
       <c r="AA41" s="8"/>
@@ -4534,38 +4564,38 @@
     </row>
     <row r="42" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
-      <c r="B42" s="71" t="s">
+      <c r="B42" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="C42" s="72"/>
-      <c r="D42" s="79" t="s">
+      <c r="C42" s="101"/>
+      <c r="D42" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="80"/>
-      <c r="F42" s="43" t="s">
+      <c r="E42" s="103"/>
+      <c r="F42" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="44"/>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="81"/>
-      <c r="T42" s="82" t="s">
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="U42" s="83"/>
-      <c r="V42" s="84" t="s">
+      <c r="U42" s="90"/>
+      <c r="V42" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="W42" s="85"/>
+      <c r="W42" s="92"/>
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
       <c r="AA42" s="8"/>
@@ -4592,50 +4622,50 @@
       <c r="AV42" s="6"/>
     </row>
     <row r="43" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="12" t="s">
+      <c r="C43" s="41"/>
+      <c r="D43" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="12" t="s">
+      <c r="E43" s="41"/>
+      <c r="F43" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="86" t="s">
+      <c r="G43" s="41"/>
+      <c r="H43" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="I43" s="87"/>
-      <c r="J43" s="12" t="s">
+      <c r="I43" s="88"/>
+      <c r="J43" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="K43" s="15"/>
-      <c r="L43" s="86" t="s">
+      <c r="K43" s="41"/>
+      <c r="L43" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="M43" s="87"/>
-      <c r="N43" s="12" t="s">
+      <c r="M43" s="88"/>
+      <c r="N43" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="O43" s="15"/>
-      <c r="P43" s="12" t="s">
+      <c r="O43" s="41"/>
+      <c r="P43" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="12" t="s">
+      <c r="Q43" s="41"/>
+      <c r="R43" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="S43" s="15"/>
-      <c r="T43" s="12" t="s">
+      <c r="S43" s="41"/>
+      <c r="T43" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="U43" s="15"/>
-      <c r="V43" s="18" t="s">
+      <c r="U43" s="41"/>
+      <c r="V43" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="W43" s="18"/>
+      <c r="W43" s="32"/>
       <c r="X43" s="6"/>
       <c r="AT43" s="6"/>
       <c r="AU43" s="6"/>
@@ -4644,50 +4674,50 @@
     </row>
     <row r="44" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18" t="s">
+      <c r="C44" s="32"/>
+      <c r="D44" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18" t="s">
+      <c r="E44" s="32"/>
+      <c r="F44" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18" t="s">
+      <c r="G44" s="32"/>
+      <c r="H44" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18" t="s">
+      <c r="I44" s="32"/>
+      <c r="J44" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18" t="s">
+      <c r="K44" s="32"/>
+      <c r="L44" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="M44" s="18"/>
-      <c r="N44" s="77" t="s">
+      <c r="M44" s="32"/>
+      <c r="N44" s="108" t="s">
         <v>184</v>
       </c>
-      <c r="O44" s="77"/>
-      <c r="P44" s="18" t="s">
+      <c r="O44" s="108"/>
+      <c r="P44" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18" t="s">
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18" t="s">
+      <c r="S44" s="32"/>
+      <c r="T44" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="U44" s="18"/>
-      <c r="V44" s="74" t="s">
+      <c r="U44" s="32"/>
+      <c r="V44" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="W44" s="74"/>
+      <c r="W44" s="106"/>
       <c r="AA44" s="8"/>
       <c r="AB44" s="8"/>
       <c r="AC44" s="8"/>
@@ -4708,50 +4738,50 @@
     </row>
     <row r="45" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18" t="s">
+      <c r="C45" s="32"/>
+      <c r="D45" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18" t="s">
+      <c r="E45" s="32"/>
+      <c r="F45" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18" t="s">
+      <c r="G45" s="32"/>
+      <c r="H45" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18" t="s">
+      <c r="I45" s="32"/>
+      <c r="J45" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18" t="s">
+      <c r="K45" s="32"/>
+      <c r="L45" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18" t="s">
+      <c r="M45" s="32"/>
+      <c r="N45" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18" t="s">
+      <c r="O45" s="32"/>
+      <c r="P45" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="19" t="s">
+      <c r="Q45" s="32"/>
+      <c r="R45" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19" t="s">
+      <c r="S45" s="50"/>
+      <c r="T45" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="U45" s="19"/>
-      <c r="V45" s="19" t="s">
+      <c r="U45" s="50"/>
+      <c r="V45" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="W45" s="19"/>
+      <c r="W45" s="50"/>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
       <c r="AA45" s="8"/>
@@ -4779,46 +4809,46 @@
     </row>
     <row r="46" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78" t="s">
+      <c r="C46" s="105"/>
+      <c r="D46" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78" t="s">
+      <c r="E46" s="105"/>
+      <c r="F46" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="78"/>
-      <c r="H46" s="77" t="s">
+      <c r="G46" s="105"/>
+      <c r="H46" s="108" t="s">
         <v>194</v>
       </c>
-      <c r="I46" s="77"/>
-      <c r="J46" s="31" t="s">
+      <c r="I46" s="108"/>
+      <c r="J46" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="77" t="s">
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="O46" s="77"/>
-      <c r="P46" s="18" t="s">
+      <c r="O46" s="108"/>
+      <c r="P46" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="21" t="s">
+      <c r="Q46" s="32"/>
+      <c r="R46" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="21" t="s">
+      <c r="S46" s="43"/>
+      <c r="T46" s="43"/>
+      <c r="U46" s="43"/>
+      <c r="V46" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="W46" s="22"/>
+      <c r="W46" s="34"/>
       <c r="X46" s="6"/>
       <c r="AE46" s="8"/>
       <c r="AF46" s="8"/>
@@ -4882,44 +4912,44 @@
     </row>
     <row r="49" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="40" t="s">
+      <c r="C49" s="19"/>
+      <c r="D49" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E49" s="41"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="40" t="s">
+      <c r="E49" s="25"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="40" t="s">
+      <c r="H49" s="25"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="K49" s="41"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="40" t="s">
+      <c r="K49" s="25"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="N49" s="41"/>
-      <c r="O49" s="42"/>
-      <c r="P49" s="40" t="s">
+      <c r="N49" s="25"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="42"/>
-      <c r="S49" s="40" t="s">
+      <c r="Q49" s="25"/>
+      <c r="R49" s="26"/>
+      <c r="S49" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="T49" s="41"/>
-      <c r="U49" s="42"/>
-      <c r="V49" s="34" t="s">
+      <c r="T49" s="25"/>
+      <c r="U49" s="26"/>
+      <c r="V49" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="W49" s="35"/>
+      <c r="W49" s="19"/>
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
       <c r="AA49" s="8"/>
@@ -4947,38 +4977,38 @@
     </row>
     <row r="50" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
-      <c r="B50" s="71" t="s">
+      <c r="B50" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="79" t="s">
+      <c r="C50" s="101"/>
+      <c r="D50" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="E50" s="80"/>
-      <c r="F50" s="43" t="s">
+      <c r="E50" s="103"/>
+      <c r="F50" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="44"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="81"/>
-      <c r="T50" s="82" t="s">
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="104"/>
+      <c r="T50" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="U50" s="83"/>
-      <c r="V50" s="84" t="s">
+      <c r="U50" s="90"/>
+      <c r="V50" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="W50" s="85"/>
+      <c r="W50" s="92"/>
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="8"/>
@@ -5005,50 +5035,50 @@
       <c r="AV50" s="6"/>
     </row>
     <row r="51" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="75" t="s">
+      <c r="B51" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="C51" s="76"/>
-      <c r="D51" s="16" t="s">
+      <c r="C51" s="117"/>
+      <c r="D51" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="E51" s="17"/>
-      <c r="F51" s="75" t="s">
+      <c r="E51" s="49"/>
+      <c r="F51" s="116" t="s">
         <v>199</v>
       </c>
-      <c r="G51" s="76"/>
-      <c r="H51" s="16" t="s">
+      <c r="G51" s="117"/>
+      <c r="H51" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="I51" s="17"/>
-      <c r="J51" s="12" t="s">
+      <c r="I51" s="49"/>
+      <c r="J51" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="K51" s="15"/>
-      <c r="L51" s="12" t="s">
+      <c r="K51" s="41"/>
+      <c r="L51" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="M51" s="15"/>
-      <c r="N51" s="16" t="s">
+      <c r="M51" s="41"/>
+      <c r="N51" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="O51" s="17"/>
-      <c r="P51" s="16" t="s">
+      <c r="O51" s="49"/>
+      <c r="P51" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="16" t="s">
+      <c r="Q51" s="49"/>
+      <c r="R51" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="S51" s="17"/>
-      <c r="T51" s="16" t="s">
+      <c r="S51" s="49"/>
+      <c r="T51" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="U51" s="17"/>
-      <c r="V51" s="18" t="s">
+      <c r="U51" s="49"/>
+      <c r="V51" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="W51" s="18"/>
+      <c r="W51" s="32"/>
       <c r="X51" s="6"/>
       <c r="AT51" s="6"/>
       <c r="AU51" s="6"/>
@@ -5057,30 +5087,30 @@
     </row>
     <row r="52" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="77"/>
-      <c r="O52" s="77"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
-      <c r="R52" s="18"/>
-      <c r="S52" s="18"/>
-      <c r="T52" s="18"/>
-      <c r="U52" s="18"/>
-      <c r="V52" s="74" t="s">
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="108"/>
+      <c r="O52" s="108"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="32"/>
+      <c r="U52" s="32"/>
+      <c r="V52" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="W52" s="74"/>
+      <c r="W52" s="106"/>
       <c r="AA52" s="8"/>
       <c r="AB52" s="8"/>
       <c r="AC52" s="8"/>
@@ -5101,36 +5131,36 @@
     </row>
     <row r="53" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="18"/>
-      <c r="R53" s="19" t="s">
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19" t="s">
+      <c r="S53" s="50"/>
+      <c r="T53" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="U53" s="19"/>
-      <c r="V53" s="19" t="s">
+      <c r="U53" s="50"/>
+      <c r="V53" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="W53" s="19"/>
+      <c r="W53" s="50"/>
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="8"/>
@@ -5158,40 +5188,40 @@
     </row>
     <row r="54" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="78" t="s">
+      <c r="B54" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78" t="s">
+      <c r="C54" s="105"/>
+      <c r="D54" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78" t="s">
+      <c r="E54" s="105"/>
+      <c r="F54" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="78"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="31" t="s">
+      <c r="G54" s="105"/>
+      <c r="H54" s="108"/>
+      <c r="I54" s="108"/>
+      <c r="J54" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="77"/>
-      <c r="O54" s="77"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="21" t="s">
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="108"/>
+      <c r="O54" s="108"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="S54" s="29"/>
-      <c r="T54" s="29"/>
-      <c r="U54" s="29"/>
-      <c r="V54" s="21" t="s">
+      <c r="S54" s="43"/>
+      <c r="T54" s="43"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="W54" s="22"/>
+      <c r="W54" s="34"/>
       <c r="X54" s="6"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="8"/>
@@ -5258,44 +5288,44 @@
     </row>
     <row r="57" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="40" t="s">
+      <c r="C57" s="19"/>
+      <c r="D57" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E57" s="41"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="40" t="s">
+      <c r="E57" s="25"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="H57" s="41"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="40" t="s">
+      <c r="H57" s="25"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="K57" s="41"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="40" t="s">
+      <c r="K57" s="25"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="N57" s="41"/>
-      <c r="O57" s="42"/>
-      <c r="P57" s="40" t="s">
+      <c r="N57" s="25"/>
+      <c r="O57" s="26"/>
+      <c r="P57" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="Q57" s="41"/>
-      <c r="R57" s="42"/>
-      <c r="S57" s="40" t="s">
+      <c r="Q57" s="25"/>
+      <c r="R57" s="26"/>
+      <c r="S57" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="T57" s="41"/>
-      <c r="U57" s="42"/>
-      <c r="V57" s="34" t="s">
+      <c r="T57" s="25"/>
+      <c r="U57" s="26"/>
+      <c r="V57" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="W57" s="35"/>
+      <c r="W57" s="19"/>
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="8"/>
@@ -5323,38 +5353,38 @@
     </row>
     <row r="58" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="B58" s="71" t="s">
+      <c r="B58" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="C58" s="72"/>
-      <c r="D58" s="79" t="s">
+      <c r="C58" s="101"/>
+      <c r="D58" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="E58" s="80"/>
-      <c r="F58" s="43" t="s">
+      <c r="E58" s="103"/>
+      <c r="F58" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="44"/>
-      <c r="K58" s="44"/>
-      <c r="L58" s="44"/>
-      <c r="M58" s="44"/>
-      <c r="N58" s="44"/>
-      <c r="O58" s="44"/>
-      <c r="P58" s="44"/>
-      <c r="Q58" s="44"/>
-      <c r="R58" s="44"/>
-      <c r="S58" s="81"/>
-      <c r="T58" s="82" t="s">
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="28"/>
+      <c r="R58" s="28"/>
+      <c r="S58" s="104"/>
+      <c r="T58" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="U58" s="83"/>
-      <c r="V58" s="84" t="s">
+      <c r="U58" s="90"/>
+      <c r="V58" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="W58" s="85"/>
+      <c r="W58" s="92"/>
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="8"/>
@@ -5381,50 +5411,50 @@
       <c r="AV58" s="6"/>
     </row>
     <row r="59" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="75" t="s">
+      <c r="B59" s="116" t="s">
         <v>207</v>
       </c>
-      <c r="C59" s="76"/>
-      <c r="D59" s="16" t="s">
+      <c r="C59" s="117"/>
+      <c r="D59" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="E59" s="17"/>
-      <c r="F59" s="75" t="s">
+      <c r="E59" s="49"/>
+      <c r="F59" s="116" t="s">
         <v>209</v>
       </c>
-      <c r="G59" s="76"/>
-      <c r="H59" s="16" t="s">
+      <c r="G59" s="117"/>
+      <c r="H59" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="I59" s="17"/>
-      <c r="J59" s="12" t="s">
+      <c r="I59" s="49"/>
+      <c r="J59" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="K59" s="15"/>
-      <c r="L59" s="12" t="s">
+      <c r="K59" s="41"/>
+      <c r="L59" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="M59" s="15"/>
-      <c r="N59" s="16" t="s">
+      <c r="M59" s="41"/>
+      <c r="N59" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="O59" s="17"/>
-      <c r="P59" s="16" t="s">
+      <c r="O59" s="49"/>
+      <c r="P59" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="16" t="s">
+      <c r="Q59" s="49"/>
+      <c r="R59" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="S59" s="17"/>
-      <c r="T59" s="16" t="s">
+      <c r="S59" s="49"/>
+      <c r="T59" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="U59" s="17"/>
-      <c r="V59" s="18" t="s">
+      <c r="U59" s="49"/>
+      <c r="V59" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="W59" s="18"/>
+      <c r="W59" s="32"/>
       <c r="X59" s="6"/>
       <c r="AT59" s="6"/>
       <c r="AU59" s="6"/>
@@ -5433,50 +5463,50 @@
     </row>
     <row r="60" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18" t="s">
+      <c r="C60" s="32"/>
+      <c r="D60" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18" t="s">
+      <c r="E60" s="32"/>
+      <c r="F60" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18" t="s">
+      <c r="G60" s="32"/>
+      <c r="H60" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="I60" s="18"/>
-      <c r="J60" s="12" t="s">
+      <c r="I60" s="32"/>
+      <c r="J60" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="K60" s="15"/>
-      <c r="L60" s="18" t="s">
+      <c r="K60" s="41"/>
+      <c r="L60" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="M60" s="18"/>
-      <c r="N60" s="77" t="s">
+      <c r="M60" s="32"/>
+      <c r="N60" s="108" t="s">
         <v>223</v>
       </c>
-      <c r="O60" s="77"/>
-      <c r="P60" s="18" t="s">
+      <c r="O60" s="108"/>
+      <c r="P60" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="Q60" s="18"/>
-      <c r="R60" s="18" t="s">
+      <c r="Q60" s="32"/>
+      <c r="R60" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="S60" s="18"/>
-      <c r="T60" s="18" t="s">
+      <c r="S60" s="32"/>
+      <c r="T60" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="U60" s="18"/>
-      <c r="V60" s="74" t="s">
+      <c r="U60" s="32"/>
+      <c r="V60" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="W60" s="74"/>
+      <c r="W60" s="106"/>
       <c r="AA60" s="8"/>
       <c r="AB60" s="8"/>
       <c r="AC60" s="8"/>
@@ -5497,50 +5527,50 @@
     </row>
     <row r="61" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18" t="s">
+      <c r="C61" s="32"/>
+      <c r="D61" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18" t="s">
+      <c r="E61" s="32"/>
+      <c r="F61" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18" t="s">
+      <c r="G61" s="32"/>
+      <c r="H61" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18" t="s">
+      <c r="I61" s="32"/>
+      <c r="J61" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18" t="s">
+      <c r="K61" s="32"/>
+      <c r="L61" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18" t="s">
+      <c r="M61" s="32"/>
+      <c r="N61" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="O61" s="18"/>
-      <c r="P61" s="18" t="s">
+      <c r="O61" s="32"/>
+      <c r="P61" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="Q61" s="18"/>
-      <c r="R61" s="19" t="s">
+      <c r="Q61" s="32"/>
+      <c r="R61" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="S61" s="19"/>
-      <c r="T61" s="19" t="s">
+      <c r="S61" s="50"/>
+      <c r="T61" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="U61" s="19"/>
-      <c r="V61" s="19" t="s">
+      <c r="U61" s="50"/>
+      <c r="V61" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="W61" s="19"/>
+      <c r="W61" s="50"/>
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
       <c r="AA61" s="8"/>
@@ -5568,46 +5598,46 @@
     </row>
     <row r="62" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="78" t="s">
+      <c r="B62" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="78"/>
-      <c r="D62" s="78" t="s">
+      <c r="C62" s="105"/>
+      <c r="D62" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="E62" s="78"/>
-      <c r="F62" s="78" t="s">
+      <c r="E62" s="105"/>
+      <c r="F62" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="G62" s="78"/>
-      <c r="H62" s="77" t="s">
+      <c r="G62" s="105"/>
+      <c r="H62" s="108" t="s">
         <v>234</v>
       </c>
-      <c r="I62" s="77"/>
-      <c r="J62" s="31" t="s">
+      <c r="I62" s="108"/>
+      <c r="J62" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="77" t="s">
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="47"/>
+      <c r="N62" s="108" t="s">
         <v>235</v>
       </c>
-      <c r="O62" s="77"/>
-      <c r="P62" s="18" t="s">
+      <c r="O62" s="108"/>
+      <c r="P62" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="Q62" s="18"/>
-      <c r="R62" s="21" t="s">
+      <c r="Q62" s="32"/>
+      <c r="R62" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="S62" s="29"/>
-      <c r="T62" s="29"/>
-      <c r="U62" s="29"/>
-      <c r="V62" s="21" t="s">
+      <c r="S62" s="43"/>
+      <c r="T62" s="43"/>
+      <c r="U62" s="43"/>
+      <c r="V62" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="W62" s="22"/>
+      <c r="W62" s="34"/>
       <c r="X62" s="6"/>
       <c r="AE62" s="8"/>
       <c r="AF62" s="8"/>
@@ -5671,44 +5701,44 @@
     </row>
     <row r="65" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="35"/>
-      <c r="D65" s="40" t="s">
+      <c r="C65" s="19"/>
+      <c r="D65" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E65" s="41"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="40" t="s">
+      <c r="E65" s="25"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="H65" s="41"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="40" t="s">
+      <c r="H65" s="25"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="K65" s="41"/>
-      <c r="L65" s="42"/>
-      <c r="M65" s="40" t="s">
+      <c r="K65" s="25"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="N65" s="41"/>
-      <c r="O65" s="42"/>
-      <c r="P65" s="40" t="s">
+      <c r="N65" s="25"/>
+      <c r="O65" s="26"/>
+      <c r="P65" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="Q65" s="41"/>
-      <c r="R65" s="42"/>
-      <c r="S65" s="40" t="s">
+      <c r="Q65" s="25"/>
+      <c r="R65" s="26"/>
+      <c r="S65" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="T65" s="41"/>
-      <c r="U65" s="42"/>
-      <c r="V65" s="34" t="s">
+      <c r="T65" s="25"/>
+      <c r="U65" s="26"/>
+      <c r="V65" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="W65" s="35"/>
+      <c r="W65" s="19"/>
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
       <c r="AA65" s="8"/>
@@ -5736,38 +5766,38 @@
     </row>
     <row r="66" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
-      <c r="B66" s="71" t="s">
+      <c r="B66" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="C66" s="72"/>
-      <c r="D66" s="79" t="s">
+      <c r="C66" s="101"/>
+      <c r="D66" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="E66" s="80"/>
-      <c r="F66" s="43" t="s">
+      <c r="E66" s="103"/>
+      <c r="F66" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="G66" s="44"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="44"/>
-      <c r="L66" s="44"/>
-      <c r="M66" s="44"/>
-      <c r="N66" s="44"/>
-      <c r="O66" s="44"/>
-      <c r="P66" s="44"/>
-      <c r="Q66" s="44"/>
-      <c r="R66" s="44"/>
-      <c r="S66" s="81"/>
-      <c r="T66" s="82" t="s">
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="28"/>
+      <c r="S66" s="104"/>
+      <c r="T66" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="U66" s="83"/>
-      <c r="V66" s="84" t="s">
+      <c r="U66" s="90"/>
+      <c r="V66" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="W66" s="85"/>
+      <c r="W66" s="92"/>
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="8"/>
@@ -5794,50 +5824,50 @@
       <c r="AV66" s="6"/>
     </row>
     <row r="67" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="75" t="s">
+      <c r="B67" s="116" t="s">
         <v>237</v>
       </c>
-      <c r="C67" s="76"/>
-      <c r="D67" s="16" t="s">
+      <c r="C67" s="117"/>
+      <c r="D67" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="E67" s="17"/>
-      <c r="F67" s="75" t="s">
+      <c r="E67" s="49"/>
+      <c r="F67" s="116" t="s">
         <v>239</v>
       </c>
-      <c r="G67" s="76"/>
-      <c r="H67" s="16" t="s">
+      <c r="G67" s="117"/>
+      <c r="H67" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="I67" s="17"/>
-      <c r="J67" s="12" t="s">
+      <c r="I67" s="49"/>
+      <c r="J67" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="K67" s="15"/>
-      <c r="L67" s="12" t="s">
+      <c r="K67" s="41"/>
+      <c r="L67" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="M67" s="15"/>
-      <c r="N67" s="16" t="s">
+      <c r="M67" s="41"/>
+      <c r="N67" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="O67" s="17"/>
-      <c r="P67" s="16" t="s">
+      <c r="O67" s="49"/>
+      <c r="P67" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="Q67" s="17"/>
-      <c r="R67" s="16" t="s">
+      <c r="Q67" s="49"/>
+      <c r="R67" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="S67" s="17"/>
-      <c r="T67" s="16" t="s">
+      <c r="S67" s="49"/>
+      <c r="T67" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="U67" s="17"/>
-      <c r="V67" s="18" t="s">
+      <c r="U67" s="49"/>
+      <c r="V67" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="W67" s="18"/>
+      <c r="W67" s="32"/>
       <c r="X67" s="6"/>
       <c r="AT67" s="6"/>
       <c r="AU67" s="6"/>
@@ -5846,50 +5876,50 @@
     </row>
     <row r="68" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18" t="s">
+      <c r="C68" s="32"/>
+      <c r="D68" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18" t="s">
+      <c r="E68" s="32"/>
+      <c r="F68" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18" t="s">
+      <c r="G68" s="32"/>
+      <c r="H68" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="I68" s="18"/>
-      <c r="J68" s="12" t="s">
+      <c r="I68" s="32"/>
+      <c r="J68" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="K68" s="15"/>
-      <c r="L68" s="18" t="s">
+      <c r="K68" s="41"/>
+      <c r="L68" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="M68" s="18"/>
-      <c r="N68" s="77" t="s">
+      <c r="M68" s="32"/>
+      <c r="N68" s="108" t="s">
         <v>253</v>
       </c>
-      <c r="O68" s="77"/>
-      <c r="P68" s="18" t="s">
+      <c r="O68" s="108"/>
+      <c r="P68" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="Q68" s="18"/>
-      <c r="R68" s="18" t="s">
+      <c r="Q68" s="32"/>
+      <c r="R68" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="S68" s="18"/>
-      <c r="T68" s="18" t="s">
+      <c r="S68" s="32"/>
+      <c r="T68" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="U68" s="18"/>
-      <c r="V68" s="74" t="s">
+      <c r="U68" s="32"/>
+      <c r="V68" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="W68" s="74"/>
+      <c r="W68" s="106"/>
       <c r="AA68" s="8"/>
       <c r="AB68" s="8"/>
       <c r="AC68" s="8"/>
@@ -5910,50 +5940,50 @@
     </row>
     <row r="69" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18" t="s">
+      <c r="C69" s="32"/>
+      <c r="D69" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18" t="s">
+      <c r="E69" s="32"/>
+      <c r="F69" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18" t="s">
+      <c r="G69" s="32"/>
+      <c r="H69" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18" t="s">
+      <c r="I69" s="32"/>
+      <c r="J69" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18" t="s">
+      <c r="K69" s="32"/>
+      <c r="L69" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18" t="s">
+      <c r="M69" s="32"/>
+      <c r="N69" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="O69" s="18"/>
-      <c r="P69" s="18" t="s">
+      <c r="O69" s="32"/>
+      <c r="P69" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="Q69" s="18"/>
-      <c r="R69" s="19" t="s">
+      <c r="Q69" s="32"/>
+      <c r="R69" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="S69" s="19"/>
-      <c r="T69" s="19" t="s">
+      <c r="S69" s="50"/>
+      <c r="T69" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="U69" s="19"/>
-      <c r="V69" s="19" t="s">
+      <c r="U69" s="50"/>
+      <c r="V69" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="W69" s="19"/>
+      <c r="W69" s="50"/>
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
       <c r="AA69" s="8"/>
@@ -5981,46 +6011,46 @@
     </row>
     <row r="70" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="78" t="s">
+      <c r="B70" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="78"/>
-      <c r="D70" s="78" t="s">
+      <c r="C70" s="105"/>
+      <c r="D70" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="E70" s="78"/>
-      <c r="F70" s="78" t="s">
+      <c r="E70" s="105"/>
+      <c r="F70" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="G70" s="78"/>
-      <c r="H70" s="77" t="s">
+      <c r="G70" s="105"/>
+      <c r="H70" s="108" t="s">
         <v>267</v>
       </c>
-      <c r="I70" s="77"/>
-      <c r="J70" s="31" t="s">
+      <c r="I70" s="108"/>
+      <c r="J70" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="K70" s="33"/>
-      <c r="L70" s="33"/>
-      <c r="M70" s="33"/>
-      <c r="N70" s="73" t="s">
+      <c r="K70" s="47"/>
+      <c r="L70" s="47"/>
+      <c r="M70" s="47"/>
+      <c r="N70" s="119" t="s">
         <v>268</v>
       </c>
-      <c r="O70" s="73"/>
-      <c r="P70" s="18" t="s">
+      <c r="O70" s="119"/>
+      <c r="P70" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="Q70" s="18"/>
-      <c r="R70" s="21" t="s">
+      <c r="Q70" s="32"/>
+      <c r="R70" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="S70" s="29"/>
-      <c r="T70" s="29"/>
-      <c r="U70" s="29"/>
-      <c r="V70" s="21" t="s">
+      <c r="S70" s="43"/>
+      <c r="T70" s="43"/>
+      <c r="U70" s="43"/>
+      <c r="V70" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="W70" s="22"/>
+      <c r="W70" s="34"/>
       <c r="X70" s="6"/>
       <c r="AE70" s="8"/>
       <c r="AF70" s="8"/>
@@ -6084,44 +6114,44 @@
     </row>
     <row r="73" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
-      <c r="B73" s="34" t="s">
+      <c r="B73" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="35"/>
-      <c r="D73" s="40" t="s">
+      <c r="C73" s="19"/>
+      <c r="D73" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E73" s="41"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="40" t="s">
+      <c r="E73" s="25"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="H73" s="41"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="40" t="s">
+      <c r="H73" s="25"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="K73" s="41"/>
-      <c r="L73" s="42"/>
-      <c r="M73" s="40" t="s">
+      <c r="K73" s="25"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="N73" s="41"/>
-      <c r="O73" s="42"/>
-      <c r="P73" s="40" t="s">
+      <c r="N73" s="25"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="Q73" s="41"/>
-      <c r="R73" s="42"/>
-      <c r="S73" s="40" t="s">
+      <c r="Q73" s="25"/>
+      <c r="R73" s="26"/>
+      <c r="S73" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="T73" s="41"/>
-      <c r="U73" s="42"/>
-      <c r="V73" s="34" t="s">
+      <c r="T73" s="25"/>
+      <c r="U73" s="26"/>
+      <c r="V73" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="W73" s="35"/>
+      <c r="W73" s="19"/>
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
       <c r="AA73" s="8"/>
@@ -6149,38 +6179,38 @@
     </row>
     <row r="74" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
-      <c r="B74" s="71" t="s">
+      <c r="B74" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="C74" s="72"/>
-      <c r="D74" s="79" t="s">
+      <c r="C74" s="101"/>
+      <c r="D74" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="E74" s="80"/>
-      <c r="F74" s="43" t="s">
+      <c r="E74" s="103"/>
+      <c r="F74" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="G74" s="44"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="44"/>
-      <c r="J74" s="44"/>
-      <c r="K74" s="44"/>
-      <c r="L74" s="44"/>
-      <c r="M74" s="44"/>
-      <c r="N74" s="44"/>
-      <c r="O74" s="44"/>
-      <c r="P74" s="44"/>
-      <c r="Q74" s="44"/>
-      <c r="R74" s="44"/>
-      <c r="S74" s="81"/>
-      <c r="T74" s="82" t="s">
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="28"/>
+      <c r="P74" s="28"/>
+      <c r="Q74" s="28"/>
+      <c r="R74" s="28"/>
+      <c r="S74" s="104"/>
+      <c r="T74" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="U74" s="83"/>
-      <c r="V74" s="84" t="s">
+      <c r="U74" s="90"/>
+      <c r="V74" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="W74" s="85"/>
+      <c r="W74" s="92"/>
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
       <c r="AA74" s="8"/>
@@ -6207,50 +6237,50 @@
       <c r="AV74" s="6"/>
     </row>
     <row r="75" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="75" t="s">
+      <c r="B75" s="116" t="s">
         <v>270</v>
       </c>
-      <c r="C75" s="76"/>
-      <c r="D75" s="16" t="s">
+      <c r="C75" s="117"/>
+      <c r="D75" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="E75" s="17"/>
-      <c r="F75" s="16" t="s">
+      <c r="E75" s="49"/>
+      <c r="F75" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="G75" s="17"/>
-      <c r="H75" s="16" t="s">
+      <c r="G75" s="49"/>
+      <c r="H75" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="I75" s="17"/>
-      <c r="J75" s="16" t="s">
+      <c r="I75" s="49"/>
+      <c r="J75" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="K75" s="17"/>
-      <c r="L75" s="16" t="s">
+      <c r="K75" s="49"/>
+      <c r="L75" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="M75" s="17"/>
-      <c r="N75" s="16" t="s">
+      <c r="M75" s="49"/>
+      <c r="N75" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="O75" s="17"/>
-      <c r="P75" s="16" t="s">
+      <c r="O75" s="49"/>
+      <c r="P75" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="Q75" s="17"/>
-      <c r="R75" s="18" t="s">
+      <c r="Q75" s="49"/>
+      <c r="R75" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="S75" s="18"/>
-      <c r="T75" s="18" t="s">
+      <c r="S75" s="32"/>
+      <c r="T75" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="U75" s="18"/>
-      <c r="V75" s="18" t="s">
+      <c r="U75" s="32"/>
+      <c r="V75" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="W75" s="18"/>
+      <c r="W75" s="32"/>
       <c r="X75" s="6"/>
       <c r="AT75" s="6"/>
       <c r="AU75" s="6"/>
@@ -6259,50 +6289,50 @@
     </row>
     <row r="76" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="C76" s="15"/>
-      <c r="D76" s="12" t="s">
+      <c r="C76" s="41"/>
+      <c r="D76" s="39" t="s">
         <v>281</v>
       </c>
-      <c r="E76" s="15"/>
-      <c r="F76" s="12" t="s">
+      <c r="E76" s="41"/>
+      <c r="F76" s="39" t="s">
         <v>282</v>
       </c>
-      <c r="G76" s="15"/>
-      <c r="H76" s="12" t="s">
+      <c r="G76" s="41"/>
+      <c r="H76" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="I76" s="15"/>
-      <c r="J76" s="67" t="s">
+      <c r="I76" s="41"/>
+      <c r="J76" s="53" t="s">
         <v>284</v>
       </c>
-      <c r="K76" s="69"/>
-      <c r="L76" s="12" t="s">
+      <c r="K76" s="55"/>
+      <c r="L76" s="39" t="s">
         <v>285</v>
       </c>
-      <c r="M76" s="15"/>
-      <c r="N76" s="18" t="s">
+      <c r="M76" s="41"/>
+      <c r="N76" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="O76" s="18"/>
-      <c r="P76" s="18" t="s">
+      <c r="O76" s="32"/>
+      <c r="P76" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="Q76" s="18"/>
-      <c r="R76" s="18" t="s">
+      <c r="Q76" s="32"/>
+      <c r="R76" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="S76" s="18"/>
-      <c r="T76" s="18" t="s">
+      <c r="S76" s="32"/>
+      <c r="T76" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="U76" s="18"/>
-      <c r="V76" s="74" t="s">
+      <c r="U76" s="32"/>
+      <c r="V76" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="W76" s="74"/>
+      <c r="W76" s="106"/>
       <c r="AA76" s="8"/>
       <c r="AB76" s="8"/>
       <c r="AC76" s="8"/>
@@ -6323,46 +6353,46 @@
     </row>
     <row r="77" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="18"/>
-      <c r="D77" s="12" t="s">
+      <c r="C77" s="32"/>
+      <c r="D77" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="E77" s="15"/>
-      <c r="F77" s="12" t="s">
+      <c r="E77" s="41"/>
+      <c r="F77" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="G77" s="15"/>
-      <c r="H77" s="12" t="s">
+      <c r="G77" s="41"/>
+      <c r="H77" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="I77" s="15"/>
-      <c r="J77" s="67" t="s">
+      <c r="I77" s="41"/>
+      <c r="J77" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="K77" s="69"/>
-      <c r="L77" s="67" t="s">
+      <c r="K77" s="55"/>
+      <c r="L77" s="53" t="s">
         <v>294</v>
       </c>
-      <c r="M77" s="69"/>
-      <c r="N77" s="18"/>
-      <c r="O77" s="18"/>
-      <c r="P77" s="18"/>
-      <c r="Q77" s="18"/>
-      <c r="R77" s="19" t="s">
+      <c r="M77" s="55"/>
+      <c r="N77" s="32"/>
+      <c r="O77" s="32"/>
+      <c r="P77" s="32"/>
+      <c r="Q77" s="32"/>
+      <c r="R77" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="S77" s="19"/>
-      <c r="T77" s="19" t="s">
+      <c r="S77" s="50"/>
+      <c r="T77" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="U77" s="19"/>
-      <c r="V77" s="19" t="s">
+      <c r="U77" s="50"/>
+      <c r="V77" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="W77" s="19"/>
+      <c r="W77" s="50"/>
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
       <c r="AA77" s="8"/>
@@ -6390,40 +6420,40 @@
     </row>
     <row r="78" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="78" t="s">
+      <c r="B78" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="78"/>
-      <c r="D78" s="78" t="s">
+      <c r="C78" s="105"/>
+      <c r="D78" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="E78" s="78"/>
-      <c r="F78" s="78" t="s">
+      <c r="E78" s="105"/>
+      <c r="F78" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="G78" s="78"/>
-      <c r="H78" s="77"/>
-      <c r="I78" s="77"/>
-      <c r="J78" s="31" t="s">
+      <c r="G78" s="105"/>
+      <c r="H78" s="108"/>
+      <c r="I78" s="108"/>
+      <c r="J78" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="K78" s="33"/>
-      <c r="L78" s="33"/>
-      <c r="M78" s="33"/>
-      <c r="N78" s="73"/>
-      <c r="O78" s="73"/>
-      <c r="P78" s="18"/>
-      <c r="Q78" s="18"/>
-      <c r="R78" s="21" t="s">
+      <c r="K78" s="47"/>
+      <c r="L78" s="47"/>
+      <c r="M78" s="47"/>
+      <c r="N78" s="119"/>
+      <c r="O78" s="119"/>
+      <c r="P78" s="32"/>
+      <c r="Q78" s="32"/>
+      <c r="R78" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="S78" s="29"/>
-      <c r="T78" s="29"/>
-      <c r="U78" s="29"/>
-      <c r="V78" s="21" t="s">
+      <c r="S78" s="43"/>
+      <c r="T78" s="43"/>
+      <c r="U78" s="43"/>
+      <c r="V78" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="W78" s="22"/>
+      <c r="W78" s="34"/>
       <c r="X78" s="6"/>
       <c r="Z78" s="6"/>
       <c r="AA78" s="8"/>
@@ -6489,46 +6519,46 @@
       </c>
     </row>
     <row r="81" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="70" t="s">
+      <c r="C81" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="D81" s="70"/>
-      <c r="E81" s="70" t="s">
+      <c r="D81" s="82"/>
+      <c r="E81" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="F81" s="70"/>
-      <c r="G81" s="70" t="s">
+      <c r="F81" s="82"/>
+      <c r="G81" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="H81" s="70"/>
-      <c r="I81" s="70" t="s">
+      <c r="H81" s="82"/>
+      <c r="I81" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="J81" s="70"/>
-      <c r="K81" s="70" t="s">
+      <c r="J81" s="82"/>
+      <c r="K81" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="L81" s="70"/>
-      <c r="M81" s="70" t="s">
+      <c r="L81" s="82"/>
+      <c r="M81" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="N81" s="70"/>
-      <c r="O81" s="70" t="s">
+      <c r="N81" s="82"/>
+      <c r="O81" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="P81" s="70"/>
-      <c r="Q81" s="70" t="s">
+      <c r="P81" s="82"/>
+      <c r="Q81" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="R81" s="70"/>
-      <c r="S81" s="70" t="s">
+      <c r="R81" s="82"/>
+      <c r="S81" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="T81" s="70"/>
-      <c r="U81" s="70" t="s">
+      <c r="T81" s="82"/>
+      <c r="U81" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="V81" s="70"/>
+      <c r="V81" s="82"/>
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
       <c r="Y81" s="5"/>
@@ -6537,136 +6567,136 @@
     </row>
     <row r="82" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="99" t="s">
+      <c r="B82" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="100"/>
-      <c r="D82" s="99" t="s">
+      <c r="C82" s="85"/>
+      <c r="D82" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="E82" s="100"/>
-      <c r="F82" s="108" t="s">
+      <c r="E82" s="85"/>
+      <c r="F82" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="G82" s="108"/>
-      <c r="H82" s="108" t="s">
+      <c r="G82" s="59"/>
+      <c r="H82" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="I82" s="108"/>
-      <c r="J82" s="97" t="s">
+      <c r="I82" s="59"/>
+      <c r="J82" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="K82" s="98"/>
-      <c r="L82" s="97" t="s">
+      <c r="K82" s="81"/>
+      <c r="L82" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="M82" s="98"/>
-      <c r="N82" s="97" t="s">
+      <c r="M82" s="81"/>
+      <c r="N82" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="O82" s="98"/>
-      <c r="P82" s="99" t="s">
+      <c r="O82" s="81"/>
+      <c r="P82" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="Q82" s="100"/>
-      <c r="R82" s="99" t="s">
+      <c r="Q82" s="85"/>
+      <c r="R82" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="S82" s="100"/>
-      <c r="T82" s="99" t="s">
+      <c r="S82" s="85"/>
+      <c r="T82" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="U82" s="100"/>
-      <c r="V82" s="107" t="s">
+      <c r="U82" s="85"/>
+      <c r="V82" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="W82" s="107"/>
+      <c r="W82" s="86"/>
     </row>
     <row r="83" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="18"/>
-      <c r="D83" s="97" t="s">
+      <c r="C83" s="32"/>
+      <c r="D83" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="E83" s="98"/>
-      <c r="F83" s="97" t="s">
+      <c r="E83" s="81"/>
+      <c r="F83" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="G83" s="98"/>
-      <c r="H83" s="97" t="s">
+      <c r="G83" s="81"/>
+      <c r="H83" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="I83" s="98"/>
-      <c r="J83" s="99" t="s">
+      <c r="I83" s="81"/>
+      <c r="J83" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="K83" s="100"/>
-      <c r="L83" s="99" t="s">
+      <c r="K83" s="85"/>
+      <c r="L83" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="M83" s="100"/>
-      <c r="N83" s="99" t="s">
+      <c r="M83" s="85"/>
+      <c r="N83" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="O83" s="100"/>
-      <c r="P83" s="97" t="s">
+      <c r="O83" s="85"/>
+      <c r="P83" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="Q83" s="98"/>
-      <c r="R83" s="19" t="s">
+      <c r="Q83" s="81"/>
+      <c r="R83" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="S83" s="19"/>
-      <c r="T83" s="19" t="s">
+      <c r="S83" s="50"/>
+      <c r="T83" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="U83" s="19"/>
-      <c r="V83" s="106" t="s">
+      <c r="U83" s="50"/>
+      <c r="V83" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="W83" s="106"/>
+      <c r="W83" s="83"/>
     </row>
     <row r="84" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="78" t="s">
+      <c r="B84" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C84" s="78"/>
-      <c r="D84" s="78" t="s">
+      <c r="C84" s="105"/>
+      <c r="D84" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="E84" s="78"/>
-      <c r="F84" s="78" t="s">
+      <c r="E84" s="105"/>
+      <c r="F84" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="G84" s="78"/>
-      <c r="H84" s="97"/>
-      <c r="I84" s="98"/>
-      <c r="J84" s="31" t="s">
+      <c r="G84" s="105"/>
+      <c r="H84" s="80"/>
+      <c r="I84" s="81"/>
+      <c r="J84" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="K84" s="33"/>
-      <c r="L84" s="33"/>
-      <c r="M84" s="32"/>
-      <c r="N84" s="99"/>
-      <c r="O84" s="100"/>
-      <c r="P84" s="99" t="s">
+      <c r="K84" s="47"/>
+      <c r="L84" s="47"/>
+      <c r="M84" s="46"/>
+      <c r="N84" s="84"/>
+      <c r="O84" s="85"/>
+      <c r="P84" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="Q84" s="100"/>
-      <c r="R84" s="21" t="s">
+      <c r="Q84" s="85"/>
+      <c r="R84" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="S84" s="29"/>
-      <c r="T84" s="29"/>
-      <c r="U84" s="29"/>
-      <c r="V84" s="21" t="s">
+      <c r="S84" s="43"/>
+      <c r="T84" s="43"/>
+      <c r="U84" s="43"/>
+      <c r="V84" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="W84" s="22"/>
+      <c r="W84" s="34"/>
       <c r="X84" s="5"/>
     </row>
     <row r="86" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6676,44 +6706,44 @@
     </row>
     <row r="87" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
-      <c r="B87" s="34" t="s">
+      <c r="B87" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C87" s="35"/>
-      <c r="D87" s="40" t="s">
+      <c r="C87" s="19"/>
+      <c r="D87" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E87" s="41"/>
-      <c r="F87" s="42"/>
-      <c r="G87" s="40" t="s">
+      <c r="E87" s="25"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="H87" s="41"/>
-      <c r="I87" s="42"/>
-      <c r="J87" s="40" t="s">
+      <c r="H87" s="25"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="K87" s="41"/>
-      <c r="L87" s="42"/>
-      <c r="M87" s="40" t="s">
+      <c r="K87" s="25"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="N87" s="41"/>
-      <c r="O87" s="42"/>
-      <c r="P87" s="40" t="s">
+      <c r="N87" s="25"/>
+      <c r="O87" s="26"/>
+      <c r="P87" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="Q87" s="41"/>
-      <c r="R87" s="42"/>
-      <c r="S87" s="40" t="s">
+      <c r="Q87" s="25"/>
+      <c r="R87" s="26"/>
+      <c r="S87" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="T87" s="41"/>
-      <c r="U87" s="42"/>
-      <c r="V87" s="34" t="s">
+      <c r="T87" s="25"/>
+      <c r="U87" s="26"/>
+      <c r="V87" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="W87" s="35"/>
+      <c r="W87" s="19"/>
       <c r="Z87" s="5"/>
       <c r="AA87" s="8"/>
       <c r="AB87" s="8"/>
@@ -6737,38 +6767,38 @@
     </row>
     <row r="88" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
-      <c r="B88" s="71" t="s">
+      <c r="B88" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="C88" s="72"/>
-      <c r="D88" s="79" t="s">
+      <c r="C88" s="101"/>
+      <c r="D88" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="E88" s="80"/>
-      <c r="F88" s="43" t="s">
+      <c r="E88" s="103"/>
+      <c r="F88" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="G88" s="44"/>
-      <c r="H88" s="44"/>
-      <c r="I88" s="44"/>
-      <c r="J88" s="44"/>
-      <c r="K88" s="44"/>
-      <c r="L88" s="44"/>
-      <c r="M88" s="44"/>
-      <c r="N88" s="44"/>
-      <c r="O88" s="44"/>
-      <c r="P88" s="44"/>
-      <c r="Q88" s="44"/>
-      <c r="R88" s="44"/>
-      <c r="S88" s="81"/>
-      <c r="T88" s="82" t="s">
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="28"/>
+      <c r="L88" s="28"/>
+      <c r="M88" s="28"/>
+      <c r="N88" s="28"/>
+      <c r="O88" s="28"/>
+      <c r="P88" s="28"/>
+      <c r="Q88" s="28"/>
+      <c r="R88" s="28"/>
+      <c r="S88" s="104"/>
+      <c r="T88" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="U88" s="83"/>
-      <c r="V88" s="84" t="s">
+      <c r="U88" s="90"/>
+      <c r="V88" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="W88" s="85"/>
+      <c r="W88" s="92"/>
       <c r="Z88" s="5"/>
       <c r="AA88" s="8"/>
       <c r="AB88" s="8"/>
@@ -6796,276 +6826,264 @@
       </c>
     </row>
     <row r="91" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="67" t="s">
+      <c r="B91" s="53" t="s">
         <v>304</v>
       </c>
-      <c r="C91" s="69"/>
-      <c r="D91" s="67" t="s">
+      <c r="C91" s="55"/>
+      <c r="D91" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="69"/>
-      <c r="F91" s="67" t="s">
+      <c r="E91" s="55"/>
+      <c r="F91" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="G91" s="69"/>
-      <c r="I91" s="67" t="s">
+      <c r="G91" s="55"/>
+      <c r="I91" s="53" t="s">
         <v>304</v>
       </c>
-      <c r="J91" s="69"/>
-      <c r="K91" s="67" t="s">
+      <c r="J91" s="55"/>
+      <c r="K91" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="69"/>
-      <c r="M91" s="67" t="s">
+      <c r="L91" s="55"/>
+      <c r="M91" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="N91" s="69"/>
-      <c r="P91" s="67" t="s">
+      <c r="N91" s="55"/>
+      <c r="P91" s="53" t="s">
         <v>304</v>
       </c>
-      <c r="Q91" s="69"/>
-      <c r="R91" s="67" t="s">
+      <c r="Q91" s="55"/>
+      <c r="R91" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="69"/>
-      <c r="T91" s="67" t="s">
+      <c r="S91" s="55"/>
+      <c r="T91" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="U91" s="69"/>
-      <c r="W91" s="67" t="s">
+      <c r="U91" s="55"/>
+      <c r="W91" s="53" t="s">
         <v>304</v>
       </c>
-      <c r="X91" s="69"/>
-      <c r="Y91" s="67" t="s">
+      <c r="X91" s="55"/>
+      <c r="Y91" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="Z91" s="69"/>
-      <c r="AA91" s="67" t="s">
+      <c r="Z91" s="55"/>
+      <c r="AA91" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="AB91" s="69"/>
+      <c r="AB91" s="55"/>
     </row>
     <row r="92" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="67" t="s">
+      <c r="B92" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="69"/>
-      <c r="D92" s="67" t="s">
+      <c r="C92" s="55"/>
+      <c r="D92" s="53" t="s">
         <v>306</v>
       </c>
-      <c r="E92" s="69"/>
-      <c r="F92" s="67" t="s">
+      <c r="E92" s="55"/>
+      <c r="F92" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="69"/>
-      <c r="I92" s="67" t="s">
+      <c r="G92" s="55"/>
+      <c r="I92" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J92" s="69"/>
-      <c r="K92" s="67" t="s">
+      <c r="J92" s="55"/>
+      <c r="K92" s="53" t="s">
         <v>307</v>
       </c>
-      <c r="L92" s="69"/>
-      <c r="M92" s="67" t="s">
+      <c r="L92" s="55"/>
+      <c r="M92" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="N92" s="69"/>
-      <c r="P92" s="67" t="s">
+      <c r="N92" s="55"/>
+      <c r="P92" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="Q92" s="69"/>
-      <c r="R92" s="67" t="s">
+      <c r="Q92" s="55"/>
+      <c r="R92" s="53" t="s">
         <v>308</v>
       </c>
-      <c r="S92" s="69"/>
-      <c r="T92" s="67" t="s">
+      <c r="S92" s="55"/>
+      <c r="T92" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="U92" s="69"/>
-      <c r="W92" s="67" t="s">
+      <c r="U92" s="55"/>
+      <c r="W92" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="X92" s="69"/>
-      <c r="Y92" s="67" t="s">
+      <c r="X92" s="55"/>
+      <c r="Y92" s="53" t="s">
         <v>308</v>
       </c>
-      <c r="Z92" s="69"/>
-      <c r="AA92" s="67" t="s">
+      <c r="Z92" s="55"/>
+      <c r="AA92" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AB92" s="69"/>
+      <c r="AB92" s="55"/>
     </row>
     <row r="93" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="67" t="s">
+      <c r="B93" s="53" t="s">
         <v>309</v>
       </c>
-      <c r="C93" s="69"/>
-      <c r="D93" s="67" t="s">
+      <c r="C93" s="55"/>
+      <c r="D93" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E93" s="69"/>
-      <c r="F93" s="53" t="s">
+      <c r="E93" s="55"/>
+      <c r="F93" s="56" t="s">
         <v>310</v>
       </c>
-      <c r="G93" s="55"/>
-      <c r="I93" s="53" t="s">
+      <c r="G93" s="57"/>
+      <c r="I93" s="56" t="s">
         <v>309</v>
       </c>
-      <c r="J93" s="69"/>
-      <c r="K93" s="67" t="s">
+      <c r="J93" s="55"/>
+      <c r="K93" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="L93" s="69"/>
-      <c r="M93" s="67" t="s">
+      <c r="L93" s="55"/>
+      <c r="M93" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="N93" s="69"/>
-      <c r="P93" s="53" t="s">
+      <c r="N93" s="55"/>
+      <c r="P93" s="56" t="s">
         <v>309</v>
       </c>
-      <c r="Q93" s="55"/>
-      <c r="R93" s="53" t="s">
+      <c r="Q93" s="57"/>
+      <c r="R93" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="S93" s="55"/>
-      <c r="T93" s="53" t="s">
+      <c r="S93" s="57"/>
+      <c r="T93" s="56" t="s">
         <v>310</v>
       </c>
-      <c r="U93" s="55"/>
-      <c r="W93" s="67" t="s">
+      <c r="U93" s="57"/>
+      <c r="W93" s="53" t="s">
         <v>309</v>
       </c>
-      <c r="X93" s="69"/>
-      <c r="Y93" s="67" t="s">
+      <c r="X93" s="55"/>
+      <c r="Y93" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="Z93" s="69"/>
-      <c r="AA93" s="67" t="s">
+      <c r="Z93" s="55"/>
+      <c r="AA93" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="AB93" s="69"/>
-    </row>
-    <row r="94" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="67" t="s">
+      <c r="AB93" s="55"/>
+    </row>
+    <row r="94" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="12"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="16"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="17"/>
+      <c r="P94" s="13"/>
+      <c r="Q94" s="13"/>
+      <c r="R94" s="13"/>
+      <c r="S94" s="13"/>
+      <c r="T94" s="13"/>
+      <c r="U94" s="13"/>
+      <c r="W94" s="15"/>
+      <c r="X94" s="16"/>
+      <c r="Y94" s="16"/>
+      <c r="Z94" s="16"/>
+      <c r="AA94" s="16"/>
+      <c r="AB94" s="17"/>
+    </row>
+    <row r="95" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="53" t="s">
         <v>311</v>
       </c>
-      <c r="C94" s="68"/>
-      <c r="D94" s="68"/>
-      <c r="E94" s="69"/>
-      <c r="F94" s="67" t="s">
+      <c r="C95" s="54"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="54"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="55"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="53" t="s">
         <v>312</v>
       </c>
-      <c r="G94" s="68"/>
-      <c r="H94" s="68"/>
-      <c r="I94" s="69"/>
-      <c r="J94" s="67" t="s">
+      <c r="J95" s="54"/>
+      <c r="K95" s="55"/>
+      <c r="L95" s="135" t="s">
         <v>313</v>
       </c>
-      <c r="K94" s="68"/>
-      <c r="L94" s="68"/>
-      <c r="M94" s="68"/>
-      <c r="N94" s="69"/>
-      <c r="O94" s="67" t="s">
+      <c r="M95" s="54"/>
+      <c r="N95" s="55"/>
+      <c r="P95" s="132" t="s">
         <v>314</v>
       </c>
-      <c r="P94" s="68"/>
-      <c r="Q94" s="68"/>
-      <c r="R94" s="69"/>
-      <c r="S94" s="67" t="s">
+      <c r="Q95" s="133"/>
+      <c r="R95" s="134"/>
+      <c r="S95" s="53" t="s">
         <v>315</v>
       </c>
-      <c r="T94" s="68"/>
-      <c r="U94" s="68"/>
-      <c r="V94" s="69"/>
-      <c r="W94" s="67" t="s">
+      <c r="T95" s="54"/>
+      <c r="U95" s="55"/>
+      <c r="V95" s="11"/>
+      <c r="W95" s="53" t="s">
         <v>316</v>
       </c>
-      <c r="X94" s="68"/>
-      <c r="Y94" s="68"/>
-      <c r="Z94" s="68"/>
-      <c r="AA94" s="68"/>
-      <c r="AB94" s="69"/>
-    </row>
-    <row r="96" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B96" s="10" t="s">
+      <c r="X95" s="54"/>
+      <c r="Y95" s="54"/>
+      <c r="Z95" s="54"/>
+      <c r="AA95" s="54"/>
+      <c r="AB95" s="55"/>
+    </row>
+    <row r="97" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B97" s="10" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="97" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="53" t="s">
+    <row r="98" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="56" t="s">
         <v>321</v>
       </c>
-      <c r="C97" s="54"/>
-      <c r="D97" s="54"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="53" t="s">
+      <c r="C98" s="70"/>
+      <c r="D98" s="70"/>
+      <c r="E98" s="57"/>
+      <c r="F98" s="56" t="s">
         <v>323</v>
       </c>
-      <c r="G97" s="54"/>
-      <c r="H97" s="54"/>
-      <c r="I97" s="55"/>
-      <c r="K97" s="67" t="s">
+      <c r="G98" s="70"/>
+      <c r="H98" s="70"/>
+      <c r="I98" s="57"/>
+      <c r="K98" s="53" t="s">
         <v>304</v>
       </c>
-      <c r="L97" s="69"/>
-      <c r="M97" s="67" t="s">
+      <c r="L98" s="55"/>
+      <c r="M98" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="N97" s="69"/>
-      <c r="O97" s="67" t="s">
+      <c r="N98" s="55"/>
+      <c r="O98" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="P97" s="69"/>
-      <c r="Q97" s="11"/>
-      <c r="R97" s="120" t="s">
+      <c r="P98" s="55"/>
+      <c r="Q98" s="11"/>
+      <c r="R98" s="74" t="s">
         <v>325</v>
       </c>
-      <c r="S97" s="54"/>
-      <c r="T97" s="54"/>
-      <c r="U97" s="55"/>
-      <c r="V97" s="47" t="s">
+      <c r="S98" s="70"/>
+      <c r="T98" s="70"/>
+      <c r="U98" s="57"/>
+      <c r="V98" s="120" t="s">
         <v>326</v>
       </c>
-      <c r="W97" s="48"/>
-      <c r="X97" s="48"/>
-      <c r="Y97" s="49"/>
-      <c r="AA97" s="11"/>
-      <c r="AB97" s="11"/>
-      <c r="AC97" s="11"/>
-      <c r="AD97" s="11"/>
-      <c r="AE97" s="11"/>
-      <c r="AF97" s="11"/>
-    </row>
-    <row r="98" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="56"/>
-      <c r="C98" s="57"/>
-      <c r="D98" s="57"/>
-      <c r="E98" s="58"/>
-      <c r="F98" s="56"/>
-      <c r="G98" s="57"/>
-      <c r="H98" s="57"/>
-      <c r="I98" s="58"/>
-      <c r="K98" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="L98" s="69"/>
-      <c r="M98" s="67" t="s">
-        <v>319</v>
-      </c>
-      <c r="N98" s="69"/>
-      <c r="O98" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="P98" s="69"/>
-      <c r="Q98" s="11"/>
-      <c r="R98" s="56"/>
-      <c r="S98" s="57"/>
-      <c r="T98" s="57"/>
-      <c r="U98" s="58"/>
-      <c r="V98" s="50"/>
-      <c r="W98" s="51"/>
-      <c r="X98" s="51"/>
-      <c r="Y98" s="52"/>
+      <c r="W98" s="121"/>
+      <c r="X98" s="121"/>
+      <c r="Y98" s="122"/>
       <c r="AA98" s="11"/>
       <c r="AB98" s="11"/>
       <c r="AC98" s="11"/>
@@ -7074,41 +7092,35 @@
       <c r="AF98" s="11"/>
     </row>
     <row r="99" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="120" t="s">
-        <v>322</v>
-      </c>
-      <c r="C99" s="121"/>
-      <c r="D99" s="121"/>
-      <c r="E99" s="122"/>
-      <c r="F99" s="53" t="s">
-        <v>320</v>
-      </c>
-      <c r="G99" s="54"/>
-      <c r="H99" s="54"/>
-      <c r="I99" s="55"/>
-      <c r="K99" s="67" t="s">
-        <v>309</v>
-      </c>
-      <c r="L99" s="69"/>
-      <c r="M99" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="N99" s="69"/>
-      <c r="O99" s="67" t="s">
-        <v>310</v>
-      </c>
-      <c r="P99" s="69"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="72"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="73"/>
+      <c r="F99" s="71"/>
+      <c r="G99" s="72"/>
+      <c r="H99" s="72"/>
+      <c r="I99" s="73"/>
+      <c r="K99" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="L99" s="55"/>
+      <c r="M99" s="53" t="s">
+        <v>319</v>
+      </c>
+      <c r="N99" s="55"/>
+      <c r="O99" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="P99" s="55"/>
       <c r="Q99" s="11"/>
-      <c r="R99" s="53" t="s">
-        <v>303</v>
-      </c>
-      <c r="S99" s="54"/>
-      <c r="T99" s="54"/>
-      <c r="U99" s="54"/>
-      <c r="V99" s="54"/>
-      <c r="W99" s="54"/>
-      <c r="X99" s="54"/>
-      <c r="Y99" s="55"/>
+      <c r="R99" s="71"/>
+      <c r="S99" s="72"/>
+      <c r="T99" s="72"/>
+      <c r="U99" s="73"/>
+      <c r="V99" s="123"/>
+      <c r="W99" s="124"/>
+      <c r="X99" s="124"/>
+      <c r="Y99" s="125"/>
       <c r="AA99" s="11"/>
       <c r="AB99" s="11"/>
       <c r="AC99" s="11"/>
@@ -7117,31 +7129,41 @@
       <c r="AF99" s="11"/>
     </row>
     <row r="100" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="123"/>
-      <c r="C100" s="124"/>
-      <c r="D100" s="124"/>
-      <c r="E100" s="125"/>
-      <c r="F100" s="56"/>
-      <c r="G100" s="57"/>
-      <c r="H100" s="57"/>
-      <c r="I100" s="58"/>
-      <c r="K100" s="67" t="s">
-        <v>324</v>
-      </c>
-      <c r="L100" s="68"/>
-      <c r="M100" s="68"/>
-      <c r="N100" s="68"/>
-      <c r="O100" s="68"/>
-      <c r="P100" s="69"/>
+      <c r="B100" s="74" t="s">
+        <v>322</v>
+      </c>
+      <c r="C100" s="75"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="76"/>
+      <c r="F100" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="G100" s="70"/>
+      <c r="H100" s="70"/>
+      <c r="I100" s="57"/>
+      <c r="K100" s="53" t="s">
+        <v>309</v>
+      </c>
+      <c r="L100" s="55"/>
+      <c r="M100" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N100" s="55"/>
+      <c r="O100" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="P100" s="55"/>
       <c r="Q100" s="11"/>
-      <c r="R100" s="56"/>
-      <c r="S100" s="57"/>
-      <c r="T100" s="57"/>
-      <c r="U100" s="57"/>
-      <c r="V100" s="57"/>
-      <c r="W100" s="57"/>
-      <c r="X100" s="57"/>
-      <c r="Y100" s="58"/>
+      <c r="R100" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="S100" s="70"/>
+      <c r="T100" s="70"/>
+      <c r="U100" s="70"/>
+      <c r="V100" s="70"/>
+      <c r="W100" s="70"/>
+      <c r="X100" s="70"/>
+      <c r="Y100" s="57"/>
       <c r="AA100" s="11"/>
       <c r="AB100" s="11"/>
       <c r="AC100" s="11"/>
@@ -7149,185 +7171,682 @@
       <c r="AE100" s="11"/>
       <c r="AF100" s="11"/>
     </row>
-    <row r="102" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B102" s="9"/>
-    </row>
-    <row r="104" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B104" s="9"/>
-    </row>
-    <row r="106" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B106" s="9"/>
-    </row>
-    <row r="108" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B108" s="9"/>
-    </row>
-    <row r="110" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B110" s="9"/>
-    </row>
-    <row r="112" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B112" s="9"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B114" s="9"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B116" s="9"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B118" s="9"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B120" s="9"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B122" s="9"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B124" s="9"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B126" s="9"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B128" s="9"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B130" s="9"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B132" s="9"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B134" s="9"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B136" s="9"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B138" s="9"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B140" s="9"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B142" s="9"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B144" s="9"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B146" s="9"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B148" s="9"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B150" s="9"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B152" s="9"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B154" s="9"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B156" s="9"/>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B158" s="9"/>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B160" s="9"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B162" s="9"/>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B164" s="9"/>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B166" s="9"/>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B168" s="9"/>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B170" s="9"/>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B172" s="9"/>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B174" s="9"/>
+    <row r="101" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="77"/>
+      <c r="C101" s="78"/>
+      <c r="D101" s="78"/>
+      <c r="E101" s="79"/>
+      <c r="F101" s="71"/>
+      <c r="G101" s="72"/>
+      <c r="H101" s="72"/>
+      <c r="I101" s="73"/>
+      <c r="K101" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="L101" s="54"/>
+      <c r="M101" s="54"/>
+      <c r="N101" s="54"/>
+      <c r="O101" s="54"/>
+      <c r="P101" s="55"/>
+      <c r="Q101" s="11"/>
+      <c r="R101" s="71"/>
+      <c r="S101" s="72"/>
+      <c r="T101" s="72"/>
+      <c r="U101" s="72"/>
+      <c r="V101" s="72"/>
+      <c r="W101" s="72"/>
+      <c r="X101" s="72"/>
+      <c r="Y101" s="73"/>
+      <c r="AA101" s="11"/>
+      <c r="AB101" s="11"/>
+      <c r="AC101" s="11"/>
+      <c r="AD101" s="11"/>
+      <c r="AE101" s="11"/>
+      <c r="AF101" s="11"/>
+    </row>
+    <row r="103" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B103" s="9"/>
+    </row>
+    <row r="105" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B105" s="9"/>
+    </row>
+    <row r="107" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B107" s="9"/>
+    </row>
+    <row r="109" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B109" s="9"/>
+    </row>
+    <row r="111" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B111" s="9"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="9"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="9"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="9"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="9"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="9"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="9"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="9"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="9"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" s="9"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="9"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="9"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="9"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" s="9"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" s="9"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" s="9"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" s="9"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="9"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="9"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" s="9"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" s="9"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" s="9"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" s="9"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" s="9"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" s="9"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" s="9"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" s="9"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" s="9"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167" s="9"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B169" s="9"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171" s="9"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B173" s="9"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B175" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="618">
-    <mergeCell ref="O94:R94"/>
-    <mergeCell ref="S94:V94"/>
-    <mergeCell ref="W94:AB94"/>
-    <mergeCell ref="R93:S93"/>
-    <mergeCell ref="W91:X91"/>
-    <mergeCell ref="Y91:Z91"/>
-    <mergeCell ref="AA91:AB91"/>
-    <mergeCell ref="W92:X92"/>
-    <mergeCell ref="Y92:Z92"/>
-    <mergeCell ref="AA92:AB92"/>
-    <mergeCell ref="W93:X93"/>
-    <mergeCell ref="Y93:Z93"/>
-    <mergeCell ref="AA93:AB93"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="K100:P100"/>
-    <mergeCell ref="B97:E98"/>
-    <mergeCell ref="B99:E100"/>
-    <mergeCell ref="F97:I98"/>
-    <mergeCell ref="F99:I100"/>
-    <mergeCell ref="R97:U98"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="O99:P99"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="O98:P98"/>
-    <mergeCell ref="K97:L97"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="O97:P97"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="L82:M82"/>
+  <mergeCells count="617">
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="I95:K95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="S95:U95"/>
+    <mergeCell ref="V98:Y99"/>
+    <mergeCell ref="R100:Y101"/>
+    <mergeCell ref="P37:AC38"/>
+    <mergeCell ref="W35:AC36"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="R92:S92"/>
+    <mergeCell ref="T92:U92"/>
+    <mergeCell ref="T93:U93"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="R91:S91"/>
+    <mergeCell ref="T91:U91"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="B35:H36"/>
+    <mergeCell ref="I35:O36"/>
+    <mergeCell ref="P35:V36"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="U81:V81"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="R70:U70"/>
+    <mergeCell ref="V70:W70"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="R78:U78"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="B37:H38"/>
+    <mergeCell ref="I37:O38"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:S74"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="V73:W73"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="R62:U62"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:S58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="R54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="R32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:S28"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="V87:W87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:S88"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="V88:W88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="P87:R87"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:S20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J14:K14"/>
     <mergeCell ref="V21:W21"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="L21:M21"/>
@@ -7352,534 +7871,69 @@
     <mergeCell ref="V15:W15"/>
     <mergeCell ref="J16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:S20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="S87:U87"/>
-    <mergeCell ref="V87:W87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:S88"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="V88:W88"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="P87:R87"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:S28"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="R32:U32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:S42"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="R54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:S58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="R62:U62"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="V73:W73"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="V74:W74"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:S74"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:S66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="B37:H38"/>
-    <mergeCell ref="I37:O38"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="B35:H36"/>
-    <mergeCell ref="I35:O36"/>
-    <mergeCell ref="P35:V36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="F94:I94"/>
-    <mergeCell ref="S81:T81"/>
-    <mergeCell ref="U81:V81"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="R70:U70"/>
-    <mergeCell ref="V70:W70"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="R78:U78"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="V75:W75"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="V76:W76"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="V68:W68"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="V97:Y98"/>
-    <mergeCell ref="R99:Y100"/>
-    <mergeCell ref="P37:AC38"/>
-    <mergeCell ref="W35:AC36"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="R92:S92"/>
-    <mergeCell ref="T92:U92"/>
-    <mergeCell ref="T93:U93"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="R91:S91"/>
-    <mergeCell ref="T91:U91"/>
-    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="K101:P101"/>
+    <mergeCell ref="B98:E99"/>
+    <mergeCell ref="B100:E101"/>
+    <mergeCell ref="F98:I99"/>
+    <mergeCell ref="F100:I101"/>
+    <mergeCell ref="R98:U99"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="O100:P100"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="O99:P99"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="O98:P98"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="W95:AB95"/>
+    <mergeCell ref="R93:S93"/>
+    <mergeCell ref="W91:X91"/>
+    <mergeCell ref="Y91:Z91"/>
+    <mergeCell ref="AA91:AB91"/>
+    <mergeCell ref="W92:X92"/>
+    <mergeCell ref="Y92:Z92"/>
+    <mergeCell ref="AA92:AB92"/>
+    <mergeCell ref="W93:X93"/>
+    <mergeCell ref="Y93:Z93"/>
+    <mergeCell ref="AA93:AB93"/>
+    <mergeCell ref="P93:Q93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/docs/Keyboard Designs.xlsx
+++ b/docs/Keyboard Designs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="329">
   <si>
     <t>A</t>
   </si>
@@ -971,9 +971,6 @@
     <t>Back</t>
   </si>
   <si>
-    <t>WINDOW MANIPULATION:</t>
-  </si>
-  <si>
     <t>MOUSE CONTROL:</t>
   </si>
   <si>
@@ -1003,6 +1000,12 @@
   </si>
   <si>
     <t>MOUSE</t>
+  </si>
+  <si>
+    <t>POSITION:</t>
+  </si>
+  <si>
+    <t>SIZE &amp; OPACITY:</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1101,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1446,11 +1449,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1492,13 +1513,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1540,93 +1648,195 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1657,18 +1867,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1687,174 +1885,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2176,38 +2246,38 @@
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="24" t="s">
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="24" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="24" t="s">
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="18" t="s">
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="V3" s="19"/>
+      <c r="V3" s="48"/>
       <c r="Z3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
@@ -2225,36 +2295,36 @@
     </row>
     <row r="4" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="27" t="s">
+      <c r="F4" s="48"/>
+      <c r="G4" s="56" t="s">
         <v>302</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="20" t="s">
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="T4" s="21"/>
-      <c r="U4" s="22" t="s">
+      <c r="T4" s="50"/>
+      <c r="U4" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="V4" s="23"/>
+      <c r="V4" s="52"/>
       <c r="Z4" s="4"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
@@ -2271,46 +2341,46 @@
       <c r="AQ4" s="7"/>
     </row>
     <row r="5" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="48" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="48" t="s">
+      <c r="F5" s="30"/>
+      <c r="G5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="48" t="s">
+      <c r="H5" s="30"/>
+      <c r="I5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="48" t="s">
+      <c r="J5" s="30"/>
+      <c r="K5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="49"/>
-      <c r="M5" s="48" t="s">
+      <c r="L5" s="30"/>
+      <c r="M5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="49"/>
-      <c r="O5" s="48" t="s">
+      <c r="N5" s="30"/>
+      <c r="O5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="48" t="s">
+      <c r="P5" s="30"/>
+      <c r="Q5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="49"/>
-      <c r="S5" s="48" t="s">
+      <c r="R5" s="30"/>
+      <c r="S5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="49"/>
-      <c r="U5" s="39" t="s">
+      <c r="T5" s="30"/>
+      <c r="U5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="51"/>
+      <c r="V5" s="26"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Z5" s="7"/>
@@ -2333,46 +2403,46 @@
     </row>
     <row r="6" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="52" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="39" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="39" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="39" t="s">
+      <c r="I6" s="28"/>
+      <c r="J6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="39" t="s">
+      <c r="K6" s="28"/>
+      <c r="L6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="41"/>
-      <c r="N6" s="39" t="s">
+      <c r="M6" s="28"/>
+      <c r="N6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="41"/>
-      <c r="P6" s="39" t="s">
+      <c r="O6" s="28"/>
+      <c r="P6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="39" t="s">
+      <c r="Q6" s="28"/>
+      <c r="R6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="41"/>
-      <c r="T6" s="39" t="s">
+      <c r="S6" s="28"/>
+      <c r="T6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="41"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
       <c r="X6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
@@ -2392,46 +2462,46 @@
     </row>
     <row r="7" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32" t="s">
+      <c r="E7" s="31"/>
+      <c r="F7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32" t="s">
+      <c r="G7" s="31"/>
+      <c r="H7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32" t="s">
+      <c r="I7" s="31"/>
+      <c r="J7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32" t="s">
+      <c r="K7" s="31"/>
+      <c r="L7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32" t="s">
+      <c r="M7" s="31"/>
+      <c r="N7" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32" t="s">
+      <c r="O7" s="31"/>
+      <c r="P7" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="50" t="s">
+      <c r="Q7" s="31"/>
+      <c r="R7" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="S7" s="50"/>
-      <c r="T7" s="33" t="s">
+      <c r="S7" s="32"/>
+      <c r="T7" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="34"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
       <c r="X7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -2449,38 +2519,38 @@
     </row>
     <row r="8" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="39" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="45" t="s">
+      <c r="G8" s="28"/>
+      <c r="H8" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="45" t="s">
+      <c r="I8" s="45"/>
+      <c r="J8" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="45" t="s">
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="46"/>
-      <c r="P8" s="35" t="s">
+      <c r="O8" s="45"/>
+      <c r="P8" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="33" t="s">
+      <c r="Q8" s="37"/>
+      <c r="R8" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="34"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="35"/>
       <c r="X8" s="7"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
@@ -2530,29 +2600,17 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="G4:R4"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="T7:U7"/>
@@ -2569,17 +2627,29 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="G4:R4"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="T6:U6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2588,10 +2658,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AW175"/>
+  <dimension ref="A2:AW182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="AI92" sqref="AI92"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="Z99" sqref="Z99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2607,50 +2677,50 @@
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="24" t="s">
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="24" t="s">
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="24" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="25"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="24" t="s">
+      <c r="N3" s="54"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="24" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="T3" s="25"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="18" t="s">
+      <c r="T3" s="54"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="W3" s="19"/>
-      <c r="Z3" s="67" t="s">
+      <c r="W3" s="48"/>
+      <c r="Z3" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="69"/>
+      <c r="AA3" s="131"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="132"/>
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
@@ -2667,44 +2737,44 @@
     </row>
     <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="102" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="103"/>
-      <c r="F4" s="27" t="s">
+      <c r="E4" s="93"/>
+      <c r="F4" s="56" t="s">
         <v>302</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="89" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="U4" s="90"/>
-      <c r="V4" s="91" t="s">
+      <c r="U4" s="96"/>
+      <c r="V4" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="W4" s="92"/>
-      <c r="Z4" s="58" t="s">
+      <c r="W4" s="98"/>
+      <c r="Z4" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="60"/>
+      <c r="AA4" s="121"/>
+      <c r="AB4" s="121"/>
+      <c r="AC4" s="123"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
@@ -2720,54 +2790,54 @@
       <c r="AT4" s="5"/>
     </row>
     <row r="5" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="48" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="48" t="s">
+      <c r="F5" s="30"/>
+      <c r="G5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="48" t="s">
+      <c r="H5" s="30"/>
+      <c r="I5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="48" t="s">
+      <c r="J5" s="30"/>
+      <c r="K5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="49"/>
-      <c r="M5" s="48" t="s">
+      <c r="L5" s="30"/>
+      <c r="M5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="49"/>
-      <c r="O5" s="48" t="s">
+      <c r="N5" s="30"/>
+      <c r="O5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="48" t="s">
+      <c r="P5" s="30"/>
+      <c r="Q5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="49"/>
-      <c r="S5" s="48" t="s">
+      <c r="R5" s="30"/>
+      <c r="S5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="49"/>
-      <c r="U5" s="48" t="s">
+      <c r="T5" s="30"/>
+      <c r="U5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="49"/>
+      <c r="V5" s="30"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
-      <c r="Z5" s="61" t="s">
+      <c r="Z5" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="62"/>
-      <c r="AC5" s="63"/>
+      <c r="AA5" s="125"/>
+      <c r="AB5" s="125"/>
+      <c r="AC5" s="126"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
@@ -2787,56 +2857,56 @@
     </row>
     <row r="6" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="32" t="s">
+      <c r="C6" s="101"/>
+      <c r="D6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32" t="s">
+      <c r="G6" s="31"/>
+      <c r="H6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32" t="s">
+      <c r="I6" s="31"/>
+      <c r="J6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32" t="s">
+      <c r="K6" s="31"/>
+      <c r="L6" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32" t="s">
+      <c r="M6" s="31"/>
+      <c r="N6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32" t="s">
+      <c r="O6" s="31"/>
+      <c r="P6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32" t="s">
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32" t="s">
+      <c r="S6" s="31"/>
+      <c r="T6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="32"/>
-      <c r="V6" s="45" t="s">
+      <c r="U6" s="31"/>
+      <c r="V6" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="W6" s="46"/>
-      <c r="Z6" s="64" t="s">
+      <c r="W6" s="45"/>
+      <c r="Z6" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="66"/>
+      <c r="AA6" s="128"/>
+      <c r="AB6" s="128"/>
+      <c r="AC6" s="129"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
@@ -2856,50 +2926,50 @@
     </row>
     <row r="7" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32" t="s">
+      <c r="C7" s="31"/>
+      <c r="D7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32" t="s">
+      <c r="E7" s="31"/>
+      <c r="F7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32" t="s">
+      <c r="G7" s="31"/>
+      <c r="H7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32" t="s">
+      <c r="I7" s="31"/>
+      <c r="J7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32" t="s">
+      <c r="K7" s="31"/>
+      <c r="L7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32" t="s">
+      <c r="M7" s="31"/>
+      <c r="N7" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32" t="s">
+      <c r="O7" s="31"/>
+      <c r="P7" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="50" t="s">
+      <c r="Q7" s="31"/>
+      <c r="R7" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="S7" s="50"/>
-      <c r="T7" s="33" t="s">
+      <c r="S7" s="32"/>
+      <c r="T7" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="34"/>
-      <c r="V7" s="33" t="s">
+      <c r="U7" s="35"/>
+      <c r="V7" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="W7" s="34"/>
+      <c r="W7" s="35"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="8"/>
       <c r="AH7" s="5"/>
@@ -2918,46 +2988,46 @@
     </row>
     <row r="8" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105" t="s">
+      <c r="C8" s="83"/>
+      <c r="D8" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105" t="s">
+      <c r="E8" s="83"/>
+      <c r="F8" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="105"/>
-      <c r="H8" s="45" t="s">
+      <c r="G8" s="83"/>
+      <c r="H8" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="45" t="s">
+      <c r="I8" s="45"/>
+      <c r="J8" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="45" t="s">
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="46"/>
-      <c r="P8" s="35" t="s">
+      <c r="O8" s="45"/>
+      <c r="P8" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="33" t="s">
+      <c r="Q8" s="37"/>
+      <c r="R8" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="33" t="s">
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="W8" s="34"/>
+      <c r="W8" s="35"/>
       <c r="X8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="8"/>
@@ -3017,44 +3087,44 @@
     </row>
     <row r="11" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="48"/>
+      <c r="D11" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="24" t="s">
+      <c r="E11" s="54"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="24" t="s">
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="24" t="s">
+      <c r="K11" s="54"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="24" t="s">
+      <c r="N11" s="54"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="24" t="s">
+      <c r="Q11" s="54"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="T11" s="25"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="18" t="s">
+      <c r="T11" s="54"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="W11" s="19"/>
+      <c r="W11" s="48"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="8"/>
       <c r="AH11" s="5"/>
@@ -3075,38 +3145,38 @@
     </row>
     <row r="12" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="102" t="s">
+      <c r="C12" s="86"/>
+      <c r="D12" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="103"/>
-      <c r="F12" s="27" t="s">
+      <c r="E12" s="93"/>
+      <c r="F12" s="56" t="s">
         <v>302</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="104"/>
-      <c r="T12" s="89" t="s">
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="U12" s="90"/>
-      <c r="V12" s="91" t="s">
+      <c r="U12" s="96"/>
+      <c r="V12" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="W12" s="92"/>
+      <c r="W12" s="98"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="8"/>
       <c r="AH12" s="5"/>
@@ -3126,50 +3196,50 @@
       <c r="AV12" s="5"/>
     </row>
     <row r="13" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="96">
+      <c r="B13" s="114">
         <v>1</v>
       </c>
-      <c r="C13" s="97"/>
-      <c r="D13" s="96">
+      <c r="C13" s="115"/>
+      <c r="D13" s="114">
         <v>2</v>
       </c>
-      <c r="E13" s="97"/>
-      <c r="F13" s="48">
+      <c r="E13" s="115"/>
+      <c r="F13" s="29">
         <v>3</v>
       </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="98">
+      <c r="G13" s="30"/>
+      <c r="H13" s="116">
         <v>4</v>
       </c>
-      <c r="I13" s="99"/>
-      <c r="J13" s="48">
+      <c r="I13" s="117"/>
+      <c r="J13" s="29">
         <v>5</v>
       </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="48">
+      <c r="K13" s="30"/>
+      <c r="L13" s="29">
         <v>6</v>
       </c>
-      <c r="M13" s="49"/>
-      <c r="N13" s="48">
+      <c r="M13" s="30"/>
+      <c r="N13" s="29">
         <v>7</v>
       </c>
-      <c r="O13" s="49"/>
-      <c r="P13" s="48">
+      <c r="O13" s="30"/>
+      <c r="P13" s="29">
         <v>8</v>
       </c>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="48">
+      <c r="Q13" s="30"/>
+      <c r="R13" s="29">
         <v>9</v>
       </c>
-      <c r="S13" s="49"/>
-      <c r="T13" s="48">
+      <c r="S13" s="30"/>
+      <c r="T13" s="29">
         <v>0</v>
       </c>
-      <c r="U13" s="49"/>
-      <c r="V13" s="32" t="s">
+      <c r="U13" s="30"/>
+      <c r="V13" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="W13" s="32"/>
+      <c r="W13" s="31"/>
       <c r="X13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="8"/>
@@ -3192,19 +3262,19 @@
     </row>
     <row r="14" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="112" t="s">
+      <c r="B14" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="113"/>
-      <c r="D14" s="112" t="s">
+      <c r="C14" s="106"/>
+      <c r="D14" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="113"/>
+      <c r="E14" s="106"/>
       <c r="F14" s="107" t="s">
         <v>81</v>
       </c>
       <c r="G14" s="107"/>
-      <c r="H14" s="114" t="s">
+      <c r="H14" s="108" t="s">
         <v>56</v>
       </c>
       <c r="I14" s="107"/>
@@ -3216,26 +3286,26 @@
         <v>80</v>
       </c>
       <c r="M14" s="107"/>
-      <c r="N14" s="109" t="s">
+      <c r="N14" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="O14" s="110"/>
-      <c r="P14" s="109" t="s">
+      <c r="O14" s="103"/>
+      <c r="P14" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="109" t="s">
+      <c r="Q14" s="103"/>
+      <c r="R14" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="S14" s="110"/>
-      <c r="T14" s="109" t="s">
+      <c r="S14" s="103"/>
+      <c r="T14" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="U14" s="110"/>
-      <c r="V14" s="111" t="s">
+      <c r="U14" s="103"/>
+      <c r="V14" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="W14" s="111"/>
+      <c r="W14" s="104"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AH14" s="5"/>
@@ -3257,50 +3327,50 @@
     </row>
     <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32" t="s">
+      <c r="C15" s="31"/>
+      <c r="D15" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32" t="s">
+      <c r="E15" s="31"/>
+      <c r="F15" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32" t="s">
+      <c r="G15" s="31"/>
+      <c r="H15" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="95" t="s">
+      <c r="I15" s="31"/>
+      <c r="J15" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="32"/>
-      <c r="L15" s="95" t="s">
+      <c r="K15" s="31"/>
+      <c r="L15" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="32"/>
-      <c r="N15" s="95" t="s">
+      <c r="M15" s="31"/>
+      <c r="N15" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32" t="s">
+      <c r="O15" s="31"/>
+      <c r="P15" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="50" t="s">
+      <c r="Q15" s="31"/>
+      <c r="R15" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50" t="s">
+      <c r="S15" s="32"/>
+      <c r="T15" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50" t="s">
+      <c r="U15" s="32"/>
+      <c r="V15" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="W15" s="50"/>
+      <c r="W15" s="32"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
@@ -3327,46 +3397,46 @@
     </row>
     <row r="16" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105" t="s">
+      <c r="C16" s="83"/>
+      <c r="D16" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105" t="s">
+      <c r="E16" s="83"/>
+      <c r="F16" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="105"/>
-      <c r="H16" s="106" t="s">
+      <c r="G16" s="83"/>
+      <c r="H16" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="106"/>
-      <c r="J16" s="45" t="s">
+      <c r="I16" s="88"/>
+      <c r="J16" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="45" t="s">
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="46"/>
-      <c r="P16" s="93" t="s">
+      <c r="O16" s="45"/>
+      <c r="P16" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="33" t="s">
+      <c r="Q16" s="118"/>
+      <c r="R16" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="33" t="s">
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="W16" s="34"/>
+      <c r="W16" s="35"/>
       <c r="X16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="8"/>
@@ -3433,44 +3503,44 @@
     </row>
     <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="24" t="s">
+      <c r="C19" s="48"/>
+      <c r="D19" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="24" t="s">
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="24" t="s">
+      <c r="H19" s="54"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="24" t="s">
+      <c r="K19" s="54"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="N19" s="25"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="24" t="s">
+      <c r="N19" s="54"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="24" t="s">
+      <c r="Q19" s="54"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="T19" s="25"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="18" t="s">
+      <c r="T19" s="54"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="W19" s="19"/>
+      <c r="W19" s="48"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="8"/>
@@ -3498,38 +3568,38 @@
     </row>
     <row r="20" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="102" t="s">
+      <c r="C20" s="86"/>
+      <c r="D20" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="103"/>
-      <c r="F20" s="27" t="s">
+      <c r="E20" s="93"/>
+      <c r="F20" s="56" t="s">
         <v>302</v>
       </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="104"/>
-      <c r="T20" s="89" t="s">
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="U20" s="90"/>
-      <c r="V20" s="91" t="s">
+      <c r="U20" s="96"/>
+      <c r="V20" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="W20" s="92"/>
+      <c r="W20" s="98"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="8"/>
@@ -3556,50 +3626,50 @@
       <c r="AV20" s="5"/>
     </row>
     <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="39" t="s">
+      <c r="C21" s="28"/>
+      <c r="D21" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="39" t="s">
+      <c r="E21" s="28"/>
+      <c r="F21" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="87" t="s">
+      <c r="G21" s="28"/>
+      <c r="H21" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="88"/>
-      <c r="J21" s="39" t="s">
+      <c r="I21" s="100"/>
+      <c r="J21" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K21" s="41"/>
-      <c r="L21" s="87" t="s">
+      <c r="K21" s="28"/>
+      <c r="L21" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="M21" s="88"/>
-      <c r="N21" s="39" t="s">
+      <c r="M21" s="100"/>
+      <c r="N21" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="O21" s="41"/>
-      <c r="P21" s="39" t="s">
+      <c r="O21" s="28"/>
+      <c r="P21" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="39" t="s">
+      <c r="Q21" s="28"/>
+      <c r="R21" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="S21" s="41"/>
-      <c r="T21" s="39" t="s">
+      <c r="S21" s="28"/>
+      <c r="T21" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="U21" s="41"/>
-      <c r="V21" s="32" t="s">
+      <c r="U21" s="28"/>
+      <c r="V21" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="W21" s="32"/>
+      <c r="W21" s="31"/>
       <c r="X21" s="5"/>
       <c r="AT21" s="5"/>
       <c r="AU21" s="5"/>
@@ -3608,50 +3678,50 @@
     </row>
     <row r="22" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32" t="s">
+      <c r="C22" s="31"/>
+      <c r="D22" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32" t="s">
+      <c r="E22" s="31"/>
+      <c r="F22" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32" t="s">
+      <c r="G22" s="31"/>
+      <c r="H22" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32" t="s">
+      <c r="I22" s="31"/>
+      <c r="J22" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32" t="s">
+      <c r="K22" s="31"/>
+      <c r="L22" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="M22" s="32"/>
-      <c r="N22" s="108" t="s">
+      <c r="M22" s="31"/>
+      <c r="N22" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="O22" s="108"/>
-      <c r="P22" s="32" t="s">
+      <c r="O22" s="89"/>
+      <c r="P22" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32" t="s">
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32" t="s">
+      <c r="S22" s="31"/>
+      <c r="T22" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="U22" s="32"/>
-      <c r="V22" s="106" t="s">
+      <c r="U22" s="31"/>
+      <c r="V22" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="W22" s="106"/>
+      <c r="W22" s="88"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
@@ -3672,50 +3742,50 @@
     </row>
     <row r="23" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32" t="s">
+      <c r="C23" s="31"/>
+      <c r="D23" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="39" t="s">
+      <c r="E23" s="31"/>
+      <c r="F23" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="39" t="s">
+      <c r="G23" s="28"/>
+      <c r="H23" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="I23" s="41"/>
-      <c r="J23" s="32" t="s">
+      <c r="I23" s="28"/>
+      <c r="J23" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32" t="s">
+      <c r="K23" s="31"/>
+      <c r="L23" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32" t="s">
+      <c r="M23" s="31"/>
+      <c r="N23" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32" t="s">
+      <c r="O23" s="31"/>
+      <c r="P23" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="50" t="s">
+      <c r="Q23" s="31"/>
+      <c r="R23" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50" t="s">
+      <c r="S23" s="32"/>
+      <c r="T23" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50" t="s">
+      <c r="U23" s="32"/>
+      <c r="V23" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="W23" s="50"/>
+      <c r="W23" s="32"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="8"/>
@@ -3739,46 +3809,46 @@
     </row>
     <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105" t="s">
+      <c r="C24" s="83"/>
+      <c r="D24" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105" t="s">
+      <c r="E24" s="83"/>
+      <c r="F24" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="105"/>
-      <c r="H24" s="108" t="s">
+      <c r="G24" s="83"/>
+      <c r="H24" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="I24" s="108"/>
-      <c r="J24" s="45" t="s">
+      <c r="I24" s="89"/>
+      <c r="J24" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="108" t="s">
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="89" t="s">
         <v>133</v>
       </c>
-      <c r="O24" s="108"/>
-      <c r="P24" s="32" t="s">
+      <c r="O24" s="89"/>
+      <c r="P24" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="33" t="s">
+      <c r="Q24" s="31"/>
+      <c r="R24" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="33" t="s">
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="W24" s="34"/>
+      <c r="W24" s="35"/>
       <c r="X24" s="5"/>
       <c r="AE24" s="8"/>
       <c r="AF24" s="8"/>
@@ -3842,44 +3912,44 @@
     </row>
     <row r="27" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="24" t="s">
+      <c r="C27" s="48"/>
+      <c r="D27" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="24" t="s">
+      <c r="E27" s="54"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="24" t="s">
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="K27" s="25"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="24" t="s">
+      <c r="K27" s="54"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="N27" s="25"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="24" t="s">
+      <c r="N27" s="54"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="24" t="s">
+      <c r="Q27" s="54"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="T27" s="25"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="18" t="s">
+      <c r="T27" s="54"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="W27" s="19"/>
+      <c r="W27" s="48"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="8"/>
@@ -3907,38 +3977,38 @@
     </row>
     <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
-      <c r="B28" s="100" t="s">
+      <c r="B28" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="C28" s="101"/>
-      <c r="D28" s="102" t="s">
+      <c r="C28" s="86"/>
+      <c r="D28" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="103"/>
-      <c r="F28" s="27" t="s">
+      <c r="E28" s="93"/>
+      <c r="F28" s="56" t="s">
         <v>302</v>
       </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="104"/>
-      <c r="T28" s="89" t="s">
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="U28" s="90"/>
-      <c r="V28" s="91" t="s">
+      <c r="U28" s="96"/>
+      <c r="V28" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="W28" s="92"/>
+      <c r="W28" s="98"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="8"/>
@@ -3965,50 +4035,50 @@
       <c r="AV28" s="6"/>
     </row>
     <row r="29" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="48" t="s">
+      <c r="C29" s="30"/>
+      <c r="D29" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="E29" s="49"/>
-      <c r="F29" s="48" t="s">
+      <c r="E29" s="30"/>
+      <c r="F29" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="G29" s="49"/>
-      <c r="H29" s="116" t="s">
+      <c r="G29" s="30"/>
+      <c r="H29" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="I29" s="117"/>
-      <c r="J29" s="48" t="s">
+      <c r="I29" s="91"/>
+      <c r="J29" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="K29" s="49"/>
-      <c r="L29" s="116" t="s">
+      <c r="K29" s="30"/>
+      <c r="L29" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="M29" s="117"/>
-      <c r="N29" s="48" t="s">
+      <c r="M29" s="91"/>
+      <c r="N29" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="O29" s="49"/>
-      <c r="P29" s="48" t="s">
+      <c r="O29" s="30"/>
+      <c r="P29" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="48" t="s">
+      <c r="Q29" s="30"/>
+      <c r="R29" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="S29" s="49"/>
-      <c r="T29" s="48" t="s">
+      <c r="S29" s="30"/>
+      <c r="T29" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="U29" s="49"/>
-      <c r="V29" s="48" t="s">
+      <c r="U29" s="30"/>
+      <c r="V29" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="W29" s="49"/>
+      <c r="W29" s="30"/>
       <c r="X29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
@@ -4017,50 +4087,50 @@
     </row>
     <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="39" t="s">
+      <c r="C30" s="28"/>
+      <c r="D30" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="39" t="s">
+      <c r="E30" s="28"/>
+      <c r="F30" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="G30" s="41"/>
-      <c r="H30" s="87" t="s">
+      <c r="G30" s="28"/>
+      <c r="H30" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="I30" s="88"/>
-      <c r="J30" s="39" t="s">
+      <c r="I30" s="100"/>
+      <c r="J30" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="K30" s="41"/>
-      <c r="L30" s="87" t="s">
+      <c r="K30" s="28"/>
+      <c r="L30" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="M30" s="88"/>
-      <c r="N30" s="39" t="s">
+      <c r="M30" s="100"/>
+      <c r="N30" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="O30" s="41"/>
-      <c r="P30" s="39" t="s">
+      <c r="O30" s="28"/>
+      <c r="P30" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="32" t="s">
+      <c r="Q30" s="28"/>
+      <c r="R30" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32" t="s">
+      <c r="S30" s="31"/>
+      <c r="T30" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="U30" s="32"/>
-      <c r="V30" s="106" t="s">
+      <c r="U30" s="31"/>
+      <c r="V30" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="W30" s="106"/>
+      <c r="W30" s="88"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -4081,50 +4151,50 @@
     </row>
     <row r="31" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32" t="s">
+      <c r="C31" s="31"/>
+      <c r="D31" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32" t="s">
+      <c r="E31" s="31"/>
+      <c r="F31" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32" t="s">
+      <c r="G31" s="31"/>
+      <c r="H31" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32" t="s">
+      <c r="I31" s="31"/>
+      <c r="J31" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="K31" s="32"/>
-      <c r="L31" s="39" t="s">
+      <c r="K31" s="31"/>
+      <c r="L31" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="M31" s="41"/>
-      <c r="N31" s="39" t="s">
+      <c r="M31" s="28"/>
+      <c r="N31" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="O31" s="41"/>
-      <c r="P31" s="39" t="s">
+      <c r="O31" s="28"/>
+      <c r="P31" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="50" t="s">
+      <c r="Q31" s="28"/>
+      <c r="R31" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50" t="s">
+      <c r="S31" s="32"/>
+      <c r="T31" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50" t="s">
+      <c r="U31" s="32"/>
+      <c r="V31" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="W31" s="50"/>
+      <c r="W31" s="32"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="8"/>
@@ -4152,46 +4222,46 @@
     </row>
     <row r="32" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="105" t="s">
+      <c r="B32" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105" t="s">
+      <c r="C32" s="83"/>
+      <c r="D32" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105" t="s">
+      <c r="E32" s="83"/>
+      <c r="F32" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="105"/>
-      <c r="H32" s="108" t="s">
+      <c r="G32" s="83"/>
+      <c r="H32" s="89" t="s">
         <v>170</v>
       </c>
-      <c r="I32" s="108"/>
-      <c r="J32" s="45" t="s">
+      <c r="I32" s="89"/>
+      <c r="J32" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="108" t="s">
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="O32" s="108"/>
-      <c r="P32" s="108" t="s">
+      <c r="O32" s="89"/>
+      <c r="P32" s="89" t="s">
         <v>169</v>
       </c>
-      <c r="Q32" s="108"/>
-      <c r="R32" s="33" t="s">
+      <c r="Q32" s="89"/>
+      <c r="R32" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="33" t="s">
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="W32" s="34"/>
+      <c r="W32" s="35"/>
       <c r="X32" s="6"/>
       <c r="AE32" s="8"/>
       <c r="AF32" s="8"/>
@@ -4255,42 +4325,42 @@
     </row>
     <row r="35" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="93" t="s">
+      <c r="B35" s="81" t="s">
         <v>297</v>
       </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="93" t="s">
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="81" t="s">
         <v>298</v>
       </c>
-      <c r="J35" s="118"/>
-      <c r="K35" s="118"/>
-      <c r="L35" s="118"/>
-      <c r="M35" s="118"/>
-      <c r="N35" s="118"/>
-      <c r="O35" s="118"/>
-      <c r="P35" s="93" t="s">
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="81" t="s">
         <v>299</v>
       </c>
-      <c r="Q35" s="118"/>
-      <c r="R35" s="118"/>
-      <c r="S35" s="118"/>
-      <c r="T35" s="118"/>
-      <c r="U35" s="118"/>
-      <c r="V35" s="118"/>
-      <c r="W35" s="93" t="s">
-        <v>327</v>
-      </c>
-      <c r="X35" s="118"/>
-      <c r="Y35" s="118"/>
-      <c r="Z35" s="118"/>
-      <c r="AA35" s="118"/>
-      <c r="AB35" s="118"/>
-      <c r="AC35" s="118"/>
+      <c r="Q35" s="82"/>
+      <c r="R35" s="82"/>
+      <c r="S35" s="82"/>
+      <c r="T35" s="82"/>
+      <c r="U35" s="82"/>
+      <c r="V35" s="82"/>
+      <c r="W35" s="81" t="s">
+        <v>326</v>
+      </c>
+      <c r="X35" s="82"/>
+      <c r="Y35" s="82"/>
+      <c r="Z35" s="82"/>
+      <c r="AA35" s="82"/>
+      <c r="AB35" s="82"/>
+      <c r="AC35" s="82"/>
       <c r="AF35" s="8"/>
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
@@ -4309,34 +4379,34 @@
     </row>
     <row r="36" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="118"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="118"/>
-      <c r="K36" s="118"/>
-      <c r="L36" s="118"/>
-      <c r="M36" s="118"/>
-      <c r="N36" s="118"/>
-      <c r="O36" s="118"/>
-      <c r="P36" s="118"/>
-      <c r="Q36" s="118"/>
-      <c r="R36" s="118"/>
-      <c r="S36" s="118"/>
-      <c r="T36" s="118"/>
-      <c r="U36" s="118"/>
-      <c r="V36" s="118"/>
-      <c r="W36" s="118"/>
-      <c r="X36" s="118"/>
-      <c r="Y36" s="118"/>
-      <c r="Z36" s="118"/>
-      <c r="AA36" s="118"/>
-      <c r="AB36" s="118"/>
-      <c r="AC36" s="118"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="82"/>
+      <c r="R36" s="82"/>
+      <c r="S36" s="82"/>
+      <c r="T36" s="82"/>
+      <c r="U36" s="82"/>
+      <c r="V36" s="82"/>
+      <c r="W36" s="82"/>
+      <c r="X36" s="82"/>
+      <c r="Y36" s="82"/>
+      <c r="Z36" s="82"/>
+      <c r="AA36" s="82"/>
+      <c r="AB36" s="82"/>
+      <c r="AC36" s="82"/>
       <c r="AF36" s="8"/>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
@@ -4355,40 +4425,40 @@
     </row>
     <row r="37" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="118" t="s">
+      <c r="B37" s="82" t="s">
         <v>296</v>
       </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="118" t="s">
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82" t="s">
         <v>301</v>
       </c>
-      <c r="J37" s="118"/>
-      <c r="K37" s="118"/>
-      <c r="L37" s="118"/>
-      <c r="M37" s="118"/>
-      <c r="N37" s="118"/>
-      <c r="O37" s="118"/>
-      <c r="P37" s="126" t="s">
+      <c r="J37" s="82"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="82"/>
+      <c r="N37" s="82"/>
+      <c r="O37" s="82"/>
+      <c r="P37" s="75" t="s">
         <v>303</v>
       </c>
-      <c r="Q37" s="127"/>
-      <c r="R37" s="127"/>
-      <c r="S37" s="127"/>
-      <c r="T37" s="127"/>
-      <c r="U37" s="127"/>
-      <c r="V37" s="127"/>
-      <c r="W37" s="127"/>
-      <c r="X37" s="127"/>
-      <c r="Y37" s="127"/>
-      <c r="Z37" s="127"/>
-      <c r="AA37" s="127"/>
-      <c r="AB37" s="127"/>
-      <c r="AC37" s="128"/>
+      <c r="Q37" s="76"/>
+      <c r="R37" s="76"/>
+      <c r="S37" s="76"/>
+      <c r="T37" s="76"/>
+      <c r="U37" s="76"/>
+      <c r="V37" s="76"/>
+      <c r="W37" s="76"/>
+      <c r="X37" s="76"/>
+      <c r="Y37" s="76"/>
+      <c r="Z37" s="76"/>
+      <c r="AA37" s="76"/>
+      <c r="AB37" s="76"/>
+      <c r="AC37" s="77"/>
       <c r="AD37" s="8"/>
       <c r="AE37" s="8"/>
       <c r="AF37" s="8"/>
@@ -4409,34 +4479,34 @@
     </row>
     <row r="38" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="118"/>
-      <c r="F38" s="118"/>
-      <c r="G38" s="118"/>
-      <c r="H38" s="118"/>
-      <c r="I38" s="118"/>
-      <c r="J38" s="118"/>
-      <c r="K38" s="118"/>
-      <c r="L38" s="118"/>
-      <c r="M38" s="118"/>
-      <c r="N38" s="118"/>
-      <c r="O38" s="118"/>
-      <c r="P38" s="129"/>
-      <c r="Q38" s="130"/>
-      <c r="R38" s="130"/>
-      <c r="S38" s="130"/>
-      <c r="T38" s="130"/>
-      <c r="U38" s="130"/>
-      <c r="V38" s="130"/>
-      <c r="W38" s="130"/>
-      <c r="X38" s="130"/>
-      <c r="Y38" s="130"/>
-      <c r="Z38" s="130"/>
-      <c r="AA38" s="130"/>
-      <c r="AB38" s="130"/>
-      <c r="AC38" s="131"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="82"/>
+      <c r="O38" s="82"/>
+      <c r="P38" s="78"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="79"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="79"/>
+      <c r="U38" s="79"/>
+      <c r="V38" s="79"/>
+      <c r="W38" s="79"/>
+      <c r="X38" s="79"/>
+      <c r="Y38" s="79"/>
+      <c r="Z38" s="79"/>
+      <c r="AA38" s="79"/>
+      <c r="AB38" s="79"/>
+      <c r="AC38" s="80"/>
       <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
@@ -4499,44 +4569,44 @@
     </row>
     <row r="41" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="24" t="s">
+      <c r="C41" s="48"/>
+      <c r="D41" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="24" t="s">
+      <c r="E41" s="54"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="H41" s="25"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="24" t="s">
+      <c r="H41" s="54"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="K41" s="25"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="24" t="s">
+      <c r="K41" s="54"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="N41" s="25"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="24" t="s">
+      <c r="N41" s="54"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="24" t="s">
+      <c r="Q41" s="54"/>
+      <c r="R41" s="55"/>
+      <c r="S41" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="T41" s="25"/>
-      <c r="U41" s="26"/>
-      <c r="V41" s="18" t="s">
+      <c r="T41" s="54"/>
+      <c r="U41" s="55"/>
+      <c r="V41" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="W41" s="19"/>
+      <c r="W41" s="48"/>
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
       <c r="AA41" s="8"/>
@@ -4564,38 +4634,38 @@
     </row>
     <row r="42" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
-      <c r="B42" s="100" t="s">
+      <c r="B42" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="C42" s="101"/>
-      <c r="D42" s="102" t="s">
+      <c r="C42" s="86"/>
+      <c r="D42" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="103"/>
-      <c r="F42" s="27" t="s">
+      <c r="E42" s="93"/>
+      <c r="F42" s="56" t="s">
         <v>302</v>
       </c>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="104"/>
-      <c r="T42" s="89" t="s">
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="57"/>
+      <c r="S42" s="94"/>
+      <c r="T42" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="U42" s="90"/>
-      <c r="V42" s="91" t="s">
+      <c r="U42" s="96"/>
+      <c r="V42" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="W42" s="92"/>
+      <c r="W42" s="98"/>
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
       <c r="AA42" s="8"/>
@@ -4622,50 +4692,50 @@
       <c r="AV42" s="6"/>
     </row>
     <row r="43" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="39" t="s">
+      <c r="C43" s="28"/>
+      <c r="D43" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="E43" s="41"/>
-      <c r="F43" s="39" t="s">
+      <c r="E43" s="28"/>
+      <c r="F43" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="G43" s="41"/>
-      <c r="H43" s="87" t="s">
+      <c r="G43" s="28"/>
+      <c r="H43" s="99" t="s">
         <v>174</v>
       </c>
-      <c r="I43" s="88"/>
-      <c r="J43" s="39" t="s">
+      <c r="I43" s="100"/>
+      <c r="J43" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="K43" s="41"/>
-      <c r="L43" s="87" t="s">
+      <c r="K43" s="28"/>
+      <c r="L43" s="99" t="s">
         <v>175</v>
       </c>
-      <c r="M43" s="88"/>
-      <c r="N43" s="39" t="s">
+      <c r="M43" s="100"/>
+      <c r="N43" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="O43" s="41"/>
-      <c r="P43" s="39" t="s">
+      <c r="O43" s="28"/>
+      <c r="P43" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="39" t="s">
+      <c r="Q43" s="28"/>
+      <c r="R43" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="S43" s="41"/>
-      <c r="T43" s="39" t="s">
+      <c r="S43" s="28"/>
+      <c r="T43" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="U43" s="41"/>
-      <c r="V43" s="32" t="s">
+      <c r="U43" s="28"/>
+      <c r="V43" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="W43" s="32"/>
+      <c r="W43" s="31"/>
       <c r="X43" s="6"/>
       <c r="AT43" s="6"/>
       <c r="AU43" s="6"/>
@@ -4674,50 +4744,50 @@
     </row>
     <row r="44" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32" t="s">
+      <c r="C44" s="31"/>
+      <c r="D44" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32" t="s">
+      <c r="E44" s="31"/>
+      <c r="F44" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32" t="s">
+      <c r="G44" s="31"/>
+      <c r="H44" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32" t="s">
+      <c r="I44" s="31"/>
+      <c r="J44" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32" t="s">
+      <c r="K44" s="31"/>
+      <c r="L44" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="M44" s="32"/>
-      <c r="N44" s="108" t="s">
+      <c r="M44" s="31"/>
+      <c r="N44" s="89" t="s">
         <v>184</v>
       </c>
-      <c r="O44" s="108"/>
-      <c r="P44" s="32" t="s">
+      <c r="O44" s="89"/>
+      <c r="P44" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="32" t="s">
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="S44" s="32"/>
-      <c r="T44" s="32" t="s">
+      <c r="S44" s="31"/>
+      <c r="T44" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="U44" s="32"/>
-      <c r="V44" s="106" t="s">
+      <c r="U44" s="31"/>
+      <c r="V44" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="W44" s="106"/>
+      <c r="W44" s="88"/>
       <c r="AA44" s="8"/>
       <c r="AB44" s="8"/>
       <c r="AC44" s="8"/>
@@ -4738,50 +4808,50 @@
     </row>
     <row r="45" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32" t="s">
+      <c r="C45" s="31"/>
+      <c r="D45" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32" t="s">
+      <c r="E45" s="31"/>
+      <c r="F45" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32" t="s">
+      <c r="G45" s="31"/>
+      <c r="H45" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32" t="s">
+      <c r="I45" s="31"/>
+      <c r="J45" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32" t="s">
+      <c r="K45" s="31"/>
+      <c r="L45" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32" t="s">
+      <c r="M45" s="31"/>
+      <c r="N45" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="O45" s="32"/>
-      <c r="P45" s="32" t="s">
+      <c r="O45" s="31"/>
+      <c r="P45" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="Q45" s="32"/>
-      <c r="R45" s="50" t="s">
+      <c r="Q45" s="31"/>
+      <c r="R45" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="S45" s="50"/>
-      <c r="T45" s="50" t="s">
+      <c r="S45" s="32"/>
+      <c r="T45" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="U45" s="50"/>
-      <c r="V45" s="50" t="s">
+      <c r="U45" s="32"/>
+      <c r="V45" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="W45" s="50"/>
+      <c r="W45" s="32"/>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
       <c r="AA45" s="8"/>
@@ -4809,46 +4879,46 @@
     </row>
     <row r="46" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="105" t="s">
+      <c r="B46" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="105"/>
-      <c r="D46" s="105" t="s">
+      <c r="C46" s="83"/>
+      <c r="D46" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105" t="s">
+      <c r="E46" s="83"/>
+      <c r="F46" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="105"/>
-      <c r="H46" s="108" t="s">
+      <c r="G46" s="83"/>
+      <c r="H46" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="I46" s="108"/>
-      <c r="J46" s="45" t="s">
+      <c r="I46" s="89"/>
+      <c r="J46" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="108" t="s">
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="O46" s="108"/>
-      <c r="P46" s="32" t="s">
+      <c r="O46" s="89"/>
+      <c r="P46" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="33" t="s">
+      <c r="Q46" s="31"/>
+      <c r="R46" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="S46" s="43"/>
-      <c r="T46" s="43"/>
-      <c r="U46" s="43"/>
-      <c r="V46" s="33" t="s">
+      <c r="S46" s="42"/>
+      <c r="T46" s="42"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="W46" s="34"/>
+      <c r="W46" s="35"/>
       <c r="X46" s="6"/>
       <c r="AE46" s="8"/>
       <c r="AF46" s="8"/>
@@ -4912,44 +4982,44 @@
     </row>
     <row r="49" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="24" t="s">
+      <c r="C49" s="48"/>
+      <c r="D49" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="24" t="s">
+      <c r="E49" s="54"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="H49" s="25"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="24" t="s">
+      <c r="H49" s="54"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="K49" s="25"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="24" t="s">
+      <c r="K49" s="54"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="N49" s="25"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="24" t="s">
+      <c r="N49" s="54"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="26"/>
-      <c r="S49" s="24" t="s">
+      <c r="Q49" s="54"/>
+      <c r="R49" s="55"/>
+      <c r="S49" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="T49" s="25"/>
-      <c r="U49" s="26"/>
-      <c r="V49" s="18" t="s">
+      <c r="T49" s="54"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="W49" s="19"/>
+      <c r="W49" s="48"/>
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
       <c r="AA49" s="8"/>
@@ -4977,38 +5047,38 @@
     </row>
     <row r="50" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
-      <c r="B50" s="100" t="s">
+      <c r="B50" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102" t="s">
+      <c r="C50" s="86"/>
+      <c r="D50" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="E50" s="103"/>
-      <c r="F50" s="27" t="s">
+      <c r="E50" s="93"/>
+      <c r="F50" s="56" t="s">
         <v>302</v>
       </c>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="104"/>
-      <c r="T50" s="89" t="s">
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="57"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="57"/>
+      <c r="Q50" s="57"/>
+      <c r="R50" s="57"/>
+      <c r="S50" s="94"/>
+      <c r="T50" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="U50" s="90"/>
-      <c r="V50" s="91" t="s">
+      <c r="U50" s="96"/>
+      <c r="V50" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="W50" s="92"/>
+      <c r="W50" s="98"/>
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="8"/>
@@ -5035,50 +5105,50 @@
       <c r="AV50" s="6"/>
     </row>
     <row r="51" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="116" t="s">
+      <c r="B51" s="90" t="s">
         <v>197</v>
       </c>
-      <c r="C51" s="117"/>
-      <c r="D51" s="48" t="s">
+      <c r="C51" s="91"/>
+      <c r="D51" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="E51" s="49"/>
-      <c r="F51" s="116" t="s">
+      <c r="E51" s="30"/>
+      <c r="F51" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="G51" s="117"/>
-      <c r="H51" s="48" t="s">
+      <c r="G51" s="91"/>
+      <c r="H51" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I51" s="49"/>
-      <c r="J51" s="39" t="s">
+      <c r="I51" s="30"/>
+      <c r="J51" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="K51" s="41"/>
-      <c r="L51" s="39" t="s">
+      <c r="K51" s="28"/>
+      <c r="L51" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="M51" s="41"/>
-      <c r="N51" s="48" t="s">
+      <c r="M51" s="28"/>
+      <c r="N51" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="O51" s="49"/>
-      <c r="P51" s="48" t="s">
+      <c r="O51" s="30"/>
+      <c r="P51" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="Q51" s="49"/>
-      <c r="R51" s="48" t="s">
+      <c r="Q51" s="30"/>
+      <c r="R51" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="S51" s="49"/>
-      <c r="T51" s="48" t="s">
+      <c r="S51" s="30"/>
+      <c r="T51" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="U51" s="49"/>
-      <c r="V51" s="32" t="s">
+      <c r="U51" s="30"/>
+      <c r="V51" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="W51" s="32"/>
+      <c r="W51" s="31"/>
       <c r="X51" s="6"/>
       <c r="AT51" s="6"/>
       <c r="AU51" s="6"/>
@@ -5087,30 +5157,30 @@
     </row>
     <row r="52" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="108"/>
-      <c r="O52" s="108"/>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="32"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="32"/>
-      <c r="U52" s="32"/>
-      <c r="V52" s="106" t="s">
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="89"/>
+      <c r="O52" s="89"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="31"/>
+      <c r="T52" s="31"/>
+      <c r="U52" s="31"/>
+      <c r="V52" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="W52" s="106"/>
+      <c r="W52" s="88"/>
       <c r="AA52" s="8"/>
       <c r="AB52" s="8"/>
       <c r="AC52" s="8"/>
@@ -5131,36 +5201,36 @@
     </row>
     <row r="53" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="32"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="50" t="s">
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="S53" s="50"/>
-      <c r="T53" s="50" t="s">
+      <c r="S53" s="32"/>
+      <c r="T53" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="U53" s="50"/>
-      <c r="V53" s="50" t="s">
+      <c r="U53" s="32"/>
+      <c r="V53" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="W53" s="50"/>
+      <c r="W53" s="32"/>
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="8"/>
@@ -5188,40 +5258,40 @@
     </row>
     <row r="54" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="105" t="s">
+      <c r="B54" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="105"/>
-      <c r="D54" s="105" t="s">
+      <c r="C54" s="83"/>
+      <c r="D54" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="E54" s="105"/>
-      <c r="F54" s="105" t="s">
+      <c r="E54" s="83"/>
+      <c r="F54" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="105"/>
-      <c r="H54" s="108"/>
-      <c r="I54" s="108"/>
-      <c r="J54" s="45" t="s">
+      <c r="G54" s="83"/>
+      <c r="H54" s="89"/>
+      <c r="I54" s="89"/>
+      <c r="J54" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="K54" s="47"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="108"/>
-      <c r="O54" s="108"/>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="33" t="s">
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="89"/>
+      <c r="O54" s="89"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="S54" s="43"/>
-      <c r="T54" s="43"/>
-      <c r="U54" s="43"/>
-      <c r="V54" s="33" t="s">
+      <c r="S54" s="42"/>
+      <c r="T54" s="42"/>
+      <c r="U54" s="42"/>
+      <c r="V54" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="W54" s="34"/>
+      <c r="W54" s="35"/>
       <c r="X54" s="6"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="8"/>
@@ -5288,44 +5358,44 @@
     </row>
     <row r="57" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="24" t="s">
+      <c r="C57" s="48"/>
+      <c r="D57" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="E57" s="25"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="24" t="s">
+      <c r="E57" s="54"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="H57" s="25"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="24" t="s">
+      <c r="H57" s="54"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="K57" s="25"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="24" t="s">
+      <c r="K57" s="54"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="N57" s="25"/>
-      <c r="O57" s="26"/>
-      <c r="P57" s="24" t="s">
+      <c r="N57" s="54"/>
+      <c r="O57" s="55"/>
+      <c r="P57" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="Q57" s="25"/>
-      <c r="R57" s="26"/>
-      <c r="S57" s="24" t="s">
+      <c r="Q57" s="54"/>
+      <c r="R57" s="55"/>
+      <c r="S57" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="T57" s="25"/>
-      <c r="U57" s="26"/>
-      <c r="V57" s="18" t="s">
+      <c r="T57" s="54"/>
+      <c r="U57" s="55"/>
+      <c r="V57" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="W57" s="19"/>
+      <c r="W57" s="48"/>
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="8"/>
@@ -5353,38 +5423,38 @@
     </row>
     <row r="58" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="B58" s="100" t="s">
+      <c r="B58" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="C58" s="101"/>
-      <c r="D58" s="102" t="s">
+      <c r="C58" s="86"/>
+      <c r="D58" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="E58" s="103"/>
-      <c r="F58" s="27" t="s">
+      <c r="E58" s="93"/>
+      <c r="F58" s="56" t="s">
         <v>302</v>
       </c>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="28"/>
-      <c r="P58" s="28"/>
-      <c r="Q58" s="28"/>
-      <c r="R58" s="28"/>
-      <c r="S58" s="104"/>
-      <c r="T58" s="89" t="s">
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="57"/>
+      <c r="N58" s="57"/>
+      <c r="O58" s="57"/>
+      <c r="P58" s="57"/>
+      <c r="Q58" s="57"/>
+      <c r="R58" s="57"/>
+      <c r="S58" s="94"/>
+      <c r="T58" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="U58" s="90"/>
-      <c r="V58" s="91" t="s">
+      <c r="U58" s="96"/>
+      <c r="V58" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="W58" s="92"/>
+      <c r="W58" s="98"/>
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="8"/>
@@ -5411,50 +5481,50 @@
       <c r="AV58" s="6"/>
     </row>
     <row r="59" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="116" t="s">
+      <c r="B59" s="90" t="s">
         <v>207</v>
       </c>
-      <c r="C59" s="117"/>
-      <c r="D59" s="48" t="s">
+      <c r="C59" s="91"/>
+      <c r="D59" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="E59" s="49"/>
-      <c r="F59" s="116" t="s">
+      <c r="E59" s="30"/>
+      <c r="F59" s="90" t="s">
         <v>209</v>
       </c>
-      <c r="G59" s="117"/>
-      <c r="H59" s="48" t="s">
+      <c r="G59" s="91"/>
+      <c r="H59" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="I59" s="49"/>
-      <c r="J59" s="39" t="s">
+      <c r="I59" s="30"/>
+      <c r="J59" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="K59" s="41"/>
-      <c r="L59" s="39" t="s">
+      <c r="K59" s="28"/>
+      <c r="L59" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="M59" s="41"/>
-      <c r="N59" s="48" t="s">
+      <c r="M59" s="28"/>
+      <c r="N59" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="O59" s="49"/>
-      <c r="P59" s="48" t="s">
+      <c r="O59" s="30"/>
+      <c r="P59" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="Q59" s="49"/>
-      <c r="R59" s="48" t="s">
+      <c r="Q59" s="30"/>
+      <c r="R59" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="S59" s="49"/>
-      <c r="T59" s="48" t="s">
+      <c r="S59" s="30"/>
+      <c r="T59" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="U59" s="49"/>
-      <c r="V59" s="32" t="s">
+      <c r="U59" s="30"/>
+      <c r="V59" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="W59" s="32"/>
+      <c r="W59" s="31"/>
       <c r="X59" s="6"/>
       <c r="AT59" s="6"/>
       <c r="AU59" s="6"/>
@@ -5463,50 +5533,50 @@
     </row>
     <row r="60" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32" t="s">
+      <c r="C60" s="31"/>
+      <c r="D60" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32" t="s">
+      <c r="E60" s="31"/>
+      <c r="F60" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32" t="s">
+      <c r="G60" s="31"/>
+      <c r="H60" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="I60" s="32"/>
-      <c r="J60" s="39" t="s">
+      <c r="I60" s="31"/>
+      <c r="J60" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="K60" s="41"/>
-      <c r="L60" s="32" t="s">
+      <c r="K60" s="28"/>
+      <c r="L60" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="M60" s="32"/>
-      <c r="N60" s="108" t="s">
+      <c r="M60" s="31"/>
+      <c r="N60" s="89" t="s">
         <v>223</v>
       </c>
-      <c r="O60" s="108"/>
-      <c r="P60" s="32" t="s">
+      <c r="O60" s="89"/>
+      <c r="P60" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="Q60" s="32"/>
-      <c r="R60" s="32" t="s">
+      <c r="Q60" s="31"/>
+      <c r="R60" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="S60" s="32"/>
-      <c r="T60" s="32" t="s">
+      <c r="S60" s="31"/>
+      <c r="T60" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="U60" s="32"/>
-      <c r="V60" s="106" t="s">
+      <c r="U60" s="31"/>
+      <c r="V60" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="W60" s="106"/>
+      <c r="W60" s="88"/>
       <c r="AA60" s="8"/>
       <c r="AB60" s="8"/>
       <c r="AC60" s="8"/>
@@ -5527,50 +5597,50 @@
     </row>
     <row r="61" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32" t="s">
+      <c r="C61" s="31"/>
+      <c r="D61" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32" t="s">
+      <c r="E61" s="31"/>
+      <c r="F61" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32" t="s">
+      <c r="G61" s="31"/>
+      <c r="H61" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="I61" s="32"/>
-      <c r="J61" s="32" t="s">
+      <c r="I61" s="31"/>
+      <c r="J61" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="K61" s="32"/>
-      <c r="L61" s="32" t="s">
+      <c r="K61" s="31"/>
+      <c r="L61" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="M61" s="32"/>
-      <c r="N61" s="32" t="s">
+      <c r="M61" s="31"/>
+      <c r="N61" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="O61" s="32"/>
-      <c r="P61" s="32" t="s">
+      <c r="O61" s="31"/>
+      <c r="P61" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="Q61" s="32"/>
-      <c r="R61" s="50" t="s">
+      <c r="Q61" s="31"/>
+      <c r="R61" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="S61" s="50"/>
-      <c r="T61" s="50" t="s">
+      <c r="S61" s="32"/>
+      <c r="T61" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="U61" s="50"/>
-      <c r="V61" s="50" t="s">
+      <c r="U61" s="32"/>
+      <c r="V61" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="W61" s="50"/>
+      <c r="W61" s="32"/>
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
       <c r="AA61" s="8"/>
@@ -5598,46 +5668,46 @@
     </row>
     <row r="62" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="105" t="s">
+      <c r="B62" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="105"/>
-      <c r="D62" s="105" t="s">
+      <c r="C62" s="83"/>
+      <c r="D62" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="E62" s="105"/>
-      <c r="F62" s="105" t="s">
+      <c r="E62" s="83"/>
+      <c r="F62" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="G62" s="105"/>
-      <c r="H62" s="108" t="s">
+      <c r="G62" s="83"/>
+      <c r="H62" s="89" t="s">
         <v>234</v>
       </c>
-      <c r="I62" s="108"/>
-      <c r="J62" s="45" t="s">
+      <c r="I62" s="89"/>
+      <c r="J62" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="K62" s="47"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="108" t="s">
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="89" t="s">
         <v>235</v>
       </c>
-      <c r="O62" s="108"/>
-      <c r="P62" s="32" t="s">
+      <c r="O62" s="89"/>
+      <c r="P62" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="Q62" s="32"/>
-      <c r="R62" s="33" t="s">
+      <c r="Q62" s="31"/>
+      <c r="R62" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="S62" s="43"/>
-      <c r="T62" s="43"/>
-      <c r="U62" s="43"/>
-      <c r="V62" s="33" t="s">
+      <c r="S62" s="42"/>
+      <c r="T62" s="42"/>
+      <c r="U62" s="42"/>
+      <c r="V62" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="W62" s="34"/>
+      <c r="W62" s="35"/>
       <c r="X62" s="6"/>
       <c r="AE62" s="8"/>
       <c r="AF62" s="8"/>
@@ -5701,44 +5771,44 @@
     </row>
     <row r="65" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="24" t="s">
+      <c r="C65" s="48"/>
+      <c r="D65" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="E65" s="25"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="24" t="s">
+      <c r="E65" s="54"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="H65" s="25"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="24" t="s">
+      <c r="H65" s="54"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="K65" s="25"/>
-      <c r="L65" s="26"/>
-      <c r="M65" s="24" t="s">
+      <c r="K65" s="54"/>
+      <c r="L65" s="55"/>
+      <c r="M65" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="N65" s="25"/>
-      <c r="O65" s="26"/>
-      <c r="P65" s="24" t="s">
+      <c r="N65" s="54"/>
+      <c r="O65" s="55"/>
+      <c r="P65" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="Q65" s="25"/>
-      <c r="R65" s="26"/>
-      <c r="S65" s="24" t="s">
+      <c r="Q65" s="54"/>
+      <c r="R65" s="55"/>
+      <c r="S65" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="T65" s="25"/>
-      <c r="U65" s="26"/>
-      <c r="V65" s="18" t="s">
+      <c r="T65" s="54"/>
+      <c r="U65" s="55"/>
+      <c r="V65" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="W65" s="19"/>
+      <c r="W65" s="48"/>
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
       <c r="AA65" s="8"/>
@@ -5766,38 +5836,38 @@
     </row>
     <row r="66" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
-      <c r="B66" s="100" t="s">
+      <c r="B66" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="C66" s="101"/>
-      <c r="D66" s="102" t="s">
+      <c r="C66" s="86"/>
+      <c r="D66" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="E66" s="103"/>
-      <c r="F66" s="27" t="s">
+      <c r="E66" s="93"/>
+      <c r="F66" s="56" t="s">
         <v>302</v>
       </c>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="28"/>
-      <c r="P66" s="28"/>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="28"/>
-      <c r="S66" s="104"/>
-      <c r="T66" s="89" t="s">
+      <c r="G66" s="57"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="57"/>
+      <c r="K66" s="57"/>
+      <c r="L66" s="57"/>
+      <c r="M66" s="57"/>
+      <c r="N66" s="57"/>
+      <c r="O66" s="57"/>
+      <c r="P66" s="57"/>
+      <c r="Q66" s="57"/>
+      <c r="R66" s="57"/>
+      <c r="S66" s="94"/>
+      <c r="T66" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="U66" s="90"/>
-      <c r="V66" s="91" t="s">
+      <c r="U66" s="96"/>
+      <c r="V66" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="W66" s="92"/>
+      <c r="W66" s="98"/>
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="8"/>
@@ -5824,50 +5894,50 @@
       <c r="AV66" s="6"/>
     </row>
     <row r="67" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="116" t="s">
+      <c r="B67" s="90" t="s">
         <v>237</v>
       </c>
-      <c r="C67" s="117"/>
-      <c r="D67" s="48" t="s">
+      <c r="C67" s="91"/>
+      <c r="D67" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="E67" s="49"/>
-      <c r="F67" s="116" t="s">
+      <c r="E67" s="30"/>
+      <c r="F67" s="90" t="s">
         <v>239</v>
       </c>
-      <c r="G67" s="117"/>
-      <c r="H67" s="48" t="s">
+      <c r="G67" s="91"/>
+      <c r="H67" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="I67" s="49"/>
-      <c r="J67" s="39" t="s">
+      <c r="I67" s="30"/>
+      <c r="J67" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="K67" s="41"/>
-      <c r="L67" s="39" t="s">
+      <c r="K67" s="28"/>
+      <c r="L67" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="M67" s="41"/>
-      <c r="N67" s="48" t="s">
+      <c r="M67" s="28"/>
+      <c r="N67" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="O67" s="49"/>
-      <c r="P67" s="48" t="s">
+      <c r="O67" s="30"/>
+      <c r="P67" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="Q67" s="49"/>
-      <c r="R67" s="48" t="s">
+      <c r="Q67" s="30"/>
+      <c r="R67" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="S67" s="49"/>
-      <c r="T67" s="48" t="s">
+      <c r="S67" s="30"/>
+      <c r="T67" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="U67" s="49"/>
-      <c r="V67" s="32" t="s">
+      <c r="U67" s="30"/>
+      <c r="V67" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="W67" s="32"/>
+      <c r="W67" s="31"/>
       <c r="X67" s="6"/>
       <c r="AT67" s="6"/>
       <c r="AU67" s="6"/>
@@ -5876,50 +5946,50 @@
     </row>
     <row r="68" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32" t="s">
+      <c r="C68" s="31"/>
+      <c r="D68" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32" t="s">
+      <c r="E68" s="31"/>
+      <c r="F68" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32" t="s">
+      <c r="G68" s="31"/>
+      <c r="H68" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="I68" s="32"/>
-      <c r="J68" s="39" t="s">
+      <c r="I68" s="31"/>
+      <c r="J68" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="K68" s="41"/>
-      <c r="L68" s="32" t="s">
+      <c r="K68" s="28"/>
+      <c r="L68" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="M68" s="32"/>
-      <c r="N68" s="108" t="s">
+      <c r="M68" s="31"/>
+      <c r="N68" s="89" t="s">
         <v>253</v>
       </c>
-      <c r="O68" s="108"/>
-      <c r="P68" s="32" t="s">
+      <c r="O68" s="89"/>
+      <c r="P68" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="Q68" s="32"/>
-      <c r="R68" s="32" t="s">
+      <c r="Q68" s="31"/>
+      <c r="R68" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="S68" s="32"/>
-      <c r="T68" s="32" t="s">
+      <c r="S68" s="31"/>
+      <c r="T68" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="U68" s="32"/>
-      <c r="V68" s="106" t="s">
+      <c r="U68" s="31"/>
+      <c r="V68" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="W68" s="106"/>
+      <c r="W68" s="88"/>
       <c r="AA68" s="8"/>
       <c r="AB68" s="8"/>
       <c r="AC68" s="8"/>
@@ -5940,50 +6010,50 @@
     </row>
     <row r="69" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32" t="s">
+      <c r="C69" s="31"/>
+      <c r="D69" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32" t="s">
+      <c r="E69" s="31"/>
+      <c r="F69" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32" t="s">
+      <c r="G69" s="31"/>
+      <c r="H69" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32" t="s">
+      <c r="I69" s="31"/>
+      <c r="J69" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="K69" s="32"/>
-      <c r="L69" s="32" t="s">
+      <c r="K69" s="31"/>
+      <c r="L69" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="M69" s="32"/>
-      <c r="N69" s="32" t="s">
+      <c r="M69" s="31"/>
+      <c r="N69" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="O69" s="32"/>
-      <c r="P69" s="32" t="s">
+      <c r="O69" s="31"/>
+      <c r="P69" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="Q69" s="32"/>
-      <c r="R69" s="50" t="s">
+      <c r="Q69" s="31"/>
+      <c r="R69" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="S69" s="50"/>
-      <c r="T69" s="50" t="s">
+      <c r="S69" s="32"/>
+      <c r="T69" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="U69" s="50"/>
-      <c r="V69" s="50" t="s">
+      <c r="U69" s="32"/>
+      <c r="V69" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="W69" s="50"/>
+      <c r="W69" s="32"/>
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
       <c r="AA69" s="8"/>
@@ -6011,46 +6081,46 @@
     </row>
     <row r="70" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="105" t="s">
+      <c r="B70" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="105"/>
-      <c r="D70" s="105" t="s">
+      <c r="C70" s="83"/>
+      <c r="D70" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="E70" s="105"/>
-      <c r="F70" s="105" t="s">
+      <c r="E70" s="83"/>
+      <c r="F70" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="G70" s="105"/>
-      <c r="H70" s="108" t="s">
+      <c r="G70" s="83"/>
+      <c r="H70" s="89" t="s">
         <v>267</v>
       </c>
-      <c r="I70" s="108"/>
-      <c r="J70" s="45" t="s">
+      <c r="I70" s="89"/>
+      <c r="J70" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="K70" s="47"/>
-      <c r="L70" s="47"/>
-      <c r="M70" s="47"/>
-      <c r="N70" s="119" t="s">
+      <c r="K70" s="46"/>
+      <c r="L70" s="46"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="87" t="s">
         <v>268</v>
       </c>
-      <c r="O70" s="119"/>
-      <c r="P70" s="32" t="s">
+      <c r="O70" s="87"/>
+      <c r="P70" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="Q70" s="32"/>
-      <c r="R70" s="33" t="s">
+      <c r="Q70" s="31"/>
+      <c r="R70" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="S70" s="43"/>
-      <c r="T70" s="43"/>
-      <c r="U70" s="43"/>
-      <c r="V70" s="33" t="s">
+      <c r="S70" s="42"/>
+      <c r="T70" s="42"/>
+      <c r="U70" s="42"/>
+      <c r="V70" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="W70" s="34"/>
+      <c r="W70" s="35"/>
       <c r="X70" s="6"/>
       <c r="AE70" s="8"/>
       <c r="AF70" s="8"/>
@@ -6114,44 +6184,44 @@
     </row>
     <row r="73" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="24" t="s">
+      <c r="C73" s="48"/>
+      <c r="D73" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="E73" s="25"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="24" t="s">
+      <c r="E73" s="54"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="H73" s="25"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="24" t="s">
+      <c r="H73" s="54"/>
+      <c r="I73" s="55"/>
+      <c r="J73" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="K73" s="25"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="24" t="s">
+      <c r="K73" s="54"/>
+      <c r="L73" s="55"/>
+      <c r="M73" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="N73" s="25"/>
-      <c r="O73" s="26"/>
-      <c r="P73" s="24" t="s">
+      <c r="N73" s="54"/>
+      <c r="O73" s="55"/>
+      <c r="P73" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="Q73" s="25"/>
-      <c r="R73" s="26"/>
-      <c r="S73" s="24" t="s">
+      <c r="Q73" s="54"/>
+      <c r="R73" s="55"/>
+      <c r="S73" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="T73" s="25"/>
-      <c r="U73" s="26"/>
-      <c r="V73" s="18" t="s">
+      <c r="T73" s="54"/>
+      <c r="U73" s="55"/>
+      <c r="V73" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="W73" s="19"/>
+      <c r="W73" s="48"/>
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
       <c r="AA73" s="8"/>
@@ -6179,38 +6249,38 @@
     </row>
     <row r="74" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
-      <c r="B74" s="100" t="s">
+      <c r="B74" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="C74" s="101"/>
-      <c r="D74" s="102" t="s">
+      <c r="C74" s="86"/>
+      <c r="D74" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="E74" s="103"/>
-      <c r="F74" s="27" t="s">
+      <c r="E74" s="93"/>
+      <c r="F74" s="56" t="s">
         <v>302</v>
       </c>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="28"/>
-      <c r="M74" s="28"/>
-      <c r="N74" s="28"/>
-      <c r="O74" s="28"/>
-      <c r="P74" s="28"/>
-      <c r="Q74" s="28"/>
-      <c r="R74" s="28"/>
-      <c r="S74" s="104"/>
-      <c r="T74" s="89" t="s">
+      <c r="G74" s="57"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="57"/>
+      <c r="K74" s="57"/>
+      <c r="L74" s="57"/>
+      <c r="M74" s="57"/>
+      <c r="N74" s="57"/>
+      <c r="O74" s="57"/>
+      <c r="P74" s="57"/>
+      <c r="Q74" s="57"/>
+      <c r="R74" s="57"/>
+      <c r="S74" s="94"/>
+      <c r="T74" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="U74" s="90"/>
-      <c r="V74" s="91" t="s">
+      <c r="U74" s="96"/>
+      <c r="V74" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="W74" s="92"/>
+      <c r="W74" s="98"/>
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
       <c r="AA74" s="8"/>
@@ -6237,50 +6307,50 @@
       <c r="AV74" s="6"/>
     </row>
     <row r="75" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="116" t="s">
+      <c r="B75" s="90" t="s">
         <v>270</v>
       </c>
-      <c r="C75" s="117"/>
-      <c r="D75" s="48" t="s">
+      <c r="C75" s="91"/>
+      <c r="D75" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="E75" s="49"/>
-      <c r="F75" s="48" t="s">
+      <c r="E75" s="30"/>
+      <c r="F75" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="G75" s="49"/>
-      <c r="H75" s="48" t="s">
+      <c r="G75" s="30"/>
+      <c r="H75" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="I75" s="49"/>
-      <c r="J75" s="48" t="s">
+      <c r="I75" s="30"/>
+      <c r="J75" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="K75" s="49"/>
-      <c r="L75" s="48" t="s">
+      <c r="K75" s="30"/>
+      <c r="L75" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="M75" s="49"/>
-      <c r="N75" s="48" t="s">
+      <c r="M75" s="30"/>
+      <c r="N75" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="O75" s="49"/>
-      <c r="P75" s="48" t="s">
+      <c r="O75" s="30"/>
+      <c r="P75" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="Q75" s="49"/>
-      <c r="R75" s="32" t="s">
+      <c r="Q75" s="30"/>
+      <c r="R75" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="S75" s="32"/>
-      <c r="T75" s="32" t="s">
+      <c r="S75" s="31"/>
+      <c r="T75" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="U75" s="32"/>
-      <c r="V75" s="32" t="s">
+      <c r="U75" s="31"/>
+      <c r="V75" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="W75" s="32"/>
+      <c r="W75" s="31"/>
       <c r="X75" s="6"/>
       <c r="AT75" s="6"/>
       <c r="AU75" s="6"/>
@@ -6289,50 +6359,50 @@
     </row>
     <row r="76" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="39" t="s">
+      <c r="B76" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="C76" s="41"/>
-      <c r="D76" s="39" t="s">
+      <c r="C76" s="28"/>
+      <c r="D76" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="E76" s="41"/>
-      <c r="F76" s="39" t="s">
+      <c r="E76" s="28"/>
+      <c r="F76" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="G76" s="41"/>
-      <c r="H76" s="39" t="s">
+      <c r="G76" s="28"/>
+      <c r="H76" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="I76" s="41"/>
-      <c r="J76" s="53" t="s">
+      <c r="I76" s="28"/>
+      <c r="J76" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="K76" s="55"/>
-      <c r="L76" s="39" t="s">
+      <c r="K76" s="62"/>
+      <c r="L76" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="M76" s="41"/>
-      <c r="N76" s="32" t="s">
+      <c r="M76" s="28"/>
+      <c r="N76" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="O76" s="32"/>
-      <c r="P76" s="32" t="s">
+      <c r="O76" s="31"/>
+      <c r="P76" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="Q76" s="32"/>
-      <c r="R76" s="32" t="s">
+      <c r="Q76" s="31"/>
+      <c r="R76" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="S76" s="32"/>
-      <c r="T76" s="32" t="s">
+      <c r="S76" s="31"/>
+      <c r="T76" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="U76" s="32"/>
-      <c r="V76" s="106" t="s">
+      <c r="U76" s="31"/>
+      <c r="V76" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="W76" s="106"/>
+      <c r="W76" s="88"/>
       <c r="AA76" s="8"/>
       <c r="AB76" s="8"/>
       <c r="AC76" s="8"/>
@@ -6353,46 +6423,46 @@
     </row>
     <row r="77" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="32" t="s">
+      <c r="B77" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="32"/>
-      <c r="D77" s="39" t="s">
+      <c r="C77" s="31"/>
+      <c r="D77" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="E77" s="41"/>
-      <c r="F77" s="39" t="s">
+      <c r="E77" s="28"/>
+      <c r="F77" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="G77" s="41"/>
-      <c r="H77" s="39" t="s">
+      <c r="G77" s="28"/>
+      <c r="H77" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="I77" s="41"/>
-      <c r="J77" s="53" t="s">
+      <c r="I77" s="28"/>
+      <c r="J77" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="K77" s="55"/>
-      <c r="L77" s="53" t="s">
+      <c r="K77" s="62"/>
+      <c r="L77" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="M77" s="55"/>
-      <c r="N77" s="32"/>
-      <c r="O77" s="32"/>
-      <c r="P77" s="32"/>
-      <c r="Q77" s="32"/>
-      <c r="R77" s="50" t="s">
+      <c r="M77" s="62"/>
+      <c r="N77" s="31"/>
+      <c r="O77" s="31"/>
+      <c r="P77" s="31"/>
+      <c r="Q77" s="31"/>
+      <c r="R77" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="S77" s="50"/>
-      <c r="T77" s="50" t="s">
+      <c r="S77" s="32"/>
+      <c r="T77" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="U77" s="50"/>
-      <c r="V77" s="50" t="s">
+      <c r="U77" s="32"/>
+      <c r="V77" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="W77" s="50"/>
+      <c r="W77" s="32"/>
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
       <c r="AA77" s="8"/>
@@ -6420,40 +6490,40 @@
     </row>
     <row r="78" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="105" t="s">
+      <c r="B78" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="105"/>
-      <c r="D78" s="105" t="s">
+      <c r="C78" s="83"/>
+      <c r="D78" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="E78" s="105"/>
-      <c r="F78" s="105" t="s">
+      <c r="E78" s="83"/>
+      <c r="F78" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="G78" s="105"/>
-      <c r="H78" s="108"/>
-      <c r="I78" s="108"/>
-      <c r="J78" s="45" t="s">
+      <c r="G78" s="83"/>
+      <c r="H78" s="89"/>
+      <c r="I78" s="89"/>
+      <c r="J78" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="K78" s="47"/>
-      <c r="L78" s="47"/>
-      <c r="M78" s="47"/>
-      <c r="N78" s="119"/>
-      <c r="O78" s="119"/>
-      <c r="P78" s="32"/>
-      <c r="Q78" s="32"/>
-      <c r="R78" s="33" t="s">
+      <c r="K78" s="46"/>
+      <c r="L78" s="46"/>
+      <c r="M78" s="46"/>
+      <c r="N78" s="87"/>
+      <c r="O78" s="87"/>
+      <c r="P78" s="31"/>
+      <c r="Q78" s="31"/>
+      <c r="R78" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="S78" s="43"/>
-      <c r="T78" s="43"/>
-      <c r="U78" s="43"/>
-      <c r="V78" s="33" t="s">
+      <c r="S78" s="42"/>
+      <c r="T78" s="42"/>
+      <c r="U78" s="42"/>
+      <c r="V78" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="W78" s="34"/>
+      <c r="W78" s="35"/>
       <c r="X78" s="6"/>
       <c r="Z78" s="6"/>
       <c r="AA78" s="8"/>
@@ -6519,46 +6589,46 @@
       </c>
     </row>
     <row r="81" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="82" t="s">
+      <c r="C81" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="D81" s="82"/>
-      <c r="E81" s="82" t="s">
+      <c r="D81" s="84"/>
+      <c r="E81" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="F81" s="82"/>
-      <c r="G81" s="82" t="s">
+      <c r="F81" s="84"/>
+      <c r="G81" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="H81" s="82"/>
-      <c r="I81" s="82" t="s">
+      <c r="H81" s="84"/>
+      <c r="I81" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="J81" s="82"/>
-      <c r="K81" s="82" t="s">
+      <c r="J81" s="84"/>
+      <c r="K81" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="L81" s="82"/>
-      <c r="M81" s="82" t="s">
+      <c r="L81" s="84"/>
+      <c r="M81" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="N81" s="82"/>
-      <c r="O81" s="82" t="s">
+      <c r="N81" s="84"/>
+      <c r="O81" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="P81" s="82"/>
-      <c r="Q81" s="82" t="s">
+      <c r="P81" s="84"/>
+      <c r="Q81" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="R81" s="82"/>
-      <c r="S81" s="82" t="s">
+      <c r="R81" s="84"/>
+      <c r="S81" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="T81" s="82"/>
-      <c r="U81" s="82" t="s">
+      <c r="T81" s="84"/>
+      <c r="U81" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="V81" s="82"/>
+      <c r="V81" s="84"/>
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
       <c r="Y81" s="5"/>
@@ -6567,136 +6637,136 @@
     </row>
     <row r="82" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="84" t="s">
+      <c r="B82" s="112" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="85"/>
-      <c r="D82" s="84" t="s">
+      <c r="C82" s="113"/>
+      <c r="D82" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="E82" s="85"/>
-      <c r="F82" s="59" t="s">
+      <c r="E82" s="113"/>
+      <c r="F82" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="G82" s="59"/>
-      <c r="H82" s="59" t="s">
+      <c r="G82" s="121"/>
+      <c r="H82" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="I82" s="59"/>
-      <c r="J82" s="80" t="s">
+      <c r="I82" s="121"/>
+      <c r="J82" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="K82" s="81"/>
-      <c r="L82" s="80" t="s">
+      <c r="K82" s="111"/>
+      <c r="L82" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="M82" s="81"/>
-      <c r="N82" s="80" t="s">
+      <c r="M82" s="111"/>
+      <c r="N82" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="O82" s="81"/>
-      <c r="P82" s="84" t="s">
+      <c r="O82" s="111"/>
+      <c r="P82" s="112" t="s">
         <v>111</v>
       </c>
-      <c r="Q82" s="85"/>
-      <c r="R82" s="84" t="s">
+      <c r="Q82" s="113"/>
+      <c r="R82" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="S82" s="85"/>
-      <c r="T82" s="84" t="s">
+      <c r="S82" s="113"/>
+      <c r="T82" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="U82" s="85"/>
-      <c r="V82" s="86" t="s">
+      <c r="U82" s="113"/>
+      <c r="V82" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="W82" s="86"/>
+      <c r="W82" s="120"/>
     </row>
     <row r="83" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="32" t="s">
+      <c r="B83" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="32"/>
-      <c r="D83" s="80" t="s">
+      <c r="C83" s="31"/>
+      <c r="D83" s="110" t="s">
         <v>120</v>
       </c>
-      <c r="E83" s="81"/>
-      <c r="F83" s="80" t="s">
+      <c r="E83" s="111"/>
+      <c r="F83" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="G83" s="81"/>
-      <c r="H83" s="80" t="s">
+      <c r="G83" s="111"/>
+      <c r="H83" s="110" t="s">
         <v>119</v>
       </c>
-      <c r="I83" s="81"/>
-      <c r="J83" s="84" t="s">
+      <c r="I83" s="111"/>
+      <c r="J83" s="112" t="s">
         <v>106</v>
       </c>
-      <c r="K83" s="85"/>
-      <c r="L83" s="84" t="s">
+      <c r="K83" s="113"/>
+      <c r="L83" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="M83" s="85"/>
-      <c r="N83" s="84" t="s">
+      <c r="M83" s="113"/>
+      <c r="N83" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="O83" s="85"/>
-      <c r="P83" s="80" t="s">
+      <c r="O83" s="113"/>
+      <c r="P83" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="Q83" s="81"/>
-      <c r="R83" s="50" t="s">
+      <c r="Q83" s="111"/>
+      <c r="R83" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="S83" s="50"/>
-      <c r="T83" s="50" t="s">
+      <c r="S83" s="32"/>
+      <c r="T83" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="U83" s="50"/>
-      <c r="V83" s="83" t="s">
+      <c r="U83" s="32"/>
+      <c r="V83" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="W83" s="83"/>
+      <c r="W83" s="119"/>
     </row>
     <row r="84" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="105" t="s">
+      <c r="B84" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C84" s="105"/>
-      <c r="D84" s="105" t="s">
+      <c r="C84" s="83"/>
+      <c r="D84" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="E84" s="105"/>
-      <c r="F84" s="105" t="s">
+      <c r="E84" s="83"/>
+      <c r="F84" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="G84" s="105"/>
-      <c r="H84" s="80"/>
-      <c r="I84" s="81"/>
-      <c r="J84" s="45" t="s">
+      <c r="G84" s="83"/>
+      <c r="H84" s="110"/>
+      <c r="I84" s="111"/>
+      <c r="J84" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="K84" s="47"/>
-      <c r="L84" s="47"/>
-      <c r="M84" s="46"/>
-      <c r="N84" s="84"/>
-      <c r="O84" s="85"/>
-      <c r="P84" s="84" t="s">
+      <c r="K84" s="46"/>
+      <c r="L84" s="46"/>
+      <c r="M84" s="45"/>
+      <c r="N84" s="112"/>
+      <c r="O84" s="113"/>
+      <c r="P84" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="Q84" s="85"/>
-      <c r="R84" s="33" t="s">
+      <c r="Q84" s="113"/>
+      <c r="R84" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="S84" s="43"/>
-      <c r="T84" s="43"/>
-      <c r="U84" s="43"/>
-      <c r="V84" s="33" t="s">
+      <c r="S84" s="42"/>
+      <c r="T84" s="42"/>
+      <c r="U84" s="42"/>
+      <c r="V84" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="W84" s="34"/>
+      <c r="W84" s="35"/>
       <c r="X84" s="5"/>
     </row>
     <row r="86" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6706,44 +6776,44 @@
     </row>
     <row r="87" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C87" s="19"/>
-      <c r="D87" s="24" t="s">
+      <c r="C87" s="48"/>
+      <c r="D87" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="E87" s="25"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="24" t="s">
+      <c r="E87" s="54"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="H87" s="25"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="24" t="s">
+      <c r="H87" s="54"/>
+      <c r="I87" s="55"/>
+      <c r="J87" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="K87" s="25"/>
-      <c r="L87" s="26"/>
-      <c r="M87" s="24" t="s">
+      <c r="K87" s="54"/>
+      <c r="L87" s="55"/>
+      <c r="M87" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="N87" s="25"/>
-      <c r="O87" s="26"/>
-      <c r="P87" s="24" t="s">
+      <c r="N87" s="54"/>
+      <c r="O87" s="55"/>
+      <c r="P87" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="Q87" s="25"/>
-      <c r="R87" s="26"/>
-      <c r="S87" s="24" t="s">
+      <c r="Q87" s="54"/>
+      <c r="R87" s="55"/>
+      <c r="S87" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="T87" s="25"/>
-      <c r="U87" s="26"/>
-      <c r="V87" s="18" t="s">
+      <c r="T87" s="54"/>
+      <c r="U87" s="55"/>
+      <c r="V87" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="W87" s="19"/>
+      <c r="W87" s="48"/>
       <c r="Z87" s="5"/>
       <c r="AA87" s="8"/>
       <c r="AB87" s="8"/>
@@ -6767,38 +6837,38 @@
     </row>
     <row r="88" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
-      <c r="B88" s="100" t="s">
+      <c r="B88" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="C88" s="101"/>
-      <c r="D88" s="102" t="s">
+      <c r="C88" s="86"/>
+      <c r="D88" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="E88" s="103"/>
-      <c r="F88" s="27" t="s">
+      <c r="E88" s="93"/>
+      <c r="F88" s="56" t="s">
         <v>302</v>
       </c>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="28"/>
-      <c r="K88" s="28"/>
-      <c r="L88" s="28"/>
-      <c r="M88" s="28"/>
-      <c r="N88" s="28"/>
-      <c r="O88" s="28"/>
-      <c r="P88" s="28"/>
-      <c r="Q88" s="28"/>
-      <c r="R88" s="28"/>
-      <c r="S88" s="104"/>
-      <c r="T88" s="89" t="s">
+      <c r="G88" s="57"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="57"/>
+      <c r="J88" s="57"/>
+      <c r="K88" s="57"/>
+      <c r="L88" s="57"/>
+      <c r="M88" s="57"/>
+      <c r="N88" s="57"/>
+      <c r="O88" s="57"/>
+      <c r="P88" s="57"/>
+      <c r="Q88" s="57"/>
+      <c r="R88" s="57"/>
+      <c r="S88" s="94"/>
+      <c r="T88" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="U88" s="90"/>
-      <c r="V88" s="91" t="s">
+      <c r="U88" s="96"/>
+      <c r="V88" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="W88" s="92"/>
+      <c r="W88" s="98"/>
       <c r="Z88" s="5"/>
       <c r="AA88" s="8"/>
       <c r="AB88" s="8"/>
@@ -6822,158 +6892,108 @@
     </row>
     <row r="90" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B90" s="2" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="53" t="s">
+      <c r="B91" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="C91" s="55"/>
-      <c r="D91" s="53" t="s">
+      <c r="C91" s="62"/>
+      <c r="D91" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="55"/>
-      <c r="F91" s="53" t="s">
+      <c r="E91" s="62"/>
+      <c r="F91" s="60" t="s">
         <v>305</v>
       </c>
-      <c r="G91" s="55"/>
-      <c r="I91" s="53" t="s">
+      <c r="G91" s="62"/>
+      <c r="I91" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="J91" s="55"/>
-      <c r="K91" s="53" t="s">
+      <c r="J91" s="62"/>
+      <c r="K91" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="55"/>
-      <c r="M91" s="53" t="s">
+      <c r="L91" s="62"/>
+      <c r="M91" s="60" t="s">
         <v>305</v>
       </c>
-      <c r="N91" s="55"/>
-      <c r="P91" s="53" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q91" s="55"/>
-      <c r="R91" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="S91" s="55"/>
-      <c r="T91" s="53" t="s">
-        <v>305</v>
-      </c>
-      <c r="U91" s="55"/>
-      <c r="W91" s="53" t="s">
-        <v>304</v>
-      </c>
-      <c r="X91" s="55"/>
-      <c r="Y91" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z91" s="55"/>
-      <c r="AA91" s="53" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB91" s="55"/>
+      <c r="N91" s="62"/>
+      <c r="P91" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q91" s="70"/>
+      <c r="R91" s="71"/>
+      <c r="S91" s="144" t="s">
+        <v>313</v>
+      </c>
+      <c r="T91" s="141"/>
+      <c r="U91" s="145"/>
     </row>
     <row r="92" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="53" t="s">
+      <c r="B92" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="55"/>
-      <c r="D92" s="53" t="s">
+      <c r="C92" s="62"/>
+      <c r="D92" s="60" t="s">
         <v>306</v>
       </c>
-      <c r="E92" s="55"/>
-      <c r="F92" s="53" t="s">
+      <c r="E92" s="62"/>
+      <c r="F92" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="55"/>
-      <c r="I92" s="53" t="s">
+      <c r="G92" s="62"/>
+      <c r="I92" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="J92" s="55"/>
-      <c r="K92" s="53" t="s">
+      <c r="J92" s="62"/>
+      <c r="K92" s="60" t="s">
         <v>307</v>
       </c>
-      <c r="L92" s="55"/>
-      <c r="M92" s="53" t="s">
+      <c r="L92" s="62"/>
+      <c r="M92" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="N92" s="55"/>
-      <c r="P92" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q92" s="55"/>
-      <c r="R92" s="53" t="s">
-        <v>308</v>
-      </c>
-      <c r="S92" s="55"/>
-      <c r="T92" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="U92" s="55"/>
-      <c r="W92" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="X92" s="55"/>
-      <c r="Y92" s="53" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z92" s="55"/>
-      <c r="AA92" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB92" s="55"/>
+      <c r="N92" s="62"/>
+      <c r="P92" s="150"/>
+      <c r="Q92" s="140"/>
+      <c r="R92" s="151"/>
+      <c r="S92" s="146"/>
+      <c r="T92" s="142"/>
+      <c r="U92" s="147"/>
     </row>
     <row r="93" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="53" t="s">
+      <c r="B93" s="60" t="s">
         <v>309</v>
       </c>
-      <c r="C93" s="55"/>
-      <c r="D93" s="53" t="s">
+      <c r="C93" s="62"/>
+      <c r="D93" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E93" s="55"/>
-      <c r="F93" s="56" t="s">
+      <c r="E93" s="62"/>
+      <c r="F93" s="69" t="s">
         <v>310</v>
       </c>
-      <c r="G93" s="57"/>
-      <c r="I93" s="56" t="s">
+      <c r="G93" s="71"/>
+      <c r="I93" s="69" t="s">
         <v>309</v>
       </c>
-      <c r="J93" s="55"/>
-      <c r="K93" s="53" t="s">
+      <c r="J93" s="62"/>
+      <c r="K93" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="L93" s="55"/>
-      <c r="M93" s="53" t="s">
+      <c r="L93" s="62"/>
+      <c r="M93" s="60" t="s">
         <v>310</v>
       </c>
-      <c r="N93" s="55"/>
-      <c r="P93" s="56" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q93" s="57"/>
-      <c r="R93" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="S93" s="57"/>
-      <c r="T93" s="56" t="s">
-        <v>310</v>
-      </c>
-      <c r="U93" s="57"/>
-      <c r="W93" s="53" t="s">
-        <v>309</v>
-      </c>
-      <c r="X93" s="55"/>
-      <c r="Y93" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z93" s="55"/>
-      <c r="AA93" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="AB93" s="55"/>
+      <c r="N93" s="62"/>
+      <c r="P93" s="72"/>
+      <c r="Q93" s="73"/>
+      <c r="R93" s="74"/>
+      <c r="S93" s="148"/>
+      <c r="T93" s="143"/>
+      <c r="U93" s="149"/>
     </row>
     <row r="94" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="12"/>
@@ -6983,364 +7003,1065 @@
       <c r="F94" s="12"/>
       <c r="G94" s="13"/>
       <c r="I94" s="13"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="16"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="16"/>
-      <c r="N94" s="17"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="16"/>
       <c r="P94" s="13"/>
       <c r="Q94" s="13"/>
       <c r="R94" s="13"/>
       <c r="S94" s="13"/>
       <c r="T94" s="13"/>
       <c r="U94" s="13"/>
-      <c r="W94" s="15"/>
-      <c r="X94" s="16"/>
-      <c r="Y94" s="16"/>
-      <c r="Z94" s="16"/>
-      <c r="AA94" s="16"/>
-      <c r="AB94" s="17"/>
+      <c r="W94" s="139"/>
+      <c r="X94" s="139"/>
+      <c r="Y94" s="139"/>
+      <c r="Z94" s="139"/>
+      <c r="AA94" s="139"/>
+      <c r="AB94" s="139"/>
     </row>
     <row r="95" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="53" t="s">
+      <c r="B95" s="60" t="s">
         <v>311</v>
       </c>
-      <c r="C95" s="54"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="54"/>
-      <c r="F95" s="54"/>
-      <c r="G95" s="55"/>
+      <c r="C95" s="61"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="61"/>
+      <c r="G95" s="62"/>
       <c r="H95" s="11"/>
-      <c r="I95" s="53" t="s">
-        <v>312</v>
-      </c>
-      <c r="J95" s="54"/>
-      <c r="K95" s="55"/>
-      <c r="L95" s="135" t="s">
-        <v>313</v>
-      </c>
-      <c r="M95" s="54"/>
-      <c r="N95" s="55"/>
-      <c r="P95" s="132" t="s">
+      <c r="I95" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="Q95" s="133"/>
-      <c r="R95" s="134"/>
-      <c r="S95" s="53" t="s">
+      <c r="J95" s="23"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="60" t="s">
         <v>315</v>
       </c>
-      <c r="T95" s="54"/>
-      <c r="U95" s="55"/>
+      <c r="M95" s="61"/>
+      <c r="N95" s="62"/>
+      <c r="P95" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q95" s="61"/>
+      <c r="R95" s="61"/>
+      <c r="S95" s="61"/>
+      <c r="T95" s="61"/>
+      <c r="U95" s="62"/>
       <c r="V95" s="11"/>
-      <c r="W95" s="53" t="s">
+    </row>
+    <row r="97" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B97" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="98" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="C98" s="62"/>
+      <c r="D98" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="62"/>
+      <c r="F98" s="60" t="s">
+        <v>305</v>
+      </c>
+      <c r="G98" s="62"/>
+      <c r="I98" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="J98" s="62"/>
+      <c r="K98" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="L98" s="62"/>
+      <c r="M98" s="60" t="s">
+        <v>305</v>
+      </c>
+      <c r="N98" s="62"/>
+    </row>
+    <row r="99" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="62"/>
+      <c r="D99" s="60" t="s">
+        <v>308</v>
+      </c>
+      <c r="E99" s="62"/>
+      <c r="F99" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G99" s="62"/>
+      <c r="I99" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J99" s="62"/>
+      <c r="K99" s="60" t="s">
+        <v>308</v>
+      </c>
+      <c r="L99" s="62"/>
+      <c r="M99" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="N99" s="62"/>
+    </row>
+    <row r="100" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="69" t="s">
+        <v>309</v>
+      </c>
+      <c r="C100" s="71"/>
+      <c r="D100" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="71"/>
+      <c r="F100" s="69" t="s">
+        <v>310</v>
+      </c>
+      <c r="G100" s="71"/>
+      <c r="I100" s="60" t="s">
+        <v>309</v>
+      </c>
+      <c r="J100" s="62"/>
+      <c r="K100" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="L100" s="62"/>
+      <c r="M100" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="N100" s="62"/>
+      <c r="P100" s="152"/>
+      <c r="Q100" s="152"/>
+      <c r="R100" s="152"/>
+      <c r="S100" s="152"/>
+      <c r="T100" s="152"/>
+      <c r="U100" s="152"/>
+      <c r="V100" s="152"/>
+      <c r="W100" s="152"/>
+      <c r="X100" s="152"/>
+      <c r="Y100" s="152"/>
+      <c r="Z100" s="152"/>
+      <c r="AA100" s="152"/>
+      <c r="AB100" s="152"/>
+    </row>
+    <row r="101" spans="2:32" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="19"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="18"/>
+      <c r="P101" s="139"/>
+      <c r="Q101" s="139"/>
+      <c r="R101" s="139"/>
+      <c r="S101" s="139"/>
+      <c r="T101" s="139"/>
+      <c r="U101" s="139"/>
+      <c r="W101" s="139"/>
+      <c r="X101" s="139"/>
+      <c r="Y101" s="139"/>
+      <c r="Z101" s="139"/>
+      <c r="AA101" s="139"/>
+      <c r="AB101" s="139"/>
+    </row>
+    <row r="102" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="C102" s="61"/>
+      <c r="D102" s="61"/>
+      <c r="E102" s="61"/>
+      <c r="F102" s="61"/>
+      <c r="G102" s="62"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="60" t="s">
         <v>316</v>
       </c>
-      <c r="X95" s="54"/>
-      <c r="Y95" s="54"/>
-      <c r="Z95" s="54"/>
-      <c r="AA95" s="54"/>
-      <c r="AB95" s="55"/>
-    </row>
-    <row r="97" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B97" s="10" t="s">
+      <c r="J102" s="61"/>
+      <c r="K102" s="61"/>
+      <c r="L102" s="61"/>
+      <c r="M102" s="61"/>
+      <c r="N102" s="62"/>
+      <c r="P102" s="11"/>
+      <c r="Q102" s="11"/>
+      <c r="R102" s="11"/>
+      <c r="S102" s="11"/>
+      <c r="T102" s="11"/>
+      <c r="U102" s="11"/>
+      <c r="V102" s="11"/>
+      <c r="W102" s="140"/>
+      <c r="X102" s="140"/>
+      <c r="Y102" s="140"/>
+      <c r="Z102" s="140"/>
+      <c r="AA102" s="140"/>
+      <c r="AB102" s="140"/>
+    </row>
+    <row r="104" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B104" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="105" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="69" t="s">
+        <v>320</v>
+      </c>
+      <c r="C105" s="70"/>
+      <c r="D105" s="70"/>
+      <c r="E105" s="71"/>
+      <c r="F105" s="69" t="s">
+        <v>322</v>
+      </c>
+      <c r="G105" s="70"/>
+      <c r="H105" s="70"/>
+      <c r="I105" s="71"/>
+      <c r="K105" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="L105" s="62"/>
+      <c r="M105" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="N105" s="62"/>
+      <c r="O105" s="60" t="s">
+        <v>305</v>
+      </c>
+      <c r="P105" s="62"/>
+      <c r="Q105" s="11"/>
+      <c r="R105" s="133" t="s">
+        <v>324</v>
+      </c>
+      <c r="S105" s="70"/>
+      <c r="T105" s="70"/>
+      <c r="U105" s="71"/>
+      <c r="V105" s="63" t="s">
+        <v>325</v>
+      </c>
+      <c r="W105" s="64"/>
+      <c r="X105" s="64"/>
+      <c r="Y105" s="65"/>
+      <c r="AA105" s="11"/>
+      <c r="AB105" s="11"/>
+      <c r="AC105" s="11"/>
+      <c r="AD105" s="11"/>
+      <c r="AE105" s="11"/>
+      <c r="AF105" s="11"/>
+    </row>
+    <row r="106" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="72"/>
+      <c r="C106" s="73"/>
+      <c r="D106" s="73"/>
+      <c r="E106" s="74"/>
+      <c r="F106" s="72"/>
+      <c r="G106" s="73"/>
+      <c r="H106" s="73"/>
+      <c r="I106" s="74"/>
+      <c r="K106" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="L106" s="62"/>
+      <c r="M106" s="60" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="98" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="56" t="s">
+      <c r="N106" s="62"/>
+      <c r="O106" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P106" s="62"/>
+      <c r="Q106" s="11"/>
+      <c r="R106" s="72"/>
+      <c r="S106" s="73"/>
+      <c r="T106" s="73"/>
+      <c r="U106" s="74"/>
+      <c r="V106" s="66"/>
+      <c r="W106" s="67"/>
+      <c r="X106" s="67"/>
+      <c r="Y106" s="68"/>
+      <c r="AA106" s="11"/>
+      <c r="AB106" s="11"/>
+      <c r="AC106" s="11"/>
+      <c r="AD106" s="11"/>
+      <c r="AE106" s="11"/>
+      <c r="AF106" s="11"/>
+    </row>
+    <row r="107" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="133" t="s">
         <v>321</v>
       </c>
-      <c r="C98" s="70"/>
-      <c r="D98" s="70"/>
-      <c r="E98" s="57"/>
-      <c r="F98" s="56" t="s">
+      <c r="C107" s="134"/>
+      <c r="D107" s="134"/>
+      <c r="E107" s="135"/>
+      <c r="F107" s="69" t="s">
+        <v>319</v>
+      </c>
+      <c r="G107" s="70"/>
+      <c r="H107" s="70"/>
+      <c r="I107" s="71"/>
+      <c r="K107" s="60" t="s">
+        <v>309</v>
+      </c>
+      <c r="L107" s="62"/>
+      <c r="M107" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="N107" s="62"/>
+      <c r="O107" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="P107" s="62"/>
+      <c r="Q107" s="11"/>
+      <c r="R107" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="S107" s="70"/>
+      <c r="T107" s="70"/>
+      <c r="U107" s="70"/>
+      <c r="V107" s="70"/>
+      <c r="W107" s="70"/>
+      <c r="X107" s="70"/>
+      <c r="Y107" s="71"/>
+      <c r="AA107" s="11"/>
+      <c r="AB107" s="11"/>
+      <c r="AC107" s="11"/>
+      <c r="AD107" s="11"/>
+      <c r="AE107" s="11"/>
+      <c r="AF107" s="11"/>
+    </row>
+    <row r="108" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="136"/>
+      <c r="C108" s="137"/>
+      <c r="D108" s="137"/>
+      <c r="E108" s="138"/>
+      <c r="F108" s="72"/>
+      <c r="G108" s="73"/>
+      <c r="H108" s="73"/>
+      <c r="I108" s="74"/>
+      <c r="K108" s="60" t="s">
         <v>323</v>
       </c>
-      <c r="G98" s="70"/>
-      <c r="H98" s="70"/>
-      <c r="I98" s="57"/>
-      <c r="K98" s="53" t="s">
-        <v>304</v>
-      </c>
-      <c r="L98" s="55"/>
-      <c r="M98" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="N98" s="55"/>
-      <c r="O98" s="53" t="s">
-        <v>305</v>
-      </c>
-      <c r="P98" s="55"/>
-      <c r="Q98" s="11"/>
-      <c r="R98" s="74" t="s">
-        <v>325</v>
-      </c>
-      <c r="S98" s="70"/>
-      <c r="T98" s="70"/>
-      <c r="U98" s="57"/>
-      <c r="V98" s="120" t="s">
-        <v>326</v>
-      </c>
-      <c r="W98" s="121"/>
-      <c r="X98" s="121"/>
-      <c r="Y98" s="122"/>
-      <c r="AA98" s="11"/>
-      <c r="AB98" s="11"/>
-      <c r="AC98" s="11"/>
-      <c r="AD98" s="11"/>
-      <c r="AE98" s="11"/>
-      <c r="AF98" s="11"/>
-    </row>
-    <row r="99" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="71"/>
-      <c r="C99" s="72"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="73"/>
-      <c r="F99" s="71"/>
-      <c r="G99" s="72"/>
-      <c r="H99" s="72"/>
-      <c r="I99" s="73"/>
-      <c r="K99" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="L99" s="55"/>
-      <c r="M99" s="53" t="s">
-        <v>319</v>
-      </c>
-      <c r="N99" s="55"/>
-      <c r="O99" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="P99" s="55"/>
-      <c r="Q99" s="11"/>
-      <c r="R99" s="71"/>
-      <c r="S99" s="72"/>
-      <c r="T99" s="72"/>
-      <c r="U99" s="73"/>
-      <c r="V99" s="123"/>
-      <c r="W99" s="124"/>
-      <c r="X99" s="124"/>
-      <c r="Y99" s="125"/>
-      <c r="AA99" s="11"/>
-      <c r="AB99" s="11"/>
-      <c r="AC99" s="11"/>
-      <c r="AD99" s="11"/>
-      <c r="AE99" s="11"/>
-      <c r="AF99" s="11"/>
-    </row>
-    <row r="100" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="74" t="s">
-        <v>322</v>
-      </c>
-      <c r="C100" s="75"/>
-      <c r="D100" s="75"/>
-      <c r="E100" s="76"/>
-      <c r="F100" s="56" t="s">
-        <v>320</v>
-      </c>
-      <c r="G100" s="70"/>
-      <c r="H100" s="70"/>
-      <c r="I100" s="57"/>
-      <c r="K100" s="53" t="s">
-        <v>309</v>
-      </c>
-      <c r="L100" s="55"/>
-      <c r="M100" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="N100" s="55"/>
-      <c r="O100" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="P100" s="55"/>
-      <c r="Q100" s="11"/>
-      <c r="R100" s="56" t="s">
-        <v>303</v>
-      </c>
-      <c r="S100" s="70"/>
-      <c r="T100" s="70"/>
-      <c r="U100" s="70"/>
-      <c r="V100" s="70"/>
-      <c r="W100" s="70"/>
-      <c r="X100" s="70"/>
-      <c r="Y100" s="57"/>
-      <c r="AA100" s="11"/>
-      <c r="AB100" s="11"/>
-      <c r="AC100" s="11"/>
-      <c r="AD100" s="11"/>
-      <c r="AE100" s="11"/>
-      <c r="AF100" s="11"/>
-    </row>
-    <row r="101" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="77"/>
-      <c r="C101" s="78"/>
-      <c r="D101" s="78"/>
-      <c r="E101" s="79"/>
-      <c r="F101" s="71"/>
-      <c r="G101" s="72"/>
-      <c r="H101" s="72"/>
-      <c r="I101" s="73"/>
-      <c r="K101" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="L101" s="54"/>
-      <c r="M101" s="54"/>
-      <c r="N101" s="54"/>
-      <c r="O101" s="54"/>
-      <c r="P101" s="55"/>
-      <c r="Q101" s="11"/>
-      <c r="R101" s="71"/>
-      <c r="S101" s="72"/>
-      <c r="T101" s="72"/>
-      <c r="U101" s="72"/>
-      <c r="V101" s="72"/>
-      <c r="W101" s="72"/>
-      <c r="X101" s="72"/>
-      <c r="Y101" s="73"/>
-      <c r="AA101" s="11"/>
-      <c r="AB101" s="11"/>
-      <c r="AC101" s="11"/>
-      <c r="AD101" s="11"/>
-      <c r="AE101" s="11"/>
-      <c r="AF101" s="11"/>
-    </row>
-    <row r="103" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B103" s="9"/>
-    </row>
-    <row r="105" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B105" s="9"/>
-    </row>
-    <row r="107" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B107" s="9"/>
-    </row>
-    <row r="109" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B109" s="9"/>
-    </row>
-    <row r="111" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B111" s="9"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B113" s="9"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B115" s="9"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B117" s="9"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B119" s="9"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B121" s="9"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B123" s="9"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B125" s="9"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B127" s="9"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B129" s="9"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B131" s="9"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B133" s="9"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B135" s="9"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B137" s="9"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B139" s="9"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B141" s="9"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B143" s="9"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B145" s="9"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B147" s="9"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B149" s="9"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B151" s="9"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B153" s="9"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B155" s="9"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B157" s="9"/>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B159" s="9"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B161" s="9"/>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B163" s="9"/>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B165" s="9"/>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B167" s="9"/>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B169" s="9"/>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B171" s="9"/>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B173" s="9"/>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B175" s="9"/>
+      <c r="L108" s="61"/>
+      <c r="M108" s="61"/>
+      <c r="N108" s="61"/>
+      <c r="O108" s="61"/>
+      <c r="P108" s="62"/>
+      <c r="Q108" s="11"/>
+      <c r="R108" s="72"/>
+      <c r="S108" s="73"/>
+      <c r="T108" s="73"/>
+      <c r="U108" s="73"/>
+      <c r="V108" s="73"/>
+      <c r="W108" s="73"/>
+      <c r="X108" s="73"/>
+      <c r="Y108" s="74"/>
+      <c r="AA108" s="11"/>
+      <c r="AB108" s="11"/>
+      <c r="AC108" s="11"/>
+      <c r="AD108" s="11"/>
+      <c r="AE108" s="11"/>
+      <c r="AF108" s="11"/>
+    </row>
+    <row r="110" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B110" s="9"/>
+    </row>
+    <row r="112" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B112" s="9"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="9"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="9"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="9"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="9"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="9"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="9"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="9"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" s="9"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="9"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="9"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="9"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" s="9"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" s="9"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" s="9"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" s="9"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" s="9"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" s="9"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="9"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" s="9"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" s="9"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" s="9"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" s="9"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" s="9"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" s="9"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" s="9"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" s="9"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166" s="9"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168" s="9"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170" s="9"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B172" s="9"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B174" s="9"/>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B176" s="9"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" s="9"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" s="9"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="I95:K95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="S95:U95"/>
-    <mergeCell ref="V98:Y99"/>
-    <mergeCell ref="R100:Y101"/>
-    <mergeCell ref="P37:AC38"/>
-    <mergeCell ref="W35:AC36"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="R92:S92"/>
-    <mergeCell ref="T92:U92"/>
-    <mergeCell ref="T93:U93"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="R91:S91"/>
-    <mergeCell ref="T91:U91"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="B93:C93"/>
+  <mergeCells count="620">
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="W102:AB102"/>
+    <mergeCell ref="P91:R93"/>
+    <mergeCell ref="S91:U93"/>
+    <mergeCell ref="I102:N102"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="P95:U95"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="K108:P108"/>
+    <mergeCell ref="B105:E106"/>
+    <mergeCell ref="B107:E108"/>
+    <mergeCell ref="F105:I106"/>
+    <mergeCell ref="F107:I108"/>
+    <mergeCell ref="R105:U106"/>
+    <mergeCell ref="K107:L107"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="O107:P107"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="O106:P106"/>
+    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:S20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="V87:W87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:S88"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="V88:W88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="P87:R87"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:S28"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="R32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:S42"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="R54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:S58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="R62:U62"/>
+    <mergeCell ref="V73:W73"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:S74"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="B37:H38"/>
+    <mergeCell ref="I37:O38"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
     <mergeCell ref="D93:E93"/>
     <mergeCell ref="F93:G93"/>
     <mergeCell ref="B35:H36"/>
@@ -7365,575 +8086,21 @@
     <mergeCell ref="V75:W75"/>
     <mergeCell ref="T76:U76"/>
     <mergeCell ref="V76:W76"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="B37:H38"/>
-    <mergeCell ref="I37:O38"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="V68:W68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:S74"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="V74:W74"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="V73:W73"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:S66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="R62:U62"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:S58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="R54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="R32:U32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:S28"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="S87:U87"/>
-    <mergeCell ref="V87:W87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:S88"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="V88:W88"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="P87:R87"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:S20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="K101:P101"/>
-    <mergeCell ref="B98:E99"/>
-    <mergeCell ref="B100:E101"/>
-    <mergeCell ref="F98:I99"/>
-    <mergeCell ref="F100:I101"/>
-    <mergeCell ref="R98:U99"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="O100:P100"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="O99:P99"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="O98:P98"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="W95:AB95"/>
-    <mergeCell ref="R93:S93"/>
-    <mergeCell ref="W91:X91"/>
-    <mergeCell ref="Y91:Z91"/>
-    <mergeCell ref="AA91:AB91"/>
-    <mergeCell ref="W92:X92"/>
-    <mergeCell ref="Y92:Z92"/>
-    <mergeCell ref="AA92:AB92"/>
-    <mergeCell ref="W93:X93"/>
-    <mergeCell ref="Y93:Z93"/>
-    <mergeCell ref="AA93:AB93"/>
-    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="V105:Y106"/>
+    <mergeCell ref="R107:Y108"/>
+    <mergeCell ref="P37:AC38"/>
+    <mergeCell ref="W35:AC36"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="B93:C93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/docs/Keyboard Designs.xlsx
+++ b/docs/Keyboard Designs.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julius\Documents\GitHub\OptiKey\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="396" yWindow="96" windowWidth="16260" windowHeight="5856" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="11610" windowHeight="5850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KEYBOARDS - SpeechOnly" sheetId="6" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="330">
   <si>
     <t>A</t>
   </si>
@@ -1006,6 +1011,9 @@
   </si>
   <si>
     <t>SIZE &amp; OPACITY:</t>
+  </si>
+  <si>
+    <t>MIDDLE CLICK</t>
   </si>
 </sst>
 </file>
@@ -1471,7 +1479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1534,127 +1542,341 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1675,24 +1897,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1711,220 +1915,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1934,6 +1924,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1982,7 +1975,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2017,7 +2010,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2232,52 +2225,52 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="24" width="2.6640625" customWidth="1"/>
-    <col min="25" max="25" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="46" width="8.88671875" customWidth="1"/>
+    <col min="1" max="24" width="2.7109375" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="46" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="53" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="53" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="53" t="s">
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="53" t="s">
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="47" t="s">
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="V3" s="48"/>
+      <c r="V3" s="25"/>
       <c r="Z3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
@@ -2293,38 +2286,38 @@
       <c r="AP3" s="7"/>
       <c r="AQ3" s="7"/>
     </row>
-    <row r="4" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="47" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="56" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="49" t="s">
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="T4" s="50"/>
-      <c r="U4" s="51" t="s">
+      <c r="T4" s="27"/>
+      <c r="U4" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="V4" s="52"/>
+      <c r="V4" s="29"/>
       <c r="Z4" s="4"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
@@ -2340,47 +2333,47 @@
       <c r="AP4" s="7"/>
       <c r="AQ4" s="7"/>
     </row>
-    <row r="5" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="25" t="s">
+    <row r="5" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="29" t="s">
+      <c r="F5" s="55"/>
+      <c r="G5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="29" t="s">
+      <c r="H5" s="55"/>
+      <c r="I5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="29" t="s">
+      <c r="J5" s="55"/>
+      <c r="K5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="30"/>
-      <c r="M5" s="29" t="s">
+      <c r="L5" s="55"/>
+      <c r="M5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="30"/>
-      <c r="O5" s="29" t="s">
+      <c r="N5" s="55"/>
+      <c r="O5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="29" t="s">
+      <c r="P5" s="55"/>
+      <c r="Q5" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="30"/>
-      <c r="S5" s="29" t="s">
+      <c r="R5" s="55"/>
+      <c r="S5" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="30"/>
-      <c r="U5" s="25" t="s">
+      <c r="T5" s="55"/>
+      <c r="U5" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="26"/>
+      <c r="V5" s="57"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Z5" s="7"/>
@@ -2401,48 +2394,48 @@
       <c r="AS5" s="7"/>
       <c r="AT5" s="7"/>
     </row>
-    <row r="6" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="27" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="25" t="s">
+      <c r="E6" s="47"/>
+      <c r="F6" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="25" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="25" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="25" t="s">
+      <c r="K6" s="47"/>
+      <c r="L6" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="28"/>
-      <c r="N6" s="25" t="s">
+      <c r="M6" s="47"/>
+      <c r="N6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="28"/>
-      <c r="P6" s="25" t="s">
+      <c r="O6" s="47"/>
+      <c r="P6" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="25" t="s">
+      <c r="Q6" s="47"/>
+      <c r="R6" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="28"/>
-      <c r="T6" s="25" t="s">
+      <c r="S6" s="47"/>
+      <c r="T6" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="28"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
       <c r="X6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
@@ -2460,48 +2453,48 @@
       <c r="AQ6" s="7"/>
       <c r="AR6" s="7"/>
     </row>
-    <row r="7" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="31" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31" t="s">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31" t="s">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31" t="s">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31" t="s">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31" t="s">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31" t="s">
+      <c r="O7" s="38"/>
+      <c r="P7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="32" t="s">
+      <c r="Q7" s="38"/>
+      <c r="R7" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="S7" s="32"/>
-      <c r="T7" s="34" t="s">
+      <c r="S7" s="56"/>
+      <c r="T7" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="35"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
       <c r="X7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -2517,40 +2510,40 @@
       <c r="AN7" s="7"/>
       <c r="AO7" s="7"/>
     </row>
-    <row r="8" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="25" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="44" t="s">
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="45"/>
-      <c r="J8" s="44" t="s">
+      <c r="I8" s="52"/>
+      <c r="J8" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="44" t="s">
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="45"/>
-      <c r="P8" s="36" t="s">
+      <c r="O8" s="52"/>
+      <c r="P8" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="34" t="s">
+      <c r="Q8" s="42"/>
+      <c r="R8" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="35"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="40"/>
       <c r="X8" s="7"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
@@ -2567,7 +2560,7 @@
       <c r="AR8" s="7"/>
       <c r="AS8" s="7"/>
     </row>
-    <row r="9" spans="1:46" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -2600,17 +2593,29 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="G4:R4"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="S5:T5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="T7:U7"/>
@@ -2627,29 +2632,17 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="G4:R4"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2660,67 +2653,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AW182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="Z99" sqref="Z99"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="V105" sqref="V105:Y106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="32" width="2.6640625" customWidth="1"/>
-    <col min="33" max="49" width="8.88671875" customWidth="1"/>
+    <col min="1" max="32" width="2.7109375" customWidth="1"/>
+    <col min="33" max="49" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="53" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="53" t="s">
+      <c r="H3" s="31"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="53" t="s">
+      <c r="K3" s="31"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="53" t="s">
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="53" t="s">
+      <c r="Q3" s="31"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="T3" s="54"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="47" t="s">
+      <c r="T3" s="31"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="W3" s="48"/>
-      <c r="Z3" s="130" t="s">
+      <c r="W3" s="25"/>
+      <c r="Z3" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="131"/>
-      <c r="AB3" s="131"/>
-      <c r="AC3" s="132"/>
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="88"/>
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
@@ -2735,46 +2728,46 @@
       <c r="AS3" s="5"/>
       <c r="AT3" s="5"/>
     </row>
-    <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="115" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="92" t="s">
+      <c r="C4" s="116"/>
+      <c r="D4" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="93"/>
-      <c r="F4" s="56" t="s">
+      <c r="E4" s="118"/>
+      <c r="F4" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="95" t="s">
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="U4" s="96"/>
-      <c r="V4" s="97" t="s">
+      <c r="U4" s="103"/>
+      <c r="V4" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="W4" s="98"/>
-      <c r="Z4" s="122" t="s">
+      <c r="W4" s="105"/>
+      <c r="Z4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="121"/>
-      <c r="AB4" s="121"/>
-      <c r="AC4" s="123"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="79"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
@@ -2789,55 +2782,55 @@
       <c r="AS4" s="5"/>
       <c r="AT4" s="5"/>
     </row>
-    <row r="5" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="29" t="s">
+    <row r="5" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="29" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="29" t="s">
+      <c r="F5" s="55"/>
+      <c r="G5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="29" t="s">
+      <c r="H5" s="55"/>
+      <c r="I5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="29" t="s">
+      <c r="J5" s="55"/>
+      <c r="K5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="30"/>
-      <c r="M5" s="29" t="s">
+      <c r="L5" s="55"/>
+      <c r="M5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="30"/>
-      <c r="O5" s="29" t="s">
+      <c r="N5" s="55"/>
+      <c r="O5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="29" t="s">
+      <c r="P5" s="55"/>
+      <c r="Q5" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="30"/>
-      <c r="S5" s="29" t="s">
+      <c r="R5" s="55"/>
+      <c r="S5" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="30"/>
-      <c r="U5" s="29" t="s">
+      <c r="T5" s="55"/>
+      <c r="U5" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="30"/>
+      <c r="V5" s="55"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
-      <c r="Z5" s="124" t="s">
+      <c r="Z5" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="AA5" s="125"/>
-      <c r="AB5" s="125"/>
-      <c r="AC5" s="126"/>
+      <c r="AA5" s="81"/>
+      <c r="AB5" s="81"/>
+      <c r="AC5" s="82"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
@@ -2855,58 +2848,58 @@
       <c r="AV5" s="5"/>
       <c r="AW5" s="5"/>
     </row>
-    <row r="6" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="130"/>
+      <c r="D6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31" t="s">
+      <c r="E6" s="38"/>
+      <c r="F6" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31" t="s">
+      <c r="G6" s="38"/>
+      <c r="H6" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31" t="s">
+      <c r="I6" s="38"/>
+      <c r="J6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31" t="s">
+      <c r="K6" s="38"/>
+      <c r="L6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31" t="s">
+      <c r="M6" s="38"/>
+      <c r="N6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31" t="s">
+      <c r="O6" s="38"/>
+      <c r="P6" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31" t="s">
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31" t="s">
+      <c r="S6" s="38"/>
+      <c r="T6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="31"/>
-      <c r="V6" s="44" t="s">
+      <c r="U6" s="38"/>
+      <c r="V6" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="W6" s="45"/>
-      <c r="Z6" s="127" t="s">
+      <c r="W6" s="52"/>
+      <c r="Z6" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="AA6" s="128"/>
-      <c r="AB6" s="128"/>
-      <c r="AC6" s="129"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="85"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
@@ -2924,52 +2917,52 @@
       <c r="AV6" s="5"/>
       <c r="AW6" s="5"/>
     </row>
-    <row r="7" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31" t="s">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31" t="s">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31" t="s">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31" t="s">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31" t="s">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31" t="s">
+      <c r="O7" s="38"/>
+      <c r="P7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="32" t="s">
+      <c r="Q7" s="38"/>
+      <c r="R7" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="S7" s="32"/>
-      <c r="T7" s="34" t="s">
+      <c r="S7" s="56"/>
+      <c r="T7" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="35"/>
-      <c r="V7" s="34" t="s">
+      <c r="U7" s="40"/>
+      <c r="V7" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="W7" s="35"/>
+      <c r="W7" s="40"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="8"/>
       <c r="AH7" s="5"/>
@@ -2986,48 +2979,48 @@
       <c r="AS7" s="5"/>
       <c r="AT7" s="5"/>
     </row>
-    <row r="8" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83" t="s">
+      <c r="C8" s="120"/>
+      <c r="D8" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83" t="s">
+      <c r="E8" s="120"/>
+      <c r="F8" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="44" t="s">
+      <c r="G8" s="120"/>
+      <c r="H8" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="45"/>
-      <c r="J8" s="44" t="s">
+      <c r="I8" s="52"/>
+      <c r="J8" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="44" t="s">
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="45"/>
-      <c r="P8" s="36" t="s">
+      <c r="O8" s="52"/>
+      <c r="P8" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="34" t="s">
+      <c r="Q8" s="42"/>
+      <c r="R8" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="34" t="s">
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="W8" s="35"/>
+      <c r="W8" s="40"/>
       <c r="X8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="8"/>
@@ -3046,7 +3039,7 @@
       <c r="AU8" s="5"/>
       <c r="AV8" s="5"/>
     </row>
-    <row r="9" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3080,51 +3073,51 @@
       <c r="AV9" s="5"/>
       <c r="AW9" s="5"/>
     </row>
-    <row r="10" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="53" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="53" t="s">
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="53" t="s">
+      <c r="H11" s="31"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="K11" s="54"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="53" t="s">
+      <c r="K11" s="31"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="N11" s="54"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="53" t="s">
+      <c r="N11" s="31"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="53" t="s">
+      <c r="Q11" s="31"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="T11" s="54"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="47" t="s">
+      <c r="T11" s="31"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="W11" s="48"/>
+      <c r="W11" s="25"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="8"/>
       <c r="AH11" s="5"/>
@@ -3143,40 +3136,40 @@
       <c r="AU11" s="5"/>
       <c r="AV11" s="5"/>
     </row>
-    <row r="12" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="115" t="s">
         <v>206</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="92" t="s">
+      <c r="C12" s="116"/>
+      <c r="D12" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="93"/>
-      <c r="F12" s="56" t="s">
+      <c r="E12" s="118"/>
+      <c r="F12" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="95" t="s">
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="119"/>
+      <c r="T12" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="U12" s="96"/>
-      <c r="V12" s="97" t="s">
+      <c r="U12" s="103"/>
+      <c r="V12" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="W12" s="98"/>
+      <c r="W12" s="105"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="8"/>
       <c r="AH12" s="5"/>
@@ -3195,51 +3188,51 @@
       <c r="AU12" s="5"/>
       <c r="AV12" s="5"/>
     </row>
-    <row r="13" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="114">
+    <row r="13" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="111">
         <v>1</v>
       </c>
-      <c r="C13" s="115"/>
-      <c r="D13" s="114">
+      <c r="C13" s="112"/>
+      <c r="D13" s="111">
         <v>2</v>
       </c>
-      <c r="E13" s="115"/>
-      <c r="F13" s="29">
+      <c r="E13" s="112"/>
+      <c r="F13" s="54">
         <v>3</v>
       </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="116">
+      <c r="G13" s="55"/>
+      <c r="H13" s="113">
         <v>4</v>
       </c>
-      <c r="I13" s="117"/>
-      <c r="J13" s="29">
+      <c r="I13" s="114"/>
+      <c r="J13" s="54">
         <v>5</v>
       </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="29">
+      <c r="K13" s="55"/>
+      <c r="L13" s="54">
         <v>6</v>
       </c>
-      <c r="M13" s="30"/>
-      <c r="N13" s="29">
+      <c r="M13" s="55"/>
+      <c r="N13" s="54">
         <v>7</v>
       </c>
-      <c r="O13" s="30"/>
-      <c r="P13" s="29">
+      <c r="O13" s="55"/>
+      <c r="P13" s="54">
         <v>8</v>
       </c>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="29">
+      <c r="Q13" s="55"/>
+      <c r="R13" s="54">
         <v>9</v>
       </c>
-      <c r="S13" s="30"/>
-      <c r="T13" s="29">
+      <c r="S13" s="55"/>
+      <c r="T13" s="54">
         <v>0</v>
       </c>
-      <c r="U13" s="30"/>
-      <c r="V13" s="31" t="s">
+      <c r="U13" s="55"/>
+      <c r="V13" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="W13" s="31"/>
+      <c r="W13" s="38"/>
       <c r="X13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="8"/>
@@ -3260,52 +3253,52 @@
       <c r="AV13" s="5"/>
       <c r="AW13" s="5"/>
     </row>
-    <row r="14" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="105" t="s">
+      <c r="C14" s="128"/>
+      <c r="D14" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="106"/>
-      <c r="F14" s="107" t="s">
+      <c r="E14" s="128"/>
+      <c r="F14" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="107"/>
-      <c r="H14" s="108" t="s">
+      <c r="G14" s="123"/>
+      <c r="H14" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107" t="s">
+      <c r="I14" s="123"/>
+      <c r="J14" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107" t="s">
+      <c r="K14" s="123"/>
+      <c r="L14" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="107"/>
-      <c r="N14" s="102" t="s">
+      <c r="M14" s="123"/>
+      <c r="N14" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="O14" s="103"/>
-      <c r="P14" s="102" t="s">
+      <c r="O14" s="125"/>
+      <c r="P14" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="102" t="s">
+      <c r="Q14" s="125"/>
+      <c r="R14" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="S14" s="103"/>
-      <c r="T14" s="102" t="s">
+      <c r="S14" s="125"/>
+      <c r="T14" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="U14" s="103"/>
-      <c r="V14" s="104" t="s">
+      <c r="U14" s="125"/>
+      <c r="V14" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="W14" s="104"/>
+      <c r="W14" s="126"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AH14" s="5"/>
@@ -3325,52 +3318,52 @@
       <c r="AV14" s="5"/>
       <c r="AW14" s="5"/>
     </row>
-    <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="38"/>
+      <c r="D15" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31" t="s">
+      <c r="E15" s="38"/>
+      <c r="F15" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31" t="s">
+      <c r="G15" s="38"/>
+      <c r="H15" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="109" t="s">
+      <c r="I15" s="38"/>
+      <c r="J15" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="31"/>
-      <c r="L15" s="109" t="s">
+      <c r="K15" s="38"/>
+      <c r="L15" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="31"/>
-      <c r="N15" s="109" t="s">
+      <c r="M15" s="38"/>
+      <c r="N15" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31" t="s">
+      <c r="O15" s="38"/>
+      <c r="P15" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="32" t="s">
+      <c r="Q15" s="38"/>
+      <c r="R15" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32" t="s">
+      <c r="S15" s="56"/>
+      <c r="T15" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32" t="s">
+      <c r="U15" s="56"/>
+      <c r="V15" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="W15" s="32"/>
+      <c r="W15" s="56"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
@@ -3395,48 +3388,48 @@
       <c r="AU15" s="5"/>
       <c r="AV15" s="5"/>
     </row>
-    <row r="16" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83" t="s">
+      <c r="C16" s="120"/>
+      <c r="D16" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83" t="s">
+      <c r="E16" s="120"/>
+      <c r="F16" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="83"/>
-      <c r="H16" s="88" t="s">
+      <c r="G16" s="120"/>
+      <c r="H16" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="88"/>
-      <c r="J16" s="44" t="s">
+      <c r="I16" s="121"/>
+      <c r="J16" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="44" t="s">
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="45"/>
-      <c r="P16" s="81" t="s">
+      <c r="O16" s="52"/>
+      <c r="P16" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="34" t="s">
+      <c r="Q16" s="107"/>
+      <c r="R16" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="34" t="s">
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="W16" s="35"/>
+      <c r="W16" s="40"/>
       <c r="X16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="8"/>
@@ -3456,7 +3449,7 @@
       <c r="AU16" s="5"/>
       <c r="AV16" s="5"/>
     </row>
-    <row r="17" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -3496,51 +3489,51 @@
       <c r="AV17" s="5"/>
       <c r="AW17" s="5"/>
     </row>
-    <row r="18" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="53" t="s">
+      <c r="C19" s="25"/>
+      <c r="D19" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="53" t="s">
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="54"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="53" t="s">
+      <c r="H19" s="31"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="K19" s="54"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="53" t="s">
+      <c r="K19" s="31"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="N19" s="54"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="53" t="s">
+      <c r="N19" s="31"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="53" t="s">
+      <c r="Q19" s="31"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="T19" s="54"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="47" t="s">
+      <c r="T19" s="31"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="W19" s="48"/>
+      <c r="W19" s="25"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="8"/>
@@ -3566,40 +3559,40 @@
       <c r="AU19" s="5"/>
       <c r="AV19" s="5"/>
     </row>
-    <row r="20" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="115" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="92" t="s">
+      <c r="C20" s="116"/>
+      <c r="D20" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="93"/>
-      <c r="F20" s="56" t="s">
+      <c r="E20" s="118"/>
+      <c r="F20" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="94"/>
-      <c r="T20" s="95" t="s">
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="119"/>
+      <c r="T20" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="U20" s="96"/>
-      <c r="V20" s="97" t="s">
+      <c r="U20" s="103"/>
+      <c r="V20" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="W20" s="98"/>
+      <c r="W20" s="105"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="8"/>
@@ -3625,103 +3618,103 @@
       <c r="AU20" s="5"/>
       <c r="AV20" s="5"/>
     </row>
-    <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="25" t="s">
+    <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="25" t="s">
+      <c r="C21" s="47"/>
+      <c r="D21" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="25" t="s">
+      <c r="E21" s="47"/>
+      <c r="F21" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="99" t="s">
+      <c r="G21" s="47"/>
+      <c r="H21" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="100"/>
-      <c r="J21" s="25" t="s">
+      <c r="I21" s="110"/>
+      <c r="J21" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="K21" s="28"/>
-      <c r="L21" s="99" t="s">
+      <c r="K21" s="47"/>
+      <c r="L21" s="109" t="s">
         <v>127</v>
       </c>
-      <c r="M21" s="100"/>
-      <c r="N21" s="25" t="s">
+      <c r="M21" s="110"/>
+      <c r="N21" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="O21" s="28"/>
-      <c r="P21" s="25" t="s">
+      <c r="O21" s="47"/>
+      <c r="P21" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="25" t="s">
+      <c r="Q21" s="47"/>
+      <c r="R21" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="S21" s="28"/>
-      <c r="T21" s="25" t="s">
+      <c r="S21" s="47"/>
+      <c r="T21" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="U21" s="28"/>
-      <c r="V21" s="31" t="s">
+      <c r="U21" s="47"/>
+      <c r="V21" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="W21" s="31"/>
+      <c r="W21" s="38"/>
       <c r="X21" s="5"/>
       <c r="AT21" s="5"/>
       <c r="AU21" s="5"/>
       <c r="AV21" s="5"/>
       <c r="AW21" s="5"/>
     </row>
-    <row r="22" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31" t="s">
+      <c r="C22" s="38"/>
+      <c r="D22" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31" t="s">
+      <c r="E22" s="38"/>
+      <c r="F22" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31" t="s">
+      <c r="G22" s="38"/>
+      <c r="H22" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31" t="s">
+      <c r="I22" s="38"/>
+      <c r="J22" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31" t="s">
+      <c r="K22" s="38"/>
+      <c r="L22" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="M22" s="31"/>
-      <c r="N22" s="89" t="s">
+      <c r="M22" s="38"/>
+      <c r="N22" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="O22" s="89"/>
-      <c r="P22" s="31" t="s">
+      <c r="O22" s="122"/>
+      <c r="P22" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31" t="s">
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31" t="s">
+      <c r="S22" s="38"/>
+      <c r="T22" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="U22" s="31"/>
-      <c r="V22" s="88" t="s">
+      <c r="U22" s="38"/>
+      <c r="V22" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="W22" s="88"/>
+      <c r="W22" s="121"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
@@ -3740,52 +3733,52 @@
       <c r="AP22" s="5"/>
       <c r="AQ22" s="5"/>
     </row>
-    <row r="23" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31" t="s">
+      <c r="C23" s="38"/>
+      <c r="D23" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="25" t="s">
+      <c r="E23" s="38"/>
+      <c r="F23" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="25" t="s">
+      <c r="G23" s="47"/>
+      <c r="H23" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="31" t="s">
+      <c r="I23" s="47"/>
+      <c r="J23" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31" t="s">
+      <c r="K23" s="38"/>
+      <c r="L23" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31" t="s">
+      <c r="M23" s="38"/>
+      <c r="N23" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31" t="s">
+      <c r="O23" s="38"/>
+      <c r="P23" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="32" t="s">
+      <c r="Q23" s="38"/>
+      <c r="R23" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32" t="s">
+      <c r="S23" s="56"/>
+      <c r="T23" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32" t="s">
+      <c r="U23" s="56"/>
+      <c r="V23" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="W23" s="32"/>
+      <c r="W23" s="56"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="8"/>
@@ -3807,48 +3800,48 @@
       <c r="AQ23" s="5"/>
       <c r="AR23" s="5"/>
     </row>
-    <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83" t="s">
+      <c r="C24" s="120"/>
+      <c r="D24" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83" t="s">
+      <c r="E24" s="120"/>
+      <c r="F24" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="83"/>
-      <c r="H24" s="89" t="s">
+      <c r="G24" s="120"/>
+      <c r="H24" s="122" t="s">
         <v>132</v>
       </c>
-      <c r="I24" s="89"/>
-      <c r="J24" s="44" t="s">
+      <c r="I24" s="122"/>
+      <c r="J24" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="89" t="s">
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="122" t="s">
         <v>133</v>
       </c>
-      <c r="O24" s="89"/>
-      <c r="P24" s="31" t="s">
+      <c r="O24" s="122"/>
+      <c r="P24" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="34" t="s">
+      <c r="Q24" s="38"/>
+      <c r="R24" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="34" t="s">
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="W24" s="35"/>
+      <c r="W24" s="40"/>
       <c r="X24" s="5"/>
       <c r="AE24" s="8"/>
       <c r="AF24" s="8"/>
@@ -3865,7 +3858,7 @@
       <c r="AQ24" s="5"/>
       <c r="AR24" s="5"/>
     </row>
-    <row r="25" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -3905,51 +3898,51 @@
       <c r="AV25" s="5"/>
       <c r="AW25" s="5"/>
     </row>
-    <row r="26" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="53" t="s">
+      <c r="C27" s="25"/>
+      <c r="D27" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="53" t="s">
+      <c r="E27" s="31"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="H27" s="54"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="53" t="s">
+      <c r="H27" s="31"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="K27" s="54"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="53" t="s">
+      <c r="K27" s="31"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="N27" s="54"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="53" t="s">
+      <c r="N27" s="31"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="53" t="s">
+      <c r="Q27" s="31"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="T27" s="54"/>
-      <c r="U27" s="55"/>
-      <c r="V27" s="47" t="s">
+      <c r="T27" s="31"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="W27" s="48"/>
+      <c r="W27" s="25"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="8"/>
@@ -3975,40 +3968,40 @@
       <c r="AU27" s="6"/>
       <c r="AV27" s="6"/>
     </row>
-    <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="85" t="s">
+      <c r="B28" s="115" t="s">
         <v>206</v>
       </c>
-      <c r="C28" s="86"/>
-      <c r="D28" s="92" t="s">
+      <c r="C28" s="116"/>
+      <c r="D28" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="93"/>
-      <c r="F28" s="56" t="s">
+      <c r="E28" s="118"/>
+      <c r="F28" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="95" t="s">
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="119"/>
+      <c r="T28" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="U28" s="96"/>
-      <c r="V28" s="97" t="s">
+      <c r="U28" s="103"/>
+      <c r="V28" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="W28" s="98"/>
+      <c r="W28" s="105"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="8"/>
@@ -4034,103 +4027,103 @@
       <c r="AU28" s="6"/>
       <c r="AV28" s="6"/>
     </row>
-    <row r="29" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="29" t="s">
+    <row r="29" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="29" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="29" t="s">
+      <c r="E29" s="55"/>
+      <c r="F29" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="90" t="s">
+      <c r="G29" s="55"/>
+      <c r="H29" s="131" t="s">
         <v>146</v>
       </c>
-      <c r="I29" s="91"/>
-      <c r="J29" s="29" t="s">
+      <c r="I29" s="132"/>
+      <c r="J29" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="K29" s="30"/>
-      <c r="L29" s="90" t="s">
+      <c r="K29" s="55"/>
+      <c r="L29" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="M29" s="91"/>
-      <c r="N29" s="29" t="s">
+      <c r="M29" s="132"/>
+      <c r="N29" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="O29" s="30"/>
-      <c r="P29" s="29" t="s">
+      <c r="O29" s="55"/>
+      <c r="P29" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="29" t="s">
+      <c r="Q29" s="55"/>
+      <c r="R29" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="S29" s="30"/>
-      <c r="T29" s="29" t="s">
+      <c r="S29" s="55"/>
+      <c r="T29" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="U29" s="30"/>
-      <c r="V29" s="29" t="s">
+      <c r="U29" s="55"/>
+      <c r="V29" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="W29" s="30"/>
+      <c r="W29" s="55"/>
       <c r="X29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
       <c r="AV29" s="6"/>
       <c r="AW29" s="6"/>
     </row>
-    <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="25" t="s">
+      <c r="C30" s="47"/>
+      <c r="D30" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="25" t="s">
+      <c r="E30" s="47"/>
+      <c r="F30" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="G30" s="28"/>
-      <c r="H30" s="99" t="s">
+      <c r="G30" s="47"/>
+      <c r="H30" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="I30" s="100"/>
-      <c r="J30" s="25" t="s">
+      <c r="I30" s="110"/>
+      <c r="J30" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="K30" s="28"/>
-      <c r="L30" s="99" t="s">
+      <c r="K30" s="47"/>
+      <c r="L30" s="109" t="s">
         <v>157</v>
       </c>
-      <c r="M30" s="100"/>
-      <c r="N30" s="25" t="s">
+      <c r="M30" s="110"/>
+      <c r="N30" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="O30" s="28"/>
-      <c r="P30" s="25" t="s">
+      <c r="O30" s="47"/>
+      <c r="P30" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="31" t="s">
+      <c r="Q30" s="47"/>
+      <c r="R30" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31" t="s">
+      <c r="S30" s="38"/>
+      <c r="T30" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="U30" s="31"/>
-      <c r="V30" s="88" t="s">
+      <c r="U30" s="38"/>
+      <c r="V30" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="W30" s="88"/>
+      <c r="W30" s="121"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -4149,52 +4142,52 @@
       <c r="AP30" s="6"/>
       <c r="AQ30" s="6"/>
     </row>
-    <row r="31" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31" t="s">
+      <c r="C31" s="38"/>
+      <c r="D31" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31" t="s">
+      <c r="E31" s="38"/>
+      <c r="F31" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31" t="s">
+      <c r="G31" s="38"/>
+      <c r="H31" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31" t="s">
+      <c r="I31" s="38"/>
+      <c r="J31" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="K31" s="31"/>
-      <c r="L31" s="25" t="s">
+      <c r="K31" s="38"/>
+      <c r="L31" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="M31" s="28"/>
-      <c r="N31" s="25" t="s">
+      <c r="M31" s="47"/>
+      <c r="N31" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="O31" s="28"/>
-      <c r="P31" s="25" t="s">
+      <c r="O31" s="47"/>
+      <c r="P31" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="32" t="s">
+      <c r="Q31" s="47"/>
+      <c r="R31" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32" t="s">
+      <c r="S31" s="56"/>
+      <c r="T31" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32" t="s">
+      <c r="U31" s="56"/>
+      <c r="V31" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="W31" s="32"/>
+      <c r="W31" s="56"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="8"/>
@@ -4220,48 +4213,48 @@
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
     </row>
-    <row r="32" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83" t="s">
+      <c r="C32" s="120"/>
+      <c r="D32" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83" t="s">
+      <c r="E32" s="120"/>
+      <c r="F32" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="83"/>
-      <c r="H32" s="89" t="s">
+      <c r="G32" s="120"/>
+      <c r="H32" s="122" t="s">
         <v>170</v>
       </c>
-      <c r="I32" s="89"/>
-      <c r="J32" s="44" t="s">
+      <c r="I32" s="122"/>
+      <c r="J32" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="89" t="s">
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="122" t="s">
         <v>168</v>
       </c>
-      <c r="O32" s="89"/>
-      <c r="P32" s="89" t="s">
+      <c r="O32" s="122"/>
+      <c r="P32" s="122" t="s">
         <v>169</v>
       </c>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="34" t="s">
+      <c r="Q32" s="122"/>
+      <c r="R32" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="34" t="s">
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="W32" s="35"/>
+      <c r="W32" s="40"/>
       <c r="X32" s="6"/>
       <c r="AE32" s="8"/>
       <c r="AF32" s="8"/>
@@ -4278,7 +4271,7 @@
       <c r="AQ32" s="6"/>
       <c r="AR32" s="6"/>
     </row>
-    <row r="33" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -4318,49 +4311,49 @@
       <c r="AV33" s="6"/>
       <c r="AW33" s="6"/>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="81" t="s">
+      <c r="B35" s="106" t="s">
         <v>297</v>
       </c>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="81" t="s">
+      <c r="C35" s="133"/>
+      <c r="D35" s="133"/>
+      <c r="E35" s="133"/>
+      <c r="F35" s="133"/>
+      <c r="G35" s="133"/>
+      <c r="H35" s="133"/>
+      <c r="I35" s="106" t="s">
         <v>298</v>
       </c>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="81" t="s">
+      <c r="J35" s="133"/>
+      <c r="K35" s="133"/>
+      <c r="L35" s="133"/>
+      <c r="M35" s="133"/>
+      <c r="N35" s="133"/>
+      <c r="O35" s="133"/>
+      <c r="P35" s="106" t="s">
         <v>299</v>
       </c>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="82"/>
-      <c r="U35" s="82"/>
-      <c r="V35" s="82"/>
-      <c r="W35" s="81" t="s">
+      <c r="Q35" s="133"/>
+      <c r="R35" s="133"/>
+      <c r="S35" s="133"/>
+      <c r="T35" s="133"/>
+      <c r="U35" s="133"/>
+      <c r="V35" s="133"/>
+      <c r="W35" s="106" t="s">
         <v>326</v>
       </c>
-      <c r="X35" s="82"/>
-      <c r="Y35" s="82"/>
-      <c r="Z35" s="82"/>
-      <c r="AA35" s="82"/>
-      <c r="AB35" s="82"/>
-      <c r="AC35" s="82"/>
+      <c r="X35" s="133"/>
+      <c r="Y35" s="133"/>
+      <c r="Z35" s="133"/>
+      <c r="AA35" s="133"/>
+      <c r="AB35" s="133"/>
+      <c r="AC35" s="133"/>
       <c r="AF35" s="8"/>
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
@@ -4377,36 +4370,36 @@
       <c r="AS35" s="6"/>
       <c r="AT35" s="6"/>
     </row>
-    <row r="36" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="82"/>
-      <c r="T36" s="82"/>
-      <c r="U36" s="82"/>
-      <c r="V36" s="82"/>
-      <c r="W36" s="82"/>
-      <c r="X36" s="82"/>
-      <c r="Y36" s="82"/>
-      <c r="Z36" s="82"/>
-      <c r="AA36" s="82"/>
-      <c r="AB36" s="82"/>
-      <c r="AC36" s="82"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="133"/>
+      <c r="E36" s="133"/>
+      <c r="F36" s="133"/>
+      <c r="G36" s="133"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="133"/>
+      <c r="J36" s="133"/>
+      <c r="K36" s="133"/>
+      <c r="L36" s="133"/>
+      <c r="M36" s="133"/>
+      <c r="N36" s="133"/>
+      <c r="O36" s="133"/>
+      <c r="P36" s="133"/>
+      <c r="Q36" s="133"/>
+      <c r="R36" s="133"/>
+      <c r="S36" s="133"/>
+      <c r="T36" s="133"/>
+      <c r="U36" s="133"/>
+      <c r="V36" s="133"/>
+      <c r="W36" s="133"/>
+      <c r="X36" s="133"/>
+      <c r="Y36" s="133"/>
+      <c r="Z36" s="133"/>
+      <c r="AA36" s="133"/>
+      <c r="AB36" s="133"/>
+      <c r="AC36" s="133"/>
       <c r="AF36" s="8"/>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
@@ -4423,42 +4416,42 @@
       <c r="AS36" s="6"/>
       <c r="AT36" s="6"/>
     </row>
-    <row r="37" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="82" t="s">
+      <c r="B37" s="133" t="s">
         <v>296</v>
       </c>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82" t="s">
+      <c r="C37" s="133"/>
+      <c r="D37" s="133"/>
+      <c r="E37" s="133"/>
+      <c r="F37" s="133"/>
+      <c r="G37" s="133"/>
+      <c r="H37" s="133"/>
+      <c r="I37" s="133" t="s">
         <v>301</v>
       </c>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="82"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="75" t="s">
+      <c r="J37" s="133"/>
+      <c r="K37" s="133"/>
+      <c r="L37" s="133"/>
+      <c r="M37" s="133"/>
+      <c r="N37" s="133"/>
+      <c r="O37" s="133"/>
+      <c r="P37" s="141" t="s">
         <v>303</v>
       </c>
-      <c r="Q37" s="76"/>
-      <c r="R37" s="76"/>
-      <c r="S37" s="76"/>
-      <c r="T37" s="76"/>
-      <c r="U37" s="76"/>
-      <c r="V37" s="76"/>
-      <c r="W37" s="76"/>
-      <c r="X37" s="76"/>
-      <c r="Y37" s="76"/>
-      <c r="Z37" s="76"/>
-      <c r="AA37" s="76"/>
-      <c r="AB37" s="76"/>
-      <c r="AC37" s="77"/>
+      <c r="Q37" s="142"/>
+      <c r="R37" s="142"/>
+      <c r="S37" s="142"/>
+      <c r="T37" s="142"/>
+      <c r="U37" s="142"/>
+      <c r="V37" s="142"/>
+      <c r="W37" s="142"/>
+      <c r="X37" s="142"/>
+      <c r="Y37" s="142"/>
+      <c r="Z37" s="142"/>
+      <c r="AA37" s="142"/>
+      <c r="AB37" s="142"/>
+      <c r="AC37" s="143"/>
       <c r="AD37" s="8"/>
       <c r="AE37" s="8"/>
       <c r="AF37" s="8"/>
@@ -4477,36 +4470,36 @@
       <c r="AS37" s="6"/>
       <c r="AT37" s="6"/>
     </row>
-    <row r="38" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="78"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
-      <c r="S38" s="79"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="79"/>
-      <c r="V38" s="79"/>
-      <c r="W38" s="79"/>
-      <c r="X38" s="79"/>
-      <c r="Y38" s="79"/>
-      <c r="Z38" s="79"/>
-      <c r="AA38" s="79"/>
-      <c r="AB38" s="79"/>
-      <c r="AC38" s="80"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="133"/>
+      <c r="D38" s="133"/>
+      <c r="E38" s="133"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="133"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="133"/>
+      <c r="K38" s="133"/>
+      <c r="L38" s="133"/>
+      <c r="M38" s="133"/>
+      <c r="N38" s="133"/>
+      <c r="O38" s="133"/>
+      <c r="P38" s="144"/>
+      <c r="Q38" s="145"/>
+      <c r="R38" s="145"/>
+      <c r="S38" s="145"/>
+      <c r="T38" s="145"/>
+      <c r="U38" s="145"/>
+      <c r="V38" s="145"/>
+      <c r="W38" s="145"/>
+      <c r="X38" s="145"/>
+      <c r="Y38" s="145"/>
+      <c r="Z38" s="145"/>
+      <c r="AA38" s="145"/>
+      <c r="AB38" s="145"/>
+      <c r="AC38" s="146"/>
       <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
@@ -4522,7 +4515,7 @@
       <c r="AS38" s="6"/>
       <c r="AT38" s="6"/>
     </row>
-    <row r="39" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -4562,51 +4555,51 @@
       <c r="AV39" s="6"/>
       <c r="AW39" s="6"/>
     </row>
-    <row r="40" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="53" t="s">
+      <c r="C41" s="25"/>
+      <c r="D41" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="53" t="s">
+      <c r="E41" s="31"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="H41" s="54"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="53" t="s">
+      <c r="H41" s="31"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="K41" s="54"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="53" t="s">
+      <c r="K41" s="31"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="N41" s="54"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="53" t="s">
+      <c r="N41" s="31"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="Q41" s="54"/>
-      <c r="R41" s="55"/>
-      <c r="S41" s="53" t="s">
+      <c r="Q41" s="31"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="T41" s="54"/>
-      <c r="U41" s="55"/>
-      <c r="V41" s="47" t="s">
+      <c r="T41" s="31"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="W41" s="48"/>
+      <c r="W41" s="25"/>
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
       <c r="AA41" s="8"/>
@@ -4632,40 +4625,40 @@
       <c r="AU41" s="6"/>
       <c r="AV41" s="6"/>
     </row>
-    <row r="42" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="85" t="s">
+      <c r="B42" s="115" t="s">
         <v>206</v>
       </c>
-      <c r="C42" s="86"/>
-      <c r="D42" s="92" t="s">
+      <c r="C42" s="116"/>
+      <c r="D42" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="93"/>
-      <c r="F42" s="56" t="s">
+      <c r="E42" s="118"/>
+      <c r="F42" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="57"/>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="57"/>
-      <c r="R42" s="57"/>
-      <c r="S42" s="94"/>
-      <c r="T42" s="95" t="s">
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="119"/>
+      <c r="T42" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="U42" s="96"/>
-      <c r="V42" s="97" t="s">
+      <c r="U42" s="103"/>
+      <c r="V42" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="W42" s="98"/>
+      <c r="W42" s="105"/>
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
       <c r="AA42" s="8"/>
@@ -4691,103 +4684,103 @@
       <c r="AU42" s="6"/>
       <c r="AV42" s="6"/>
     </row>
-    <row r="43" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="25" t="s">
+    <row r="43" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="25" t="s">
+      <c r="C43" s="47"/>
+      <c r="D43" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="25" t="s">
+      <c r="E43" s="47"/>
+      <c r="F43" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="G43" s="28"/>
-      <c r="H43" s="99" t="s">
+      <c r="G43" s="47"/>
+      <c r="H43" s="109" t="s">
         <v>174</v>
       </c>
-      <c r="I43" s="100"/>
-      <c r="J43" s="25" t="s">
+      <c r="I43" s="110"/>
+      <c r="J43" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="K43" s="28"/>
-      <c r="L43" s="99" t="s">
+      <c r="K43" s="47"/>
+      <c r="L43" s="109" t="s">
         <v>175</v>
       </c>
-      <c r="M43" s="100"/>
-      <c r="N43" s="25" t="s">
+      <c r="M43" s="110"/>
+      <c r="N43" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="O43" s="28"/>
-      <c r="P43" s="25" t="s">
+      <c r="O43" s="47"/>
+      <c r="P43" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="25" t="s">
+      <c r="Q43" s="47"/>
+      <c r="R43" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="S43" s="28"/>
-      <c r="T43" s="25" t="s">
+      <c r="S43" s="47"/>
+      <c r="T43" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="U43" s="28"/>
-      <c r="V43" s="31" t="s">
+      <c r="U43" s="47"/>
+      <c r="V43" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="W43" s="31"/>
+      <c r="W43" s="38"/>
       <c r="X43" s="6"/>
       <c r="AT43" s="6"/>
       <c r="AU43" s="6"/>
       <c r="AV43" s="6"/>
       <c r="AW43" s="6"/>
     </row>
-    <row r="44" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31" t="s">
+      <c r="C44" s="38"/>
+      <c r="D44" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31" t="s">
+      <c r="E44" s="38"/>
+      <c r="F44" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31" t="s">
+      <c r="G44" s="38"/>
+      <c r="H44" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31" t="s">
+      <c r="I44" s="38"/>
+      <c r="J44" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31" t="s">
+      <c r="K44" s="38"/>
+      <c r="L44" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="M44" s="31"/>
-      <c r="N44" s="89" t="s">
+      <c r="M44" s="38"/>
+      <c r="N44" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="O44" s="89"/>
-      <c r="P44" s="31" t="s">
+      <c r="O44" s="122"/>
+      <c r="P44" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="31" t="s">
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="S44" s="31"/>
-      <c r="T44" s="31" t="s">
+      <c r="S44" s="38"/>
+      <c r="T44" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="U44" s="31"/>
-      <c r="V44" s="88" t="s">
+      <c r="U44" s="38"/>
+      <c r="V44" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="W44" s="88"/>
+      <c r="W44" s="121"/>
       <c r="AA44" s="8"/>
       <c r="AB44" s="8"/>
       <c r="AC44" s="8"/>
@@ -4806,52 +4799,52 @@
       <c r="AP44" s="6"/>
       <c r="AQ44" s="6"/>
     </row>
-    <row r="45" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31" t="s">
+      <c r="C45" s="38"/>
+      <c r="D45" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31" t="s">
+      <c r="E45" s="38"/>
+      <c r="F45" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31" t="s">
+      <c r="G45" s="38"/>
+      <c r="H45" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31" t="s">
+      <c r="I45" s="38"/>
+      <c r="J45" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31" t="s">
+      <c r="K45" s="38"/>
+      <c r="L45" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31" t="s">
+      <c r="M45" s="38"/>
+      <c r="N45" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31" t="s">
+      <c r="O45" s="38"/>
+      <c r="P45" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="32" t="s">
+      <c r="Q45" s="38"/>
+      <c r="R45" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="S45" s="32"/>
-      <c r="T45" s="32" t="s">
+      <c r="S45" s="56"/>
+      <c r="T45" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="U45" s="32"/>
-      <c r="V45" s="32" t="s">
+      <c r="U45" s="56"/>
+      <c r="V45" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="W45" s="32"/>
+      <c r="W45" s="56"/>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
       <c r="AA45" s="8"/>
@@ -4877,48 +4870,48 @@
       <c r="AU45" s="6"/>
       <c r="AV45" s="6"/>
     </row>
-    <row r="46" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="83" t="s">
+      <c r="B46" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83" t="s">
+      <c r="C46" s="120"/>
+      <c r="D46" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83" t="s">
+      <c r="E46" s="120"/>
+      <c r="F46" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="83"/>
-      <c r="H46" s="89" t="s">
+      <c r="G46" s="120"/>
+      <c r="H46" s="122" t="s">
         <v>194</v>
       </c>
-      <c r="I46" s="89"/>
-      <c r="J46" s="44" t="s">
+      <c r="I46" s="122"/>
+      <c r="J46" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="89" t="s">
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="122" t="s">
         <v>195</v>
       </c>
-      <c r="O46" s="89"/>
-      <c r="P46" s="31" t="s">
+      <c r="O46" s="122"/>
+      <c r="P46" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="34" t="s">
+      <c r="Q46" s="38"/>
+      <c r="R46" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="S46" s="42"/>
-      <c r="T46" s="42"/>
-      <c r="U46" s="42"/>
-      <c r="V46" s="34" t="s">
+      <c r="S46" s="49"/>
+      <c r="T46" s="49"/>
+      <c r="U46" s="49"/>
+      <c r="V46" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="W46" s="35"/>
+      <c r="W46" s="40"/>
       <c r="X46" s="6"/>
       <c r="AE46" s="8"/>
       <c r="AF46" s="8"/>
@@ -4935,7 +4928,7 @@
       <c r="AQ46" s="6"/>
       <c r="AR46" s="6"/>
     </row>
-    <row r="47" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -4975,51 +4968,51 @@
       <c r="AV47" s="6"/>
       <c r="AW47" s="6"/>
     </row>
-    <row r="48" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="47" t="s">
+      <c r="B49" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="53" t="s">
+      <c r="C49" s="25"/>
+      <c r="D49" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="53" t="s">
+      <c r="E49" s="31"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="H49" s="54"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="53" t="s">
+      <c r="H49" s="31"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="K49" s="54"/>
-      <c r="L49" s="55"/>
-      <c r="M49" s="53" t="s">
+      <c r="K49" s="31"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="N49" s="54"/>
-      <c r="O49" s="55"/>
-      <c r="P49" s="53" t="s">
+      <c r="N49" s="31"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="Q49" s="54"/>
-      <c r="R49" s="55"/>
-      <c r="S49" s="53" t="s">
+      <c r="Q49" s="31"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="T49" s="54"/>
-      <c r="U49" s="55"/>
-      <c r="V49" s="47" t="s">
+      <c r="T49" s="31"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="W49" s="48"/>
+      <c r="W49" s="25"/>
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
       <c r="AA49" s="8"/>
@@ -5045,40 +5038,40 @@
       <c r="AU49" s="6"/>
       <c r="AV49" s="6"/>
     </row>
-    <row r="50" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="85" t="s">
+      <c r="B50" s="115" t="s">
         <v>206</v>
       </c>
-      <c r="C50" s="86"/>
-      <c r="D50" s="92" t="s">
+      <c r="C50" s="116"/>
+      <c r="D50" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="E50" s="93"/>
-      <c r="F50" s="56" t="s">
+      <c r="E50" s="118"/>
+      <c r="F50" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="57"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="57"/>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="57"/>
-      <c r="R50" s="57"/>
-      <c r="S50" s="94"/>
-      <c r="T50" s="95" t="s">
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="119"/>
+      <c r="T50" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="U50" s="96"/>
-      <c r="V50" s="97" t="s">
+      <c r="U50" s="103"/>
+      <c r="V50" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="W50" s="98"/>
+      <c r="W50" s="105"/>
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="8"/>
@@ -5104,83 +5097,83 @@
       <c r="AU50" s="6"/>
       <c r="AV50" s="6"/>
     </row>
-    <row r="51" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="90" t="s">
+    <row r="51" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="131" t="s">
         <v>197</v>
       </c>
-      <c r="C51" s="91"/>
-      <c r="D51" s="29" t="s">
+      <c r="C51" s="132"/>
+      <c r="D51" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="E51" s="30"/>
-      <c r="F51" s="90" t="s">
+      <c r="E51" s="55"/>
+      <c r="F51" s="131" t="s">
         <v>199</v>
       </c>
-      <c r="G51" s="91"/>
-      <c r="H51" s="29" t="s">
+      <c r="G51" s="132"/>
+      <c r="H51" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="I51" s="30"/>
-      <c r="J51" s="25" t="s">
+      <c r="I51" s="55"/>
+      <c r="J51" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="K51" s="28"/>
-      <c r="L51" s="25" t="s">
+      <c r="K51" s="47"/>
+      <c r="L51" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="M51" s="28"/>
-      <c r="N51" s="29" t="s">
+      <c r="M51" s="47"/>
+      <c r="N51" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="O51" s="30"/>
-      <c r="P51" s="29" t="s">
+      <c r="O51" s="55"/>
+      <c r="P51" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="29" t="s">
+      <c r="Q51" s="55"/>
+      <c r="R51" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="S51" s="30"/>
-      <c r="T51" s="29" t="s">
+      <c r="S51" s="55"/>
+      <c r="T51" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="U51" s="30"/>
-      <c r="V51" s="31" t="s">
+      <c r="U51" s="55"/>
+      <c r="V51" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="W51" s="31"/>
+      <c r="W51" s="38"/>
       <c r="X51" s="6"/>
       <c r="AT51" s="6"/>
       <c r="AU51" s="6"/>
       <c r="AV51" s="6"/>
       <c r="AW51" s="6"/>
     </row>
-    <row r="52" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="89"/>
-      <c r="O52" s="89"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="31"/>
-      <c r="U52" s="31"/>
-      <c r="V52" s="88" t="s">
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="122"/>
+      <c r="O52" s="122"/>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="38"/>
+      <c r="R52" s="38"/>
+      <c r="S52" s="38"/>
+      <c r="T52" s="38"/>
+      <c r="U52" s="38"/>
+      <c r="V52" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="W52" s="88"/>
+      <c r="W52" s="121"/>
       <c r="AA52" s="8"/>
       <c r="AB52" s="8"/>
       <c r="AC52" s="8"/>
@@ -5199,38 +5192,38 @@
       <c r="AP52" s="6"/>
       <c r="AQ52" s="6"/>
     </row>
-    <row r="53" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="32" t="s">
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="S53" s="32"/>
-      <c r="T53" s="32" t="s">
+      <c r="S53" s="56"/>
+      <c r="T53" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="U53" s="32"/>
-      <c r="V53" s="32" t="s">
+      <c r="U53" s="56"/>
+      <c r="V53" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="W53" s="32"/>
+      <c r="W53" s="56"/>
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="8"/>
@@ -5256,42 +5249,42 @@
       <c r="AU53" s="6"/>
       <c r="AV53" s="6"/>
     </row>
-    <row r="54" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="83" t="s">
+      <c r="B54" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="83"/>
-      <c r="D54" s="83" t="s">
+      <c r="C54" s="120"/>
+      <c r="D54" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="E54" s="83"/>
-      <c r="F54" s="83" t="s">
+      <c r="E54" s="120"/>
+      <c r="F54" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="83"/>
-      <c r="H54" s="89"/>
-      <c r="I54" s="89"/>
-      <c r="J54" s="44" t="s">
+      <c r="G54" s="120"/>
+      <c r="H54" s="122"/>
+      <c r="I54" s="122"/>
+      <c r="J54" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K54" s="46"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="89"/>
-      <c r="O54" s="89"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="34" t="s">
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="122"/>
+      <c r="O54" s="122"/>
+      <c r="P54" s="38"/>
+      <c r="Q54" s="38"/>
+      <c r="R54" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="S54" s="42"/>
-      <c r="T54" s="42"/>
-      <c r="U54" s="42"/>
-      <c r="V54" s="34" t="s">
+      <c r="S54" s="49"/>
+      <c r="T54" s="49"/>
+      <c r="U54" s="49"/>
+      <c r="V54" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="W54" s="35"/>
+      <c r="W54" s="40"/>
       <c r="X54" s="6"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="8"/>
@@ -5311,7 +5304,7 @@
       <c r="AU54" s="6"/>
       <c r="AV54" s="6"/>
     </row>
-    <row r="55" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -5351,51 +5344,51 @@
       <c r="AV55" s="6"/>
       <c r="AW55" s="6"/>
     </row>
-    <row r="56" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="57" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="53" t="s">
+      <c r="C57" s="25"/>
+      <c r="D57" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="E57" s="54"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="53" t="s">
+      <c r="E57" s="31"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="H57" s="54"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="53" t="s">
+      <c r="H57" s="31"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="K57" s="54"/>
-      <c r="L57" s="55"/>
-      <c r="M57" s="53" t="s">
+      <c r="K57" s="31"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="N57" s="54"/>
-      <c r="O57" s="55"/>
-      <c r="P57" s="53" t="s">
+      <c r="N57" s="31"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="Q57" s="54"/>
-      <c r="R57" s="55"/>
-      <c r="S57" s="53" t="s">
+      <c r="Q57" s="31"/>
+      <c r="R57" s="32"/>
+      <c r="S57" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="T57" s="54"/>
-      <c r="U57" s="55"/>
-      <c r="V57" s="47" t="s">
+      <c r="T57" s="31"/>
+      <c r="U57" s="32"/>
+      <c r="V57" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="W57" s="48"/>
+      <c r="W57" s="25"/>
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="8"/>
@@ -5421,40 +5414,40 @@
       <c r="AU57" s="6"/>
       <c r="AV57" s="6"/>
     </row>
-    <row r="58" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
-      <c r="B58" s="85" t="s">
+      <c r="B58" s="115" t="s">
         <v>206</v>
       </c>
-      <c r="C58" s="86"/>
-      <c r="D58" s="92" t="s">
+      <c r="C58" s="116"/>
+      <c r="D58" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="E58" s="93"/>
-      <c r="F58" s="56" t="s">
+      <c r="E58" s="118"/>
+      <c r="F58" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="57"/>
-      <c r="N58" s="57"/>
-      <c r="O58" s="57"/>
-      <c r="P58" s="57"/>
-      <c r="Q58" s="57"/>
-      <c r="R58" s="57"/>
-      <c r="S58" s="94"/>
-      <c r="T58" s="95" t="s">
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="119"/>
+      <c r="T58" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="U58" s="96"/>
-      <c r="V58" s="97" t="s">
+      <c r="U58" s="103"/>
+      <c r="V58" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="W58" s="98"/>
+      <c r="W58" s="105"/>
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="8"/>
@@ -5480,103 +5473,103 @@
       <c r="AU58" s="6"/>
       <c r="AV58" s="6"/>
     </row>
-    <row r="59" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="90" t="s">
+    <row r="59" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="131" t="s">
         <v>207</v>
       </c>
-      <c r="C59" s="91"/>
-      <c r="D59" s="29" t="s">
+      <c r="C59" s="132"/>
+      <c r="D59" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="E59" s="30"/>
-      <c r="F59" s="90" t="s">
+      <c r="E59" s="55"/>
+      <c r="F59" s="131" t="s">
         <v>209</v>
       </c>
-      <c r="G59" s="91"/>
-      <c r="H59" s="29" t="s">
+      <c r="G59" s="132"/>
+      <c r="H59" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="I59" s="30"/>
-      <c r="J59" s="25" t="s">
+      <c r="I59" s="55"/>
+      <c r="J59" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="K59" s="28"/>
-      <c r="L59" s="25" t="s">
+      <c r="K59" s="47"/>
+      <c r="L59" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="M59" s="28"/>
-      <c r="N59" s="29" t="s">
+      <c r="M59" s="47"/>
+      <c r="N59" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="O59" s="30"/>
-      <c r="P59" s="29" t="s">
+      <c r="O59" s="55"/>
+      <c r="P59" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="29" t="s">
+      <c r="Q59" s="55"/>
+      <c r="R59" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="S59" s="30"/>
-      <c r="T59" s="29" t="s">
+      <c r="S59" s="55"/>
+      <c r="T59" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="U59" s="30"/>
-      <c r="V59" s="31" t="s">
+      <c r="U59" s="55"/>
+      <c r="V59" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="W59" s="31"/>
+      <c r="W59" s="38"/>
       <c r="X59" s="6"/>
       <c r="AT59" s="6"/>
       <c r="AU59" s="6"/>
       <c r="AV59" s="6"/>
       <c r="AW59" s="6"/>
     </row>
-    <row r="60" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31" t="s">
+      <c r="C60" s="38"/>
+      <c r="D60" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31" t="s">
+      <c r="E60" s="38"/>
+      <c r="F60" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31" t="s">
+      <c r="G60" s="38"/>
+      <c r="H60" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="I60" s="31"/>
-      <c r="J60" s="25" t="s">
+      <c r="I60" s="38"/>
+      <c r="J60" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="K60" s="28"/>
-      <c r="L60" s="31" t="s">
+      <c r="K60" s="47"/>
+      <c r="L60" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="M60" s="31"/>
-      <c r="N60" s="89" t="s">
+      <c r="M60" s="38"/>
+      <c r="N60" s="122" t="s">
         <v>223</v>
       </c>
-      <c r="O60" s="89"/>
-      <c r="P60" s="31" t="s">
+      <c r="O60" s="122"/>
+      <c r="P60" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="31" t="s">
+      <c r="Q60" s="38"/>
+      <c r="R60" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="S60" s="31"/>
-      <c r="T60" s="31" t="s">
+      <c r="S60" s="38"/>
+      <c r="T60" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="U60" s="31"/>
-      <c r="V60" s="88" t="s">
+      <c r="U60" s="38"/>
+      <c r="V60" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="W60" s="88"/>
+      <c r="W60" s="121"/>
       <c r="AA60" s="8"/>
       <c r="AB60" s="8"/>
       <c r="AC60" s="8"/>
@@ -5595,52 +5588,52 @@
       <c r="AP60" s="6"/>
       <c r="AQ60" s="6"/>
     </row>
-    <row r="61" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31" t="s">
+      <c r="C61" s="38"/>
+      <c r="D61" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31" t="s">
+      <c r="E61" s="38"/>
+      <c r="F61" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31" t="s">
+      <c r="G61" s="38"/>
+      <c r="H61" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31" t="s">
+      <c r="I61" s="38"/>
+      <c r="J61" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31" t="s">
+      <c r="K61" s="38"/>
+      <c r="L61" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31" t="s">
+      <c r="M61" s="38"/>
+      <c r="N61" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31" t="s">
+      <c r="O61" s="38"/>
+      <c r="P61" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="32" t="s">
+      <c r="Q61" s="38"/>
+      <c r="R61" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="S61" s="32"/>
-      <c r="T61" s="32" t="s">
+      <c r="S61" s="56"/>
+      <c r="T61" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="U61" s="32"/>
-      <c r="V61" s="32" t="s">
+      <c r="U61" s="56"/>
+      <c r="V61" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="W61" s="32"/>
+      <c r="W61" s="56"/>
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
       <c r="AA61" s="8"/>
@@ -5666,48 +5659,48 @@
       <c r="AU61" s="6"/>
       <c r="AV61" s="6"/>
     </row>
-    <row r="62" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="83" t="s">
+      <c r="B62" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="83"/>
-      <c r="D62" s="83" t="s">
+      <c r="C62" s="120"/>
+      <c r="D62" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="E62" s="83"/>
-      <c r="F62" s="83" t="s">
+      <c r="E62" s="120"/>
+      <c r="F62" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="G62" s="83"/>
-      <c r="H62" s="89" t="s">
+      <c r="G62" s="120"/>
+      <c r="H62" s="122" t="s">
         <v>234</v>
       </c>
-      <c r="I62" s="89"/>
-      <c r="J62" s="44" t="s">
+      <c r="I62" s="122"/>
+      <c r="J62" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K62" s="46"/>
-      <c r="L62" s="46"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="89" t="s">
+      <c r="K62" s="53"/>
+      <c r="L62" s="53"/>
+      <c r="M62" s="53"/>
+      <c r="N62" s="122" t="s">
         <v>235</v>
       </c>
-      <c r="O62" s="89"/>
-      <c r="P62" s="31" t="s">
+      <c r="O62" s="122"/>
+      <c r="P62" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="Q62" s="31"/>
-      <c r="R62" s="34" t="s">
+      <c r="Q62" s="38"/>
+      <c r="R62" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="S62" s="42"/>
-      <c r="T62" s="42"/>
-      <c r="U62" s="42"/>
-      <c r="V62" s="34" t="s">
+      <c r="S62" s="49"/>
+      <c r="T62" s="49"/>
+      <c r="U62" s="49"/>
+      <c r="V62" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="W62" s="35"/>
+      <c r="W62" s="40"/>
       <c r="X62" s="6"/>
       <c r="AE62" s="8"/>
       <c r="AF62" s="8"/>
@@ -5724,7 +5717,7 @@
       <c r="AQ62" s="6"/>
       <c r="AR62" s="6"/>
     </row>
-    <row r="63" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -5764,51 +5757,51 @@
       <c r="AV63" s="6"/>
       <c r="AW63" s="6"/>
     </row>
-    <row r="64" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="65" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-      <c r="B65" s="47" t="s">
+      <c r="B65" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="48"/>
-      <c r="D65" s="53" t="s">
+      <c r="C65" s="25"/>
+      <c r="D65" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="E65" s="54"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="53" t="s">
+      <c r="E65" s="31"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="H65" s="54"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="53" t="s">
+      <c r="H65" s="31"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="K65" s="54"/>
-      <c r="L65" s="55"/>
-      <c r="M65" s="53" t="s">
+      <c r="K65" s="31"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="N65" s="54"/>
-      <c r="O65" s="55"/>
-      <c r="P65" s="53" t="s">
+      <c r="N65" s="31"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="Q65" s="54"/>
-      <c r="R65" s="55"/>
-      <c r="S65" s="53" t="s">
+      <c r="Q65" s="31"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="T65" s="54"/>
-      <c r="U65" s="55"/>
-      <c r="V65" s="47" t="s">
+      <c r="T65" s="31"/>
+      <c r="U65" s="32"/>
+      <c r="V65" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="W65" s="48"/>
+      <c r="W65" s="25"/>
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
       <c r="AA65" s="8"/>
@@ -5834,40 +5827,40 @@
       <c r="AU65" s="6"/>
       <c r="AV65" s="6"/>
     </row>
-    <row r="66" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
-      <c r="B66" s="85" t="s">
+      <c r="B66" s="115" t="s">
         <v>206</v>
       </c>
-      <c r="C66" s="86"/>
-      <c r="D66" s="92" t="s">
+      <c r="C66" s="116"/>
+      <c r="D66" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="E66" s="93"/>
-      <c r="F66" s="56" t="s">
+      <c r="E66" s="118"/>
+      <c r="F66" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="G66" s="57"/>
-      <c r="H66" s="57"/>
-      <c r="I66" s="57"/>
-      <c r="J66" s="57"/>
-      <c r="K66" s="57"/>
-      <c r="L66" s="57"/>
-      <c r="M66" s="57"/>
-      <c r="N66" s="57"/>
-      <c r="O66" s="57"/>
-      <c r="P66" s="57"/>
-      <c r="Q66" s="57"/>
-      <c r="R66" s="57"/>
-      <c r="S66" s="94"/>
-      <c r="T66" s="95" t="s">
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="119"/>
+      <c r="T66" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="U66" s="96"/>
-      <c r="V66" s="97" t="s">
+      <c r="U66" s="103"/>
+      <c r="V66" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="W66" s="98"/>
+      <c r="W66" s="105"/>
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="8"/>
@@ -5893,103 +5886,103 @@
       <c r="AU66" s="6"/>
       <c r="AV66" s="6"/>
     </row>
-    <row r="67" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="90" t="s">
+    <row r="67" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="131" t="s">
         <v>237</v>
       </c>
-      <c r="C67" s="91"/>
-      <c r="D67" s="29" t="s">
+      <c r="C67" s="132"/>
+      <c r="D67" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="E67" s="30"/>
-      <c r="F67" s="90" t="s">
+      <c r="E67" s="55"/>
+      <c r="F67" s="131" t="s">
         <v>239</v>
       </c>
-      <c r="G67" s="91"/>
-      <c r="H67" s="29" t="s">
+      <c r="G67" s="132"/>
+      <c r="H67" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="I67" s="30"/>
-      <c r="J67" s="25" t="s">
+      <c r="I67" s="55"/>
+      <c r="J67" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="K67" s="28"/>
-      <c r="L67" s="25" t="s">
+      <c r="K67" s="47"/>
+      <c r="L67" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="M67" s="28"/>
-      <c r="N67" s="29" t="s">
+      <c r="M67" s="47"/>
+      <c r="N67" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="O67" s="30"/>
-      <c r="P67" s="29" t="s">
+      <c r="O67" s="55"/>
+      <c r="P67" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="29" t="s">
+      <c r="Q67" s="55"/>
+      <c r="R67" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="S67" s="30"/>
-      <c r="T67" s="29" t="s">
+      <c r="S67" s="55"/>
+      <c r="T67" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="U67" s="30"/>
-      <c r="V67" s="31" t="s">
+      <c r="U67" s="55"/>
+      <c r="V67" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="W67" s="31"/>
+      <c r="W67" s="38"/>
       <c r="X67" s="6"/>
       <c r="AT67" s="6"/>
       <c r="AU67" s="6"/>
       <c r="AV67" s="6"/>
       <c r="AW67" s="6"/>
     </row>
-    <row r="68" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31" t="s">
+      <c r="C68" s="38"/>
+      <c r="D68" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31" t="s">
+      <c r="E68" s="38"/>
+      <c r="F68" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31" t="s">
+      <c r="G68" s="38"/>
+      <c r="H68" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="I68" s="31"/>
-      <c r="J68" s="25" t="s">
+      <c r="I68" s="38"/>
+      <c r="J68" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="K68" s="28"/>
-      <c r="L68" s="31" t="s">
+      <c r="K68" s="47"/>
+      <c r="L68" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="M68" s="31"/>
-      <c r="N68" s="89" t="s">
+      <c r="M68" s="38"/>
+      <c r="N68" s="122" t="s">
         <v>253</v>
       </c>
-      <c r="O68" s="89"/>
-      <c r="P68" s="31" t="s">
+      <c r="O68" s="122"/>
+      <c r="P68" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="Q68" s="31"/>
-      <c r="R68" s="31" t="s">
+      <c r="Q68" s="38"/>
+      <c r="R68" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="S68" s="31"/>
-      <c r="T68" s="31" t="s">
+      <c r="S68" s="38"/>
+      <c r="T68" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="U68" s="31"/>
-      <c r="V68" s="88" t="s">
+      <c r="U68" s="38"/>
+      <c r="V68" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="W68" s="88"/>
+      <c r="W68" s="121"/>
       <c r="AA68" s="8"/>
       <c r="AB68" s="8"/>
       <c r="AC68" s="8"/>
@@ -6008,52 +6001,52 @@
       <c r="AP68" s="6"/>
       <c r="AQ68" s="6"/>
     </row>
-    <row r="69" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31" t="s">
+      <c r="C69" s="38"/>
+      <c r="D69" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31" t="s">
+      <c r="E69" s="38"/>
+      <c r="F69" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31" t="s">
+      <c r="G69" s="38"/>
+      <c r="H69" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31" t="s">
+      <c r="I69" s="38"/>
+      <c r="J69" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="K69" s="31"/>
-      <c r="L69" s="31" t="s">
+      <c r="K69" s="38"/>
+      <c r="L69" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="M69" s="31"/>
-      <c r="N69" s="31" t="s">
+      <c r="M69" s="38"/>
+      <c r="N69" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="O69" s="31"/>
-      <c r="P69" s="31" t="s">
+      <c r="O69" s="38"/>
+      <c r="P69" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="Q69" s="31"/>
-      <c r="R69" s="32" t="s">
+      <c r="Q69" s="38"/>
+      <c r="R69" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="S69" s="32"/>
-      <c r="T69" s="32" t="s">
+      <c r="S69" s="56"/>
+      <c r="T69" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="U69" s="32"/>
-      <c r="V69" s="32" t="s">
+      <c r="U69" s="56"/>
+      <c r="V69" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="W69" s="32"/>
+      <c r="W69" s="56"/>
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
       <c r="AA69" s="8"/>
@@ -6079,48 +6072,48 @@
       <c r="AU69" s="6"/>
       <c r="AV69" s="6"/>
     </row>
-    <row r="70" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="83" t="s">
+      <c r="B70" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="83"/>
-      <c r="D70" s="83" t="s">
+      <c r="C70" s="120"/>
+      <c r="D70" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="E70" s="83"/>
-      <c r="F70" s="83" t="s">
+      <c r="E70" s="120"/>
+      <c r="F70" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="G70" s="83"/>
-      <c r="H70" s="89" t="s">
+      <c r="G70" s="120"/>
+      <c r="H70" s="122" t="s">
         <v>267</v>
       </c>
-      <c r="I70" s="89"/>
-      <c r="J70" s="44" t="s">
+      <c r="I70" s="122"/>
+      <c r="J70" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K70" s="46"/>
-      <c r="L70" s="46"/>
-      <c r="M70" s="46"/>
-      <c r="N70" s="87" t="s">
+      <c r="K70" s="53"/>
+      <c r="L70" s="53"/>
+      <c r="M70" s="53"/>
+      <c r="N70" s="134" t="s">
         <v>268</v>
       </c>
-      <c r="O70" s="87"/>
-      <c r="P70" s="31" t="s">
+      <c r="O70" s="134"/>
+      <c r="P70" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="Q70" s="31"/>
-      <c r="R70" s="34" t="s">
+      <c r="Q70" s="38"/>
+      <c r="R70" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="S70" s="42"/>
-      <c r="T70" s="42"/>
-      <c r="U70" s="42"/>
-      <c r="V70" s="34" t="s">
+      <c r="S70" s="49"/>
+      <c r="T70" s="49"/>
+      <c r="U70" s="49"/>
+      <c r="V70" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="W70" s="35"/>
+      <c r="W70" s="40"/>
       <c r="X70" s="6"/>
       <c r="AE70" s="8"/>
       <c r="AF70" s="8"/>
@@ -6137,7 +6130,7 @@
       <c r="AQ70" s="6"/>
       <c r="AR70" s="6"/>
     </row>
-    <row r="71" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -6177,51 +6170,51 @@
       <c r="AV71" s="6"/>
       <c r="AW71" s="6"/>
     </row>
-    <row r="72" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="73" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="47" t="s">
+      <c r="B73" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="48"/>
-      <c r="D73" s="53" t="s">
+      <c r="C73" s="25"/>
+      <c r="D73" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="E73" s="54"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="53" t="s">
+      <c r="E73" s="31"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="H73" s="54"/>
-      <c r="I73" s="55"/>
-      <c r="J73" s="53" t="s">
+      <c r="H73" s="31"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="K73" s="54"/>
-      <c r="L73" s="55"/>
-      <c r="M73" s="53" t="s">
+      <c r="K73" s="31"/>
+      <c r="L73" s="32"/>
+      <c r="M73" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="N73" s="54"/>
-      <c r="O73" s="55"/>
-      <c r="P73" s="53" t="s">
+      <c r="N73" s="31"/>
+      <c r="O73" s="32"/>
+      <c r="P73" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="Q73" s="54"/>
-      <c r="R73" s="55"/>
-      <c r="S73" s="53" t="s">
+      <c r="Q73" s="31"/>
+      <c r="R73" s="32"/>
+      <c r="S73" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="T73" s="54"/>
-      <c r="U73" s="55"/>
-      <c r="V73" s="47" t="s">
+      <c r="T73" s="31"/>
+      <c r="U73" s="32"/>
+      <c r="V73" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="W73" s="48"/>
+      <c r="W73" s="25"/>
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
       <c r="AA73" s="8"/>
@@ -6247,40 +6240,40 @@
       <c r="AU73" s="6"/>
       <c r="AV73" s="6"/>
     </row>
-    <row r="74" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
-      <c r="B74" s="85" t="s">
+      <c r="B74" s="115" t="s">
         <v>206</v>
       </c>
-      <c r="C74" s="86"/>
-      <c r="D74" s="92" t="s">
+      <c r="C74" s="116"/>
+      <c r="D74" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="E74" s="93"/>
-      <c r="F74" s="56" t="s">
+      <c r="E74" s="118"/>
+      <c r="F74" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="G74" s="57"/>
-      <c r="H74" s="57"/>
-      <c r="I74" s="57"/>
-      <c r="J74" s="57"/>
-      <c r="K74" s="57"/>
-      <c r="L74" s="57"/>
-      <c r="M74" s="57"/>
-      <c r="N74" s="57"/>
-      <c r="O74" s="57"/>
-      <c r="P74" s="57"/>
-      <c r="Q74" s="57"/>
-      <c r="R74" s="57"/>
-      <c r="S74" s="94"/>
-      <c r="T74" s="95" t="s">
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="34"/>
+      <c r="L74" s="34"/>
+      <c r="M74" s="34"/>
+      <c r="N74" s="34"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
+      <c r="Q74" s="34"/>
+      <c r="R74" s="34"/>
+      <c r="S74" s="119"/>
+      <c r="T74" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="U74" s="96"/>
-      <c r="V74" s="97" t="s">
+      <c r="U74" s="103"/>
+      <c r="V74" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="W74" s="98"/>
+      <c r="W74" s="105"/>
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
       <c r="AA74" s="8"/>
@@ -6306,103 +6299,103 @@
       <c r="AU74" s="6"/>
       <c r="AV74" s="6"/>
     </row>
-    <row r="75" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="90" t="s">
+    <row r="75" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="131" t="s">
         <v>270</v>
       </c>
-      <c r="C75" s="91"/>
-      <c r="D75" s="29" t="s">
+      <c r="C75" s="132"/>
+      <c r="D75" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="E75" s="30"/>
-      <c r="F75" s="29" t="s">
+      <c r="E75" s="55"/>
+      <c r="F75" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="G75" s="30"/>
-      <c r="H75" s="29" t="s">
+      <c r="G75" s="55"/>
+      <c r="H75" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="I75" s="30"/>
-      <c r="J75" s="29" t="s">
+      <c r="I75" s="55"/>
+      <c r="J75" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="K75" s="30"/>
-      <c r="L75" s="29" t="s">
+      <c r="K75" s="55"/>
+      <c r="L75" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="M75" s="30"/>
-      <c r="N75" s="29" t="s">
+      <c r="M75" s="55"/>
+      <c r="N75" s="54" t="s">
         <v>276</v>
       </c>
-      <c r="O75" s="30"/>
-      <c r="P75" s="29" t="s">
+      <c r="O75" s="55"/>
+      <c r="P75" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="Q75" s="30"/>
-      <c r="R75" s="31" t="s">
+      <c r="Q75" s="55"/>
+      <c r="R75" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="S75" s="31"/>
-      <c r="T75" s="31" t="s">
+      <c r="S75" s="38"/>
+      <c r="T75" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="U75" s="31"/>
-      <c r="V75" s="31" t="s">
+      <c r="U75" s="38"/>
+      <c r="V75" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="W75" s="31"/>
+      <c r="W75" s="38"/>
       <c r="X75" s="6"/>
       <c r="AT75" s="6"/>
       <c r="AU75" s="6"/>
       <c r="AV75" s="6"/>
       <c r="AW75" s="6"/>
     </row>
-    <row r="76" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="C76" s="28"/>
-      <c r="D76" s="25" t="s">
+      <c r="C76" s="47"/>
+      <c r="D76" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="E76" s="28"/>
-      <c r="F76" s="25" t="s">
+      <c r="E76" s="47"/>
+      <c r="F76" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="G76" s="28"/>
-      <c r="H76" s="25" t="s">
+      <c r="G76" s="47"/>
+      <c r="H76" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="I76" s="28"/>
-      <c r="J76" s="60" t="s">
+      <c r="I76" s="47"/>
+      <c r="J76" s="59" t="s">
         <v>284</v>
       </c>
-      <c r="K76" s="62"/>
-      <c r="L76" s="25" t="s">
+      <c r="K76" s="61"/>
+      <c r="L76" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="M76" s="28"/>
-      <c r="N76" s="31" t="s">
+      <c r="M76" s="47"/>
+      <c r="N76" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="O76" s="31"/>
-      <c r="P76" s="31" t="s">
+      <c r="O76" s="38"/>
+      <c r="P76" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="Q76" s="31"/>
-      <c r="R76" s="31" t="s">
+      <c r="Q76" s="38"/>
+      <c r="R76" s="38" t="s">
         <v>288</v>
       </c>
-      <c r="S76" s="31"/>
-      <c r="T76" s="31" t="s">
+      <c r="S76" s="38"/>
+      <c r="T76" s="38" t="s">
         <v>289</v>
       </c>
-      <c r="U76" s="31"/>
-      <c r="V76" s="88" t="s">
+      <c r="U76" s="38"/>
+      <c r="V76" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="W76" s="88"/>
+      <c r="W76" s="121"/>
       <c r="AA76" s="8"/>
       <c r="AB76" s="8"/>
       <c r="AC76" s="8"/>
@@ -6421,48 +6414,48 @@
       <c r="AP76" s="6"/>
       <c r="AQ76" s="6"/>
     </row>
-    <row r="77" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="31"/>
-      <c r="D77" s="25" t="s">
+      <c r="C77" s="38"/>
+      <c r="D77" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="E77" s="28"/>
-      <c r="F77" s="25" t="s">
+      <c r="E77" s="47"/>
+      <c r="F77" s="45" t="s">
         <v>291</v>
       </c>
-      <c r="G77" s="28"/>
-      <c r="H77" s="25" t="s">
+      <c r="G77" s="47"/>
+      <c r="H77" s="45" t="s">
         <v>292</v>
       </c>
-      <c r="I77" s="28"/>
-      <c r="J77" s="60" t="s">
+      <c r="I77" s="47"/>
+      <c r="J77" s="59" t="s">
         <v>293</v>
       </c>
-      <c r="K77" s="62"/>
-      <c r="L77" s="60" t="s">
+      <c r="K77" s="61"/>
+      <c r="L77" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="M77" s="62"/>
-      <c r="N77" s="31"/>
-      <c r="O77" s="31"/>
-      <c r="P77" s="31"/>
-      <c r="Q77" s="31"/>
-      <c r="R77" s="32" t="s">
+      <c r="M77" s="61"/>
+      <c r="N77" s="38"/>
+      <c r="O77" s="38"/>
+      <c r="P77" s="38"/>
+      <c r="Q77" s="38"/>
+      <c r="R77" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="S77" s="32"/>
-      <c r="T77" s="32" t="s">
+      <c r="S77" s="56"/>
+      <c r="T77" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="U77" s="32"/>
-      <c r="V77" s="32" t="s">
+      <c r="U77" s="56"/>
+      <c r="V77" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="W77" s="32"/>
+      <c r="W77" s="56"/>
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
       <c r="AA77" s="8"/>
@@ -6488,42 +6481,42 @@
       <c r="AU77" s="6"/>
       <c r="AV77" s="6"/>
     </row>
-    <row r="78" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="83" t="s">
+      <c r="B78" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="83"/>
-      <c r="D78" s="83" t="s">
+      <c r="C78" s="120"/>
+      <c r="D78" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="E78" s="83"/>
-      <c r="F78" s="83" t="s">
+      <c r="E78" s="120"/>
+      <c r="F78" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="G78" s="83"/>
-      <c r="H78" s="89"/>
-      <c r="I78" s="89"/>
-      <c r="J78" s="44" t="s">
+      <c r="G78" s="120"/>
+      <c r="H78" s="122"/>
+      <c r="I78" s="122"/>
+      <c r="J78" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K78" s="46"/>
-      <c r="L78" s="46"/>
-      <c r="M78" s="46"/>
-      <c r="N78" s="87"/>
-      <c r="O78" s="87"/>
-      <c r="P78" s="31"/>
-      <c r="Q78" s="31"/>
-      <c r="R78" s="34" t="s">
+      <c r="K78" s="53"/>
+      <c r="L78" s="53"/>
+      <c r="M78" s="53"/>
+      <c r="N78" s="134"/>
+      <c r="O78" s="134"/>
+      <c r="P78" s="38"/>
+      <c r="Q78" s="38"/>
+      <c r="R78" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="S78" s="42"/>
-      <c r="T78" s="42"/>
-      <c r="U78" s="42"/>
-      <c r="V78" s="34" t="s">
+      <c r="S78" s="49"/>
+      <c r="T78" s="49"/>
+      <c r="U78" s="49"/>
+      <c r="V78" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="W78" s="35"/>
+      <c r="W78" s="40"/>
       <c r="X78" s="6"/>
       <c r="Z78" s="6"/>
       <c r="AA78" s="8"/>
@@ -6543,7 +6536,7 @@
       <c r="AU78" s="6"/>
       <c r="AV78" s="6"/>
     </row>
-    <row r="79" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -6583,237 +6576,237 @@
       <c r="AV79" s="6"/>
       <c r="AW79" s="6"/>
     </row>
-    <row r="80" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="84" t="s">
+    <row r="81" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="D81" s="84"/>
-      <c r="E81" s="84" t="s">
+      <c r="D81" s="97"/>
+      <c r="E81" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="F81" s="84"/>
-      <c r="G81" s="84" t="s">
+      <c r="F81" s="97"/>
+      <c r="G81" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H81" s="84"/>
-      <c r="I81" s="84" t="s">
+      <c r="H81" s="97"/>
+      <c r="I81" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="J81" s="84"/>
-      <c r="K81" s="84" t="s">
+      <c r="J81" s="97"/>
+      <c r="K81" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="L81" s="84"/>
-      <c r="M81" s="84" t="s">
+      <c r="L81" s="97"/>
+      <c r="M81" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="N81" s="84"/>
-      <c r="O81" s="84" t="s">
+      <c r="N81" s="97"/>
+      <c r="O81" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="P81" s="84"/>
-      <c r="Q81" s="84" t="s">
+      <c r="P81" s="97"/>
+      <c r="Q81" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="R81" s="84"/>
-      <c r="S81" s="84" t="s">
+      <c r="R81" s="97"/>
+      <c r="S81" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="T81" s="84"/>
-      <c r="U81" s="84" t="s">
+      <c r="T81" s="97"/>
+      <c r="U81" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="V81" s="84"/>
+      <c r="V81" s="97"/>
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
       <c r="AA81" s="8"/>
     </row>
-    <row r="82" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="112" t="s">
+      <c r="B82" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="113"/>
-      <c r="D82" s="112" t="s">
+      <c r="C82" s="100"/>
+      <c r="D82" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="E82" s="113"/>
-      <c r="F82" s="121" t="s">
+      <c r="E82" s="100"/>
+      <c r="F82" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="G82" s="121"/>
-      <c r="H82" s="121" t="s">
+      <c r="G82" s="78"/>
+      <c r="H82" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="I82" s="121"/>
-      <c r="J82" s="110" t="s">
+      <c r="I82" s="78"/>
+      <c r="J82" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="K82" s="111"/>
-      <c r="L82" s="110" t="s">
+      <c r="K82" s="96"/>
+      <c r="L82" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="M82" s="111"/>
-      <c r="N82" s="110" t="s">
+      <c r="M82" s="96"/>
+      <c r="N82" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="O82" s="111"/>
-      <c r="P82" s="112" t="s">
+      <c r="O82" s="96"/>
+      <c r="P82" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="Q82" s="113"/>
-      <c r="R82" s="112" t="s">
+      <c r="Q82" s="100"/>
+      <c r="R82" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="S82" s="113"/>
-      <c r="T82" s="112" t="s">
+      <c r="S82" s="100"/>
+      <c r="T82" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="U82" s="113"/>
-      <c r="V82" s="120" t="s">
+      <c r="U82" s="100"/>
+      <c r="V82" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="W82" s="120"/>
-    </row>
-    <row r="83" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W82" s="101"/>
+    </row>
+    <row r="83" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="31"/>
-      <c r="D83" s="110" t="s">
+      <c r="C83" s="38"/>
+      <c r="D83" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="E83" s="111"/>
-      <c r="F83" s="110" t="s">
+      <c r="E83" s="96"/>
+      <c r="F83" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="G83" s="111"/>
-      <c r="H83" s="110" t="s">
+      <c r="G83" s="96"/>
+      <c r="H83" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="I83" s="111"/>
-      <c r="J83" s="112" t="s">
+      <c r="I83" s="96"/>
+      <c r="J83" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="K83" s="113"/>
-      <c r="L83" s="112" t="s">
+      <c r="K83" s="100"/>
+      <c r="L83" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="M83" s="113"/>
-      <c r="N83" s="112" t="s">
+      <c r="M83" s="100"/>
+      <c r="N83" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="O83" s="113"/>
-      <c r="P83" s="110" t="s">
+      <c r="O83" s="100"/>
+      <c r="P83" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="Q83" s="111"/>
-      <c r="R83" s="32" t="s">
+      <c r="Q83" s="96"/>
+      <c r="R83" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="S83" s="32"/>
-      <c r="T83" s="32" t="s">
+      <c r="S83" s="56"/>
+      <c r="T83" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="U83" s="32"/>
-      <c r="V83" s="119" t="s">
+      <c r="U83" s="56"/>
+      <c r="V83" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="W83" s="119"/>
-    </row>
-    <row r="84" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W83" s="98"/>
+    </row>
+    <row r="84" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="83" t="s">
+      <c r="B84" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="C84" s="83"/>
-      <c r="D84" s="83" t="s">
+      <c r="C84" s="120"/>
+      <c r="D84" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="E84" s="83"/>
-      <c r="F84" s="83" t="s">
+      <c r="E84" s="120"/>
+      <c r="F84" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="G84" s="83"/>
-      <c r="H84" s="110"/>
-      <c r="I84" s="111"/>
-      <c r="J84" s="44" t="s">
+      <c r="G84" s="120"/>
+      <c r="H84" s="95"/>
+      <c r="I84" s="96"/>
+      <c r="J84" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K84" s="46"/>
-      <c r="L84" s="46"/>
-      <c r="M84" s="45"/>
-      <c r="N84" s="112"/>
-      <c r="O84" s="113"/>
-      <c r="P84" s="112" t="s">
+      <c r="K84" s="53"/>
+      <c r="L84" s="53"/>
+      <c r="M84" s="52"/>
+      <c r="N84" s="99"/>
+      <c r="O84" s="100"/>
+      <c r="P84" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="Q84" s="113"/>
-      <c r="R84" s="34" t="s">
+      <c r="Q84" s="100"/>
+      <c r="R84" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="S84" s="42"/>
-      <c r="T84" s="42"/>
-      <c r="U84" s="42"/>
-      <c r="V84" s="34" t="s">
+      <c r="S84" s="49"/>
+      <c r="T84" s="49"/>
+      <c r="U84" s="49"/>
+      <c r="V84" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="W84" s="35"/>
+      <c r="W84" s="40"/>
       <c r="X84" s="5"/>
     </row>
-    <row r="86" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="87" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
-      <c r="B87" s="47" t="s">
+      <c r="B87" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C87" s="48"/>
-      <c r="D87" s="53" t="s">
+      <c r="C87" s="25"/>
+      <c r="D87" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="E87" s="54"/>
-      <c r="F87" s="55"/>
-      <c r="G87" s="53" t="s">
+      <c r="E87" s="31"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="H87" s="54"/>
-      <c r="I87" s="55"/>
-      <c r="J87" s="53" t="s">
+      <c r="H87" s="31"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="K87" s="54"/>
-      <c r="L87" s="55"/>
-      <c r="M87" s="53" t="s">
+      <c r="K87" s="31"/>
+      <c r="L87" s="32"/>
+      <c r="M87" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="N87" s="54"/>
-      <c r="O87" s="55"/>
-      <c r="P87" s="53" t="s">
+      <c r="N87" s="31"/>
+      <c r="O87" s="32"/>
+      <c r="P87" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="Q87" s="54"/>
-      <c r="R87" s="55"/>
-      <c r="S87" s="53" t="s">
+      <c r="Q87" s="31"/>
+      <c r="R87" s="32"/>
+      <c r="S87" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="T87" s="54"/>
-      <c r="U87" s="55"/>
-      <c r="V87" s="47" t="s">
+      <c r="T87" s="31"/>
+      <c r="U87" s="32"/>
+      <c r="V87" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="W87" s="48"/>
+      <c r="W87" s="25"/>
       <c r="Z87" s="5"/>
       <c r="AA87" s="8"/>
       <c r="AB87" s="8"/>
@@ -6835,40 +6828,40 @@
       <c r="AV87" s="5"/>
       <c r="AW87" s="5"/>
     </row>
-    <row r="88" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
-      <c r="B88" s="85" t="s">
+      <c r="B88" s="115" t="s">
         <v>206</v>
       </c>
-      <c r="C88" s="86"/>
-      <c r="D88" s="92" t="s">
+      <c r="C88" s="116"/>
+      <c r="D88" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="E88" s="93"/>
-      <c r="F88" s="56" t="s">
+      <c r="E88" s="118"/>
+      <c r="F88" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="G88" s="57"/>
-      <c r="H88" s="57"/>
-      <c r="I88" s="57"/>
-      <c r="J88" s="57"/>
-      <c r="K88" s="57"/>
-      <c r="L88" s="57"/>
-      <c r="M88" s="57"/>
-      <c r="N88" s="57"/>
-      <c r="O88" s="57"/>
-      <c r="P88" s="57"/>
-      <c r="Q88" s="57"/>
-      <c r="R88" s="57"/>
-      <c r="S88" s="94"/>
-      <c r="T88" s="95" t="s">
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="34"/>
+      <c r="N88" s="34"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="34"/>
+      <c r="Q88" s="34"/>
+      <c r="R88" s="34"/>
+      <c r="S88" s="119"/>
+      <c r="T88" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="U88" s="96"/>
-      <c r="V88" s="97" t="s">
+      <c r="U88" s="103"/>
+      <c r="V88" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="W88" s="98"/>
+      <c r="W88" s="105"/>
       <c r="Z88" s="5"/>
       <c r="AA88" s="8"/>
       <c r="AB88" s="8"/>
@@ -6890,112 +6883,114 @@
       <c r="AV88" s="5"/>
       <c r="AW88" s="5"/>
     </row>
-    <row r="90" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="91" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="60" t="s">
+    <row r="91" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="C91" s="62"/>
-      <c r="D91" s="60" t="s">
+      <c r="C91" s="61"/>
+      <c r="D91" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="62"/>
-      <c r="F91" s="60" t="s">
+      <c r="E91" s="61"/>
+      <c r="F91" s="59" t="s">
         <v>305</v>
       </c>
-      <c r="G91" s="62"/>
-      <c r="I91" s="60" t="s">
+      <c r="G91" s="61"/>
+      <c r="I91" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="J91" s="62"/>
-      <c r="K91" s="60" t="s">
+      <c r="J91" s="61"/>
+      <c r="K91" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="62"/>
-      <c r="M91" s="60" t="s">
+      <c r="L91" s="61"/>
+      <c r="M91" s="59" t="s">
         <v>305</v>
       </c>
-      <c r="N91" s="62"/>
-      <c r="P91" s="69" t="s">
+      <c r="N91" s="61"/>
+      <c r="P91" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="Q91" s="70"/>
-      <c r="R91" s="71"/>
-      <c r="S91" s="144" t="s">
+      <c r="Q91" s="64"/>
+      <c r="R91" s="65"/>
+      <c r="S91" s="71" t="s">
         <v>313</v>
       </c>
-      <c r="T91" s="141"/>
-      <c r="U91" s="145"/>
-    </row>
-    <row r="92" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="60" t="s">
+      <c r="T91" s="72"/>
+      <c r="U91" s="73"/>
+    </row>
+    <row r="92" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="62"/>
-      <c r="D92" s="60" t="s">
+      <c r="C92" s="61"/>
+      <c r="D92" s="59" t="s">
         <v>306</v>
       </c>
-      <c r="E92" s="62"/>
-      <c r="F92" s="60" t="s">
+      <c r="E92" s="61"/>
+      <c r="F92" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="62"/>
-      <c r="I92" s="60" t="s">
+      <c r="G92" s="61"/>
+      <c r="I92" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="J92" s="62"/>
-      <c r="K92" s="60" t="s">
+      <c r="J92" s="61"/>
+      <c r="K92" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="L92" s="62"/>
-      <c r="M92" s="60" t="s">
+      <c r="L92" s="61"/>
+      <c r="M92" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="N92" s="62"/>
-      <c r="P92" s="150"/>
-      <c r="Q92" s="140"/>
-      <c r="R92" s="151"/>
-      <c r="S92" s="146"/>
-      <c r="T92" s="142"/>
-      <c r="U92" s="147"/>
-    </row>
-    <row r="93" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="60" t="s">
+      <c r="N92" s="61"/>
+      <c r="P92" s="68"/>
+      <c r="Q92" s="69"/>
+      <c r="R92" s="70"/>
+      <c r="S92" s="74"/>
+      <c r="T92" s="75"/>
+      <c r="U92" s="76"/>
+    </row>
+    <row r="93" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="59" t="s">
         <v>309</v>
       </c>
-      <c r="C93" s="62"/>
-      <c r="D93" s="60" t="s">
+      <c r="C93" s="61"/>
+      <c r="D93" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E93" s="62"/>
-      <c r="F93" s="69" t="s">
+      <c r="E93" s="61"/>
+      <c r="F93" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="G93" s="71"/>
-      <c r="I93" s="69" t="s">
+      <c r="G93" s="65"/>
+      <c r="I93" s="63" t="s">
         <v>309</v>
       </c>
-      <c r="J93" s="62"/>
-      <c r="K93" s="60" t="s">
+      <c r="J93" s="61"/>
+      <c r="K93" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="L93" s="62"/>
-      <c r="M93" s="60" t="s">
+      <c r="L93" s="61"/>
+      <c r="M93" s="59" t="s">
         <v>310</v>
       </c>
-      <c r="N93" s="62"/>
-      <c r="P93" s="72"/>
-      <c r="Q93" s="73"/>
-      <c r="R93" s="74"/>
-      <c r="S93" s="148"/>
-      <c r="T93" s="143"/>
-      <c r="U93" s="149"/>
-    </row>
-    <row r="94" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N93" s="61"/>
+      <c r="P93" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q93" s="64"/>
+      <c r="R93" s="64"/>
+      <c r="S93" s="64"/>
+      <c r="T93" s="64"/>
+      <c r="U93" s="65"/>
+    </row>
+    <row r="94" spans="1:49" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="12"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
@@ -7008,146 +7003,162 @@
       <c r="L94" s="15"/>
       <c r="M94" s="15"/>
       <c r="N94" s="16"/>
-      <c r="P94" s="13"/>
-      <c r="Q94" s="13"/>
-      <c r="R94" s="13"/>
-      <c r="S94" s="13"/>
-      <c r="T94" s="13"/>
-      <c r="U94" s="13"/>
-      <c r="W94" s="139"/>
-      <c r="X94" s="139"/>
-      <c r="Y94" s="139"/>
-      <c r="Z94" s="139"/>
-      <c r="AA94" s="139"/>
-      <c r="AB94" s="139"/>
-    </row>
-    <row r="95" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="60" t="s">
+      <c r="P94" s="66"/>
+      <c r="Q94" s="62"/>
+      <c r="R94" s="62"/>
+      <c r="S94" s="62"/>
+      <c r="T94" s="62"/>
+      <c r="U94" s="67"/>
+      <c r="W94" s="22"/>
+      <c r="X94" s="22"/>
+      <c r="Y94" s="22"/>
+      <c r="Z94" s="22"/>
+      <c r="AA94" s="22"/>
+      <c r="AB94" s="22"/>
+    </row>
+    <row r="95" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="59" t="s">
         <v>311</v>
       </c>
-      <c r="C95" s="61"/>
-      <c r="D95" s="61"/>
-      <c r="E95" s="61"/>
-      <c r="F95" s="61"/>
-      <c r="G95" s="62"/>
+      <c r="C95" s="60"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="60"/>
+      <c r="F95" s="60"/>
+      <c r="G95" s="61"/>
       <c r="H95" s="11"/>
-      <c r="I95" s="22" t="s">
+      <c r="I95" s="59" t="s">
         <v>314</v>
       </c>
-      <c r="J95" s="23"/>
-      <c r="K95" s="24"/>
-      <c r="L95" s="60" t="s">
+      <c r="J95" s="60"/>
+      <c r="K95" s="61"/>
+      <c r="L95" s="59" t="s">
         <v>315</v>
       </c>
-      <c r="M95" s="61"/>
-      <c r="N95" s="62"/>
-      <c r="P95" s="60" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q95" s="61"/>
-      <c r="R95" s="61"/>
-      <c r="S95" s="61"/>
-      <c r="T95" s="61"/>
-      <c r="U95" s="62"/>
+      <c r="M95" s="60"/>
+      <c r="N95" s="61"/>
+      <c r="P95" s="68"/>
+      <c r="Q95" s="69"/>
+      <c r="R95" s="69"/>
+      <c r="S95" s="69"/>
+      <c r="T95" s="69"/>
+      <c r="U95" s="70"/>
       <c r="V95" s="11"/>
     </row>
-    <row r="97" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="98" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="60" t="s">
+    <row r="98" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="C98" s="62"/>
-      <c r="D98" s="60" t="s">
+      <c r="C98" s="61"/>
+      <c r="D98" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E98" s="62"/>
-      <c r="F98" s="60" t="s">
+      <c r="E98" s="61"/>
+      <c r="F98" s="59" t="s">
         <v>305</v>
       </c>
-      <c r="G98" s="62"/>
-      <c r="I98" s="60" t="s">
+      <c r="G98" s="61"/>
+      <c r="I98" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="J98" s="62"/>
-      <c r="K98" s="60" t="s">
+      <c r="J98" s="61"/>
+      <c r="K98" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="L98" s="62"/>
-      <c r="M98" s="60" t="s">
+      <c r="L98" s="61"/>
+      <c r="M98" s="59" t="s">
         <v>305</v>
       </c>
-      <c r="N98" s="62"/>
-    </row>
-    <row r="99" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="60" t="s">
+      <c r="N98" s="61"/>
+      <c r="P98" s="63" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q98" s="64"/>
+      <c r="R98" s="65"/>
+      <c r="S98" s="71" t="s">
+        <v>313</v>
+      </c>
+      <c r="T98" s="72"/>
+      <c r="U98" s="73"/>
+    </row>
+    <row r="99" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="62"/>
-      <c r="D99" s="60" t="s">
+      <c r="C99" s="61"/>
+      <c r="D99" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="E99" s="62"/>
-      <c r="F99" s="60" t="s">
+      <c r="E99" s="61"/>
+      <c r="F99" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G99" s="62"/>
-      <c r="I99" s="60" t="s">
+      <c r="G99" s="61"/>
+      <c r="I99" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="J99" s="62"/>
-      <c r="K99" s="60" t="s">
+      <c r="J99" s="61"/>
+      <c r="K99" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="L99" s="62"/>
-      <c r="M99" s="60" t="s">
+      <c r="L99" s="61"/>
+      <c r="M99" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="N99" s="62"/>
-    </row>
-    <row r="100" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="69" t="s">
+      <c r="N99" s="61"/>
+      <c r="P99" s="68"/>
+      <c r="Q99" s="69"/>
+      <c r="R99" s="70"/>
+      <c r="S99" s="74"/>
+      <c r="T99" s="75"/>
+      <c r="U99" s="76"/>
+    </row>
+    <row r="100" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="63" t="s">
         <v>309</v>
       </c>
-      <c r="C100" s="71"/>
-      <c r="D100" s="69" t="s">
+      <c r="C100" s="65"/>
+      <c r="D100" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="71"/>
-      <c r="F100" s="69" t="s">
+      <c r="E100" s="65"/>
+      <c r="F100" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="G100" s="71"/>
-      <c r="I100" s="60" t="s">
+      <c r="G100" s="65"/>
+      <c r="I100" s="59" t="s">
         <v>309</v>
       </c>
-      <c r="J100" s="62"/>
-      <c r="K100" s="60" t="s">
+      <c r="J100" s="61"/>
+      <c r="K100" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="L100" s="62"/>
-      <c r="M100" s="60" t="s">
+      <c r="L100" s="61"/>
+      <c r="M100" s="59" t="s">
         <v>310</v>
       </c>
-      <c r="N100" s="62"/>
-      <c r="P100" s="152"/>
-      <c r="Q100" s="152"/>
-      <c r="R100" s="152"/>
-      <c r="S100" s="152"/>
-      <c r="T100" s="152"/>
-      <c r="U100" s="152"/>
-      <c r="V100" s="152"/>
-      <c r="W100" s="152"/>
-      <c r="X100" s="152"/>
-      <c r="Y100" s="152"/>
-      <c r="Z100" s="152"/>
-      <c r="AA100" s="152"/>
-      <c r="AB100" s="152"/>
-    </row>
-    <row r="101" spans="2:32" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N100" s="61"/>
+      <c r="P100" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q100" s="64"/>
+      <c r="R100" s="64"/>
+      <c r="S100" s="64"/>
+      <c r="T100" s="64"/>
+      <c r="U100" s="65"/>
+      <c r="V100" s="23"/>
+      <c r="W100" s="23"/>
+      <c r="X100" s="23"/>
+      <c r="Y100" s="23"/>
+      <c r="Z100" s="23"/>
+      <c r="AA100" s="23"/>
+      <c r="AB100" s="23"/>
+    </row>
+    <row r="101" spans="2:32" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="19"/>
       <c r="C101" s="21"/>
       <c r="D101" s="21"/>
@@ -7160,467 +7171,804 @@
       <c r="L101" s="17"/>
       <c r="M101" s="17"/>
       <c r="N101" s="18"/>
-      <c r="P101" s="139"/>
-      <c r="Q101" s="139"/>
-      <c r="R101" s="139"/>
-      <c r="S101" s="139"/>
-      <c r="T101" s="139"/>
-      <c r="U101" s="139"/>
-      <c r="W101" s="139"/>
-      <c r="X101" s="139"/>
-      <c r="Y101" s="139"/>
-      <c r="Z101" s="139"/>
-      <c r="AA101" s="139"/>
-      <c r="AB101" s="139"/>
-    </row>
-    <row r="102" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="60" t="s">
+      <c r="P101" s="66"/>
+      <c r="Q101" s="62"/>
+      <c r="R101" s="62"/>
+      <c r="S101" s="62"/>
+      <c r="T101" s="62"/>
+      <c r="U101" s="67"/>
+      <c r="W101" s="22"/>
+      <c r="X101" s="22"/>
+      <c r="Y101" s="22"/>
+      <c r="Z101" s="22"/>
+      <c r="AA101" s="22"/>
+      <c r="AB101" s="22"/>
+    </row>
+    <row r="102" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="59" t="s">
         <v>311</v>
       </c>
-      <c r="C102" s="61"/>
-      <c r="D102" s="61"/>
-      <c r="E102" s="61"/>
-      <c r="F102" s="61"/>
-      <c r="G102" s="62"/>
+      <c r="C102" s="60"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="60"/>
+      <c r="G102" s="61"/>
       <c r="H102" s="11"/>
-      <c r="I102" s="60" t="s">
-        <v>316</v>
-      </c>
-      <c r="J102" s="61"/>
+      <c r="I102" s="59" t="s">
+        <v>314</v>
+      </c>
+      <c r="J102" s="60"/>
       <c r="K102" s="61"/>
-      <c r="L102" s="61"/>
-      <c r="M102" s="61"/>
-      <c r="N102" s="62"/>
-      <c r="P102" s="11"/>
-      <c r="Q102" s="11"/>
-      <c r="R102" s="11"/>
-      <c r="S102" s="11"/>
-      <c r="T102" s="11"/>
-      <c r="U102" s="11"/>
+      <c r="L102" s="59" t="s">
+        <v>315</v>
+      </c>
+      <c r="M102" s="60"/>
+      <c r="N102" s="61"/>
+      <c r="P102" s="68"/>
+      <c r="Q102" s="69"/>
+      <c r="R102" s="69"/>
+      <c r="S102" s="69"/>
+      <c r="T102" s="69"/>
+      <c r="U102" s="70"/>
       <c r="V102" s="11"/>
-      <c r="W102" s="140"/>
-      <c r="X102" s="140"/>
-      <c r="Y102" s="140"/>
-      <c r="Z102" s="140"/>
-      <c r="AA102" s="140"/>
-      <c r="AB102" s="140"/>
-    </row>
-    <row r="104" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="W102" s="62"/>
+      <c r="X102" s="62"/>
+      <c r="Y102" s="62"/>
+      <c r="Z102" s="62"/>
+      <c r="AA102" s="62"/>
+      <c r="AB102" s="62"/>
+    </row>
+    <row r="104" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="105" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="69" t="s">
+    <row r="105" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="63" t="s">
         <v>320</v>
       </c>
-      <c r="C105" s="70"/>
-      <c r="D105" s="70"/>
-      <c r="E105" s="71"/>
-      <c r="F105" s="69" t="s">
+      <c r="C105" s="64"/>
+      <c r="D105" s="64"/>
+      <c r="E105" s="65"/>
+      <c r="F105" s="135" t="s">
+        <v>329</v>
+      </c>
+      <c r="G105" s="136"/>
+      <c r="H105" s="136"/>
+      <c r="I105" s="137"/>
+      <c r="J105" s="63" t="s">
         <v>322</v>
       </c>
-      <c r="G105" s="70"/>
-      <c r="H105" s="70"/>
-      <c r="I105" s="71"/>
-      <c r="K105" s="60" t="s">
+      <c r="K105" s="64"/>
+      <c r="L105" s="64"/>
+      <c r="M105" s="65"/>
+      <c r="O105" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="L105" s="62"/>
-      <c r="M105" s="60" t="s">
+      <c r="P105" s="61"/>
+      <c r="Q105" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="N105" s="62"/>
-      <c r="O105" s="60" t="s">
+      <c r="R105" s="61"/>
+      <c r="S105" s="59" t="s">
         <v>305</v>
       </c>
-      <c r="P105" s="62"/>
-      <c r="Q105" s="11"/>
-      <c r="R105" s="133" t="s">
+      <c r="T105" s="61"/>
+      <c r="U105" s="11"/>
+      <c r="V105" s="89" t="s">
         <v>324</v>
       </c>
-      <c r="S105" s="70"/>
-      <c r="T105" s="70"/>
-      <c r="U105" s="71"/>
-      <c r="V105" s="63" t="s">
+      <c r="W105" s="90"/>
+      <c r="X105" s="90"/>
+      <c r="Y105" s="91"/>
+      <c r="Z105" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA105" s="61"/>
+      <c r="AB105" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC105" s="61"/>
+      <c r="AD105" s="11"/>
+    </row>
+    <row r="106" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="68"/>
+      <c r="C106" s="69"/>
+      <c r="D106" s="69"/>
+      <c r="E106" s="70"/>
+      <c r="F106" s="138"/>
+      <c r="G106" s="139"/>
+      <c r="H106" s="139"/>
+      <c r="I106" s="140"/>
+      <c r="J106" s="68"/>
+      <c r="K106" s="69"/>
+      <c r="L106" s="69"/>
+      <c r="M106" s="70"/>
+      <c r="O106" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="P106" s="61"/>
+      <c r="Q106" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="R106" s="61"/>
+      <c r="S106" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="T106" s="61"/>
+      <c r="U106" s="11"/>
+      <c r="V106" s="92"/>
+      <c r="W106" s="93"/>
+      <c r="X106" s="93"/>
+      <c r="Y106" s="94"/>
+      <c r="Z106" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA106" s="61"/>
+      <c r="AB106" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC106" s="61"/>
+      <c r="AD106" s="11"/>
+    </row>
+    <row r="107" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="89" t="s">
+        <v>321</v>
+      </c>
+      <c r="C107" s="90"/>
+      <c r="D107" s="90"/>
+      <c r="E107" s="91"/>
+      <c r="F107" s="63" t="s">
+        <v>319</v>
+      </c>
+      <c r="G107" s="64"/>
+      <c r="H107" s="64"/>
+      <c r="I107" s="65"/>
+      <c r="J107" s="135" t="s">
         <v>325</v>
       </c>
-      <c r="W105" s="64"/>
-      <c r="X105" s="64"/>
-      <c r="Y105" s="65"/>
-      <c r="AA105" s="11"/>
-      <c r="AB105" s="11"/>
-      <c r="AC105" s="11"/>
-      <c r="AD105" s="11"/>
-      <c r="AE105" s="11"/>
-      <c r="AF105" s="11"/>
-    </row>
-    <row r="106" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="72"/>
-      <c r="C106" s="73"/>
-      <c r="D106" s="73"/>
-      <c r="E106" s="74"/>
-      <c r="F106" s="72"/>
-      <c r="G106" s="73"/>
-      <c r="H106" s="73"/>
-      <c r="I106" s="74"/>
-      <c r="K106" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="L106" s="62"/>
-      <c r="M106" s="60" t="s">
-        <v>318</v>
-      </c>
-      <c r="N106" s="62"/>
-      <c r="O106" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P106" s="62"/>
-      <c r="Q106" s="11"/>
-      <c r="R106" s="72"/>
-      <c r="S106" s="73"/>
-      <c r="T106" s="73"/>
-      <c r="U106" s="74"/>
-      <c r="V106" s="66"/>
-      <c r="W106" s="67"/>
-      <c r="X106" s="67"/>
-      <c r="Y106" s="68"/>
-      <c r="AA106" s="11"/>
-      <c r="AB106" s="11"/>
-      <c r="AC106" s="11"/>
-      <c r="AD106" s="11"/>
-      <c r="AE106" s="11"/>
-      <c r="AF106" s="11"/>
-    </row>
-    <row r="107" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="133" t="s">
-        <v>321</v>
-      </c>
-      <c r="C107" s="134"/>
-      <c r="D107" s="134"/>
-      <c r="E107" s="135"/>
-      <c r="F107" s="69" t="s">
-        <v>319</v>
-      </c>
-      <c r="G107" s="70"/>
-      <c r="H107" s="70"/>
-      <c r="I107" s="71"/>
-      <c r="K107" s="60" t="s">
+      <c r="K107" s="136"/>
+      <c r="L107" s="136"/>
+      <c r="M107" s="137"/>
+      <c r="O107" s="59" t="s">
         <v>309</v>
       </c>
-      <c r="L107" s="62"/>
-      <c r="M107" s="60" t="s">
+      <c r="P107" s="61"/>
+      <c r="Q107" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N107" s="62"/>
-      <c r="O107" s="60" t="s">
+      <c r="R107" s="61"/>
+      <c r="S107" s="59" t="s">
         <v>310</v>
       </c>
-      <c r="P107" s="62"/>
-      <c r="Q107" s="11"/>
-      <c r="R107" s="69" t="s">
+      <c r="T107" s="61"/>
+      <c r="U107" s="11"/>
+      <c r="V107" s="63" t="s">
         <v>303</v>
       </c>
-      <c r="S107" s="70"/>
-      <c r="T107" s="70"/>
-      <c r="U107" s="70"/>
-      <c r="V107" s="70"/>
-      <c r="W107" s="70"/>
-      <c r="X107" s="70"/>
-      <c r="Y107" s="71"/>
-      <c r="AA107" s="11"/>
-      <c r="AB107" s="11"/>
-      <c r="AC107" s="11"/>
+      <c r="W107" s="64"/>
+      <c r="X107" s="64"/>
+      <c r="Y107" s="64"/>
+      <c r="Z107" s="64"/>
+      <c r="AA107" s="64"/>
+      <c r="AB107" s="64"/>
+      <c r="AC107" s="65"/>
       <c r="AD107" s="11"/>
       <c r="AE107" s="11"/>
       <c r="AF107" s="11"/>
     </row>
-    <row r="108" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="136"/>
-      <c r="C108" s="137"/>
-      <c r="D108" s="137"/>
-      <c r="E108" s="138"/>
-      <c r="F108" s="72"/>
-      <c r="G108" s="73"/>
-      <c r="H108" s="73"/>
-      <c r="I108" s="74"/>
-      <c r="K108" s="60" t="s">
+    <row r="108" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="92"/>
+      <c r="C108" s="93"/>
+      <c r="D108" s="93"/>
+      <c r="E108" s="94"/>
+      <c r="F108" s="68"/>
+      <c r="G108" s="69"/>
+      <c r="H108" s="69"/>
+      <c r="I108" s="70"/>
+      <c r="J108" s="138"/>
+      <c r="K108" s="139"/>
+      <c r="L108" s="139"/>
+      <c r="M108" s="140"/>
+      <c r="O108" s="59" t="s">
         <v>323</v>
       </c>
-      <c r="L108" s="61"/>
-      <c r="M108" s="61"/>
-      <c r="N108" s="61"/>
-      <c r="O108" s="61"/>
-      <c r="P108" s="62"/>
-      <c r="Q108" s="11"/>
-      <c r="R108" s="72"/>
-      <c r="S108" s="73"/>
-      <c r="T108" s="73"/>
-      <c r="U108" s="73"/>
-      <c r="V108" s="73"/>
-      <c r="W108" s="73"/>
-      <c r="X108" s="73"/>
-      <c r="Y108" s="74"/>
-      <c r="AA108" s="11"/>
-      <c r="AB108" s="11"/>
-      <c r="AC108" s="11"/>
+      <c r="P108" s="60"/>
+      <c r="Q108" s="60"/>
+      <c r="R108" s="60"/>
+      <c r="S108" s="60"/>
+      <c r="T108" s="61"/>
+      <c r="U108" s="11"/>
+      <c r="V108" s="68"/>
+      <c r="W108" s="69"/>
+      <c r="X108" s="69"/>
+      <c r="Y108" s="69"/>
+      <c r="Z108" s="69"/>
+      <c r="AA108" s="69"/>
+      <c r="AB108" s="69"/>
+      <c r="AC108" s="70"/>
       <c r="AD108" s="11"/>
       <c r="AE108" s="11"/>
       <c r="AF108" s="11"/>
     </row>
-    <row r="110" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B110" s="9"/>
     </row>
-    <row r="112" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B112" s="9"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="9"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="9"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="9"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="9"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="9"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="9"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="9"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" s="9"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" s="9"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="9"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" s="9"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="9"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" s="9"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" s="9"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" s="9"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="9"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" s="9"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" s="9"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" s="9"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" s="9"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" s="9"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" s="9"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" s="9"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" s="9"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" s="9"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" s="9"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" s="9"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" s="9"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" s="9"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" s="9"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" s="9"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" s="9"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" s="9"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" s="9"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="620">
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="W102:AB102"/>
-    <mergeCell ref="P91:R93"/>
-    <mergeCell ref="S91:U93"/>
-    <mergeCell ref="I102:N102"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="P95:U95"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="K108:P108"/>
-    <mergeCell ref="B105:E106"/>
-    <mergeCell ref="B107:E108"/>
+  <mergeCells count="630">
+    <mergeCell ref="AB105:AC105"/>
+    <mergeCell ref="Z106:AA106"/>
+    <mergeCell ref="AB106:AC106"/>
+    <mergeCell ref="P100:U102"/>
+    <mergeCell ref="I95:K95"/>
+    <mergeCell ref="I102:K102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="Z105:AA105"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="V107:AC108"/>
+    <mergeCell ref="P37:AC38"/>
+    <mergeCell ref="W35:AC36"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="B93:C93"/>
     <mergeCell ref="F105:I106"/>
     <mergeCell ref="F107:I108"/>
-    <mergeCell ref="R105:U106"/>
-    <mergeCell ref="K107:L107"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="O107:P107"/>
-    <mergeCell ref="K106:L106"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="O106:P106"/>
-    <mergeCell ref="K105:L105"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="O105:P105"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:S20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="S87:U87"/>
-    <mergeCell ref="V87:W87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:S88"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="V88:W88"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="P87:R87"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="P91:R92"/>
+    <mergeCell ref="S91:U92"/>
+    <mergeCell ref="P93:U95"/>
+    <mergeCell ref="P98:R99"/>
+    <mergeCell ref="S98:U99"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="B35:H36"/>
+    <mergeCell ref="I35:O36"/>
+    <mergeCell ref="P35:V36"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="U81:V81"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="R70:U70"/>
+    <mergeCell ref="V70:W70"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="R78:U78"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="B37:H38"/>
+    <mergeCell ref="I37:O38"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:S74"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="V73:W73"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="R62:U62"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:S58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="R54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="R32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:S42"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="P32:Q32"/>
     <mergeCell ref="J84:M84"/>
     <mergeCell ref="N84:O84"/>
     <mergeCell ref="R84:U84"/>
@@ -7645,462 +7993,147 @@
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="G41:I41"/>
     <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="V87:W87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:S88"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="V88:W88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="P87:R87"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:S20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="R32:U32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:S42"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="R54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:S58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="R62:U62"/>
-    <mergeCell ref="V73:W73"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:S66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="V74:W74"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:S74"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="V68:W68"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="B37:H38"/>
-    <mergeCell ref="I37:O38"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="B35:H36"/>
-    <mergeCell ref="I35:O36"/>
-    <mergeCell ref="P35:V36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="S81:T81"/>
-    <mergeCell ref="U81:V81"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="R70:U70"/>
-    <mergeCell ref="V70:W70"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="R78:U78"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="V75:W75"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="V76:W76"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="O108:T108"/>
+    <mergeCell ref="B105:E106"/>
+    <mergeCell ref="B107:E108"/>
+    <mergeCell ref="J105:M106"/>
+    <mergeCell ref="J107:M108"/>
     <mergeCell ref="V105:Y106"/>
-    <mergeCell ref="R107:Y108"/>
-    <mergeCell ref="P37:AC38"/>
-    <mergeCell ref="W35:AC36"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="O107:P107"/>
+    <mergeCell ref="Q107:R107"/>
+    <mergeCell ref="S107:T107"/>
+    <mergeCell ref="O106:P106"/>
+    <mergeCell ref="Q106:R106"/>
+    <mergeCell ref="S106:T106"/>
+    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="Q105:R105"/>
+    <mergeCell ref="S105:T105"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="W102:AB102"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="K91:L91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/docs/Keyboard Designs.xlsx
+++ b/docs/Keyboard Designs.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julius\Documents\GitHub\OptiKey\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="11610" windowHeight="5850" activeTab="1"/>
+    <workbookView xWindow="396" yWindow="96" windowWidth="11616" windowHeight="5856" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KEYBOARDS - SpeechOnly" sheetId="6" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="332">
   <si>
     <t>A</t>
   </si>
@@ -391,9 +386,6 @@
     <t>SPEAK</t>
   </si>
   <si>
-    <t>PUB</t>
-  </si>
-  <si>
     <t>CLEAR</t>
   </si>
   <si>
@@ -908,9 +900,6 @@
   </si>
   <si>
     <t>MORE:</t>
-  </si>
-  <si>
-    <t>SETTINGS</t>
   </si>
   <si>
     <t>ALT ALPHA
@@ -1014,6 +1003,19 @@
   </si>
   <si>
     <t>MIDDLE CLICK</t>
+  </si>
+  <si>
+    <t>ALPHA
+A → Z</t>
+  </si>
+  <si>
+    <t>SIZE &amp; OPACITY</t>
+  </si>
+  <si>
+    <t>POSITION &amp; OPACITY</t>
+  </si>
+  <si>
+    <t>KEY</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1546,6 +1548,72 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1585,132 +1653,243 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1732,187 +1911,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1975,7 +1983,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2010,7 +2018,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2225,11 +2233,11 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="24" width="2.7109375" customWidth="1"/>
-    <col min="25" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="46" width="8.85546875" customWidth="1"/>
+    <col min="1" max="24" width="2.6640625" customWidth="1"/>
+    <col min="25" max="25" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="46" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2239,38 +2247,38 @@
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="24" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="V3" s="25"/>
+      <c r="V3" s="47"/>
       <c r="Z3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
@@ -2288,36 +2296,36 @@
     </row>
     <row r="4" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="C4" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="26" t="s">
+      <c r="C4" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="T4" s="27"/>
-      <c r="U4" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="V4" s="29"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="V4" s="51"/>
       <c r="Z4" s="4"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
@@ -2334,46 +2342,46 @@
       <c r="AQ4" s="7"/>
     </row>
     <row r="5" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="54" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="54" t="s">
+      <c r="F5" s="29"/>
+      <c r="G5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="54" t="s">
+      <c r="H5" s="29"/>
+      <c r="I5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="55"/>
-      <c r="K5" s="54" t="s">
+      <c r="J5" s="29"/>
+      <c r="K5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="55"/>
-      <c r="M5" s="54" t="s">
+      <c r="L5" s="29"/>
+      <c r="M5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="55"/>
-      <c r="O5" s="54" t="s">
+      <c r="N5" s="29"/>
+      <c r="O5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="54" t="s">
+      <c r="P5" s="29"/>
+      <c r="Q5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="55"/>
-      <c r="S5" s="54" t="s">
+      <c r="R5" s="29"/>
+      <c r="S5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="55"/>
-      <c r="U5" s="45" t="s">
+      <c r="T5" s="29"/>
+      <c r="U5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="57"/>
+      <c r="V5" s="25"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Z5" s="7"/>
@@ -2396,46 +2404,46 @@
     </row>
     <row r="6" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="58" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="45" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="45" t="s">
+      <c r="G6" s="27"/>
+      <c r="H6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="45" t="s">
+      <c r="I6" s="27"/>
+      <c r="J6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="45" t="s">
+      <c r="K6" s="27"/>
+      <c r="L6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="47"/>
-      <c r="N6" s="45" t="s">
+      <c r="M6" s="27"/>
+      <c r="N6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="47"/>
-      <c r="P6" s="45" t="s">
+      <c r="O6" s="27"/>
+      <c r="P6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="45" t="s">
+      <c r="Q6" s="27"/>
+      <c r="R6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="47"/>
-      <c r="T6" s="45" t="s">
+      <c r="S6" s="27"/>
+      <c r="T6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="47"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
       <c r="X6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
@@ -2455,46 +2463,46 @@
     </row>
     <row r="7" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38" t="s">
+      <c r="G7" s="30"/>
+      <c r="H7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38" t="s">
+      <c r="I7" s="30"/>
+      <c r="J7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38" t="s">
+      <c r="K7" s="30"/>
+      <c r="L7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38" t="s">
+      <c r="M7" s="30"/>
+      <c r="N7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38" t="s">
+      <c r="O7" s="30"/>
+      <c r="P7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="56" t="s">
+      <c r="Q7" s="30"/>
+      <c r="R7" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="S7" s="56"/>
-      <c r="T7" s="39" t="s">
+      <c r="S7" s="31"/>
+      <c r="T7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="40"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
       <c r="X7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -2512,38 +2520,38 @@
     </row>
     <row r="8" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="45" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="51" t="s">
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="51" t="s">
+      <c r="I8" s="44"/>
+      <c r="J8" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="51" t="s">
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="52"/>
-      <c r="P8" s="41" t="s">
+      <c r="O8" s="44"/>
+      <c r="P8" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="39" t="s">
+      <c r="Q8" s="36"/>
+      <c r="R8" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="40"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="34"/>
       <c r="X8" s="7"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
@@ -2560,7 +2568,7 @@
       <c r="AR8" s="7"/>
       <c r="AS8" s="7"/>
     </row>
-    <row r="9" spans="1:46" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -2593,29 +2601,17 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="G4:R4"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="T7:U7"/>
@@ -2632,17 +2628,29 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="G4:R4"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="T6:U6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2653,14 +2661,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AW182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="V105" sqref="V105:Y106"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="32" width="2.7109375" customWidth="1"/>
-    <col min="33" max="49" width="8.85546875" customWidth="1"/>
+    <col min="1" max="32" width="2.6640625" customWidth="1"/>
+    <col min="33" max="49" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2670,50 +2678,50 @@
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="T3" s="31"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="24" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="53"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N3" s="53"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="T3" s="53"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="W3" s="25"/>
-      <c r="Z3" s="86" t="s">
+      <c r="W3" s="47"/>
+      <c r="Z3" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="88"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="129"/>
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
@@ -2728,46 +2736,46 @@
       <c r="AS3" s="5"/>
       <c r="AT3" s="5"/>
     </row>
-    <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="115" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="117" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="118"/>
-      <c r="F4" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="102" t="s">
+      <c r="B4" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="94"/>
+      <c r="D4" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="103"/>
+      <c r="F4" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="U4" s="103"/>
-      <c r="V4" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="W4" s="105"/>
-      <c r="Z4" s="77" t="s">
+      <c r="U4" s="106"/>
+      <c r="V4" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="W4" s="108"/>
+      <c r="Z4" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="79"/>
+      <c r="AA4" s="126"/>
+      <c r="AB4" s="126"/>
+      <c r="AC4" s="138"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
@@ -2783,54 +2791,54 @@
       <c r="AT4" s="5"/>
     </row>
     <row r="5" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="54" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="54" t="s">
+      <c r="F5" s="29"/>
+      <c r="G5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="54" t="s">
+      <c r="H5" s="29"/>
+      <c r="I5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="55"/>
-      <c r="K5" s="54" t="s">
+      <c r="J5" s="29"/>
+      <c r="K5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="55"/>
-      <c r="M5" s="54" t="s">
+      <c r="L5" s="29"/>
+      <c r="M5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="55"/>
-      <c r="O5" s="54" t="s">
+      <c r="N5" s="29"/>
+      <c r="O5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="54" t="s">
+      <c r="P5" s="29"/>
+      <c r="Q5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="55"/>
-      <c r="S5" s="54" t="s">
+      <c r="R5" s="29"/>
+      <c r="S5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="55"/>
-      <c r="U5" s="54" t="s">
+      <c r="T5" s="29"/>
+      <c r="U5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="55"/>
+      <c r="V5" s="29"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
-      <c r="Z5" s="80" t="s">
+      <c r="Z5" s="139" t="s">
         <v>85</v>
       </c>
-      <c r="AA5" s="81"/>
-      <c r="AB5" s="81"/>
-      <c r="AC5" s="82"/>
+      <c r="AA5" s="140"/>
+      <c r="AB5" s="140"/>
+      <c r="AC5" s="141"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
@@ -2848,58 +2856,58 @@
       <c r="AV5" s="5"/>
       <c r="AW5" s="5"/>
     </row>
-    <row r="6" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="130"/>
-      <c r="D6" s="38" t="s">
+      <c r="C6" s="109"/>
+      <c r="D6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38" t="s">
+      <c r="K6" s="30"/>
+      <c r="L6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38" t="s">
+      <c r="M6" s="30"/>
+      <c r="N6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38" t="s">
+      <c r="O6" s="30"/>
+      <c r="P6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38" t="s">
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38" t="s">
+      <c r="S6" s="30"/>
+      <c r="T6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="38"/>
-      <c r="V6" s="51" t="s">
+      <c r="U6" s="30"/>
+      <c r="V6" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="W6" s="52"/>
-      <c r="Z6" s="83" t="s">
+      <c r="W6" s="44"/>
+      <c r="Z6" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="85"/>
+      <c r="AA6" s="143"/>
+      <c r="AB6" s="143"/>
+      <c r="AC6" s="144"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
@@ -2917,52 +2925,52 @@
       <c r="AV6" s="5"/>
       <c r="AW6" s="5"/>
     </row>
-    <row r="7" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38" t="s">
+      <c r="G7" s="30"/>
+      <c r="H7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38" t="s">
+      <c r="I7" s="30"/>
+      <c r="J7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38" t="s">
+      <c r="K7" s="30"/>
+      <c r="L7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38" t="s">
+      <c r="M7" s="30"/>
+      <c r="N7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38" t="s">
+      <c r="O7" s="30"/>
+      <c r="P7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="56" t="s">
+      <c r="Q7" s="30"/>
+      <c r="R7" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="S7" s="56"/>
-      <c r="T7" s="39" t="s">
+      <c r="S7" s="31"/>
+      <c r="T7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="40"/>
-      <c r="V7" s="39" t="s">
+      <c r="U7" s="34"/>
+      <c r="V7" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="W7" s="40"/>
+      <c r="W7" s="34"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="8"/>
       <c r="AH7" s="5"/>
@@ -2979,48 +2987,50 @@
       <c r="AS7" s="5"/>
       <c r="AT7" s="5"/>
     </row>
-    <row r="8" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120" t="s">
+      <c r="C8" s="91"/>
+      <c r="D8" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120" t="s">
+      <c r="E8" s="91"/>
+      <c r="F8" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="120"/>
-      <c r="H8" s="51" t="s">
+      <c r="G8" s="91"/>
+      <c r="H8" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="51" t="s">
+      <c r="I8" s="44"/>
+      <c r="J8" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="51" t="s">
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="52"/>
-      <c r="P8" s="41" t="s">
+      <c r="O8" s="44"/>
+      <c r="P8" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="39" t="s">
+      <c r="Q8" s="36"/>
+      <c r="R8" s="148" t="s">
+        <v>331</v>
+      </c>
+      <c r="S8" s="148"/>
+      <c r="T8" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="W8" s="40"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="W8" s="34"/>
       <c r="X8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="8"/>
@@ -3039,7 +3049,7 @@
       <c r="AU8" s="5"/>
       <c r="AV8" s="5"/>
     </row>
-    <row r="9" spans="1:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3078,46 +3088,46 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="T11" s="31"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="24" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="53"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N11" s="53"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="T11" s="53"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="W11" s="25"/>
+      <c r="W11" s="47"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="8"/>
       <c r="AH11" s="5"/>
@@ -3136,40 +3146,40 @@
       <c r="AU11" s="5"/>
       <c r="AV11" s="5"/>
     </row>
-    <row r="12" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="115" t="s">
-        <v>206</v>
-      </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" s="118"/>
-      <c r="F12" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="119"/>
-      <c r="T12" s="102" t="s">
+      <c r="B12" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="94"/>
+      <c r="D12" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="103"/>
+      <c r="F12" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="U12" s="103"/>
-      <c r="V12" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="W12" s="105"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="W12" s="108"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="8"/>
       <c r="AH12" s="5"/>
@@ -3188,51 +3198,51 @@
       <c r="AU12" s="5"/>
       <c r="AV12" s="5"/>
     </row>
-    <row r="13" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="111">
+    <row r="13" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="122">
         <v>1</v>
       </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="111">
+      <c r="C13" s="123"/>
+      <c r="D13" s="122">
         <v>2</v>
       </c>
-      <c r="E13" s="112"/>
-      <c r="F13" s="54">
+      <c r="E13" s="123"/>
+      <c r="F13" s="28">
         <v>3</v>
       </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="113">
+      <c r="G13" s="29"/>
+      <c r="H13" s="124">
         <v>4</v>
       </c>
-      <c r="I13" s="114"/>
-      <c r="J13" s="54">
+      <c r="I13" s="125"/>
+      <c r="J13" s="28">
         <v>5</v>
       </c>
-      <c r="K13" s="55"/>
-      <c r="L13" s="54">
+      <c r="K13" s="29"/>
+      <c r="L13" s="28">
         <v>6</v>
       </c>
-      <c r="M13" s="55"/>
-      <c r="N13" s="54">
+      <c r="M13" s="29"/>
+      <c r="N13" s="28">
         <v>7</v>
       </c>
-      <c r="O13" s="55"/>
-      <c r="P13" s="54">
+      <c r="O13" s="29"/>
+      <c r="P13" s="28">
         <v>8</v>
       </c>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="54">
+      <c r="Q13" s="29"/>
+      <c r="R13" s="28">
         <v>9</v>
       </c>
-      <c r="S13" s="55"/>
-      <c r="T13" s="54">
+      <c r="S13" s="29"/>
+      <c r="T13" s="28">
         <v>0</v>
       </c>
-      <c r="U13" s="55"/>
-      <c r="V13" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="W13" s="38"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="W13" s="30"/>
       <c r="X13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="8"/>
@@ -3253,52 +3263,52 @@
       <c r="AV13" s="5"/>
       <c r="AW13" s="5"/>
     </row>
-    <row r="14" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="127" t="s">
+      <c r="B14" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="127" t="s">
+      <c r="C14" s="116"/>
+      <c r="D14" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="128"/>
-      <c r="F14" s="123" t="s">
+      <c r="E14" s="116"/>
+      <c r="F14" s="111" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="123"/>
-      <c r="H14" s="129" t="s">
+      <c r="G14" s="111"/>
+      <c r="H14" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123" t="s">
+      <c r="I14" s="111"/>
+      <c r="J14" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123" t="s">
+      <c r="K14" s="111"/>
+      <c r="L14" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="123"/>
-      <c r="N14" s="124" t="s">
+      <c r="M14" s="111"/>
+      <c r="N14" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="O14" s="125"/>
-      <c r="P14" s="124" t="s">
+      <c r="O14" s="113"/>
+      <c r="P14" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="Q14" s="125"/>
-      <c r="R14" s="124" t="s">
+      <c r="Q14" s="113"/>
+      <c r="R14" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="S14" s="125"/>
-      <c r="T14" s="124" t="s">
+      <c r="S14" s="113"/>
+      <c r="T14" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="U14" s="125"/>
-      <c r="V14" s="126" t="s">
+      <c r="U14" s="113"/>
+      <c r="V14" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="W14" s="126"/>
+      <c r="W14" s="114"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AH14" s="5"/>
@@ -3318,52 +3328,52 @@
       <c r="AV14" s="5"/>
       <c r="AW14" s="5"/>
     </row>
-    <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38" t="s">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38" t="s">
+      <c r="G15" s="30"/>
+      <c r="H15" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="108" t="s">
+      <c r="I15" s="30"/>
+      <c r="J15" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="108" t="s">
+      <c r="K15" s="30"/>
+      <c r="L15" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="38"/>
-      <c r="N15" s="108" t="s">
+      <c r="M15" s="30"/>
+      <c r="N15" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38" t="s">
+      <c r="O15" s="30"/>
+      <c r="P15" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="56" t="s">
+      <c r="Q15" s="30"/>
+      <c r="R15" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56" t="s">
+      <c r="S15" s="31"/>
+      <c r="T15" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56" t="s">
+      <c r="U15" s="31"/>
+      <c r="V15" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="W15" s="56"/>
+      <c r="W15" s="31"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
@@ -3388,48 +3398,50 @@
       <c r="AU15" s="5"/>
       <c r="AV15" s="5"/>
     </row>
-    <row r="16" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="120" t="s">
+      <c r="B16" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120" t="s">
+      <c r="C16" s="91"/>
+      <c r="D16" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120" t="s">
+      <c r="E16" s="91"/>
+      <c r="F16" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121" t="s">
+      <c r="G16" s="91"/>
+      <c r="H16" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="121"/>
-      <c r="J16" s="51" t="s">
+      <c r="I16" s="96"/>
+      <c r="J16" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="51" t="s">
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="52"/>
-      <c r="P16" s="106" t="s">
+      <c r="O16" s="44"/>
+      <c r="P16" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="107"/>
-      <c r="R16" s="39" t="s">
+      <c r="Q16" s="146"/>
+      <c r="R16" s="148" t="s">
+        <v>331</v>
+      </c>
+      <c r="S16" s="148"/>
+      <c r="T16" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="W16" s="40"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="W16" s="34"/>
       <c r="X16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="8"/>
@@ -3449,7 +3461,7 @@
       <c r="AU16" s="5"/>
       <c r="AV16" s="5"/>
     </row>
-    <row r="17" spans="1:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -3494,46 +3506,46 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="K19" s="31"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="T19" s="31"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="24" t="s">
+      <c r="C19" s="47"/>
+      <c r="D19" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K19" s="53"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N19" s="53"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="T19" s="53"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="W19" s="25"/>
+      <c r="W19" s="47"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="8"/>
@@ -3559,40 +3571,40 @@
       <c r="AU19" s="5"/>
       <c r="AV19" s="5"/>
     </row>
-    <row r="20" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
-      <c r="B20" s="115" t="s">
-        <v>206</v>
-      </c>
-      <c r="C20" s="116"/>
-      <c r="D20" s="117" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" s="118"/>
-      <c r="F20" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="119"/>
-      <c r="T20" s="102" t="s">
+      <c r="B20" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="94"/>
+      <c r="D20" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="103"/>
+      <c r="F20" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="104"/>
+      <c r="T20" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="U20" s="103"/>
-      <c r="V20" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="W20" s="105"/>
+      <c r="U20" s="106"/>
+      <c r="V20" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="W20" s="108"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="8"/>
@@ -3618,103 +3630,103 @@
       <c r="AU20" s="5"/>
       <c r="AV20" s="5"/>
     </row>
-    <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="45" t="s">
+    <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="45" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="109" t="s">
+      <c r="G21" s="27"/>
+      <c r="H21" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="110"/>
-      <c r="J21" s="45" t="s">
+      <c r="I21" s="99"/>
+      <c r="J21" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="K21" s="47"/>
-      <c r="L21" s="109" t="s">
-        <v>127</v>
-      </c>
-      <c r="M21" s="110"/>
-      <c r="N21" s="45" t="s">
+      <c r="K21" s="27"/>
+      <c r="L21" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="M21" s="99"/>
+      <c r="N21" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="O21" s="47"/>
-      <c r="P21" s="45" t="s">
+      <c r="O21" s="27"/>
+      <c r="P21" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="45" t="s">
+      <c r="Q21" s="27"/>
+      <c r="R21" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="S21" s="47"/>
-      <c r="T21" s="45" t="s">
+      <c r="S21" s="27"/>
+      <c r="T21" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="U21" s="47"/>
-      <c r="V21" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="W21" s="38"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="W21" s="30"/>
       <c r="X21" s="5"/>
       <c r="AT21" s="5"/>
       <c r="AU21" s="5"/>
       <c r="AV21" s="5"/>
       <c r="AW21" s="5"/>
     </row>
-    <row r="22" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38" t="s">
+      <c r="B22" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38" t="s">
+      <c r="E22" s="30"/>
+      <c r="F22" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38" t="s">
+      <c r="G22" s="30"/>
+      <c r="H22" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38" t="s">
+      <c r="I22" s="30"/>
+      <c r="J22" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38" t="s">
+      <c r="K22" s="30"/>
+      <c r="L22" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="M22" s="38"/>
-      <c r="N22" s="122" t="s">
+      <c r="M22" s="30"/>
+      <c r="N22" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="O22" s="122"/>
-      <c r="P22" s="38" t="s">
+      <c r="O22" s="97"/>
+      <c r="P22" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38" t="s">
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38" t="s">
+      <c r="S22" s="30"/>
+      <c r="T22" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="U22" s="38"/>
-      <c r="V22" s="121" t="s">
+      <c r="U22" s="30"/>
+      <c r="V22" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="W22" s="121"/>
+      <c r="W22" s="96"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
@@ -3733,52 +3745,52 @@
       <c r="AP22" s="5"/>
       <c r="AQ22" s="5"/>
     </row>
-    <row r="23" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38" t="s">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" s="27"/>
+      <c r="J23" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="I23" s="47"/>
-      <c r="J23" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38" t="s">
+      <c r="K23" s="30"/>
+      <c r="L23" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38" t="s">
+      <c r="M23" s="30"/>
+      <c r="N23" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="56" t="s">
+      <c r="Q23" s="30"/>
+      <c r="R23" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56" t="s">
+      <c r="S23" s="31"/>
+      <c r="T23" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56" t="s">
+      <c r="U23" s="31"/>
+      <c r="V23" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="W23" s="56"/>
+      <c r="W23" s="31"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="8"/>
@@ -3800,48 +3812,50 @@
       <c r="AQ23" s="5"/>
       <c r="AR23" s="5"/>
     </row>
-    <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="120" t="s">
+      <c r="B24" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120" t="s">
+      <c r="C24" s="91"/>
+      <c r="D24" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120" t="s">
+      <c r="E24" s="91"/>
+      <c r="F24" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="120"/>
-      <c r="H24" s="122" t="s">
+      <c r="G24" s="91"/>
+      <c r="H24" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="I24" s="97"/>
+      <c r="J24" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="I24" s="122"/>
-      <c r="J24" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="122" t="s">
-        <v>133</v>
-      </c>
-      <c r="O24" s="122"/>
-      <c r="P24" s="38" t="s">
+      <c r="O24" s="97"/>
+      <c r="P24" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="39" t="s">
+      <c r="Q24" s="30"/>
+      <c r="R24" s="148" t="s">
+        <v>331</v>
+      </c>
+      <c r="S24" s="148"/>
+      <c r="T24" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="W24" s="40"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="W24" s="34"/>
       <c r="X24" s="5"/>
       <c r="AE24" s="8"/>
       <c r="AF24" s="8"/>
@@ -3858,7 +3872,7 @@
       <c r="AQ24" s="5"/>
       <c r="AR24" s="5"/>
     </row>
-    <row r="25" spans="1:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -3900,49 +3914,49 @@
     </row>
     <row r="26" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="H27" s="31"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="K27" s="31"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="N27" s="31"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="T27" s="31"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="24" t="s">
+      <c r="C27" s="47"/>
+      <c r="D27" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="53"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K27" s="53"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N27" s="53"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="T27" s="53"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="W27" s="25"/>
+      <c r="W27" s="47"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="8"/>
@@ -3968,40 +3982,40 @@
       <c r="AU27" s="6"/>
       <c r="AV27" s="6"/>
     </row>
-    <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
-      <c r="B28" s="115" t="s">
-        <v>206</v>
-      </c>
-      <c r="C28" s="116"/>
-      <c r="D28" s="117" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" s="118"/>
-      <c r="F28" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="119"/>
-      <c r="T28" s="102" t="s">
+      <c r="B28" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="94"/>
+      <c r="D28" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="103"/>
+      <c r="F28" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="104"/>
+      <c r="T28" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="U28" s="103"/>
-      <c r="V28" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="W28" s="105"/>
+      <c r="U28" s="106"/>
+      <c r="V28" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="W28" s="108"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="8"/>
@@ -4027,103 +4041,103 @@
       <c r="AU28" s="6"/>
       <c r="AV28" s="6"/>
     </row>
-    <row r="29" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="54" t="s">
+    <row r="29" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="54" t="s">
+      <c r="E29" s="29"/>
+      <c r="F29" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="E29" s="55"/>
-      <c r="F29" s="54" t="s">
+      <c r="G29" s="29"/>
+      <c r="H29" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="G29" s="55"/>
-      <c r="H29" s="131" t="s">
+      <c r="I29" s="101"/>
+      <c r="J29" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="I29" s="132"/>
-      <c r="J29" s="54" t="s">
+      <c r="K29" s="29"/>
+      <c r="L29" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="K29" s="55"/>
-      <c r="L29" s="131" t="s">
+      <c r="M29" s="101"/>
+      <c r="N29" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="M29" s="132"/>
-      <c r="N29" s="54" t="s">
+      <c r="O29" s="29"/>
+      <c r="P29" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="O29" s="55"/>
-      <c r="P29" s="54" t="s">
+      <c r="Q29" s="29"/>
+      <c r="R29" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="54" t="s">
+      <c r="S29" s="29"/>
+      <c r="T29" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="S29" s="55"/>
-      <c r="T29" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="U29" s="55"/>
-      <c r="V29" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="W29" s="55"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="W29" s="29"/>
       <c r="X29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
       <c r="AV29" s="6"/>
       <c r="AW29" s="6"/>
     </row>
-    <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="45" t="s">
+      <c r="E30" s="27"/>
+      <c r="F30" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="45" t="s">
+      <c r="G30" s="27"/>
+      <c r="H30" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30" s="99"/>
+      <c r="J30" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="G30" s="47"/>
-      <c r="H30" s="109" t="s">
-        <v>115</v>
-      </c>
-      <c r="I30" s="110"/>
-      <c r="J30" s="45" t="s">
+      <c r="K30" s="27"/>
+      <c r="L30" s="98" t="s">
         <v>156</v>
       </c>
-      <c r="K30" s="47"/>
-      <c r="L30" s="109" t="s">
+      <c r="M30" s="99"/>
+      <c r="N30" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="M30" s="110"/>
-      <c r="N30" s="45" t="s">
+      <c r="O30" s="27"/>
+      <c r="P30" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="O30" s="47"/>
-      <c r="P30" s="45" t="s">
+      <c r="Q30" s="27"/>
+      <c r="R30" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="38" t="s">
+      <c r="S30" s="30"/>
+      <c r="T30" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="U30" s="38"/>
-      <c r="V30" s="121" t="s">
+      <c r="U30" s="30"/>
+      <c r="V30" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="W30" s="121"/>
+      <c r="W30" s="96"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -4142,52 +4156,52 @@
       <c r="AP30" s="6"/>
       <c r="AQ30" s="6"/>
     </row>
-    <row r="31" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38" t="s">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38" t="s">
+      <c r="E31" s="30"/>
+      <c r="F31" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38" t="s">
+      <c r="I31" s="30"/>
+      <c r="J31" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="K31" s="38"/>
-      <c r="L31" s="45" t="s">
+      <c r="M31" s="27"/>
+      <c r="N31" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="M31" s="47"/>
-      <c r="N31" s="45" t="s">
+      <c r="O31" s="27"/>
+      <c r="P31" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="O31" s="47"/>
-      <c r="P31" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="56" t="s">
+      <c r="Q31" s="27"/>
+      <c r="R31" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56" t="s">
+      <c r="S31" s="31"/>
+      <c r="T31" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="U31" s="56"/>
-      <c r="V31" s="56" t="s">
+      <c r="U31" s="31"/>
+      <c r="V31" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="W31" s="56"/>
+      <c r="W31" s="31"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="8"/>
@@ -4213,48 +4227,50 @@
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
     </row>
-    <row r="32" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="120" t="s">
+      <c r="B32" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="120"/>
-      <c r="D32" s="120" t="s">
+      <c r="C32" s="91"/>
+      <c r="D32" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="120"/>
-      <c r="F32" s="120" t="s">
+      <c r="E32" s="91"/>
+      <c r="F32" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="120"/>
-      <c r="H32" s="122" t="s">
-        <v>170</v>
-      </c>
-      <c r="I32" s="122"/>
-      <c r="J32" s="51" t="s">
+      <c r="G32" s="91"/>
+      <c r="H32" s="97" t="s">
+        <v>169</v>
+      </c>
+      <c r="I32" s="97"/>
+      <c r="J32" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="122" t="s">
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="O32" s="97"/>
+      <c r="P32" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="O32" s="122"/>
-      <c r="P32" s="122" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="39" t="s">
+      <c r="Q32" s="97"/>
+      <c r="R32" s="148" t="s">
+        <v>331</v>
+      </c>
+      <c r="S32" s="148"/>
+      <c r="T32" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="S32" s="49"/>
-      <c r="T32" s="49"/>
-      <c r="U32" s="49"/>
-      <c r="V32" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="W32" s="40"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="W32" s="34"/>
       <c r="X32" s="6"/>
       <c r="AE32" s="8"/>
       <c r="AF32" s="8"/>
@@ -4271,7 +4287,7 @@
       <c r="AQ32" s="6"/>
       <c r="AR32" s="6"/>
     </row>
-    <row r="33" spans="1:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -4311,49 +4327,49 @@
       <c r="AV33" s="6"/>
       <c r="AW33" s="6"/>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="77" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="35" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="106" t="s">
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="72"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="72"/>
+      <c r="V35" s="73"/>
+      <c r="W35" s="71" t="s">
         <v>297</v>
       </c>
-      <c r="C35" s="133"/>
-      <c r="D35" s="133"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="133"/>
-      <c r="G35" s="133"/>
-      <c r="H35" s="133"/>
-      <c r="I35" s="106" t="s">
-        <v>298</v>
-      </c>
-      <c r="J35" s="133"/>
-      <c r="K35" s="133"/>
-      <c r="L35" s="133"/>
-      <c r="M35" s="133"/>
-      <c r="N35" s="133"/>
-      <c r="O35" s="133"/>
-      <c r="P35" s="106" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q35" s="133"/>
-      <c r="R35" s="133"/>
-      <c r="S35" s="133"/>
-      <c r="T35" s="133"/>
-      <c r="U35" s="133"/>
-      <c r="V35" s="133"/>
-      <c r="W35" s="106" t="s">
-        <v>326</v>
-      </c>
-      <c r="X35" s="133"/>
-      <c r="Y35" s="133"/>
-      <c r="Z35" s="133"/>
-      <c r="AA35" s="133"/>
-      <c r="AB35" s="133"/>
-      <c r="AC35" s="133"/>
+      <c r="X35" s="72"/>
+      <c r="Y35" s="72"/>
+      <c r="Z35" s="72"/>
+      <c r="AA35" s="72"/>
+      <c r="AB35" s="72"/>
+      <c r="AC35" s="73"/>
       <c r="AF35" s="8"/>
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
@@ -4370,36 +4386,36 @@
       <c r="AS35" s="6"/>
       <c r="AT35" s="6"/>
     </row>
-    <row r="36" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="133"/>
-      <c r="C36" s="133"/>
-      <c r="D36" s="133"/>
-      <c r="E36" s="133"/>
-      <c r="F36" s="133"/>
-      <c r="G36" s="133"/>
-      <c r="H36" s="133"/>
-      <c r="I36" s="133"/>
-      <c r="J36" s="133"/>
-      <c r="K36" s="133"/>
-      <c r="L36" s="133"/>
-      <c r="M36" s="133"/>
-      <c r="N36" s="133"/>
-      <c r="O36" s="133"/>
-      <c r="P36" s="133"/>
-      <c r="Q36" s="133"/>
-      <c r="R36" s="133"/>
-      <c r="S36" s="133"/>
-      <c r="T36" s="133"/>
-      <c r="U36" s="133"/>
-      <c r="V36" s="133"/>
-      <c r="W36" s="133"/>
-      <c r="X36" s="133"/>
-      <c r="Y36" s="133"/>
-      <c r="Z36" s="133"/>
-      <c r="AA36" s="133"/>
-      <c r="AB36" s="133"/>
-      <c r="AC36" s="133"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="74"/>
+      <c r="Q36" s="75"/>
+      <c r="R36" s="75"/>
+      <c r="S36" s="75"/>
+      <c r="T36" s="75"/>
+      <c r="U36" s="75"/>
+      <c r="V36" s="76"/>
+      <c r="W36" s="74"/>
+      <c r="X36" s="75"/>
+      <c r="Y36" s="75"/>
+      <c r="Z36" s="75"/>
+      <c r="AA36" s="75"/>
+      <c r="AB36" s="75"/>
+      <c r="AC36" s="76"/>
       <c r="AF36" s="8"/>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
@@ -4416,42 +4432,44 @@
       <c r="AS36" s="6"/>
       <c r="AT36" s="6"/>
     </row>
-    <row r="37" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="133" t="s">
-        <v>296</v>
-      </c>
-      <c r="C37" s="133"/>
-      <c r="D37" s="133"/>
-      <c r="E37" s="133"/>
-      <c r="F37" s="133"/>
-      <c r="G37" s="133"/>
-      <c r="H37" s="133"/>
-      <c r="I37" s="133" t="s">
+      <c r="B37" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78" t="s">
+        <v>329</v>
+      </c>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="72"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="72"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="71" t="s">
         <v>301</v>
       </c>
-      <c r="J37" s="133"/>
-      <c r="K37" s="133"/>
-      <c r="L37" s="133"/>
-      <c r="M37" s="133"/>
-      <c r="N37" s="133"/>
-      <c r="O37" s="133"/>
-      <c r="P37" s="141" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q37" s="142"/>
-      <c r="R37" s="142"/>
-      <c r="S37" s="142"/>
-      <c r="T37" s="142"/>
-      <c r="U37" s="142"/>
-      <c r="V37" s="142"/>
-      <c r="W37" s="142"/>
-      <c r="X37" s="142"/>
-      <c r="Y37" s="142"/>
-      <c r="Z37" s="142"/>
-      <c r="AA37" s="142"/>
-      <c r="AB37" s="142"/>
-      <c r="AC37" s="143"/>
+      <c r="X37" s="72"/>
+      <c r="Y37" s="72"/>
+      <c r="Z37" s="72"/>
+      <c r="AA37" s="72"/>
+      <c r="AB37" s="72"/>
+      <c r="AC37" s="73"/>
       <c r="AD37" s="8"/>
       <c r="AE37" s="8"/>
       <c r="AF37" s="8"/>
@@ -4470,36 +4488,36 @@
       <c r="AS37" s="6"/>
       <c r="AT37" s="6"/>
     </row>
-    <row r="38" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="133"/>
-      <c r="C38" s="133"/>
-      <c r="D38" s="133"/>
-      <c r="E38" s="133"/>
-      <c r="F38" s="133"/>
-      <c r="G38" s="133"/>
-      <c r="H38" s="133"/>
-      <c r="I38" s="133"/>
-      <c r="J38" s="133"/>
-      <c r="K38" s="133"/>
-      <c r="L38" s="133"/>
-      <c r="M38" s="133"/>
-      <c r="N38" s="133"/>
-      <c r="O38" s="133"/>
-      <c r="P38" s="144"/>
-      <c r="Q38" s="145"/>
-      <c r="R38" s="145"/>
-      <c r="S38" s="145"/>
-      <c r="T38" s="145"/>
-      <c r="U38" s="145"/>
-      <c r="V38" s="145"/>
-      <c r="W38" s="145"/>
-      <c r="X38" s="145"/>
-      <c r="Y38" s="145"/>
-      <c r="Z38" s="145"/>
-      <c r="AA38" s="145"/>
-      <c r="AB38" s="145"/>
-      <c r="AC38" s="146"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="78"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="78"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="75"/>
+      <c r="R38" s="75"/>
+      <c r="S38" s="75"/>
+      <c r="T38" s="75"/>
+      <c r="U38" s="75"/>
+      <c r="V38" s="76"/>
+      <c r="W38" s="74"/>
+      <c r="X38" s="75"/>
+      <c r="Y38" s="75"/>
+      <c r="Z38" s="75"/>
+      <c r="AA38" s="75"/>
+      <c r="AB38" s="75"/>
+      <c r="AC38" s="76"/>
       <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
@@ -4515,7 +4533,7 @@
       <c r="AS38" s="6"/>
       <c r="AT38" s="6"/>
     </row>
-    <row r="39" spans="1:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -4557,49 +4575,49 @@
     </row>
     <row r="40" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="H41" s="31"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="K41" s="31"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="N41" s="31"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="T41" s="31"/>
-      <c r="U41" s="32"/>
-      <c r="V41" s="24" t="s">
+      <c r="C41" s="47"/>
+      <c r="D41" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" s="53"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="H41" s="53"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K41" s="53"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N41" s="53"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="T41" s="53"/>
+      <c r="U41" s="54"/>
+      <c r="V41" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="W41" s="25"/>
+      <c r="W41" s="47"/>
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
       <c r="AA41" s="8"/>
@@ -4625,40 +4643,40 @@
       <c r="AU41" s="6"/>
       <c r="AV41" s="6"/>
     </row>
-    <row r="42" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
-      <c r="B42" s="115" t="s">
-        <v>206</v>
-      </c>
-      <c r="C42" s="116"/>
-      <c r="D42" s="117" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" s="118"/>
-      <c r="F42" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="119"/>
-      <c r="T42" s="102" t="s">
+      <c r="B42" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42" s="94"/>
+      <c r="D42" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="103"/>
+      <c r="F42" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="U42" s="103"/>
-      <c r="V42" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="W42" s="105"/>
+      <c r="U42" s="106"/>
+      <c r="V42" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="W42" s="108"/>
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
       <c r="AA42" s="8"/>
@@ -4684,103 +4702,103 @@
       <c r="AU42" s="6"/>
       <c r="AV42" s="6"/>
     </row>
-    <row r="43" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="45" t="s">
+    <row r="43" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="27"/>
+      <c r="D43" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="45" t="s">
+      <c r="E43" s="27"/>
+      <c r="F43" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="E43" s="47"/>
-      <c r="F43" s="45" t="s">
+      <c r="G43" s="27"/>
+      <c r="H43" s="98" t="s">
         <v>173</v>
       </c>
-      <c r="G43" s="47"/>
-      <c r="H43" s="109" t="s">
+      <c r="I43" s="99"/>
+      <c r="J43" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="K43" s="27"/>
+      <c r="L43" s="98" t="s">
         <v>174</v>
       </c>
-      <c r="I43" s="110"/>
-      <c r="J43" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="K43" s="47"/>
-      <c r="L43" s="109" t="s">
+      <c r="M43" s="99"/>
+      <c r="N43" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="M43" s="110"/>
-      <c r="N43" s="45" t="s">
+      <c r="O43" s="27"/>
+      <c r="P43" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="O43" s="47"/>
-      <c r="P43" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q43" s="47"/>
-      <c r="R43" s="45" t="s">
+      <c r="S43" s="27"/>
+      <c r="T43" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="S43" s="47"/>
-      <c r="T43" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="U43" s="47"/>
-      <c r="V43" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="W43" s="38"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="W43" s="30"/>
       <c r="X43" s="6"/>
       <c r="AT43" s="6"/>
       <c r="AU43" s="6"/>
       <c r="AV43" s="6"/>
       <c r="AW43" s="6"/>
     </row>
-    <row r="44" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38" t="s">
+      <c r="G44" s="30"/>
+      <c r="H44" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38" t="s">
+      <c r="I44" s="30"/>
+      <c r="J44" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38" t="s">
+      <c r="K44" s="30"/>
+      <c r="L44" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38" t="s">
+      <c r="M44" s="30"/>
+      <c r="N44" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="M44" s="38"/>
-      <c r="N44" s="122" t="s">
+      <c r="O44" s="97"/>
+      <c r="P44" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="O44" s="122"/>
-      <c r="P44" s="38" t="s">
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="38" t="s">
+      <c r="S44" s="30"/>
+      <c r="T44" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="S44" s="38"/>
-      <c r="T44" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="U44" s="38"/>
-      <c r="V44" s="121" t="s">
+      <c r="U44" s="30"/>
+      <c r="V44" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="W44" s="121"/>
+      <c r="W44" s="96"/>
       <c r="AA44" s="8"/>
       <c r="AB44" s="8"/>
       <c r="AC44" s="8"/>
@@ -4799,52 +4817,52 @@
       <c r="AP44" s="6"/>
       <c r="AQ44" s="6"/>
     </row>
-    <row r="45" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38" t="s">
+      <c r="C45" s="30"/>
+      <c r="D45" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38" t="s">
+      <c r="G45" s="30"/>
+      <c r="H45" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38" t="s">
+      <c r="I45" s="30"/>
+      <c r="J45" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38" t="s">
+      <c r="K45" s="30"/>
+      <c r="L45" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38" t="s">
+      <c r="O45" s="30"/>
+      <c r="P45" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="56" t="s">
+      <c r="Q45" s="30"/>
+      <c r="R45" s="147" t="s">
         <v>103</v>
       </c>
-      <c r="S45" s="56"/>
-      <c r="T45" s="56" t="s">
+      <c r="S45" s="147"/>
+      <c r="T45" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="U45" s="56"/>
-      <c r="V45" s="56" t="s">
+      <c r="U45" s="31"/>
+      <c r="V45" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="W45" s="56"/>
+      <c r="W45" s="31"/>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
       <c r="AA45" s="8"/>
@@ -4870,48 +4888,50 @@
       <c r="AU45" s="6"/>
       <c r="AV45" s="6"/>
     </row>
-    <row r="46" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="120" t="s">
+      <c r="B46" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="120"/>
-      <c r="D46" s="120" t="s">
+      <c r="C46" s="91"/>
+      <c r="D46" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="120"/>
-      <c r="F46" s="120" t="s">
+      <c r="E46" s="91"/>
+      <c r="F46" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="120"/>
-      <c r="H46" s="122" t="s">
+      <c r="G46" s="91"/>
+      <c r="H46" s="97" t="s">
+        <v>193</v>
+      </c>
+      <c r="I46" s="97"/>
+      <c r="J46" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="97" t="s">
         <v>194</v>
       </c>
-      <c r="I46" s="122"/>
-      <c r="J46" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="122" t="s">
+      <c r="O46" s="97"/>
+      <c r="P46" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="O46" s="122"/>
-      <c r="P46" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="39" t="s">
+      <c r="Q46" s="24"/>
+      <c r="R46" s="148" t="s">
+        <v>331</v>
+      </c>
+      <c r="S46" s="148"/>
+      <c r="T46" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="S46" s="49"/>
-      <c r="T46" s="49"/>
-      <c r="U46" s="49"/>
-      <c r="V46" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="W46" s="40"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="W46" s="34"/>
       <c r="X46" s="6"/>
       <c r="AE46" s="8"/>
       <c r="AF46" s="8"/>
@@ -4928,7 +4948,7 @@
       <c r="AQ46" s="6"/>
       <c r="AR46" s="6"/>
     </row>
-    <row r="47" spans="1:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -4970,49 +4990,49 @@
     </row>
     <row r="48" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="H49" s="31"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="K49" s="31"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="N49" s="31"/>
-      <c r="O49" s="32"/>
-      <c r="P49" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="32"/>
-      <c r="S49" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="T49" s="31"/>
-      <c r="U49" s="32"/>
-      <c r="V49" s="24" t="s">
+      <c r="C49" s="47"/>
+      <c r="D49" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" s="53"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="H49" s="53"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K49" s="53"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N49" s="53"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="T49" s="53"/>
+      <c r="U49" s="54"/>
+      <c r="V49" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="W49" s="25"/>
+      <c r="W49" s="47"/>
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
       <c r="AA49" s="8"/>
@@ -5038,40 +5058,40 @@
       <c r="AU49" s="6"/>
       <c r="AV49" s="6"/>
     </row>
-    <row r="50" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
-      <c r="B50" s="115" t="s">
-        <v>206</v>
-      </c>
-      <c r="C50" s="116"/>
-      <c r="D50" s="117" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" s="118"/>
-      <c r="F50" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="34"/>
-      <c r="R50" s="34"/>
-      <c r="S50" s="119"/>
-      <c r="T50" s="102" t="s">
+      <c r="B50" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" s="94"/>
+      <c r="D50" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="103"/>
+      <c r="F50" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="56"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="104"/>
+      <c r="T50" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="U50" s="103"/>
-      <c r="V50" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="W50" s="105"/>
+      <c r="U50" s="106"/>
+      <c r="V50" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="W50" s="108"/>
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="8"/>
@@ -5097,83 +5117,83 @@
       <c r="AU50" s="6"/>
       <c r="AV50" s="6"/>
     </row>
-    <row r="51" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="131" t="s">
+    <row r="51" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="100" t="s">
+        <v>196</v>
+      </c>
+      <c r="C51" s="101"/>
+      <c r="D51" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="C51" s="132"/>
-      <c r="D51" s="54" t="s">
+      <c r="E51" s="29"/>
+      <c r="F51" s="100" t="s">
         <v>198</v>
       </c>
-      <c r="E51" s="55"/>
-      <c r="F51" s="131" t="s">
+      <c r="G51" s="101"/>
+      <c r="H51" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I51" s="29"/>
+      <c r="J51" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K51" s="27"/>
+      <c r="L51" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="G51" s="132"/>
-      <c r="H51" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="I51" s="55"/>
-      <c r="J51" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="K51" s="47"/>
-      <c r="L51" s="45" t="s">
+      <c r="M51" s="27"/>
+      <c r="N51" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="M51" s="47"/>
-      <c r="N51" s="54" t="s">
+      <c r="O51" s="29"/>
+      <c r="P51" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="O51" s="55"/>
-      <c r="P51" s="54" t="s">
+      <c r="Q51" s="29"/>
+      <c r="R51" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="Q51" s="55"/>
-      <c r="R51" s="54" t="s">
+      <c r="S51" s="29"/>
+      <c r="T51" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="S51" s="55"/>
-      <c r="T51" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="U51" s="55"/>
-      <c r="V51" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="W51" s="38"/>
+      <c r="U51" s="29"/>
+      <c r="V51" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="W51" s="30"/>
       <c r="X51" s="6"/>
       <c r="AT51" s="6"/>
       <c r="AU51" s="6"/>
       <c r="AV51" s="6"/>
       <c r="AW51" s="6"/>
     </row>
-    <row r="52" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="122"/>
-      <c r="O52" s="122"/>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="38"/>
-      <c r="R52" s="38"/>
-      <c r="S52" s="38"/>
-      <c r="T52" s="38"/>
-      <c r="U52" s="38"/>
-      <c r="V52" s="121" t="s">
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="97"/>
+      <c r="O52" s="97"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="30"/>
+      <c r="V52" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="W52" s="121"/>
+      <c r="W52" s="96"/>
       <c r="AA52" s="8"/>
       <c r="AB52" s="8"/>
       <c r="AC52" s="8"/>
@@ -5192,38 +5212,38 @@
       <c r="AP52" s="6"/>
       <c r="AQ52" s="6"/>
     </row>
-    <row r="53" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="38"/>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="38"/>
-      <c r="R53" s="56" t="s">
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="S53" s="56"/>
-      <c r="T53" s="56" t="s">
+      <c r="S53" s="31"/>
+      <c r="T53" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="U53" s="56"/>
-      <c r="V53" s="56" t="s">
+      <c r="U53" s="31"/>
+      <c r="V53" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="W53" s="56"/>
+      <c r="W53" s="31"/>
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="8"/>
@@ -5249,42 +5269,44 @@
       <c r="AU53" s="6"/>
       <c r="AV53" s="6"/>
     </row>
-    <row r="54" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="120" t="s">
+      <c r="B54" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="120"/>
-      <c r="D54" s="120" t="s">
+      <c r="C54" s="91"/>
+      <c r="D54" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="E54" s="120"/>
-      <c r="F54" s="120" t="s">
+      <c r="E54" s="91"/>
+      <c r="F54" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="120"/>
-      <c r="H54" s="122"/>
-      <c r="I54" s="122"/>
-      <c r="J54" s="51" t="s">
+      <c r="G54" s="91"/>
+      <c r="H54" s="97"/>
+      <c r="I54" s="97"/>
+      <c r="J54" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="122"/>
-      <c r="O54" s="122"/>
-      <c r="P54" s="38"/>
-      <c r="Q54" s="38"/>
-      <c r="R54" s="39" t="s">
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="97"/>
+      <c r="O54" s="97"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="148" t="s">
+        <v>331</v>
+      </c>
+      <c r="S54" s="148"/>
+      <c r="T54" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="S54" s="49"/>
-      <c r="T54" s="49"/>
-      <c r="U54" s="49"/>
-      <c r="V54" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="W54" s="40"/>
+      <c r="U54" s="34"/>
+      <c r="V54" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="W54" s="34"/>
       <c r="X54" s="6"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="8"/>
@@ -5304,7 +5326,7 @@
       <c r="AU54" s="6"/>
       <c r="AV54" s="6"/>
     </row>
-    <row r="55" spans="1:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -5346,49 +5368,49 @@
     </row>
     <row r="56" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="57" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="25"/>
-      <c r="D57" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="E57" s="31"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="H57" s="31"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="K57" s="31"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="N57" s="31"/>
-      <c r="O57" s="32"/>
-      <c r="P57" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="32"/>
-      <c r="S57" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="T57" s="31"/>
-      <c r="U57" s="32"/>
-      <c r="V57" s="24" t="s">
+      <c r="C57" s="47"/>
+      <c r="D57" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57" s="53"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="H57" s="53"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K57" s="53"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N57" s="53"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q57" s="53"/>
+      <c r="R57" s="54"/>
+      <c r="S57" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="T57" s="53"/>
+      <c r="U57" s="54"/>
+      <c r="V57" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="W57" s="25"/>
+      <c r="W57" s="47"/>
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="8"/>
@@ -5414,40 +5436,40 @@
       <c r="AU57" s="6"/>
       <c r="AV57" s="6"/>
     </row>
-    <row r="58" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="B58" s="115" t="s">
-        <v>206</v>
-      </c>
-      <c r="C58" s="116"/>
-      <c r="D58" s="117" t="s">
-        <v>124</v>
-      </c>
-      <c r="E58" s="118"/>
-      <c r="F58" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="34"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="34"/>
-      <c r="Q58" s="34"/>
-      <c r="R58" s="34"/>
-      <c r="S58" s="119"/>
-      <c r="T58" s="102" t="s">
+      <c r="B58" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" s="94"/>
+      <c r="D58" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" s="103"/>
+      <c r="F58" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="56"/>
+      <c r="O58" s="56"/>
+      <c r="P58" s="56"/>
+      <c r="Q58" s="56"/>
+      <c r="R58" s="56"/>
+      <c r="S58" s="104"/>
+      <c r="T58" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="U58" s="103"/>
-      <c r="V58" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="W58" s="105"/>
+      <c r="U58" s="106"/>
+      <c r="V58" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="W58" s="108"/>
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="8"/>
@@ -5473,103 +5495,103 @@
       <c r="AU58" s="6"/>
       <c r="AV58" s="6"/>
     </row>
-    <row r="59" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="131" t="s">
+    <row r="59" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="100" t="s">
+        <v>206</v>
+      </c>
+      <c r="C59" s="101"/>
+      <c r="D59" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="C59" s="132"/>
-      <c r="D59" s="54" t="s">
+      <c r="E59" s="29"/>
+      <c r="F59" s="100" t="s">
         <v>208</v>
       </c>
-      <c r="E59" s="55"/>
-      <c r="F59" s="131" t="s">
+      <c r="G59" s="101"/>
+      <c r="H59" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="G59" s="132"/>
-      <c r="H59" s="54" t="s">
+      <c r="I59" s="29"/>
+      <c r="J59" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="I59" s="55"/>
-      <c r="J59" s="45" t="s">
+      <c r="K59" s="27"/>
+      <c r="L59" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="K59" s="47"/>
-      <c r="L59" s="45" t="s">
+      <c r="M59" s="27"/>
+      <c r="N59" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="M59" s="47"/>
-      <c r="N59" s="54" t="s">
+      <c r="O59" s="29"/>
+      <c r="P59" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="O59" s="55"/>
-      <c r="P59" s="54" t="s">
+      <c r="Q59" s="29"/>
+      <c r="R59" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="Q59" s="55"/>
-      <c r="R59" s="54" t="s">
+      <c r="S59" s="29"/>
+      <c r="T59" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="S59" s="55"/>
-      <c r="T59" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="U59" s="55"/>
-      <c r="V59" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="W59" s="38"/>
+      <c r="U59" s="29"/>
+      <c r="V59" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="W59" s="30"/>
       <c r="X59" s="6"/>
       <c r="AT59" s="6"/>
       <c r="AU59" s="6"/>
       <c r="AV59" s="6"/>
       <c r="AW59" s="6"/>
     </row>
-    <row r="60" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="38" t="s">
+      <c r="B60" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38" t="s">
+      <c r="E60" s="30"/>
+      <c r="F60" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38" t="s">
+      <c r="G60" s="30"/>
+      <c r="H60" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38" t="s">
+      <c r="I60" s="30"/>
+      <c r="J60" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="I60" s="38"/>
-      <c r="J60" s="45" t="s">
+      <c r="K60" s="27"/>
+      <c r="L60" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="K60" s="47"/>
-      <c r="L60" s="38" t="s">
+      <c r="M60" s="30"/>
+      <c r="N60" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="M60" s="38"/>
-      <c r="N60" s="122" t="s">
+      <c r="O60" s="97"/>
+      <c r="P60" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="O60" s="122"/>
-      <c r="P60" s="38" t="s">
+      <c r="Q60" s="30"/>
+      <c r="R60" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="Q60" s="38"/>
-      <c r="R60" s="38" t="s">
+      <c r="S60" s="30"/>
+      <c r="T60" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="S60" s="38"/>
-      <c r="T60" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="U60" s="38"/>
-      <c r="V60" s="121" t="s">
+      <c r="U60" s="30"/>
+      <c r="V60" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="W60" s="121"/>
+      <c r="W60" s="96"/>
       <c r="AA60" s="8"/>
       <c r="AB60" s="8"/>
       <c r="AC60" s="8"/>
@@ -5588,52 +5610,52 @@
       <c r="AP60" s="6"/>
       <c r="AQ60" s="6"/>
     </row>
-    <row r="61" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38" t="s">
+      <c r="C61" s="30"/>
+      <c r="D61" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38" t="s">
+      <c r="G61" s="30"/>
+      <c r="H61" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38" t="s">
+      <c r="I61" s="30"/>
+      <c r="J61" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38" t="s">
+      <c r="K61" s="30"/>
+      <c r="L61" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38" t="s">
+      <c r="M61" s="30"/>
+      <c r="N61" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="M61" s="38"/>
-      <c r="N61" s="38" t="s">
+      <c r="O61" s="30"/>
+      <c r="P61" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="O61" s="38"/>
-      <c r="P61" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q61" s="38"/>
-      <c r="R61" s="56" t="s">
+      <c r="Q61" s="30"/>
+      <c r="R61" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="S61" s="56"/>
-      <c r="T61" s="56" t="s">
+      <c r="S61" s="31"/>
+      <c r="T61" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="U61" s="56"/>
-      <c r="V61" s="56" t="s">
+      <c r="U61" s="31"/>
+      <c r="V61" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="W61" s="56"/>
+      <c r="W61" s="31"/>
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
       <c r="AA61" s="8"/>
@@ -5659,48 +5681,50 @@
       <c r="AU61" s="6"/>
       <c r="AV61" s="6"/>
     </row>
-    <row r="62" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="120" t="s">
+      <c r="B62" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="120"/>
-      <c r="D62" s="120" t="s">
+      <c r="C62" s="91"/>
+      <c r="D62" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="E62" s="120"/>
-      <c r="F62" s="120" t="s">
+      <c r="E62" s="91"/>
+      <c r="F62" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G62" s="120"/>
-      <c r="H62" s="122" t="s">
+      <c r="G62" s="91"/>
+      <c r="H62" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="I62" s="97"/>
+      <c r="J62" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="K62" s="45"/>
+      <c r="L62" s="45"/>
+      <c r="M62" s="45"/>
+      <c r="N62" s="97" t="s">
         <v>234</v>
       </c>
-      <c r="I62" s="122"/>
-      <c r="J62" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="K62" s="53"/>
-      <c r="L62" s="53"/>
-      <c r="M62" s="53"/>
-      <c r="N62" s="122" t="s">
+      <c r="O62" s="97"/>
+      <c r="P62" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="O62" s="122"/>
-      <c r="P62" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q62" s="38"/>
-      <c r="R62" s="39" t="s">
+      <c r="Q62" s="30"/>
+      <c r="R62" s="148" t="s">
+        <v>331</v>
+      </c>
+      <c r="S62" s="148"/>
+      <c r="T62" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="S62" s="49"/>
-      <c r="T62" s="49"/>
-      <c r="U62" s="49"/>
-      <c r="V62" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="W62" s="40"/>
+      <c r="U62" s="34"/>
+      <c r="V62" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="W62" s="34"/>
       <c r="X62" s="6"/>
       <c r="AE62" s="8"/>
       <c r="AF62" s="8"/>
@@ -5717,7 +5741,7 @@
       <c r="AQ62" s="6"/>
       <c r="AR62" s="6"/>
     </row>
-    <row r="63" spans="1:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -5759,49 +5783,49 @@
     </row>
     <row r="64" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="65" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="25"/>
-      <c r="D65" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="E65" s="31"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="H65" s="31"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="K65" s="31"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="N65" s="31"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q65" s="31"/>
-      <c r="R65" s="32"/>
-      <c r="S65" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="T65" s="31"/>
-      <c r="U65" s="32"/>
-      <c r="V65" s="24" t="s">
+      <c r="C65" s="47"/>
+      <c r="D65" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E65" s="53"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="H65" s="53"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K65" s="53"/>
+      <c r="L65" s="54"/>
+      <c r="M65" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N65" s="53"/>
+      <c r="O65" s="54"/>
+      <c r="P65" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q65" s="53"/>
+      <c r="R65" s="54"/>
+      <c r="S65" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="T65" s="53"/>
+      <c r="U65" s="54"/>
+      <c r="V65" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="W65" s="25"/>
+      <c r="W65" s="47"/>
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
       <c r="AA65" s="8"/>
@@ -5827,40 +5851,40 @@
       <c r="AU65" s="6"/>
       <c r="AV65" s="6"/>
     </row>
-    <row r="66" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
-      <c r="B66" s="115" t="s">
-        <v>206</v>
-      </c>
-      <c r="C66" s="116"/>
-      <c r="D66" s="117" t="s">
-        <v>124</v>
-      </c>
-      <c r="E66" s="118"/>
-      <c r="F66" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="34"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="119"/>
-      <c r="T66" s="102" t="s">
+      <c r="B66" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" s="94"/>
+      <c r="D66" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E66" s="103"/>
+      <c r="F66" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G66" s="56"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="56"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="56"/>
+      <c r="L66" s="56"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="56"/>
+      <c r="O66" s="56"/>
+      <c r="P66" s="56"/>
+      <c r="Q66" s="56"/>
+      <c r="R66" s="56"/>
+      <c r="S66" s="104"/>
+      <c r="T66" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="U66" s="103"/>
-      <c r="V66" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="W66" s="105"/>
+      <c r="U66" s="106"/>
+      <c r="V66" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="W66" s="108"/>
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="8"/>
@@ -5886,103 +5910,103 @@
       <c r="AU66" s="6"/>
       <c r="AV66" s="6"/>
     </row>
-    <row r="67" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="131" t="s">
+    <row r="67" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C67" s="101"/>
+      <c r="D67" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="C67" s="132"/>
-      <c r="D67" s="54" t="s">
+      <c r="E67" s="29"/>
+      <c r="F67" s="100" t="s">
         <v>238</v>
       </c>
-      <c r="E67" s="55"/>
-      <c r="F67" s="131" t="s">
+      <c r="G67" s="101"/>
+      <c r="H67" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="G67" s="132"/>
-      <c r="H67" s="54" t="s">
+      <c r="I67" s="29"/>
+      <c r="J67" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="I67" s="55"/>
-      <c r="J67" s="45" t="s">
+      <c r="K67" s="27"/>
+      <c r="L67" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="K67" s="47"/>
-      <c r="L67" s="45" t="s">
+      <c r="M67" s="27"/>
+      <c r="N67" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="M67" s="47"/>
-      <c r="N67" s="54" t="s">
+      <c r="O67" s="29"/>
+      <c r="P67" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="O67" s="55"/>
-      <c r="P67" s="54" t="s">
+      <c r="Q67" s="29"/>
+      <c r="R67" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="Q67" s="55"/>
-      <c r="R67" s="54" t="s">
+      <c r="S67" s="29"/>
+      <c r="T67" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="S67" s="55"/>
-      <c r="T67" s="54" t="s">
-        <v>246</v>
-      </c>
-      <c r="U67" s="55"/>
-      <c r="V67" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="W67" s="38"/>
+      <c r="U67" s="29"/>
+      <c r="V67" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="W67" s="30"/>
       <c r="X67" s="6"/>
       <c r="AT67" s="6"/>
       <c r="AU67" s="6"/>
       <c r="AV67" s="6"/>
       <c r="AW67" s="6"/>
     </row>
-    <row r="68" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="38" t="s">
+      <c r="B68" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38" t="s">
+      <c r="E68" s="30"/>
+      <c r="F68" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38" t="s">
+      <c r="G68" s="30"/>
+      <c r="H68" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38" t="s">
+      <c r="I68" s="30"/>
+      <c r="J68" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="I68" s="38"/>
-      <c r="J68" s="45" t="s">
+      <c r="K68" s="27"/>
+      <c r="L68" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="K68" s="47"/>
-      <c r="L68" s="38" t="s">
+      <c r="M68" s="30"/>
+      <c r="N68" s="97" t="s">
         <v>252</v>
       </c>
-      <c r="M68" s="38"/>
-      <c r="N68" s="122" t="s">
+      <c r="O68" s="97"/>
+      <c r="P68" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="O68" s="122"/>
-      <c r="P68" s="38" t="s">
+      <c r="Q68" s="30"/>
+      <c r="R68" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="Q68" s="38"/>
-      <c r="R68" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="S68" s="38"/>
-      <c r="T68" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="U68" s="38"/>
-      <c r="V68" s="121" t="s">
+      <c r="S68" s="30"/>
+      <c r="T68" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="U68" s="30"/>
+      <c r="V68" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="W68" s="121"/>
+      <c r="W68" s="96"/>
       <c r="AA68" s="8"/>
       <c r="AB68" s="8"/>
       <c r="AC68" s="8"/>
@@ -6001,52 +6025,52 @@
       <c r="AP68" s="6"/>
       <c r="AQ68" s="6"/>
     </row>
-    <row r="69" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="38" t="s">
+      <c r="B69" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38" t="s">
+      <c r="C69" s="30"/>
+      <c r="D69" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38" t="s">
+      <c r="G69" s="30"/>
+      <c r="H69" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38" t="s">
+      <c r="I69" s="30"/>
+      <c r="J69" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="I69" s="38"/>
-      <c r="J69" s="38" t="s">
+      <c r="K69" s="30"/>
+      <c r="L69" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="K69" s="38"/>
-      <c r="L69" s="38" t="s">
+      <c r="M69" s="30"/>
+      <c r="N69" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="M69" s="38"/>
-      <c r="N69" s="38" t="s">
+      <c r="O69" s="30"/>
+      <c r="P69" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="O69" s="38"/>
-      <c r="P69" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q69" s="38"/>
-      <c r="R69" s="56" t="s">
+      <c r="Q69" s="30"/>
+      <c r="R69" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="S69" s="56"/>
-      <c r="T69" s="56" t="s">
+      <c r="S69" s="31"/>
+      <c r="T69" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="U69" s="56"/>
-      <c r="V69" s="56" t="s">
+      <c r="U69" s="31"/>
+      <c r="V69" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="W69" s="56"/>
+      <c r="W69" s="31"/>
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
       <c r="AA69" s="8"/>
@@ -6072,48 +6096,50 @@
       <c r="AU69" s="6"/>
       <c r="AV69" s="6"/>
     </row>
-    <row r="70" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="120" t="s">
+      <c r="B70" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="120"/>
-      <c r="D70" s="120" t="s">
+      <c r="C70" s="91"/>
+      <c r="D70" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="E70" s="120"/>
-      <c r="F70" s="120" t="s">
+      <c r="E70" s="91"/>
+      <c r="F70" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G70" s="120"/>
-      <c r="H70" s="122" t="s">
+      <c r="G70" s="91"/>
+      <c r="H70" s="97" t="s">
+        <v>266</v>
+      </c>
+      <c r="I70" s="97"/>
+      <c r="J70" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="K70" s="45"/>
+      <c r="L70" s="45"/>
+      <c r="M70" s="45"/>
+      <c r="N70" s="95" t="s">
         <v>267</v>
       </c>
-      <c r="I70" s="122"/>
-      <c r="J70" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="K70" s="53"/>
-      <c r="L70" s="53"/>
-      <c r="M70" s="53"/>
-      <c r="N70" s="134" t="s">
+      <c r="O70" s="95"/>
+      <c r="P70" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="O70" s="134"/>
-      <c r="P70" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q70" s="38"/>
-      <c r="R70" s="39" t="s">
+      <c r="Q70" s="30"/>
+      <c r="R70" s="148" t="s">
+        <v>331</v>
+      </c>
+      <c r="S70" s="148"/>
+      <c r="T70" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="S70" s="49"/>
-      <c r="T70" s="49"/>
-      <c r="U70" s="49"/>
-      <c r="V70" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="W70" s="40"/>
+      <c r="U70" s="34"/>
+      <c r="V70" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="W70" s="34"/>
       <c r="X70" s="6"/>
       <c r="AE70" s="8"/>
       <c r="AF70" s="8"/>
@@ -6130,7 +6156,7 @@
       <c r="AQ70" s="6"/>
       <c r="AR70" s="6"/>
     </row>
-    <row r="71" spans="1:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -6172,49 +6198,49 @@
     </row>
     <row r="72" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="73" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="73" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
-      <c r="B73" s="24" t="s">
+      <c r="B73" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="25"/>
-      <c r="D73" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="E73" s="31"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="H73" s="31"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="K73" s="31"/>
-      <c r="L73" s="32"/>
-      <c r="M73" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="N73" s="31"/>
-      <c r="O73" s="32"/>
-      <c r="P73" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q73" s="31"/>
-      <c r="R73" s="32"/>
-      <c r="S73" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="T73" s="31"/>
-      <c r="U73" s="32"/>
-      <c r="V73" s="24" t="s">
+      <c r="C73" s="47"/>
+      <c r="D73" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E73" s="53"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="H73" s="53"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K73" s="53"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N73" s="53"/>
+      <c r="O73" s="54"/>
+      <c r="P73" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q73" s="53"/>
+      <c r="R73" s="54"/>
+      <c r="S73" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="T73" s="53"/>
+      <c r="U73" s="54"/>
+      <c r="V73" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="W73" s="25"/>
+      <c r="W73" s="47"/>
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
       <c r="AA73" s="8"/>
@@ -6240,40 +6266,40 @@
       <c r="AU73" s="6"/>
       <c r="AV73" s="6"/>
     </row>
-    <row r="74" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
-      <c r="B74" s="115" t="s">
-        <v>206</v>
-      </c>
-      <c r="C74" s="116"/>
-      <c r="D74" s="117" t="s">
-        <v>124</v>
-      </c>
-      <c r="E74" s="118"/>
-      <c r="F74" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="34"/>
-      <c r="L74" s="34"/>
-      <c r="M74" s="34"/>
-      <c r="N74" s="34"/>
-      <c r="O74" s="34"/>
-      <c r="P74" s="34"/>
-      <c r="Q74" s="34"/>
-      <c r="R74" s="34"/>
-      <c r="S74" s="119"/>
-      <c r="T74" s="102" t="s">
+      <c r="B74" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C74" s="94"/>
+      <c r="D74" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E74" s="103"/>
+      <c r="F74" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G74" s="56"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="56"/>
+      <c r="L74" s="56"/>
+      <c r="M74" s="56"/>
+      <c r="N74" s="56"/>
+      <c r="O74" s="56"/>
+      <c r="P74" s="56"/>
+      <c r="Q74" s="56"/>
+      <c r="R74" s="56"/>
+      <c r="S74" s="104"/>
+      <c r="T74" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="U74" s="103"/>
-      <c r="V74" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="W74" s="105"/>
+      <c r="U74" s="106"/>
+      <c r="V74" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="W74" s="108"/>
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
       <c r="AA74" s="8"/>
@@ -6299,103 +6325,103 @@
       <c r="AU74" s="6"/>
       <c r="AV74" s="6"/>
     </row>
-    <row r="75" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="131" t="s">
+    <row r="75" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="100" t="s">
+        <v>269</v>
+      </c>
+      <c r="C75" s="101"/>
+      <c r="D75" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="C75" s="132"/>
-      <c r="D75" s="54" t="s">
+      <c r="E75" s="29"/>
+      <c r="F75" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="E75" s="55"/>
-      <c r="F75" s="54" t="s">
+      <c r="G75" s="29"/>
+      <c r="H75" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="G75" s="55"/>
-      <c r="H75" s="54" t="s">
+      <c r="I75" s="29"/>
+      <c r="J75" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="I75" s="55"/>
-      <c r="J75" s="54" t="s">
+      <c r="K75" s="29"/>
+      <c r="L75" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="K75" s="55"/>
-      <c r="L75" s="54" t="s">
+      <c r="M75" s="29"/>
+      <c r="N75" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="M75" s="55"/>
-      <c r="N75" s="54" t="s">
+      <c r="O75" s="29"/>
+      <c r="P75" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="O75" s="55"/>
-      <c r="P75" s="54" t="s">
+      <c r="Q75" s="29"/>
+      <c r="R75" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="Q75" s="55"/>
-      <c r="R75" s="38" t="s">
+      <c r="S75" s="30"/>
+      <c r="T75" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="S75" s="38"/>
-      <c r="T75" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="U75" s="38"/>
-      <c r="V75" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="W75" s="38"/>
+      <c r="U75" s="30"/>
+      <c r="V75" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="W75" s="30"/>
       <c r="X75" s="6"/>
       <c r="AT75" s="6"/>
       <c r="AU75" s="6"/>
       <c r="AV75" s="6"/>
       <c r="AW75" s="6"/>
     </row>
-    <row r="76" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="45" t="s">
+      <c r="B76" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="C76" s="27"/>
+      <c r="D76" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="C76" s="47"/>
-      <c r="D76" s="45" t="s">
+      <c r="E76" s="27"/>
+      <c r="F76" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="E76" s="47"/>
-      <c r="F76" s="45" t="s">
+      <c r="G76" s="27"/>
+      <c r="H76" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="G76" s="47"/>
-      <c r="H76" s="45" t="s">
+      <c r="I76" s="27"/>
+      <c r="J76" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="I76" s="47"/>
-      <c r="J76" s="59" t="s">
+      <c r="K76" s="60"/>
+      <c r="L76" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="K76" s="61"/>
-      <c r="L76" s="45" t="s">
+      <c r="M76" s="27"/>
+      <c r="N76" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="M76" s="47"/>
-      <c r="N76" s="38" t="s">
+      <c r="O76" s="30"/>
+      <c r="P76" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="O76" s="38"/>
-      <c r="P76" s="38" t="s">
+      <c r="Q76" s="30"/>
+      <c r="R76" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="Q76" s="38"/>
-      <c r="R76" s="38" t="s">
+      <c r="S76" s="30"/>
+      <c r="T76" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="S76" s="38"/>
-      <c r="T76" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="U76" s="38"/>
-      <c r="V76" s="121" t="s">
+      <c r="U76" s="30"/>
+      <c r="V76" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="W76" s="121"/>
+      <c r="W76" s="96"/>
       <c r="AA76" s="8"/>
       <c r="AB76" s="8"/>
       <c r="AC76" s="8"/>
@@ -6414,48 +6440,48 @@
       <c r="AP76" s="6"/>
       <c r="AQ76" s="6"/>
     </row>
-    <row r="77" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="38" t="s">
+      <c r="B77" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="38"/>
-      <c r="D77" s="45" t="s">
+      <c r="C77" s="30"/>
+      <c r="D77" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="E77" s="27"/>
+      <c r="F77" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="E77" s="47"/>
-      <c r="F77" s="45" t="s">
+      <c r="G77" s="27"/>
+      <c r="H77" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="G77" s="47"/>
-      <c r="H77" s="45" t="s">
+      <c r="I77" s="27"/>
+      <c r="J77" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="I77" s="47"/>
-      <c r="J77" s="59" t="s">
+      <c r="K77" s="60"/>
+      <c r="L77" s="59" t="s">
         <v>293</v>
       </c>
-      <c r="K77" s="61"/>
-      <c r="L77" s="59" t="s">
-        <v>294</v>
-      </c>
-      <c r="M77" s="61"/>
-      <c r="N77" s="38"/>
-      <c r="O77" s="38"/>
-      <c r="P77" s="38"/>
-      <c r="Q77" s="38"/>
-      <c r="R77" s="56" t="s">
+      <c r="M77" s="60"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="30"/>
+      <c r="P77" s="30"/>
+      <c r="Q77" s="30"/>
+      <c r="R77" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="S77" s="56"/>
-      <c r="T77" s="56" t="s">
+      <c r="S77" s="31"/>
+      <c r="T77" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="U77" s="56"/>
-      <c r="V77" s="56" t="s">
+      <c r="U77" s="31"/>
+      <c r="V77" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="W77" s="56"/>
+      <c r="W77" s="31"/>
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
       <c r="AA77" s="8"/>
@@ -6481,42 +6507,44 @@
       <c r="AU77" s="6"/>
       <c r="AV77" s="6"/>
     </row>
-    <row r="78" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="120" t="s">
+      <c r="B78" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="120"/>
-      <c r="D78" s="120" t="s">
+      <c r="C78" s="91"/>
+      <c r="D78" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="E78" s="120"/>
-      <c r="F78" s="120" t="s">
+      <c r="E78" s="91"/>
+      <c r="F78" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G78" s="120"/>
-      <c r="H78" s="122"/>
-      <c r="I78" s="122"/>
-      <c r="J78" s="51" t="s">
+      <c r="G78" s="91"/>
+      <c r="H78" s="97"/>
+      <c r="I78" s="97"/>
+      <c r="J78" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="K78" s="53"/>
-      <c r="L78" s="53"/>
-      <c r="M78" s="53"/>
-      <c r="N78" s="134"/>
-      <c r="O78" s="134"/>
-      <c r="P78" s="38"/>
-      <c r="Q78" s="38"/>
-      <c r="R78" s="39" t="s">
+      <c r="K78" s="45"/>
+      <c r="L78" s="45"/>
+      <c r="M78" s="45"/>
+      <c r="N78" s="95"/>
+      <c r="O78" s="95"/>
+      <c r="P78" s="30"/>
+      <c r="Q78" s="30"/>
+      <c r="R78" s="148" t="s">
+        <v>331</v>
+      </c>
+      <c r="S78" s="148"/>
+      <c r="T78" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="S78" s="49"/>
-      <c r="T78" s="49"/>
-      <c r="U78" s="49"/>
-      <c r="V78" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="W78" s="40"/>
+      <c r="U78" s="34"/>
+      <c r="V78" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="W78" s="34"/>
       <c r="X78" s="6"/>
       <c r="Z78" s="6"/>
       <c r="AA78" s="8"/>
@@ -6536,7 +6564,7 @@
       <c r="AU78" s="6"/>
       <c r="AV78" s="6"/>
     </row>
-    <row r="79" spans="1:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -6576,190 +6604,192 @@
       <c r="AV79" s="6"/>
       <c r="AW79" s="6"/>
     </row>
-    <row r="80" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="97" t="s">
+      <c r="C81" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="D81" s="97"/>
-      <c r="E81" s="97" t="s">
+      <c r="D81" s="92"/>
+      <c r="E81" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="F81" s="97"/>
-      <c r="G81" s="97" t="s">
+      <c r="F81" s="92"/>
+      <c r="G81" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="H81" s="97"/>
-      <c r="I81" s="97" t="s">
+      <c r="H81" s="92"/>
+      <c r="I81" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="J81" s="97"/>
-      <c r="K81" s="97" t="s">
+      <c r="J81" s="92"/>
+      <c r="K81" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="L81" s="97"/>
-      <c r="M81" s="97" t="s">
+      <c r="L81" s="92"/>
+      <c r="M81" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="N81" s="97"/>
-      <c r="O81" s="97" t="s">
+      <c r="N81" s="92"/>
+      <c r="O81" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="P81" s="97"/>
-      <c r="Q81" s="97" t="s">
+      <c r="P81" s="92"/>
+      <c r="Q81" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="R81" s="97"/>
-      <c r="S81" s="97" t="s">
+      <c r="R81" s="92"/>
+      <c r="S81" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="T81" s="97"/>
-      <c r="U81" s="97" t="s">
+      <c r="T81" s="92"/>
+      <c r="U81" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="V81" s="97"/>
+      <c r="V81" s="92"/>
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
       <c r="AA81" s="8"/>
     </row>
-    <row r="82" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="99" t="s">
+      <c r="B82" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="100"/>
-      <c r="D82" s="99" t="s">
+      <c r="C82" s="119"/>
+      <c r="D82" s="118" t="s">
         <v>117</v>
       </c>
-      <c r="E82" s="100"/>
-      <c r="F82" s="78" t="s">
+      <c r="E82" s="119"/>
+      <c r="F82" s="126" t="s">
         <v>112</v>
       </c>
-      <c r="G82" s="78"/>
-      <c r="H82" s="78" t="s">
+      <c r="G82" s="126"/>
+      <c r="H82" s="126" t="s">
         <v>113</v>
       </c>
-      <c r="I82" s="78"/>
-      <c r="J82" s="95" t="s">
+      <c r="I82" s="126"/>
+      <c r="J82" s="120" t="s">
         <v>108</v>
       </c>
-      <c r="K82" s="96"/>
-      <c r="L82" s="95" t="s">
+      <c r="K82" s="121"/>
+      <c r="L82" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="M82" s="96"/>
-      <c r="N82" s="95" t="s">
+      <c r="M82" s="121"/>
+      <c r="N82" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="O82" s="96"/>
-      <c r="P82" s="99" t="s">
+      <c r="O82" s="121"/>
+      <c r="P82" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="Q82" s="100"/>
-      <c r="R82" s="99" t="s">
+      <c r="Q82" s="119"/>
+      <c r="R82" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="S82" s="100"/>
-      <c r="T82" s="99" t="s">
+      <c r="S82" s="119"/>
+      <c r="T82" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="U82" s="100"/>
-      <c r="V82" s="101" t="s">
+      <c r="U82" s="119"/>
+      <c r="V82" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="W82" s="101"/>
-    </row>
-    <row r="83" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W82" s="145"/>
+    </row>
+    <row r="83" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="38" t="s">
+      <c r="B83" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="38"/>
-      <c r="D83" s="95" t="s">
+      <c r="C83" s="30"/>
+      <c r="D83" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="E83" s="96"/>
-      <c r="F83" s="95" t="s">
+      <c r="E83" s="121"/>
+      <c r="F83" s="120" t="s">
         <v>118</v>
       </c>
-      <c r="G83" s="96"/>
-      <c r="H83" s="95" t="s">
+      <c r="G83" s="121"/>
+      <c r="H83" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="I83" s="96"/>
-      <c r="J83" s="99" t="s">
+      <c r="I83" s="121"/>
+      <c r="J83" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="K83" s="100"/>
-      <c r="L83" s="99" t="s">
+      <c r="K83" s="119"/>
+      <c r="L83" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="M83" s="100"/>
-      <c r="N83" s="99" t="s">
+      <c r="M83" s="119"/>
+      <c r="N83" s="118" t="s">
         <v>107</v>
       </c>
-      <c r="O83" s="100"/>
-      <c r="P83" s="95" t="s">
+      <c r="O83" s="119"/>
+      <c r="P83" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="Q83" s="96"/>
-      <c r="R83" s="56" t="s">
+      <c r="Q83" s="121"/>
+      <c r="R83" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="S83" s="56"/>
-      <c r="T83" s="56" t="s">
+      <c r="S83" s="31"/>
+      <c r="T83" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="U83" s="56"/>
-      <c r="V83" s="98" t="s">
+      <c r="U83" s="31"/>
+      <c r="V83" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="W83" s="98"/>
-    </row>
-    <row r="84" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W83" s="136"/>
+    </row>
+    <row r="84" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="120" t="s">
+      <c r="B84" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C84" s="120"/>
-      <c r="D84" s="120" t="s">
+      <c r="C84" s="91"/>
+      <c r="D84" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="E84" s="120"/>
-      <c r="F84" s="120" t="s">
+      <c r="E84" s="91"/>
+      <c r="F84" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G84" s="120"/>
-      <c r="H84" s="95"/>
-      <c r="I84" s="96"/>
-      <c r="J84" s="51" t="s">
+      <c r="G84" s="91"/>
+      <c r="H84" s="120"/>
+      <c r="I84" s="121"/>
+      <c r="J84" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="K84" s="53"/>
-      <c r="L84" s="53"/>
-      <c r="M84" s="52"/>
-      <c r="N84" s="99"/>
-      <c r="O84" s="100"/>
-      <c r="P84" s="99" t="s">
+      <c r="K84" s="45"/>
+      <c r="L84" s="45"/>
+      <c r="M84" s="44"/>
+      <c r="N84" s="118"/>
+      <c r="O84" s="119"/>
+      <c r="P84" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="Q84" s="100"/>
-      <c r="R84" s="39" t="s">
+      <c r="Q84" s="119"/>
+      <c r="R84" s="148" t="s">
+        <v>331</v>
+      </c>
+      <c r="S84" s="148"/>
+      <c r="T84" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="S84" s="49"/>
-      <c r="T84" s="49"/>
-      <c r="U84" s="49"/>
-      <c r="V84" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="W84" s="40"/>
+      <c r="U84" s="34"/>
+      <c r="V84" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="W84" s="34"/>
       <c r="X84" s="5"/>
     </row>
     <row r="86" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6767,46 +6797,46 @@
         <v>121</v>
       </c>
     </row>
-    <row r="87" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C87" s="25"/>
-      <c r="D87" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="E87" s="31"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="H87" s="31"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="K87" s="31"/>
-      <c r="L87" s="32"/>
-      <c r="M87" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="N87" s="31"/>
-      <c r="O87" s="32"/>
-      <c r="P87" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q87" s="31"/>
-      <c r="R87" s="32"/>
-      <c r="S87" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="T87" s="31"/>
-      <c r="U87" s="32"/>
-      <c r="V87" s="24" t="s">
+      <c r="C87" s="47"/>
+      <c r="D87" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E87" s="53"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="H87" s="53"/>
+      <c r="I87" s="54"/>
+      <c r="J87" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K87" s="53"/>
+      <c r="L87" s="54"/>
+      <c r="M87" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N87" s="53"/>
+      <c r="O87" s="54"/>
+      <c r="P87" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q87" s="53"/>
+      <c r="R87" s="54"/>
+      <c r="S87" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="T87" s="53"/>
+      <c r="U87" s="54"/>
+      <c r="V87" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="W87" s="25"/>
+      <c r="W87" s="47"/>
       <c r="Z87" s="5"/>
       <c r="AA87" s="8"/>
       <c r="AB87" s="8"/>
@@ -6828,40 +6858,40 @@
       <c r="AV87" s="5"/>
       <c r="AW87" s="5"/>
     </row>
-    <row r="88" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
-      <c r="B88" s="115" t="s">
-        <v>206</v>
-      </c>
-      <c r="C88" s="116"/>
-      <c r="D88" s="117" t="s">
-        <v>124</v>
-      </c>
-      <c r="E88" s="118"/>
-      <c r="F88" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="34"/>
-      <c r="K88" s="34"/>
-      <c r="L88" s="34"/>
-      <c r="M88" s="34"/>
-      <c r="N88" s="34"/>
-      <c r="O88" s="34"/>
-      <c r="P88" s="34"/>
-      <c r="Q88" s="34"/>
-      <c r="R88" s="34"/>
-      <c r="S88" s="119"/>
-      <c r="T88" s="102" t="s">
+      <c r="B88" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C88" s="94"/>
+      <c r="D88" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E88" s="103"/>
+      <c r="F88" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G88" s="56"/>
+      <c r="H88" s="56"/>
+      <c r="I88" s="56"/>
+      <c r="J88" s="56"/>
+      <c r="K88" s="56"/>
+      <c r="L88" s="56"/>
+      <c r="M88" s="56"/>
+      <c r="N88" s="56"/>
+      <c r="O88" s="56"/>
+      <c r="P88" s="56"/>
+      <c r="Q88" s="56"/>
+      <c r="R88" s="56"/>
+      <c r="S88" s="104"/>
+      <c r="T88" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="U88" s="103"/>
-      <c r="V88" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="W88" s="105"/>
+      <c r="U88" s="106"/>
+      <c r="V88" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="W88" s="108"/>
       <c r="Z88" s="5"/>
       <c r="AA88" s="8"/>
       <c r="AB88" s="8"/>
@@ -6883,114 +6913,114 @@
       <c r="AV88" s="5"/>
       <c r="AW88" s="5"/>
     </row>
-    <row r="90" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="91" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="91" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="59" t="s">
-        <v>304</v>
-      </c>
-      <c r="C91" s="61"/>
+        <v>302</v>
+      </c>
+      <c r="C91" s="60"/>
       <c r="D91" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="61"/>
+      <c r="E91" s="60"/>
       <c r="F91" s="59" t="s">
-        <v>305</v>
-      </c>
-      <c r="G91" s="61"/>
+        <v>303</v>
+      </c>
+      <c r="G91" s="60"/>
       <c r="I91" s="59" t="s">
-        <v>304</v>
-      </c>
-      <c r="J91" s="61"/>
+        <v>302</v>
+      </c>
+      <c r="J91" s="60"/>
       <c r="K91" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="61"/>
+      <c r="L91" s="60"/>
       <c r="M91" s="59" t="s">
-        <v>305</v>
-      </c>
-      <c r="N91" s="61"/>
-      <c r="P91" s="63" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q91" s="64"/>
-      <c r="R91" s="65"/>
-      <c r="S91" s="71" t="s">
-        <v>313</v>
-      </c>
-      <c r="T91" s="72"/>
-      <c r="U91" s="73"/>
-    </row>
-    <row r="92" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="N91" s="60"/>
+      <c r="P91" s="61" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q91" s="62"/>
+      <c r="R91" s="63"/>
+      <c r="S91" s="85" t="s">
+        <v>311</v>
+      </c>
+      <c r="T91" s="86"/>
+      <c r="U91" s="87"/>
+    </row>
+    <row r="92" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="61"/>
+      <c r="C92" s="60"/>
       <c r="D92" s="59" t="s">
-        <v>306</v>
-      </c>
-      <c r="E92" s="61"/>
+        <v>304</v>
+      </c>
+      <c r="E92" s="60"/>
       <c r="F92" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="61"/>
+      <c r="G92" s="60"/>
       <c r="I92" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="J92" s="61"/>
+      <c r="J92" s="60"/>
       <c r="K92" s="59" t="s">
-        <v>307</v>
-      </c>
-      <c r="L92" s="61"/>
+        <v>305</v>
+      </c>
+      <c r="L92" s="60"/>
       <c r="M92" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="N92" s="61"/>
-      <c r="P92" s="68"/>
-      <c r="Q92" s="69"/>
-      <c r="R92" s="70"/>
-      <c r="S92" s="74"/>
-      <c r="T92" s="75"/>
-      <c r="U92" s="76"/>
-    </row>
-    <row r="93" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N92" s="60"/>
+      <c r="P92" s="67"/>
+      <c r="Q92" s="68"/>
+      <c r="R92" s="69"/>
+      <c r="S92" s="88"/>
+      <c r="T92" s="89"/>
+      <c r="U92" s="90"/>
+    </row>
+    <row r="93" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="59" t="s">
-        <v>309</v>
-      </c>
-      <c r="C93" s="61"/>
+        <v>307</v>
+      </c>
+      <c r="C93" s="60"/>
       <c r="D93" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E93" s="61"/>
-      <c r="F93" s="63" t="s">
-        <v>310</v>
-      </c>
-      <c r="G93" s="65"/>
-      <c r="I93" s="63" t="s">
-        <v>309</v>
-      </c>
-      <c r="J93" s="61"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="61" t="s">
+        <v>308</v>
+      </c>
+      <c r="G93" s="63"/>
+      <c r="I93" s="61" t="s">
+        <v>307</v>
+      </c>
+      <c r="J93" s="60"/>
       <c r="K93" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="L93" s="61"/>
+      <c r="L93" s="60"/>
       <c r="M93" s="59" t="s">
-        <v>310</v>
-      </c>
-      <c r="N93" s="61"/>
-      <c r="P93" s="63" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q93" s="64"/>
-      <c r="R93" s="64"/>
-      <c r="S93" s="64"/>
-      <c r="T93" s="64"/>
-      <c r="U93" s="65"/>
-    </row>
-    <row r="94" spans="1:49" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="N93" s="60"/>
+      <c r="P93" s="61" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q93" s="62"/>
+      <c r="R93" s="62"/>
+      <c r="S93" s="62"/>
+      <c r="T93" s="62"/>
+      <c r="U93" s="63"/>
+    </row>
+    <row r="94" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="12"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
@@ -7003,12 +7033,12 @@
       <c r="L94" s="15"/>
       <c r="M94" s="15"/>
       <c r="N94" s="16"/>
-      <c r="P94" s="66"/>
-      <c r="Q94" s="62"/>
-      <c r="R94" s="62"/>
-      <c r="S94" s="62"/>
-      <c r="T94" s="62"/>
-      <c r="U94" s="67"/>
+      <c r="P94" s="64"/>
+      <c r="Q94" s="65"/>
+      <c r="R94" s="65"/>
+      <c r="S94" s="65"/>
+      <c r="T94" s="65"/>
+      <c r="U94" s="66"/>
       <c r="W94" s="22"/>
       <c r="X94" s="22"/>
       <c r="Y94" s="22"/>
@@ -7016,140 +7046,140 @@
       <c r="AA94" s="22"/>
       <c r="AB94" s="22"/>
     </row>
-    <row r="95" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="59" t="s">
-        <v>311</v>
-      </c>
-      <c r="C95" s="60"/>
-      <c r="D95" s="60"/>
-      <c r="E95" s="60"/>
-      <c r="F95" s="60"/>
-      <c r="G95" s="61"/>
+        <v>309</v>
+      </c>
+      <c r="C95" s="70"/>
+      <c r="D95" s="70"/>
+      <c r="E95" s="70"/>
+      <c r="F95" s="70"/>
+      <c r="G95" s="60"/>
       <c r="H95" s="11"/>
       <c r="I95" s="59" t="s">
-        <v>314</v>
-      </c>
-      <c r="J95" s="60"/>
-      <c r="K95" s="61"/>
+        <v>312</v>
+      </c>
+      <c r="J95" s="70"/>
+      <c r="K95" s="60"/>
       <c r="L95" s="59" t="s">
-        <v>315</v>
-      </c>
-      <c r="M95" s="60"/>
-      <c r="N95" s="61"/>
-      <c r="P95" s="68"/>
-      <c r="Q95" s="69"/>
-      <c r="R95" s="69"/>
-      <c r="S95" s="69"/>
-      <c r="T95" s="69"/>
-      <c r="U95" s="70"/>
+        <v>313</v>
+      </c>
+      <c r="M95" s="70"/>
+      <c r="N95" s="60"/>
+      <c r="P95" s="67"/>
+      <c r="Q95" s="68"/>
+      <c r="R95" s="68"/>
+      <c r="S95" s="68"/>
+      <c r="T95" s="68"/>
+      <c r="U95" s="69"/>
       <c r="V95" s="11"/>
     </row>
-    <row r="97" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="98" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="98" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="59" t="s">
-        <v>304</v>
-      </c>
-      <c r="C98" s="61"/>
+        <v>302</v>
+      </c>
+      <c r="C98" s="60"/>
       <c r="D98" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E98" s="61"/>
+      <c r="E98" s="60"/>
       <c r="F98" s="59" t="s">
-        <v>305</v>
-      </c>
-      <c r="G98" s="61"/>
+        <v>303</v>
+      </c>
+      <c r="G98" s="60"/>
       <c r="I98" s="59" t="s">
-        <v>304</v>
-      </c>
-      <c r="J98" s="61"/>
+        <v>302</v>
+      </c>
+      <c r="J98" s="60"/>
       <c r="K98" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="L98" s="61"/>
+      <c r="L98" s="60"/>
       <c r="M98" s="59" t="s">
-        <v>305</v>
-      </c>
-      <c r="N98" s="61"/>
-      <c r="P98" s="63" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q98" s="64"/>
-      <c r="R98" s="65"/>
-      <c r="S98" s="71" t="s">
-        <v>313</v>
-      </c>
-      <c r="T98" s="72"/>
-      <c r="U98" s="73"/>
-    </row>
-    <row r="99" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="N98" s="60"/>
+      <c r="P98" s="61" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q98" s="62"/>
+      <c r="R98" s="63"/>
+      <c r="S98" s="85" t="s">
+        <v>311</v>
+      </c>
+      <c r="T98" s="86"/>
+      <c r="U98" s="87"/>
+    </row>
+    <row r="99" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="61"/>
+      <c r="C99" s="60"/>
       <c r="D99" s="59" t="s">
-        <v>308</v>
-      </c>
-      <c r="E99" s="61"/>
+        <v>306</v>
+      </c>
+      <c r="E99" s="60"/>
       <c r="F99" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G99" s="61"/>
+      <c r="G99" s="60"/>
       <c r="I99" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="J99" s="61"/>
+      <c r="J99" s="60"/>
       <c r="K99" s="59" t="s">
-        <v>308</v>
-      </c>
-      <c r="L99" s="61"/>
+        <v>306</v>
+      </c>
+      <c r="L99" s="60"/>
       <c r="M99" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="N99" s="61"/>
-      <c r="P99" s="68"/>
-      <c r="Q99" s="69"/>
-      <c r="R99" s="70"/>
-      <c r="S99" s="74"/>
-      <c r="T99" s="75"/>
-      <c r="U99" s="76"/>
-    </row>
-    <row r="100" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="63" t="s">
-        <v>309</v>
-      </c>
-      <c r="C100" s="65"/>
-      <c r="D100" s="63" t="s">
+      <c r="N99" s="60"/>
+      <c r="P99" s="67"/>
+      <c r="Q99" s="68"/>
+      <c r="R99" s="69"/>
+      <c r="S99" s="88"/>
+      <c r="T99" s="89"/>
+      <c r="U99" s="90"/>
+    </row>
+    <row r="100" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="61" t="s">
+        <v>307</v>
+      </c>
+      <c r="C100" s="63"/>
+      <c r="D100" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="65"/>
-      <c r="F100" s="63" t="s">
-        <v>310</v>
-      </c>
-      <c r="G100" s="65"/>
+      <c r="E100" s="63"/>
+      <c r="F100" s="61" t="s">
+        <v>308</v>
+      </c>
+      <c r="G100" s="63"/>
       <c r="I100" s="59" t="s">
-        <v>309</v>
-      </c>
-      <c r="J100" s="61"/>
+        <v>307</v>
+      </c>
+      <c r="J100" s="60"/>
       <c r="K100" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="L100" s="61"/>
+      <c r="L100" s="60"/>
       <c r="M100" s="59" t="s">
-        <v>310</v>
-      </c>
-      <c r="N100" s="61"/>
-      <c r="P100" s="63" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q100" s="64"/>
-      <c r="R100" s="64"/>
-      <c r="S100" s="64"/>
-      <c r="T100" s="64"/>
-      <c r="U100" s="65"/>
+        <v>308</v>
+      </c>
+      <c r="N100" s="60"/>
+      <c r="P100" s="61" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q100" s="62"/>
+      <c r="R100" s="62"/>
+      <c r="S100" s="62"/>
+      <c r="T100" s="62"/>
+      <c r="U100" s="63"/>
       <c r="V100" s="23"/>
       <c r="W100" s="23"/>
       <c r="X100" s="23"/>
@@ -7158,7 +7188,7 @@
       <c r="AA100" s="23"/>
       <c r="AB100" s="23"/>
     </row>
-    <row r="101" spans="2:32" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:32" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="19"/>
       <c r="C101" s="21"/>
       <c r="D101" s="21"/>
@@ -7171,12 +7201,12 @@
       <c r="L101" s="17"/>
       <c r="M101" s="17"/>
       <c r="N101" s="18"/>
-      <c r="P101" s="66"/>
-      <c r="Q101" s="62"/>
-      <c r="R101" s="62"/>
-      <c r="S101" s="62"/>
-      <c r="T101" s="62"/>
-      <c r="U101" s="67"/>
+      <c r="P101" s="64"/>
+      <c r="Q101" s="65"/>
+      <c r="R101" s="65"/>
+      <c r="S101" s="65"/>
+      <c r="T101" s="65"/>
+      <c r="U101" s="66"/>
       <c r="W101" s="22"/>
       <c r="X101" s="22"/>
       <c r="Y101" s="22"/>
@@ -7184,446 +7214,805 @@
       <c r="AA101" s="22"/>
       <c r="AB101" s="22"/>
     </row>
-    <row r="102" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="59" t="s">
-        <v>311</v>
-      </c>
-      <c r="C102" s="60"/>
-      <c r="D102" s="60"/>
-      <c r="E102" s="60"/>
-      <c r="F102" s="60"/>
-      <c r="G102" s="61"/>
+        <v>309</v>
+      </c>
+      <c r="C102" s="70"/>
+      <c r="D102" s="70"/>
+      <c r="E102" s="70"/>
+      <c r="F102" s="70"/>
+      <c r="G102" s="60"/>
       <c r="H102" s="11"/>
       <c r="I102" s="59" t="s">
-        <v>314</v>
-      </c>
-      <c r="J102" s="60"/>
-      <c r="K102" s="61"/>
+        <v>312</v>
+      </c>
+      <c r="J102" s="70"/>
+      <c r="K102" s="60"/>
       <c r="L102" s="59" t="s">
+        <v>313</v>
+      </c>
+      <c r="M102" s="70"/>
+      <c r="N102" s="60"/>
+      <c r="P102" s="67"/>
+      <c r="Q102" s="68"/>
+      <c r="R102" s="68"/>
+      <c r="S102" s="68"/>
+      <c r="T102" s="68"/>
+      <c r="U102" s="69"/>
+      <c r="V102" s="11"/>
+      <c r="W102" s="65"/>
+      <c r="X102" s="65"/>
+      <c r="Y102" s="65"/>
+      <c r="Z102" s="65"/>
+      <c r="AA102" s="65"/>
+      <c r="AB102" s="65"/>
+    </row>
+    <row r="104" spans="2:32" ht="15" x14ac:dyDescent="0.25">
+      <c r="B104" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="M102" s="60"/>
-      <c r="N102" s="61"/>
-      <c r="P102" s="68"/>
-      <c r="Q102" s="69"/>
-      <c r="R102" s="69"/>
-      <c r="S102" s="69"/>
-      <c r="T102" s="69"/>
-      <c r="U102" s="70"/>
-      <c r="V102" s="11"/>
-      <c r="W102" s="62"/>
-      <c r="X102" s="62"/>
-      <c r="Y102" s="62"/>
-      <c r="Z102" s="62"/>
-      <c r="AA102" s="62"/>
-      <c r="AB102" s="62"/>
-    </row>
-    <row r="104" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B104" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="105" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="63" t="s">
+    </row>
+    <row r="105" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="C105" s="62"/>
+      <c r="D105" s="62"/>
+      <c r="E105" s="63"/>
+      <c r="F105" s="79" t="s">
+        <v>327</v>
+      </c>
+      <c r="G105" s="80"/>
+      <c r="H105" s="80"/>
+      <c r="I105" s="81"/>
+      <c r="J105" s="61" t="s">
         <v>320</v>
       </c>
-      <c r="C105" s="64"/>
-      <c r="D105" s="64"/>
-      <c r="E105" s="65"/>
-      <c r="F105" s="135" t="s">
-        <v>329</v>
-      </c>
-      <c r="G105" s="136"/>
-      <c r="H105" s="136"/>
-      <c r="I105" s="137"/>
-      <c r="J105" s="63" t="s">
-        <v>322</v>
-      </c>
-      <c r="K105" s="64"/>
-      <c r="L105" s="64"/>
-      <c r="M105" s="65"/>
+      <c r="K105" s="62"/>
+      <c r="L105" s="62"/>
+      <c r="M105" s="63"/>
       <c r="O105" s="59" t="s">
-        <v>304</v>
-      </c>
-      <c r="P105" s="61"/>
+        <v>302</v>
+      </c>
+      <c r="P105" s="60"/>
       <c r="Q105" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="R105" s="61"/>
+      <c r="R105" s="60"/>
       <c r="S105" s="59" t="s">
-        <v>305</v>
-      </c>
-      <c r="T105" s="61"/>
+        <v>303</v>
+      </c>
+      <c r="T105" s="60"/>
       <c r="U105" s="11"/>
-      <c r="V105" s="89" t="s">
-        <v>324</v>
-      </c>
-      <c r="W105" s="90"/>
-      <c r="X105" s="90"/>
-      <c r="Y105" s="91"/>
+      <c r="V105" s="130" t="s">
+        <v>322</v>
+      </c>
+      <c r="W105" s="131"/>
+      <c r="X105" s="131"/>
+      <c r="Y105" s="132"/>
       <c r="Z105" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="AA105" s="61"/>
+      <c r="AA105" s="60"/>
       <c r="AB105" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="AC105" s="61"/>
+      <c r="AC105" s="60"/>
       <c r="AD105" s="11"/>
     </row>
-    <row r="106" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="68"/>
-      <c r="C106" s="69"/>
-      <c r="D106" s="69"/>
-      <c r="E106" s="70"/>
-      <c r="F106" s="138"/>
-      <c r="G106" s="139"/>
-      <c r="H106" s="139"/>
-      <c r="I106" s="140"/>
-      <c r="J106" s="68"/>
-      <c r="K106" s="69"/>
-      <c r="L106" s="69"/>
-      <c r="M106" s="70"/>
+    <row r="106" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="67"/>
+      <c r="C106" s="68"/>
+      <c r="D106" s="68"/>
+      <c r="E106" s="69"/>
+      <c r="F106" s="82"/>
+      <c r="G106" s="83"/>
+      <c r="H106" s="83"/>
+      <c r="I106" s="84"/>
+      <c r="J106" s="67"/>
+      <c r="K106" s="68"/>
+      <c r="L106" s="68"/>
+      <c r="M106" s="69"/>
       <c r="O106" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="P106" s="61"/>
+      <c r="P106" s="60"/>
       <c r="Q106" s="59" t="s">
-        <v>318</v>
-      </c>
-      <c r="R106" s="61"/>
+        <v>316</v>
+      </c>
+      <c r="R106" s="60"/>
       <c r="S106" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="T106" s="61"/>
+      <c r="T106" s="60"/>
       <c r="U106" s="11"/>
-      <c r="V106" s="92"/>
-      <c r="W106" s="93"/>
-      <c r="X106" s="93"/>
-      <c r="Y106" s="94"/>
+      <c r="V106" s="133"/>
+      <c r="W106" s="134"/>
+      <c r="X106" s="134"/>
+      <c r="Y106" s="135"/>
       <c r="Z106" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="AA106" s="61"/>
+      <c r="AA106" s="60"/>
       <c r="AB106" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="AC106" s="61"/>
+      <c r="AC106" s="60"/>
       <c r="AD106" s="11"/>
     </row>
-    <row r="107" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="89" t="s">
-        <v>321</v>
-      </c>
-      <c r="C107" s="90"/>
-      <c r="D107" s="90"/>
-      <c r="E107" s="91"/>
-      <c r="F107" s="63" t="s">
+    <row r="107" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="130" t="s">
         <v>319</v>
       </c>
-      <c r="G107" s="64"/>
-      <c r="H107" s="64"/>
-      <c r="I107" s="65"/>
-      <c r="J107" s="135" t="s">
-        <v>325</v>
-      </c>
-      <c r="K107" s="136"/>
-      <c r="L107" s="136"/>
-      <c r="M107" s="137"/>
+      <c r="C107" s="131"/>
+      <c r="D107" s="131"/>
+      <c r="E107" s="132"/>
+      <c r="F107" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="G107" s="62"/>
+      <c r="H107" s="62"/>
+      <c r="I107" s="63"/>
+      <c r="J107" s="79" t="s">
+        <v>323</v>
+      </c>
+      <c r="K107" s="80"/>
+      <c r="L107" s="80"/>
+      <c r="M107" s="81"/>
       <c r="O107" s="59" t="s">
-        <v>309</v>
-      </c>
-      <c r="P107" s="61"/>
+        <v>307</v>
+      </c>
+      <c r="P107" s="60"/>
       <c r="Q107" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="R107" s="61"/>
+      <c r="R107" s="60"/>
       <c r="S107" s="59" t="s">
-        <v>310</v>
-      </c>
-      <c r="T107" s="61"/>
+        <v>308</v>
+      </c>
+      <c r="T107" s="60"/>
       <c r="U107" s="11"/>
-      <c r="V107" s="63" t="s">
-        <v>303</v>
-      </c>
-      <c r="W107" s="64"/>
-      <c r="X107" s="64"/>
-      <c r="Y107" s="64"/>
-      <c r="Z107" s="64"/>
-      <c r="AA107" s="64"/>
-      <c r="AB107" s="64"/>
-      <c r="AC107" s="65"/>
+      <c r="V107" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="W107" s="62"/>
+      <c r="X107" s="62"/>
+      <c r="Y107" s="62"/>
+      <c r="Z107" s="62"/>
+      <c r="AA107" s="62"/>
+      <c r="AB107" s="62"/>
+      <c r="AC107" s="63"/>
       <c r="AD107" s="11"/>
       <c r="AE107" s="11"/>
       <c r="AF107" s="11"/>
     </row>
-    <row r="108" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="92"/>
-      <c r="C108" s="93"/>
-      <c r="D108" s="93"/>
-      <c r="E108" s="94"/>
-      <c r="F108" s="68"/>
-      <c r="G108" s="69"/>
-      <c r="H108" s="69"/>
-      <c r="I108" s="70"/>
-      <c r="J108" s="138"/>
-      <c r="K108" s="139"/>
-      <c r="L108" s="139"/>
-      <c r="M108" s="140"/>
+    <row r="108" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="133"/>
+      <c r="C108" s="134"/>
+      <c r="D108" s="134"/>
+      <c r="E108" s="135"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="68"/>
+      <c r="H108" s="68"/>
+      <c r="I108" s="69"/>
+      <c r="J108" s="82"/>
+      <c r="K108" s="83"/>
+      <c r="L108" s="83"/>
+      <c r="M108" s="84"/>
       <c r="O108" s="59" t="s">
-        <v>323</v>
-      </c>
-      <c r="P108" s="60"/>
-      <c r="Q108" s="60"/>
-      <c r="R108" s="60"/>
-      <c r="S108" s="60"/>
-      <c r="T108" s="61"/>
+        <v>321</v>
+      </c>
+      <c r="P108" s="70"/>
+      <c r="Q108" s="70"/>
+      <c r="R108" s="70"/>
+      <c r="S108" s="70"/>
+      <c r="T108" s="60"/>
       <c r="U108" s="11"/>
-      <c r="V108" s="68"/>
-      <c r="W108" s="69"/>
-      <c r="X108" s="69"/>
-      <c r="Y108" s="69"/>
-      <c r="Z108" s="69"/>
-      <c r="AA108" s="69"/>
-      <c r="AB108" s="69"/>
-      <c r="AC108" s="70"/>
+      <c r="V108" s="67"/>
+      <c r="W108" s="68"/>
+      <c r="X108" s="68"/>
+      <c r="Y108" s="68"/>
+      <c r="Z108" s="68"/>
+      <c r="AA108" s="68"/>
+      <c r="AB108" s="68"/>
+      <c r="AC108" s="69"/>
       <c r="AD108" s="11"/>
       <c r="AE108" s="11"/>
       <c r="AF108" s="11"/>
     </row>
-    <row r="110" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="B110" s="9"/>
     </row>
-    <row r="112" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="B112" s="9"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B114" s="9"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B116" s="9"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B118" s="9"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" s="9"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" s="9"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124" s="9"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128" s="9"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" s="9"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" s="9"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" s="9"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" s="9"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" s="9"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" s="9"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144" s="9"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" s="9"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" s="9"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150" s="9"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" s="9"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" s="9"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" s="9"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" s="9"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162" s="9"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164" s="9"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166" s="9"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B168" s="9"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170" s="9"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B172" s="9"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B174" s="9"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B176" s="9"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178" s="9"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180" s="9"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="630">
-    <mergeCell ref="AB105:AC105"/>
-    <mergeCell ref="Z106:AA106"/>
-    <mergeCell ref="AB106:AC106"/>
-    <mergeCell ref="P100:U102"/>
-    <mergeCell ref="I95:K95"/>
-    <mergeCell ref="I102:K102"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="Z105:AA105"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="V107:AC108"/>
-    <mergeCell ref="P37:AC38"/>
-    <mergeCell ref="W35:AC36"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="F105:I106"/>
-    <mergeCell ref="F107:I108"/>
-    <mergeCell ref="P91:R92"/>
-    <mergeCell ref="S91:U92"/>
-    <mergeCell ref="P93:U95"/>
-    <mergeCell ref="P98:R99"/>
-    <mergeCell ref="S98:U99"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="B35:H36"/>
-    <mergeCell ref="I35:O36"/>
-    <mergeCell ref="P35:V36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="S81:T81"/>
-    <mergeCell ref="U81:V81"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="R70:U70"/>
-    <mergeCell ref="V70:W70"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="R78:U78"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="V75:W75"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="V76:W76"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="B37:H38"/>
-    <mergeCell ref="I37:O38"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="V68:W68"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="V62:W62"/>
+  <mergeCells count="641">
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="W37:AC38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="T78:U78"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="O108:T108"/>
+    <mergeCell ref="B105:E106"/>
+    <mergeCell ref="B107:E108"/>
+    <mergeCell ref="J105:M106"/>
+    <mergeCell ref="J107:M108"/>
+    <mergeCell ref="V105:Y106"/>
+    <mergeCell ref="O107:P107"/>
+    <mergeCell ref="Q107:R107"/>
+    <mergeCell ref="S107:T107"/>
+    <mergeCell ref="O106:P106"/>
+    <mergeCell ref="Q106:R106"/>
+    <mergeCell ref="S106:T106"/>
+    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="Q105:R105"/>
+    <mergeCell ref="S105:T105"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:S20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="V87:W87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:S88"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="V88:W88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="P87:R87"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:S28"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:S42"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:S58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="V73:W73"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
     <mergeCell ref="R77:S77"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="D76:E76"/>
@@ -7648,471 +8037,130 @@
     <mergeCell ref="F70:G70"/>
     <mergeCell ref="H70:I70"/>
     <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="V74:W74"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="V73:W73"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:S66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="B37:H38"/>
+    <mergeCell ref="I37:O38"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
     <mergeCell ref="J61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
     <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="R61:S61"/>
     <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="R62:U62"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:S58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="R54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="R32:U32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:S42"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:S28"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="S87:U87"/>
-    <mergeCell ref="V87:W87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:S88"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="V88:W88"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="P87:R87"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:S20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="O108:T108"/>
-    <mergeCell ref="B105:E106"/>
-    <mergeCell ref="B107:E108"/>
-    <mergeCell ref="J105:M106"/>
-    <mergeCell ref="J107:M108"/>
-    <mergeCell ref="V105:Y106"/>
-    <mergeCell ref="O107:P107"/>
-    <mergeCell ref="Q107:R107"/>
-    <mergeCell ref="S107:T107"/>
-    <mergeCell ref="O106:P106"/>
-    <mergeCell ref="Q106:R106"/>
-    <mergeCell ref="S106:T106"/>
-    <mergeCell ref="O105:P105"/>
-    <mergeCell ref="Q105:R105"/>
-    <mergeCell ref="S105:T105"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="U81:V81"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="V70:W70"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="V107:AC108"/>
+    <mergeCell ref="W35:AC36"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="F105:I106"/>
+    <mergeCell ref="F107:I108"/>
+    <mergeCell ref="P91:R92"/>
+    <mergeCell ref="S91:U92"/>
+    <mergeCell ref="P93:U95"/>
+    <mergeCell ref="P98:R99"/>
+    <mergeCell ref="S98:U99"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="B35:H36"/>
+    <mergeCell ref="I35:O36"/>
+    <mergeCell ref="P35:V36"/>
+    <mergeCell ref="AB105:AC105"/>
+    <mergeCell ref="Z106:AA106"/>
+    <mergeCell ref="AB106:AC106"/>
+    <mergeCell ref="P100:U102"/>
+    <mergeCell ref="I95:K95"/>
+    <mergeCell ref="I102:K102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="Z105:AA105"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="L95:N95"/>
     <mergeCell ref="B102:G102"/>
     <mergeCell ref="W102:AB102"/>
     <mergeCell ref="B100:C100"/>
@@ -8127,13 +8175,6 @@
     <mergeCell ref="I99:J99"/>
     <mergeCell ref="K99:L99"/>
     <mergeCell ref="M99:N99"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="K91:L91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/docs/Keyboard Designs.xlsx
+++ b/docs/Keyboard Designs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="331">
   <si>
     <t>A</t>
   </si>
@@ -362,9 +362,6 @@
     <t>¦</t>
   </si>
   <si>
-    <t>¬</t>
-  </si>
-  <si>
     <t>MENU</t>
   </si>
   <si>
@@ -522,9 +519,6 @@
   </si>
   <si>
     <t>⊭</t>
-  </si>
-  <si>
-    <t>⋆</t>
   </si>
   <si>
     <t>¤</t>
@@ -1015,7 +1009,10 @@
     <t>POSITION &amp; OPACITY</t>
   </si>
   <si>
-    <t>KEY</t>
+    <t>SLEEP</t>
+  </si>
+  <si>
+    <t>SIM KEY</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1108,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1477,11 +1474,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1548,145 +1558,115 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1707,11 +1687,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1731,28 +1816,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1761,27 +1843,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1791,137 +1852,95 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2247,38 +2266,38 @@
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="46" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="V3" s="47"/>
+      <c r="V3" s="25"/>
       <c r="Z3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
@@ -2296,36 +2315,36 @@
     </row>
     <row r="4" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="C4" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="48" t="s">
+      <c r="C4" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="T4" s="49"/>
-      <c r="U4" s="50" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="V4" s="51"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="V4" s="29"/>
       <c r="Z4" s="4"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
@@ -2342,46 +2361,46 @@
       <c r="AQ4" s="7"/>
     </row>
     <row r="5" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28" t="s">
+      <c r="F5" s="55"/>
+      <c r="G5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="28" t="s">
+      <c r="H5" s="55"/>
+      <c r="I5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="28" t="s">
+      <c r="J5" s="55"/>
+      <c r="K5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="28" t="s">
+      <c r="L5" s="55"/>
+      <c r="M5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="29"/>
-      <c r="O5" s="28" t="s">
+      <c r="N5" s="55"/>
+      <c r="O5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="28" t="s">
+      <c r="P5" s="55"/>
+      <c r="Q5" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="29"/>
-      <c r="S5" s="28" t="s">
+      <c r="R5" s="55"/>
+      <c r="S5" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="29"/>
-      <c r="U5" s="24" t="s">
+      <c r="T5" s="55"/>
+      <c r="U5" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="25"/>
+      <c r="V5" s="57"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Z5" s="7"/>
@@ -2404,46 +2423,46 @@
     </row>
     <row r="6" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="26" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="24" t="s">
+      <c r="E6" s="47"/>
+      <c r="F6" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="24" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="24" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="24" t="s">
+      <c r="K6" s="47"/>
+      <c r="L6" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="24" t="s">
+      <c r="M6" s="47"/>
+      <c r="N6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="27"/>
-      <c r="P6" s="24" t="s">
+      <c r="O6" s="47"/>
+      <c r="P6" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="24" t="s">
+      <c r="Q6" s="47"/>
+      <c r="R6" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="27"/>
-      <c r="T6" s="24" t="s">
+      <c r="S6" s="47"/>
+      <c r="T6" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="27"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
       <c r="X6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
@@ -2463,46 +2482,46 @@
     </row>
     <row r="7" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="30" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30" t="s">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30" t="s">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30" t="s">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30" t="s">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30" t="s">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30" t="s">
+      <c r="O7" s="38"/>
+      <c r="P7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="31" t="s">
+      <c r="Q7" s="38"/>
+      <c r="R7" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="S7" s="31"/>
-      <c r="T7" s="33" t="s">
+      <c r="S7" s="56"/>
+      <c r="T7" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="34"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
       <c r="X7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -2520,38 +2539,38 @@
     </row>
     <row r="8" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="24" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="43" t="s">
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="43" t="s">
+      <c r="I8" s="52"/>
+      <c r="J8" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="43" t="s">
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="44"/>
-      <c r="P8" s="35" t="s">
+      <c r="O8" s="52"/>
+      <c r="P8" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="33" t="s">
+      <c r="Q8" s="42"/>
+      <c r="R8" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="34"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="40"/>
       <c r="X8" s="7"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
@@ -2601,17 +2620,29 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="G4:R4"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="S5:T5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="T7:U7"/>
@@ -2628,29 +2659,17 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="G4:R4"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2661,8 +2680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AW182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="AG77" sqref="AG77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2671,57 +2690,57 @@
     <col min="33" max="49" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="T3" s="53"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="46" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="W3" s="47"/>
-      <c r="Z3" s="127" t="s">
+      <c r="U3" s="25"/>
+      <c r="V3" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="147"/>
+      <c r="Z3" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="129"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="91"/>
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
@@ -2738,44 +2757,44 @@
     </row>
     <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="93" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="102" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="103"/>
-      <c r="F4" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="105" t="s">
+      <c r="B4" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="118"/>
+      <c r="D4" s="119" t="s">
         <v>122</v>
       </c>
-      <c r="U4" s="106"/>
-      <c r="V4" s="107" t="s">
-        <v>324</v>
-      </c>
-      <c r="W4" s="108"/>
-      <c r="Z4" s="137" t="s">
+      <c r="E4" s="120"/>
+      <c r="F4" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="121"/>
+      <c r="T4" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="U4" s="79"/>
+      <c r="V4" s="80" t="s">
+        <v>330</v>
+      </c>
+      <c r="W4" s="81"/>
+      <c r="Z4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="138"/>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="70"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
@@ -2790,55 +2809,55 @@
       <c r="AS4" s="5"/>
       <c r="AT4" s="5"/>
     </row>
-    <row r="5" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="28" t="s">
+    <row r="5" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="28" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28" t="s">
+      <c r="F5" s="55"/>
+      <c r="G5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="28" t="s">
+      <c r="H5" s="55"/>
+      <c r="I5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="28" t="s">
+      <c r="J5" s="55"/>
+      <c r="K5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="28" t="s">
+      <c r="L5" s="55"/>
+      <c r="M5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="29"/>
-      <c r="O5" s="28" t="s">
+      <c r="N5" s="55"/>
+      <c r="O5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="28" t="s">
+      <c r="P5" s="55"/>
+      <c r="Q5" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="29"/>
-      <c r="S5" s="28" t="s">
+      <c r="R5" s="55"/>
+      <c r="S5" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="29"/>
-      <c r="U5" s="28" t="s">
+      <c r="T5" s="55"/>
+      <c r="U5" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="29"/>
+      <c r="V5" s="57"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
-      <c r="Z5" s="139" t="s">
+      <c r="Z5" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="AA5" s="140"/>
-      <c r="AB5" s="140"/>
-      <c r="AC5" s="141"/>
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="73"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
@@ -2858,56 +2877,56 @@
     </row>
     <row r="6" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="132"/>
+      <c r="D6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30" t="s">
+      <c r="E6" s="38"/>
+      <c r="F6" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30" t="s">
+      <c r="G6" s="38"/>
+      <c r="H6" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30" t="s">
+      <c r="I6" s="38"/>
+      <c r="J6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30" t="s">
+      <c r="K6" s="38"/>
+      <c r="L6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30" t="s">
+      <c r="M6" s="38"/>
+      <c r="N6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30" t="s">
+      <c r="O6" s="38"/>
+      <c r="P6" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30" t="s">
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30" t="s">
+      <c r="S6" s="38"/>
+      <c r="T6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="30"/>
-      <c r="V6" s="43" t="s">
+      <c r="U6" s="38"/>
+      <c r="V6" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="W6" s="44"/>
-      <c r="Z6" s="142" t="s">
+      <c r="W6" s="52"/>
+      <c r="Z6" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="AA6" s="143"/>
-      <c r="AB6" s="143"/>
-      <c r="AC6" s="144"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="76"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
@@ -2927,50 +2946,50 @@
     </row>
     <row r="7" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30" t="s">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30" t="s">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30" t="s">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30" t="s">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30" t="s">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30" t="s">
+      <c r="O7" s="38"/>
+      <c r="P7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="31" t="s">
+      <c r="Q7" s="38"/>
+      <c r="R7" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="S7" s="31"/>
-      <c r="T7" s="33" t="s">
+      <c r="S7" s="56"/>
+      <c r="T7" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="34"/>
-      <c r="V7" s="33" t="s">
+      <c r="U7" s="40"/>
+      <c r="V7" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="W7" s="34"/>
+      <c r="W7" s="40"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="8"/>
       <c r="AH7" s="5"/>
@@ -2989,48 +3008,44 @@
     </row>
     <row r="8" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91" t="s">
+      <c r="C8" s="112"/>
+      <c r="D8" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91" t="s">
+      <c r="E8" s="112"/>
+      <c r="F8" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="91"/>
-      <c r="H8" s="43" t="s">
+      <c r="G8" s="112"/>
+      <c r="H8" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="43" t="s">
+      <c r="I8" s="52"/>
+      <c r="J8" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="43" t="s">
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="44"/>
-      <c r="P8" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="148" t="s">
-        <v>331</v>
-      </c>
-      <c r="S8" s="148"/>
-      <c r="T8" s="41" t="s">
+      <c r="Q8" s="52"/>
+      <c r="R8" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="U8" s="34"/>
-      <c r="V8" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="W8" s="34"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="W8" s="40"/>
       <c r="X8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="8"/>
@@ -3083,51 +3098,51 @@
       <c r="AV9" s="5"/>
       <c r="AW9" s="5"/>
     </row>
-    <row r="10" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="K11" s="53"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="N11" s="53"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="T11" s="53"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="46" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="W11" s="47"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="W11" s="147"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="8"/>
       <c r="AH11" s="5"/>
@@ -3148,38 +3163,38 @@
     </row>
     <row r="12" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="93" t="s">
-        <v>205</v>
-      </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="102" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="103"/>
-      <c r="F12" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="104"/>
-      <c r="T12" s="105" t="s">
+      <c r="B12" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="U12" s="106"/>
-      <c r="V12" s="107" t="s">
-        <v>324</v>
-      </c>
-      <c r="W12" s="108"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="121"/>
+      <c r="T12" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="U12" s="27"/>
+      <c r="V12" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="W12" s="29"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="8"/>
       <c r="AH12" s="5"/>
@@ -3199,50 +3214,50 @@
       <c r="AV12" s="5"/>
     </row>
     <row r="13" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="122">
+      <c r="B13" s="113">
         <v>1</v>
       </c>
-      <c r="C13" s="123"/>
-      <c r="D13" s="122">
+      <c r="C13" s="114"/>
+      <c r="D13" s="113">
         <v>2</v>
       </c>
-      <c r="E13" s="123"/>
-      <c r="F13" s="28">
+      <c r="E13" s="114"/>
+      <c r="F13" s="54">
         <v>3</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="124">
+      <c r="G13" s="55"/>
+      <c r="H13" s="115">
         <v>4</v>
       </c>
-      <c r="I13" s="125"/>
-      <c r="J13" s="28">
+      <c r="I13" s="116"/>
+      <c r="J13" s="54">
         <v>5</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="28">
+      <c r="K13" s="55"/>
+      <c r="L13" s="54">
         <v>6</v>
       </c>
-      <c r="M13" s="29"/>
-      <c r="N13" s="28">
+      <c r="M13" s="55"/>
+      <c r="N13" s="54">
         <v>7</v>
       </c>
-      <c r="O13" s="29"/>
-      <c r="P13" s="28">
+      <c r="O13" s="55"/>
+      <c r="P13" s="54">
         <v>8</v>
       </c>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="28">
+      <c r="Q13" s="55"/>
+      <c r="R13" s="54">
         <v>9</v>
       </c>
-      <c r="S13" s="29"/>
-      <c r="T13" s="28">
+      <c r="S13" s="55"/>
+      <c r="T13" s="54">
         <v>0</v>
       </c>
-      <c r="U13" s="29"/>
-      <c r="V13" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="W13" s="30"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="W13" s="38"/>
       <c r="X13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="8"/>
@@ -3265,50 +3280,50 @@
     </row>
     <row r="14" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="115" t="s">
+      <c r="C14" s="130"/>
+      <c r="D14" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="116"/>
-      <c r="F14" s="111" t="s">
+      <c r="E14" s="130"/>
+      <c r="F14" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="111"/>
-      <c r="H14" s="117" t="s">
+      <c r="G14" s="125"/>
+      <c r="H14" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111" t="s">
+      <c r="I14" s="125"/>
+      <c r="J14" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111" t="s">
+      <c r="K14" s="125"/>
+      <c r="L14" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="111"/>
-      <c r="N14" s="112" t="s">
+      <c r="M14" s="125"/>
+      <c r="N14" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="O14" s="113"/>
-      <c r="P14" s="112" t="s">
+      <c r="O14" s="127"/>
+      <c r="P14" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="112" t="s">
+      <c r="Q14" s="127"/>
+      <c r="R14" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="S14" s="113"/>
-      <c r="T14" s="112" t="s">
+      <c r="S14" s="127"/>
+      <c r="T14" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="U14" s="113"/>
-      <c r="V14" s="114" t="s">
+      <c r="U14" s="127"/>
+      <c r="V14" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="W14" s="114"/>
+      <c r="W14" s="128"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AH14" s="5"/>
@@ -3330,50 +3345,50 @@
     </row>
     <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="38"/>
+      <c r="D15" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30" t="s">
+      <c r="E15" s="38"/>
+      <c r="F15" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="110" t="s">
+      <c r="G15" s="38"/>
+      <c r="H15" s="148" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="149"/>
+      <c r="J15" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="110" t="s">
+      <c r="K15" s="38"/>
+      <c r="L15" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="30"/>
-      <c r="N15" s="110" t="s">
+      <c r="M15" s="38"/>
+      <c r="N15" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30" t="s">
+      <c r="O15" s="38"/>
+      <c r="P15" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="31" t="s">
+      <c r="Q15" s="38"/>
+      <c r="R15" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31" t="s">
+      <c r="S15" s="56"/>
+      <c r="T15" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31" t="s">
+      <c r="U15" s="56"/>
+      <c r="V15" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="W15" s="31"/>
+      <c r="W15" s="56"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
@@ -3400,48 +3415,44 @@
     </row>
     <row r="16" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91" t="s">
+      <c r="C16" s="112"/>
+      <c r="D16" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91" t="s">
+      <c r="E16" s="112"/>
+      <c r="F16" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="91"/>
-      <c r="H16" s="96" t="s">
+      <c r="G16" s="112"/>
+      <c r="H16" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="96"/>
-      <c r="J16" s="43" t="s">
+      <c r="I16" s="122"/>
+      <c r="J16" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="43" t="s">
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="44"/>
-      <c r="P16" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q16" s="146"/>
-      <c r="R16" s="148" t="s">
-        <v>331</v>
-      </c>
-      <c r="S16" s="148"/>
-      <c r="T16" s="41" t="s">
+      <c r="Q16" s="52"/>
+      <c r="R16" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="U16" s="34"/>
-      <c r="V16" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="W16" s="34"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="W16" s="40"/>
       <c r="X16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="8"/>
@@ -3501,51 +3512,51 @@
       <c r="AV17" s="5"/>
       <c r="AW17" s="5"/>
     </row>
-    <row r="18" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="K19" s="53"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="T19" s="53"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="46" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="K19" s="31"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="W19" s="47"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="W19" s="147"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="8"/>
@@ -3573,38 +3584,38 @@
     </row>
     <row r="20" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
-      <c r="B20" s="93" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="102" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="103"/>
-      <c r="F20" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="104"/>
-      <c r="T20" s="105" t="s">
+      <c r="B20" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="U20" s="106"/>
-      <c r="V20" s="107" t="s">
-        <v>324</v>
-      </c>
-      <c r="W20" s="108"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="121"/>
+      <c r="T20" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="U20" s="27"/>
+      <c r="V20" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="W20" s="29"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="8"/>
@@ -3631,50 +3642,50 @@
       <c r="AV20" s="5"/>
     </row>
     <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="24" t="s">
+      <c r="C21" s="47"/>
+      <c r="D21" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="47"/>
+      <c r="F21" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="98" t="s">
+      <c r="G21" s="47"/>
+      <c r="H21" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="99"/>
-      <c r="J21" s="24" t="s">
+      <c r="I21" s="111"/>
+      <c r="J21" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="K21" s="27"/>
-      <c r="L21" s="98" t="s">
-        <v>126</v>
-      </c>
-      <c r="M21" s="99"/>
-      <c r="N21" s="24" t="s">
+      <c r="K21" s="47"/>
+      <c r="L21" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="M21" s="111"/>
+      <c r="N21" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="O21" s="27"/>
-      <c r="P21" s="24" t="s">
+      <c r="O21" s="47"/>
+      <c r="P21" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="24" t="s">
+      <c r="Q21" s="47"/>
+      <c r="R21" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="S21" s="27"/>
-      <c r="T21" s="24" t="s">
+      <c r="S21" s="47"/>
+      <c r="T21" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="U21" s="27"/>
-      <c r="V21" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="W21" s="30"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="W21" s="38"/>
       <c r="X21" s="5"/>
       <c r="AT21" s="5"/>
       <c r="AU21" s="5"/>
@@ -3683,53 +3694,51 @@
     </row>
     <row r="22" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30" t="s">
+      <c r="B22" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="47"/>
+      <c r="D22" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30" t="s">
+      <c r="E22" s="38"/>
+      <c r="F22" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30" t="s">
+      <c r="G22" s="38"/>
+      <c r="H22" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30" t="s">
+      <c r="I22" s="38"/>
+      <c r="J22" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30" t="s">
+      <c r="K22" s="38"/>
+      <c r="L22" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="M22" s="30"/>
-      <c r="N22" s="97" t="s">
+      <c r="M22" s="38"/>
+      <c r="N22" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="O22" s="97"/>
-      <c r="P22" s="30" t="s">
+      <c r="O22" s="124"/>
+      <c r="P22" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30" t="s">
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30" t="s">
+      <c r="S22" s="38"/>
+      <c r="T22" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="U22" s="30"/>
-      <c r="V22" s="96" t="s">
+      <c r="U22" s="38"/>
+      <c r="V22" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="W22" s="96"/>
+      <c r="W22" s="122"/>
       <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
       <c r="AD22" s="8"/>
       <c r="AE22" s="8"/>
       <c r="AF22" s="8"/>
@@ -3747,53 +3756,51 @@
     </row>
     <row r="23" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30" t="s">
+      <c r="C23" s="38"/>
+      <c r="D23" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="47"/>
+      <c r="H23" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" s="47"/>
+      <c r="J23" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30" t="s">
+      <c r="K23" s="38"/>
+      <c r="L23" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30" t="s">
+      <c r="M23" s="38"/>
+      <c r="N23" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="31" t="s">
+      <c r="Q23" s="38"/>
+      <c r="R23" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31" t="s">
+      <c r="S23" s="56"/>
+      <c r="T23" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31" t="s">
+      <c r="U23" s="56"/>
+      <c r="V23" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="W23" s="31"/>
+      <c r="W23" s="56"/>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
       <c r="AD23" s="8"/>
@@ -3814,48 +3821,44 @@
     </row>
     <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91" t="s">
+      <c r="C24" s="112"/>
+      <c r="D24" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91" t="s">
+      <c r="E24" s="112"/>
+      <c r="F24" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="91"/>
-      <c r="H24" s="97" t="s">
+      <c r="G24" s="112"/>
+      <c r="H24" s="124" t="s">
+        <v>130</v>
+      </c>
+      <c r="I24" s="124"/>
+      <c r="J24" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="I24" s="97"/>
-      <c r="J24" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="97" t="s">
-        <v>132</v>
-      </c>
-      <c r="O24" s="97"/>
-      <c r="P24" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="148" t="s">
-        <v>331</v>
-      </c>
-      <c r="S24" s="148"/>
-      <c r="T24" s="41" t="s">
+      <c r="Q24" s="60"/>
+      <c r="R24" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="U24" s="34"/>
-      <c r="V24" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="W24" s="34"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="W24" s="40"/>
       <c r="X24" s="5"/>
       <c r="AE24" s="8"/>
       <c r="AF24" s="8"/>
@@ -3912,51 +3915,51 @@
       <c r="AV25" s="5"/>
       <c r="AW25" s="5"/>
     </row>
-    <row r="26" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="K27" s="53"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="N27" s="53"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="T27" s="53"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="46" t="s">
+      <c r="E27" s="25"/>
+      <c r="F27" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="K27" s="31"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="N27" s="31"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="W27" s="47"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="W27" s="147"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="8"/>
@@ -3984,38 +3987,38 @@
     </row>
     <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
-      <c r="B28" s="93" t="s">
-        <v>205</v>
-      </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="102" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="103"/>
-      <c r="F28" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="104"/>
-      <c r="T28" s="105" t="s">
+      <c r="B28" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="U28" s="106"/>
-      <c r="V28" s="107" t="s">
-        <v>324</v>
-      </c>
-      <c r="W28" s="108"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="U28" s="27"/>
+      <c r="V28" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="W28" s="29"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="8"/>
@@ -4042,50 +4045,50 @@
       <c r="AV28" s="6"/>
     </row>
     <row r="29" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="55"/>
+      <c r="D29" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="28" t="s">
+      <c r="E29" s="55"/>
+      <c r="F29" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="28" t="s">
+      <c r="G29" s="55"/>
+      <c r="H29" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="100" t="s">
+      <c r="I29" s="134"/>
+      <c r="J29" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="I29" s="101"/>
-      <c r="J29" s="28" t="s">
+      <c r="K29" s="55"/>
+      <c r="L29" s="133" t="s">
         <v>146</v>
       </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="100" t="s">
+      <c r="M29" s="134"/>
+      <c r="N29" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="M29" s="101"/>
-      <c r="N29" s="28" t="s">
+      <c r="O29" s="55"/>
+      <c r="P29" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="O29" s="29"/>
-      <c r="P29" s="28" t="s">
+      <c r="Q29" s="55"/>
+      <c r="R29" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="28" t="s">
+      <c r="S29" s="55"/>
+      <c r="T29" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="S29" s="29"/>
-      <c r="T29" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="U29" s="29"/>
-      <c r="V29" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="W29" s="29"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="W29" s="55"/>
       <c r="X29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
@@ -4094,50 +4097,50 @@
     </row>
     <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="47"/>
+      <c r="D30" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="24" t="s">
+      <c r="E30" s="47"/>
+      <c r="F30" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="24" t="s">
+      <c r="G30" s="47"/>
+      <c r="H30" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="98" t="s">
-        <v>115</v>
-      </c>
-      <c r="I30" s="99"/>
-      <c r="J30" s="24" t="s">
+      <c r="I30" s="47"/>
+      <c r="J30" s="110" t="s">
         <v>155</v>
       </c>
-      <c r="K30" s="27"/>
-      <c r="L30" s="98" t="s">
+      <c r="K30" s="111"/>
+      <c r="L30" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="M30" s="99"/>
-      <c r="N30" s="24" t="s">
+      <c r="M30" s="47"/>
+      <c r="N30" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="O30" s="27"/>
-      <c r="P30" s="24" t="s">
+      <c r="O30" s="47"/>
+      <c r="P30" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="30" t="s">
+      <c r="S30" s="38"/>
+      <c r="T30" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="U30" s="30"/>
-      <c r="V30" s="96" t="s">
+      <c r="U30" s="38"/>
+      <c r="V30" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="W30" s="96"/>
+      <c r="W30" s="122"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -4158,50 +4161,50 @@
     </row>
     <row r="31" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30" t="s">
+      <c r="C31" s="38"/>
+      <c r="D31" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30" t="s">
+      <c r="I31" s="38"/>
+      <c r="J31" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="K31" s="38"/>
+      <c r="L31" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="24" t="s">
+      <c r="M31" s="47"/>
+      <c r="N31" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="M31" s="27"/>
-      <c r="N31" s="24" t="s">
+      <c r="O31" s="47"/>
+      <c r="P31" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="O31" s="27"/>
-      <c r="P31" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="31" t="s">
+      <c r="Q31" s="47"/>
+      <c r="R31" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31" t="s">
+      <c r="S31" s="56"/>
+      <c r="T31" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31" t="s">
+      <c r="U31" s="56"/>
+      <c r="V31" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="W31" s="31"/>
+      <c r="W31" s="56"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="8"/>
@@ -4229,48 +4232,44 @@
     </row>
     <row r="32" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91" t="s">
+      <c r="C32" s="112"/>
+      <c r="D32" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91" t="s">
+      <c r="E32" s="112"/>
+      <c r="F32" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="91"/>
-      <c r="H32" s="97" t="s">
-        <v>169</v>
-      </c>
-      <c r="I32" s="97"/>
-      <c r="J32" s="43" t="s">
+      <c r="G32" s="112"/>
+      <c r="H32" s="124" t="s">
+        <v>125</v>
+      </c>
+      <c r="I32" s="124"/>
+      <c r="J32" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="97" t="s">
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="124" t="s">
         <v>167</v>
       </c>
-      <c r="O32" s="97"/>
-      <c r="P32" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q32" s="97"/>
-      <c r="R32" s="148" t="s">
-        <v>331</v>
-      </c>
-      <c r="S32" s="148"/>
-      <c r="T32" s="41" t="s">
+      <c r="Q32" s="124"/>
+      <c r="R32" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="U32" s="34"/>
-      <c r="V32" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="W32" s="34"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="W32" s="40"/>
       <c r="X32" s="6"/>
       <c r="AE32" s="8"/>
       <c r="AF32" s="8"/>
@@ -4329,47 +4328,47 @@
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="77" t="s">
-        <v>328</v>
-      </c>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="77" t="s">
+      <c r="B35" s="82" t="s">
+        <v>326</v>
+      </c>
+      <c r="C35" s="136"/>
+      <c r="D35" s="136"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="136"/>
+      <c r="I35" s="82" t="s">
+        <v>293</v>
+      </c>
+      <c r="J35" s="136"/>
+      <c r="K35" s="136"/>
+      <c r="L35" s="136"/>
+      <c r="M35" s="136"/>
+      <c r="N35" s="136"/>
+      <c r="O35" s="136"/>
+      <c r="P35" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="78"/>
-      <c r="O35" s="78"/>
-      <c r="P35" s="71" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="72"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="73"/>
-      <c r="W35" s="71" t="s">
-        <v>297</v>
-      </c>
-      <c r="X35" s="72"/>
-      <c r="Y35" s="72"/>
-      <c r="Z35" s="72"/>
-      <c r="AA35" s="72"/>
-      <c r="AB35" s="72"/>
-      <c r="AC35" s="73"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="62"/>
+      <c r="Z35" s="62"/>
+      <c r="AA35" s="62"/>
+      <c r="AB35" s="62"/>
+      <c r="AC35" s="63"/>
       <c r="AF35" s="8"/>
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
@@ -4388,34 +4387,34 @@
     </row>
     <row r="36" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="75"/>
-      <c r="R36" s="75"/>
-      <c r="S36" s="75"/>
-      <c r="T36" s="75"/>
-      <c r="U36" s="75"/>
-      <c r="V36" s="76"/>
-      <c r="W36" s="74"/>
-      <c r="X36" s="75"/>
-      <c r="Y36" s="75"/>
-      <c r="Z36" s="75"/>
-      <c r="AA36" s="75"/>
-      <c r="AB36" s="75"/>
-      <c r="AC36" s="76"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="136"/>
+      <c r="D36" s="136"/>
+      <c r="E36" s="136"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="136"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="136"/>
+      <c r="K36" s="136"/>
+      <c r="L36" s="136"/>
+      <c r="M36" s="136"/>
+      <c r="N36" s="136"/>
+      <c r="O36" s="136"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
+      <c r="T36" s="65"/>
+      <c r="U36" s="65"/>
+      <c r="V36" s="66"/>
+      <c r="W36" s="64"/>
+      <c r="X36" s="65"/>
+      <c r="Y36" s="65"/>
+      <c r="Z36" s="65"/>
+      <c r="AA36" s="65"/>
+      <c r="AB36" s="65"/>
+      <c r="AC36" s="66"/>
       <c r="AF36" s="8"/>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
@@ -4434,42 +4433,42 @@
     </row>
     <row r="37" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="78" t="s">
+      <c r="B37" s="136" t="s">
+        <v>297</v>
+      </c>
+      <c r="C37" s="136"/>
+      <c r="D37" s="136"/>
+      <c r="E37" s="136"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="136"/>
+      <c r="H37" s="136"/>
+      <c r="I37" s="136" t="s">
+        <v>327</v>
+      </c>
+      <c r="J37" s="136"/>
+      <c r="K37" s="136"/>
+      <c r="L37" s="136"/>
+      <c r="M37" s="136"/>
+      <c r="N37" s="136"/>
+      <c r="O37" s="136"/>
+      <c r="P37" s="61" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
+      <c r="T37" s="62"/>
+      <c r="U37" s="62"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="61" t="s">
         <v>299</v>
       </c>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78" t="s">
-        <v>329</v>
-      </c>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
-      <c r="P37" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q37" s="72"/>
-      <c r="R37" s="72"/>
-      <c r="S37" s="72"/>
-      <c r="T37" s="72"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="73"/>
-      <c r="W37" s="71" t="s">
-        <v>301</v>
-      </c>
-      <c r="X37" s="72"/>
-      <c r="Y37" s="72"/>
-      <c r="Z37" s="72"/>
-      <c r="AA37" s="72"/>
-      <c r="AB37" s="72"/>
-      <c r="AC37" s="73"/>
+      <c r="X37" s="62"/>
+      <c r="Y37" s="62"/>
+      <c r="Z37" s="62"/>
+      <c r="AA37" s="62"/>
+      <c r="AB37" s="62"/>
+      <c r="AC37" s="63"/>
       <c r="AD37" s="8"/>
       <c r="AE37" s="8"/>
       <c r="AF37" s="8"/>
@@ -4490,34 +4489,34 @@
     </row>
     <row r="38" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="78"/>
-      <c r="P38" s="74"/>
-      <c r="Q38" s="75"/>
-      <c r="R38" s="75"/>
-      <c r="S38" s="75"/>
-      <c r="T38" s="75"/>
-      <c r="U38" s="75"/>
-      <c r="V38" s="76"/>
-      <c r="W38" s="74"/>
-      <c r="X38" s="75"/>
-      <c r="Y38" s="75"/>
-      <c r="Z38" s="75"/>
-      <c r="AA38" s="75"/>
-      <c r="AB38" s="75"/>
-      <c r="AC38" s="76"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="136"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="136"/>
+      <c r="H38" s="136"/>
+      <c r="I38" s="136"/>
+      <c r="J38" s="136"/>
+      <c r="K38" s="136"/>
+      <c r="L38" s="136"/>
+      <c r="M38" s="136"/>
+      <c r="N38" s="136"/>
+      <c r="O38" s="136"/>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="65"/>
+      <c r="R38" s="65"/>
+      <c r="S38" s="65"/>
+      <c r="T38" s="65"/>
+      <c r="U38" s="65"/>
+      <c r="V38" s="66"/>
+      <c r="W38" s="64"/>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="65"/>
+      <c r="Z38" s="65"/>
+      <c r="AA38" s="65"/>
+      <c r="AB38" s="65"/>
+      <c r="AC38" s="66"/>
       <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
@@ -4573,51 +4572,51 @@
       <c r="AV39" s="6"/>
       <c r="AW39" s="6"/>
     </row>
-    <row r="40" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="E41" s="53"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="H41" s="53"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="K41" s="53"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="N41" s="53"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="54"/>
-      <c r="S41" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="T41" s="53"/>
-      <c r="U41" s="54"/>
-      <c r="V41" s="46" t="s">
+      <c r="E41" s="25"/>
+      <c r="F41" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="K41" s="31"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="N41" s="31"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="W41" s="47"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="W41" s="147"/>
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
       <c r="AA41" s="8"/>
@@ -4645,38 +4644,38 @@
     </row>
     <row r="42" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
-      <c r="B42" s="93" t="s">
-        <v>205</v>
-      </c>
-      <c r="C42" s="94"/>
-      <c r="D42" s="102" t="s">
-        <v>123</v>
-      </c>
-      <c r="E42" s="103"/>
-      <c r="F42" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="104"/>
-      <c r="T42" s="105" t="s">
+      <c r="B42" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="36"/>
+      <c r="D42" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="U42" s="106"/>
-      <c r="V42" s="107" t="s">
-        <v>324</v>
-      </c>
-      <c r="W42" s="108"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="121"/>
+      <c r="T42" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="U42" s="27"/>
+      <c r="V42" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="W42" s="29"/>
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
       <c r="AA42" s="8"/>
@@ -4703,50 +4702,50 @@
       <c r="AV42" s="6"/>
     </row>
     <row r="43" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="47"/>
+      <c r="D43" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" s="47"/>
+      <c r="F43" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="24" t="s">
+      <c r="G43" s="47"/>
+      <c r="H43" s="110" t="s">
         <v>171</v>
       </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="24" t="s">
+      <c r="I43" s="111"/>
+      <c r="J43" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="K43" s="47"/>
+      <c r="L43" s="110" t="s">
         <v>172</v>
       </c>
-      <c r="G43" s="27"/>
-      <c r="H43" s="98" t="s">
+      <c r="M43" s="111"/>
+      <c r="N43" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="I43" s="99"/>
-      <c r="J43" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="K43" s="27"/>
-      <c r="L43" s="98" t="s">
+      <c r="O43" s="47"/>
+      <c r="P43" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q43" s="47"/>
+      <c r="R43" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="M43" s="99"/>
-      <c r="N43" s="24" t="s">
+      <c r="S43" s="47"/>
+      <c r="T43" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="O43" s="27"/>
-      <c r="P43" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="S43" s="27"/>
-      <c r="T43" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="U43" s="27"/>
-      <c r="V43" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="W43" s="30"/>
+      <c r="U43" s="47"/>
+      <c r="V43" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="W43" s="38"/>
       <c r="X43" s="6"/>
       <c r="AT43" s="6"/>
       <c r="AU43" s="6"/>
@@ -4755,50 +4754,50 @@
     </row>
     <row r="44" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30" t="s">
+      <c r="I44" s="38"/>
+      <c r="J44" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30" t="s">
+      <c r="K44" s="38"/>
+      <c r="L44" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30" t="s">
+      <c r="M44" s="38"/>
+      <c r="N44" s="124" t="s">
         <v>181</v>
       </c>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30" t="s">
+      <c r="O44" s="124"/>
+      <c r="P44" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="M44" s="30"/>
-      <c r="N44" s="97" t="s">
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="O44" s="97"/>
-      <c r="P44" s="30" t="s">
+      <c r="S44" s="38"/>
+      <c r="T44" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="U44" s="30"/>
-      <c r="V44" s="96" t="s">
+      <c r="U44" s="38"/>
+      <c r="V44" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="W44" s="96"/>
+      <c r="W44" s="122"/>
       <c r="AA44" s="8"/>
       <c r="AB44" s="8"/>
       <c r="AC44" s="8"/>
@@ -4819,50 +4818,50 @@
     </row>
     <row r="45" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30" t="s">
+      <c r="C45" s="38"/>
+      <c r="D45" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30" t="s">
+      <c r="I45" s="38"/>
+      <c r="J45" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30" t="s">
+      <c r="K45" s="38"/>
+      <c r="L45" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30" t="s">
+      <c r="O45" s="38"/>
+      <c r="P45" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="147" t="s">
+      <c r="Q45" s="38"/>
+      <c r="R45" s="135" t="s">
         <v>103</v>
       </c>
-      <c r="S45" s="147"/>
-      <c r="T45" s="31" t="s">
+      <c r="S45" s="135"/>
+      <c r="T45" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="U45" s="31"/>
-      <c r="V45" s="31" t="s">
+      <c r="U45" s="56"/>
+      <c r="V45" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="W45" s="31"/>
+      <c r="W45" s="56"/>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
       <c r="AA45" s="8"/>
@@ -4890,48 +4889,44 @@
     </row>
     <row r="46" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="91" t="s">
+      <c r="B46" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="91"/>
-      <c r="D46" s="91" t="s">
+      <c r="C46" s="112"/>
+      <c r="D46" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="91"/>
-      <c r="F46" s="91" t="s">
+      <c r="E46" s="112"/>
+      <c r="F46" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="91"/>
-      <c r="H46" s="97" t="s">
-        <v>193</v>
-      </c>
-      <c r="I46" s="97"/>
-      <c r="J46" s="43" t="s">
+      <c r="G46" s="112"/>
+      <c r="H46" s="124" t="s">
+        <v>191</v>
+      </c>
+      <c r="I46" s="124"/>
+      <c r="J46" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="97" t="s">
-        <v>194</v>
-      </c>
-      <c r="O46" s="97"/>
-      <c r="P46" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="148" t="s">
-        <v>331</v>
-      </c>
-      <c r="S46" s="148"/>
-      <c r="T46" s="41" t="s">
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="124" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q46" s="124"/>
+      <c r="R46" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="U46" s="34"/>
-      <c r="V46" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="W46" s="34"/>
+      <c r="S46" s="49"/>
+      <c r="T46" s="49"/>
+      <c r="U46" s="40"/>
+      <c r="V46" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="W46" s="40"/>
       <c r="X46" s="6"/>
       <c r="AE46" s="8"/>
       <c r="AF46" s="8"/>
@@ -4988,51 +4983,51 @@
       <c r="AV47" s="6"/>
       <c r="AW47" s="6"/>
     </row>
-    <row r="48" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="E49" s="53"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="H49" s="53"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="K49" s="53"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="N49" s="53"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="54"/>
-      <c r="S49" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="T49" s="53"/>
-      <c r="U49" s="54"/>
-      <c r="V49" s="46" t="s">
+      <c r="E49" s="25"/>
+      <c r="F49" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="K49" s="31"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="N49" s="31"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="W49" s="47"/>
+      <c r="U49" s="25"/>
+      <c r="V49" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="W49" s="147"/>
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
       <c r="AA49" s="8"/>
@@ -5060,38 +5055,38 @@
     </row>
     <row r="50" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
-      <c r="B50" s="93" t="s">
-        <v>205</v>
-      </c>
-      <c r="C50" s="94"/>
-      <c r="D50" s="102" t="s">
-        <v>123</v>
-      </c>
-      <c r="E50" s="103"/>
-      <c r="F50" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="56"/>
-      <c r="P50" s="56"/>
-      <c r="Q50" s="56"/>
-      <c r="R50" s="56"/>
-      <c r="S50" s="104"/>
-      <c r="T50" s="105" t="s">
+      <c r="B50" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" s="36"/>
+      <c r="D50" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="U50" s="106"/>
-      <c r="V50" s="107" t="s">
-        <v>324</v>
-      </c>
-      <c r="W50" s="108"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="121"/>
+      <c r="T50" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="U50" s="27"/>
+      <c r="V50" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="W50" s="29"/>
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="8"/>
@@ -5118,50 +5113,50 @@
       <c r="AV50" s="6"/>
     </row>
     <row r="51" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="100" t="s">
+      <c r="B51" s="150" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" s="150"/>
+      <c r="D51" s="133" t="s">
+        <v>194</v>
+      </c>
+      <c r="E51" s="134"/>
+      <c r="F51" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="G51" s="55"/>
+      <c r="H51" s="133" t="s">
         <v>196</v>
       </c>
-      <c r="C51" s="101"/>
-      <c r="D51" s="28" t="s">
+      <c r="I51" s="134"/>
+      <c r="J51" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="K51" s="55"/>
+      <c r="L51" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="M51" s="55"/>
+      <c r="N51" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="100" t="s">
+      <c r="O51" s="55"/>
+      <c r="P51" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="G51" s="101"/>
-      <c r="H51" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I51" s="29"/>
-      <c r="J51" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="K51" s="27"/>
-      <c r="L51" s="24" t="s">
+      <c r="Q51" s="55"/>
+      <c r="R51" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="M51" s="27"/>
-      <c r="N51" s="28" t="s">
+      <c r="S51" s="55"/>
+      <c r="T51" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="O51" s="29"/>
-      <c r="P51" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="S51" s="29"/>
-      <c r="T51" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="U51" s="29"/>
-      <c r="V51" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="W51" s="30"/>
+      <c r="U51" s="55"/>
+      <c r="V51" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="W51" s="38"/>
       <c r="X51" s="6"/>
       <c r="AT51" s="6"/>
       <c r="AU51" s="6"/>
@@ -5170,30 +5165,32 @@
     </row>
     <row r="52" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="97"/>
-      <c r="O52" s="97"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="30"/>
-      <c r="V52" s="96" t="s">
+      <c r="B52" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="124"/>
+      <c r="O52" s="124"/>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="38"/>
+      <c r="R52" s="38"/>
+      <c r="S52" s="38"/>
+      <c r="T52" s="38"/>
+      <c r="U52" s="38"/>
+      <c r="V52" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="W52" s="96"/>
+      <c r="W52" s="122"/>
       <c r="AA52" s="8"/>
       <c r="AB52" s="8"/>
       <c r="AC52" s="8"/>
@@ -5214,36 +5211,36 @@
     </row>
     <row r="53" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="31" t="s">
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="S53" s="31"/>
-      <c r="T53" s="31" t="s">
+      <c r="S53" s="56"/>
+      <c r="T53" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="U53" s="31"/>
-      <c r="V53" s="31" t="s">
+      <c r="U53" s="56"/>
+      <c r="V53" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="W53" s="31"/>
+      <c r="W53" s="56"/>
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="8"/>
@@ -5271,42 +5268,40 @@
     </row>
     <row r="54" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="91" t="s">
+      <c r="B54" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="91"/>
-      <c r="D54" s="91" t="s">
+      <c r="C54" s="112"/>
+      <c r="D54" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="E54" s="91"/>
-      <c r="F54" s="91" t="s">
+      <c r="E54" s="112"/>
+      <c r="F54" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="91"/>
-      <c r="H54" s="97"/>
-      <c r="I54" s="97"/>
-      <c r="J54" s="43" t="s">
+      <c r="G54" s="112"/>
+      <c r="H54" s="124"/>
+      <c r="I54" s="124"/>
+      <c r="J54" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K54" s="45"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="45"/>
-      <c r="N54" s="97"/>
-      <c r="O54" s="97"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="148" t="s">
-        <v>331</v>
-      </c>
-      <c r="S54" s="148"/>
-      <c r="T54" s="41" t="s">
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="124"/>
+      <c r="O54" s="124"/>
+      <c r="P54" s="38"/>
+      <c r="Q54" s="38"/>
+      <c r="R54" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="U54" s="34"/>
-      <c r="V54" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="W54" s="34"/>
+      <c r="S54" s="49"/>
+      <c r="T54" s="49"/>
+      <c r="U54" s="40"/>
+      <c r="V54" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="W54" s="40"/>
       <c r="X54" s="6"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="8"/>
@@ -5366,51 +5361,51 @@
       <c r="AV55" s="6"/>
       <c r="AW55" s="6"/>
     </row>
-    <row r="56" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
-      <c r="B57" s="46" t="s">
+      <c r="B57" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C57" s="29"/>
+      <c r="D57" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="E57" s="53"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="H57" s="53"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="K57" s="53"/>
-      <c r="L57" s="54"/>
-      <c r="M57" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="N57" s="53"/>
-      <c r="O57" s="54"/>
-      <c r="P57" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q57" s="53"/>
-      <c r="R57" s="54"/>
-      <c r="S57" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="T57" s="53"/>
-      <c r="U57" s="54"/>
-      <c r="V57" s="46" t="s">
+      <c r="E57" s="25"/>
+      <c r="F57" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="K57" s="31"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="N57" s="31"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="32"/>
+      <c r="T57" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="W57" s="47"/>
+      <c r="U57" s="25"/>
+      <c r="V57" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="W57" s="147"/>
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="8"/>
@@ -5438,38 +5433,38 @@
     </row>
     <row r="58" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="B58" s="93" t="s">
-        <v>205</v>
-      </c>
-      <c r="C58" s="94"/>
-      <c r="D58" s="102" t="s">
-        <v>123</v>
-      </c>
-      <c r="E58" s="103"/>
-      <c r="F58" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="56"/>
-      <c r="K58" s="56"/>
-      <c r="L58" s="56"/>
-      <c r="M58" s="56"/>
-      <c r="N58" s="56"/>
-      <c r="O58" s="56"/>
-      <c r="P58" s="56"/>
-      <c r="Q58" s="56"/>
-      <c r="R58" s="56"/>
-      <c r="S58" s="104"/>
-      <c r="T58" s="105" t="s">
+      <c r="B58" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C58" s="36"/>
+      <c r="D58" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="U58" s="106"/>
-      <c r="V58" s="107" t="s">
-        <v>324</v>
-      </c>
-      <c r="W58" s="108"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="121"/>
+      <c r="T58" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="U58" s="27"/>
+      <c r="V58" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="W58" s="29"/>
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="8"/>
@@ -5496,50 +5491,50 @@
       <c r="AV58" s="6"/>
     </row>
     <row r="59" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="100" t="s">
+      <c r="B59" s="133" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" s="134"/>
+      <c r="D59" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="E59" s="55"/>
+      <c r="F59" s="133" t="s">
         <v>206</v>
       </c>
-      <c r="C59" s="101"/>
-      <c r="D59" s="28" t="s">
+      <c r="G59" s="134"/>
+      <c r="H59" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="E59" s="29"/>
-      <c r="F59" s="100" t="s">
+      <c r="I59" s="55"/>
+      <c r="J59" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="G59" s="101"/>
-      <c r="H59" s="28" t="s">
+      <c r="K59" s="47"/>
+      <c r="L59" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="I59" s="29"/>
-      <c r="J59" s="24" t="s">
+      <c r="M59" s="47"/>
+      <c r="N59" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="K59" s="27"/>
-      <c r="L59" s="24" t="s">
+      <c r="O59" s="55"/>
+      <c r="P59" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="M59" s="27"/>
-      <c r="N59" s="28" t="s">
+      <c r="Q59" s="55"/>
+      <c r="R59" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="O59" s="29"/>
-      <c r="P59" s="28" t="s">
+      <c r="S59" s="55"/>
+      <c r="T59" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="S59" s="29"/>
-      <c r="T59" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="U59" s="29"/>
-      <c r="V59" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="W59" s="30"/>
+      <c r="U59" s="55"/>
+      <c r="V59" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="W59" s="38"/>
       <c r="X59" s="6"/>
       <c r="AT59" s="6"/>
       <c r="AU59" s="6"/>
@@ -5548,50 +5543,50 @@
     </row>
     <row r="60" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30" t="s">
+      <c r="G60" s="38"/>
+      <c r="H60" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30" t="s">
+      <c r="I60" s="38"/>
+      <c r="J60" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30" t="s">
+      <c r="K60" s="47"/>
+      <c r="L60" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="I60" s="30"/>
-      <c r="J60" s="24" t="s">
+      <c r="M60" s="38"/>
+      <c r="N60" s="124" t="s">
         <v>220</v>
       </c>
-      <c r="K60" s="27"/>
-      <c r="L60" s="30" t="s">
+      <c r="O60" s="124"/>
+      <c r="P60" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="M60" s="30"/>
-      <c r="N60" s="97" t="s">
+      <c r="Q60" s="38"/>
+      <c r="R60" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="O60" s="97"/>
-      <c r="P60" s="30" t="s">
+      <c r="S60" s="38"/>
+      <c r="T60" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="S60" s="30"/>
-      <c r="T60" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="U60" s="30"/>
-      <c r="V60" s="96" t="s">
+      <c r="U60" s="38"/>
+      <c r="V60" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="W60" s="96"/>
+      <c r="W60" s="122"/>
       <c r="AA60" s="8"/>
       <c r="AB60" s="8"/>
       <c r="AC60" s="8"/>
@@ -5612,50 +5607,50 @@
     </row>
     <row r="61" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30" t="s">
+      <c r="C61" s="38"/>
+      <c r="D61" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30" t="s">
+      <c r="I61" s="38"/>
+      <c r="J61" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30" t="s">
+      <c r="K61" s="38"/>
+      <c r="L61" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30" t="s">
+      <c r="M61" s="38"/>
+      <c r="N61" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30" t="s">
+      <c r="O61" s="38"/>
+      <c r="P61" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="M61" s="30"/>
-      <c r="N61" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="31" t="s">
+      <c r="Q61" s="38"/>
+      <c r="R61" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="S61" s="31"/>
-      <c r="T61" s="31" t="s">
+      <c r="S61" s="56"/>
+      <c r="T61" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="U61" s="31"/>
-      <c r="V61" s="31" t="s">
+      <c r="U61" s="56"/>
+      <c r="V61" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="W61" s="31"/>
+      <c r="W61" s="56"/>
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
       <c r="AA61" s="8"/>
@@ -5683,48 +5678,44 @@
     </row>
     <row r="62" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="91" t="s">
+      <c r="B62" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="91"/>
-      <c r="D62" s="91" t="s">
+      <c r="C62" s="112"/>
+      <c r="D62" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="E62" s="91"/>
-      <c r="F62" s="91" t="s">
+      <c r="E62" s="112"/>
+      <c r="F62" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="G62" s="91"/>
-      <c r="H62" s="97" t="s">
-        <v>233</v>
-      </c>
-      <c r="I62" s="97"/>
-      <c r="J62" s="43" t="s">
+      <c r="G62" s="112"/>
+      <c r="H62" s="124" t="s">
+        <v>231</v>
+      </c>
+      <c r="I62" s="124"/>
+      <c r="J62" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K62" s="45"/>
-      <c r="L62" s="45"/>
-      <c r="M62" s="45"/>
-      <c r="N62" s="97" t="s">
-        <v>234</v>
-      </c>
-      <c r="O62" s="97"/>
-      <c r="P62" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q62" s="30"/>
-      <c r="R62" s="148" t="s">
-        <v>331</v>
-      </c>
-      <c r="S62" s="148"/>
-      <c r="T62" s="41" t="s">
+      <c r="K62" s="53"/>
+      <c r="L62" s="53"/>
+      <c r="M62" s="53"/>
+      <c r="N62" s="53"/>
+      <c r="O62" s="52"/>
+      <c r="P62" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q62" s="124"/>
+      <c r="R62" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="U62" s="34"/>
-      <c r="V62" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="W62" s="34"/>
+      <c r="S62" s="49"/>
+      <c r="T62" s="49"/>
+      <c r="U62" s="40"/>
+      <c r="V62" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="W62" s="40"/>
       <c r="X62" s="6"/>
       <c r="AE62" s="8"/>
       <c r="AF62" s="8"/>
@@ -5781,51 +5772,51 @@
       <c r="AV63" s="6"/>
       <c r="AW63" s="6"/>
     </row>
-    <row r="64" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C65" s="29"/>
+      <c r="D65" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="47"/>
-      <c r="D65" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="E65" s="53"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="H65" s="53"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="K65" s="53"/>
-      <c r="L65" s="54"/>
-      <c r="M65" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="N65" s="53"/>
-      <c r="O65" s="54"/>
-      <c r="P65" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q65" s="53"/>
-      <c r="R65" s="54"/>
-      <c r="S65" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="T65" s="53"/>
-      <c r="U65" s="54"/>
-      <c r="V65" s="46" t="s">
+      <c r="E65" s="25"/>
+      <c r="F65" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="K65" s="31"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="N65" s="31"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="31"/>
+      <c r="S65" s="32"/>
+      <c r="T65" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="W65" s="47"/>
+      <c r="U65" s="25"/>
+      <c r="V65" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="W65" s="147"/>
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
       <c r="AA65" s="8"/>
@@ -5853,38 +5844,38 @@
     </row>
     <row r="66" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
-      <c r="B66" s="93" t="s">
-        <v>205</v>
-      </c>
-      <c r="C66" s="94"/>
-      <c r="D66" s="102" t="s">
-        <v>123</v>
-      </c>
-      <c r="E66" s="103"/>
-      <c r="F66" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="G66" s="56"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="56"/>
-      <c r="J66" s="56"/>
-      <c r="K66" s="56"/>
-      <c r="L66" s="56"/>
-      <c r="M66" s="56"/>
-      <c r="N66" s="56"/>
-      <c r="O66" s="56"/>
-      <c r="P66" s="56"/>
-      <c r="Q66" s="56"/>
-      <c r="R66" s="56"/>
-      <c r="S66" s="104"/>
-      <c r="T66" s="105" t="s">
+      <c r="B66" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C66" s="36"/>
+      <c r="D66" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="U66" s="106"/>
-      <c r="V66" s="107" t="s">
-        <v>324</v>
-      </c>
-      <c r="W66" s="108"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="121"/>
+      <c r="T66" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="U66" s="27"/>
+      <c r="V66" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="W66" s="29"/>
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="8"/>
@@ -5911,50 +5902,50 @@
       <c r="AV66" s="6"/>
     </row>
     <row r="67" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="100" t="s">
+      <c r="B67" s="150" t="s">
+        <v>233</v>
+      </c>
+      <c r="C67" s="150"/>
+      <c r="D67" s="133" t="s">
+        <v>234</v>
+      </c>
+      <c r="E67" s="134"/>
+      <c r="F67" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="G67" s="55"/>
+      <c r="H67" s="133" t="s">
         <v>236</v>
       </c>
-      <c r="C67" s="101"/>
-      <c r="D67" s="28" t="s">
+      <c r="I67" s="134"/>
+      <c r="J67" s="54" t="s">
         <v>237</v>
       </c>
-      <c r="E67" s="29"/>
-      <c r="F67" s="100" t="s">
+      <c r="K67" s="55"/>
+      <c r="L67" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="G67" s="101"/>
-      <c r="H67" s="28" t="s">
+      <c r="M67" s="55"/>
+      <c r="N67" s="54" t="s">
         <v>239</v>
       </c>
-      <c r="I67" s="29"/>
-      <c r="J67" s="24" t="s">
+      <c r="O67" s="55"/>
+      <c r="P67" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="K67" s="27"/>
-      <c r="L67" s="24" t="s">
+      <c r="Q67" s="55"/>
+      <c r="R67" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="M67" s="27"/>
-      <c r="N67" s="28" t="s">
+      <c r="S67" s="55"/>
+      <c r="T67" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="O67" s="29"/>
-      <c r="P67" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q67" s="29"/>
-      <c r="R67" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="S67" s="29"/>
-      <c r="T67" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="U67" s="29"/>
-      <c r="V67" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="W67" s="30"/>
+      <c r="U67" s="55"/>
+      <c r="V67" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="W67" s="38"/>
       <c r="X67" s="6"/>
       <c r="AT67" s="6"/>
       <c r="AU67" s="6"/>
@@ -5963,50 +5954,50 @@
     </row>
     <row r="68" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="E68" s="38"/>
+      <c r="F68" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="G68" s="47"/>
+      <c r="H68" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30" t="s">
+      <c r="I68" s="47"/>
+      <c r="J68" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30" t="s">
+      <c r="K68" s="47"/>
+      <c r="L68" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30" t="s">
+      <c r="M68" s="47"/>
+      <c r="N68" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="I68" s="30"/>
-      <c r="J68" s="24" t="s">
+      <c r="O68" s="47"/>
+      <c r="P68" s="59" t="s">
         <v>250</v>
       </c>
-      <c r="K68" s="27"/>
-      <c r="L68" s="30" t="s">
+      <c r="Q68" s="60"/>
+      <c r="R68" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="M68" s="30"/>
-      <c r="N68" s="97" t="s">
+      <c r="S68" s="47"/>
+      <c r="T68" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="O68" s="97"/>
-      <c r="P68" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q68" s="30"/>
-      <c r="R68" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="S68" s="30"/>
-      <c r="T68" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="U68" s="30"/>
-      <c r="V68" s="96" t="s">
+      <c r="U68" s="47"/>
+      <c r="V68" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="W68" s="96"/>
+      <c r="W68" s="122"/>
       <c r="AA68" s="8"/>
       <c r="AB68" s="8"/>
       <c r="AC68" s="8"/>
@@ -6027,50 +6018,50 @@
     </row>
     <row r="69" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30" t="s">
+      <c r="C69" s="38"/>
+      <c r="D69" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="E69" s="38"/>
+      <c r="F69" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="G69" s="47"/>
+      <c r="H69" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="I69" s="47"/>
+      <c r="J69" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30" t="s">
+      <c r="K69" s="47"/>
+      <c r="L69" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30" t="s">
+      <c r="M69" s="47"/>
+      <c r="N69" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30" t="s">
+      <c r="O69" s="47"/>
+      <c r="P69" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="M69" s="30"/>
-      <c r="N69" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="O69" s="30"/>
-      <c r="P69" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="31" t="s">
+      <c r="Q69" s="47"/>
+      <c r="R69" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="S69" s="31"/>
-      <c r="T69" s="31" t="s">
+      <c r="S69" s="56"/>
+      <c r="T69" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="U69" s="31"/>
-      <c r="V69" s="31" t="s">
+      <c r="U69" s="56"/>
+      <c r="V69" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="W69" s="31"/>
+      <c r="W69" s="56"/>
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
       <c r="AA69" s="8"/>
@@ -6098,48 +6089,44 @@
     </row>
     <row r="70" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="91" t="s">
+      <c r="B70" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="91"/>
-      <c r="D70" s="91" t="s">
+      <c r="C70" s="112"/>
+      <c r="D70" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="E70" s="91"/>
-      <c r="F70" s="91" t="s">
+      <c r="E70" s="112"/>
+      <c r="F70" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="G70" s="91"/>
-      <c r="H70" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="I70" s="97"/>
-      <c r="J70" s="43" t="s">
+      <c r="G70" s="112"/>
+      <c r="H70" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="I70" s="38"/>
+      <c r="J70" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K70" s="45"/>
-      <c r="L70" s="45"/>
-      <c r="M70" s="45"/>
-      <c r="N70" s="95" t="s">
-        <v>267</v>
-      </c>
-      <c r="O70" s="95"/>
-      <c r="P70" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q70" s="30"/>
-      <c r="R70" s="148" t="s">
-        <v>331</v>
-      </c>
-      <c r="S70" s="148"/>
-      <c r="T70" s="41" t="s">
+      <c r="K70" s="53"/>
+      <c r="L70" s="53"/>
+      <c r="M70" s="53"/>
+      <c r="N70" s="53"/>
+      <c r="O70" s="52"/>
+      <c r="P70" s="124" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q70" s="124"/>
+      <c r="R70" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="U70" s="34"/>
-      <c r="V70" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="W70" s="34"/>
+      <c r="S70" s="49"/>
+      <c r="T70" s="49"/>
+      <c r="U70" s="40"/>
+      <c r="V70" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="W70" s="40"/>
       <c r="X70" s="6"/>
       <c r="AE70" s="8"/>
       <c r="AF70" s="8"/>
@@ -6196,51 +6183,51 @@
       <c r="AV71" s="6"/>
       <c r="AW71" s="6"/>
     </row>
-    <row r="72" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
-      <c r="B73" s="46" t="s">
+      <c r="B73" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C73" s="29"/>
+      <c r="D73" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="47"/>
-      <c r="D73" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="E73" s="53"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="H73" s="53"/>
-      <c r="I73" s="54"/>
-      <c r="J73" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="K73" s="53"/>
-      <c r="L73" s="54"/>
-      <c r="M73" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="N73" s="53"/>
-      <c r="O73" s="54"/>
-      <c r="P73" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q73" s="53"/>
-      <c r="R73" s="54"/>
-      <c r="S73" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="T73" s="53"/>
-      <c r="U73" s="54"/>
-      <c r="V73" s="46" t="s">
+      <c r="E73" s="25"/>
+      <c r="F73" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="K73" s="31"/>
+      <c r="L73" s="32"/>
+      <c r="M73" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="N73" s="31"/>
+      <c r="O73" s="32"/>
+      <c r="P73" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q73" s="31"/>
+      <c r="R73" s="31"/>
+      <c r="S73" s="32"/>
+      <c r="T73" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="W73" s="47"/>
+      <c r="U73" s="25"/>
+      <c r="V73" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="W73" s="147"/>
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
       <c r="AA73" s="8"/>
@@ -6268,38 +6255,38 @@
     </row>
     <row r="74" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
-      <c r="B74" s="93" t="s">
-        <v>205</v>
-      </c>
-      <c r="C74" s="94"/>
-      <c r="D74" s="102" t="s">
-        <v>123</v>
-      </c>
-      <c r="E74" s="103"/>
-      <c r="F74" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="G74" s="56"/>
-      <c r="H74" s="56"/>
-      <c r="I74" s="56"/>
-      <c r="J74" s="56"/>
-      <c r="K74" s="56"/>
-      <c r="L74" s="56"/>
-      <c r="M74" s="56"/>
-      <c r="N74" s="56"/>
-      <c r="O74" s="56"/>
-      <c r="P74" s="56"/>
-      <c r="Q74" s="56"/>
-      <c r="R74" s="56"/>
-      <c r="S74" s="104"/>
-      <c r="T74" s="105" t="s">
+      <c r="B74" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" s="36"/>
+      <c r="D74" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="U74" s="106"/>
-      <c r="V74" s="107" t="s">
-        <v>324</v>
-      </c>
-      <c r="W74" s="108"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="34"/>
+      <c r="L74" s="34"/>
+      <c r="M74" s="34"/>
+      <c r="N74" s="34"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
+      <c r="Q74" s="34"/>
+      <c r="R74" s="34"/>
+      <c r="S74" s="121"/>
+      <c r="T74" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="U74" s="27"/>
+      <c r="V74" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="W74" s="29"/>
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
       <c r="AA74" s="8"/>
@@ -6326,50 +6313,50 @@
       <c r="AV74" s="6"/>
     </row>
     <row r="75" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="100" t="s">
+      <c r="B75" s="151" t="s">
+        <v>265</v>
+      </c>
+      <c r="C75" s="151"/>
+      <c r="D75" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="E75" s="38"/>
+      <c r="F75" s="133" t="s">
+        <v>267</v>
+      </c>
+      <c r="G75" s="134"/>
+      <c r="H75" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="I75" s="55"/>
+      <c r="J75" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="C75" s="101"/>
-      <c r="D75" s="28" t="s">
+      <c r="K75" s="55"/>
+      <c r="L75" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="E75" s="29"/>
-      <c r="F75" s="28" t="s">
+      <c r="M75" s="55"/>
+      <c r="N75" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="G75" s="29"/>
-      <c r="H75" s="28" t="s">
+      <c r="O75" s="55"/>
+      <c r="P75" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="I75" s="29"/>
-      <c r="J75" s="28" t="s">
+      <c r="Q75" s="55"/>
+      <c r="R75" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="K75" s="29"/>
-      <c r="L75" s="28" t="s">
+      <c r="S75" s="55"/>
+      <c r="T75" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="M75" s="29"/>
-      <c r="N75" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="O75" s="29"/>
-      <c r="P75" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q75" s="29"/>
-      <c r="R75" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="S75" s="30"/>
-      <c r="T75" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="U75" s="30"/>
-      <c r="V75" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="W75" s="30"/>
+      <c r="U75" s="55"/>
+      <c r="V75" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="W75" s="38"/>
       <c r="X75" s="6"/>
       <c r="AT75" s="6"/>
       <c r="AU75" s="6"/>
@@ -6378,50 +6365,50 @@
     </row>
     <row r="76" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="24" t="s">
+      <c r="B76" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="E76" s="38"/>
+      <c r="F76" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="G76" s="47"/>
+      <c r="H76" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="I76" s="47"/>
+      <c r="J76" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="24" t="s">
+      <c r="K76" s="47"/>
+      <c r="L76" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="E76" s="27"/>
-      <c r="F76" s="24" t="s">
+      <c r="M76" s="47"/>
+      <c r="N76" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="G76" s="27"/>
-      <c r="H76" s="24" t="s">
+      <c r="O76" s="60"/>
+      <c r="P76" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="I76" s="27"/>
-      <c r="J76" s="59" t="s">
+      <c r="Q76" s="47"/>
+      <c r="R76" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="K76" s="60"/>
-      <c r="L76" s="24" t="s">
+      <c r="S76" s="47"/>
+      <c r="T76" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="M76" s="27"/>
-      <c r="N76" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="O76" s="30"/>
-      <c r="P76" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q76" s="30"/>
-      <c r="R76" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="S76" s="30"/>
-      <c r="T76" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="U76" s="30"/>
-      <c r="V76" s="96" t="s">
+      <c r="U76" s="47"/>
+      <c r="V76" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="W76" s="96"/>
+      <c r="W76" s="122"/>
       <c r="AA76" s="8"/>
       <c r="AB76" s="8"/>
       <c r="AC76" s="8"/>
@@ -6442,46 +6429,50 @@
     </row>
     <row r="77" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="30"/>
-      <c r="D77" s="24" t="s">
+      <c r="C77" s="38"/>
+      <c r="D77" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="E77" s="47"/>
+      <c r="F77" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="G77" s="38"/>
+      <c r="H77" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="I77" s="47"/>
+      <c r="J77" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="K77" s="47"/>
+      <c r="L77" s="45" t="s">
         <v>289</v>
       </c>
-      <c r="E77" s="27"/>
-      <c r="F77" s="24" t="s">
+      <c r="M77" s="47"/>
+      <c r="N77" s="59" t="s">
         <v>290</v>
       </c>
-      <c r="G77" s="27"/>
-      <c r="H77" s="24" t="s">
+      <c r="O77" s="60"/>
+      <c r="P77" s="59" t="s">
         <v>291</v>
       </c>
-      <c r="I77" s="27"/>
-      <c r="J77" s="59" t="s">
-        <v>292</v>
-      </c>
-      <c r="K77" s="60"/>
-      <c r="L77" s="59" t="s">
-        <v>293</v>
-      </c>
-      <c r="M77" s="60"/>
-      <c r="N77" s="30"/>
-      <c r="O77" s="30"/>
-      <c r="P77" s="30"/>
-      <c r="Q77" s="30"/>
-      <c r="R77" s="31" t="s">
+      <c r="Q77" s="60"/>
+      <c r="R77" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="S77" s="31"/>
-      <c r="T77" s="31" t="s">
+      <c r="S77" s="56"/>
+      <c r="T77" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="U77" s="31"/>
-      <c r="V77" s="31" t="s">
+      <c r="U77" s="56"/>
+      <c r="V77" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="W77" s="31"/>
+      <c r="W77" s="56"/>
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
       <c r="AA77" s="8"/>
@@ -6509,42 +6500,40 @@
     </row>
     <row r="78" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="91" t="s">
+      <c r="B78" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="91"/>
-      <c r="D78" s="91" t="s">
+      <c r="C78" s="112"/>
+      <c r="D78" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="E78" s="91"/>
-      <c r="F78" s="91" t="s">
+      <c r="E78" s="112"/>
+      <c r="F78" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="G78" s="91"/>
-      <c r="H78" s="97"/>
-      <c r="I78" s="97"/>
-      <c r="J78" s="43" t="s">
+      <c r="G78" s="112"/>
+      <c r="H78" s="124"/>
+      <c r="I78" s="124"/>
+      <c r="J78" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K78" s="45"/>
-      <c r="L78" s="45"/>
-      <c r="M78" s="45"/>
-      <c r="N78" s="95"/>
-      <c r="O78" s="95"/>
-      <c r="P78" s="30"/>
-      <c r="Q78" s="30"/>
-      <c r="R78" s="148" t="s">
-        <v>331</v>
-      </c>
-      <c r="S78" s="148"/>
-      <c r="T78" s="41" t="s">
+      <c r="K78" s="53"/>
+      <c r="L78" s="53"/>
+      <c r="M78" s="53"/>
+      <c r="N78" s="53"/>
+      <c r="O78" s="52"/>
+      <c r="P78" s="38"/>
+      <c r="Q78" s="38"/>
+      <c r="R78" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="U78" s="34"/>
-      <c r="V78" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="W78" s="34"/>
+      <c r="S78" s="49"/>
+      <c r="T78" s="49"/>
+      <c r="U78" s="40"/>
+      <c r="V78" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="W78" s="40"/>
       <c r="X78" s="6"/>
       <c r="Z78" s="6"/>
       <c r="AA78" s="8"/>
@@ -6604,52 +6593,52 @@
       <c r="AV79" s="6"/>
       <c r="AW79" s="6"/>
     </row>
-    <row r="80" spans="1:49" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B80" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="92" t="s">
+    <row r="81" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="D81" s="92"/>
-      <c r="E81" s="92" t="s">
+      <c r="D81" s="83"/>
+      <c r="E81" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="F81" s="92"/>
-      <c r="G81" s="92" t="s">
+      <c r="F81" s="83"/>
+      <c r="G81" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="H81" s="92"/>
-      <c r="I81" s="92" t="s">
+      <c r="H81" s="83"/>
+      <c r="I81" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="J81" s="92"/>
-      <c r="K81" s="92" t="s">
+      <c r="J81" s="83"/>
+      <c r="K81" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="L81" s="92"/>
-      <c r="M81" s="92" t="s">
+      <c r="L81" s="83"/>
+      <c r="M81" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="N81" s="92"/>
-      <c r="O81" s="92" t="s">
+      <c r="N81" s="83"/>
+      <c r="O81" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="P81" s="92"/>
-      <c r="Q81" s="92" t="s">
+      <c r="P81" s="83"/>
+      <c r="Q81" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="R81" s="92"/>
-      <c r="S81" s="92" t="s">
+      <c r="R81" s="83"/>
+      <c r="S81" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="T81" s="92"/>
-      <c r="U81" s="92" t="s">
+      <c r="T81" s="83"/>
+      <c r="U81" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="V81" s="92"/>
+      <c r="V81" s="83"/>
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
       <c r="Y81" s="5"/>
@@ -6658,185 +6647,183 @@
     </row>
     <row r="82" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="118" t="s">
+      <c r="B82" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="119"/>
-      <c r="D82" s="118" t="s">
-        <v>117</v>
-      </c>
-      <c r="E82" s="119"/>
-      <c r="F82" s="126" t="s">
+      <c r="C82" s="86"/>
+      <c r="D82" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="E82" s="86"/>
+      <c r="F82" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="G82" s="126"/>
-      <c r="H82" s="126" t="s">
+      <c r="G82" s="69"/>
+      <c r="H82" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="I82" s="126"/>
-      <c r="J82" s="120" t="s">
+      <c r="I82" s="69"/>
+      <c r="J82" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="K82" s="121"/>
-      <c r="L82" s="120" t="s">
+      <c r="K82" s="88"/>
+      <c r="L82" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="M82" s="121"/>
-      <c r="N82" s="120" t="s">
+      <c r="M82" s="88"/>
+      <c r="N82" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="O82" s="121"/>
-      <c r="P82" s="118" t="s">
+      <c r="O82" s="88"/>
+      <c r="P82" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="Q82" s="119"/>
-      <c r="R82" s="118" t="s">
+      <c r="Q82" s="86"/>
+      <c r="R82" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="S82" s="119"/>
-      <c r="T82" s="118" t="s">
+      <c r="S82" s="86"/>
+      <c r="T82" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="U82" s="119"/>
-      <c r="V82" s="145" t="s">
+      <c r="U82" s="86"/>
+      <c r="V82" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="W82" s="145"/>
+      <c r="W82" s="77"/>
     </row>
     <row r="83" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="30"/>
-      <c r="D83" s="120" t="s">
-        <v>120</v>
-      </c>
-      <c r="E83" s="121"/>
-      <c r="F83" s="120" t="s">
+      <c r="C83" s="38"/>
+      <c r="D83" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="E83" s="88"/>
+      <c r="F83" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="G83" s="88"/>
+      <c r="H83" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="G83" s="121"/>
-      <c r="H83" s="120" t="s">
-        <v>119</v>
-      </c>
-      <c r="I83" s="121"/>
-      <c r="J83" s="118" t="s">
+      <c r="I83" s="88"/>
+      <c r="J83" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="K83" s="119"/>
-      <c r="L83" s="118" t="s">
+      <c r="K83" s="86"/>
+      <c r="L83" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="M83" s="119"/>
-      <c r="N83" s="118" t="s">
+      <c r="M83" s="86"/>
+      <c r="N83" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="O83" s="119"/>
-      <c r="P83" s="120" t="s">
+      <c r="O83" s="86"/>
+      <c r="P83" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="Q83" s="121"/>
-      <c r="R83" s="31" t="s">
+      <c r="Q83" s="88"/>
+      <c r="R83" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="S83" s="31"/>
-      <c r="T83" s="31" t="s">
+      <c r="S83" s="56"/>
+      <c r="T83" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="U83" s="31"/>
-      <c r="V83" s="136" t="s">
+      <c r="U83" s="56"/>
+      <c r="V83" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="W83" s="136"/>
+      <c r="W83" s="84"/>
     </row>
     <row r="84" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="91" t="s">
+      <c r="B84" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="C84" s="91"/>
-      <c r="D84" s="91" t="s">
+      <c r="C84" s="112"/>
+      <c r="D84" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="E84" s="91"/>
-      <c r="F84" s="91" t="s">
+      <c r="E84" s="112"/>
+      <c r="F84" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="G84" s="91"/>
-      <c r="H84" s="120"/>
-      <c r="I84" s="121"/>
-      <c r="J84" s="43" t="s">
+      <c r="G84" s="112"/>
+      <c r="H84" s="87"/>
+      <c r="I84" s="88"/>
+      <c r="J84" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K84" s="45"/>
-      <c r="L84" s="45"/>
-      <c r="M84" s="44"/>
-      <c r="N84" s="118"/>
-      <c r="O84" s="119"/>
-      <c r="P84" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q84" s="119"/>
-      <c r="R84" s="148" t="s">
-        <v>331</v>
-      </c>
-      <c r="S84" s="148"/>
-      <c r="T84" s="41" t="s">
+      <c r="K84" s="53"/>
+      <c r="L84" s="53"/>
+      <c r="M84" s="53"/>
+      <c r="N84" s="53"/>
+      <c r="O84" s="52"/>
+      <c r="P84" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q84" s="86"/>
+      <c r="R84" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="U84" s="34"/>
-      <c r="V84" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="W84" s="34"/>
+      <c r="S84" s="49"/>
+      <c r="T84" s="49"/>
+      <c r="U84" s="40"/>
+      <c r="V84" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="W84" s="40"/>
       <c r="X84" s="5"/>
     </row>
-    <row r="86" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B86" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
-      <c r="B87" s="46" t="s">
+      <c r="B87" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C87" s="29"/>
+      <c r="D87" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C87" s="47"/>
-      <c r="D87" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="E87" s="53"/>
-      <c r="F87" s="54"/>
-      <c r="G87" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="H87" s="53"/>
-      <c r="I87" s="54"/>
-      <c r="J87" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="K87" s="53"/>
-      <c r="L87" s="54"/>
-      <c r="M87" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="N87" s="53"/>
-      <c r="O87" s="54"/>
-      <c r="P87" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q87" s="53"/>
-      <c r="R87" s="54"/>
-      <c r="S87" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="T87" s="53"/>
-      <c r="U87" s="54"/>
-      <c r="V87" s="46" t="s">
+      <c r="E87" s="25"/>
+      <c r="F87" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="K87" s="31"/>
+      <c r="L87" s="32"/>
+      <c r="M87" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="N87" s="31"/>
+      <c r="O87" s="32"/>
+      <c r="P87" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q87" s="31"/>
+      <c r="R87" s="31"/>
+      <c r="S87" s="32"/>
+      <c r="T87" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="W87" s="47"/>
+      <c r="U87" s="25"/>
+      <c r="V87" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="W87" s="147"/>
       <c r="Z87" s="5"/>
       <c r="AA87" s="8"/>
       <c r="AB87" s="8"/>
@@ -6860,38 +6847,38 @@
     </row>
     <row r="88" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
-      <c r="B88" s="93" t="s">
-        <v>205</v>
-      </c>
-      <c r="C88" s="94"/>
-      <c r="D88" s="102" t="s">
-        <v>123</v>
-      </c>
-      <c r="E88" s="103"/>
-      <c r="F88" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="G88" s="56"/>
-      <c r="H88" s="56"/>
-      <c r="I88" s="56"/>
-      <c r="J88" s="56"/>
-      <c r="K88" s="56"/>
-      <c r="L88" s="56"/>
-      <c r="M88" s="56"/>
-      <c r="N88" s="56"/>
-      <c r="O88" s="56"/>
-      <c r="P88" s="56"/>
-      <c r="Q88" s="56"/>
-      <c r="R88" s="56"/>
-      <c r="S88" s="104"/>
-      <c r="T88" s="105" t="s">
+      <c r="B88" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C88" s="36"/>
+      <c r="D88" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="U88" s="106"/>
-      <c r="V88" s="107" t="s">
-        <v>324</v>
-      </c>
-      <c r="W88" s="108"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="34"/>
+      <c r="N88" s="34"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="34"/>
+      <c r="Q88" s="34"/>
+      <c r="R88" s="34"/>
+      <c r="S88" s="121"/>
+      <c r="T88" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="U88" s="27"/>
+      <c r="V88" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="W88" s="29"/>
       <c r="Z88" s="5"/>
       <c r="AA88" s="8"/>
       <c r="AB88" s="8"/>
@@ -6913,14 +6900,14 @@
       <c r="AV88" s="5"/>
       <c r="AW88" s="5"/>
     </row>
-    <row r="90" spans="1:49" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B90" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="91" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="59" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C91" s="60"/>
       <c r="D91" s="59" t="s">
@@ -6928,11 +6915,11 @@
       </c>
       <c r="E91" s="60"/>
       <c r="F91" s="59" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G91" s="60"/>
       <c r="I91" s="59" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J91" s="60"/>
       <c r="K91" s="59" t="s">
@@ -6940,19 +6927,19 @@
       </c>
       <c r="L91" s="60"/>
       <c r="M91" s="59" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="N91" s="60"/>
-      <c r="P91" s="61" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q91" s="62"/>
-      <c r="R91" s="63"/>
-      <c r="S91" s="85" t="s">
-        <v>311</v>
-      </c>
-      <c r="T91" s="86"/>
-      <c r="U91" s="87"/>
+      <c r="P91" s="67" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q91" s="93"/>
+      <c r="R91" s="94"/>
+      <c r="S91" s="137" t="s">
+        <v>309</v>
+      </c>
+      <c r="T91" s="138"/>
+      <c r="U91" s="139"/>
     </row>
     <row r="92" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="59" t="s">
@@ -6960,7 +6947,7 @@
       </c>
       <c r="C92" s="60"/>
       <c r="D92" s="59" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E92" s="60"/>
       <c r="F92" s="59" t="s">
@@ -6972,35 +6959,35 @@
       </c>
       <c r="J92" s="60"/>
       <c r="K92" s="59" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L92" s="60"/>
       <c r="M92" s="59" t="s">
         <v>5</v>
       </c>
       <c r="N92" s="60"/>
-      <c r="P92" s="67"/>
-      <c r="Q92" s="68"/>
-      <c r="R92" s="69"/>
-      <c r="S92" s="88"/>
-      <c r="T92" s="89"/>
-      <c r="U92" s="90"/>
+      <c r="P92" s="95"/>
+      <c r="Q92" s="96"/>
+      <c r="R92" s="97"/>
+      <c r="S92" s="140"/>
+      <c r="T92" s="141"/>
+      <c r="U92" s="142"/>
     </row>
     <row r="93" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="59" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C93" s="60"/>
       <c r="D93" s="59" t="s">
         <v>12</v>
       </c>
       <c r="E93" s="60"/>
-      <c r="F93" s="61" t="s">
-        <v>308</v>
-      </c>
-      <c r="G93" s="63"/>
-      <c r="I93" s="61" t="s">
-        <v>307</v>
+      <c r="F93" s="67" t="s">
+        <v>306</v>
+      </c>
+      <c r="G93" s="94"/>
+      <c r="I93" s="67" t="s">
+        <v>305</v>
       </c>
       <c r="J93" s="60"/>
       <c r="K93" s="59" t="s">
@@ -7008,17 +6995,17 @@
       </c>
       <c r="L93" s="60"/>
       <c r="M93" s="59" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N93" s="60"/>
-      <c r="P93" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q93" s="62"/>
-      <c r="R93" s="62"/>
-      <c r="S93" s="62"/>
-      <c r="T93" s="62"/>
-      <c r="U93" s="63"/>
+      <c r="P93" s="67" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q93" s="93"/>
+      <c r="R93" s="93"/>
+      <c r="S93" s="93"/>
+      <c r="T93" s="93"/>
+      <c r="U93" s="94"/>
     </row>
     <row r="94" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="12"/>
@@ -7033,12 +7020,12 @@
       <c r="L94" s="15"/>
       <c r="M94" s="15"/>
       <c r="N94" s="16"/>
-      <c r="P94" s="64"/>
-      <c r="Q94" s="65"/>
-      <c r="R94" s="65"/>
-      <c r="S94" s="65"/>
-      <c r="T94" s="65"/>
-      <c r="U94" s="66"/>
+      <c r="P94" s="143"/>
+      <c r="Q94" s="144"/>
+      <c r="R94" s="144"/>
+      <c r="S94" s="144"/>
+      <c r="T94" s="144"/>
+      <c r="U94" s="145"/>
       <c r="W94" s="22"/>
       <c r="X94" s="22"/>
       <c r="Y94" s="22"/>
@@ -7048,40 +7035,40 @@
     </row>
     <row r="95" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="59" t="s">
-        <v>309</v>
-      </c>
-      <c r="C95" s="70"/>
-      <c r="D95" s="70"/>
-      <c r="E95" s="70"/>
-      <c r="F95" s="70"/>
+        <v>307</v>
+      </c>
+      <c r="C95" s="92"/>
+      <c r="D95" s="92"/>
+      <c r="E95" s="92"/>
+      <c r="F95" s="92"/>
       <c r="G95" s="60"/>
       <c r="H95" s="11"/>
       <c r="I95" s="59" t="s">
-        <v>312</v>
-      </c>
-      <c r="J95" s="70"/>
+        <v>310</v>
+      </c>
+      <c r="J95" s="92"/>
       <c r="K95" s="60"/>
       <c r="L95" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="M95" s="70"/>
+        <v>311</v>
+      </c>
+      <c r="M95" s="92"/>
       <c r="N95" s="60"/>
-      <c r="P95" s="67"/>
-      <c r="Q95" s="68"/>
-      <c r="R95" s="68"/>
-      <c r="S95" s="68"/>
-      <c r="T95" s="68"/>
-      <c r="U95" s="69"/>
+      <c r="P95" s="95"/>
+      <c r="Q95" s="96"/>
+      <c r="R95" s="96"/>
+      <c r="S95" s="96"/>
+      <c r="T95" s="96"/>
+      <c r="U95" s="97"/>
       <c r="V95" s="11"/>
     </row>
-    <row r="97" spans="2:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B97" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="98" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="59" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C98" s="60"/>
       <c r="D98" s="59" t="s">
@@ -7089,11 +7076,11 @@
       </c>
       <c r="E98" s="60"/>
       <c r="F98" s="59" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G98" s="60"/>
       <c r="I98" s="59" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J98" s="60"/>
       <c r="K98" s="59" t="s">
@@ -7101,19 +7088,19 @@
       </c>
       <c r="L98" s="60"/>
       <c r="M98" s="59" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="N98" s="60"/>
-      <c r="P98" s="61" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q98" s="62"/>
-      <c r="R98" s="63"/>
-      <c r="S98" s="85" t="s">
-        <v>311</v>
-      </c>
-      <c r="T98" s="86"/>
-      <c r="U98" s="87"/>
+      <c r="P98" s="67" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q98" s="93"/>
+      <c r="R98" s="94"/>
+      <c r="S98" s="137" t="s">
+        <v>309</v>
+      </c>
+      <c r="T98" s="138"/>
+      <c r="U98" s="139"/>
     </row>
     <row r="99" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="59" t="s">
@@ -7121,7 +7108,7 @@
       </c>
       <c r="C99" s="60"/>
       <c r="D99" s="59" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E99" s="60"/>
       <c r="F99" s="59" t="s">
@@ -7133,35 +7120,35 @@
       </c>
       <c r="J99" s="60"/>
       <c r="K99" s="59" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L99" s="60"/>
       <c r="M99" s="59" t="s">
         <v>5</v>
       </c>
       <c r="N99" s="60"/>
-      <c r="P99" s="67"/>
-      <c r="Q99" s="68"/>
-      <c r="R99" s="69"/>
-      <c r="S99" s="88"/>
-      <c r="T99" s="89"/>
-      <c r="U99" s="90"/>
+      <c r="P99" s="95"/>
+      <c r="Q99" s="96"/>
+      <c r="R99" s="97"/>
+      <c r="S99" s="140"/>
+      <c r="T99" s="141"/>
+      <c r="U99" s="142"/>
     </row>
     <row r="100" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="61" t="s">
-        <v>307</v>
-      </c>
-      <c r="C100" s="63"/>
-      <c r="D100" s="61" t="s">
+      <c r="B100" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="C100" s="94"/>
+      <c r="D100" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="63"/>
-      <c r="F100" s="61" t="s">
-        <v>308</v>
-      </c>
-      <c r="G100" s="63"/>
+      <c r="E100" s="94"/>
+      <c r="F100" s="67" t="s">
+        <v>306</v>
+      </c>
+      <c r="G100" s="94"/>
       <c r="I100" s="59" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J100" s="60"/>
       <c r="K100" s="59" t="s">
@@ -7169,17 +7156,17 @@
       </c>
       <c r="L100" s="60"/>
       <c r="M100" s="59" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N100" s="60"/>
-      <c r="P100" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q100" s="62"/>
-      <c r="R100" s="62"/>
-      <c r="S100" s="62"/>
-      <c r="T100" s="62"/>
-      <c r="U100" s="63"/>
+      <c r="P100" s="67" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q100" s="93"/>
+      <c r="R100" s="93"/>
+      <c r="S100" s="93"/>
+      <c r="T100" s="93"/>
+      <c r="U100" s="94"/>
       <c r="V100" s="23"/>
       <c r="W100" s="23"/>
       <c r="X100" s="23"/>
@@ -7201,12 +7188,12 @@
       <c r="L101" s="17"/>
       <c r="M101" s="17"/>
       <c r="N101" s="18"/>
-      <c r="P101" s="64"/>
-      <c r="Q101" s="65"/>
-      <c r="R101" s="65"/>
-      <c r="S101" s="65"/>
-      <c r="T101" s="65"/>
-      <c r="U101" s="66"/>
+      <c r="P101" s="143"/>
+      <c r="Q101" s="144"/>
+      <c r="R101" s="144"/>
+      <c r="S101" s="144"/>
+      <c r="T101" s="144"/>
+      <c r="U101" s="145"/>
       <c r="W101" s="22"/>
       <c r="X101" s="22"/>
       <c r="Y101" s="22"/>
@@ -7216,64 +7203,64 @@
     </row>
     <row r="102" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="59" t="s">
-        <v>309</v>
-      </c>
-      <c r="C102" s="70"/>
-      <c r="D102" s="70"/>
-      <c r="E102" s="70"/>
-      <c r="F102" s="70"/>
+        <v>307</v>
+      </c>
+      <c r="C102" s="92"/>
+      <c r="D102" s="92"/>
+      <c r="E102" s="92"/>
+      <c r="F102" s="92"/>
       <c r="G102" s="60"/>
       <c r="H102" s="11"/>
       <c r="I102" s="59" t="s">
-        <v>312</v>
-      </c>
-      <c r="J102" s="70"/>
+        <v>310</v>
+      </c>
+      <c r="J102" s="92"/>
       <c r="K102" s="60"/>
       <c r="L102" s="59" t="s">
+        <v>311</v>
+      </c>
+      <c r="M102" s="92"/>
+      <c r="N102" s="60"/>
+      <c r="P102" s="95"/>
+      <c r="Q102" s="96"/>
+      <c r="R102" s="96"/>
+      <c r="S102" s="96"/>
+      <c r="T102" s="96"/>
+      <c r="U102" s="97"/>
+      <c r="V102" s="11"/>
+      <c r="W102" s="144"/>
+      <c r="X102" s="144"/>
+      <c r="Y102" s="144"/>
+      <c r="Z102" s="144"/>
+      <c r="AA102" s="144"/>
+      <c r="AB102" s="144"/>
+    </row>
+    <row r="104" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B104" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="M102" s="70"/>
-      <c r="N102" s="60"/>
-      <c r="P102" s="67"/>
-      <c r="Q102" s="68"/>
-      <c r="R102" s="68"/>
-      <c r="S102" s="68"/>
-      <c r="T102" s="68"/>
-      <c r="U102" s="69"/>
-      <c r="V102" s="11"/>
-      <c r="W102" s="65"/>
-      <c r="X102" s="65"/>
-      <c r="Y102" s="65"/>
-      <c r="Z102" s="65"/>
-      <c r="AA102" s="65"/>
-      <c r="AB102" s="65"/>
-    </row>
-    <row r="104" spans="2:32" ht="15" x14ac:dyDescent="0.25">
-      <c r="B104" s="10" t="s">
-        <v>315</v>
-      </c>
     </row>
     <row r="105" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="61" t="s">
+      <c r="B105" s="67" t="s">
+        <v>316</v>
+      </c>
+      <c r="C105" s="93"/>
+      <c r="D105" s="93"/>
+      <c r="E105" s="94"/>
+      <c r="F105" s="104" t="s">
+        <v>325</v>
+      </c>
+      <c r="G105" s="105"/>
+      <c r="H105" s="105"/>
+      <c r="I105" s="106"/>
+      <c r="J105" s="67" t="s">
         <v>318</v>
       </c>
-      <c r="C105" s="62"/>
-      <c r="D105" s="62"/>
-      <c r="E105" s="63"/>
-      <c r="F105" s="79" t="s">
-        <v>327</v>
-      </c>
-      <c r="G105" s="80"/>
-      <c r="H105" s="80"/>
-      <c r="I105" s="81"/>
-      <c r="J105" s="61" t="s">
-        <v>320</v>
-      </c>
-      <c r="K105" s="62"/>
-      <c r="L105" s="62"/>
-      <c r="M105" s="63"/>
+      <c r="K105" s="93"/>
+      <c r="L105" s="93"/>
+      <c r="M105" s="94"/>
       <c r="O105" s="59" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P105" s="60"/>
       <c r="Q105" s="59" t="s">
@@ -7281,16 +7268,16 @@
       </c>
       <c r="R105" s="60"/>
       <c r="S105" s="59" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="T105" s="60"/>
       <c r="U105" s="11"/>
-      <c r="V105" s="130" t="s">
-        <v>322</v>
-      </c>
-      <c r="W105" s="131"/>
-      <c r="X105" s="131"/>
-      <c r="Y105" s="132"/>
+      <c r="V105" s="98" t="s">
+        <v>320</v>
+      </c>
+      <c r="W105" s="99"/>
+      <c r="X105" s="99"/>
+      <c r="Y105" s="100"/>
       <c r="Z105" s="59" t="s">
         <v>27</v>
       </c>
@@ -7302,24 +7289,24 @@
       <c r="AD105" s="11"/>
     </row>
     <row r="106" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="67"/>
-      <c r="C106" s="68"/>
-      <c r="D106" s="68"/>
-      <c r="E106" s="69"/>
-      <c r="F106" s="82"/>
-      <c r="G106" s="83"/>
-      <c r="H106" s="83"/>
-      <c r="I106" s="84"/>
-      <c r="J106" s="67"/>
-      <c r="K106" s="68"/>
-      <c r="L106" s="68"/>
-      <c r="M106" s="69"/>
+      <c r="B106" s="95"/>
+      <c r="C106" s="96"/>
+      <c r="D106" s="96"/>
+      <c r="E106" s="97"/>
+      <c r="F106" s="107"/>
+      <c r="G106" s="108"/>
+      <c r="H106" s="108"/>
+      <c r="I106" s="109"/>
+      <c r="J106" s="95"/>
+      <c r="K106" s="96"/>
+      <c r="L106" s="96"/>
+      <c r="M106" s="97"/>
       <c r="O106" s="59" t="s">
         <v>18</v>
       </c>
       <c r="P106" s="60"/>
       <c r="Q106" s="59" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="R106" s="60"/>
       <c r="S106" s="59" t="s">
@@ -7327,10 +7314,10 @@
       </c>
       <c r="T106" s="60"/>
       <c r="U106" s="11"/>
-      <c r="V106" s="133"/>
-      <c r="W106" s="134"/>
-      <c r="X106" s="134"/>
-      <c r="Y106" s="135"/>
+      <c r="V106" s="101"/>
+      <c r="W106" s="102"/>
+      <c r="X106" s="102"/>
+      <c r="Y106" s="103"/>
       <c r="Z106" s="59" t="s">
         <v>32</v>
       </c>
@@ -7342,26 +7329,26 @@
       <c r="AD106" s="11"/>
     </row>
     <row r="107" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="130" t="s">
-        <v>319</v>
-      </c>
-      <c r="C107" s="131"/>
-      <c r="D107" s="131"/>
-      <c r="E107" s="132"/>
-      <c r="F107" s="61" t="s">
+      <c r="B107" s="98" t="s">
         <v>317</v>
       </c>
-      <c r="G107" s="62"/>
-      <c r="H107" s="62"/>
-      <c r="I107" s="63"/>
-      <c r="J107" s="79" t="s">
-        <v>323</v>
-      </c>
-      <c r="K107" s="80"/>
-      <c r="L107" s="80"/>
-      <c r="M107" s="81"/>
+      <c r="C107" s="99"/>
+      <c r="D107" s="99"/>
+      <c r="E107" s="100"/>
+      <c r="F107" s="67" t="s">
+        <v>315</v>
+      </c>
+      <c r="G107" s="93"/>
+      <c r="H107" s="93"/>
+      <c r="I107" s="94"/>
+      <c r="J107" s="104" t="s">
+        <v>321</v>
+      </c>
+      <c r="K107" s="105"/>
+      <c r="L107" s="105"/>
+      <c r="M107" s="106"/>
       <c r="O107" s="59" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P107" s="60"/>
       <c r="Q107" s="59" t="s">
@@ -7369,71 +7356,71 @@
       </c>
       <c r="R107" s="60"/>
       <c r="S107" s="59" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="T107" s="60"/>
       <c r="U107" s="11"/>
-      <c r="V107" s="61" t="s">
-        <v>301</v>
-      </c>
-      <c r="W107" s="62"/>
-      <c r="X107" s="62"/>
-      <c r="Y107" s="62"/>
-      <c r="Z107" s="62"/>
-      <c r="AA107" s="62"/>
-      <c r="AB107" s="62"/>
-      <c r="AC107" s="63"/>
+      <c r="V107" s="67" t="s">
+        <v>299</v>
+      </c>
+      <c r="W107" s="93"/>
+      <c r="X107" s="93"/>
+      <c r="Y107" s="93"/>
+      <c r="Z107" s="93"/>
+      <c r="AA107" s="93"/>
+      <c r="AB107" s="93"/>
+      <c r="AC107" s="94"/>
       <c r="AD107" s="11"/>
       <c r="AE107" s="11"/>
       <c r="AF107" s="11"/>
     </row>
     <row r="108" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="133"/>
-      <c r="C108" s="134"/>
-      <c r="D108" s="134"/>
-      <c r="E108" s="135"/>
-      <c r="F108" s="67"/>
-      <c r="G108" s="68"/>
-      <c r="H108" s="68"/>
-      <c r="I108" s="69"/>
-      <c r="J108" s="82"/>
-      <c r="K108" s="83"/>
-      <c r="L108" s="83"/>
-      <c r="M108" s="84"/>
+      <c r="B108" s="101"/>
+      <c r="C108" s="102"/>
+      <c r="D108" s="102"/>
+      <c r="E108" s="103"/>
+      <c r="F108" s="95"/>
+      <c r="G108" s="96"/>
+      <c r="H108" s="96"/>
+      <c r="I108" s="97"/>
+      <c r="J108" s="107"/>
+      <c r="K108" s="108"/>
+      <c r="L108" s="108"/>
+      <c r="M108" s="109"/>
       <c r="O108" s="59" t="s">
-        <v>321</v>
-      </c>
-      <c r="P108" s="70"/>
-      <c r="Q108" s="70"/>
-      <c r="R108" s="70"/>
-      <c r="S108" s="70"/>
+        <v>319</v>
+      </c>
+      <c r="P108" s="92"/>
+      <c r="Q108" s="92"/>
+      <c r="R108" s="92"/>
+      <c r="S108" s="92"/>
       <c r="T108" s="60"/>
       <c r="U108" s="11"/>
-      <c r="V108" s="67"/>
-      <c r="W108" s="68"/>
-      <c r="X108" s="68"/>
-      <c r="Y108" s="68"/>
-      <c r="Z108" s="68"/>
-      <c r="AA108" s="68"/>
-      <c r="AB108" s="68"/>
-      <c r="AC108" s="69"/>
+      <c r="V108" s="95"/>
+      <c r="W108" s="96"/>
+      <c r="X108" s="96"/>
+      <c r="Y108" s="96"/>
+      <c r="Z108" s="96"/>
+      <c r="AA108" s="96"/>
+      <c r="AB108" s="96"/>
+      <c r="AC108" s="97"/>
       <c r="AD108" s="11"/>
       <c r="AE108" s="11"/>
       <c r="AF108" s="11"/>
     </row>
-    <row r="110" spans="2:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B110" s="9"/>
     </row>
-    <row r="112" spans="2:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
     </row>
-    <row r="114" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" s="9"/>
     </row>
-    <row r="116" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" s="9"/>
     </row>
-    <row r="118" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" s="9"/>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.3">
@@ -7533,533 +7520,134 @@
       <c r="B182" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="641">
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="W37:AC38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="T70:U70"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="T78:U78"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="O108:T108"/>
-    <mergeCell ref="B105:E106"/>
-    <mergeCell ref="B107:E108"/>
-    <mergeCell ref="J105:M106"/>
-    <mergeCell ref="J107:M108"/>
-    <mergeCell ref="V105:Y106"/>
-    <mergeCell ref="O107:P107"/>
-    <mergeCell ref="Q107:R107"/>
-    <mergeCell ref="S107:T107"/>
-    <mergeCell ref="O106:P106"/>
-    <mergeCell ref="Q106:R106"/>
-    <mergeCell ref="S106:T106"/>
-    <mergeCell ref="O105:P105"/>
-    <mergeCell ref="Q105:R105"/>
-    <mergeCell ref="S105:T105"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:S20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="S87:U87"/>
-    <mergeCell ref="V87:W87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:S88"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="V88:W88"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="P87:R87"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:S28"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="S27:U27"/>
+  <mergeCells count="622">
+    <mergeCell ref="R78:U78"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="J24:O24"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:S42"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="J32:O32"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:S58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="V73:W73"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:S66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="V74:W74"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:S74"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="V68:W68"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="J46:O46"/>
+    <mergeCell ref="J78:O78"/>
+    <mergeCell ref="J70:O70"/>
+    <mergeCell ref="J62:O62"/>
+    <mergeCell ref="J84:O84"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="P57:S57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="P65:S65"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="P73:S73"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="R62:U62"/>
+    <mergeCell ref="R70:U70"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="R32:U32"/>
+    <mergeCell ref="Z106:AA106"/>
+    <mergeCell ref="AB106:AC106"/>
+    <mergeCell ref="P100:U102"/>
+    <mergeCell ref="I95:K95"/>
+    <mergeCell ref="I102:K102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="Z105:AA105"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="W102:AB102"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="V107:AC108"/>
+    <mergeCell ref="W35:AC36"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="F105:I106"/>
+    <mergeCell ref="F107:I108"/>
+    <mergeCell ref="P91:R92"/>
+    <mergeCell ref="S91:U92"/>
+    <mergeCell ref="P93:U95"/>
+    <mergeCell ref="P98:R99"/>
+    <mergeCell ref="S98:U99"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="B35:H36"/>
+    <mergeCell ref="I35:O36"/>
+    <mergeCell ref="P35:V36"/>
+    <mergeCell ref="AB105:AC105"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="U81:V81"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="V70:W70"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="R16:U16"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
     <mergeCell ref="P69:Q69"/>
@@ -8084,97 +7672,477 @@
     <mergeCell ref="N61:O61"/>
     <mergeCell ref="P61:Q61"/>
     <mergeCell ref="B62:C62"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="S81:T81"/>
-    <mergeCell ref="U81:V81"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="V70:W70"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="V75:W75"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="V76:W76"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="V107:AC108"/>
-    <mergeCell ref="W35:AC36"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="F105:I106"/>
-    <mergeCell ref="F107:I108"/>
-    <mergeCell ref="P91:R92"/>
-    <mergeCell ref="S91:U92"/>
-    <mergeCell ref="P93:U95"/>
-    <mergeCell ref="P98:R99"/>
-    <mergeCell ref="S98:U99"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="B35:H36"/>
-    <mergeCell ref="I35:O36"/>
-    <mergeCell ref="P35:V36"/>
-    <mergeCell ref="AB105:AC105"/>
-    <mergeCell ref="Z106:AA106"/>
-    <mergeCell ref="AB106:AC106"/>
-    <mergeCell ref="P100:U102"/>
-    <mergeCell ref="I95:K95"/>
-    <mergeCell ref="I102:K102"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="Z105:AA105"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="W102:AB102"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="P49:S49"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:S74"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="V73:W73"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:S58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:S42"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:S28"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="V87:W87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:S88"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="V88:W88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="P87:S87"/>
+    <mergeCell ref="T87:U87"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:S20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="O108:T108"/>
+    <mergeCell ref="B105:E106"/>
+    <mergeCell ref="B107:E108"/>
+    <mergeCell ref="J105:M106"/>
+    <mergeCell ref="J107:M108"/>
+    <mergeCell ref="V105:Y106"/>
+    <mergeCell ref="O107:P107"/>
+    <mergeCell ref="Q107:R107"/>
+    <mergeCell ref="S107:T107"/>
+    <mergeCell ref="O106:P106"/>
+    <mergeCell ref="Q106:R106"/>
+    <mergeCell ref="S106:T106"/>
+    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="Q105:R105"/>
+    <mergeCell ref="S105:T105"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="W37:AC38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="R54:U54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/docs/Keyboard Designs.xlsx
+++ b/docs/Keyboard Designs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="332">
   <si>
     <t>A</t>
   </si>
@@ -362,6 +362,9 @@
     <t>¦</t>
   </si>
   <si>
+    <t>¬</t>
+  </si>
+  <si>
     <t>MENU</t>
   </si>
   <si>
@@ -519,6 +522,9 @@
   </si>
   <si>
     <t>⊭</t>
+  </si>
+  <si>
+    <t>⋆</t>
   </si>
   <si>
     <t>¤</t>
@@ -1009,10 +1015,7 @@
     <t>POSITION &amp; OPACITY</t>
   </si>
   <si>
-    <t>SLEEP</t>
-  </si>
-  <si>
-    <t>SIM KEY</t>
+    <t>KEY</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1474,24 +1477,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1558,6 +1548,72 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1597,76 +1653,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1687,15 +1707,189 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1720,227 +1914,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2266,38 +2247,38 @@
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="24" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="V3" s="25"/>
+      <c r="V3" s="47"/>
       <c r="Z3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
@@ -2315,36 +2296,36 @@
     </row>
     <row r="4" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="C4" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="24" t="s">
+      <c r="C4" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="33" t="s">
+      <c r="T4" s="49"/>
+      <c r="U4" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="T4" s="27"/>
-      <c r="U4" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="V4" s="29"/>
+      <c r="V4" s="51"/>
       <c r="Z4" s="4"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
@@ -2361,46 +2342,46 @@
       <c r="AQ4" s="7"/>
     </row>
     <row r="5" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="54" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="54" t="s">
+      <c r="F5" s="29"/>
+      <c r="G5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="54" t="s">
+      <c r="H5" s="29"/>
+      <c r="I5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="55"/>
-      <c r="K5" s="54" t="s">
+      <c r="J5" s="29"/>
+      <c r="K5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="55"/>
-      <c r="M5" s="54" t="s">
+      <c r="L5" s="29"/>
+      <c r="M5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="55"/>
-      <c r="O5" s="54" t="s">
+      <c r="N5" s="29"/>
+      <c r="O5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="54" t="s">
+      <c r="P5" s="29"/>
+      <c r="Q5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="55"/>
-      <c r="S5" s="54" t="s">
+      <c r="R5" s="29"/>
+      <c r="S5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="55"/>
-      <c r="U5" s="45" t="s">
+      <c r="T5" s="29"/>
+      <c r="U5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="57"/>
+      <c r="V5" s="25"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Z5" s="7"/>
@@ -2423,46 +2404,46 @@
     </row>
     <row r="6" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="58" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="45" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="45" t="s">
+      <c r="G6" s="27"/>
+      <c r="H6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="45" t="s">
+      <c r="I6" s="27"/>
+      <c r="J6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="45" t="s">
+      <c r="K6" s="27"/>
+      <c r="L6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="47"/>
-      <c r="N6" s="45" t="s">
+      <c r="M6" s="27"/>
+      <c r="N6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="47"/>
-      <c r="P6" s="45" t="s">
+      <c r="O6" s="27"/>
+      <c r="P6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="45" t="s">
+      <c r="Q6" s="27"/>
+      <c r="R6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="47"/>
-      <c r="T6" s="45" t="s">
+      <c r="S6" s="27"/>
+      <c r="T6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="47"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
       <c r="X6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
@@ -2482,46 +2463,46 @@
     </row>
     <row r="7" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38" t="s">
+      <c r="G7" s="30"/>
+      <c r="H7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38" t="s">
+      <c r="I7" s="30"/>
+      <c r="J7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38" t="s">
+      <c r="K7" s="30"/>
+      <c r="L7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38" t="s">
+      <c r="M7" s="30"/>
+      <c r="N7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38" t="s">
+      <c r="O7" s="30"/>
+      <c r="P7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="56" t="s">
+      <c r="Q7" s="30"/>
+      <c r="R7" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="S7" s="56"/>
-      <c r="T7" s="39" t="s">
+      <c r="S7" s="31"/>
+      <c r="T7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="40"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
       <c r="X7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -2539,38 +2520,38 @@
     </row>
     <row r="8" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="45" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="51" t="s">
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="51" t="s">
+      <c r="I8" s="44"/>
+      <c r="J8" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="51" t="s">
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="52"/>
-      <c r="P8" s="41" t="s">
+      <c r="O8" s="44"/>
+      <c r="P8" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="39" t="s">
+      <c r="Q8" s="36"/>
+      <c r="R8" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="40"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="34"/>
       <c r="X8" s="7"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
@@ -2620,29 +2601,17 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="G4:R4"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="T7:U7"/>
@@ -2659,17 +2628,29 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="G4:R4"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="T6:U6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2680,8 +2661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AW182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="AG77" sqref="AG77"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2690,57 +2671,57 @@
     <col min="33" max="49" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="24" t="s">
+      <c r="B3" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="24" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="53"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N3" s="53"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="T3" s="53"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="U3" s="25"/>
-      <c r="V3" s="146" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3" s="147"/>
-      <c r="Z3" s="89" t="s">
+      <c r="W3" s="47"/>
+      <c r="Z3" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="91"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="129"/>
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
@@ -2757,44 +2738,44 @@
     </row>
     <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="117" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="119" t="s">
+      <c r="B4" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="94"/>
+      <c r="D4" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="103"/>
+      <c r="F4" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="120"/>
-      <c r="F4" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="121"/>
-      <c r="T4" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="U4" s="79"/>
-      <c r="V4" s="80" t="s">
-        <v>330</v>
-      </c>
-      <c r="W4" s="81"/>
-      <c r="Z4" s="68" t="s">
+      <c r="U4" s="106"/>
+      <c r="V4" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="W4" s="108"/>
+      <c r="Z4" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="70"/>
+      <c r="AA4" s="126"/>
+      <c r="AB4" s="126"/>
+      <c r="AC4" s="138"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
@@ -2809,55 +2790,55 @@
       <c r="AS4" s="5"/>
       <c r="AT4" s="5"/>
     </row>
-    <row r="5" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="54" t="s">
+    <row r="5" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="54" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="54" t="s">
+      <c r="F5" s="29"/>
+      <c r="G5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="54" t="s">
+      <c r="H5" s="29"/>
+      <c r="I5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="55"/>
-      <c r="K5" s="54" t="s">
+      <c r="J5" s="29"/>
+      <c r="K5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="55"/>
-      <c r="M5" s="54" t="s">
+      <c r="L5" s="29"/>
+      <c r="M5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="55"/>
-      <c r="O5" s="54" t="s">
+      <c r="N5" s="29"/>
+      <c r="O5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="54" t="s">
+      <c r="P5" s="29"/>
+      <c r="Q5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="55"/>
-      <c r="S5" s="54" t="s">
+      <c r="R5" s="29"/>
+      <c r="S5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="55"/>
-      <c r="U5" s="54" t="s">
+      <c r="T5" s="29"/>
+      <c r="U5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="57"/>
+      <c r="V5" s="29"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
-      <c r="Z5" s="71" t="s">
+      <c r="Z5" s="139" t="s">
         <v>85</v>
       </c>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="73"/>
+      <c r="AA5" s="140"/>
+      <c r="AB5" s="140"/>
+      <c r="AC5" s="141"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
@@ -2877,56 +2858,56 @@
     </row>
     <row r="6" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="38" t="s">
+      <c r="C6" s="109"/>
+      <c r="D6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38" t="s">
+      <c r="K6" s="30"/>
+      <c r="L6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38" t="s">
+      <c r="M6" s="30"/>
+      <c r="N6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38" t="s">
+      <c r="O6" s="30"/>
+      <c r="P6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38" t="s">
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38" t="s">
+      <c r="S6" s="30"/>
+      <c r="T6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="38"/>
-      <c r="V6" s="51" t="s">
+      <c r="U6" s="30"/>
+      <c r="V6" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="W6" s="52"/>
-      <c r="Z6" s="74" t="s">
+      <c r="W6" s="44"/>
+      <c r="Z6" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="76"/>
+      <c r="AA6" s="143"/>
+      <c r="AB6" s="143"/>
+      <c r="AC6" s="144"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
@@ -2946,50 +2927,50 @@
     </row>
     <row r="7" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38" t="s">
+      <c r="G7" s="30"/>
+      <c r="H7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38" t="s">
+      <c r="I7" s="30"/>
+      <c r="J7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38" t="s">
+      <c r="K7" s="30"/>
+      <c r="L7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38" t="s">
+      <c r="M7" s="30"/>
+      <c r="N7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38" t="s">
+      <c r="O7" s="30"/>
+      <c r="P7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="56" t="s">
+      <c r="Q7" s="30"/>
+      <c r="R7" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="S7" s="56"/>
-      <c r="T7" s="39" t="s">
+      <c r="S7" s="31"/>
+      <c r="T7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="40"/>
-      <c r="V7" s="39" t="s">
+      <c r="U7" s="34"/>
+      <c r="V7" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="W7" s="40"/>
+      <c r="W7" s="34"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="8"/>
       <c r="AH7" s="5"/>
@@ -3008,44 +2989,48 @@
     </row>
     <row r="8" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112" t="s">
+      <c r="C8" s="91"/>
+      <c r="D8" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112" t="s">
+      <c r="E8" s="91"/>
+      <c r="F8" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="112"/>
-      <c r="H8" s="51" t="s">
+      <c r="G8" s="91"/>
+      <c r="H8" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="51" t="s">
+      <c r="I8" s="44"/>
+      <c r="J8" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="51" t="s">
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="39" t="s">
+      <c r="O8" s="44"/>
+      <c r="P8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="148" t="s">
+        <v>331</v>
+      </c>
+      <c r="S8" s="148"/>
+      <c r="T8" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="W8" s="40"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="W8" s="34"/>
       <c r="X8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="8"/>
@@ -3098,51 +3083,51 @@
       <c r="AV9" s="5"/>
       <c r="AW9" s="5"/>
     </row>
-    <row r="10" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
-      <c r="B11" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="24" t="s">
+      <c r="B11" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="24" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="53"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N11" s="53"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="T11" s="53"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="U11" s="25"/>
-      <c r="V11" s="146" t="s">
-        <v>38</v>
-      </c>
-      <c r="W11" s="147"/>
+      <c r="W11" s="47"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="8"/>
       <c r="AH11" s="5"/>
@@ -3163,38 +3148,38 @@
     </row>
     <row r="12" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="24" t="s">
+      <c r="B12" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="94"/>
+      <c r="D12" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="103"/>
+      <c r="F12" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="121"/>
-      <c r="T12" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="U12" s="27"/>
-      <c r="V12" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="W12" s="29"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="W12" s="108"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="8"/>
       <c r="AH12" s="5"/>
@@ -3214,50 +3199,50 @@
       <c r="AV12" s="5"/>
     </row>
     <row r="13" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="113">
+      <c r="B13" s="122">
         <v>1</v>
       </c>
-      <c r="C13" s="114"/>
-      <c r="D13" s="113">
+      <c r="C13" s="123"/>
+      <c r="D13" s="122">
         <v>2</v>
       </c>
-      <c r="E13" s="114"/>
-      <c r="F13" s="54">
+      <c r="E13" s="123"/>
+      <c r="F13" s="28">
         <v>3</v>
       </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="115">
+      <c r="G13" s="29"/>
+      <c r="H13" s="124">
         <v>4</v>
       </c>
-      <c r="I13" s="116"/>
-      <c r="J13" s="54">
+      <c r="I13" s="125"/>
+      <c r="J13" s="28">
         <v>5</v>
       </c>
-      <c r="K13" s="55"/>
-      <c r="L13" s="54">
+      <c r="K13" s="29"/>
+      <c r="L13" s="28">
         <v>6</v>
       </c>
-      <c r="M13" s="55"/>
-      <c r="N13" s="54">
+      <c r="M13" s="29"/>
+      <c r="N13" s="28">
         <v>7</v>
       </c>
-      <c r="O13" s="55"/>
-      <c r="P13" s="54">
+      <c r="O13" s="29"/>
+      <c r="P13" s="28">
         <v>8</v>
       </c>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="54">
+      <c r="Q13" s="29"/>
+      <c r="R13" s="28">
         <v>9</v>
       </c>
-      <c r="S13" s="55"/>
-      <c r="T13" s="54">
+      <c r="S13" s="29"/>
+      <c r="T13" s="28">
         <v>0</v>
       </c>
-      <c r="U13" s="55"/>
-      <c r="V13" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="W13" s="38"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="W13" s="30"/>
       <c r="X13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="8"/>
@@ -3280,50 +3265,50 @@
     </row>
     <row r="14" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="129" t="s">
+      <c r="B14" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="130"/>
-      <c r="D14" s="129" t="s">
+      <c r="C14" s="116"/>
+      <c r="D14" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="130"/>
-      <c r="F14" s="125" t="s">
+      <c r="E14" s="116"/>
+      <c r="F14" s="111" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="125"/>
-      <c r="H14" s="131" t="s">
+      <c r="G14" s="111"/>
+      <c r="H14" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125" t="s">
+      <c r="I14" s="111"/>
+      <c r="J14" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125" t="s">
+      <c r="K14" s="111"/>
+      <c r="L14" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="125"/>
-      <c r="N14" s="126" t="s">
+      <c r="M14" s="111"/>
+      <c r="N14" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="O14" s="127"/>
-      <c r="P14" s="126" t="s">
+      <c r="O14" s="113"/>
+      <c r="P14" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="Q14" s="127"/>
-      <c r="R14" s="126" t="s">
+      <c r="Q14" s="113"/>
+      <c r="R14" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="S14" s="127"/>
-      <c r="T14" s="126" t="s">
+      <c r="S14" s="113"/>
+      <c r="T14" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="U14" s="127"/>
-      <c r="V14" s="128" t="s">
+      <c r="U14" s="113"/>
+      <c r="V14" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="W14" s="128"/>
+      <c r="W14" s="114"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AH14" s="5"/>
@@ -3345,50 +3330,50 @@
     </row>
     <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38" t="s">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="148" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="149"/>
-      <c r="J15" s="123" t="s">
+      <c r="G15" s="30"/>
+      <c r="H15" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="30"/>
+      <c r="J15" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="123" t="s">
+      <c r="K15" s="30"/>
+      <c r="L15" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="38"/>
-      <c r="N15" s="123" t="s">
+      <c r="M15" s="30"/>
+      <c r="N15" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38" t="s">
+      <c r="O15" s="30"/>
+      <c r="P15" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="56" t="s">
+      <c r="Q15" s="30"/>
+      <c r="R15" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56" t="s">
+      <c r="S15" s="31"/>
+      <c r="T15" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56" t="s">
+      <c r="U15" s="31"/>
+      <c r="V15" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="W15" s="56"/>
+      <c r="W15" s="31"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
@@ -3415,44 +3400,48 @@
     </row>
     <row r="16" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112" t="s">
+      <c r="C16" s="91"/>
+      <c r="D16" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112" t="s">
+      <c r="E16" s="91"/>
+      <c r="F16" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="112"/>
-      <c r="H16" s="122" t="s">
+      <c r="G16" s="91"/>
+      <c r="H16" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="122"/>
-      <c r="J16" s="51" t="s">
+      <c r="I16" s="96"/>
+      <c r="J16" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="51" t="s">
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="39" t="s">
+      <c r="O16" s="44"/>
+      <c r="P16" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="146"/>
+      <c r="R16" s="148" t="s">
+        <v>331</v>
+      </c>
+      <c r="S16" s="148"/>
+      <c r="T16" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="W16" s="40"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="W16" s="34"/>
       <c r="X16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="8"/>
@@ -3512,51 +3501,51 @@
       <c r="AV17" s="5"/>
       <c r="AW17" s="5"/>
     </row>
-    <row r="18" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="B19" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="24" t="s">
+      <c r="B19" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="K19" s="31"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="24" t="s">
+      <c r="C19" s="47"/>
+      <c r="D19" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K19" s="53"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N19" s="53"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="T19" s="53"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="U19" s="25"/>
-      <c r="V19" s="146" t="s">
-        <v>38</v>
-      </c>
-      <c r="W19" s="147"/>
+      <c r="W19" s="47"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="8"/>
@@ -3584,38 +3573,38 @@
     </row>
     <row r="20" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
-      <c r="B20" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="24" t="s">
+      <c r="B20" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="94"/>
+      <c r="D20" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="103"/>
+      <c r="F20" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="104"/>
+      <c r="T20" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="121"/>
-      <c r="T20" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="U20" s="27"/>
-      <c r="V20" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="W20" s="29"/>
+      <c r="U20" s="106"/>
+      <c r="V20" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="W20" s="108"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="8"/>
@@ -3642,50 +3631,50 @@
       <c r="AV20" s="5"/>
     </row>
     <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="45" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="110" t="s">
+      <c r="G21" s="27"/>
+      <c r="H21" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="111"/>
-      <c r="J21" s="45" t="s">
+      <c r="I21" s="99"/>
+      <c r="J21" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="K21" s="47"/>
-      <c r="L21" s="110" t="s">
-        <v>125</v>
-      </c>
-      <c r="M21" s="111"/>
-      <c r="N21" s="45" t="s">
+      <c r="K21" s="27"/>
+      <c r="L21" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="M21" s="99"/>
+      <c r="N21" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="O21" s="47"/>
-      <c r="P21" s="45" t="s">
+      <c r="O21" s="27"/>
+      <c r="P21" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="45" t="s">
+      <c r="Q21" s="27"/>
+      <c r="R21" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="S21" s="47"/>
-      <c r="T21" s="45" t="s">
+      <c r="S21" s="27"/>
+      <c r="T21" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="U21" s="47"/>
-      <c r="V21" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="W21" s="38"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="W21" s="30"/>
       <c r="X21" s="5"/>
       <c r="AT21" s="5"/>
       <c r="AU21" s="5"/>
@@ -3694,51 +3683,53 @@
     </row>
     <row r="22" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="38" t="s">
+      <c r="B22" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38" t="s">
+      <c r="E22" s="30"/>
+      <c r="F22" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38" t="s">
+      <c r="G22" s="30"/>
+      <c r="H22" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38" t="s">
+      <c r="I22" s="30"/>
+      <c r="J22" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38" t="s">
+      <c r="K22" s="30"/>
+      <c r="L22" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="M22" s="38"/>
-      <c r="N22" s="124" t="s">
+      <c r="M22" s="30"/>
+      <c r="N22" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="O22" s="124"/>
-      <c r="P22" s="38" t="s">
+      <c r="O22" s="97"/>
+      <c r="P22" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38" t="s">
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38" t="s">
+      <c r="S22" s="30"/>
+      <c r="T22" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="U22" s="38"/>
-      <c r="V22" s="122" t="s">
+      <c r="U22" s="30"/>
+      <c r="V22" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="W22" s="122"/>
+      <c r="W22" s="96"/>
       <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
       <c r="AD22" s="8"/>
       <c r="AE22" s="8"/>
       <c r="AF22" s="8"/>
@@ -3756,51 +3747,53 @@
     </row>
     <row r="23" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="45" t="s">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="I23" s="47"/>
-      <c r="J23" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38" t="s">
+      <c r="G23" s="27"/>
+      <c r="H23" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" s="27"/>
+      <c r="J23" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38" t="s">
+      <c r="M23" s="30"/>
+      <c r="N23" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="56" t="s">
+      <c r="Q23" s="30"/>
+      <c r="R23" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56" t="s">
+      <c r="S23" s="31"/>
+      <c r="T23" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56" t="s">
+      <c r="U23" s="31"/>
+      <c r="V23" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="W23" s="56"/>
+      <c r="W23" s="31"/>
       <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
       <c r="AD23" s="8"/>
@@ -3821,44 +3814,48 @@
     </row>
     <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="112" t="s">
+      <c r="B24" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112" t="s">
+      <c r="C24" s="91"/>
+      <c r="D24" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112" t="s">
+      <c r="E24" s="91"/>
+      <c r="F24" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="112"/>
-      <c r="H24" s="124" t="s">
-        <v>130</v>
-      </c>
-      <c r="I24" s="124"/>
-      <c r="J24" s="51" t="s">
+      <c r="G24" s="91"/>
+      <c r="H24" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="I24" s="97"/>
+      <c r="J24" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="39" t="s">
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="O24" s="97"/>
+      <c r="P24" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="148" t="s">
+        <v>331</v>
+      </c>
+      <c r="S24" s="148"/>
+      <c r="T24" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="W24" s="40"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="W24" s="34"/>
       <c r="X24" s="5"/>
       <c r="AE24" s="8"/>
       <c r="AF24" s="8"/>
@@ -3915,51 +3912,51 @@
       <c r="AV25" s="5"/>
       <c r="AW25" s="5"/>
     </row>
-    <row r="26" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
-      <c r="B27" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="24" t="s">
+      <c r="B27" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="K27" s="31"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="N27" s="31"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="24" t="s">
+      <c r="C27" s="47"/>
+      <c r="D27" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="53"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K27" s="53"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N27" s="53"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="T27" s="53"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="U27" s="25"/>
-      <c r="V27" s="146" t="s">
-        <v>38</v>
-      </c>
-      <c r="W27" s="147"/>
+      <c r="W27" s="47"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="8"/>
@@ -3987,38 +3984,38 @@
     </row>
     <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
-      <c r="B28" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="24" t="s">
+      <c r="B28" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="94"/>
+      <c r="D28" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="103"/>
+      <c r="F28" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="104"/>
+      <c r="T28" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="121"/>
-      <c r="T28" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="U28" s="27"/>
-      <c r="V28" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="W28" s="29"/>
+      <c r="U28" s="106"/>
+      <c r="V28" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="W28" s="108"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="8"/>
@@ -4045,50 +4042,50 @@
       <c r="AV28" s="6"/>
     </row>
     <row r="29" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="54" t="s">
+      <c r="B29" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E29" s="55"/>
-      <c r="F29" s="54" t="s">
+      <c r="C29" s="29"/>
+      <c r="D29" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="G29" s="55"/>
-      <c r="H29" s="133" t="s">
+      <c r="E29" s="29"/>
+      <c r="F29" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="I29" s="134"/>
-      <c r="J29" s="54" t="s">
+      <c r="G29" s="29"/>
+      <c r="H29" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="K29" s="55"/>
-      <c r="L29" s="133" t="s">
+      <c r="I29" s="101"/>
+      <c r="J29" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="M29" s="134"/>
-      <c r="N29" s="54" t="s">
+      <c r="K29" s="29"/>
+      <c r="L29" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="O29" s="55"/>
-      <c r="P29" s="54" t="s">
+      <c r="M29" s="101"/>
+      <c r="N29" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="54" t="s">
+      <c r="O29" s="29"/>
+      <c r="P29" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="S29" s="55"/>
-      <c r="T29" s="54" t="s">
+      <c r="Q29" s="29"/>
+      <c r="R29" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="U29" s="55"/>
-      <c r="V29" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="W29" s="55"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="U29" s="29"/>
+      <c r="V29" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="W29" s="29"/>
       <c r="X29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
@@ -4097,50 +4094,50 @@
     </row>
     <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="45" t="s">
+      <c r="B30" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="45" t="s">
+      <c r="C30" s="27"/>
+      <c r="D30" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="G30" s="47"/>
-      <c r="H30" s="45" t="s">
+      <c r="E30" s="27"/>
+      <c r="F30" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="I30" s="47"/>
-      <c r="J30" s="110" t="s">
+      <c r="G30" s="27"/>
+      <c r="H30" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30" s="99"/>
+      <c r="J30" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="K30" s="111"/>
-      <c r="L30" s="45" t="s">
+      <c r="K30" s="27"/>
+      <c r="L30" s="98" t="s">
         <v>156</v>
       </c>
-      <c r="M30" s="47"/>
-      <c r="N30" s="45" t="s">
+      <c r="M30" s="99"/>
+      <c r="N30" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="O30" s="47"/>
-      <c r="P30" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="38" t="s">
+      <c r="O30" s="27"/>
+      <c r="P30" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38" t="s">
+      <c r="Q30" s="27"/>
+      <c r="R30" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="U30" s="38"/>
-      <c r="V30" s="122" t="s">
+      <c r="S30" s="30"/>
+      <c r="T30" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="U30" s="30"/>
+      <c r="V30" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="W30" s="122"/>
+      <c r="W30" s="96"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -4161,50 +4158,50 @@
     </row>
     <row r="31" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38" t="s">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38" t="s">
+      <c r="G31" s="30"/>
+      <c r="H31" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="M31" s="27"/>
+      <c r="N31" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="O31" s="27"/>
+      <c r="P31" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="K31" s="38"/>
-      <c r="L31" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="M31" s="47"/>
-      <c r="N31" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="O31" s="47"/>
-      <c r="P31" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="56" t="s">
+      <c r="Q31" s="27"/>
+      <c r="R31" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56" t="s">
+      <c r="S31" s="31"/>
+      <c r="T31" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="U31" s="56"/>
-      <c r="V31" s="56" t="s">
+      <c r="U31" s="31"/>
+      <c r="V31" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="W31" s="56"/>
+      <c r="W31" s="31"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="8"/>
@@ -4232,44 +4229,48 @@
     </row>
     <row r="32" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="112" t="s">
+      <c r="B32" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112" t="s">
+      <c r="C32" s="91"/>
+      <c r="D32" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112" t="s">
+      <c r="E32" s="91"/>
+      <c r="F32" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="112"/>
-      <c r="H32" s="124" t="s">
-        <v>125</v>
-      </c>
-      <c r="I32" s="124"/>
-      <c r="J32" s="51" t="s">
+      <c r="G32" s="91"/>
+      <c r="H32" s="97" t="s">
+        <v>169</v>
+      </c>
+      <c r="I32" s="97"/>
+      <c r="J32" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="124" t="s">
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="Q32" s="124"/>
-      <c r="R32" s="39" t="s">
+      <c r="O32" s="97"/>
+      <c r="P32" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="148" t="s">
+        <v>331</v>
+      </c>
+      <c r="S32" s="148"/>
+      <c r="T32" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="S32" s="49"/>
-      <c r="T32" s="49"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="W32" s="40"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="W32" s="34"/>
       <c r="X32" s="6"/>
       <c r="AE32" s="8"/>
       <c r="AF32" s="8"/>
@@ -4328,47 +4329,47 @@
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="82" t="s">
-        <v>326</v>
-      </c>
-      <c r="C35" s="136"/>
-      <c r="D35" s="136"/>
-      <c r="E35" s="136"/>
-      <c r="F35" s="136"/>
-      <c r="G35" s="136"/>
-      <c r="H35" s="136"/>
-      <c r="I35" s="82" t="s">
-        <v>293</v>
-      </c>
-      <c r="J35" s="136"/>
-      <c r="K35" s="136"/>
-      <c r="L35" s="136"/>
-      <c r="M35" s="136"/>
-      <c r="N35" s="136"/>
-      <c r="O35" s="136"/>
-      <c r="P35" s="61" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="62"/>
-      <c r="S35" s="62"/>
-      <c r="T35" s="62"/>
-      <c r="U35" s="62"/>
-      <c r="V35" s="63"/>
-      <c r="W35" s="61" t="s">
+      <c r="B35" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="X35" s="62"/>
-      <c r="Y35" s="62"/>
-      <c r="Z35" s="62"/>
-      <c r="AA35" s="62"/>
-      <c r="AB35" s="62"/>
-      <c r="AC35" s="63"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="72"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="72"/>
+      <c r="V35" s="73"/>
+      <c r="W35" s="71" t="s">
+        <v>297</v>
+      </c>
+      <c r="X35" s="72"/>
+      <c r="Y35" s="72"/>
+      <c r="Z35" s="72"/>
+      <c r="AA35" s="72"/>
+      <c r="AB35" s="72"/>
+      <c r="AC35" s="73"/>
       <c r="AF35" s="8"/>
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
@@ -4387,34 +4388,34 @@
     </row>
     <row r="36" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="136"/>
-      <c r="C36" s="136"/>
-      <c r="D36" s="136"/>
-      <c r="E36" s="136"/>
-      <c r="F36" s="136"/>
-      <c r="G36" s="136"/>
-      <c r="H36" s="136"/>
-      <c r="I36" s="136"/>
-      <c r="J36" s="136"/>
-      <c r="K36" s="136"/>
-      <c r="L36" s="136"/>
-      <c r="M36" s="136"/>
-      <c r="N36" s="136"/>
-      <c r="O36" s="136"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="65"/>
-      <c r="T36" s="65"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="66"/>
-      <c r="W36" s="64"/>
-      <c r="X36" s="65"/>
-      <c r="Y36" s="65"/>
-      <c r="Z36" s="65"/>
-      <c r="AA36" s="65"/>
-      <c r="AB36" s="65"/>
-      <c r="AC36" s="66"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="74"/>
+      <c r="Q36" s="75"/>
+      <c r="R36" s="75"/>
+      <c r="S36" s="75"/>
+      <c r="T36" s="75"/>
+      <c r="U36" s="75"/>
+      <c r="V36" s="76"/>
+      <c r="W36" s="74"/>
+      <c r="X36" s="75"/>
+      <c r="Y36" s="75"/>
+      <c r="Z36" s="75"/>
+      <c r="AA36" s="75"/>
+      <c r="AB36" s="75"/>
+      <c r="AC36" s="76"/>
       <c r="AF36" s="8"/>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
@@ -4433,42 +4434,42 @@
     </row>
     <row r="37" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="136" t="s">
-        <v>297</v>
-      </c>
-      <c r="C37" s="136"/>
-      <c r="D37" s="136"/>
-      <c r="E37" s="136"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="136"/>
-      <c r="H37" s="136"/>
-      <c r="I37" s="136" t="s">
-        <v>327</v>
-      </c>
-      <c r="J37" s="136"/>
-      <c r="K37" s="136"/>
-      <c r="L37" s="136"/>
-      <c r="M37" s="136"/>
-      <c r="N37" s="136"/>
-      <c r="O37" s="136"/>
-      <c r="P37" s="61" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
-      <c r="T37" s="62"/>
-      <c r="U37" s="62"/>
-      <c r="V37" s="63"/>
-      <c r="W37" s="61" t="s">
+      <c r="B37" s="78" t="s">
         <v>299</v>
       </c>
-      <c r="X37" s="62"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="62"/>
-      <c r="AA37" s="62"/>
-      <c r="AB37" s="62"/>
-      <c r="AC37" s="63"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78" t="s">
+        <v>329</v>
+      </c>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="72"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="72"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="71" t="s">
+        <v>301</v>
+      </c>
+      <c r="X37" s="72"/>
+      <c r="Y37" s="72"/>
+      <c r="Z37" s="72"/>
+      <c r="AA37" s="72"/>
+      <c r="AB37" s="72"/>
+      <c r="AC37" s="73"/>
       <c r="AD37" s="8"/>
       <c r="AE37" s="8"/>
       <c r="AF37" s="8"/>
@@ -4489,34 +4490,34 @@
     </row>
     <row r="38" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="136"/>
-      <c r="C38" s="136"/>
-      <c r="D38" s="136"/>
-      <c r="E38" s="136"/>
-      <c r="F38" s="136"/>
-      <c r="G38" s="136"/>
-      <c r="H38" s="136"/>
-      <c r="I38" s="136"/>
-      <c r="J38" s="136"/>
-      <c r="K38" s="136"/>
-      <c r="L38" s="136"/>
-      <c r="M38" s="136"/>
-      <c r="N38" s="136"/>
-      <c r="O38" s="136"/>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="65"/>
-      <c r="R38" s="65"/>
-      <c r="S38" s="65"/>
-      <c r="T38" s="65"/>
-      <c r="U38" s="65"/>
-      <c r="V38" s="66"/>
-      <c r="W38" s="64"/>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="65"/>
-      <c r="AA38" s="65"/>
-      <c r="AB38" s="65"/>
-      <c r="AC38" s="66"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="78"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="78"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="75"/>
+      <c r="R38" s="75"/>
+      <c r="S38" s="75"/>
+      <c r="T38" s="75"/>
+      <c r="U38" s="75"/>
+      <c r="V38" s="76"/>
+      <c r="W38" s="74"/>
+      <c r="X38" s="75"/>
+      <c r="Y38" s="75"/>
+      <c r="Z38" s="75"/>
+      <c r="AA38" s="75"/>
+      <c r="AB38" s="75"/>
+      <c r="AC38" s="76"/>
       <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
@@ -4572,51 +4573,51 @@
       <c r="AV39" s="6"/>
       <c r="AW39" s="6"/>
     </row>
-    <row r="40" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
-      <c r="B41" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="24" t="s">
+      <c r="B41" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="K41" s="31"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="N41" s="31"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="24" t="s">
+      <c r="C41" s="47"/>
+      <c r="D41" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" s="53"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="H41" s="53"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K41" s="53"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N41" s="53"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="T41" s="53"/>
+      <c r="U41" s="54"/>
+      <c r="V41" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="U41" s="25"/>
-      <c r="V41" s="146" t="s">
-        <v>38</v>
-      </c>
-      <c r="W41" s="147"/>
+      <c r="W41" s="47"/>
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
       <c r="AA41" s="8"/>
@@ -4644,38 +4645,38 @@
     </row>
     <row r="42" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
-      <c r="B42" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="C42" s="36"/>
-      <c r="D42" s="24" t="s">
+      <c r="B42" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42" s="94"/>
+      <c r="D42" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="103"/>
+      <c r="F42" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="121"/>
-      <c r="T42" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="U42" s="27"/>
-      <c r="V42" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="W42" s="29"/>
+      <c r="U42" s="106"/>
+      <c r="V42" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="W42" s="108"/>
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
       <c r="AA42" s="8"/>
@@ -4702,50 +4703,50 @@
       <c r="AV42" s="6"/>
     </row>
     <row r="43" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="E43" s="47"/>
-      <c r="F43" s="45" t="s">
+      <c r="B43" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="G43" s="47"/>
-      <c r="H43" s="110" t="s">
+      <c r="C43" s="27"/>
+      <c r="D43" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="I43" s="111"/>
-      <c r="J43" s="45" t="s">
+      <c r="E43" s="27"/>
+      <c r="F43" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="G43" s="27"/>
+      <c r="H43" s="98" t="s">
+        <v>173</v>
+      </c>
+      <c r="I43" s="99"/>
+      <c r="J43" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="K43" s="47"/>
-      <c r="L43" s="110" t="s">
-        <v>172</v>
-      </c>
-      <c r="M43" s="111"/>
-      <c r="N43" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="O43" s="47"/>
-      <c r="P43" s="45" t="s">
+      <c r="K43" s="27"/>
+      <c r="L43" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="M43" s="99"/>
+      <c r="N43" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="O43" s="27"/>
+      <c r="P43" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="Q43" s="47"/>
-      <c r="R43" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="S43" s="47"/>
-      <c r="T43" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="U43" s="47"/>
-      <c r="V43" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="W43" s="38"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="S43" s="27"/>
+      <c r="T43" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="U43" s="27"/>
+      <c r="V43" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="W43" s="30"/>
       <c r="X43" s="6"/>
       <c r="AT43" s="6"/>
       <c r="AU43" s="6"/>
@@ -4754,50 +4755,50 @@
     </row>
     <row r="44" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38" t="s">
+      <c r="B44" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38" t="s">
+      <c r="E44" s="30"/>
+      <c r="F44" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38" t="s">
+      <c r="G44" s="30"/>
+      <c r="H44" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="M44" s="38"/>
-      <c r="N44" s="124" t="s">
+      <c r="I44" s="30"/>
+      <c r="J44" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="O44" s="124"/>
-      <c r="P44" s="38" t="s">
+      <c r="K44" s="30"/>
+      <c r="L44" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="38" t="s">
+      <c r="M44" s="30"/>
+      <c r="N44" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="S44" s="38"/>
-      <c r="T44" s="38" t="s">
+      <c r="O44" s="97"/>
+      <c r="P44" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="U44" s="38"/>
-      <c r="V44" s="122" t="s">
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="U44" s="30"/>
+      <c r="V44" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="W44" s="122"/>
+      <c r="W44" s="96"/>
       <c r="AA44" s="8"/>
       <c r="AB44" s="8"/>
       <c r="AC44" s="8"/>
@@ -4818,50 +4819,50 @@
     </row>
     <row r="45" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38" t="s">
+      <c r="C45" s="30"/>
+      <c r="D45" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38" t="s">
+      <c r="E45" s="30"/>
+      <c r="F45" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38" t="s">
+      <c r="G45" s="30"/>
+      <c r="H45" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="135" t="s">
+      <c r="M45" s="30"/>
+      <c r="N45" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="147" t="s">
         <v>103</v>
       </c>
-      <c r="S45" s="135"/>
-      <c r="T45" s="56" t="s">
+      <c r="S45" s="147"/>
+      <c r="T45" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="U45" s="56"/>
-      <c r="V45" s="56" t="s">
+      <c r="U45" s="31"/>
+      <c r="V45" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="W45" s="56"/>
+      <c r="W45" s="31"/>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
       <c r="AA45" s="8"/>
@@ -4889,44 +4890,48 @@
     </row>
     <row r="46" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="112" t="s">
+      <c r="B46" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="112"/>
-      <c r="D46" s="112" t="s">
+      <c r="C46" s="91"/>
+      <c r="D46" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112" t="s">
+      <c r="E46" s="91"/>
+      <c r="F46" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="112"/>
-      <c r="H46" s="124" t="s">
-        <v>191</v>
-      </c>
-      <c r="I46" s="124"/>
-      <c r="J46" s="51" t="s">
+      <c r="G46" s="91"/>
+      <c r="H46" s="97" t="s">
+        <v>193</v>
+      </c>
+      <c r="I46" s="97"/>
+      <c r="J46" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="124" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q46" s="124"/>
-      <c r="R46" s="39" t="s">
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="97" t="s">
+        <v>194</v>
+      </c>
+      <c r="O46" s="97"/>
+      <c r="P46" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="148" t="s">
+        <v>331</v>
+      </c>
+      <c r="S46" s="148"/>
+      <c r="T46" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="S46" s="49"/>
-      <c r="T46" s="49"/>
-      <c r="U46" s="40"/>
-      <c r="V46" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="W46" s="40"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="W46" s="34"/>
       <c r="X46" s="6"/>
       <c r="AE46" s="8"/>
       <c r="AF46" s="8"/>
@@ -4983,51 +4988,51 @@
       <c r="AV47" s="6"/>
       <c r="AW47" s="6"/>
     </row>
-    <row r="48" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
-      <c r="B49" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="24" t="s">
+      <c r="B49" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="K49" s="31"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="N49" s="31"/>
-      <c r="O49" s="32"/>
-      <c r="P49" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="31"/>
-      <c r="S49" s="32"/>
-      <c r="T49" s="24" t="s">
+      <c r="C49" s="47"/>
+      <c r="D49" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" s="53"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="H49" s="53"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K49" s="53"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N49" s="53"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="T49" s="53"/>
+      <c r="U49" s="54"/>
+      <c r="V49" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="U49" s="25"/>
-      <c r="V49" s="146" t="s">
-        <v>38</v>
-      </c>
-      <c r="W49" s="147"/>
+      <c r="W49" s="47"/>
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
       <c r="AA49" s="8"/>
@@ -5055,38 +5060,38 @@
     </row>
     <row r="50" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
-      <c r="B50" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="C50" s="36"/>
-      <c r="D50" s="24" t="s">
+      <c r="B50" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" s="94"/>
+      <c r="D50" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="103"/>
+      <c r="F50" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="56"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="104"/>
+      <c r="T50" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="E50" s="25"/>
-      <c r="F50" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="34"/>
-      <c r="R50" s="34"/>
-      <c r="S50" s="121"/>
-      <c r="T50" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="U50" s="27"/>
-      <c r="V50" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="W50" s="29"/>
+      <c r="U50" s="106"/>
+      <c r="V50" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="W50" s="108"/>
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="8"/>
@@ -5113,50 +5118,50 @@
       <c r="AV50" s="6"/>
     </row>
     <row r="51" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="150" t="s">
-        <v>193</v>
-      </c>
-      <c r="C51" s="150"/>
-      <c r="D51" s="133" t="s">
-        <v>194</v>
-      </c>
-      <c r="E51" s="134"/>
-      <c r="F51" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="G51" s="55"/>
-      <c r="H51" s="133" t="s">
+      <c r="B51" s="100" t="s">
         <v>196</v>
       </c>
-      <c r="I51" s="134"/>
-      <c r="J51" s="54" t="s">
+      <c r="C51" s="101"/>
+      <c r="D51" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E51" s="29"/>
+      <c r="F51" s="100" t="s">
+        <v>198</v>
+      </c>
+      <c r="G51" s="101"/>
+      <c r="H51" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="K51" s="55"/>
-      <c r="L51" s="54" t="s">
+      <c r="I51" s="29"/>
+      <c r="J51" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K51" s="27"/>
+      <c r="L51" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="M51" s="27"/>
+      <c r="N51" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="O51" s="29"/>
+      <c r="P51" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="M51" s="55"/>
-      <c r="N51" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="O51" s="55"/>
-      <c r="P51" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q51" s="55"/>
-      <c r="R51" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="S51" s="55"/>
-      <c r="T51" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="U51" s="55"/>
-      <c r="V51" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="W51" s="38"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="U51" s="29"/>
+      <c r="V51" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="W51" s="30"/>
       <c r="X51" s="6"/>
       <c r="AT51" s="6"/>
       <c r="AU51" s="6"/>
@@ -5165,32 +5170,30 @@
     </row>
     <row r="52" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="124"/>
-      <c r="O52" s="124"/>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="38"/>
-      <c r="R52" s="38"/>
-      <c r="S52" s="38"/>
-      <c r="T52" s="38"/>
-      <c r="U52" s="38"/>
-      <c r="V52" s="122" t="s">
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="97"/>
+      <c r="O52" s="97"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="30"/>
+      <c r="V52" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="W52" s="122"/>
+      <c r="W52" s="96"/>
       <c r="AA52" s="8"/>
       <c r="AB52" s="8"/>
       <c r="AC52" s="8"/>
@@ -5211,36 +5214,36 @@
     </row>
     <row r="53" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="38"/>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="38"/>
-      <c r="R53" s="56" t="s">
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="S53" s="56"/>
-      <c r="T53" s="56" t="s">
+      <c r="S53" s="31"/>
+      <c r="T53" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="U53" s="56"/>
-      <c r="V53" s="56" t="s">
+      <c r="U53" s="31"/>
+      <c r="V53" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="W53" s="56"/>
+      <c r="W53" s="31"/>
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="8"/>
@@ -5268,40 +5271,42 @@
     </row>
     <row r="54" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="112" t="s">
+      <c r="B54" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="112"/>
-      <c r="D54" s="112" t="s">
+      <c r="C54" s="91"/>
+      <c r="D54" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="E54" s="112"/>
-      <c r="F54" s="112" t="s">
+      <c r="E54" s="91"/>
+      <c r="F54" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="112"/>
-      <c r="H54" s="124"/>
-      <c r="I54" s="124"/>
-      <c r="J54" s="51" t="s">
+      <c r="G54" s="91"/>
+      <c r="H54" s="97"/>
+      <c r="I54" s="97"/>
+      <c r="J54" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="124"/>
-      <c r="O54" s="124"/>
-      <c r="P54" s="38"/>
-      <c r="Q54" s="38"/>
-      <c r="R54" s="39" t="s">
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="97"/>
+      <c r="O54" s="97"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="148" t="s">
+        <v>331</v>
+      </c>
+      <c r="S54" s="148"/>
+      <c r="T54" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="S54" s="49"/>
-      <c r="T54" s="49"/>
-      <c r="U54" s="40"/>
-      <c r="V54" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="W54" s="40"/>
+      <c r="U54" s="34"/>
+      <c r="V54" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="W54" s="34"/>
       <c r="X54" s="6"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="8"/>
@@ -5361,51 +5366,51 @@
       <c r="AV55" s="6"/>
       <c r="AW55" s="6"/>
     </row>
-    <row r="56" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
-      <c r="B57" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="24" t="s">
+      <c r="B57" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E57" s="25"/>
-      <c r="F57" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="K57" s="31"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="N57" s="31"/>
-      <c r="O57" s="32"/>
-      <c r="P57" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="31"/>
-      <c r="S57" s="32"/>
-      <c r="T57" s="24" t="s">
+      <c r="C57" s="47"/>
+      <c r="D57" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57" s="53"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="H57" s="53"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K57" s="53"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N57" s="53"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q57" s="53"/>
+      <c r="R57" s="54"/>
+      <c r="S57" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="T57" s="53"/>
+      <c r="U57" s="54"/>
+      <c r="V57" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="U57" s="25"/>
-      <c r="V57" s="146" t="s">
-        <v>38</v>
-      </c>
-      <c r="W57" s="147"/>
+      <c r="W57" s="47"/>
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="8"/>
@@ -5433,38 +5438,38 @@
     </row>
     <row r="58" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="B58" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="C58" s="36"/>
-      <c r="D58" s="24" t="s">
+      <c r="B58" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" s="94"/>
+      <c r="D58" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" s="103"/>
+      <c r="F58" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="56"/>
+      <c r="O58" s="56"/>
+      <c r="P58" s="56"/>
+      <c r="Q58" s="56"/>
+      <c r="R58" s="56"/>
+      <c r="S58" s="104"/>
+      <c r="T58" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="E58" s="25"/>
-      <c r="F58" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="34"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="34"/>
-      <c r="Q58" s="34"/>
-      <c r="R58" s="34"/>
-      <c r="S58" s="121"/>
-      <c r="T58" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="U58" s="27"/>
-      <c r="V58" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="W58" s="29"/>
+      <c r="U58" s="106"/>
+      <c r="V58" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="W58" s="108"/>
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="8"/>
@@ -5491,50 +5496,50 @@
       <c r="AV58" s="6"/>
     </row>
     <row r="59" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="133" t="s">
-        <v>204</v>
-      </c>
-      <c r="C59" s="134"/>
-      <c r="D59" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="E59" s="55"/>
-      <c r="F59" s="133" t="s">
+      <c r="B59" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="G59" s="134"/>
-      <c r="H59" s="54" t="s">
+      <c r="C59" s="101"/>
+      <c r="D59" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="I59" s="55"/>
-      <c r="J59" s="45" t="s">
+      <c r="E59" s="29"/>
+      <c r="F59" s="100" t="s">
         <v>208</v>
       </c>
-      <c r="K59" s="47"/>
-      <c r="L59" s="45" t="s">
+      <c r="G59" s="101"/>
+      <c r="H59" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="M59" s="47"/>
-      <c r="N59" s="54" t="s">
+      <c r="I59" s="29"/>
+      <c r="J59" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="O59" s="55"/>
-      <c r="P59" s="54" t="s">
+      <c r="K59" s="27"/>
+      <c r="L59" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="Q59" s="55"/>
-      <c r="R59" s="54" t="s">
+      <c r="M59" s="27"/>
+      <c r="N59" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="S59" s="55"/>
-      <c r="T59" s="54" t="s">
+      <c r="O59" s="29"/>
+      <c r="P59" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="U59" s="55"/>
-      <c r="V59" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="W59" s="38"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="S59" s="29"/>
+      <c r="T59" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="U59" s="29"/>
+      <c r="V59" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="W59" s="30"/>
       <c r="X59" s="6"/>
       <c r="AT59" s="6"/>
       <c r="AU59" s="6"/>
@@ -5543,50 +5548,50 @@
     </row>
     <row r="60" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38" t="s">
+      <c r="B60" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38" t="s">
+      <c r="C60" s="30"/>
+      <c r="D60" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="I60" s="38"/>
-      <c r="J60" s="45" t="s">
+      <c r="E60" s="30"/>
+      <c r="F60" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="K60" s="47"/>
-      <c r="L60" s="38" t="s">
+      <c r="G60" s="30"/>
+      <c r="H60" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="M60" s="38"/>
-      <c r="N60" s="124" t="s">
+      <c r="I60" s="30"/>
+      <c r="J60" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="O60" s="124"/>
-      <c r="P60" s="38" t="s">
+      <c r="K60" s="27"/>
+      <c r="L60" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="Q60" s="38"/>
-      <c r="R60" s="38" t="s">
+      <c r="M60" s="30"/>
+      <c r="N60" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="S60" s="38"/>
-      <c r="T60" s="38" t="s">
+      <c r="O60" s="97"/>
+      <c r="P60" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="U60" s="38"/>
-      <c r="V60" s="122" t="s">
+      <c r="Q60" s="30"/>
+      <c r="R60" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="S60" s="30"/>
+      <c r="T60" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="U60" s="30"/>
+      <c r="V60" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="W60" s="122"/>
+      <c r="W60" s="96"/>
       <c r="AA60" s="8"/>
       <c r="AB60" s="8"/>
       <c r="AC60" s="8"/>
@@ -5607,50 +5612,50 @@
     </row>
     <row r="61" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38" t="s">
+      <c r="C61" s="30"/>
+      <c r="D61" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38" t="s">
+      <c r="E61" s="30"/>
+      <c r="F61" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38" t="s">
+      <c r="G61" s="30"/>
+      <c r="H61" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="M61" s="38"/>
-      <c r="N61" s="38" t="s">
+      <c r="I61" s="30"/>
+      <c r="J61" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O61" s="38"/>
-      <c r="P61" s="38" t="s">
+      <c r="K61" s="30"/>
+      <c r="L61" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="Q61" s="38"/>
-      <c r="R61" s="56" t="s">
+      <c r="M61" s="30"/>
+      <c r="N61" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q61" s="30"/>
+      <c r="R61" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="S61" s="56"/>
-      <c r="T61" s="56" t="s">
+      <c r="S61" s="31"/>
+      <c r="T61" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="U61" s="56"/>
-      <c r="V61" s="56" t="s">
+      <c r="U61" s="31"/>
+      <c r="V61" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="W61" s="56"/>
+      <c r="W61" s="31"/>
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
       <c r="AA61" s="8"/>
@@ -5678,44 +5683,48 @@
     </row>
     <row r="62" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="112" t="s">
+      <c r="B62" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="112"/>
-      <c r="D62" s="112" t="s">
+      <c r="C62" s="91"/>
+      <c r="D62" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="E62" s="112"/>
-      <c r="F62" s="112" t="s">
+      <c r="E62" s="91"/>
+      <c r="F62" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G62" s="112"/>
-      <c r="H62" s="124" t="s">
-        <v>231</v>
-      </c>
-      <c r="I62" s="124"/>
-      <c r="J62" s="51" t="s">
+      <c r="G62" s="91"/>
+      <c r="H62" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="I62" s="97"/>
+      <c r="J62" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="K62" s="53"/>
-      <c r="L62" s="53"/>
-      <c r="M62" s="53"/>
-      <c r="N62" s="53"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="124" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q62" s="124"/>
-      <c r="R62" s="39" t="s">
+      <c r="K62" s="45"/>
+      <c r="L62" s="45"/>
+      <c r="M62" s="45"/>
+      <c r="N62" s="97" t="s">
+        <v>234</v>
+      </c>
+      <c r="O62" s="97"/>
+      <c r="P62" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="148" t="s">
+        <v>331</v>
+      </c>
+      <c r="S62" s="148"/>
+      <c r="T62" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="S62" s="49"/>
-      <c r="T62" s="49"/>
-      <c r="U62" s="40"/>
-      <c r="V62" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="W62" s="40"/>
+      <c r="U62" s="34"/>
+      <c r="V62" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="W62" s="34"/>
       <c r="X62" s="6"/>
       <c r="AE62" s="8"/>
       <c r="AF62" s="8"/>
@@ -5772,51 +5781,51 @@
       <c r="AV63" s="6"/>
       <c r="AW63" s="6"/>
     </row>
-    <row r="64" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
-      <c r="B65" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="C65" s="29"/>
-      <c r="D65" s="24" t="s">
+      <c r="B65" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E65" s="25"/>
-      <c r="F65" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="K65" s="31"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="N65" s="31"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q65" s="31"/>
-      <c r="R65" s="31"/>
-      <c r="S65" s="32"/>
-      <c r="T65" s="24" t="s">
+      <c r="C65" s="47"/>
+      <c r="D65" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E65" s="53"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="H65" s="53"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K65" s="53"/>
+      <c r="L65" s="54"/>
+      <c r="M65" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N65" s="53"/>
+      <c r="O65" s="54"/>
+      <c r="P65" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q65" s="53"/>
+      <c r="R65" s="54"/>
+      <c r="S65" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="T65" s="53"/>
+      <c r="U65" s="54"/>
+      <c r="V65" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="U65" s="25"/>
-      <c r="V65" s="146" t="s">
-        <v>38</v>
-      </c>
-      <c r="W65" s="147"/>
+      <c r="W65" s="47"/>
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
       <c r="AA65" s="8"/>
@@ -5844,38 +5853,38 @@
     </row>
     <row r="66" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
-      <c r="B66" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="C66" s="36"/>
-      <c r="D66" s="24" t="s">
+      <c r="B66" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" s="94"/>
+      <c r="D66" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E66" s="103"/>
+      <c r="F66" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G66" s="56"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="56"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="56"/>
+      <c r="L66" s="56"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="56"/>
+      <c r="O66" s="56"/>
+      <c r="P66" s="56"/>
+      <c r="Q66" s="56"/>
+      <c r="R66" s="56"/>
+      <c r="S66" s="104"/>
+      <c r="T66" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="E66" s="25"/>
-      <c r="F66" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="34"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="121"/>
-      <c r="T66" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="U66" s="27"/>
-      <c r="V66" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="W66" s="29"/>
+      <c r="U66" s="106"/>
+      <c r="V66" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="W66" s="108"/>
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="8"/>
@@ -5902,50 +5911,50 @@
       <c r="AV66" s="6"/>
     </row>
     <row r="67" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="150" t="s">
-        <v>233</v>
-      </c>
-      <c r="C67" s="150"/>
-      <c r="D67" s="133" t="s">
-        <v>234</v>
-      </c>
-      <c r="E67" s="134"/>
-      <c r="F67" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="G67" s="55"/>
-      <c r="H67" s="133" t="s">
+      <c r="B67" s="100" t="s">
         <v>236</v>
       </c>
-      <c r="I67" s="134"/>
-      <c r="J67" s="54" t="s">
+      <c r="C67" s="101"/>
+      <c r="D67" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="K67" s="55"/>
-      <c r="L67" s="54" t="s">
+      <c r="E67" s="29"/>
+      <c r="F67" s="100" t="s">
         <v>238</v>
       </c>
-      <c r="M67" s="55"/>
-      <c r="N67" s="54" t="s">
+      <c r="G67" s="101"/>
+      <c r="H67" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="O67" s="55"/>
-      <c r="P67" s="54" t="s">
+      <c r="I67" s="29"/>
+      <c r="J67" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="Q67" s="55"/>
-      <c r="R67" s="54" t="s">
+      <c r="K67" s="27"/>
+      <c r="L67" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="S67" s="55"/>
-      <c r="T67" s="54" t="s">
+      <c r="M67" s="27"/>
+      <c r="N67" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="U67" s="55"/>
-      <c r="V67" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="W67" s="38"/>
+      <c r="O67" s="29"/>
+      <c r="P67" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="S67" s="29"/>
+      <c r="T67" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="U67" s="29"/>
+      <c r="V67" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="W67" s="30"/>
       <c r="X67" s="6"/>
       <c r="AT67" s="6"/>
       <c r="AU67" s="6"/>
@@ -5954,50 +5963,50 @@
     </row>
     <row r="68" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="E68" s="38"/>
-      <c r="F68" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="G68" s="47"/>
-      <c r="H68" s="45" t="s">
+      <c r="B68" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I68" s="47"/>
-      <c r="J68" s="45" t="s">
+      <c r="C68" s="30"/>
+      <c r="D68" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="K68" s="47"/>
-      <c r="L68" s="45" t="s">
+      <c r="E68" s="30"/>
+      <c r="F68" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="M68" s="47"/>
-      <c r="N68" s="45" t="s">
+      <c r="G68" s="30"/>
+      <c r="H68" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="O68" s="47"/>
-      <c r="P68" s="59" t="s">
+      <c r="I68" s="30"/>
+      <c r="J68" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="Q68" s="60"/>
-      <c r="R68" s="45" t="s">
+      <c r="K68" s="27"/>
+      <c r="L68" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="S68" s="47"/>
-      <c r="T68" s="45" t="s">
+      <c r="M68" s="30"/>
+      <c r="N68" s="97" t="s">
         <v>252</v>
       </c>
-      <c r="U68" s="47"/>
-      <c r="V68" s="122" t="s">
+      <c r="O68" s="97"/>
+      <c r="P68" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q68" s="30"/>
+      <c r="R68" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="S68" s="30"/>
+      <c r="T68" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="U68" s="30"/>
+      <c r="V68" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="W68" s="122"/>
+      <c r="W68" s="96"/>
       <c r="AA68" s="8"/>
       <c r="AB68" s="8"/>
       <c r="AC68" s="8"/>
@@ -6018,50 +6027,50 @@
     </row>
     <row r="69" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="38" t="s">
+      <c r="B69" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="E69" s="38"/>
-      <c r="F69" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="G69" s="47"/>
-      <c r="H69" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="I69" s="47"/>
-      <c r="J69" s="45" t="s">
+      <c r="C69" s="30"/>
+      <c r="D69" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="K69" s="47"/>
-      <c r="L69" s="45" t="s">
+      <c r="E69" s="30"/>
+      <c r="F69" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="M69" s="47"/>
-      <c r="N69" s="45" t="s">
+      <c r="G69" s="30"/>
+      <c r="H69" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="O69" s="47"/>
-      <c r="P69" s="45" t="s">
+      <c r="I69" s="30"/>
+      <c r="J69" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="Q69" s="47"/>
-      <c r="R69" s="56" t="s">
+      <c r="K69" s="30"/>
+      <c r="L69" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="M69" s="30"/>
+      <c r="N69" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="O69" s="30"/>
+      <c r="P69" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q69" s="30"/>
+      <c r="R69" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="S69" s="56"/>
-      <c r="T69" s="56" t="s">
+      <c r="S69" s="31"/>
+      <c r="T69" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="U69" s="56"/>
-      <c r="V69" s="56" t="s">
+      <c r="U69" s="31"/>
+      <c r="V69" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="W69" s="56"/>
+      <c r="W69" s="31"/>
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
       <c r="AA69" s="8"/>
@@ -6089,44 +6098,48 @@
     </row>
     <row r="70" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="112" t="s">
+      <c r="B70" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="112"/>
-      <c r="D70" s="112" t="s">
+      <c r="C70" s="91"/>
+      <c r="D70" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="E70" s="112"/>
-      <c r="F70" s="112" t="s">
+      <c r="E70" s="91"/>
+      <c r="F70" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G70" s="112"/>
-      <c r="H70" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="I70" s="38"/>
-      <c r="J70" s="51" t="s">
+      <c r="G70" s="91"/>
+      <c r="H70" s="97" t="s">
+        <v>266</v>
+      </c>
+      <c r="I70" s="97"/>
+      <c r="J70" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="K70" s="53"/>
-      <c r="L70" s="53"/>
-      <c r="M70" s="53"/>
-      <c r="N70" s="53"/>
-      <c r="O70" s="52"/>
-      <c r="P70" s="124" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q70" s="124"/>
-      <c r="R70" s="39" t="s">
+      <c r="K70" s="45"/>
+      <c r="L70" s="45"/>
+      <c r="M70" s="45"/>
+      <c r="N70" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="O70" s="95"/>
+      <c r="P70" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q70" s="30"/>
+      <c r="R70" s="148" t="s">
+        <v>331</v>
+      </c>
+      <c r="S70" s="148"/>
+      <c r="T70" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="S70" s="49"/>
-      <c r="T70" s="49"/>
-      <c r="U70" s="40"/>
-      <c r="V70" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="W70" s="40"/>
+      <c r="U70" s="34"/>
+      <c r="V70" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="W70" s="34"/>
       <c r="X70" s="6"/>
       <c r="AE70" s="8"/>
       <c r="AF70" s="8"/>
@@ -6183,51 +6196,51 @@
       <c r="AV71" s="6"/>
       <c r="AW71" s="6"/>
     </row>
-    <row r="72" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
-      <c r="B73" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="C73" s="29"/>
-      <c r="D73" s="24" t="s">
+      <c r="B73" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E73" s="25"/>
-      <c r="F73" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="K73" s="31"/>
-      <c r="L73" s="32"/>
-      <c r="M73" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="N73" s="31"/>
-      <c r="O73" s="32"/>
-      <c r="P73" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q73" s="31"/>
-      <c r="R73" s="31"/>
-      <c r="S73" s="32"/>
-      <c r="T73" s="24" t="s">
+      <c r="C73" s="47"/>
+      <c r="D73" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E73" s="53"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="H73" s="53"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K73" s="53"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N73" s="53"/>
+      <c r="O73" s="54"/>
+      <c r="P73" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q73" s="53"/>
+      <c r="R73" s="54"/>
+      <c r="S73" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="T73" s="53"/>
+      <c r="U73" s="54"/>
+      <c r="V73" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="U73" s="25"/>
-      <c r="V73" s="146" t="s">
-        <v>38</v>
-      </c>
-      <c r="W73" s="147"/>
+      <c r="W73" s="47"/>
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
       <c r="AA73" s="8"/>
@@ -6255,38 +6268,38 @@
     </row>
     <row r="74" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
-      <c r="B74" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="C74" s="36"/>
-      <c r="D74" s="24" t="s">
+      <c r="B74" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C74" s="94"/>
+      <c r="D74" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E74" s="103"/>
+      <c r="F74" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G74" s="56"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="56"/>
+      <c r="L74" s="56"/>
+      <c r="M74" s="56"/>
+      <c r="N74" s="56"/>
+      <c r="O74" s="56"/>
+      <c r="P74" s="56"/>
+      <c r="Q74" s="56"/>
+      <c r="R74" s="56"/>
+      <c r="S74" s="104"/>
+      <c r="T74" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="E74" s="25"/>
-      <c r="F74" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="34"/>
-      <c r="L74" s="34"/>
-      <c r="M74" s="34"/>
-      <c r="N74" s="34"/>
-      <c r="O74" s="34"/>
-      <c r="P74" s="34"/>
-      <c r="Q74" s="34"/>
-      <c r="R74" s="34"/>
-      <c r="S74" s="121"/>
-      <c r="T74" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="U74" s="27"/>
-      <c r="V74" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="W74" s="29"/>
+      <c r="U74" s="106"/>
+      <c r="V74" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="W74" s="108"/>
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
       <c r="AA74" s="8"/>
@@ -6313,50 +6326,50 @@
       <c r="AV74" s="6"/>
     </row>
     <row r="75" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="151" t="s">
-        <v>265</v>
-      </c>
-      <c r="C75" s="151"/>
-      <c r="D75" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="E75" s="38"/>
-      <c r="F75" s="133" t="s">
-        <v>267</v>
-      </c>
-      <c r="G75" s="134"/>
-      <c r="H75" s="54" t="s">
-        <v>268</v>
-      </c>
-      <c r="I75" s="55"/>
-      <c r="J75" s="54" t="s">
+      <c r="B75" s="100" t="s">
         <v>269</v>
       </c>
-      <c r="K75" s="55"/>
-      <c r="L75" s="54" t="s">
+      <c r="C75" s="101"/>
+      <c r="D75" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="M75" s="55"/>
-      <c r="N75" s="54" t="s">
+      <c r="E75" s="29"/>
+      <c r="F75" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="O75" s="55"/>
-      <c r="P75" s="54" t="s">
+      <c r="G75" s="29"/>
+      <c r="H75" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="Q75" s="55"/>
-      <c r="R75" s="54" t="s">
+      <c r="I75" s="29"/>
+      <c r="J75" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="S75" s="55"/>
-      <c r="T75" s="54" t="s">
+      <c r="K75" s="29"/>
+      <c r="L75" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="U75" s="55"/>
-      <c r="V75" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="W75" s="38"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="O75" s="29"/>
+      <c r="P75" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q75" s="29"/>
+      <c r="R75" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="S75" s="30"/>
+      <c r="T75" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="U75" s="30"/>
+      <c r="V75" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="W75" s="30"/>
       <c r="X75" s="6"/>
       <c r="AT75" s="6"/>
       <c r="AU75" s="6"/>
@@ -6365,50 +6378,50 @@
     </row>
     <row r="76" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="E76" s="38"/>
-      <c r="F76" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="G76" s="47"/>
-      <c r="H76" s="45" t="s">
-        <v>278</v>
-      </c>
-      <c r="I76" s="47"/>
-      <c r="J76" s="45" t="s">
+      <c r="B76" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="K76" s="47"/>
-      <c r="L76" s="45" t="s">
+      <c r="C76" s="27"/>
+      <c r="D76" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="M76" s="47"/>
-      <c r="N76" s="59" t="s">
+      <c r="E76" s="27"/>
+      <c r="F76" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="O76" s="60"/>
-      <c r="P76" s="45" t="s">
+      <c r="G76" s="27"/>
+      <c r="H76" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="Q76" s="47"/>
-      <c r="R76" s="45" t="s">
+      <c r="I76" s="27"/>
+      <c r="J76" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="S76" s="47"/>
-      <c r="T76" s="45" t="s">
+      <c r="K76" s="60"/>
+      <c r="L76" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="U76" s="47"/>
-      <c r="V76" s="122" t="s">
+      <c r="M76" s="27"/>
+      <c r="N76" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="O76" s="30"/>
+      <c r="P76" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q76" s="30"/>
+      <c r="R76" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="S76" s="30"/>
+      <c r="T76" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="U76" s="30"/>
+      <c r="V76" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="W76" s="122"/>
+      <c r="W76" s="96"/>
       <c r="AA76" s="8"/>
       <c r="AB76" s="8"/>
       <c r="AC76" s="8"/>
@@ -6429,50 +6442,46 @@
     </row>
     <row r="77" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="38" t="s">
+      <c r="B77" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="38"/>
-      <c r="D77" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="E77" s="47"/>
-      <c r="F77" s="38" t="s">
-        <v>286</v>
-      </c>
-      <c r="G77" s="38"/>
-      <c r="H77" s="45" t="s">
-        <v>287</v>
-      </c>
-      <c r="I77" s="47"/>
-      <c r="J77" s="45" t="s">
-        <v>288</v>
-      </c>
-      <c r="K77" s="47"/>
-      <c r="L77" s="45" t="s">
+      <c r="C77" s="30"/>
+      <c r="D77" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="M77" s="47"/>
-      <c r="N77" s="59" t="s">
+      <c r="E77" s="27"/>
+      <c r="F77" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="O77" s="60"/>
-      <c r="P77" s="59" t="s">
+      <c r="G77" s="27"/>
+      <c r="H77" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="Q77" s="60"/>
-      <c r="R77" s="56" t="s">
+      <c r="I77" s="27"/>
+      <c r="J77" s="59" t="s">
+        <v>292</v>
+      </c>
+      <c r="K77" s="60"/>
+      <c r="L77" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="M77" s="60"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="30"/>
+      <c r="P77" s="30"/>
+      <c r="Q77" s="30"/>
+      <c r="R77" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="S77" s="56"/>
-      <c r="T77" s="56" t="s">
+      <c r="S77" s="31"/>
+      <c r="T77" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="U77" s="56"/>
-      <c r="V77" s="56" t="s">
+      <c r="U77" s="31"/>
+      <c r="V77" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="W77" s="56"/>
+      <c r="W77" s="31"/>
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
       <c r="AA77" s="8"/>
@@ -6500,40 +6509,42 @@
     </row>
     <row r="78" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="112" t="s">
+      <c r="B78" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="112"/>
-      <c r="D78" s="112" t="s">
+      <c r="C78" s="91"/>
+      <c r="D78" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="E78" s="112"/>
-      <c r="F78" s="112" t="s">
+      <c r="E78" s="91"/>
+      <c r="F78" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G78" s="112"/>
-      <c r="H78" s="124"/>
-      <c r="I78" s="124"/>
-      <c r="J78" s="51" t="s">
+      <c r="G78" s="91"/>
+      <c r="H78" s="97"/>
+      <c r="I78" s="97"/>
+      <c r="J78" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="K78" s="53"/>
-      <c r="L78" s="53"/>
-      <c r="M78" s="53"/>
-      <c r="N78" s="53"/>
-      <c r="O78" s="52"/>
-      <c r="P78" s="38"/>
-      <c r="Q78" s="38"/>
-      <c r="R78" s="39" t="s">
+      <c r="K78" s="45"/>
+      <c r="L78" s="45"/>
+      <c r="M78" s="45"/>
+      <c r="N78" s="95"/>
+      <c r="O78" s="95"/>
+      <c r="P78" s="30"/>
+      <c r="Q78" s="30"/>
+      <c r="R78" s="148" t="s">
+        <v>331</v>
+      </c>
+      <c r="S78" s="148"/>
+      <c r="T78" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="S78" s="49"/>
-      <c r="T78" s="49"/>
-      <c r="U78" s="40"/>
-      <c r="V78" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="W78" s="40"/>
+      <c r="U78" s="34"/>
+      <c r="V78" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="W78" s="34"/>
       <c r="X78" s="6"/>
       <c r="Z78" s="6"/>
       <c r="AA78" s="8"/>
@@ -6593,52 +6604,52 @@
       <c r="AV79" s="6"/>
       <c r="AW79" s="6"/>
     </row>
-    <row r="80" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="83" t="s">
+    <row r="81" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="D81" s="83"/>
-      <c r="E81" s="83" t="s">
+      <c r="D81" s="92"/>
+      <c r="E81" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="F81" s="83"/>
-      <c r="G81" s="83" t="s">
+      <c r="F81" s="92"/>
+      <c r="G81" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="H81" s="83"/>
-      <c r="I81" s="83" t="s">
+      <c r="H81" s="92"/>
+      <c r="I81" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="J81" s="83"/>
-      <c r="K81" s="83" t="s">
+      <c r="J81" s="92"/>
+      <c r="K81" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="L81" s="83"/>
-      <c r="M81" s="83" t="s">
+      <c r="L81" s="92"/>
+      <c r="M81" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="N81" s="83"/>
-      <c r="O81" s="83" t="s">
+      <c r="N81" s="92"/>
+      <c r="O81" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="P81" s="83"/>
-      <c r="Q81" s="83" t="s">
+      <c r="P81" s="92"/>
+      <c r="Q81" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="R81" s="83"/>
-      <c r="S81" s="83" t="s">
+      <c r="R81" s="92"/>
+      <c r="S81" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="T81" s="83"/>
-      <c r="U81" s="83" t="s">
+      <c r="T81" s="92"/>
+      <c r="U81" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="V81" s="83"/>
+      <c r="V81" s="92"/>
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
       <c r="Y81" s="5"/>
@@ -6647,183 +6658,185 @@
     </row>
     <row r="82" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="85" t="s">
+      <c r="B82" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="86"/>
-      <c r="D82" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="E82" s="86"/>
-      <c r="F82" s="69" t="s">
+      <c r="C82" s="119"/>
+      <c r="D82" s="118" t="s">
+        <v>117</v>
+      </c>
+      <c r="E82" s="119"/>
+      <c r="F82" s="126" t="s">
         <v>112</v>
       </c>
-      <c r="G82" s="69"/>
-      <c r="H82" s="69" t="s">
+      <c r="G82" s="126"/>
+      <c r="H82" s="126" t="s">
         <v>113</v>
       </c>
-      <c r="I82" s="69"/>
-      <c r="J82" s="87" t="s">
+      <c r="I82" s="126"/>
+      <c r="J82" s="120" t="s">
         <v>108</v>
       </c>
-      <c r="K82" s="88"/>
-      <c r="L82" s="87" t="s">
+      <c r="K82" s="121"/>
+      <c r="L82" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="M82" s="88"/>
-      <c r="N82" s="87" t="s">
+      <c r="M82" s="121"/>
+      <c r="N82" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="O82" s="88"/>
-      <c r="P82" s="85" t="s">
+      <c r="O82" s="121"/>
+      <c r="P82" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="Q82" s="86"/>
-      <c r="R82" s="85" t="s">
+      <c r="Q82" s="119"/>
+      <c r="R82" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="S82" s="86"/>
-      <c r="T82" s="85" t="s">
+      <c r="S82" s="119"/>
+      <c r="T82" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="U82" s="86"/>
-      <c r="V82" s="77" t="s">
+      <c r="U82" s="119"/>
+      <c r="V82" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="W82" s="77"/>
+      <c r="W82" s="145"/>
     </row>
     <row r="83" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="38" t="s">
+      <c r="B83" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="38"/>
-      <c r="D83" s="87" t="s">
+      <c r="C83" s="30"/>
+      <c r="D83" s="120" t="s">
+        <v>120</v>
+      </c>
+      <c r="E83" s="121"/>
+      <c r="F83" s="120" t="s">
+        <v>118</v>
+      </c>
+      <c r="G83" s="121"/>
+      <c r="H83" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="E83" s="88"/>
-      <c r="F83" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="G83" s="88"/>
-      <c r="H83" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="I83" s="88"/>
-      <c r="J83" s="85" t="s">
+      <c r="I83" s="121"/>
+      <c r="J83" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="K83" s="86"/>
-      <c r="L83" s="85" t="s">
+      <c r="K83" s="119"/>
+      <c r="L83" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="M83" s="86"/>
-      <c r="N83" s="85" t="s">
+      <c r="M83" s="119"/>
+      <c r="N83" s="118" t="s">
         <v>107</v>
       </c>
-      <c r="O83" s="86"/>
-      <c r="P83" s="87" t="s">
+      <c r="O83" s="119"/>
+      <c r="P83" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="Q83" s="88"/>
-      <c r="R83" s="56" t="s">
+      <c r="Q83" s="121"/>
+      <c r="R83" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="S83" s="56"/>
-      <c r="T83" s="56" t="s">
+      <c r="S83" s="31"/>
+      <c r="T83" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="U83" s="56"/>
-      <c r="V83" s="84" t="s">
+      <c r="U83" s="31"/>
+      <c r="V83" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="W83" s="84"/>
+      <c r="W83" s="136"/>
     </row>
     <row r="84" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="112" t="s">
+      <c r="B84" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C84" s="112"/>
-      <c r="D84" s="112" t="s">
+      <c r="C84" s="91"/>
+      <c r="D84" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="E84" s="112"/>
-      <c r="F84" s="112" t="s">
+      <c r="E84" s="91"/>
+      <c r="F84" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G84" s="112"/>
-      <c r="H84" s="87"/>
-      <c r="I84" s="88"/>
-      <c r="J84" s="51" t="s">
+      <c r="G84" s="91"/>
+      <c r="H84" s="120"/>
+      <c r="I84" s="121"/>
+      <c r="J84" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="K84" s="53"/>
-      <c r="L84" s="53"/>
-      <c r="M84" s="53"/>
-      <c r="N84" s="53"/>
-      <c r="O84" s="52"/>
-      <c r="P84" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q84" s="86"/>
-      <c r="R84" s="39" t="s">
+      <c r="K84" s="45"/>
+      <c r="L84" s="45"/>
+      <c r="M84" s="44"/>
+      <c r="N84" s="118"/>
+      <c r="O84" s="119"/>
+      <c r="P84" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q84" s="119"/>
+      <c r="R84" s="148" t="s">
+        <v>331</v>
+      </c>
+      <c r="S84" s="148"/>
+      <c r="T84" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="S84" s="49"/>
-      <c r="T84" s="49"/>
-      <c r="U84" s="40"/>
-      <c r="V84" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="W84" s="40"/>
+      <c r="U84" s="34"/>
+      <c r="V84" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="W84" s="34"/>
       <c r="X84" s="5"/>
     </row>
-    <row r="86" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
-      <c r="B87" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="24" t="s">
+      <c r="B87" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E87" s="25"/>
-      <c r="F87" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="K87" s="31"/>
-      <c r="L87" s="32"/>
-      <c r="M87" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="N87" s="31"/>
-      <c r="O87" s="32"/>
-      <c r="P87" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q87" s="31"/>
-      <c r="R87" s="31"/>
-      <c r="S87" s="32"/>
-      <c r="T87" s="24" t="s">
+      <c r="C87" s="47"/>
+      <c r="D87" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E87" s="53"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="H87" s="53"/>
+      <c r="I87" s="54"/>
+      <c r="J87" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K87" s="53"/>
+      <c r="L87" s="54"/>
+      <c r="M87" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N87" s="53"/>
+      <c r="O87" s="54"/>
+      <c r="P87" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q87" s="53"/>
+      <c r="R87" s="54"/>
+      <c r="S87" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="T87" s="53"/>
+      <c r="U87" s="54"/>
+      <c r="V87" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="U87" s="25"/>
-      <c r="V87" s="146" t="s">
-        <v>38</v>
-      </c>
-      <c r="W87" s="147"/>
+      <c r="W87" s="47"/>
       <c r="Z87" s="5"/>
       <c r="AA87" s="8"/>
       <c r="AB87" s="8"/>
@@ -6847,38 +6860,38 @@
     </row>
     <row r="88" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
-      <c r="B88" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="C88" s="36"/>
-      <c r="D88" s="24" t="s">
+      <c r="B88" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C88" s="94"/>
+      <c r="D88" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E88" s="103"/>
+      <c r="F88" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G88" s="56"/>
+      <c r="H88" s="56"/>
+      <c r="I88" s="56"/>
+      <c r="J88" s="56"/>
+      <c r="K88" s="56"/>
+      <c r="L88" s="56"/>
+      <c r="M88" s="56"/>
+      <c r="N88" s="56"/>
+      <c r="O88" s="56"/>
+      <c r="P88" s="56"/>
+      <c r="Q88" s="56"/>
+      <c r="R88" s="56"/>
+      <c r="S88" s="104"/>
+      <c r="T88" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="E88" s="25"/>
-      <c r="F88" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="34"/>
-      <c r="K88" s="34"/>
-      <c r="L88" s="34"/>
-      <c r="M88" s="34"/>
-      <c r="N88" s="34"/>
-      <c r="O88" s="34"/>
-      <c r="P88" s="34"/>
-      <c r="Q88" s="34"/>
-      <c r="R88" s="34"/>
-      <c r="S88" s="121"/>
-      <c r="T88" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="U88" s="27"/>
-      <c r="V88" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="W88" s="29"/>
+      <c r="U88" s="106"/>
+      <c r="V88" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="W88" s="108"/>
       <c r="Z88" s="5"/>
       <c r="AA88" s="8"/>
       <c r="AB88" s="8"/>
@@ -6900,14 +6913,14 @@
       <c r="AV88" s="5"/>
       <c r="AW88" s="5"/>
     </row>
-    <row r="90" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="91" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="59" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C91" s="60"/>
       <c r="D91" s="59" t="s">
@@ -6915,11 +6928,11 @@
       </c>
       <c r="E91" s="60"/>
       <c r="F91" s="59" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G91" s="60"/>
       <c r="I91" s="59" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J91" s="60"/>
       <c r="K91" s="59" t="s">
@@ -6927,19 +6940,19 @@
       </c>
       <c r="L91" s="60"/>
       <c r="M91" s="59" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N91" s="60"/>
-      <c r="P91" s="67" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q91" s="93"/>
-      <c r="R91" s="94"/>
-      <c r="S91" s="137" t="s">
-        <v>309</v>
-      </c>
-      <c r="T91" s="138"/>
-      <c r="U91" s="139"/>
+      <c r="P91" s="61" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q91" s="62"/>
+      <c r="R91" s="63"/>
+      <c r="S91" s="85" t="s">
+        <v>311</v>
+      </c>
+      <c r="T91" s="86"/>
+      <c r="U91" s="87"/>
     </row>
     <row r="92" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="59" t="s">
@@ -6947,7 +6960,7 @@
       </c>
       <c r="C92" s="60"/>
       <c r="D92" s="59" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E92" s="60"/>
       <c r="F92" s="59" t="s">
@@ -6959,35 +6972,35 @@
       </c>
       <c r="J92" s="60"/>
       <c r="K92" s="59" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L92" s="60"/>
       <c r="M92" s="59" t="s">
         <v>5</v>
       </c>
       <c r="N92" s="60"/>
-      <c r="P92" s="95"/>
-      <c r="Q92" s="96"/>
-      <c r="R92" s="97"/>
-      <c r="S92" s="140"/>
-      <c r="T92" s="141"/>
-      <c r="U92" s="142"/>
+      <c r="P92" s="67"/>
+      <c r="Q92" s="68"/>
+      <c r="R92" s="69"/>
+      <c r="S92" s="88"/>
+      <c r="T92" s="89"/>
+      <c r="U92" s="90"/>
     </row>
     <row r="93" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="59" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C93" s="60"/>
       <c r="D93" s="59" t="s">
         <v>12</v>
       </c>
       <c r="E93" s="60"/>
-      <c r="F93" s="67" t="s">
-        <v>306</v>
-      </c>
-      <c r="G93" s="94"/>
-      <c r="I93" s="67" t="s">
-        <v>305</v>
+      <c r="F93" s="61" t="s">
+        <v>308</v>
+      </c>
+      <c r="G93" s="63"/>
+      <c r="I93" s="61" t="s">
+        <v>307</v>
       </c>
       <c r="J93" s="60"/>
       <c r="K93" s="59" t="s">
@@ -6995,17 +7008,17 @@
       </c>
       <c r="L93" s="60"/>
       <c r="M93" s="59" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N93" s="60"/>
-      <c r="P93" s="67" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q93" s="93"/>
-      <c r="R93" s="93"/>
-      <c r="S93" s="93"/>
-      <c r="T93" s="93"/>
-      <c r="U93" s="94"/>
+      <c r="P93" s="61" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q93" s="62"/>
+      <c r="R93" s="62"/>
+      <c r="S93" s="62"/>
+      <c r="T93" s="62"/>
+      <c r="U93" s="63"/>
     </row>
     <row r="94" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="12"/>
@@ -7020,12 +7033,12 @@
       <c r="L94" s="15"/>
       <c r="M94" s="15"/>
       <c r="N94" s="16"/>
-      <c r="P94" s="143"/>
-      <c r="Q94" s="144"/>
-      <c r="R94" s="144"/>
-      <c r="S94" s="144"/>
-      <c r="T94" s="144"/>
-      <c r="U94" s="145"/>
+      <c r="P94" s="64"/>
+      <c r="Q94" s="65"/>
+      <c r="R94" s="65"/>
+      <c r="S94" s="65"/>
+      <c r="T94" s="65"/>
+      <c r="U94" s="66"/>
       <c r="W94" s="22"/>
       <c r="X94" s="22"/>
       <c r="Y94" s="22"/>
@@ -7035,40 +7048,40 @@
     </row>
     <row r="95" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="59" t="s">
-        <v>307</v>
-      </c>
-      <c r="C95" s="92"/>
-      <c r="D95" s="92"/>
-      <c r="E95" s="92"/>
-      <c r="F95" s="92"/>
+        <v>309</v>
+      </c>
+      <c r="C95" s="70"/>
+      <c r="D95" s="70"/>
+      <c r="E95" s="70"/>
+      <c r="F95" s="70"/>
       <c r="G95" s="60"/>
       <c r="H95" s="11"/>
       <c r="I95" s="59" t="s">
-        <v>310</v>
-      </c>
-      <c r="J95" s="92"/>
+        <v>312</v>
+      </c>
+      <c r="J95" s="70"/>
       <c r="K95" s="60"/>
       <c r="L95" s="59" t="s">
-        <v>311</v>
-      </c>
-      <c r="M95" s="92"/>
+        <v>313</v>
+      </c>
+      <c r="M95" s="70"/>
       <c r="N95" s="60"/>
-      <c r="P95" s="95"/>
-      <c r="Q95" s="96"/>
-      <c r="R95" s="96"/>
-      <c r="S95" s="96"/>
-      <c r="T95" s="96"/>
-      <c r="U95" s="97"/>
+      <c r="P95" s="67"/>
+      <c r="Q95" s="68"/>
+      <c r="R95" s="68"/>
+      <c r="S95" s="68"/>
+      <c r="T95" s="68"/>
+      <c r="U95" s="69"/>
       <c r="V95" s="11"/>
     </row>
-    <row r="97" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="98" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="59" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C98" s="60"/>
       <c r="D98" s="59" t="s">
@@ -7076,11 +7089,11 @@
       </c>
       <c r="E98" s="60"/>
       <c r="F98" s="59" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G98" s="60"/>
       <c r="I98" s="59" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J98" s="60"/>
       <c r="K98" s="59" t="s">
@@ -7088,19 +7101,19 @@
       </c>
       <c r="L98" s="60"/>
       <c r="M98" s="59" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N98" s="60"/>
-      <c r="P98" s="67" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q98" s="93"/>
-      <c r="R98" s="94"/>
-      <c r="S98" s="137" t="s">
-        <v>309</v>
-      </c>
-      <c r="T98" s="138"/>
-      <c r="U98" s="139"/>
+      <c r="P98" s="61" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q98" s="62"/>
+      <c r="R98" s="63"/>
+      <c r="S98" s="85" t="s">
+        <v>311</v>
+      </c>
+      <c r="T98" s="86"/>
+      <c r="U98" s="87"/>
     </row>
     <row r="99" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="59" t="s">
@@ -7108,7 +7121,7 @@
       </c>
       <c r="C99" s="60"/>
       <c r="D99" s="59" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E99" s="60"/>
       <c r="F99" s="59" t="s">
@@ -7120,35 +7133,35 @@
       </c>
       <c r="J99" s="60"/>
       <c r="K99" s="59" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L99" s="60"/>
       <c r="M99" s="59" t="s">
         <v>5</v>
       </c>
       <c r="N99" s="60"/>
-      <c r="P99" s="95"/>
-      <c r="Q99" s="96"/>
-      <c r="R99" s="97"/>
-      <c r="S99" s="140"/>
-      <c r="T99" s="141"/>
-      <c r="U99" s="142"/>
+      <c r="P99" s="67"/>
+      <c r="Q99" s="68"/>
+      <c r="R99" s="69"/>
+      <c r="S99" s="88"/>
+      <c r="T99" s="89"/>
+      <c r="U99" s="90"/>
     </row>
     <row r="100" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="67" t="s">
-        <v>305</v>
-      </c>
-      <c r="C100" s="94"/>
-      <c r="D100" s="67" t="s">
+      <c r="B100" s="61" t="s">
+        <v>307</v>
+      </c>
+      <c r="C100" s="63"/>
+      <c r="D100" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="94"/>
-      <c r="F100" s="67" t="s">
-        <v>306</v>
-      </c>
-      <c r="G100" s="94"/>
+      <c r="E100" s="63"/>
+      <c r="F100" s="61" t="s">
+        <v>308</v>
+      </c>
+      <c r="G100" s="63"/>
       <c r="I100" s="59" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J100" s="60"/>
       <c r="K100" s="59" t="s">
@@ -7156,17 +7169,17 @@
       </c>
       <c r="L100" s="60"/>
       <c r="M100" s="59" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N100" s="60"/>
-      <c r="P100" s="67" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q100" s="93"/>
-      <c r="R100" s="93"/>
-      <c r="S100" s="93"/>
-      <c r="T100" s="93"/>
-      <c r="U100" s="94"/>
+      <c r="P100" s="61" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q100" s="62"/>
+      <c r="R100" s="62"/>
+      <c r="S100" s="62"/>
+      <c r="T100" s="62"/>
+      <c r="U100" s="63"/>
       <c r="V100" s="23"/>
       <c r="W100" s="23"/>
       <c r="X100" s="23"/>
@@ -7188,12 +7201,12 @@
       <c r="L101" s="17"/>
       <c r="M101" s="17"/>
       <c r="N101" s="18"/>
-      <c r="P101" s="143"/>
-      <c r="Q101" s="144"/>
-      <c r="R101" s="144"/>
-      <c r="S101" s="144"/>
-      <c r="T101" s="144"/>
-      <c r="U101" s="145"/>
+      <c r="P101" s="64"/>
+      <c r="Q101" s="65"/>
+      <c r="R101" s="65"/>
+      <c r="S101" s="65"/>
+      <c r="T101" s="65"/>
+      <c r="U101" s="66"/>
       <c r="W101" s="22"/>
       <c r="X101" s="22"/>
       <c r="Y101" s="22"/>
@@ -7203,64 +7216,64 @@
     </row>
     <row r="102" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="59" t="s">
-        <v>307</v>
-      </c>
-      <c r="C102" s="92"/>
-      <c r="D102" s="92"/>
-      <c r="E102" s="92"/>
-      <c r="F102" s="92"/>
+        <v>309</v>
+      </c>
+      <c r="C102" s="70"/>
+      <c r="D102" s="70"/>
+      <c r="E102" s="70"/>
+      <c r="F102" s="70"/>
       <c r="G102" s="60"/>
       <c r="H102" s="11"/>
       <c r="I102" s="59" t="s">
-        <v>310</v>
-      </c>
-      <c r="J102" s="92"/>
+        <v>312</v>
+      </c>
+      <c r="J102" s="70"/>
       <c r="K102" s="60"/>
       <c r="L102" s="59" t="s">
-        <v>311</v>
-      </c>
-      <c r="M102" s="92"/>
+        <v>313</v>
+      </c>
+      <c r="M102" s="70"/>
       <c r="N102" s="60"/>
-      <c r="P102" s="95"/>
-      <c r="Q102" s="96"/>
-      <c r="R102" s="96"/>
-      <c r="S102" s="96"/>
-      <c r="T102" s="96"/>
-      <c r="U102" s="97"/>
+      <c r="P102" s="67"/>
+      <c r="Q102" s="68"/>
+      <c r="R102" s="68"/>
+      <c r="S102" s="68"/>
+      <c r="T102" s="68"/>
+      <c r="U102" s="69"/>
       <c r="V102" s="11"/>
-      <c r="W102" s="144"/>
-      <c r="X102" s="144"/>
-      <c r="Y102" s="144"/>
-      <c r="Z102" s="144"/>
-      <c r="AA102" s="144"/>
-      <c r="AB102" s="144"/>
-    </row>
-    <row r="104" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="W102" s="65"/>
+      <c r="X102" s="65"/>
+      <c r="Y102" s="65"/>
+      <c r="Z102" s="65"/>
+      <c r="AA102" s="65"/>
+      <c r="AB102" s="65"/>
+    </row>
+    <row r="104" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="105" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="67" t="s">
-        <v>316</v>
-      </c>
-      <c r="C105" s="93"/>
-      <c r="D105" s="93"/>
-      <c r="E105" s="94"/>
-      <c r="F105" s="104" t="s">
-        <v>325</v>
-      </c>
-      <c r="G105" s="105"/>
-      <c r="H105" s="105"/>
-      <c r="I105" s="106"/>
-      <c r="J105" s="67" t="s">
+      <c r="B105" s="61" t="s">
         <v>318</v>
       </c>
-      <c r="K105" s="93"/>
-      <c r="L105" s="93"/>
-      <c r="M105" s="94"/>
+      <c r="C105" s="62"/>
+      <c r="D105" s="62"/>
+      <c r="E105" s="63"/>
+      <c r="F105" s="79" t="s">
+        <v>327</v>
+      </c>
+      <c r="G105" s="80"/>
+      <c r="H105" s="80"/>
+      <c r="I105" s="81"/>
+      <c r="J105" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="K105" s="62"/>
+      <c r="L105" s="62"/>
+      <c r="M105" s="63"/>
       <c r="O105" s="59" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P105" s="60"/>
       <c r="Q105" s="59" t="s">
@@ -7268,16 +7281,16 @@
       </c>
       <c r="R105" s="60"/>
       <c r="S105" s="59" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T105" s="60"/>
       <c r="U105" s="11"/>
-      <c r="V105" s="98" t="s">
-        <v>320</v>
-      </c>
-      <c r="W105" s="99"/>
-      <c r="X105" s="99"/>
-      <c r="Y105" s="100"/>
+      <c r="V105" s="130" t="s">
+        <v>322</v>
+      </c>
+      <c r="W105" s="131"/>
+      <c r="X105" s="131"/>
+      <c r="Y105" s="132"/>
       <c r="Z105" s="59" t="s">
         <v>27</v>
       </c>
@@ -7289,24 +7302,24 @@
       <c r="AD105" s="11"/>
     </row>
     <row r="106" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="95"/>
-      <c r="C106" s="96"/>
-      <c r="D106" s="96"/>
-      <c r="E106" s="97"/>
-      <c r="F106" s="107"/>
-      <c r="G106" s="108"/>
-      <c r="H106" s="108"/>
-      <c r="I106" s="109"/>
-      <c r="J106" s="95"/>
-      <c r="K106" s="96"/>
-      <c r="L106" s="96"/>
-      <c r="M106" s="97"/>
+      <c r="B106" s="67"/>
+      <c r="C106" s="68"/>
+      <c r="D106" s="68"/>
+      <c r="E106" s="69"/>
+      <c r="F106" s="82"/>
+      <c r="G106" s="83"/>
+      <c r="H106" s="83"/>
+      <c r="I106" s="84"/>
+      <c r="J106" s="67"/>
+      <c r="K106" s="68"/>
+      <c r="L106" s="68"/>
+      <c r="M106" s="69"/>
       <c r="O106" s="59" t="s">
         <v>18</v>
       </c>
       <c r="P106" s="60"/>
       <c r="Q106" s="59" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R106" s="60"/>
       <c r="S106" s="59" t="s">
@@ -7314,10 +7327,10 @@
       </c>
       <c r="T106" s="60"/>
       <c r="U106" s="11"/>
-      <c r="V106" s="101"/>
-      <c r="W106" s="102"/>
-      <c r="X106" s="102"/>
-      <c r="Y106" s="103"/>
+      <c r="V106" s="133"/>
+      <c r="W106" s="134"/>
+      <c r="X106" s="134"/>
+      <c r="Y106" s="135"/>
       <c r="Z106" s="59" t="s">
         <v>32</v>
       </c>
@@ -7329,26 +7342,26 @@
       <c r="AD106" s="11"/>
     </row>
     <row r="107" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="98" t="s">
+      <c r="B107" s="130" t="s">
+        <v>319</v>
+      </c>
+      <c r="C107" s="131"/>
+      <c r="D107" s="131"/>
+      <c r="E107" s="132"/>
+      <c r="F107" s="61" t="s">
         <v>317</v>
       </c>
-      <c r="C107" s="99"/>
-      <c r="D107" s="99"/>
-      <c r="E107" s="100"/>
-      <c r="F107" s="67" t="s">
-        <v>315</v>
-      </c>
-      <c r="G107" s="93"/>
-      <c r="H107" s="93"/>
-      <c r="I107" s="94"/>
-      <c r="J107" s="104" t="s">
-        <v>321</v>
-      </c>
-      <c r="K107" s="105"/>
-      <c r="L107" s="105"/>
-      <c r="M107" s="106"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="62"/>
+      <c r="I107" s="63"/>
+      <c r="J107" s="79" t="s">
+        <v>323</v>
+      </c>
+      <c r="K107" s="80"/>
+      <c r="L107" s="80"/>
+      <c r="M107" s="81"/>
       <c r="O107" s="59" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P107" s="60"/>
       <c r="Q107" s="59" t="s">
@@ -7356,71 +7369,71 @@
       </c>
       <c r="R107" s="60"/>
       <c r="S107" s="59" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="T107" s="60"/>
       <c r="U107" s="11"/>
-      <c r="V107" s="67" t="s">
-        <v>299</v>
-      </c>
-      <c r="W107" s="93"/>
-      <c r="X107" s="93"/>
-      <c r="Y107" s="93"/>
-      <c r="Z107" s="93"/>
-      <c r="AA107" s="93"/>
-      <c r="AB107" s="93"/>
-      <c r="AC107" s="94"/>
+      <c r="V107" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="W107" s="62"/>
+      <c r="X107" s="62"/>
+      <c r="Y107" s="62"/>
+      <c r="Z107" s="62"/>
+      <c r="AA107" s="62"/>
+      <c r="AB107" s="62"/>
+      <c r="AC107" s="63"/>
       <c r="AD107" s="11"/>
       <c r="AE107" s="11"/>
       <c r="AF107" s="11"/>
     </row>
     <row r="108" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="101"/>
-      <c r="C108" s="102"/>
-      <c r="D108" s="102"/>
-      <c r="E108" s="103"/>
-      <c r="F108" s="95"/>
-      <c r="G108" s="96"/>
-      <c r="H108" s="96"/>
-      <c r="I108" s="97"/>
-      <c r="J108" s="107"/>
-      <c r="K108" s="108"/>
-      <c r="L108" s="108"/>
-      <c r="M108" s="109"/>
+      <c r="B108" s="133"/>
+      <c r="C108" s="134"/>
+      <c r="D108" s="134"/>
+      <c r="E108" s="135"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="68"/>
+      <c r="H108" s="68"/>
+      <c r="I108" s="69"/>
+      <c r="J108" s="82"/>
+      <c r="K108" s="83"/>
+      <c r="L108" s="83"/>
+      <c r="M108" s="84"/>
       <c r="O108" s="59" t="s">
-        <v>319</v>
-      </c>
-      <c r="P108" s="92"/>
-      <c r="Q108" s="92"/>
-      <c r="R108" s="92"/>
-      <c r="S108" s="92"/>
+        <v>321</v>
+      </c>
+      <c r="P108" s="70"/>
+      <c r="Q108" s="70"/>
+      <c r="R108" s="70"/>
+      <c r="S108" s="70"/>
       <c r="T108" s="60"/>
       <c r="U108" s="11"/>
-      <c r="V108" s="95"/>
-      <c r="W108" s="96"/>
-      <c r="X108" s="96"/>
-      <c r="Y108" s="96"/>
-      <c r="Z108" s="96"/>
-      <c r="AA108" s="96"/>
-      <c r="AB108" s="96"/>
-      <c r="AC108" s="97"/>
+      <c r="V108" s="67"/>
+      <c r="W108" s="68"/>
+      <c r="X108" s="68"/>
+      <c r="Y108" s="68"/>
+      <c r="Z108" s="68"/>
+      <c r="AA108" s="68"/>
+      <c r="AB108" s="68"/>
+      <c r="AC108" s="69"/>
       <c r="AD108" s="11"/>
       <c r="AE108" s="11"/>
       <c r="AF108" s="11"/>
     </row>
-    <row r="110" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="B110" s="9"/>
     </row>
-    <row r="112" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="B112" s="9"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B114" s="9"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B116" s="9"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B118" s="9"/>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.3">
@@ -7520,68 +7533,601 @@
       <c r="B182" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
-    <mergeCell ref="R78:U78"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="J24:O24"/>
+  <mergeCells count="641">
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="W37:AC38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="T78:U78"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="O108:T108"/>
+    <mergeCell ref="B105:E106"/>
+    <mergeCell ref="B107:E108"/>
+    <mergeCell ref="J105:M106"/>
+    <mergeCell ref="J107:M108"/>
+    <mergeCell ref="V105:Y106"/>
+    <mergeCell ref="O107:P107"/>
+    <mergeCell ref="Q107:R107"/>
+    <mergeCell ref="S107:T107"/>
+    <mergeCell ref="O106:P106"/>
+    <mergeCell ref="Q106:R106"/>
+    <mergeCell ref="S106:T106"/>
+    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="Q105:R105"/>
+    <mergeCell ref="S105:T105"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:S20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="V87:W87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:S88"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="V88:W88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="P87:R87"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:S28"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="S27:U27"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:S42"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="J46:O46"/>
-    <mergeCell ref="J78:O78"/>
-    <mergeCell ref="J70:O70"/>
-    <mergeCell ref="J62:O62"/>
-    <mergeCell ref="J84:O84"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="P57:S57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="P65:S65"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="P73:S73"/>
-    <mergeCell ref="T73:U73"/>
-    <mergeCell ref="R62:U62"/>
-    <mergeCell ref="R70:U70"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="R32:U32"/>
-    <mergeCell ref="Z106:AA106"/>
-    <mergeCell ref="AB106:AC106"/>
-    <mergeCell ref="P100:U102"/>
-    <mergeCell ref="I95:K95"/>
-    <mergeCell ref="I102:K102"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="Z105:AA105"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="W102:AB102"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:S58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="V73:W73"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:S74"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="B37:H38"/>
+    <mergeCell ref="I37:O38"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="U81:V81"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="V70:W70"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
     <mergeCell ref="V107:AC108"/>
     <mergeCell ref="W35:AC36"/>
     <mergeCell ref="V41:W41"/>
@@ -7606,543 +8152,29 @@
     <mergeCell ref="I35:O36"/>
     <mergeCell ref="P35:V36"/>
     <mergeCell ref="AB105:AC105"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="S81:T81"/>
-    <mergeCell ref="U81:V81"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="V70:W70"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="V75:W75"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="V76:W76"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="B37:H38"/>
-    <mergeCell ref="I37:O38"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="V68:W68"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="P49:S49"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:S74"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="V74:W74"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="V73:W73"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:S66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:S58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:S42"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:S28"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="V87:W87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:S88"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="V88:W88"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="P87:S87"/>
-    <mergeCell ref="T87:U87"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:S20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="O108:T108"/>
-    <mergeCell ref="B105:E106"/>
-    <mergeCell ref="B107:E108"/>
-    <mergeCell ref="J105:M106"/>
-    <mergeCell ref="J107:M108"/>
-    <mergeCell ref="V105:Y106"/>
-    <mergeCell ref="O107:P107"/>
-    <mergeCell ref="Q107:R107"/>
-    <mergeCell ref="S107:T107"/>
-    <mergeCell ref="O106:P106"/>
-    <mergeCell ref="Q106:R106"/>
-    <mergeCell ref="S106:T106"/>
-    <mergeCell ref="O105:P105"/>
-    <mergeCell ref="Q105:R105"/>
-    <mergeCell ref="S105:T105"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="W37:AC38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="R54:U54"/>
+    <mergeCell ref="Z106:AA106"/>
+    <mergeCell ref="AB106:AC106"/>
+    <mergeCell ref="P100:U102"/>
+    <mergeCell ref="I95:K95"/>
+    <mergeCell ref="I102:K102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="Z105:AA105"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="W102:AB102"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="M99:N99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/docs/Keyboard Designs.xlsx
+++ b/docs/Keyboard Designs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="336">
   <si>
     <t>A</t>
   </si>
@@ -1016,6 +1016,18 @@
   </si>
   <si>
     <t>KEY</t>
+  </si>
+  <si>
+    <t>MKS</t>
+  </si>
+  <si>
+    <t>SIM KEY</t>
+  </si>
+  <si>
+    <t>π</t>
+  </si>
+  <si>
+    <t>∑</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1548,145 +1560,118 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1707,11 +1692,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1731,28 +1824,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1761,27 +1851,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1791,136 +1860,85 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2247,38 +2265,38 @@
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="52" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="52" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="52" t="s">
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="52" t="s">
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="46" t="s">
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="V3" s="47"/>
+      <c r="V3" s="25"/>
       <c r="Z3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
@@ -2296,36 +2314,36 @@
     </row>
     <row r="4" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="46" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="55" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="48" t="s">
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="T4" s="49"/>
-      <c r="U4" s="50" t="s">
+      <c r="T4" s="27"/>
+      <c r="U4" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="V4" s="51"/>
+      <c r="V4" s="29"/>
       <c r="Z4" s="4"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
@@ -2342,46 +2360,46 @@
       <c r="AQ4" s="7"/>
     </row>
     <row r="5" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28" t="s">
+      <c r="F5" s="55"/>
+      <c r="G5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="28" t="s">
+      <c r="H5" s="55"/>
+      <c r="I5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="28" t="s">
+      <c r="J5" s="55"/>
+      <c r="K5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="28" t="s">
+      <c r="L5" s="55"/>
+      <c r="M5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="29"/>
-      <c r="O5" s="28" t="s">
+      <c r="N5" s="55"/>
+      <c r="O5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="28" t="s">
+      <c r="P5" s="55"/>
+      <c r="Q5" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="29"/>
-      <c r="S5" s="28" t="s">
+      <c r="R5" s="55"/>
+      <c r="S5" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="29"/>
-      <c r="U5" s="24" t="s">
+      <c r="T5" s="55"/>
+      <c r="U5" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="25"/>
+      <c r="V5" s="57"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Z5" s="7"/>
@@ -2404,46 +2422,46 @@
     </row>
     <row r="6" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="26" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="24" t="s">
+      <c r="E6" s="47"/>
+      <c r="F6" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="24" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="24" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="24" t="s">
+      <c r="K6" s="47"/>
+      <c r="L6" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="24" t="s">
+      <c r="M6" s="47"/>
+      <c r="N6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="27"/>
-      <c r="P6" s="24" t="s">
+      <c r="O6" s="47"/>
+      <c r="P6" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="24" t="s">
+      <c r="Q6" s="47"/>
+      <c r="R6" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="27"/>
-      <c r="T6" s="24" t="s">
+      <c r="S6" s="47"/>
+      <c r="T6" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="27"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
       <c r="X6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
@@ -2463,46 +2481,46 @@
     </row>
     <row r="7" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="30" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30" t="s">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30" t="s">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30" t="s">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30" t="s">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30" t="s">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30" t="s">
+      <c r="O7" s="38"/>
+      <c r="P7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="31" t="s">
+      <c r="Q7" s="38"/>
+      <c r="R7" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="S7" s="31"/>
-      <c r="T7" s="33" t="s">
+      <c r="S7" s="56"/>
+      <c r="T7" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="34"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
       <c r="X7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -2520,38 +2538,38 @@
     </row>
     <row r="8" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="24" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="43" t="s">
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="43" t="s">
+      <c r="I8" s="52"/>
+      <c r="J8" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="43" t="s">
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="44"/>
-      <c r="P8" s="35" t="s">
+      <c r="O8" s="52"/>
+      <c r="P8" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="33" t="s">
+      <c r="Q8" s="42"/>
+      <c r="R8" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="34"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="40"/>
       <c r="X8" s="7"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
@@ -2601,17 +2619,29 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="G4:R4"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="S5:T5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="T7:U7"/>
@@ -2628,29 +2658,17 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="G4:R4"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2661,8 +2679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AW182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2671,57 +2689,57 @@
     <col min="33" max="49" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="81" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="52" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="52" t="s">
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="T3" s="53"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="46" t="s">
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="W3" s="47"/>
-      <c r="Z3" s="127" t="s">
+      <c r="U3" s="25"/>
+      <c r="V3" s="149" t="s">
+        <v>333</v>
+      </c>
+      <c r="W3" s="150"/>
+      <c r="Z3" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="129"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="92"/>
+      <c r="AC3" s="93"/>
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
@@ -2738,44 +2756,44 @@
     </row>
     <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="119" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="102" t="s">
+      <c r="C4" s="120"/>
+      <c r="D4" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="103"/>
-      <c r="F4" s="55" t="s">
+      <c r="E4" s="122"/>
+      <c r="F4" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="105" t="s">
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="U4" s="106"/>
-      <c r="V4" s="107" t="s">
-        <v>324</v>
-      </c>
-      <c r="W4" s="108"/>
-      <c r="Z4" s="137" t="s">
+      <c r="U4" s="80"/>
+      <c r="V4" s="81" t="s">
+        <v>332</v>
+      </c>
+      <c r="W4" s="82"/>
+      <c r="Z4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="138"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="71"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
@@ -2790,55 +2808,55 @@
       <c r="AS4" s="5"/>
       <c r="AT4" s="5"/>
     </row>
-    <row r="5" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="28" t="s">
+    <row r="5" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="28" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28" t="s">
+      <c r="F5" s="55"/>
+      <c r="G5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="28" t="s">
+      <c r="H5" s="55"/>
+      <c r="I5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="28" t="s">
+      <c r="J5" s="55"/>
+      <c r="K5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="28" t="s">
+      <c r="L5" s="55"/>
+      <c r="M5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="29"/>
-      <c r="O5" s="28" t="s">
+      <c r="N5" s="55"/>
+      <c r="O5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="28" t="s">
+      <c r="P5" s="55"/>
+      <c r="Q5" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="29"/>
-      <c r="S5" s="28" t="s">
+      <c r="R5" s="55"/>
+      <c r="S5" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="29"/>
-      <c r="U5" s="28" t="s">
+      <c r="T5" s="55"/>
+      <c r="U5" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="29"/>
+      <c r="V5" s="55"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
-      <c r="Z5" s="139" t="s">
+      <c r="Z5" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="AA5" s="140"/>
-      <c r="AB5" s="140"/>
-      <c r="AC5" s="141"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="74"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
@@ -2858,56 +2876,56 @@
     </row>
     <row r="6" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="134"/>
+      <c r="D6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30" t="s">
+      <c r="E6" s="38"/>
+      <c r="F6" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30" t="s">
+      <c r="G6" s="38"/>
+      <c r="H6" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30" t="s">
+      <c r="I6" s="38"/>
+      <c r="J6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30" t="s">
+      <c r="K6" s="38"/>
+      <c r="L6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30" t="s">
+      <c r="M6" s="38"/>
+      <c r="N6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30" t="s">
+      <c r="O6" s="38"/>
+      <c r="P6" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30" t="s">
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30" t="s">
+      <c r="S6" s="38"/>
+      <c r="T6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="30"/>
-      <c r="V6" s="43" t="s">
+      <c r="U6" s="38"/>
+      <c r="V6" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="W6" s="44"/>
-      <c r="Z6" s="142" t="s">
+      <c r="W6" s="52"/>
+      <c r="Z6" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="AA6" s="143"/>
-      <c r="AB6" s="143"/>
-      <c r="AC6" s="144"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="77"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
@@ -2927,50 +2945,50 @@
     </row>
     <row r="7" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30" t="s">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30" t="s">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30" t="s">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30" t="s">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30" t="s">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30" t="s">
+      <c r="O7" s="38"/>
+      <c r="P7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="31" t="s">
+      <c r="Q7" s="38"/>
+      <c r="R7" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="S7" s="31"/>
-      <c r="T7" s="33" t="s">
+      <c r="S7" s="56"/>
+      <c r="T7" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="34"/>
-      <c r="V7" s="33" t="s">
+      <c r="U7" s="40"/>
+      <c r="V7" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="W7" s="34"/>
+      <c r="W7" s="40"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="8"/>
       <c r="AH7" s="5"/>
@@ -2989,48 +3007,48 @@
     </row>
     <row r="8" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91" t="s">
+      <c r="C8" s="114"/>
+      <c r="D8" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91" t="s">
+      <c r="E8" s="114"/>
+      <c r="F8" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="91"/>
-      <c r="H8" s="43" t="s">
+      <c r="G8" s="114"/>
+      <c r="H8" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="43" t="s">
+      <c r="I8" s="52"/>
+      <c r="J8" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="43" t="s">
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="44"/>
-      <c r="P8" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="148" t="s">
+      <c r="O8" s="52"/>
+      <c r="P8" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="S8" s="148"/>
-      <c r="T8" s="41" t="s">
+      <c r="S8" s="59"/>
+      <c r="T8" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="U8" s="34"/>
-      <c r="V8" s="33" t="s">
+      <c r="U8" s="40"/>
+      <c r="V8" s="39" t="s">
         <v>298</v>
       </c>
-      <c r="W8" s="34"/>
+      <c r="W8" s="40"/>
       <c r="X8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="8"/>
@@ -3083,51 +3101,51 @@
       <c r="AV9" s="5"/>
       <c r="AW9" s="5"/>
     </row>
-    <row r="10" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="81" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" s="82"/>
+      <c r="D11" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="52" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="52" t="s">
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="K11" s="53"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="52" t="s">
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="N11" s="53"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="T11" s="53"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="46" t="s">
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="W11" s="47"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="149" t="s">
+        <v>333</v>
+      </c>
+      <c r="W11" s="150"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="8"/>
       <c r="AH11" s="5"/>
@@ -3148,38 +3166,38 @@
     </row>
     <row r="12" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="119" t="s">
         <v>205</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="102" t="s">
+      <c r="C12" s="120"/>
+      <c r="D12" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="103"/>
-      <c r="F12" s="55" t="s">
+      <c r="E12" s="122"/>
+      <c r="F12" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="104"/>
-      <c r="T12" s="105" t="s">
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="123"/>
+      <c r="T12" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="U12" s="106"/>
-      <c r="V12" s="107" t="s">
-        <v>324</v>
-      </c>
-      <c r="W12" s="108"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="81" t="s">
+        <v>332</v>
+      </c>
+      <c r="W12" s="82"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="8"/>
       <c r="AH12" s="5"/>
@@ -3199,50 +3217,50 @@
       <c r="AV12" s="5"/>
     </row>
     <row r="13" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="122">
+      <c r="B13" s="115">
         <v>1</v>
       </c>
-      <c r="C13" s="123"/>
-      <c r="D13" s="122">
+      <c r="C13" s="116"/>
+      <c r="D13" s="115">
         <v>2</v>
       </c>
-      <c r="E13" s="123"/>
-      <c r="F13" s="28">
+      <c r="E13" s="116"/>
+      <c r="F13" s="54">
         <v>3</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="124">
+      <c r="G13" s="55"/>
+      <c r="H13" s="117">
         <v>4</v>
       </c>
-      <c r="I13" s="125"/>
-      <c r="J13" s="28">
+      <c r="I13" s="118"/>
+      <c r="J13" s="54">
         <v>5</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="28">
+      <c r="K13" s="55"/>
+      <c r="L13" s="54">
         <v>6</v>
       </c>
-      <c r="M13" s="29"/>
-      <c r="N13" s="28">
+      <c r="M13" s="55"/>
+      <c r="N13" s="54">
         <v>7</v>
       </c>
-      <c r="O13" s="29"/>
-      <c r="P13" s="28">
+      <c r="O13" s="55"/>
+      <c r="P13" s="54">
         <v>8</v>
       </c>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="28">
+      <c r="Q13" s="55"/>
+      <c r="R13" s="54">
         <v>9</v>
       </c>
-      <c r="S13" s="29"/>
-      <c r="T13" s="28">
+      <c r="S13" s="55"/>
+      <c r="T13" s="54">
         <v>0</v>
       </c>
-      <c r="U13" s="29"/>
-      <c r="V13" s="30" t="s">
+      <c r="U13" s="55"/>
+      <c r="V13" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="W13" s="30"/>
+      <c r="W13" s="38"/>
       <c r="X13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="8"/>
@@ -3265,50 +3283,50 @@
     </row>
     <row r="14" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="115" t="s">
+      <c r="C14" s="132"/>
+      <c r="D14" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="116"/>
-      <c r="F14" s="111" t="s">
+      <c r="E14" s="132"/>
+      <c r="F14" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="111"/>
-      <c r="H14" s="117" t="s">
+      <c r="G14" s="127"/>
+      <c r="H14" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111" t="s">
+      <c r="I14" s="127"/>
+      <c r="J14" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111" t="s">
+      <c r="K14" s="127"/>
+      <c r="L14" s="127" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="111"/>
-      <c r="N14" s="112" t="s">
+      <c r="M14" s="127"/>
+      <c r="N14" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="O14" s="113"/>
-      <c r="P14" s="112" t="s">
+      <c r="O14" s="129"/>
+      <c r="P14" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="112" t="s">
+      <c r="Q14" s="129"/>
+      <c r="R14" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="S14" s="113"/>
-      <c r="T14" s="112" t="s">
+      <c r="S14" s="129"/>
+      <c r="T14" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="U14" s="113"/>
-      <c r="V14" s="114" t="s">
+      <c r="U14" s="129"/>
+      <c r="V14" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="W14" s="114"/>
+      <c r="W14" s="130"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AH14" s="5"/>
@@ -3330,50 +3348,50 @@
     </row>
     <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="38"/>
+      <c r="D15" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30" t="s">
+      <c r="E15" s="38"/>
+      <c r="F15" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="110" t="s">
+      <c r="G15" s="38"/>
+      <c r="H15" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="38"/>
+      <c r="J15" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="110" t="s">
+      <c r="K15" s="38"/>
+      <c r="L15" s="125" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="30"/>
-      <c r="N15" s="110" t="s">
+      <c r="M15" s="38"/>
+      <c r="N15" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30" t="s">
+      <c r="O15" s="38"/>
+      <c r="P15" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="31" t="s">
+      <c r="Q15" s="38"/>
+      <c r="R15" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31" t="s">
+      <c r="S15" s="56"/>
+      <c r="T15" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31" t="s">
+      <c r="U15" s="56"/>
+      <c r="V15" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="W15" s="31"/>
+      <c r="W15" s="56"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
@@ -3400,48 +3418,48 @@
     </row>
     <row r="16" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91" t="s">
+      <c r="C16" s="114"/>
+      <c r="D16" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91" t="s">
+      <c r="E16" s="114"/>
+      <c r="F16" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="91"/>
-      <c r="H16" s="96" t="s">
+      <c r="G16" s="114"/>
+      <c r="H16" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="96"/>
-      <c r="J16" s="43" t="s">
+      <c r="I16" s="124"/>
+      <c r="J16" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="43" t="s">
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="44"/>
-      <c r="P16" s="77" t="s">
+      <c r="O16" s="52"/>
+      <c r="P16" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="146"/>
-      <c r="R16" s="148" t="s">
+      <c r="Q16" s="84"/>
+      <c r="R16" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="S16" s="148"/>
-      <c r="T16" s="41" t="s">
+      <c r="S16" s="59"/>
+      <c r="T16" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="U16" s="34"/>
-      <c r="V16" s="33" t="s">
+      <c r="U16" s="40"/>
+      <c r="V16" s="39" t="s">
         <v>298</v>
       </c>
-      <c r="W16" s="34"/>
+      <c r="W16" s="40"/>
       <c r="X16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="8"/>
@@ -3501,51 +3519,51 @@
       <c r="AV17" s="5"/>
       <c r="AW17" s="5"/>
     </row>
-    <row r="18" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="81" t="s">
+        <v>324</v>
+      </c>
+      <c r="C19" s="82"/>
+      <c r="D19" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="52" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="52" t="s">
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="K19" s="53"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="52" t="s">
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="T19" s="53"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="46" t="s">
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="W19" s="47"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="149" t="s">
+        <v>333</v>
+      </c>
+      <c r="W19" s="150"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="8"/>
@@ -3573,38 +3591,38 @@
     </row>
     <row r="20" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="119" t="s">
         <v>205</v>
       </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="102" t="s">
+      <c r="C20" s="120"/>
+      <c r="D20" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="E20" s="103"/>
-      <c r="F20" s="55" t="s">
+      <c r="E20" s="122"/>
+      <c r="F20" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="104"/>
-      <c r="T20" s="105" t="s">
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="123"/>
+      <c r="T20" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="U20" s="106"/>
-      <c r="V20" s="107" t="s">
-        <v>324</v>
-      </c>
-      <c r="W20" s="108"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="81" t="s">
+        <v>332</v>
+      </c>
+      <c r="W20" s="82"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="8"/>
@@ -3631,50 +3649,50 @@
       <c r="AV20" s="5"/>
     </row>
     <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="24" t="s">
+      <c r="C21" s="47"/>
+      <c r="D21" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="24" t="s">
+      <c r="E21" s="47"/>
+      <c r="F21" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="98" t="s">
+      <c r="G21" s="47"/>
+      <c r="H21" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="99"/>
-      <c r="J21" s="24" t="s">
+      <c r="I21" s="113"/>
+      <c r="J21" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="K21" s="27"/>
-      <c r="L21" s="98" t="s">
+      <c r="K21" s="47"/>
+      <c r="L21" s="112" t="s">
         <v>126</v>
       </c>
-      <c r="M21" s="99"/>
-      <c r="N21" s="24" t="s">
+      <c r="M21" s="113"/>
+      <c r="N21" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="O21" s="27"/>
-      <c r="P21" s="24" t="s">
+      <c r="O21" s="47"/>
+      <c r="P21" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="24" t="s">
+      <c r="Q21" s="47"/>
+      <c r="R21" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="S21" s="27"/>
-      <c r="T21" s="24" t="s">
+      <c r="S21" s="47"/>
+      <c r="T21" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="U21" s="27"/>
-      <c r="V21" s="30" t="s">
+      <c r="U21" s="47"/>
+      <c r="V21" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="W21" s="30"/>
+      <c r="W21" s="38"/>
       <c r="X21" s="5"/>
       <c r="AT21" s="5"/>
       <c r="AU21" s="5"/>
@@ -3683,50 +3701,50 @@
     </row>
     <row r="22" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30" t="s">
+      <c r="C22" s="38"/>
+      <c r="D22" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30" t="s">
+      <c r="E22" s="38"/>
+      <c r="F22" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30" t="s">
+      <c r="G22" s="38"/>
+      <c r="H22" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30" t="s">
+      <c r="I22" s="38"/>
+      <c r="J22" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30" t="s">
+      <c r="K22" s="38"/>
+      <c r="L22" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="M22" s="30"/>
-      <c r="N22" s="97" t="s">
+      <c r="M22" s="38"/>
+      <c r="N22" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="O22" s="97"/>
-      <c r="P22" s="30" t="s">
+      <c r="O22" s="126"/>
+      <c r="P22" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30" t="s">
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30" t="s">
+      <c r="S22" s="38"/>
+      <c r="T22" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="U22" s="30"/>
-      <c r="V22" s="96" t="s">
+      <c r="U22" s="38"/>
+      <c r="V22" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="W22" s="96"/>
+      <c r="W22" s="124"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
@@ -3747,50 +3765,50 @@
     </row>
     <row r="23" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30" t="s">
+      <c r="C23" s="38"/>
+      <c r="D23" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="24" t="s">
+      <c r="E23" s="38"/>
+      <c r="F23" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="24" t="s">
+      <c r="G23" s="47"/>
+      <c r="H23" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="30" t="s">
+      <c r="I23" s="47"/>
+      <c r="J23" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30" t="s">
+      <c r="K23" s="38"/>
+      <c r="L23" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30" t="s">
+      <c r="M23" s="38"/>
+      <c r="N23" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="31" t="s">
+      <c r="Q23" s="38"/>
+      <c r="R23" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31" t="s">
+      <c r="S23" s="56"/>
+      <c r="T23" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31" t="s">
+      <c r="U23" s="56"/>
+      <c r="V23" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="W23" s="31"/>
+      <c r="W23" s="56"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="8"/>
@@ -3814,48 +3832,48 @@
     </row>
     <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91" t="s">
+      <c r="C24" s="114"/>
+      <c r="D24" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91" t="s">
+      <c r="E24" s="114"/>
+      <c r="F24" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="91"/>
-      <c r="H24" s="97" t="s">
+      <c r="G24" s="114"/>
+      <c r="H24" s="126" t="s">
         <v>131</v>
       </c>
-      <c r="I24" s="97"/>
-      <c r="J24" s="43" t="s">
+      <c r="I24" s="126"/>
+      <c r="J24" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="97" t="s">
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="O24" s="97"/>
-      <c r="P24" s="30" t="s">
+      <c r="O24" s="126"/>
+      <c r="P24" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="148" t="s">
+      <c r="Q24" s="38"/>
+      <c r="R24" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="S24" s="148"/>
-      <c r="T24" s="41" t="s">
+      <c r="S24" s="59"/>
+      <c r="T24" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="U24" s="34"/>
-      <c r="V24" s="33" t="s">
+      <c r="U24" s="40"/>
+      <c r="V24" s="39" t="s">
         <v>298</v>
       </c>
-      <c r="W24" s="34"/>
+      <c r="W24" s="40"/>
       <c r="X24" s="5"/>
       <c r="AE24" s="8"/>
       <c r="AF24" s="8"/>
@@ -3912,51 +3930,51 @@
       <c r="AV25" s="5"/>
       <c r="AW25" s="5"/>
     </row>
-    <row r="26" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="81" t="s">
+        <v>324</v>
+      </c>
+      <c r="C27" s="82"/>
+      <c r="D27" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="52" t="s">
+      <c r="E27" s="25"/>
+      <c r="F27" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="52" t="s">
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="52" t="s">
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="K27" s="53"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="52" t="s">
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="N27" s="53"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="T27" s="53"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="46" t="s">
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="W27" s="47"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="149" t="s">
+        <v>333</v>
+      </c>
+      <c r="W27" s="150"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="8"/>
@@ -3984,38 +4002,38 @@
     </row>
     <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="119" t="s">
         <v>205</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="102" t="s">
+      <c r="C28" s="120"/>
+      <c r="D28" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="103"/>
-      <c r="F28" s="55" t="s">
+      <c r="E28" s="122"/>
+      <c r="F28" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="104"/>
-      <c r="T28" s="105" t="s">
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="123"/>
+      <c r="T28" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="U28" s="106"/>
-      <c r="V28" s="107" t="s">
-        <v>324</v>
-      </c>
-      <c r="W28" s="108"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="81" t="s">
+        <v>332</v>
+      </c>
+      <c r="W28" s="82"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="8"/>
@@ -4042,50 +4060,50 @@
       <c r="AV28" s="6"/>
     </row>
     <row r="29" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="28" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="28" t="s">
+      <c r="E29" s="55"/>
+      <c r="F29" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="100" t="s">
+      <c r="G29" s="55"/>
+      <c r="H29" s="135" t="s">
         <v>145</v>
       </c>
-      <c r="I29" s="101"/>
-      <c r="J29" s="28" t="s">
+      <c r="I29" s="136"/>
+      <c r="J29" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="100" t="s">
+      <c r="K29" s="55"/>
+      <c r="L29" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="M29" s="101"/>
-      <c r="N29" s="28" t="s">
+      <c r="M29" s="136"/>
+      <c r="N29" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="O29" s="29"/>
-      <c r="P29" s="28" t="s">
+      <c r="O29" s="55"/>
+      <c r="P29" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="28" t="s">
+      <c r="Q29" s="55"/>
+      <c r="R29" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="S29" s="29"/>
-      <c r="T29" s="28" t="s">
+      <c r="S29" s="55"/>
+      <c r="T29" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="U29" s="29"/>
-      <c r="V29" s="28" t="s">
+      <c r="U29" s="55"/>
+      <c r="V29" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="W29" s="29"/>
+      <c r="W29" s="55"/>
       <c r="X29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
@@ -4094,50 +4112,50 @@
     </row>
     <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="24" t="s">
+      <c r="C30" s="47"/>
+      <c r="D30" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="24" t="s">
+      <c r="E30" s="47"/>
+      <c r="F30" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="98" t="s">
+      <c r="G30" s="47"/>
+      <c r="H30" s="112" t="s">
         <v>115</v>
       </c>
-      <c r="I30" s="99"/>
-      <c r="J30" s="24" t="s">
+      <c r="I30" s="113"/>
+      <c r="J30" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="K30" s="27"/>
-      <c r="L30" s="98" t="s">
+      <c r="K30" s="47"/>
+      <c r="L30" s="112" t="s">
         <v>156</v>
       </c>
-      <c r="M30" s="99"/>
-      <c r="N30" s="24" t="s">
+      <c r="M30" s="113"/>
+      <c r="N30" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="O30" s="27"/>
-      <c r="P30" s="24" t="s">
+      <c r="O30" s="47"/>
+      <c r="P30" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="30" t="s">
+      <c r="Q30" s="47"/>
+      <c r="R30" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30" t="s">
+      <c r="S30" s="38"/>
+      <c r="T30" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="U30" s="30"/>
-      <c r="V30" s="96" t="s">
+      <c r="U30" s="38"/>
+      <c r="V30" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="W30" s="96"/>
+      <c r="W30" s="124"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -4158,50 +4176,50 @@
     </row>
     <row r="31" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30" t="s">
+      <c r="C31" s="38"/>
+      <c r="D31" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30" t="s">
+      <c r="G31" s="38"/>
+      <c r="H31" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30" t="s">
+      <c r="I31" s="38"/>
+      <c r="J31" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="24" t="s">
+      <c r="K31" s="38"/>
+      <c r="L31" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="M31" s="27"/>
-      <c r="N31" s="24" t="s">
+      <c r="M31" s="47"/>
+      <c r="N31" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="O31" s="27"/>
-      <c r="P31" s="24" t="s">
+      <c r="O31" s="47"/>
+      <c r="P31" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="31" t="s">
+      <c r="Q31" s="47"/>
+      <c r="R31" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31" t="s">
+      <c r="S31" s="56"/>
+      <c r="T31" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31" t="s">
+      <c r="U31" s="56"/>
+      <c r="V31" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="W31" s="31"/>
+      <c r="W31" s="56"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="8"/>
@@ -4229,48 +4247,48 @@
     </row>
     <row r="32" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91" t="s">
+      <c r="C32" s="114"/>
+      <c r="D32" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91" t="s">
+      <c r="E32" s="114"/>
+      <c r="F32" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="91"/>
-      <c r="H32" s="97" t="s">
+      <c r="G32" s="114"/>
+      <c r="H32" s="126" t="s">
         <v>169</v>
       </c>
-      <c r="I32" s="97"/>
-      <c r="J32" s="43" t="s">
+      <c r="I32" s="126"/>
+      <c r="J32" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="97" t="s">
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="O32" s="97"/>
-      <c r="P32" s="97" t="s">
+      <c r="O32" s="126"/>
+      <c r="P32" s="126" t="s">
         <v>168</v>
       </c>
-      <c r="Q32" s="97"/>
-      <c r="R32" s="148" t="s">
+      <c r="Q32" s="126"/>
+      <c r="R32" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="S32" s="148"/>
-      <c r="T32" s="41" t="s">
+      <c r="S32" s="59"/>
+      <c r="T32" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="U32" s="34"/>
-      <c r="V32" s="33" t="s">
+      <c r="U32" s="40"/>
+      <c r="V32" s="39" t="s">
         <v>298</v>
       </c>
-      <c r="W32" s="34"/>
+      <c r="W32" s="40"/>
       <c r="X32" s="6"/>
       <c r="AE32" s="8"/>
       <c r="AF32" s="8"/>
@@ -4334,42 +4352,42 @@
     </row>
     <row r="35" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="77" t="s">
+      <c r="B35" s="83" t="s">
         <v>328</v>
       </c>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="77" t="s">
+      <c r="C35" s="138"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="138"/>
+      <c r="F35" s="138"/>
+      <c r="G35" s="138"/>
+      <c r="H35" s="138"/>
+      <c r="I35" s="83" t="s">
         <v>295</v>
       </c>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="78"/>
-      <c r="O35" s="78"/>
-      <c r="P35" s="71" t="s">
+      <c r="J35" s="138"/>
+      <c r="K35" s="138"/>
+      <c r="L35" s="138"/>
+      <c r="M35" s="138"/>
+      <c r="N35" s="138"/>
+      <c r="O35" s="138"/>
+      <c r="P35" s="62" t="s">
         <v>296</v>
       </c>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="72"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="73"/>
-      <c r="W35" s="71" t="s">
+      <c r="Q35" s="63"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="63"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="X35" s="72"/>
-      <c r="Y35" s="72"/>
-      <c r="Z35" s="72"/>
-      <c r="AA35" s="72"/>
-      <c r="AB35" s="72"/>
-      <c r="AC35" s="73"/>
+      <c r="X35" s="63"/>
+      <c r="Y35" s="63"/>
+      <c r="Z35" s="63"/>
+      <c r="AA35" s="63"/>
+      <c r="AB35" s="63"/>
+      <c r="AC35" s="64"/>
       <c r="AF35" s="8"/>
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
@@ -4388,34 +4406,34 @@
     </row>
     <row r="36" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="75"/>
-      <c r="R36" s="75"/>
-      <c r="S36" s="75"/>
-      <c r="T36" s="75"/>
-      <c r="U36" s="75"/>
-      <c r="V36" s="76"/>
-      <c r="W36" s="74"/>
-      <c r="X36" s="75"/>
-      <c r="Y36" s="75"/>
-      <c r="Z36" s="75"/>
-      <c r="AA36" s="75"/>
-      <c r="AB36" s="75"/>
-      <c r="AC36" s="76"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="138"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="138"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="138"/>
+      <c r="H36" s="138"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="138"/>
+      <c r="K36" s="138"/>
+      <c r="L36" s="138"/>
+      <c r="M36" s="138"/>
+      <c r="N36" s="138"/>
+      <c r="O36" s="138"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="66"/>
+      <c r="R36" s="66"/>
+      <c r="S36" s="66"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="66"/>
+      <c r="V36" s="67"/>
+      <c r="W36" s="65"/>
+      <c r="X36" s="66"/>
+      <c r="Y36" s="66"/>
+      <c r="Z36" s="66"/>
+      <c r="AA36" s="66"/>
+      <c r="AB36" s="66"/>
+      <c r="AC36" s="67"/>
       <c r="AF36" s="8"/>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
@@ -4434,42 +4452,42 @@
     </row>
     <row r="37" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="78" t="s">
+      <c r="B37" s="138" t="s">
         <v>299</v>
       </c>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78" t="s">
+      <c r="C37" s="138"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="138"/>
+      <c r="F37" s="138"/>
+      <c r="G37" s="138"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="138" t="s">
         <v>329</v>
       </c>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
-      <c r="P37" s="71" t="s">
+      <c r="J37" s="138"/>
+      <c r="K37" s="138"/>
+      <c r="L37" s="138"/>
+      <c r="M37" s="138"/>
+      <c r="N37" s="138"/>
+      <c r="O37" s="138"/>
+      <c r="P37" s="62" t="s">
         <v>330</v>
       </c>
-      <c r="Q37" s="72"/>
-      <c r="R37" s="72"/>
-      <c r="S37" s="72"/>
-      <c r="T37" s="72"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="73"/>
-      <c r="W37" s="71" t="s">
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="64"/>
+      <c r="W37" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="X37" s="72"/>
-      <c r="Y37" s="72"/>
-      <c r="Z37" s="72"/>
-      <c r="AA37" s="72"/>
-      <c r="AB37" s="72"/>
-      <c r="AC37" s="73"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63"/>
+      <c r="Z37" s="63"/>
+      <c r="AA37" s="63"/>
+      <c r="AB37" s="63"/>
+      <c r="AC37" s="64"/>
       <c r="AD37" s="8"/>
       <c r="AE37" s="8"/>
       <c r="AF37" s="8"/>
@@ -4490,34 +4508,34 @@
     </row>
     <row r="38" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="78"/>
-      <c r="P38" s="74"/>
-      <c r="Q38" s="75"/>
-      <c r="R38" s="75"/>
-      <c r="S38" s="75"/>
-      <c r="T38" s="75"/>
-      <c r="U38" s="75"/>
-      <c r="V38" s="76"/>
-      <c r="W38" s="74"/>
-      <c r="X38" s="75"/>
-      <c r="Y38" s="75"/>
-      <c r="Z38" s="75"/>
-      <c r="AA38" s="75"/>
-      <c r="AB38" s="75"/>
-      <c r="AC38" s="76"/>
+      <c r="B38" s="138"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="138"/>
+      <c r="F38" s="138"/>
+      <c r="G38" s="138"/>
+      <c r="H38" s="138"/>
+      <c r="I38" s="138"/>
+      <c r="J38" s="138"/>
+      <c r="K38" s="138"/>
+      <c r="L38" s="138"/>
+      <c r="M38" s="138"/>
+      <c r="N38" s="138"/>
+      <c r="O38" s="138"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="66"/>
+      <c r="T38" s="66"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="67"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="66"/>
+      <c r="Y38" s="66"/>
+      <c r="Z38" s="66"/>
+      <c r="AA38" s="66"/>
+      <c r="AB38" s="66"/>
+      <c r="AC38" s="67"/>
       <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
@@ -4573,51 +4591,51 @@
       <c r="AV39" s="6"/>
       <c r="AW39" s="6"/>
     </row>
-    <row r="40" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="81" t="s">
+        <v>324</v>
+      </c>
+      <c r="C41" s="82"/>
+      <c r="D41" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="52" t="s">
+      <c r="E41" s="25"/>
+      <c r="F41" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="E41" s="53"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="52" t="s">
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="H41" s="53"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="52" t="s">
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="K41" s="53"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="52" t="s">
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="N41" s="53"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="54"/>
-      <c r="S41" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="T41" s="53"/>
-      <c r="U41" s="54"/>
-      <c r="V41" s="46" t="s">
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="W41" s="47"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="149" t="s">
+        <v>333</v>
+      </c>
+      <c r="W41" s="150"/>
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
       <c r="AA41" s="8"/>
@@ -4645,38 +4663,38 @@
     </row>
     <row r="42" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
-      <c r="B42" s="93" t="s">
+      <c r="B42" s="119" t="s">
         <v>205</v>
       </c>
-      <c r="C42" s="94"/>
-      <c r="D42" s="102" t="s">
+      <c r="C42" s="120"/>
+      <c r="D42" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="E42" s="103"/>
-      <c r="F42" s="55" t="s">
+      <c r="E42" s="122"/>
+      <c r="F42" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="104"/>
-      <c r="T42" s="105" t="s">
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="123"/>
+      <c r="T42" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="U42" s="106"/>
-      <c r="V42" s="107" t="s">
-        <v>324</v>
-      </c>
-      <c r="W42" s="108"/>
+      <c r="U42" s="80"/>
+      <c r="V42" s="81" t="s">
+        <v>332</v>
+      </c>
+      <c r="W42" s="82"/>
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
       <c r="AA42" s="8"/>
@@ -4703,50 +4721,50 @@
       <c r="AV42" s="6"/>
     </row>
     <row r="43" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="47"/>
+      <c r="D43" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="47"/>
+      <c r="F43" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="G43" s="27"/>
-      <c r="H43" s="98" t="s">
+      <c r="G43" s="47"/>
+      <c r="H43" s="112" t="s">
         <v>173</v>
       </c>
-      <c r="I43" s="99"/>
-      <c r="J43" s="24" t="s">
+      <c r="I43" s="113"/>
+      <c r="J43" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="K43" s="27"/>
-      <c r="L43" s="98" t="s">
+      <c r="K43" s="47"/>
+      <c r="L43" s="112" t="s">
         <v>174</v>
       </c>
-      <c r="M43" s="99"/>
-      <c r="N43" s="24" t="s">
+      <c r="M43" s="113"/>
+      <c r="N43" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="O43" s="27"/>
-      <c r="P43" s="24" t="s">
+      <c r="O43" s="47"/>
+      <c r="P43" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="24" t="s">
+      <c r="Q43" s="47"/>
+      <c r="R43" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="S43" s="27"/>
-      <c r="T43" s="24" t="s">
+      <c r="S43" s="47"/>
+      <c r="T43" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="U43" s="27"/>
-      <c r="V43" s="30" t="s">
+      <c r="U43" s="47"/>
+      <c r="V43" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="W43" s="30"/>
+      <c r="W43" s="38"/>
       <c r="X43" s="6"/>
       <c r="AT43" s="6"/>
       <c r="AU43" s="6"/>
@@ -4755,50 +4773,50 @@
     </row>
     <row r="44" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30" t="s">
+      <c r="C44" s="38"/>
+      <c r="D44" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30" t="s">
+      <c r="E44" s="38"/>
+      <c r="F44" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30" t="s">
+      <c r="G44" s="38"/>
+      <c r="H44" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30" t="s">
+      <c r="I44" s="38"/>
+      <c r="J44" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30" t="s">
+      <c r="K44" s="38"/>
+      <c r="L44" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="M44" s="30"/>
-      <c r="N44" s="97" t="s">
+      <c r="M44" s="38"/>
+      <c r="N44" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="O44" s="97"/>
-      <c r="P44" s="30" t="s">
+      <c r="O44" s="126"/>
+      <c r="P44" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30" t="s">
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30" t="s">
+      <c r="S44" s="38"/>
+      <c r="T44" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="U44" s="30"/>
-      <c r="V44" s="96" t="s">
+      <c r="U44" s="38"/>
+      <c r="V44" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="W44" s="96"/>
+      <c r="W44" s="124"/>
       <c r="AA44" s="8"/>
       <c r="AB44" s="8"/>
       <c r="AC44" s="8"/>
@@ -4819,50 +4837,50 @@
     </row>
     <row r="45" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30" t="s">
+      <c r="C45" s="38"/>
+      <c r="D45" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30" t="s">
+      <c r="E45" s="38"/>
+      <c r="F45" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30" t="s">
+      <c r="G45" s="38"/>
+      <c r="H45" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30" t="s">
+      <c r="I45" s="38"/>
+      <c r="J45" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30" t="s">
+      <c r="K45" s="38"/>
+      <c r="L45" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30" t="s">
+      <c r="M45" s="38"/>
+      <c r="N45" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30" t="s">
+      <c r="O45" s="38"/>
+      <c r="P45" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="147" t="s">
+      <c r="Q45" s="38"/>
+      <c r="R45" s="137" t="s">
         <v>103</v>
       </c>
-      <c r="S45" s="147"/>
-      <c r="T45" s="31" t="s">
+      <c r="S45" s="137"/>
+      <c r="T45" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="U45" s="31"/>
-      <c r="V45" s="31" t="s">
+      <c r="U45" s="56"/>
+      <c r="V45" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="W45" s="31"/>
+      <c r="W45" s="56"/>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
       <c r="AA45" s="8"/>
@@ -4890,48 +4908,48 @@
     </row>
     <row r="46" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="91" t="s">
+      <c r="B46" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="91"/>
-      <c r="D46" s="91" t="s">
+      <c r="C46" s="114"/>
+      <c r="D46" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="91"/>
-      <c r="F46" s="91" t="s">
+      <c r="E46" s="114"/>
+      <c r="F46" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="91"/>
-      <c r="H46" s="97" t="s">
+      <c r="G46" s="114"/>
+      <c r="H46" s="126" t="s">
         <v>193</v>
       </c>
-      <c r="I46" s="97"/>
-      <c r="J46" s="43" t="s">
+      <c r="I46" s="126"/>
+      <c r="J46" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="97" t="s">
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="126" t="s">
         <v>194</v>
       </c>
-      <c r="O46" s="97"/>
-      <c r="P46" s="30" t="s">
+      <c r="O46" s="126"/>
+      <c r="P46" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="148" t="s">
+      <c r="Q46" s="45"/>
+      <c r="R46" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="S46" s="148"/>
-      <c r="T46" s="41" t="s">
+      <c r